--- a/eResidue_CV_eDocs/bin/Test Data/eResidue_eDocs_TestCase_result.xlsx
+++ b/eResidue_CV_eDocs/bin/Test Data/eResidue_eDocs_TestCase_result.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="243">
   <si>
     <t>Testcase_id</t>
   </si>
@@ -804,12 +804,28 @@
     <t>Rinse Volume</t>
   </si>
   <si>
+    <t>Actual L4c</t>
+  </si>
+  <si>
+    <t>Expected L4a</t>
+  </si>
+  <si>
+    <t>Expected L4b</t>
+  </si>
+  <si>
+    <t>Expected L4c</t>
+  </si>
+  <si>
+    <t>L4, L4b, L4c Individual Equipment Result for Each current Product</t>
+  </si>
+  <si>
+    <t>Current Product with
+Active Name</t>
+  </si>
+  <si>
     <t>P1 active1</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>P2 active2</t>
   </si>
   <si>
@@ -825,19 +841,7 @@
     <t>P4 active2</t>
   </si>
   <si>
-    <t>Actual L4c</t>
-  </si>
-  <si>
-    <t>Expected L4a</t>
-  </si>
-  <si>
-    <t>Expected L4b</t>
-  </si>
-  <si>
-    <t>Expected L4c</t>
-  </si>
-  <si>
-    <t>L4, L4b, L4c Individual Equipment Result for Each current Product</t>
+    <t>P6</t>
   </si>
 </sst>
 </file>
@@ -847,7 +851,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="127" x14ac:knownFonts="1">
+  <fonts count="148" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1528,21 +1532,9 @@
     </font>
     <font>
       <sz val="18"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="18"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1550,6 +1542,121 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="15">
@@ -1748,7 +1855,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="378">
+  <cellXfs count="400">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2218,24 +2325,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="123" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="124" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="125" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2262,20 +2352,11 @@
     <xf numFmtId="3" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="122" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="122" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="25" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2313,53 +2394,24 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="16" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="25" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2369,23 +2421,23 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2408,50 +2460,139 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="25" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="16" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="25" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="25" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="25" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="25" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="126" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="3" fontId="25" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="25" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="74" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="79" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="83" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="25" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5041,15 +5182,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="39" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="F1" s="360" t="s">
+      <c r="F1" s="333" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="360"/>
-      <c r="H1" s="360"/>
-      <c r="I1" s="360"/>
-      <c r="J1" s="360"/>
-      <c r="K1" s="360"/>
-      <c r="L1" s="360"/>
+      <c r="G1" s="333"/>
+      <c r="H1" s="333"/>
+      <c r="I1" s="333"/>
+      <c r="J1" s="333"/>
+      <c r="K1" s="333"/>
+      <c r="L1" s="333"/>
       <c r="U1" s="22" t="s">
         <v>62</v>
       </c>
@@ -5138,22 +5279,22 @@
       </c>
     </row>
     <row r="6" spans="1:47" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D6" s="361" t="s">
+      <c r="D6" s="334" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="362"/>
-      <c r="F6" s="362"/>
-      <c r="G6" s="362"/>
-      <c r="H6" s="363"/>
+      <c r="E6" s="335"/>
+      <c r="F6" s="335"/>
+      <c r="G6" s="335"/>
+      <c r="H6" s="336"/>
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
-      <c r="M6" s="361" t="s">
+      <c r="M6" s="334" t="s">
         <v>66</v>
       </c>
-      <c r="N6" s="362"/>
-      <c r="O6" s="362"/>
-      <c r="P6" s="362"/>
-      <c r="Q6" s="363"/>
+      <c r="N6" s="335"/>
+      <c r="O6" s="335"/>
+      <c r="P6" s="335"/>
+      <c r="Q6" s="336"/>
     </row>
     <row r="7" spans="1:47" ht="76.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="24" t="s">
@@ -5171,10 +5312,10 @@
       <c r="E7" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="364" t="s">
+      <c r="F7" s="337" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="365"/>
+      <c r="G7" s="338"/>
       <c r="H7" s="24" t="s">
         <v>73</v>
       </c>
@@ -5197,10 +5338,10 @@
         <v>79</v>
       </c>
       <c r="O7" s="29"/>
-      <c r="P7" s="364" t="s">
+      <c r="P7" s="337" t="s">
         <v>80</v>
       </c>
-      <c r="Q7" s="365"/>
+      <c r="Q7" s="338"/>
       <c r="R7" s="30" t="s">
         <v>74</v>
       </c>
@@ -5277,7 +5418,7 @@
       <c r="A9" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="352" t="s">
+      <c r="B9" s="339" t="s">
         <v>194</v>
       </c>
       <c r="C9" s="40" t="s">
@@ -5311,33 +5452,33 @@
         <f t="shared" ref="L9:L22" si="0">MIN(I9:K9)</f>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="M9" s="343">
+      <c r="M9" s="330">
         <v>20</v>
       </c>
-      <c r="N9" s="355" t="s">
+      <c r="N9" s="342" t="s">
         <v>95</v>
       </c>
-      <c r="O9" s="343">
+      <c r="O9" s="330">
         <f>IF(N9="daily",1,IF(N9="week",7,IF(N9="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P9" s="343">
+      <c r="P9" s="330">
         <v>3</v>
       </c>
-      <c r="Q9" s="343">
+      <c r="Q9" s="330">
         <f>P9/O9</f>
         <v>3</v>
       </c>
-      <c r="R9" s="343">
+      <c r="R9" s="330">
         <f>M9*Q9</f>
         <v>60</v>
       </c>
-      <c r="S9" s="343"/>
-      <c r="T9" s="346">
+      <c r="S9" s="330"/>
+      <c r="T9" s="345">
         <f>MIN(R9:S12)</f>
         <v>60</v>
       </c>
-      <c r="U9" s="343">
+      <c r="U9" s="330">
         <v>500</v>
       </c>
       <c r="V9" s="41">
@@ -5362,7 +5503,7 @@
       <c r="A10" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="B10" s="353"/>
+      <c r="B10" s="340"/>
       <c r="C10" s="40" t="s">
         <v>198</v>
       </c>
@@ -5394,15 +5535,15 @@
         <f t="shared" si="0"/>
         <v>0.21</v>
       </c>
-      <c r="M10" s="344"/>
-      <c r="N10" s="356"/>
-      <c r="O10" s="344"/>
-      <c r="P10" s="344"/>
-      <c r="Q10" s="344"/>
-      <c r="R10" s="344"/>
-      <c r="S10" s="344"/>
-      <c r="T10" s="347"/>
-      <c r="U10" s="344"/>
+      <c r="M10" s="331"/>
+      <c r="N10" s="343"/>
+      <c r="O10" s="331"/>
+      <c r="P10" s="331"/>
+      <c r="Q10" s="331"/>
+      <c r="R10" s="331"/>
+      <c r="S10" s="331"/>
+      <c r="T10" s="346"/>
+      <c r="U10" s="331"/>
       <c r="V10" s="41"/>
       <c r="W10" s="36"/>
       <c r="X10" s="36"/>
@@ -5410,10 +5551,10 @@
       <c r="AK10" s="46"/>
     </row>
     <row r="11" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="343" t="s">
+      <c r="A11" s="330" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="353"/>
+      <c r="B11" s="340"/>
       <c r="C11" s="40"/>
       <c r="D11" s="40"/>
       <c r="E11" s="40"/>
@@ -5424,15 +5565,15 @@
       <c r="J11" s="36"/>
       <c r="K11" s="36"/>
       <c r="L11" s="42"/>
-      <c r="M11" s="344"/>
-      <c r="N11" s="356"/>
-      <c r="O11" s="344"/>
-      <c r="P11" s="344"/>
-      <c r="Q11" s="344"/>
-      <c r="R11" s="344"/>
-      <c r="S11" s="344"/>
-      <c r="T11" s="347"/>
-      <c r="U11" s="344"/>
+      <c r="M11" s="331"/>
+      <c r="N11" s="343"/>
+      <c r="O11" s="331"/>
+      <c r="P11" s="331"/>
+      <c r="Q11" s="331"/>
+      <c r="R11" s="331"/>
+      <c r="S11" s="331"/>
+      <c r="T11" s="346"/>
+      <c r="U11" s="331"/>
       <c r="V11" s="41"/>
       <c r="W11" s="36"/>
       <c r="X11" s="36"/>
@@ -5451,8 +5592,8 @@
       <c r="AU11" s="65"/>
     </row>
     <row r="12" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="345"/>
-      <c r="B12" s="354"/>
+      <c r="A12" s="332"/>
+      <c r="B12" s="341"/>
       <c r="C12" s="40"/>
       <c r="D12" s="40"/>
       <c r="E12" s="40"/>
@@ -5463,15 +5604,15 @@
       <c r="J12" s="36"/>
       <c r="K12" s="36"/>
       <c r="L12" s="42"/>
-      <c r="M12" s="345"/>
-      <c r="N12" s="357"/>
-      <c r="O12" s="345"/>
-      <c r="P12" s="345"/>
-      <c r="Q12" s="345"/>
-      <c r="R12" s="345"/>
-      <c r="S12" s="345"/>
-      <c r="T12" s="348"/>
-      <c r="U12" s="345"/>
+      <c r="M12" s="332"/>
+      <c r="N12" s="344"/>
+      <c r="O12" s="332"/>
+      <c r="P12" s="332"/>
+      <c r="Q12" s="332"/>
+      <c r="R12" s="332"/>
+      <c r="S12" s="332"/>
+      <c r="T12" s="347"/>
+      <c r="U12" s="332"/>
       <c r="V12" s="41"/>
       <c r="W12" s="36"/>
       <c r="X12" s="36"/>
@@ -5487,7 +5628,7 @@
       <c r="A13" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="B13" s="352" t="s">
+      <c r="B13" s="339" t="s">
         <v>195</v>
       </c>
       <c r="C13" s="40" t="s">
@@ -5521,33 +5662,33 @@
         <f t="shared" si="0"/>
         <v>2E-3</v>
       </c>
-      <c r="M13" s="343">
+      <c r="M13" s="330">
         <v>80</v>
       </c>
-      <c r="N13" s="355" t="s">
+      <c r="N13" s="342" t="s">
         <v>95</v>
       </c>
-      <c r="O13" s="343">
+      <c r="O13" s="330">
         <f>IF(N13="daily",1,IF(N13="week",7,IF(N13="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P13" s="343">
+      <c r="P13" s="330">
         <v>2</v>
       </c>
-      <c r="Q13" s="343">
+      <c r="Q13" s="330">
         <f>P13/O13</f>
         <v>2</v>
       </c>
-      <c r="R13" s="343">
+      <c r="R13" s="330">
         <f>M13*Q13</f>
         <v>160</v>
       </c>
-      <c r="S13" s="343"/>
-      <c r="T13" s="346">
+      <c r="S13" s="330"/>
+      <c r="T13" s="345">
         <f>MIN(R13:S16)</f>
         <v>160</v>
       </c>
-      <c r="U13" s="343">
+      <c r="U13" s="330">
         <v>600</v>
       </c>
       <c r="V13" s="41">
@@ -5570,7 +5711,7 @@
       <c r="A14" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="B14" s="353"/>
+      <c r="B14" s="340"/>
       <c r="C14" s="40" t="s">
         <v>200</v>
       </c>
@@ -5602,15 +5743,15 @@
         <f t="shared" si="0"/>
         <v>0.08</v>
       </c>
-      <c r="M14" s="344"/>
-      <c r="N14" s="356"/>
-      <c r="O14" s="344"/>
-      <c r="P14" s="344"/>
-      <c r="Q14" s="344"/>
-      <c r="R14" s="344"/>
-      <c r="S14" s="344"/>
-      <c r="T14" s="347"/>
-      <c r="U14" s="344"/>
+      <c r="M14" s="331"/>
+      <c r="N14" s="343"/>
+      <c r="O14" s="331"/>
+      <c r="P14" s="331"/>
+      <c r="Q14" s="331"/>
+      <c r="R14" s="331"/>
+      <c r="S14" s="331"/>
+      <c r="T14" s="346"/>
+      <c r="U14" s="331"/>
       <c r="V14" s="41"/>
       <c r="W14" s="36"/>
       <c r="X14" s="36"/>
@@ -5618,10 +5759,10 @@
       <c r="AT14" s="70"/>
     </row>
     <row r="15" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="358" t="s">
+      <c r="A15" s="348" t="s">
         <v>101</v>
       </c>
-      <c r="B15" s="353"/>
+      <c r="B15" s="340"/>
       <c r="C15" s="40"/>
       <c r="D15" s="40"/>
       <c r="E15" s="40"/>
@@ -5632,15 +5773,15 @@
       <c r="J15" s="36"/>
       <c r="K15" s="36"/>
       <c r="L15" s="42"/>
-      <c r="M15" s="344"/>
-      <c r="N15" s="356"/>
-      <c r="O15" s="344"/>
-      <c r="P15" s="344"/>
-      <c r="Q15" s="344"/>
-      <c r="R15" s="344"/>
-      <c r="S15" s="344"/>
-      <c r="T15" s="347"/>
-      <c r="U15" s="344"/>
+      <c r="M15" s="331"/>
+      <c r="N15" s="343"/>
+      <c r="O15" s="331"/>
+      <c r="P15" s="331"/>
+      <c r="Q15" s="331"/>
+      <c r="R15" s="331"/>
+      <c r="S15" s="331"/>
+      <c r="T15" s="346"/>
+      <c r="U15" s="331"/>
       <c r="V15" s="41"/>
       <c r="W15" s="36"/>
       <c r="X15" s="36"/>
@@ -5650,8 +5791,8 @@
       <c r="AT15" s="46"/>
     </row>
     <row r="16" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="359"/>
-      <c r="B16" s="354"/>
+      <c r="A16" s="349"/>
+      <c r="B16" s="341"/>
       <c r="C16" s="40"/>
       <c r="D16" s="40"/>
       <c r="E16" s="40"/>
@@ -5662,15 +5803,15 @@
       <c r="J16" s="36"/>
       <c r="K16" s="36"/>
       <c r="L16" s="42"/>
-      <c r="M16" s="345"/>
-      <c r="N16" s="357"/>
-      <c r="O16" s="345"/>
-      <c r="P16" s="345"/>
-      <c r="Q16" s="345"/>
-      <c r="R16" s="345"/>
-      <c r="S16" s="345"/>
-      <c r="T16" s="348"/>
-      <c r="U16" s="345"/>
+      <c r="M16" s="332"/>
+      <c r="N16" s="344"/>
+      <c r="O16" s="332"/>
+      <c r="P16" s="332"/>
+      <c r="Q16" s="332"/>
+      <c r="R16" s="332"/>
+      <c r="S16" s="332"/>
+      <c r="T16" s="347"/>
+      <c r="U16" s="332"/>
       <c r="V16" s="41"/>
       <c r="W16" s="36"/>
       <c r="X16" s="36"/>
@@ -5681,7 +5822,7 @@
       <c r="A17" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="B17" s="352" t="s">
+      <c r="B17" s="339" t="s">
         <v>196</v>
       </c>
       <c r="C17" s="40" t="s">
@@ -5715,33 +5856,33 @@
         <f t="shared" si="0"/>
         <v>3.4999999999999996E-2</v>
       </c>
-      <c r="M17" s="343">
+      <c r="M17" s="330">
         <v>70</v>
       </c>
-      <c r="N17" s="355" t="s">
+      <c r="N17" s="342" t="s">
         <v>95</v>
       </c>
-      <c r="O17" s="343">
+      <c r="O17" s="330">
         <f>IF(N17="daily",1,IF(N17="week",7,IF(N17="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P17" s="343">
+      <c r="P17" s="330">
         <v>2</v>
       </c>
-      <c r="Q17" s="343">
+      <c r="Q17" s="330">
         <f>P17/O17</f>
         <v>2</v>
       </c>
-      <c r="R17" s="343">
+      <c r="R17" s="330">
         <f>M17*Q17</f>
         <v>140</v>
       </c>
-      <c r="S17" s="343"/>
-      <c r="T17" s="346">
+      <c r="S17" s="330"/>
+      <c r="T17" s="345">
         <f>MIN(R17:S20)</f>
         <v>140</v>
       </c>
-      <c r="U17" s="343">
+      <c r="U17" s="330">
         <v>850</v>
       </c>
       <c r="V17" s="41">
@@ -5760,7 +5901,7 @@
       <c r="A18" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="B18" s="353"/>
+      <c r="B18" s="340"/>
       <c r="C18" s="40" t="s">
         <v>202</v>
       </c>
@@ -5792,24 +5933,24 @@
         <f t="shared" si="0"/>
         <v>3.9999999999999994E-2</v>
       </c>
-      <c r="M18" s="344"/>
-      <c r="N18" s="356"/>
-      <c r="O18" s="344"/>
-      <c r="P18" s="344"/>
-      <c r="Q18" s="344"/>
-      <c r="R18" s="344"/>
-      <c r="S18" s="344"/>
-      <c r="T18" s="347"/>
-      <c r="U18" s="344"/>
+      <c r="M18" s="331"/>
+      <c r="N18" s="343"/>
+      <c r="O18" s="331"/>
+      <c r="P18" s="331"/>
+      <c r="Q18" s="331"/>
+      <c r="R18" s="331"/>
+      <c r="S18" s="331"/>
+      <c r="T18" s="346"/>
+      <c r="U18" s="331"/>
       <c r="V18" s="41"/>
       <c r="W18" s="36"/>
       <c r="X18" s="36"/>
     </row>
     <row r="19" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="343" t="s">
+      <c r="A19" s="330" t="s">
         <v>105</v>
       </c>
-      <c r="B19" s="353"/>
+      <c r="B19" s="340"/>
       <c r="C19" s="40"/>
       <c r="D19" s="40"/>
       <c r="E19" s="40"/>
@@ -5820,22 +5961,22 @@
       <c r="J19" s="36"/>
       <c r="K19" s="36"/>
       <c r="L19" s="42"/>
-      <c r="M19" s="344"/>
-      <c r="N19" s="356"/>
-      <c r="O19" s="344"/>
-      <c r="P19" s="344"/>
-      <c r="Q19" s="344"/>
-      <c r="R19" s="344"/>
-      <c r="S19" s="344"/>
-      <c r="T19" s="347"/>
-      <c r="U19" s="344"/>
+      <c r="M19" s="331"/>
+      <c r="N19" s="343"/>
+      <c r="O19" s="331"/>
+      <c r="P19" s="331"/>
+      <c r="Q19" s="331"/>
+      <c r="R19" s="331"/>
+      <c r="S19" s="331"/>
+      <c r="T19" s="346"/>
+      <c r="U19" s="331"/>
       <c r="V19" s="41"/>
       <c r="W19" s="36"/>
       <c r="X19" s="36"/>
     </row>
     <row r="20" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="345"/>
-      <c r="B20" s="354"/>
+      <c r="A20" s="332"/>
+      <c r="B20" s="341"/>
       <c r="C20" s="40"/>
       <c r="D20" s="40"/>
       <c r="E20" s="40"/>
@@ -5846,15 +5987,15 @@
       <c r="J20" s="36"/>
       <c r="K20" s="36"/>
       <c r="L20" s="42"/>
-      <c r="M20" s="345"/>
-      <c r="N20" s="357"/>
-      <c r="O20" s="345"/>
-      <c r="P20" s="345"/>
-      <c r="Q20" s="345"/>
-      <c r="R20" s="345"/>
-      <c r="S20" s="345"/>
-      <c r="T20" s="348"/>
-      <c r="U20" s="345"/>
+      <c r="M20" s="332"/>
+      <c r="N20" s="344"/>
+      <c r="O20" s="332"/>
+      <c r="P20" s="332"/>
+      <c r="Q20" s="332"/>
+      <c r="R20" s="332"/>
+      <c r="S20" s="332"/>
+      <c r="T20" s="347"/>
+      <c r="U20" s="332"/>
       <c r="V20" s="41"/>
       <c r="W20" s="36"/>
       <c r="X20" s="36"/>
@@ -5863,7 +6004,7 @@
       <c r="A21" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="352" t="s">
+      <c r="B21" s="339" t="s">
         <v>197</v>
       </c>
       <c r="C21" s="40" t="s">
@@ -5897,33 +6038,33 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="M21" s="343">
+      <c r="M21" s="330">
         <v>60</v>
       </c>
-      <c r="N21" s="355" t="s">
+      <c r="N21" s="342" t="s">
         <v>95</v>
       </c>
-      <c r="O21" s="343">
+      <c r="O21" s="330">
         <f>IF(N21="daily",1,IF(N21="week",7,IF(N21="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P21" s="343">
+      <c r="P21" s="330">
         <v>3</v>
       </c>
-      <c r="Q21" s="343">
+      <c r="Q21" s="330">
         <f>P21/O21</f>
         <v>3</v>
       </c>
-      <c r="R21" s="343">
+      <c r="R21" s="330">
         <f>M21*Q21</f>
         <v>180</v>
       </c>
-      <c r="S21" s="343"/>
-      <c r="T21" s="346">
+      <c r="S21" s="330"/>
+      <c r="T21" s="345">
         <f>MIN(R21:S24)</f>
         <v>180</v>
       </c>
-      <c r="U21" s="343">
+      <c r="U21" s="330">
         <v>700</v>
       </c>
       <c r="V21" s="41">
@@ -5940,7 +6081,7 @@
       <c r="A22" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="B22" s="353"/>
+      <c r="B22" s="340"/>
       <c r="C22" s="40" t="s">
         <v>204</v>
       </c>
@@ -5972,24 +6113,24 @@
         <f t="shared" si="0"/>
         <v>4.0000000000000008E-2</v>
       </c>
-      <c r="M22" s="344"/>
-      <c r="N22" s="356"/>
-      <c r="O22" s="344"/>
-      <c r="P22" s="344"/>
-      <c r="Q22" s="344"/>
-      <c r="R22" s="344"/>
-      <c r="S22" s="344"/>
-      <c r="T22" s="347"/>
-      <c r="U22" s="344"/>
+      <c r="M22" s="331"/>
+      <c r="N22" s="343"/>
+      <c r="O22" s="331"/>
+      <c r="P22" s="331"/>
+      <c r="Q22" s="331"/>
+      <c r="R22" s="331"/>
+      <c r="S22" s="331"/>
+      <c r="T22" s="346"/>
+      <c r="U22" s="331"/>
       <c r="V22" s="41"/>
       <c r="W22" s="36"/>
       <c r="X22" s="36"/>
     </row>
     <row r="23" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="349" t="s">
+      <c r="A23" s="350" t="s">
         <v>108</v>
       </c>
-      <c r="B23" s="353"/>
+      <c r="B23" s="340"/>
       <c r="C23" s="40"/>
       <c r="D23" s="40"/>
       <c r="E23" s="40"/>
@@ -6000,22 +6141,22 @@
       <c r="J23" s="36"/>
       <c r="K23" s="36"/>
       <c r="L23" s="42"/>
-      <c r="M23" s="344"/>
-      <c r="N23" s="356"/>
-      <c r="O23" s="344"/>
-      <c r="P23" s="344"/>
-      <c r="Q23" s="344"/>
-      <c r="R23" s="344"/>
-      <c r="S23" s="344"/>
-      <c r="T23" s="347"/>
-      <c r="U23" s="344"/>
+      <c r="M23" s="331"/>
+      <c r="N23" s="343"/>
+      <c r="O23" s="331"/>
+      <c r="P23" s="331"/>
+      <c r="Q23" s="331"/>
+      <c r="R23" s="331"/>
+      <c r="S23" s="331"/>
+      <c r="T23" s="346"/>
+      <c r="U23" s="331"/>
       <c r="V23" s="41"/>
       <c r="W23" s="36"/>
       <c r="X23" s="36"/>
     </row>
     <row r="24" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="350"/>
-      <c r="B24" s="354"/>
+      <c r="A24" s="351"/>
+      <c r="B24" s="341"/>
       <c r="C24" s="40"/>
       <c r="D24" s="40"/>
       <c r="E24" s="40"/>
@@ -6026,15 +6167,15 @@
       <c r="J24" s="36"/>
       <c r="K24" s="36"/>
       <c r="L24" s="42"/>
-      <c r="M24" s="345"/>
-      <c r="N24" s="357"/>
-      <c r="O24" s="345"/>
-      <c r="P24" s="345"/>
-      <c r="Q24" s="345"/>
-      <c r="R24" s="345"/>
-      <c r="S24" s="345"/>
-      <c r="T24" s="348"/>
-      <c r="U24" s="345"/>
+      <c r="M24" s="332"/>
+      <c r="N24" s="344"/>
+      <c r="O24" s="332"/>
+      <c r="P24" s="332"/>
+      <c r="Q24" s="332"/>
+      <c r="R24" s="332"/>
+      <c r="S24" s="332"/>
+      <c r="T24" s="347"/>
+      <c r="U24" s="332"/>
       <c r="V24" s="41"/>
       <c r="W24" s="36"/>
       <c r="X24" s="36"/>
@@ -6060,13 +6201,13 @@
       <c r="D27" s="46"/>
       <c r="E27" s="46"/>
       <c r="F27" s="46"/>
-      <c r="H27" s="351" t="s">
+      <c r="H27" s="352" t="s">
         <v>206</v>
       </c>
-      <c r="I27" s="351"/>
-      <c r="J27" s="351"/>
-      <c r="K27" s="351"/>
-      <c r="L27" s="351"/>
+      <c r="I27" s="352"/>
+      <c r="J27" s="352"/>
+      <c r="K27" s="352"/>
+      <c r="L27" s="352"/>
       <c r="M27" s="48"/>
       <c r="N27" s="48"/>
       <c r="O27" s="46"/>
@@ -6346,19 +6487,19 @@
     <row r="40" spans="1:40" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="104"/>
       <c r="C40" s="105"/>
-      <c r="D40" s="341" t="s">
+      <c r="D40" s="355" t="s">
         <v>4</v>
       </c>
-      <c r="E40" s="341"/>
-      <c r="F40" s="341"/>
-      <c r="G40" s="341"/>
-      <c r="H40" s="341"/>
-      <c r="I40" s="341" t="s">
+      <c r="E40" s="355"/>
+      <c r="F40" s="355"/>
+      <c r="G40" s="355"/>
+      <c r="H40" s="355"/>
+      <c r="I40" s="355" t="s">
         <v>5</v>
       </c>
-      <c r="J40" s="341"/>
-      <c r="K40" s="341"/>
-      <c r="L40" s="341"/>
+      <c r="J40" s="355"/>
+      <c r="K40" s="355"/>
+      <c r="L40" s="355"/>
       <c r="M40" s="117"/>
       <c r="N40" s="118" t="s">
         <v>48</v>
@@ -6482,7 +6623,7 @@
       </c>
     </row>
     <row r="42" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="336" t="s">
+      <c r="B42" s="356" t="s">
         <v>226</v>
       </c>
       <c r="C42" s="190"/>
@@ -6490,17 +6631,17 @@
       <c r="E42" s="111"/>
       <c r="F42" s="189"/>
       <c r="G42" s="189"/>
-      <c r="H42" s="337">
+      <c r="H42" s="354">
         <v>3.095975611358881E-3</v>
       </c>
       <c r="I42" s="111"/>
       <c r="J42" s="111"/>
       <c r="K42" s="189"/>
       <c r="L42" s="189"/>
-      <c r="M42" s="337">
+      <c r="M42" s="354">
         <v>1</v>
       </c>
-      <c r="N42" s="342" t="s">
+      <c r="N42" s="353" t="s">
         <v>59</v>
       </c>
       <c r="P42" s="91"/>
@@ -6548,7 +6689,7 @@
       <c r="AN42" s="88"/>
     </row>
     <row r="43" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="336"/>
+      <c r="B43" s="356"/>
       <c r="C43" s="190" t="s">
         <v>220</v>
       </c>
@@ -6564,7 +6705,7 @@
       <c r="G43" s="103">
         <v>97.126746422628088</v>
       </c>
-      <c r="H43" s="337"/>
+      <c r="H43" s="354"/>
       <c r="I43" s="111">
         <v>1</v>
       </c>
@@ -6577,8 +6718,8 @@
       <c r="L43" s="103">
         <v>1</v>
       </c>
-      <c r="M43" s="337"/>
-      <c r="N43" s="337"/>
+      <c r="M43" s="354"/>
+      <c r="N43" s="354"/>
       <c r="P43" s="92"/>
       <c r="Q43" s="92"/>
       <c r="U43" s="64"/>
@@ -6624,7 +6765,7 @@
       <c r="AN43" s="88"/>
     </row>
     <row r="44" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="336"/>
+      <c r="B44" s="356"/>
       <c r="C44" s="190" t="s">
         <v>218</v>
       </c>
@@ -6640,7 +6781,7 @@
       <c r="G44" s="189">
         <v>3.0959756012671502E-3</v>
       </c>
-      <c r="H44" s="337"/>
+      <c r="H44" s="354"/>
       <c r="I44" s="111">
         <v>1</v>
       </c>
@@ -6653,8 +6794,8 @@
       <c r="L44" s="189">
         <v>1</v>
       </c>
-      <c r="M44" s="337"/>
-      <c r="N44" s="337"/>
+      <c r="M44" s="354"/>
+      <c r="N44" s="354"/>
       <c r="P44" s="91"/>
       <c r="Q44" s="91"/>
       <c r="U44" s="64"/>
@@ -6700,7 +6841,7 @@
       <c r="AN44" s="88"/>
     </row>
     <row r="45" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="336"/>
+      <c r="B45" s="356"/>
       <c r="C45" s="190" t="s">
         <v>219</v>
       </c>
@@ -6716,7 +6857,7 @@
       <c r="G45" s="189">
         <v>3.0959756012671502E-3</v>
       </c>
-      <c r="H45" s="337"/>
+      <c r="H45" s="354"/>
       <c r="I45" s="111">
         <v>1</v>
       </c>
@@ -6729,8 +6870,8 @@
       <c r="L45" s="189">
         <v>1</v>
       </c>
-      <c r="M45" s="337"/>
-      <c r="N45" s="337"/>
+      <c r="M45" s="354"/>
+      <c r="N45" s="354"/>
       <c r="P45" s="91"/>
       <c r="Q45" s="91"/>
       <c r="U45" s="64"/>
@@ -6776,19 +6917,19 @@
       <c r="AN45" s="88"/>
     </row>
     <row r="46" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="336"/>
+      <c r="B46" s="356"/>
       <c r="C46" s="190"/>
       <c r="D46" s="111"/>
       <c r="E46" s="111"/>
       <c r="F46" s="189"/>
       <c r="G46" s="189"/>
-      <c r="H46" s="337"/>
+      <c r="H46" s="354"/>
       <c r="I46" s="111"/>
       <c r="J46" s="111"/>
       <c r="K46" s="189"/>
       <c r="L46" s="189"/>
-      <c r="M46" s="337"/>
-      <c r="N46" s="338"/>
+      <c r="M46" s="354"/>
+      <c r="N46" s="357"/>
       <c r="P46" s="91"/>
       <c r="Q46" s="91"/>
       <c r="U46" s="64"/>
@@ -6834,19 +6975,19 @@
       <c r="AN46" s="88"/>
     </row>
     <row r="47" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="336"/>
+      <c r="B47" s="356"/>
       <c r="C47" s="190"/>
       <c r="D47" s="111"/>
       <c r="E47" s="111"/>
       <c r="F47" s="111"/>
       <c r="G47" s="111"/>
-      <c r="H47" s="337"/>
+      <c r="H47" s="354"/>
       <c r="I47" s="111"/>
       <c r="J47" s="111"/>
       <c r="K47" s="111"/>
       <c r="L47" s="111"/>
-      <c r="M47" s="337"/>
-      <c r="N47" s="339"/>
+      <c r="M47" s="354"/>
+      <c r="N47" s="358"/>
       <c r="P47" s="81"/>
       <c r="Q47" s="81"/>
       <c r="S47" s="69"/>
@@ -6894,19 +7035,19 @@
       <c r="AN47" s="88"/>
     </row>
     <row r="48" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="336"/>
+      <c r="B48" s="356"/>
       <c r="C48" s="190"/>
       <c r="D48" s="111"/>
       <c r="E48" s="111"/>
       <c r="F48" s="111"/>
       <c r="G48" s="111"/>
-      <c r="H48" s="337"/>
+      <c r="H48" s="354"/>
       <c r="I48" s="111"/>
       <c r="J48" s="111"/>
       <c r="K48" s="111"/>
       <c r="L48" s="111"/>
-      <c r="M48" s="337"/>
-      <c r="N48" s="339"/>
+      <c r="M48" s="354"/>
+      <c r="N48" s="358"/>
       <c r="P48" s="81"/>
       <c r="Q48" s="81"/>
       <c r="S48" s="69"/>
@@ -6954,19 +7095,19 @@
       <c r="AN48" s="88"/>
     </row>
     <row r="49" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="336"/>
+      <c r="B49" s="356"/>
       <c r="C49" s="190"/>
       <c r="D49" s="111"/>
       <c r="E49" s="111"/>
       <c r="F49" s="111"/>
       <c r="G49" s="111"/>
-      <c r="H49" s="337"/>
+      <c r="H49" s="354"/>
       <c r="I49" s="111"/>
       <c r="J49" s="111"/>
       <c r="K49" s="111"/>
       <c r="L49" s="111"/>
-      <c r="M49" s="337"/>
-      <c r="N49" s="339"/>
+      <c r="M49" s="354"/>
+      <c r="N49" s="358"/>
       <c r="P49" s="81"/>
       <c r="Q49" s="81"/>
       <c r="S49" s="69"/>
@@ -7014,19 +7155,19 @@
       <c r="AN49" s="89"/>
     </row>
     <row r="50" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="331"/>
+      <c r="B50" s="359"/>
       <c r="C50" s="191"/>
       <c r="D50" s="187"/>
       <c r="E50" s="187"/>
       <c r="F50" s="187"/>
       <c r="G50" s="187"/>
-      <c r="H50" s="332"/>
+      <c r="H50" s="360"/>
       <c r="I50" s="187"/>
       <c r="J50" s="187"/>
       <c r="K50" s="187"/>
       <c r="L50" s="187"/>
-      <c r="M50" s="332"/>
-      <c r="N50" s="340"/>
+      <c r="M50" s="360"/>
+      <c r="N50" s="361"/>
       <c r="P50" s="81"/>
       <c r="Q50" s="81"/>
       <c r="S50" s="69"/>
@@ -7047,19 +7188,19 @@
       <c r="AN50" s="64"/>
     </row>
     <row r="51" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="331"/>
+      <c r="B51" s="359"/>
       <c r="C51" s="191"/>
       <c r="D51" s="187"/>
       <c r="E51" s="187"/>
       <c r="F51" s="187"/>
       <c r="G51" s="187"/>
-      <c r="H51" s="332"/>
+      <c r="H51" s="360"/>
       <c r="I51" s="187"/>
       <c r="J51" s="187"/>
       <c r="K51" s="187"/>
       <c r="L51" s="187"/>
-      <c r="M51" s="332"/>
-      <c r="N51" s="334"/>
+      <c r="M51" s="360"/>
+      <c r="N51" s="362"/>
       <c r="P51" s="81"/>
       <c r="Q51" s="81"/>
       <c r="S51" s="69"/>
@@ -7090,19 +7231,19 @@
       <c r="AN51" s="46"/>
     </row>
     <row r="52" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="331"/>
+      <c r="B52" s="359"/>
       <c r="C52" s="191"/>
       <c r="D52" s="187"/>
       <c r="E52" s="187"/>
       <c r="F52" s="187"/>
       <c r="G52" s="187"/>
-      <c r="H52" s="332"/>
+      <c r="H52" s="360"/>
       <c r="I52" s="187"/>
       <c r="J52" s="187"/>
       <c r="K52" s="187"/>
       <c r="L52" s="187"/>
-      <c r="M52" s="332"/>
-      <c r="N52" s="334"/>
+      <c r="M52" s="360"/>
+      <c r="N52" s="362"/>
       <c r="P52" s="81"/>
       <c r="Q52" s="81"/>
       <c r="S52" s="69"/>
@@ -7166,19 +7307,19 @@
       </c>
     </row>
     <row r="53" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="331"/>
+      <c r="B53" s="359"/>
       <c r="C53" s="191"/>
       <c r="D53" s="187"/>
       <c r="E53" s="187"/>
       <c r="F53" s="187"/>
       <c r="G53" s="187"/>
-      <c r="H53" s="332"/>
+      <c r="H53" s="360"/>
       <c r="I53" s="187"/>
       <c r="J53" s="187"/>
       <c r="K53" s="187"/>
       <c r="L53" s="187"/>
-      <c r="M53" s="332"/>
-      <c r="N53" s="334"/>
+      <c r="M53" s="360"/>
+      <c r="N53" s="362"/>
       <c r="P53" s="81"/>
       <c r="Q53" s="81"/>
       <c r="S53" s="69"/>
@@ -7227,19 +7368,19 @@
       <c r="AN53" s="88"/>
     </row>
     <row r="54" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="331"/>
+      <c r="B54" s="359"/>
       <c r="C54" s="191"/>
       <c r="D54" s="187"/>
       <c r="E54" s="187"/>
       <c r="F54" s="187"/>
       <c r="G54" s="187"/>
-      <c r="H54" s="332"/>
+      <c r="H54" s="360"/>
       <c r="I54" s="187"/>
       <c r="J54" s="187"/>
       <c r="K54" s="187"/>
       <c r="L54" s="187"/>
-      <c r="M54" s="332"/>
-      <c r="N54" s="333"/>
+      <c r="M54" s="360"/>
+      <c r="N54" s="363"/>
       <c r="P54" s="81"/>
       <c r="Q54" s="81"/>
       <c r="S54" s="69"/>
@@ -7286,19 +7427,19 @@
       <c r="AN54" s="88"/>
     </row>
     <row r="55" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="331"/>
+      <c r="B55" s="359"/>
       <c r="C55" s="191"/>
       <c r="D55" s="187"/>
       <c r="E55" s="187"/>
       <c r="F55" s="187"/>
       <c r="G55" s="187"/>
-      <c r="H55" s="332"/>
+      <c r="H55" s="360"/>
       <c r="I55" s="187"/>
       <c r="J55" s="187"/>
       <c r="K55" s="187"/>
       <c r="L55" s="187"/>
-      <c r="M55" s="332"/>
-      <c r="N55" s="334"/>
+      <c r="M55" s="360"/>
+      <c r="N55" s="362"/>
       <c r="P55" s="81"/>
       <c r="Q55" s="81"/>
       <c r="S55" s="69"/>
@@ -7345,19 +7486,19 @@
       <c r="AN55" s="88"/>
     </row>
     <row r="56" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="331"/>
+      <c r="B56" s="359"/>
       <c r="C56" s="191"/>
       <c r="D56" s="187"/>
       <c r="E56" s="187"/>
       <c r="F56" s="187"/>
       <c r="G56" s="187"/>
-      <c r="H56" s="332"/>
+      <c r="H56" s="360"/>
       <c r="I56" s="187"/>
       <c r="J56" s="187"/>
       <c r="K56" s="187"/>
       <c r="L56" s="187"/>
-      <c r="M56" s="332"/>
-      <c r="N56" s="334"/>
+      <c r="M56" s="360"/>
+      <c r="N56" s="362"/>
       <c r="P56" s="81"/>
       <c r="Q56" s="81"/>
       <c r="S56" s="69"/>
@@ -7404,19 +7545,19 @@
       <c r="AN56" s="88"/>
     </row>
     <row r="57" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="331"/>
+      <c r="B57" s="359"/>
       <c r="C57" s="191"/>
       <c r="D57" s="187"/>
       <c r="E57" s="187"/>
       <c r="F57" s="187"/>
       <c r="G57" s="187"/>
-      <c r="H57" s="332"/>
+      <c r="H57" s="360"/>
       <c r="I57" s="187"/>
       <c r="J57" s="187"/>
       <c r="K57" s="187"/>
       <c r="L57" s="187"/>
-      <c r="M57" s="332"/>
-      <c r="N57" s="334"/>
+      <c r="M57" s="360"/>
+      <c r="N57" s="362"/>
       <c r="P57" s="81"/>
       <c r="Q57" s="81"/>
       <c r="S57" s="69"/>
@@ -7463,19 +7604,19 @@
       <c r="AN57" s="88"/>
     </row>
     <row r="58" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="326"/>
+      <c r="B58" s="364"/>
       <c r="C58" s="185"/>
       <c r="D58" s="192"/>
       <c r="E58" s="192"/>
       <c r="F58" s="192"/>
       <c r="G58" s="192"/>
-      <c r="H58" s="327"/>
+      <c r="H58" s="365"/>
       <c r="I58" s="192"/>
       <c r="J58" s="192"/>
       <c r="K58" s="192"/>
       <c r="L58" s="192"/>
-      <c r="M58" s="327"/>
-      <c r="N58" s="335"/>
+      <c r="M58" s="365"/>
+      <c r="N58" s="366"/>
       <c r="P58" s="81"/>
       <c r="Q58" s="81"/>
       <c r="S58" s="69"/>
@@ -7522,19 +7663,19 @@
       <c r="AN58" s="88"/>
     </row>
     <row r="59" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="326"/>
+      <c r="B59" s="364"/>
       <c r="C59" s="185"/>
       <c r="D59" s="192"/>
       <c r="E59" s="192"/>
       <c r="F59" s="192"/>
       <c r="G59" s="192"/>
-      <c r="H59" s="327"/>
+      <c r="H59" s="365"/>
       <c r="I59" s="192"/>
       <c r="J59" s="192"/>
       <c r="K59" s="192"/>
       <c r="L59" s="192"/>
-      <c r="M59" s="327"/>
-      <c r="N59" s="329"/>
+      <c r="M59" s="365"/>
+      <c r="N59" s="367"/>
       <c r="P59" s="81"/>
       <c r="Q59" s="81"/>
       <c r="S59" s="69"/>
@@ -7581,19 +7722,19 @@
       <c r="AN59" s="88"/>
     </row>
     <row r="60" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="326"/>
+      <c r="B60" s="364"/>
       <c r="C60" s="185"/>
       <c r="D60" s="192"/>
       <c r="E60" s="192"/>
       <c r="F60" s="192"/>
       <c r="G60" s="192"/>
-      <c r="H60" s="327"/>
+      <c r="H60" s="365"/>
       <c r="I60" s="192"/>
       <c r="J60" s="192"/>
       <c r="K60" s="192"/>
       <c r="L60" s="192"/>
-      <c r="M60" s="327"/>
-      <c r="N60" s="329"/>
+      <c r="M60" s="365"/>
+      <c r="N60" s="367"/>
       <c r="P60" s="81"/>
       <c r="Q60" s="81"/>
       <c r="S60" s="69"/>
@@ -7640,247 +7781,247 @@
       <c r="AN60" s="89"/>
     </row>
     <row r="61" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="326"/>
+      <c r="B61" s="364"/>
       <c r="C61" s="185"/>
       <c r="D61" s="192"/>
       <c r="E61" s="192"/>
       <c r="F61" s="192"/>
       <c r="G61" s="192"/>
-      <c r="H61" s="327"/>
+      <c r="H61" s="365"/>
       <c r="I61" s="192"/>
       <c r="J61" s="192"/>
       <c r="K61" s="192"/>
       <c r="L61" s="192"/>
-      <c r="M61" s="327"/>
-      <c r="N61" s="329"/>
+      <c r="M61" s="365"/>
+      <c r="N61" s="367"/>
       <c r="P61" s="81"/>
       <c r="Q61" s="81"/>
       <c r="S61" s="69"/>
       <c r="T61" s="69"/>
     </row>
     <row r="62" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="326"/>
+      <c r="B62" s="364"/>
       <c r="C62" s="185"/>
       <c r="D62" s="192"/>
       <c r="E62" s="192"/>
       <c r="F62" s="192"/>
       <c r="G62" s="192"/>
-      <c r="H62" s="327"/>
+      <c r="H62" s="365"/>
       <c r="I62" s="192"/>
       <c r="J62" s="192"/>
       <c r="K62" s="192"/>
       <c r="L62" s="192"/>
-      <c r="M62" s="327"/>
-      <c r="N62" s="328"/>
+      <c r="M62" s="365"/>
+      <c r="N62" s="372"/>
       <c r="P62" s="81"/>
       <c r="Q62" s="81"/>
       <c r="S62" s="69"/>
       <c r="T62" s="69"/>
     </row>
     <row r="63" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="326"/>
+      <c r="B63" s="364"/>
       <c r="C63" s="185"/>
       <c r="D63" s="192"/>
       <c r="E63" s="192"/>
       <c r="F63" s="192"/>
       <c r="G63" s="192"/>
-      <c r="H63" s="327"/>
+      <c r="H63" s="365"/>
       <c r="I63" s="192"/>
       <c r="J63" s="192"/>
       <c r="K63" s="192"/>
       <c r="L63" s="192"/>
-      <c r="M63" s="327"/>
-      <c r="N63" s="329"/>
+      <c r="M63" s="365"/>
+      <c r="N63" s="367"/>
       <c r="P63" s="81"/>
       <c r="Q63" s="81"/>
       <c r="S63" s="69"/>
       <c r="T63" s="69"/>
     </row>
     <row r="64" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="326"/>
+      <c r="B64" s="364"/>
       <c r="C64" s="185"/>
       <c r="D64" s="192"/>
       <c r="E64" s="192"/>
       <c r="F64" s="192"/>
       <c r="G64" s="192"/>
-      <c r="H64" s="327"/>
+      <c r="H64" s="365"/>
       <c r="I64" s="192"/>
       <c r="J64" s="192"/>
       <c r="K64" s="192"/>
       <c r="L64" s="192"/>
-      <c r="M64" s="327"/>
-      <c r="N64" s="329"/>
+      <c r="M64" s="365"/>
+      <c r="N64" s="367"/>
       <c r="P64" s="81"/>
       <c r="Q64" s="81"/>
       <c r="S64" s="69"/>
       <c r="T64" s="69"/>
     </row>
     <row r="65" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="326"/>
+      <c r="B65" s="364"/>
       <c r="C65" s="185"/>
       <c r="D65" s="192"/>
       <c r="E65" s="192"/>
       <c r="F65" s="192"/>
       <c r="G65" s="192"/>
-      <c r="H65" s="327"/>
+      <c r="H65" s="365"/>
       <c r="I65" s="192"/>
       <c r="J65" s="192"/>
       <c r="K65" s="192"/>
       <c r="L65" s="192"/>
-      <c r="M65" s="327"/>
-      <c r="N65" s="329"/>
+      <c r="M65" s="365"/>
+      <c r="N65" s="367"/>
       <c r="P65" s="81"/>
       <c r="Q65" s="81"/>
       <c r="S65" s="69"/>
       <c r="T65" s="69"/>
     </row>
     <row r="66" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="322"/>
+      <c r="B66" s="368"/>
       <c r="C66" s="186"/>
       <c r="D66" s="188"/>
       <c r="E66" s="188"/>
       <c r="F66" s="188"/>
       <c r="G66" s="188"/>
-      <c r="H66" s="323"/>
+      <c r="H66" s="369"/>
       <c r="I66" s="188"/>
       <c r="J66" s="188"/>
       <c r="K66" s="188"/>
       <c r="L66" s="188"/>
-      <c r="M66" s="323"/>
-      <c r="N66" s="330"/>
+      <c r="M66" s="369"/>
+      <c r="N66" s="373"/>
       <c r="P66" s="81"/>
       <c r="Q66" s="81"/>
       <c r="S66" s="69"/>
       <c r="T66" s="69"/>
     </row>
     <row r="67" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="322"/>
+      <c r="B67" s="368"/>
       <c r="C67" s="186"/>
       <c r="D67" s="188"/>
       <c r="E67" s="188"/>
       <c r="F67" s="188"/>
       <c r="G67" s="188"/>
-      <c r="H67" s="323"/>
+      <c r="H67" s="369"/>
       <c r="I67" s="188"/>
       <c r="J67" s="188"/>
       <c r="K67" s="188"/>
       <c r="L67" s="188"/>
-      <c r="M67" s="323"/>
-      <c r="N67" s="325"/>
+      <c r="M67" s="369"/>
+      <c r="N67" s="371"/>
       <c r="P67" s="81"/>
       <c r="Q67" s="81"/>
       <c r="S67" s="69"/>
       <c r="T67" s="69"/>
     </row>
     <row r="68" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="322"/>
+      <c r="B68" s="368"/>
       <c r="C68" s="186"/>
       <c r="D68" s="188"/>
       <c r="E68" s="188"/>
       <c r="F68" s="188"/>
       <c r="G68" s="188"/>
-      <c r="H68" s="323"/>
+      <c r="H68" s="369"/>
       <c r="I68" s="188"/>
       <c r="J68" s="188"/>
       <c r="K68" s="188"/>
       <c r="L68" s="188"/>
-      <c r="M68" s="323"/>
-      <c r="N68" s="325"/>
+      <c r="M68" s="369"/>
+      <c r="N68" s="371"/>
       <c r="P68" s="81"/>
       <c r="Q68" s="81"/>
       <c r="S68" s="69"/>
       <c r="T68" s="69"/>
     </row>
     <row r="69" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="322"/>
+      <c r="B69" s="368"/>
       <c r="C69" s="186"/>
       <c r="D69" s="188"/>
       <c r="E69" s="188"/>
       <c r="F69" s="188"/>
       <c r="G69" s="188"/>
-      <c r="H69" s="323"/>
+      <c r="H69" s="369"/>
       <c r="I69" s="188"/>
       <c r="J69" s="188"/>
       <c r="K69" s="188"/>
       <c r="L69" s="188"/>
-      <c r="M69" s="323"/>
-      <c r="N69" s="325"/>
+      <c r="M69" s="369"/>
+      <c r="N69" s="371"/>
       <c r="P69" s="81"/>
       <c r="Q69" s="81"/>
       <c r="S69" s="69"/>
       <c r="T69" s="69"/>
     </row>
     <row r="70" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="322"/>
+      <c r="B70" s="368"/>
       <c r="C70" s="186"/>
       <c r="D70" s="188"/>
       <c r="E70" s="188"/>
       <c r="F70" s="188"/>
       <c r="G70" s="188"/>
-      <c r="H70" s="323"/>
+      <c r="H70" s="369"/>
       <c r="I70" s="188"/>
       <c r="J70" s="188"/>
       <c r="K70" s="188"/>
       <c r="L70" s="188"/>
-      <c r="M70" s="323"/>
-      <c r="N70" s="324"/>
+      <c r="M70" s="369"/>
+      <c r="N70" s="370"/>
       <c r="P70" s="81"/>
       <c r="Q70" s="81"/>
       <c r="S70" s="69"/>
       <c r="T70" s="69"/>
     </row>
     <row r="71" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="322"/>
+      <c r="B71" s="368"/>
       <c r="C71" s="186"/>
       <c r="D71" s="188"/>
       <c r="E71" s="188"/>
       <c r="F71" s="188"/>
       <c r="G71" s="188"/>
-      <c r="H71" s="323"/>
+      <c r="H71" s="369"/>
       <c r="I71" s="188"/>
       <c r="J71" s="188"/>
       <c r="K71" s="188"/>
       <c r="L71" s="188"/>
-      <c r="M71" s="323"/>
-      <c r="N71" s="325"/>
+      <c r="M71" s="369"/>
+      <c r="N71" s="371"/>
       <c r="P71" s="81"/>
       <c r="Q71" s="81"/>
       <c r="S71" s="69"/>
       <c r="T71" s="69"/>
     </row>
     <row r="72" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="322"/>
+      <c r="B72" s="368"/>
       <c r="C72" s="186"/>
       <c r="D72" s="188"/>
       <c r="E72" s="188"/>
       <c r="F72" s="188"/>
       <c r="G72" s="188"/>
-      <c r="H72" s="323"/>
+      <c r="H72" s="369"/>
       <c r="I72" s="188"/>
       <c r="J72" s="188"/>
       <c r="K72" s="188"/>
       <c r="L72" s="188"/>
-      <c r="M72" s="323"/>
-      <c r="N72" s="325"/>
+      <c r="M72" s="369"/>
+      <c r="N72" s="371"/>
       <c r="P72" s="81"/>
       <c r="Q72" s="81"/>
       <c r="S72" s="69"/>
       <c r="T72" s="69"/>
     </row>
     <row r="73" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="322"/>
+      <c r="B73" s="368"/>
       <c r="C73" s="186"/>
       <c r="D73" s="188"/>
       <c r="E73" s="188"/>
       <c r="F73" s="188"/>
       <c r="G73" s="188"/>
-      <c r="H73" s="323"/>
+      <c r="H73" s="369"/>
       <c r="I73" s="188"/>
       <c r="J73" s="188"/>
       <c r="K73" s="188"/>
       <c r="L73" s="188"/>
-      <c r="M73" s="323"/>
-      <c r="N73" s="325"/>
+      <c r="M73" s="369"/>
+      <c r="N73" s="371"/>
       <c r="P73" s="81"/>
       <c r="Q73" s="81"/>
       <c r="S73" s="69"/>
@@ -9433,23 +9574,57 @@
     <row r="140" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="U9:U12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="M9:M12"/>
-    <mergeCell ref="N9:N12"/>
-    <mergeCell ref="O9:O12"/>
-    <mergeCell ref="P9:P12"/>
-    <mergeCell ref="Q13:Q16"/>
-    <mergeCell ref="Q9:Q12"/>
-    <mergeCell ref="R9:R12"/>
-    <mergeCell ref="S9:S12"/>
-    <mergeCell ref="T9:T12"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="H70:H73"/>
+    <mergeCell ref="M70:M73"/>
+    <mergeCell ref="N70:N73"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="H62:H65"/>
+    <mergeCell ref="M62:M65"/>
+    <mergeCell ref="N62:N65"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="H66:H69"/>
+    <mergeCell ref="M66:M69"/>
+    <mergeCell ref="N66:N69"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="H54:H57"/>
+    <mergeCell ref="M54:M57"/>
+    <mergeCell ref="N54:N57"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="H58:H61"/>
+    <mergeCell ref="M58:M61"/>
+    <mergeCell ref="N58:N61"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="H46:H49"/>
+    <mergeCell ref="M46:M49"/>
+    <mergeCell ref="N46:N49"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="H50:H53"/>
+    <mergeCell ref="M50:M53"/>
+    <mergeCell ref="N50:N53"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="H42:H45"/>
+    <mergeCell ref="M42:M45"/>
+    <mergeCell ref="N42:N45"/>
+    <mergeCell ref="R21:R24"/>
+    <mergeCell ref="S21:S24"/>
+    <mergeCell ref="T21:T24"/>
+    <mergeCell ref="U21:U24"/>
+    <mergeCell ref="O21:O24"/>
+    <mergeCell ref="P21:P24"/>
+    <mergeCell ref="Q21:Q24"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="M21:M24"/>
+    <mergeCell ref="N21:N24"/>
+    <mergeCell ref="Q17:Q20"/>
+    <mergeCell ref="R17:R20"/>
+    <mergeCell ref="S17:S20"/>
+    <mergeCell ref="T17:T20"/>
+    <mergeCell ref="U17:U20"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="R13:R16"/>
     <mergeCell ref="S13:S16"/>
@@ -9466,57 +9641,23 @@
     <mergeCell ref="N13:N16"/>
     <mergeCell ref="O13:O16"/>
     <mergeCell ref="P13:P16"/>
-    <mergeCell ref="Q17:Q20"/>
-    <mergeCell ref="R17:R20"/>
-    <mergeCell ref="S17:S20"/>
-    <mergeCell ref="T17:T20"/>
-    <mergeCell ref="U17:U20"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="M21:M24"/>
-    <mergeCell ref="N21:N24"/>
-    <mergeCell ref="N42:N45"/>
-    <mergeCell ref="R21:R24"/>
-    <mergeCell ref="S21:S24"/>
-    <mergeCell ref="T21:T24"/>
-    <mergeCell ref="U21:U24"/>
-    <mergeCell ref="O21:O24"/>
-    <mergeCell ref="P21:P24"/>
-    <mergeCell ref="Q21:Q24"/>
-    <mergeCell ref="D40:H40"/>
-    <mergeCell ref="I40:L40"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="H42:H45"/>
-    <mergeCell ref="M42:M45"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="H46:H49"/>
-    <mergeCell ref="M46:M49"/>
-    <mergeCell ref="N46:N49"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="H50:H53"/>
-    <mergeCell ref="M50:M53"/>
-    <mergeCell ref="N50:N53"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="H54:H57"/>
-    <mergeCell ref="M54:M57"/>
-    <mergeCell ref="N54:N57"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="H58:H61"/>
-    <mergeCell ref="M58:M61"/>
-    <mergeCell ref="N58:N61"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="H70:H73"/>
-    <mergeCell ref="M70:M73"/>
-    <mergeCell ref="N70:N73"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="H62:H65"/>
-    <mergeCell ref="M62:M65"/>
-    <mergeCell ref="N62:N65"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="H66:H69"/>
-    <mergeCell ref="M66:M69"/>
-    <mergeCell ref="N66:N69"/>
+    <mergeCell ref="Q13:Q16"/>
+    <mergeCell ref="Q9:Q12"/>
+    <mergeCell ref="R9:R12"/>
+    <mergeCell ref="S9:S12"/>
+    <mergeCell ref="T9:T12"/>
+    <mergeCell ref="U9:U12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="M9:M12"/>
+    <mergeCell ref="N9:N12"/>
+    <mergeCell ref="O9:O12"/>
+    <mergeCell ref="P9:P12"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N9 N13 N17 N21">
@@ -9533,28 +9674,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU434"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42:N56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="22" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.5703125" style="22" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.5703125" style="22" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.28515625" style="22" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.5703125" style="22" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="9.85546875" style="22" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.140625" style="22" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.85546875" style="22" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="36.140625" style="22" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="30.5703125" style="22" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="21.42578125" style="22" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="25.5703125" style="22" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="20.7109375" style="22" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="21.28515625" style="22" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="23.5703125" style="22" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="20.85546875" style="22" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="30.140625" style="22" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="17.85546875" style="22" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="22.42578125" style="22" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.7109375" style="22" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="10.42578125" style="22" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="20.140625" style="22" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="21.85546875" style="22" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="24.42578125" style="22" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="15.85546875" style="22" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="17.85546875" style="22" customWidth="1" collapsed="1"/>
     <col min="17" max="17" width="23.5703125" style="22" customWidth="1" collapsed="1"/>
     <col min="18" max="18" width="23" style="22" customWidth="1" collapsed="1"/>
     <col min="19" max="19" width="15.28515625" style="22" customWidth="1" collapsed="1"/>
@@ -9576,15 +9717,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="39" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="F1" s="360" t="s">
+      <c r="F1" s="333" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="360"/>
-      <c r="H1" s="360"/>
-      <c r="I1" s="360"/>
-      <c r="J1" s="360"/>
-      <c r="K1" s="360"/>
-      <c r="L1" s="360"/>
+      <c r="G1" s="333"/>
+      <c r="H1" s="333"/>
+      <c r="I1" s="333"/>
+      <c r="J1" s="333"/>
+      <c r="K1" s="333"/>
+      <c r="L1" s="333"/>
       <c r="U1" s="22" t="s">
         <v>62</v>
       </c>
@@ -9633,22 +9774,22 @@
       <c r="L5" s="23"/>
     </row>
     <row r="6" spans="1:47" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D6" s="361" t="s">
+      <c r="D6" s="334" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="362"/>
-      <c r="F6" s="362"/>
-      <c r="G6" s="362"/>
-      <c r="H6" s="363"/>
+      <c r="E6" s="335"/>
+      <c r="F6" s="335"/>
+      <c r="G6" s="335"/>
+      <c r="H6" s="336"/>
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
-      <c r="M6" s="361" t="s">
+      <c r="M6" s="334" t="s">
         <v>66</v>
       </c>
-      <c r="N6" s="362"/>
-      <c r="O6" s="362"/>
-      <c r="P6" s="362"/>
-      <c r="Q6" s="363"/>
+      <c r="N6" s="335"/>
+      <c r="O6" s="335"/>
+      <c r="P6" s="335"/>
+      <c r="Q6" s="336"/>
     </row>
     <row r="7" spans="1:47" ht="76.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="24" t="s">
@@ -9666,10 +9807,10 @@
       <c r="E7" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="364" t="s">
+      <c r="F7" s="337" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="365"/>
+      <c r="G7" s="338"/>
       <c r="H7" s="24" t="s">
         <v>73</v>
       </c>
@@ -9692,10 +9833,10 @@
         <v>79</v>
       </c>
       <c r="O7" s="29"/>
-      <c r="P7" s="364" t="s">
+      <c r="P7" s="337" t="s">
         <v>80</v>
       </c>
-      <c r="Q7" s="365"/>
+      <c r="Q7" s="338"/>
       <c r="R7" s="30" t="s">
         <v>74</v>
       </c>
@@ -9770,7 +9911,7 @@
     </row>
     <row r="9" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="39"/>
-      <c r="B9" s="352"/>
+      <c r="B9" s="339"/>
       <c r="C9" s="40"/>
       <c r="D9" s="40"/>
       <c r="E9" s="40"/>
@@ -9781,15 +9922,15 @@
       <c r="J9" s="36"/>
       <c r="K9" s="36"/>
       <c r="L9" s="42"/>
-      <c r="M9" s="343"/>
-      <c r="N9" s="355"/>
-      <c r="O9" s="343"/>
-      <c r="P9" s="343"/>
-      <c r="Q9" s="343"/>
-      <c r="R9" s="343"/>
-      <c r="S9" s="343"/>
-      <c r="T9" s="346"/>
-      <c r="U9" s="343"/>
+      <c r="M9" s="330"/>
+      <c r="N9" s="342"/>
+      <c r="O9" s="330"/>
+      <c r="P9" s="330"/>
+      <c r="Q9" s="330"/>
+      <c r="R9" s="330"/>
+      <c r="S9" s="330"/>
+      <c r="T9" s="345"/>
+      <c r="U9" s="330"/>
       <c r="V9" s="41"/>
       <c r="W9" s="36"/>
       <c r="X9" s="36"/>
@@ -9799,7 +9940,7 @@
     </row>
     <row r="10" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="40"/>
-      <c r="B10" s="353"/>
+      <c r="B10" s="340"/>
       <c r="C10" s="40"/>
       <c r="D10" s="40"/>
       <c r="E10" s="40"/>
@@ -9810,15 +9951,15 @@
       <c r="J10" s="36"/>
       <c r="K10" s="36"/>
       <c r="L10" s="42"/>
-      <c r="M10" s="344"/>
-      <c r="N10" s="356"/>
-      <c r="O10" s="344"/>
-      <c r="P10" s="344"/>
-      <c r="Q10" s="344"/>
-      <c r="R10" s="344"/>
-      <c r="S10" s="344"/>
-      <c r="T10" s="347"/>
-      <c r="U10" s="344"/>
+      <c r="M10" s="331"/>
+      <c r="N10" s="343"/>
+      <c r="O10" s="331"/>
+      <c r="P10" s="331"/>
+      <c r="Q10" s="331"/>
+      <c r="R10" s="331"/>
+      <c r="S10" s="331"/>
+      <c r="T10" s="346"/>
+      <c r="U10" s="331"/>
       <c r="V10" s="41"/>
       <c r="W10" s="36"/>
       <c r="X10" s="36"/>
@@ -9826,8 +9967,8 @@
       <c r="AK10" s="46"/>
     </row>
     <row r="11" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="343"/>
-      <c r="B11" s="353"/>
+      <c r="A11" s="330"/>
+      <c r="B11" s="340"/>
       <c r="C11" s="40"/>
       <c r="D11" s="40"/>
       <c r="E11" s="40"/>
@@ -9838,15 +9979,15 @@
       <c r="J11" s="36"/>
       <c r="K11" s="36"/>
       <c r="L11" s="42"/>
-      <c r="M11" s="344"/>
-      <c r="N11" s="356"/>
-      <c r="O11" s="344"/>
-      <c r="P11" s="344"/>
-      <c r="Q11" s="344"/>
-      <c r="R11" s="344"/>
-      <c r="S11" s="344"/>
-      <c r="T11" s="347"/>
-      <c r="U11" s="344"/>
+      <c r="M11" s="331"/>
+      <c r="N11" s="343"/>
+      <c r="O11" s="331"/>
+      <c r="P11" s="331"/>
+      <c r="Q11" s="331"/>
+      <c r="R11" s="331"/>
+      <c r="S11" s="331"/>
+      <c r="T11" s="346"/>
+      <c r="U11" s="331"/>
       <c r="V11" s="41"/>
       <c r="W11" s="36"/>
       <c r="X11" s="36"/>
@@ -9856,8 +9997,8 @@
       <c r="AU11" s="65"/>
     </row>
     <row r="12" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="345"/>
-      <c r="B12" s="354"/>
+      <c r="A12" s="332"/>
+      <c r="B12" s="341"/>
       <c r="C12" s="40"/>
       <c r="D12" s="40"/>
       <c r="E12" s="40"/>
@@ -9868,15 +10009,15 @@
       <c r="J12" s="36"/>
       <c r="K12" s="36"/>
       <c r="L12" s="42"/>
-      <c r="M12" s="345"/>
-      <c r="N12" s="357"/>
-      <c r="O12" s="345"/>
-      <c r="P12" s="345"/>
-      <c r="Q12" s="345"/>
-      <c r="R12" s="345"/>
-      <c r="S12" s="345"/>
-      <c r="T12" s="348"/>
-      <c r="U12" s="345"/>
+      <c r="M12" s="332"/>
+      <c r="N12" s="344"/>
+      <c r="O12" s="332"/>
+      <c r="P12" s="332"/>
+      <c r="Q12" s="332"/>
+      <c r="R12" s="332"/>
+      <c r="S12" s="332"/>
+      <c r="T12" s="347"/>
+      <c r="U12" s="332"/>
       <c r="V12" s="41"/>
       <c r="W12" s="36"/>
       <c r="X12" s="36"/>
@@ -9885,7 +10026,7 @@
     </row>
     <row r="13" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="43"/>
-      <c r="B13" s="352"/>
+      <c r="B13" s="339"/>
       <c r="C13" s="40"/>
       <c r="D13" s="40"/>
       <c r="E13" s="40"/>
@@ -9896,15 +10037,15 @@
       <c r="J13" s="36"/>
       <c r="K13" s="36"/>
       <c r="L13" s="42"/>
-      <c r="M13" s="343"/>
-      <c r="N13" s="355"/>
-      <c r="O13" s="343"/>
-      <c r="P13" s="343"/>
-      <c r="Q13" s="343"/>
-      <c r="R13" s="343"/>
-      <c r="S13" s="343"/>
-      <c r="T13" s="346"/>
-      <c r="U13" s="343"/>
+      <c r="M13" s="330"/>
+      <c r="N13" s="342"/>
+      <c r="O13" s="330"/>
+      <c r="P13" s="330"/>
+      <c r="Q13" s="330"/>
+      <c r="R13" s="330"/>
+      <c r="S13" s="330"/>
+      <c r="T13" s="345"/>
+      <c r="U13" s="330"/>
       <c r="V13" s="41"/>
       <c r="W13" s="36"/>
       <c r="X13" s="36"/>
@@ -9913,7 +10054,7 @@
     </row>
     <row r="14" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="44"/>
-      <c r="B14" s="353"/>
+      <c r="B14" s="340"/>
       <c r="C14" s="40"/>
       <c r="D14" s="40"/>
       <c r="E14" s="40"/>
@@ -9924,15 +10065,15 @@
       <c r="J14" s="36"/>
       <c r="K14" s="36"/>
       <c r="L14" s="42"/>
-      <c r="M14" s="344"/>
-      <c r="N14" s="356"/>
-      <c r="O14" s="344"/>
-      <c r="P14" s="344"/>
-      <c r="Q14" s="344"/>
-      <c r="R14" s="344"/>
-      <c r="S14" s="344"/>
-      <c r="T14" s="347"/>
-      <c r="U14" s="344"/>
+      <c r="M14" s="331"/>
+      <c r="N14" s="343"/>
+      <c r="O14" s="331"/>
+      <c r="P14" s="331"/>
+      <c r="Q14" s="331"/>
+      <c r="R14" s="331"/>
+      <c r="S14" s="331"/>
+      <c r="T14" s="346"/>
+      <c r="U14" s="331"/>
       <c r="V14" s="41"/>
       <c r="W14" s="36"/>
       <c r="X14" s="36"/>
@@ -9940,8 +10081,8 @@
       <c r="AT14" s="70"/>
     </row>
     <row r="15" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="358"/>
-      <c r="B15" s="353"/>
+      <c r="A15" s="348"/>
+      <c r="B15" s="340"/>
       <c r="C15" s="40"/>
       <c r="D15" s="40"/>
       <c r="E15" s="40"/>
@@ -9952,15 +10093,15 @@
       <c r="J15" s="36"/>
       <c r="K15" s="36"/>
       <c r="L15" s="42"/>
-      <c r="M15" s="344"/>
-      <c r="N15" s="356"/>
-      <c r="O15" s="344"/>
-      <c r="P15" s="344"/>
-      <c r="Q15" s="344"/>
-      <c r="R15" s="344"/>
-      <c r="S15" s="344"/>
-      <c r="T15" s="347"/>
-      <c r="U15" s="344"/>
+      <c r="M15" s="331"/>
+      <c r="N15" s="343"/>
+      <c r="O15" s="331"/>
+      <c r="P15" s="331"/>
+      <c r="Q15" s="331"/>
+      <c r="R15" s="331"/>
+      <c r="S15" s="331"/>
+      <c r="T15" s="346"/>
+      <c r="U15" s="331"/>
       <c r="V15" s="41"/>
       <c r="W15" s="36"/>
       <c r="X15" s="36"/>
@@ -9968,8 +10109,8 @@
       <c r="AT15" s="46"/>
     </row>
     <row r="16" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="359"/>
-      <c r="B16" s="354"/>
+      <c r="A16" s="349"/>
+      <c r="B16" s="341"/>
       <c r="C16" s="40"/>
       <c r="D16" s="40"/>
       <c r="E16" s="40"/>
@@ -9980,15 +10121,15 @@
       <c r="J16" s="36"/>
       <c r="K16" s="36"/>
       <c r="L16" s="42"/>
-      <c r="M16" s="345"/>
-      <c r="N16" s="357"/>
-      <c r="O16" s="345"/>
-      <c r="P16" s="345"/>
-      <c r="Q16" s="345"/>
-      <c r="R16" s="345"/>
-      <c r="S16" s="345"/>
-      <c r="T16" s="348"/>
-      <c r="U16" s="345"/>
+      <c r="M16" s="332"/>
+      <c r="N16" s="344"/>
+      <c r="O16" s="332"/>
+      <c r="P16" s="332"/>
+      <c r="Q16" s="332"/>
+      <c r="R16" s="332"/>
+      <c r="S16" s="332"/>
+      <c r="T16" s="347"/>
+      <c r="U16" s="332"/>
       <c r="V16" s="41"/>
       <c r="W16" s="36"/>
       <c r="X16" s="36"/>
@@ -9997,7 +10138,7 @@
     </row>
     <row r="17" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="39"/>
-      <c r="B17" s="352"/>
+      <c r="B17" s="339"/>
       <c r="C17" s="40"/>
       <c r="D17" s="40"/>
       <c r="E17" s="40"/>
@@ -10008,15 +10149,15 @@
       <c r="J17" s="36"/>
       <c r="K17" s="36"/>
       <c r="L17" s="42"/>
-      <c r="M17" s="343"/>
-      <c r="N17" s="355"/>
-      <c r="O17" s="343"/>
-      <c r="P17" s="343"/>
-      <c r="Q17" s="343"/>
-      <c r="R17" s="343"/>
-      <c r="S17" s="343"/>
-      <c r="T17" s="346"/>
-      <c r="U17" s="343"/>
+      <c r="M17" s="330"/>
+      <c r="N17" s="342"/>
+      <c r="O17" s="330"/>
+      <c r="P17" s="330"/>
+      <c r="Q17" s="330"/>
+      <c r="R17" s="330"/>
+      <c r="S17" s="330"/>
+      <c r="T17" s="345"/>
+      <c r="U17" s="330"/>
       <c r="V17" s="41"/>
       <c r="W17" s="36"/>
       <c r="X17" s="36"/>
@@ -10025,7 +10166,7 @@
     </row>
     <row r="18" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="40"/>
-      <c r="B18" s="353"/>
+      <c r="B18" s="340"/>
       <c r="C18" s="40"/>
       <c r="D18" s="40"/>
       <c r="E18" s="40"/>
@@ -10036,22 +10177,22 @@
       <c r="J18" s="36"/>
       <c r="K18" s="36"/>
       <c r="L18" s="42"/>
-      <c r="M18" s="344"/>
-      <c r="N18" s="356"/>
-      <c r="O18" s="344"/>
-      <c r="P18" s="344"/>
-      <c r="Q18" s="344"/>
-      <c r="R18" s="344"/>
-      <c r="S18" s="344"/>
-      <c r="T18" s="347"/>
-      <c r="U18" s="344"/>
+      <c r="M18" s="331"/>
+      <c r="N18" s="343"/>
+      <c r="O18" s="331"/>
+      <c r="P18" s="331"/>
+      <c r="Q18" s="331"/>
+      <c r="R18" s="331"/>
+      <c r="S18" s="331"/>
+      <c r="T18" s="346"/>
+      <c r="U18" s="331"/>
       <c r="V18" s="41"/>
       <c r="W18" s="36"/>
       <c r="X18" s="36"/>
     </row>
     <row r="19" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="343"/>
-      <c r="B19" s="353"/>
+      <c r="A19" s="330"/>
+      <c r="B19" s="340"/>
       <c r="C19" s="40"/>
       <c r="D19" s="40"/>
       <c r="E19" s="40"/>
@@ -10062,22 +10203,22 @@
       <c r="J19" s="36"/>
       <c r="K19" s="36"/>
       <c r="L19" s="42"/>
-      <c r="M19" s="344"/>
-      <c r="N19" s="356"/>
-      <c r="O19" s="344"/>
-      <c r="P19" s="344"/>
-      <c r="Q19" s="344"/>
-      <c r="R19" s="344"/>
-      <c r="S19" s="344"/>
-      <c r="T19" s="347"/>
-      <c r="U19" s="344"/>
+      <c r="M19" s="331"/>
+      <c r="N19" s="343"/>
+      <c r="O19" s="331"/>
+      <c r="P19" s="331"/>
+      <c r="Q19" s="331"/>
+      <c r="R19" s="331"/>
+      <c r="S19" s="331"/>
+      <c r="T19" s="346"/>
+      <c r="U19" s="331"/>
       <c r="V19" s="41"/>
       <c r="W19" s="36"/>
       <c r="X19" s="36"/>
     </row>
     <row r="20" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="345"/>
-      <c r="B20" s="354"/>
+      <c r="A20" s="332"/>
+      <c r="B20" s="341"/>
       <c r="C20" s="40"/>
       <c r="D20" s="40"/>
       <c r="E20" s="40"/>
@@ -10088,22 +10229,22 @@
       <c r="J20" s="36"/>
       <c r="K20" s="36"/>
       <c r="L20" s="42"/>
-      <c r="M20" s="345"/>
-      <c r="N20" s="357"/>
-      <c r="O20" s="345"/>
-      <c r="P20" s="345"/>
-      <c r="Q20" s="345"/>
-      <c r="R20" s="345"/>
-      <c r="S20" s="345"/>
-      <c r="T20" s="348"/>
-      <c r="U20" s="345"/>
+      <c r="M20" s="332"/>
+      <c r="N20" s="344"/>
+      <c r="O20" s="332"/>
+      <c r="P20" s="332"/>
+      <c r="Q20" s="332"/>
+      <c r="R20" s="332"/>
+      <c r="S20" s="332"/>
+      <c r="T20" s="347"/>
+      <c r="U20" s="332"/>
       <c r="V20" s="41"/>
       <c r="W20" s="36"/>
       <c r="X20" s="36"/>
     </row>
     <row r="21" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="39"/>
-      <c r="B21" s="352"/>
+      <c r="B21" s="339"/>
       <c r="C21" s="40"/>
       <c r="D21" s="40"/>
       <c r="E21" s="40"/>
@@ -10114,22 +10255,22 @@
       <c r="J21" s="36"/>
       <c r="K21" s="36"/>
       <c r="L21" s="42"/>
-      <c r="M21" s="343"/>
-      <c r="N21" s="355"/>
-      <c r="O21" s="343"/>
-      <c r="P21" s="343"/>
-      <c r="Q21" s="343"/>
-      <c r="R21" s="343"/>
-      <c r="S21" s="343"/>
-      <c r="T21" s="346"/>
-      <c r="U21" s="343"/>
+      <c r="M21" s="330"/>
+      <c r="N21" s="342"/>
+      <c r="O21" s="330"/>
+      <c r="P21" s="330"/>
+      <c r="Q21" s="330"/>
+      <c r="R21" s="330"/>
+      <c r="S21" s="330"/>
+      <c r="T21" s="345"/>
+      <c r="U21" s="330"/>
       <c r="V21" s="41"/>
       <c r="W21" s="36"/>
       <c r="X21" s="36"/>
     </row>
     <row r="22" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="40"/>
-      <c r="B22" s="353"/>
+      <c r="B22" s="340"/>
       <c r="C22" s="40"/>
       <c r="D22" s="40"/>
       <c r="E22" s="40"/>
@@ -10140,22 +10281,22 @@
       <c r="J22" s="36"/>
       <c r="K22" s="36"/>
       <c r="L22" s="42"/>
-      <c r="M22" s="344"/>
-      <c r="N22" s="356"/>
-      <c r="O22" s="344"/>
-      <c r="P22" s="344"/>
-      <c r="Q22" s="344"/>
-      <c r="R22" s="344"/>
-      <c r="S22" s="344"/>
-      <c r="T22" s="347"/>
-      <c r="U22" s="344"/>
+      <c r="M22" s="331"/>
+      <c r="N22" s="343"/>
+      <c r="O22" s="331"/>
+      <c r="P22" s="331"/>
+      <c r="Q22" s="331"/>
+      <c r="R22" s="331"/>
+      <c r="S22" s="331"/>
+      <c r="T22" s="346"/>
+      <c r="U22" s="331"/>
       <c r="V22" s="41"/>
       <c r="W22" s="36"/>
       <c r="X22" s="36"/>
     </row>
     <row r="23" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="349"/>
-      <c r="B23" s="353"/>
+      <c r="A23" s="350"/>
+      <c r="B23" s="340"/>
       <c r="C23" s="40"/>
       <c r="D23" s="40"/>
       <c r="E23" s="40"/>
@@ -10166,22 +10307,22 @@
       <c r="J23" s="36"/>
       <c r="K23" s="36"/>
       <c r="L23" s="42"/>
-      <c r="M23" s="344"/>
-      <c r="N23" s="356"/>
-      <c r="O23" s="344"/>
-      <c r="P23" s="344"/>
-      <c r="Q23" s="344"/>
-      <c r="R23" s="344"/>
-      <c r="S23" s="344"/>
-      <c r="T23" s="347"/>
-      <c r="U23" s="344"/>
+      <c r="M23" s="331"/>
+      <c r="N23" s="343"/>
+      <c r="O23" s="331"/>
+      <c r="P23" s="331"/>
+      <c r="Q23" s="331"/>
+      <c r="R23" s="331"/>
+      <c r="S23" s="331"/>
+      <c r="T23" s="346"/>
+      <c r="U23" s="331"/>
       <c r="V23" s="41"/>
       <c r="W23" s="36"/>
       <c r="X23" s="36"/>
     </row>
     <row r="24" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="350"/>
-      <c r="B24" s="354"/>
+      <c r="A24" s="351"/>
+      <c r="B24" s="341"/>
       <c r="C24" s="40"/>
       <c r="D24" s="40"/>
       <c r="E24" s="40"/>
@@ -10192,15 +10333,15 @@
       <c r="J24" s="36"/>
       <c r="K24" s="36"/>
       <c r="L24" s="42"/>
-      <c r="M24" s="345"/>
-      <c r="N24" s="357"/>
-      <c r="O24" s="345"/>
-      <c r="P24" s="345"/>
-      <c r="Q24" s="345"/>
-      <c r="R24" s="345"/>
-      <c r="S24" s="345"/>
-      <c r="T24" s="348"/>
-      <c r="U24" s="345"/>
+      <c r="M24" s="332"/>
+      <c r="N24" s="344"/>
+      <c r="O24" s="332"/>
+      <c r="P24" s="332"/>
+      <c r="Q24" s="332"/>
+      <c r="R24" s="332"/>
+      <c r="S24" s="332"/>
+      <c r="T24" s="347"/>
+      <c r="U24" s="332"/>
       <c r="V24" s="41"/>
       <c r="W24" s="36"/>
       <c r="X24" s="36"/>
@@ -10256,13 +10397,13 @@
       <c r="D27" s="46"/>
       <c r="E27" s="46"/>
       <c r="F27" s="46"/>
-      <c r="H27" s="351" t="s">
+      <c r="H27" s="352" t="s">
         <v>206</v>
       </c>
-      <c r="I27" s="351"/>
-      <c r="J27" s="351"/>
-      <c r="K27" s="351"/>
-      <c r="L27" s="351"/>
+      <c r="I27" s="352"/>
+      <c r="J27" s="352"/>
+      <c r="K27" s="352"/>
+      <c r="L27" s="352"/>
       <c r="M27" s="48"/>
       <c r="N27" s="48"/>
       <c r="O27" s="46"/>
@@ -10554,37 +10695,35 @@
       <c r="AO39" s="23"/>
     </row>
     <row r="40" spans="1:41" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B40" s="104"/>
-      <c r="C40" s="105"/>
-      <c r="D40" s="366" t="s">
+      <c r="D40" s="104"/>
+      <c r="E40" s="105"/>
+      <c r="F40" s="374" t="s">
         <v>4</v>
       </c>
-      <c r="E40" s="367"/>
-      <c r="F40" s="367"/>
-      <c r="G40" s="367"/>
-      <c r="H40" s="293"/>
-      <c r="I40" s="368" t="s">
+      <c r="G40" s="375"/>
+      <c r="H40" s="375"/>
+      <c r="I40" s="388"/>
+      <c r="J40" s="377" t="s">
         <v>5</v>
       </c>
-      <c r="J40" s="368"/>
-      <c r="K40" s="368"/>
-      <c r="L40" s="368"/>
-      <c r="M40" s="117"/>
+      <c r="K40" s="378"/>
+      <c r="L40" s="378"/>
+      <c r="M40" s="379"/>
       <c r="N40" s="118" t="s">
         <v>48</v>
       </c>
       <c r="P40" s="252"/>
-      <c r="Q40" s="369" t="s">
-        <v>241</v>
-      </c>
-      <c r="R40" s="369"/>
-      <c r="S40" s="369"/>
-      <c r="T40" s="369"/>
-      <c r="U40" s="369"/>
-      <c r="V40" s="369"/>
-      <c r="W40" s="369"/>
-      <c r="X40" s="369"/>
-      <c r="Y40" s="369"/>
+      <c r="Q40" s="376" t="s">
+        <v>234</v>
+      </c>
+      <c r="R40" s="376"/>
+      <c r="S40" s="376"/>
+      <c r="T40" s="376"/>
+      <c r="U40" s="376"/>
+      <c r="V40" s="376"/>
+      <c r="W40" s="376"/>
+      <c r="X40" s="376"/>
+      <c r="Y40" s="376"/>
       <c r="Z40" s="46"/>
       <c r="AA40" s="46"/>
       <c r="AB40" s="46"/>
@@ -10602,42 +10741,40 @@
       <c r="AN40" s="74"/>
       <c r="AO40" s="23"/>
     </row>
-    <row r="41" spans="1:41" ht="47.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="286" t="s">
-        <v>207</v>
-      </c>
-      <c r="C41" s="287" t="s">
+    <row r="41" spans="1:41" ht="75.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D41" s="279" t="s">
+        <v>235</v>
+      </c>
+      <c r="E41" s="280" t="s">
         <v>124</v>
       </c>
-      <c r="D41" s="287" t="s">
+      <c r="F41" s="280" t="s">
         <v>119</v>
       </c>
-      <c r="E41" s="287" t="s">
+      <c r="G41" s="280" t="s">
         <v>125</v>
       </c>
-      <c r="F41" s="287" t="s">
+      <c r="H41" s="280" t="s">
         <v>126</v>
       </c>
-      <c r="G41" s="287" t="s">
+      <c r="I41" s="280" t="s">
         <v>127</v>
       </c>
-      <c r="H41" s="289"/>
-      <c r="I41" s="291" t="s">
+      <c r="J41" s="282" t="s">
         <v>119</v>
       </c>
-      <c r="J41" s="291" t="s">
+      <c r="K41" s="282" t="s">
         <v>125</v>
       </c>
-      <c r="K41" s="291" t="s">
+      <c r="L41" s="282" t="s">
         <v>126</v>
       </c>
-      <c r="L41" s="292" t="s">
+      <c r="M41" s="283" t="s">
         <v>127</v>
       </c>
-      <c r="M41" s="288" t="s">
+      <c r="N41" s="281" t="s">
         <v>128</v>
       </c>
-      <c r="N41" s="290"/>
       <c r="P41" s="255"/>
       <c r="Q41" s="265" t="s">
         <v>227</v>
@@ -10658,24 +10795,24 @@
         <v>229</v>
       </c>
       <c r="W41" s="266" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="X41" s="266" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="Y41" s="266" t="s">
-        <v>240</v>
-      </c>
-      <c r="Z41" s="278" t="s">
+        <v>233</v>
+      </c>
+      <c r="Z41" s="271" t="s">
         <v>191</v>
       </c>
-      <c r="AA41" s="278" t="s">
+      <c r="AA41" s="271" t="s">
         <v>192</v>
       </c>
-      <c r="AB41" s="278" t="s">
-        <v>237</v>
-      </c>
-      <c r="AC41" s="321" t="s">
+      <c r="AB41" s="271" t="s">
+        <v>230</v>
+      </c>
+      <c r="AC41" s="311" t="s">
         <v>48</v>
       </c>
       <c r="AD41" s="23"/>
@@ -10692,78 +10829,58 @@
       <c r="AO41" s="23"/>
     </row>
     <row r="42" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="267" t="s">
-        <v>230</v>
-      </c>
-      <c r="C42" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="D42" s="268">
-        <v>5.0000002374872565E-2</v>
-      </c>
-      <c r="E42" s="268">
-        <v>3.3333334916581708E-4</v>
-      </c>
-      <c r="F42" s="269">
-        <v>233.33334441607195</v>
-      </c>
-      <c r="G42" s="269">
-        <v>1.444788510316235E-3</v>
-      </c>
-      <c r="H42" s="270"/>
-      <c r="I42" s="268">
-        <v>5.000000074505806E-2</v>
-      </c>
-      <c r="J42" s="268">
-        <v>3.3333332976326346E-4</v>
-      </c>
-      <c r="K42" s="269">
-        <v>233.33334350585937</v>
-      </c>
-      <c r="L42" s="269">
-        <v>1.4447884168475866E-3</v>
-      </c>
-      <c r="M42" s="270"/>
-      <c r="N42" s="271"/>
+      <c r="D42" s="267"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="389"/>
+      <c r="G42" s="389"/>
+      <c r="H42" s="390"/>
+      <c r="I42" s="390"/>
+      <c r="J42" s="390"/>
+      <c r="K42" s="389"/>
+      <c r="L42" s="389"/>
+      <c r="M42" s="390"/>
+      <c r="N42" s="392"/>
       <c r="O42" s="64"/>
       <c r="P42" s="257"/>
-      <c r="Q42" s="279" t="s">
-        <v>230</v>
-      </c>
-      <c r="R42" s="280" t="s">
+      <c r="Q42" s="272" t="s">
+        <v>236</v>
+      </c>
+      <c r="R42" s="273" t="s">
         <v>222</v>
       </c>
-      <c r="S42" s="280">
+      <c r="S42" s="273">
         <v>1500</v>
       </c>
-      <c r="T42" s="280">
+      <c r="T42" s="273">
         <v>10</v>
       </c>
-      <c r="U42" s="280">
+      <c r="U42" s="273">
         <v>11</v>
       </c>
-      <c r="V42" s="280">
+      <c r="V42" s="273">
         <v>20</v>
       </c>
-      <c r="W42" s="280">
+      <c r="W42" s="273">
         <v>9.6749229123815894E-3</v>
       </c>
-      <c r="X42" s="280">
+      <c r="X42" s="273">
         <v>8.7953844658014452E-4</v>
       </c>
-      <c r="Y42" s="281">
+      <c r="Y42" s="274">
         <v>7.2561919689178463E-5</v>
       </c>
-      <c r="Z42" s="280">
+      <c r="Z42" s="273">
         <v>1.4447884634137154E-2</v>
       </c>
-      <c r="AA42" s="280">
+      <c r="AA42" s="273">
         <v>1.3134441105648875E-3</v>
       </c>
-      <c r="AB42" s="318">
+      <c r="AB42" s="308">
         <v>1.0835913417395204E-4</v>
       </c>
-      <c r="AC42" s="50"/>
+      <c r="AC42" s="312" t="s">
+        <v>59</v>
+      </c>
       <c r="AD42" s="64"/>
       <c r="AE42" s="64"/>
       <c r="AF42" s="64"/>
@@ -10778,76 +10895,58 @@
       <c r="AO42" s="23"/>
     </row>
     <row r="43" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B43" s="267"/>
-      <c r="C43" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="D43" s="269">
-        <v>5.0000002374872565E-2</v>
-      </c>
-      <c r="E43" s="268">
-        <v>2.083333432286357E-4</v>
-      </c>
-      <c r="F43" s="269">
-        <v>156.25000742147677</v>
-      </c>
-      <c r="G43" s="272">
-        <v>9.6749230601533604E-4</v>
-      </c>
-      <c r="H43" s="270"/>
-      <c r="I43" s="268" t="s">
-        <v>231</v>
-      </c>
-      <c r="J43" s="268" t="s">
-        <v>231</v>
-      </c>
-      <c r="K43" s="272" t="s">
-        <v>231</v>
-      </c>
-      <c r="L43" s="272" t="s">
-        <v>231</v>
-      </c>
-      <c r="M43" s="270"/>
-      <c r="N43" s="270"/>
+      <c r="D43" s="267"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="390"/>
+      <c r="G43" s="389"/>
+      <c r="H43" s="390"/>
+      <c r="I43" s="391"/>
+      <c r="J43" s="390"/>
+      <c r="K43" s="389"/>
+      <c r="L43" s="389"/>
+      <c r="M43" s="391"/>
+      <c r="N43" s="393"/>
       <c r="O43" s="64"/>
       <c r="P43" s="257"/>
-      <c r="Q43" s="279" t="s">
-        <v>230</v>
-      </c>
-      <c r="R43" s="280" t="s">
+      <c r="Q43" s="272" t="s">
+        <v>236</v>
+      </c>
+      <c r="R43" s="273" t="s">
         <v>223</v>
       </c>
-      <c r="S43" s="280">
+      <c r="S43" s="273">
         <v>150000</v>
       </c>
-      <c r="T43" s="280">
+      <c r="T43" s="273">
         <v>10</v>
       </c>
-      <c r="U43" s="280">
+      <c r="U43" s="273">
         <v>11</v>
       </c>
-      <c r="V43" s="280">
+      <c r="V43" s="273">
         <v>20</v>
       </c>
-      <c r="W43" s="280">
+      <c r="W43" s="273">
         <v>9.6749229123815894E-3</v>
       </c>
-      <c r="X43" s="280">
+      <c r="X43" s="273">
         <v>8.7953844658014452E-4</v>
       </c>
-      <c r="Y43" s="281">
+      <c r="Y43" s="274">
         <v>7.2561920166015629E-3</v>
       </c>
-      <c r="Z43" s="280">
+      <c r="Z43" s="273">
         <v>1.4447884634137154E-2</v>
       </c>
-      <c r="AA43" s="280">
+      <c r="AA43" s="273">
         <v>1.3134441105648875E-3</v>
       </c>
-      <c r="AB43" s="318">
+      <c r="AB43" s="308">
         <v>1.0835913009941578E-2</v>
       </c>
-      <c r="AC43" s="50"/>
+      <c r="AC43" s="313" t="s">
+        <v>59</v>
+      </c>
       <c r="AD43" s="64"/>
       <c r="AE43" s="64"/>
       <c r="AF43" s="64"/>
@@ -10862,76 +10961,58 @@
       <c r="AO43" s="23"/>
     </row>
     <row r="44" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="267"/>
-      <c r="C44" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="D44" s="268">
-        <v>5.0000002374872565E-2</v>
-      </c>
-      <c r="E44" s="268">
-        <v>1.2500000593718141E-3</v>
-      </c>
-      <c r="F44" s="269">
-        <v>1125.0000534346327</v>
-      </c>
-      <c r="G44" s="269">
-        <v>6.9659446033104189E-3</v>
-      </c>
-      <c r="H44" s="270"/>
-      <c r="I44" s="268" t="s">
-        <v>231</v>
-      </c>
-      <c r="J44" s="268" t="s">
-        <v>231</v>
-      </c>
-      <c r="K44" s="269" t="s">
-        <v>231</v>
-      </c>
-      <c r="L44" s="269" t="s">
-        <v>231</v>
-      </c>
-      <c r="M44" s="270"/>
-      <c r="N44" s="270"/>
+      <c r="D44" s="267"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="389"/>
+      <c r="G44" s="389"/>
+      <c r="H44" s="390"/>
+      <c r="I44" s="390"/>
+      <c r="J44" s="390"/>
+      <c r="K44" s="389"/>
+      <c r="L44" s="389"/>
+      <c r="M44" s="390"/>
+      <c r="N44" s="394"/>
       <c r="O44" s="64"/>
       <c r="P44" s="257"/>
-      <c r="Q44" s="279" t="s">
-        <v>230</v>
-      </c>
-      <c r="R44" s="280" t="s">
+      <c r="Q44" s="272" t="s">
+        <v>236</v>
+      </c>
+      <c r="R44" s="273" t="s">
         <v>224</v>
       </c>
-      <c r="S44" s="280">
+      <c r="S44" s="273">
         <v>10000</v>
       </c>
-      <c r="T44" s="280">
+      <c r="T44" s="273">
         <v>10</v>
       </c>
-      <c r="U44" s="280">
+      <c r="U44" s="273">
         <v>11</v>
       </c>
-      <c r="V44" s="280">
+      <c r="V44" s="273">
         <v>20</v>
       </c>
-      <c r="W44" s="280">
+      <c r="W44" s="273">
         <v>9.6749229123815894E-3</v>
       </c>
-      <c r="X44" s="280">
+      <c r="X44" s="273">
         <v>8.7953844658014452E-4</v>
       </c>
-      <c r="Y44" s="281">
+      <c r="Y44" s="274">
         <v>4.8374614715576171E-4</v>
       </c>
-      <c r="Z44" s="280">
+      <c r="Z44" s="273">
         <v>1.4447884634137154E-2</v>
       </c>
-      <c r="AA44" s="280">
+      <c r="AA44" s="273">
         <v>1.3134441105648875E-3</v>
       </c>
-      <c r="AB44" s="318">
+      <c r="AB44" s="308">
         <v>7.2239420842379332E-4</v>
       </c>
-      <c r="AC44" s="50"/>
+      <c r="AC44" s="314" t="s">
+        <v>59</v>
+      </c>
       <c r="AD44" s="64"/>
       <c r="AE44" s="64"/>
       <c r="AF44" s="64"/>
@@ -10946,53 +11027,31 @@
       <c r="AO44" s="23"/>
     </row>
     <row r="45" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B45" s="267" t="s">
-        <v>232</v>
-      </c>
-      <c r="C45" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="D45" s="268">
-        <v>3.5000001662410796E-2</v>
-      </c>
-      <c r="E45" s="268">
-        <v>3.5000001662410796E-4</v>
-      </c>
-      <c r="F45" s="269">
-        <v>210.00000997446477</v>
-      </c>
-      <c r="G45" s="269">
-        <v>1.3003096592846116E-3</v>
-      </c>
-      <c r="H45" s="270"/>
-      <c r="I45" s="268" t="s">
-        <v>231</v>
-      </c>
-      <c r="J45" s="268" t="s">
-        <v>231</v>
-      </c>
-      <c r="K45" s="269" t="s">
-        <v>231</v>
-      </c>
-      <c r="L45" s="269" t="s">
-        <v>231</v>
-      </c>
-      <c r="M45" s="270"/>
-      <c r="N45" s="270"/>
+      <c r="D45" s="267"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="389"/>
+      <c r="G45" s="389"/>
+      <c r="H45" s="390"/>
+      <c r="I45" s="390"/>
+      <c r="J45" s="390"/>
+      <c r="K45" s="389"/>
+      <c r="L45" s="389"/>
+      <c r="M45" s="390"/>
+      <c r="N45" s="394"/>
       <c r="O45" s="64"/>
       <c r="P45" s="257"/>
-      <c r="Q45" s="279"/>
-      <c r="R45" s="280"/>
-      <c r="S45" s="280"/>
-      <c r="T45" s="280"/>
-      <c r="U45" s="280"/>
-      <c r="V45" s="280"/>
-      <c r="W45" s="280"/>
-      <c r="X45" s="280"/>
-      <c r="Y45" s="281"/>
-      <c r="Z45" s="280"/>
-      <c r="AA45" s="280"/>
-      <c r="AB45" s="318"/>
+      <c r="Q45" s="272"/>
+      <c r="R45" s="273"/>
+      <c r="S45" s="273"/>
+      <c r="T45" s="273"/>
+      <c r="U45" s="273"/>
+      <c r="V45" s="273"/>
+      <c r="W45" s="273"/>
+      <c r="X45" s="273"/>
+      <c r="Y45" s="274"/>
+      <c r="Z45" s="273"/>
+      <c r="AA45" s="273"/>
+      <c r="AB45" s="308"/>
       <c r="AC45" s="50"/>
       <c r="AD45" s="64"/>
       <c r="AE45" s="64"/>
@@ -11008,76 +11067,58 @@
       <c r="AO45" s="23"/>
     </row>
     <row r="46" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B46" s="267"/>
-      <c r="C46" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="D46" s="268">
-        <v>3.5000001662410796E-2</v>
-      </c>
-      <c r="E46" s="268">
-        <v>1.4583334026004499E-4</v>
-      </c>
-      <c r="F46" s="269">
-        <v>109.37500519503374</v>
-      </c>
-      <c r="G46" s="269">
-        <v>6.4338238350019846E-4</v>
-      </c>
-      <c r="H46" s="270"/>
-      <c r="I46" s="268">
-        <v>4.0000002831220627E-2</v>
-      </c>
-      <c r="J46" s="268">
-        <v>1.6666667943354696E-4</v>
-      </c>
-      <c r="K46" s="269">
-        <v>125.00000762939453</v>
-      </c>
-      <c r="L46" s="269">
-        <v>7.3529419023543596E-4</v>
-      </c>
-      <c r="M46" s="270"/>
-      <c r="N46" s="273"/>
+      <c r="D46" s="267"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="389"/>
+      <c r="G46" s="389"/>
+      <c r="H46" s="390"/>
+      <c r="I46" s="390"/>
+      <c r="J46" s="390"/>
+      <c r="K46" s="389"/>
+      <c r="L46" s="389"/>
+      <c r="M46" s="390"/>
+      <c r="N46" s="395"/>
       <c r="O46" s="64"/>
       <c r="P46" s="257"/>
-      <c r="Q46" s="279" t="s">
-        <v>232</v>
-      </c>
-      <c r="R46" s="280" t="s">
+      <c r="Q46" s="272" t="s">
+        <v>237</v>
+      </c>
+      <c r="R46" s="273" t="s">
         <v>222</v>
       </c>
-      <c r="S46" s="280">
+      <c r="S46" s="273">
         <v>1500</v>
       </c>
-      <c r="T46" s="280">
+      <c r="T46" s="273">
         <v>10</v>
       </c>
-      <c r="U46" s="280">
+      <c r="U46" s="273">
         <v>11</v>
       </c>
-      <c r="V46" s="280">
+      <c r="V46" s="273">
         <v>20</v>
       </c>
-      <c r="W46" s="280">
+      <c r="W46" s="273">
         <v>6.4338237280026078E-3</v>
       </c>
-      <c r="X46" s="280">
+      <c r="X46" s="273">
         <v>5.8489306618205524E-4</v>
       </c>
-      <c r="Y46" s="281">
+      <c r="Y46" s="274">
         <v>4.8253679275512697E-5</v>
       </c>
-      <c r="Z46" s="280">
+      <c r="Z46" s="273">
         <v>7.352941669523716E-3</v>
       </c>
-      <c r="AA46" s="280">
+      <c r="AA46" s="273">
         <v>6.6844926914200187E-4</v>
       </c>
-      <c r="AB46" s="318">
+      <c r="AB46" s="308">
         <v>5.5147062084870413E-5</v>
       </c>
-      <c r="AC46" s="50"/>
+      <c r="AC46" s="315" t="s">
+        <v>59</v>
+      </c>
       <c r="AD46" s="64"/>
       <c r="AE46" s="64"/>
       <c r="AF46" s="64"/>
@@ -11092,75 +11133,57 @@
       <c r="AO46" s="23"/>
     </row>
     <row r="47" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B47" s="267"/>
-      <c r="C47" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="D47" s="268">
-        <v>3.5000001662410796E-2</v>
-      </c>
-      <c r="E47" s="268">
-        <v>8.7500004156026989E-4</v>
-      </c>
-      <c r="F47" s="268">
-        <v>787.5000374042429</v>
-      </c>
-      <c r="G47" s="268">
-        <v>4.8761612223172934E-3</v>
-      </c>
-      <c r="H47" s="270"/>
-      <c r="I47" s="268" t="s">
-        <v>231</v>
-      </c>
-      <c r="J47" s="268" t="s">
-        <v>231</v>
-      </c>
-      <c r="K47" s="268" t="s">
-        <v>231</v>
-      </c>
-      <c r="L47" s="268" t="s">
-        <v>231</v>
-      </c>
-      <c r="M47" s="270"/>
-      <c r="N47" s="274"/>
+      <c r="D47" s="267"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="389"/>
+      <c r="G47" s="389"/>
+      <c r="H47" s="389"/>
+      <c r="I47" s="389"/>
+      <c r="J47" s="390"/>
+      <c r="K47" s="389"/>
+      <c r="L47" s="389"/>
+      <c r="M47" s="389"/>
+      <c r="N47" s="396"/>
       <c r="P47" s="227"/>
-      <c r="Q47" s="277" t="s">
-        <v>232</v>
-      </c>
-      <c r="R47" s="281" t="s">
+      <c r="Q47" s="270" t="s">
+        <v>237</v>
+      </c>
+      <c r="R47" s="274" t="s">
         <v>223</v>
       </c>
-      <c r="S47" s="282">
+      <c r="S47" s="275">
         <v>150000</v>
       </c>
-      <c r="T47" s="282">
+      <c r="T47" s="275">
         <v>10</v>
       </c>
-      <c r="U47" s="280">
+      <c r="U47" s="273">
         <v>11</v>
       </c>
-      <c r="V47" s="280">
+      <c r="V47" s="273">
         <v>20</v>
       </c>
-      <c r="W47" s="281">
+      <c r="W47" s="274">
         <v>6.4338237280026078E-3</v>
       </c>
-      <c r="X47" s="281">
+      <c r="X47" s="274">
         <v>5.8489306618205524E-4</v>
       </c>
-      <c r="Y47" s="281">
+      <c r="Y47" s="274">
         <v>4.8253677368164062E-3</v>
       </c>
-      <c r="Z47" s="281">
+      <c r="Z47" s="274">
         <v>7.352941669523716E-3</v>
       </c>
-      <c r="AA47" s="281">
+      <c r="AA47" s="274">
         <v>6.6844926914200187E-4</v>
       </c>
-      <c r="AB47" s="319">
+      <c r="AB47" s="309">
         <v>5.5147064849734306E-3</v>
       </c>
-      <c r="AC47" s="36"/>
+      <c r="AC47" s="316" t="s">
+        <v>59</v>
+      </c>
       <c r="AD47" s="23"/>
       <c r="AE47" s="251"/>
       <c r="AF47" s="23"/>
@@ -11175,77 +11198,57 @@
       <c r="AO47" s="23"/>
     </row>
     <row r="48" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B48" s="267" t="s">
-        <v>234</v>
-      </c>
-      <c r="C48" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="D48" s="268">
-        <v>3.5000001662410796E-2</v>
-      </c>
-      <c r="E48" s="268">
-        <v>3.5000001662410796E-4</v>
-      </c>
-      <c r="F48" s="268">
-        <v>210.00000997446477</v>
-      </c>
-      <c r="G48" s="268">
-        <v>1.3003096592846116E-3</v>
-      </c>
-      <c r="H48" s="270"/>
-      <c r="I48" s="268" t="s">
-        <v>231</v>
-      </c>
-      <c r="J48" s="268" t="s">
-        <v>231</v>
-      </c>
-      <c r="K48" s="268" t="s">
-        <v>231</v>
-      </c>
-      <c r="L48" s="268" t="s">
-        <v>231</v>
-      </c>
-      <c r="M48" s="270"/>
-      <c r="N48" s="274"/>
+      <c r="D48" s="267"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="389"/>
+      <c r="G48" s="389"/>
+      <c r="H48" s="389"/>
+      <c r="I48" s="389"/>
+      <c r="J48" s="390"/>
+      <c r="K48" s="389"/>
+      <c r="L48" s="389"/>
+      <c r="M48" s="389"/>
+      <c r="N48" s="396"/>
       <c r="P48" s="227"/>
-      <c r="Q48" s="277" t="s">
-        <v>232</v>
-      </c>
-      <c r="R48" s="281" t="s">
+      <c r="Q48" s="270" t="s">
+        <v>237</v>
+      </c>
+      <c r="R48" s="274" t="s">
         <v>224</v>
       </c>
-      <c r="S48" s="282">
+      <c r="S48" s="275">
         <v>10000</v>
       </c>
-      <c r="T48" s="282">
+      <c r="T48" s="275">
         <v>10</v>
       </c>
-      <c r="U48" s="280">
+      <c r="U48" s="273">
         <v>11</v>
       </c>
-      <c r="V48" s="280">
+      <c r="V48" s="273">
         <v>20</v>
       </c>
-      <c r="W48" s="281">
+      <c r="W48" s="274">
         <v>6.4338237280026078E-3</v>
       </c>
-      <c r="X48" s="281">
+      <c r="X48" s="274">
         <v>5.8489306618205524E-4</v>
       </c>
-      <c r="Y48" s="281">
+      <c r="Y48" s="274">
         <v>3.2169117927551271E-4</v>
       </c>
-      <c r="Z48" s="281">
+      <c r="Z48" s="274">
         <v>7.352941669523716E-3</v>
       </c>
-      <c r="AA48" s="281">
+      <c r="AA48" s="274">
         <v>6.6844926914200187E-4</v>
       </c>
-      <c r="AB48" s="319">
+      <c r="AB48" s="309">
         <v>3.6764709511771798E-4</v>
       </c>
-      <c r="AC48" s="36"/>
+      <c r="AC48" s="317" t="s">
+        <v>59</v>
+      </c>
       <c r="AD48" s="23"/>
       <c r="AE48" s="251"/>
       <c r="AF48" s="23"/>
@@ -11259,76 +11262,58 @@
       <c r="AN48" s="250"/>
       <c r="AO48" s="23"/>
     </row>
-    <row r="49" spans="2:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="267"/>
-      <c r="C49" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="D49" s="268">
-        <v>3.5000001662410796E-2</v>
-      </c>
-      <c r="E49" s="268">
-        <v>2.3333334441607198E-4</v>
-      </c>
-      <c r="F49" s="268">
-        <v>163.33334109125039</v>
-      </c>
-      <c r="G49" s="268">
-        <v>9.6078435936029641E-4</v>
-      </c>
-      <c r="H49" s="270"/>
-      <c r="I49" s="268">
-        <v>2.500000037252903E-2</v>
-      </c>
-      <c r="J49" s="268">
-        <v>1.6666666488163173E-4</v>
-      </c>
-      <c r="K49" s="268">
-        <v>116.66667175292969</v>
-      </c>
-      <c r="L49" s="268">
-        <v>6.8627449218183756E-4</v>
-      </c>
-      <c r="M49" s="270"/>
-      <c r="N49" s="274"/>
+    <row r="49" spans="4:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D49" s="267"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="389"/>
+      <c r="G49" s="389"/>
+      <c r="H49" s="389"/>
+      <c r="I49" s="389"/>
+      <c r="J49" s="390"/>
+      <c r="K49" s="389"/>
+      <c r="L49" s="389"/>
+      <c r="M49" s="389"/>
+      <c r="N49" s="397"/>
       <c r="P49" s="227"/>
-      <c r="Q49" s="277" t="s">
-        <v>232</v>
-      </c>
-      <c r="R49" s="281" t="s">
+      <c r="Q49" s="270" t="s">
+        <v>237</v>
+      </c>
+      <c r="R49" s="274" t="s">
         <v>225</v>
       </c>
-      <c r="S49" s="282">
+      <c r="S49" s="275">
         <v>10000</v>
       </c>
-      <c r="T49" s="282">
+      <c r="T49" s="275">
         <v>10</v>
       </c>
-      <c r="U49" s="280">
+      <c r="U49" s="273">
         <v>11</v>
       </c>
-      <c r="V49" s="280">
+      <c r="V49" s="273">
         <v>20</v>
       </c>
-      <c r="W49" s="281">
+      <c r="W49" s="274">
         <v>6.4338237280026078E-3</v>
       </c>
-      <c r="X49" s="281">
+      <c r="X49" s="274">
         <v>5.8489306618205524E-4</v>
       </c>
-      <c r="Y49" s="281">
+      <c r="Y49" s="274">
         <v>3.2169117927551271E-4</v>
       </c>
-      <c r="Z49" s="281">
+      <c r="Z49" s="274">
         <v>7.352941669523716E-3</v>
       </c>
-      <c r="AA49" s="281">
+      <c r="AA49" s="274">
         <v>6.6844926914200187E-4</v>
       </c>
-      <c r="AB49" s="319">
+      <c r="AB49" s="309">
         <v>3.6764709511771798E-4</v>
       </c>
-      <c r="AC49" s="36"/>
+      <c r="AC49" s="318" t="s">
+        <v>59</v>
+      </c>
       <c r="AD49" s="23"/>
       <c r="AE49" s="251"/>
       <c r="AF49" s="23"/>
@@ -11342,76 +11327,58 @@
       <c r="AN49" s="250"/>
       <c r="AO49" s="23"/>
     </row>
-    <row r="50" spans="2:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="267"/>
-      <c r="C50" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="D50" s="268">
-        <v>3.5000001662410796E-2</v>
-      </c>
-      <c r="E50" s="268">
-        <v>8.7500004156026989E-4</v>
-      </c>
-      <c r="F50" s="268">
-        <v>787.5000374042429</v>
-      </c>
-      <c r="G50" s="268">
-        <v>4.8761612223172934E-3</v>
-      </c>
-      <c r="H50" s="275"/>
-      <c r="I50" s="268" t="s">
-        <v>231</v>
-      </c>
-      <c r="J50" s="268" t="s">
-        <v>231</v>
-      </c>
-      <c r="K50" s="268" t="s">
-        <v>231</v>
-      </c>
-      <c r="L50" s="268" t="s">
-        <v>231</v>
-      </c>
-      <c r="M50" s="275"/>
-      <c r="N50" s="271"/>
+    <row r="50" spans="4:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D50" s="267"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="389"/>
+      <c r="G50" s="389"/>
+      <c r="H50" s="389"/>
+      <c r="I50" s="389"/>
+      <c r="J50" s="389"/>
+      <c r="K50" s="389"/>
+      <c r="L50" s="389"/>
+      <c r="M50" s="389"/>
+      <c r="N50" s="396"/>
       <c r="P50" s="227"/>
-      <c r="Q50" s="277" t="s">
-        <v>232</v>
-      </c>
-      <c r="R50" s="281" t="s">
-        <v>233</v>
-      </c>
-      <c r="S50" s="282">
+      <c r="Q50" s="270" t="s">
+        <v>237</v>
+      </c>
+      <c r="R50" s="274" t="s">
+        <v>238</v>
+      </c>
+      <c r="S50" s="275">
         <v>35000</v>
       </c>
-      <c r="T50" s="282">
+      <c r="T50" s="275">
         <v>10</v>
       </c>
-      <c r="U50" s="280">
+      <c r="U50" s="273">
         <v>11</v>
       </c>
-      <c r="V50" s="280">
+      <c r="V50" s="273">
         <v>20</v>
       </c>
-      <c r="W50" s="281">
+      <c r="W50" s="274">
         <v>6.4338237280026078E-3</v>
       </c>
-      <c r="X50" s="280">
+      <c r="X50" s="273">
         <v>5.8489306618205524E-4</v>
       </c>
-      <c r="Y50" s="280">
+      <c r="Y50" s="273">
         <v>1.1259191513061523E-3</v>
       </c>
-      <c r="Z50" s="280">
+      <c r="Z50" s="273">
         <v>7.352941669523716E-3</v>
       </c>
-      <c r="AA50" s="280">
+      <c r="AA50" s="273">
         <v>6.6844926914200187E-4</v>
       </c>
-      <c r="AB50" s="318">
+      <c r="AB50" s="308">
         <v>1.2867647456005216E-3</v>
       </c>
-      <c r="AC50" s="50"/>
+      <c r="AC50" s="319" t="s">
+        <v>59</v>
+      </c>
       <c r="AD50" s="46"/>
       <c r="AE50" s="46"/>
       <c r="AF50" s="46"/>
@@ -11425,53 +11392,31 @@
       <c r="AN50" s="46"/>
       <c r="AO50" s="23"/>
     </row>
-    <row r="51" spans="2:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="267" t="s">
-        <v>235</v>
-      </c>
-      <c r="C51" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="D51" s="268">
-        <v>5.0000002374872565E-2</v>
-      </c>
-      <c r="E51" s="268">
-        <v>5.0000002374872565E-4</v>
-      </c>
-      <c r="F51" s="268">
-        <v>300.00001424923539</v>
-      </c>
-      <c r="G51" s="268">
-        <v>1.8575852275494451E-3</v>
-      </c>
-      <c r="H51" s="275"/>
-      <c r="I51" s="268" t="s">
-        <v>231</v>
-      </c>
-      <c r="J51" s="268" t="s">
-        <v>231</v>
-      </c>
-      <c r="K51" s="268" t="s">
-        <v>231</v>
-      </c>
-      <c r="L51" s="268" t="s">
-        <v>231</v>
-      </c>
-      <c r="M51" s="275"/>
-      <c r="N51" s="276"/>
+    <row r="51" spans="4:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D51" s="267"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="389"/>
+      <c r="G51" s="389"/>
+      <c r="H51" s="389"/>
+      <c r="I51" s="389"/>
+      <c r="J51" s="389"/>
+      <c r="K51" s="389"/>
+      <c r="L51" s="389"/>
+      <c r="M51" s="389"/>
+      <c r="N51" s="396"/>
       <c r="P51" s="227"/>
-      <c r="Q51" s="277"/>
-      <c r="R51" s="281"/>
-      <c r="S51" s="282"/>
-      <c r="T51" s="282"/>
-      <c r="U51" s="280"/>
-      <c r="V51" s="280"/>
-      <c r="W51" s="281"/>
-      <c r="X51" s="280"/>
-      <c r="Y51" s="280"/>
-      <c r="Z51" s="280"/>
-      <c r="AA51" s="280"/>
-      <c r="AB51" s="318"/>
+      <c r="Q51" s="270"/>
+      <c r="R51" s="274"/>
+      <c r="S51" s="275"/>
+      <c r="T51" s="275"/>
+      <c r="U51" s="273"/>
+      <c r="V51" s="273"/>
+      <c r="W51" s="274"/>
+      <c r="X51" s="273"/>
+      <c r="Y51" s="273"/>
+      <c r="Z51" s="273"/>
+      <c r="AA51" s="273"/>
+      <c r="AB51" s="308"/>
       <c r="AC51" s="50"/>
       <c r="AD51" s="76"/>
       <c r="AE51" s="46"/>
@@ -11486,76 +11431,58 @@
       <c r="AN51" s="46"/>
       <c r="AO51" s="23"/>
     </row>
-    <row r="52" spans="2:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B52" s="267"/>
-      <c r="C52" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="D52" s="268">
-        <v>5.0000002374872565E-2</v>
-      </c>
-      <c r="E52" s="268">
-        <v>3.3333334916581708E-4</v>
-      </c>
-      <c r="F52" s="268">
-        <v>233.33334441607195</v>
-      </c>
-      <c r="G52" s="268">
-        <v>1.444788510316235E-3</v>
-      </c>
-      <c r="H52" s="275"/>
-      <c r="I52" s="268" t="s">
-        <v>231</v>
-      </c>
-      <c r="J52" s="268" t="s">
-        <v>231</v>
-      </c>
-      <c r="K52" s="268" t="s">
-        <v>231</v>
-      </c>
-      <c r="L52" s="268" t="s">
-        <v>231</v>
-      </c>
-      <c r="M52" s="275"/>
-      <c r="N52" s="276"/>
+    <row r="52" spans="4:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D52" s="267"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="389"/>
+      <c r="G52" s="389"/>
+      <c r="H52" s="389"/>
+      <c r="I52" s="389"/>
+      <c r="J52" s="389"/>
+      <c r="K52" s="389"/>
+      <c r="L52" s="389"/>
+      <c r="M52" s="389"/>
+      <c r="N52" s="396"/>
       <c r="P52" s="227"/>
-      <c r="Q52" s="277" t="s">
-        <v>234</v>
-      </c>
-      <c r="R52" s="281" t="s">
+      <c r="Q52" s="270" t="s">
+        <v>239</v>
+      </c>
+      <c r="R52" s="274" t="s">
         <v>222</v>
       </c>
-      <c r="S52" s="282">
+      <c r="S52" s="275">
         <v>1500</v>
       </c>
-      <c r="T52" s="282">
+      <c r="T52" s="275">
         <v>10</v>
       </c>
-      <c r="U52" s="280">
+      <c r="U52" s="273">
         <v>11</v>
       </c>
-      <c r="V52" s="280">
+      <c r="V52" s="273">
         <v>20</v>
       </c>
-      <c r="W52" s="281">
+      <c r="W52" s="274">
         <v>9.6078438218683004E-3</v>
       </c>
-      <c r="X52" s="281">
+      <c r="X52" s="274">
         <v>8.7344034744257272E-4</v>
       </c>
-      <c r="Y52" s="281">
+      <c r="Y52" s="274">
         <v>7.2058826684951783E-5</v>
       </c>
-      <c r="Z52" s="281">
+      <c r="Z52" s="274">
         <v>6.8627451546490192E-3</v>
       </c>
-      <c r="AA52" s="281">
+      <c r="AA52" s="274">
         <v>6.2388594960793853E-4</v>
       </c>
-      <c r="AB52" s="319">
+      <c r="AB52" s="309">
         <v>5.1470589824020863E-5</v>
       </c>
-      <c r="AC52" s="50"/>
+      <c r="AC52" s="320" t="s">
+        <v>59</v>
+      </c>
       <c r="AD52" s="23"/>
       <c r="AE52" s="23"/>
       <c r="AF52" s="23"/>
@@ -11569,76 +11496,58 @@
       <c r="AN52" s="250"/>
       <c r="AO52" s="23"/>
     </row>
-    <row r="53" spans="2:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B53" s="267"/>
-      <c r="C53" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="D53" s="268">
-        <v>5.0000002374872565E-2</v>
-      </c>
-      <c r="E53" s="268">
-        <v>2.083333432286357E-4</v>
-      </c>
-      <c r="F53" s="268">
-        <v>156.25000742147677</v>
-      </c>
-      <c r="G53" s="268">
-        <v>9.6749230601533604E-4</v>
-      </c>
-      <c r="H53" s="275"/>
-      <c r="I53" s="268">
-        <v>3.5000000149011612E-2</v>
-      </c>
-      <c r="J53" s="268">
-        <v>1.4583332813344896E-4</v>
-      </c>
-      <c r="K53" s="268">
-        <v>109.375</v>
-      </c>
-      <c r="L53" s="268">
-        <v>6.7724456312134862E-4</v>
-      </c>
-      <c r="M53" s="275"/>
-      <c r="N53" s="276"/>
+    <row r="53" spans="4:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D53" s="267"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="389"/>
+      <c r="G53" s="389"/>
+      <c r="H53" s="389"/>
+      <c r="I53" s="389"/>
+      <c r="J53" s="389"/>
+      <c r="K53" s="389"/>
+      <c r="L53" s="389"/>
+      <c r="M53" s="389"/>
+      <c r="N53" s="398"/>
       <c r="P53" s="227"/>
-      <c r="Q53" s="277" t="s">
-        <v>234</v>
-      </c>
-      <c r="R53" s="281" t="s">
+      <c r="Q53" s="270" t="s">
+        <v>239</v>
+      </c>
+      <c r="R53" s="274" t="s">
         <v>223</v>
       </c>
-      <c r="S53" s="282">
+      <c r="S53" s="275">
         <v>150000</v>
       </c>
-      <c r="T53" s="282">
+      <c r="T53" s="275">
         <v>10</v>
       </c>
-      <c r="U53" s="280">
+      <c r="U53" s="273">
         <v>11</v>
       </c>
-      <c r="V53" s="280">
+      <c r="V53" s="273">
         <v>20</v>
       </c>
-      <c r="W53" s="281">
+      <c r="W53" s="274">
         <v>9.6078438218683004E-3</v>
       </c>
-      <c r="X53" s="281">
+      <c r="X53" s="274">
         <v>8.7344034744257272E-4</v>
       </c>
-      <c r="Y53" s="281">
+      <c r="Y53" s="274">
         <v>7.205883026123047E-3</v>
       </c>
-      <c r="Z53" s="281">
+      <c r="Z53" s="274">
         <v>6.8627451546490192E-3</v>
       </c>
-      <c r="AA53" s="281">
+      <c r="AA53" s="274">
         <v>6.2388594960793853E-4</v>
       </c>
-      <c r="AB53" s="319">
+      <c r="AB53" s="309">
         <v>5.1470589824020863E-3</v>
       </c>
-      <c r="AC53" s="50"/>
+      <c r="AC53" s="321" t="s">
+        <v>59</v>
+      </c>
       <c r="AD53" s="23"/>
       <c r="AE53" s="23"/>
       <c r="AF53" s="23"/>
@@ -11652,78 +11561,58 @@
       <c r="AN53" s="250"/>
       <c r="AO53" s="23"/>
     </row>
-    <row r="54" spans="2:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B54" s="267" t="s">
-        <v>236</v>
-      </c>
-      <c r="C54" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="D54" s="268">
-        <v>3.5000001662410796E-2</v>
-      </c>
-      <c r="E54" s="268">
-        <v>3.5000001662410796E-4</v>
-      </c>
-      <c r="F54" s="268">
-        <v>210.00000997446477</v>
-      </c>
-      <c r="G54" s="268">
-        <v>1.3003096592846116E-3</v>
-      </c>
-      <c r="H54" s="275"/>
-      <c r="I54" s="268" t="s">
-        <v>231</v>
-      </c>
-      <c r="J54" s="268" t="s">
-        <v>231</v>
-      </c>
-      <c r="K54" s="268" t="s">
-        <v>231</v>
-      </c>
-      <c r="L54" s="268" t="s">
-        <v>231</v>
-      </c>
-      <c r="M54" s="275"/>
-      <c r="N54" s="271"/>
+    <row r="54" spans="4:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D54" s="267"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="389"/>
+      <c r="G54" s="389"/>
+      <c r="H54" s="389"/>
+      <c r="I54" s="389"/>
+      <c r="J54" s="389"/>
+      <c r="K54" s="389"/>
+      <c r="L54" s="389"/>
+      <c r="M54" s="389"/>
+      <c r="N54" s="396"/>
       <c r="P54" s="227"/>
-      <c r="Q54" s="277" t="s">
-        <v>234</v>
-      </c>
-      <c r="R54" s="281" t="s">
+      <c r="Q54" s="270" t="s">
+        <v>239</v>
+      </c>
+      <c r="R54" s="274" t="s">
         <v>224</v>
       </c>
-      <c r="S54" s="282">
+      <c r="S54" s="275">
         <v>10000</v>
       </c>
-      <c r="T54" s="282">
+      <c r="T54" s="275">
         <v>10</v>
       </c>
-      <c r="U54" s="281">
+      <c r="U54" s="274">
         <v>11</v>
       </c>
-      <c r="V54" s="281">
+      <c r="V54" s="274">
         <v>20</v>
       </c>
-      <c r="W54" s="281">
+      <c r="W54" s="274">
         <v>9.6078438218683004E-3</v>
       </c>
-      <c r="X54" s="281">
+      <c r="X54" s="274">
         <v>8.7344034744257272E-4</v>
       </c>
-      <c r="Y54" s="281">
+      <c r="Y54" s="274">
         <v>4.803921699523926E-4</v>
       </c>
-      <c r="Z54" s="281">
+      <c r="Z54" s="274">
         <v>6.8627451546490192E-3</v>
       </c>
-      <c r="AA54" s="281">
+      <c r="AA54" s="274">
         <v>6.2388594960793853E-4</v>
       </c>
-      <c r="AB54" s="319">
+      <c r="AB54" s="309">
         <v>3.4313724609091878E-4</v>
       </c>
-      <c r="AC54" s="50"/>
+      <c r="AC54" s="322" t="s">
+        <v>59</v>
+      </c>
       <c r="AD54" s="23"/>
       <c r="AE54" s="23"/>
       <c r="AF54" s="23"/>
@@ -11737,76 +11626,58 @@
       <c r="AN54" s="250"/>
       <c r="AO54" s="23"/>
     </row>
-    <row r="55" spans="2:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B55" s="267"/>
-      <c r="C55" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="D55" s="268">
-        <v>3.5000001662410796E-2</v>
-      </c>
-      <c r="E55" s="268">
-        <v>2.3333334441607198E-4</v>
-      </c>
-      <c r="F55" s="268">
-        <v>163.33334109125039</v>
-      </c>
-      <c r="G55" s="268">
-        <v>1.0113519572213646E-3</v>
-      </c>
-      <c r="H55" s="275"/>
-      <c r="I55" s="268" t="s">
-        <v>231</v>
-      </c>
-      <c r="J55" s="268" t="s">
-        <v>231</v>
-      </c>
-      <c r="K55" s="268" t="s">
-        <v>231</v>
-      </c>
-      <c r="L55" s="268" t="s">
-        <v>231</v>
-      </c>
-      <c r="M55" s="275"/>
-      <c r="N55" s="276"/>
+    <row r="55" spans="4:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D55" s="267"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="389"/>
+      <c r="G55" s="389"/>
+      <c r="H55" s="389"/>
+      <c r="I55" s="389"/>
+      <c r="J55" s="389"/>
+      <c r="K55" s="389"/>
+      <c r="L55" s="389"/>
+      <c r="M55" s="389"/>
+      <c r="N55" s="396"/>
       <c r="P55" s="227"/>
-      <c r="Q55" s="277" t="s">
-        <v>234</v>
-      </c>
-      <c r="R55" s="281" t="s">
+      <c r="Q55" s="270" t="s">
+        <v>239</v>
+      </c>
+      <c r="R55" s="274" t="s">
         <v>225</v>
       </c>
-      <c r="S55" s="282">
+      <c r="S55" s="275">
         <v>10000</v>
       </c>
-      <c r="T55" s="282">
+      <c r="T55" s="275">
         <v>10</v>
       </c>
-      <c r="U55" s="281">
+      <c r="U55" s="274">
         <v>11</v>
       </c>
-      <c r="V55" s="281">
+      <c r="V55" s="274">
         <v>20</v>
       </c>
-      <c r="W55" s="281">
+      <c r="W55" s="274">
         <v>9.6078438218683004E-3</v>
       </c>
-      <c r="X55" s="281">
+      <c r="X55" s="274">
         <v>8.7344034744257272E-4</v>
       </c>
-      <c r="Y55" s="281">
+      <c r="Y55" s="274">
         <v>4.803921699523926E-4</v>
       </c>
-      <c r="Z55" s="281">
+      <c r="Z55" s="274">
         <v>6.8627451546490192E-3</v>
       </c>
-      <c r="AA55" s="281">
+      <c r="AA55" s="274">
         <v>6.2388594960793853E-4</v>
       </c>
-      <c r="AB55" s="319">
+      <c r="AB55" s="309">
         <v>3.4313724609091878E-4</v>
       </c>
-      <c r="AC55" s="50"/>
+      <c r="AC55" s="323" t="s">
+        <v>59</v>
+      </c>
       <c r="AD55" s="23"/>
       <c r="AE55" s="23"/>
       <c r="AF55" s="23"/>
@@ -11820,51 +11691,31 @@
       <c r="AN55" s="250"/>
       <c r="AO55" s="23"/>
     </row>
-    <row r="56" spans="2:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B56" s="267"/>
-      <c r="C56" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="D56" s="268">
-        <v>3.5000001662410796E-2</v>
-      </c>
-      <c r="E56" s="268">
-        <v>1.4583334026004499E-4</v>
-      </c>
-      <c r="F56" s="268">
-        <v>109.37500519503374</v>
-      </c>
-      <c r="G56" s="268">
-        <v>6.7724461421073525E-4</v>
-      </c>
-      <c r="H56" s="275"/>
-      <c r="I56" s="268">
-        <v>4.0000002831220627E-2</v>
-      </c>
-      <c r="J56" s="268">
-        <v>1.6666667943354696E-4</v>
-      </c>
-      <c r="K56" s="268">
-        <v>125.00000762939453</v>
-      </c>
-      <c r="L56" s="268">
-        <v>7.7399384463205934E-4</v>
-      </c>
-      <c r="M56" s="275"/>
-      <c r="N56" s="276"/>
+    <row r="56" spans="4:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D56" s="267"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="389"/>
+      <c r="G56" s="389"/>
+      <c r="H56" s="389"/>
+      <c r="I56" s="389"/>
+      <c r="J56" s="389"/>
+      <c r="K56" s="389"/>
+      <c r="L56" s="389"/>
+      <c r="M56" s="389"/>
+      <c r="N56" s="399"/>
       <c r="P56" s="227"/>
-      <c r="Q56" s="277"/>
-      <c r="R56" s="281"/>
-      <c r="S56" s="282"/>
-      <c r="T56" s="282"/>
-      <c r="U56" s="281"/>
-      <c r="V56" s="281"/>
-      <c r="W56" s="281"/>
-      <c r="X56" s="281"/>
-      <c r="Y56" s="281"/>
-      <c r="Z56" s="281"/>
-      <c r="AA56" s="281"/>
-      <c r="AB56" s="319"/>
+      <c r="Q56" s="270"/>
+      <c r="R56" s="274"/>
+      <c r="S56" s="275"/>
+      <c r="T56" s="275"/>
+      <c r="U56" s="274"/>
+      <c r="V56" s="274"/>
+      <c r="W56" s="274"/>
+      <c r="X56" s="274"/>
+      <c r="Y56" s="274"/>
+      <c r="Z56" s="274"/>
+      <c r="AA56" s="274"/>
+      <c r="AB56" s="309"/>
       <c r="AC56" s="50"/>
       <c r="AD56" s="23"/>
       <c r="AE56" s="23"/>
@@ -11879,58 +11730,58 @@
       <c r="AN56" s="250"/>
       <c r="AO56" s="23"/>
     </row>
-    <row r="57" spans="2:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B57" s="267"/>
-      <c r="C57" s="34"/>
-      <c r="D57" s="268"/>
-      <c r="E57" s="268"/>
+    <row r="57" spans="4:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D57" s="267"/>
+      <c r="E57" s="34"/>
       <c r="F57" s="268"/>
       <c r="G57" s="268"/>
-      <c r="H57" s="275"/>
+      <c r="H57" s="268"/>
       <c r="I57" s="268"/>
-      <c r="J57" s="268"/>
+      <c r="J57" s="269"/>
       <c r="K57" s="268"/>
       <c r="L57" s="268"/>
-      <c r="M57" s="275"/>
-      <c r="N57" s="276"/>
+      <c r="M57" s="268"/>
+      <c r="N57" s="268"/>
       <c r="P57" s="227"/>
-      <c r="Q57" s="277" t="s">
-        <v>235</v>
-      </c>
-      <c r="R57" s="281" t="s">
+      <c r="Q57" s="270" t="s">
+        <v>240</v>
+      </c>
+      <c r="R57" s="274" t="s">
         <v>222</v>
       </c>
-      <c r="S57" s="282">
+      <c r="S57" s="275">
         <v>1500</v>
       </c>
-      <c r="T57" s="282">
+      <c r="T57" s="275">
         <v>10</v>
       </c>
-      <c r="U57" s="281">
+      <c r="U57" s="274">
         <v>11</v>
       </c>
-      <c r="V57" s="281">
+      <c r="V57" s="274">
         <v>20</v>
       </c>
-      <c r="W57" s="281">
+      <c r="W57" s="274">
         <v>9.6749229123815894E-3</v>
       </c>
-      <c r="X57" s="281">
+      <c r="X57" s="274">
         <v>8.7953844658014452E-4</v>
       </c>
-      <c r="Y57" s="281">
+      <c r="Y57" s="274">
         <v>7.2561919689178463E-5</v>
       </c>
-      <c r="Z57" s="281">
+      <c r="Z57" s="274">
         <v>6.7724459804594517E-3</v>
       </c>
-      <c r="AA57" s="281">
+      <c r="AA57" s="274">
         <v>6.1567692318931222E-4</v>
       </c>
-      <c r="AB57" s="319">
+      <c r="AB57" s="309">
         <v>5.0793343689292669E-5</v>
       </c>
-      <c r="AC57" s="50"/>
+      <c r="AC57" s="324" t="s">
+        <v>59</v>
+      </c>
       <c r="AD57" s="23"/>
       <c r="AE57" s="23"/>
       <c r="AF57" s="23"/>
@@ -11944,58 +11795,58 @@
       <c r="AN57" s="250"/>
       <c r="AO57" s="23"/>
     </row>
-    <row r="58" spans="2:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B58" s="267"/>
-      <c r="C58" s="34"/>
-      <c r="D58" s="268"/>
-      <c r="E58" s="268"/>
+    <row r="58" spans="4:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D58" s="267"/>
+      <c r="E58" s="34"/>
       <c r="F58" s="268"/>
       <c r="G58" s="268"/>
-      <c r="H58" s="275"/>
+      <c r="H58" s="268"/>
       <c r="I58" s="268"/>
-      <c r="J58" s="268"/>
+      <c r="J58" s="269"/>
       <c r="K58" s="268"/>
       <c r="L58" s="268"/>
-      <c r="M58" s="275"/>
-      <c r="N58" s="271"/>
+      <c r="M58" s="268"/>
+      <c r="N58" s="268"/>
       <c r="P58" s="227"/>
-      <c r="Q58" s="277" t="s">
-        <v>235</v>
-      </c>
-      <c r="R58" s="281" t="s">
+      <c r="Q58" s="270" t="s">
+        <v>240</v>
+      </c>
+      <c r="R58" s="274" t="s">
         <v>223</v>
       </c>
-      <c r="S58" s="282">
+      <c r="S58" s="275">
         <v>150000</v>
       </c>
-      <c r="T58" s="282">
+      <c r="T58" s="275">
         <v>10</v>
       </c>
-      <c r="U58" s="281">
+      <c r="U58" s="274">
         <v>11</v>
       </c>
-      <c r="V58" s="281">
+      <c r="V58" s="274">
         <v>20</v>
       </c>
-      <c r="W58" s="281">
+      <c r="W58" s="274">
         <v>9.6749229123815894E-3</v>
       </c>
-      <c r="X58" s="281">
+      <c r="X58" s="274">
         <v>8.7953844658014452E-4</v>
       </c>
-      <c r="Y58" s="281">
+      <c r="Y58" s="274">
         <v>7.2561920166015629E-3</v>
       </c>
-      <c r="Z58" s="281">
+      <c r="Z58" s="274">
         <v>6.7724459804594517E-3</v>
       </c>
-      <c r="AA58" s="281">
+      <c r="AA58" s="274">
         <v>6.1567692318931222E-4</v>
       </c>
-      <c r="AB58" s="319">
+      <c r="AB58" s="309">
         <v>5.0793346017599106E-3</v>
       </c>
-      <c r="AC58" s="50"/>
+      <c r="AC58" s="325" t="s">
+        <v>59</v>
+      </c>
       <c r="AD58" s="23"/>
       <c r="AE58" s="23"/>
       <c r="AF58" s="23"/>
@@ -12009,58 +11860,58 @@
       <c r="AN58" s="250"/>
       <c r="AO58" s="23"/>
     </row>
-    <row r="59" spans="2:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B59" s="267"/>
-      <c r="C59" s="34"/>
-      <c r="D59" s="268"/>
-      <c r="E59" s="268"/>
+    <row r="59" spans="4:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D59" s="267"/>
+      <c r="E59" s="34"/>
       <c r="F59" s="268"/>
       <c r="G59" s="268"/>
-      <c r="H59" s="275"/>
+      <c r="H59" s="268"/>
       <c r="I59" s="268"/>
-      <c r="J59" s="268"/>
+      <c r="J59" s="269"/>
       <c r="K59" s="268"/>
       <c r="L59" s="268"/>
-      <c r="M59" s="275"/>
-      <c r="N59" s="276"/>
+      <c r="M59" s="268"/>
+      <c r="N59" s="268"/>
       <c r="P59" s="227"/>
-      <c r="Q59" s="277" t="s">
-        <v>235</v>
-      </c>
-      <c r="R59" s="281" t="s">
+      <c r="Q59" s="270" t="s">
+        <v>240</v>
+      </c>
+      <c r="R59" s="274" t="s">
         <v>224</v>
       </c>
-      <c r="S59" s="282">
+      <c r="S59" s="275">
         <v>10000</v>
       </c>
-      <c r="T59" s="282">
+      <c r="T59" s="275">
         <v>10</v>
       </c>
-      <c r="U59" s="281">
+      <c r="U59" s="274">
         <v>11</v>
       </c>
-      <c r="V59" s="281">
+      <c r="V59" s="274">
         <v>20</v>
       </c>
-      <c r="W59" s="281">
+      <c r="W59" s="274">
         <v>9.6749229123815894E-3</v>
       </c>
-      <c r="X59" s="281">
+      <c r="X59" s="274">
         <v>8.7953844658014452E-4</v>
       </c>
-      <c r="Y59" s="281">
+      <c r="Y59" s="274">
         <v>4.8374614715576171E-4</v>
       </c>
-      <c r="Z59" s="281">
+      <c r="Z59" s="274">
         <v>6.7724459804594517E-3</v>
       </c>
-      <c r="AA59" s="281">
+      <c r="AA59" s="274">
         <v>6.1567692318931222E-4</v>
       </c>
-      <c r="AB59" s="319">
+      <c r="AB59" s="309">
         <v>3.3862228156067431E-4</v>
       </c>
-      <c r="AC59" s="50"/>
+      <c r="AC59" s="326" t="s">
+        <v>59</v>
+      </c>
       <c r="AD59" s="23"/>
       <c r="AE59" s="23"/>
       <c r="AF59" s="23"/>
@@ -12074,33 +11925,31 @@
       <c r="AN59" s="250"/>
       <c r="AO59" s="23"/>
     </row>
-    <row r="60" spans="2:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B60" s="267"/>
-      <c r="C60" s="34"/>
-      <c r="D60" s="268"/>
-      <c r="E60" s="268"/>
+    <row r="60" spans="4:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D60" s="267"/>
+      <c r="E60" s="34"/>
       <c r="F60" s="268"/>
       <c r="G60" s="268"/>
-      <c r="H60" s="275"/>
+      <c r="H60" s="268"/>
       <c r="I60" s="268"/>
-      <c r="J60" s="268"/>
+      <c r="J60" s="269"/>
       <c r="K60" s="268"/>
       <c r="L60" s="268"/>
-      <c r="M60" s="275"/>
-      <c r="N60" s="276"/>
+      <c r="M60" s="268"/>
+      <c r="N60" s="268"/>
       <c r="P60" s="227"/>
-      <c r="Q60" s="277"/>
-      <c r="R60" s="281"/>
-      <c r="S60" s="282"/>
-      <c r="T60" s="282"/>
-      <c r="U60" s="281"/>
-      <c r="V60" s="281"/>
-      <c r="W60" s="281"/>
-      <c r="X60" s="281"/>
-      <c r="Y60" s="281"/>
-      <c r="Z60" s="281"/>
-      <c r="AA60" s="281"/>
-      <c r="AB60" s="319"/>
+      <c r="Q60" s="270"/>
+      <c r="R60" s="274"/>
+      <c r="S60" s="275"/>
+      <c r="T60" s="275"/>
+      <c r="U60" s="274"/>
+      <c r="V60" s="274"/>
+      <c r="W60" s="274"/>
+      <c r="X60" s="274"/>
+      <c r="Y60" s="274"/>
+      <c r="Z60" s="274"/>
+      <c r="AA60" s="274"/>
+      <c r="AB60" s="309"/>
       <c r="AC60" s="50"/>
       <c r="AD60" s="23"/>
       <c r="AE60" s="23"/>
@@ -12115,58 +11964,58 @@
       <c r="AN60" s="250"/>
       <c r="AO60" s="23"/>
     </row>
-    <row r="61" spans="2:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B61" s="267"/>
-      <c r="C61" s="34"/>
-      <c r="D61" s="268"/>
-      <c r="E61" s="268"/>
+    <row r="61" spans="4:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D61" s="267"/>
+      <c r="E61" s="34"/>
       <c r="F61" s="268"/>
       <c r="G61" s="268"/>
-      <c r="H61" s="275"/>
+      <c r="H61" s="268"/>
       <c r="I61" s="268"/>
-      <c r="J61" s="268"/>
+      <c r="J61" s="269"/>
       <c r="K61" s="268"/>
       <c r="L61" s="268"/>
-      <c r="M61" s="275"/>
-      <c r="N61" s="276"/>
+      <c r="M61" s="268"/>
+      <c r="N61" s="268"/>
       <c r="P61" s="227"/>
-      <c r="Q61" s="277" t="s">
-        <v>236</v>
-      </c>
-      <c r="R61" s="281" t="s">
+      <c r="Q61" s="270" t="s">
+        <v>241</v>
+      </c>
+      <c r="R61" s="274" t="s">
         <v>222</v>
       </c>
-      <c r="S61" s="282">
+      <c r="S61" s="275">
         <v>1500</v>
       </c>
-      <c r="T61" s="282">
+      <c r="T61" s="275">
         <v>10</v>
       </c>
-      <c r="U61" s="281">
+      <c r="U61" s="274">
         <v>11</v>
       </c>
-      <c r="V61" s="281">
+      <c r="V61" s="274">
         <v>20</v>
       </c>
-      <c r="W61" s="281">
+      <c r="W61" s="274">
         <v>6.7724462132900953E-3</v>
       </c>
-      <c r="X61" s="281">
+      <c r="X61" s="274">
         <v>6.1567692848091781E-4</v>
       </c>
-      <c r="Y61" s="281">
+      <c r="Y61" s="274">
         <v>5.0793343782424924E-5</v>
       </c>
-      <c r="Z61" s="281">
+      <c r="Z61" s="274">
         <v>7.7399387955665588E-3</v>
       </c>
-      <c r="AA61" s="281">
+      <c r="AA61" s="274">
         <v>7.0363079430535436E-4</v>
       </c>
-      <c r="AB61" s="320">
+      <c r="AB61" s="310">
         <v>5.8049539802595973E-5</v>
       </c>
-      <c r="AC61" s="36"/>
+      <c r="AC61" s="327" t="s">
+        <v>59</v>
+      </c>
       <c r="AD61" s="23"/>
       <c r="AE61" s="23"/>
       <c r="AF61" s="23"/>
@@ -12180,58 +12029,58 @@
       <c r="AN61" s="23"/>
       <c r="AO61" s="23"/>
     </row>
-    <row r="62" spans="2:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B62" s="267"/>
-      <c r="C62" s="34"/>
-      <c r="D62" s="268"/>
-      <c r="E62" s="268"/>
+    <row r="62" spans="4:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D62" s="267"/>
+      <c r="E62" s="34"/>
       <c r="F62" s="268"/>
       <c r="G62" s="268"/>
-      <c r="H62" s="275"/>
+      <c r="H62" s="268"/>
       <c r="I62" s="268"/>
-      <c r="J62" s="268"/>
+      <c r="J62" s="269"/>
       <c r="K62" s="268"/>
       <c r="L62" s="268"/>
-      <c r="M62" s="275"/>
-      <c r="N62" s="273"/>
+      <c r="M62" s="268"/>
+      <c r="N62" s="268"/>
       <c r="P62" s="227"/>
-      <c r="Q62" s="277" t="s">
-        <v>236</v>
-      </c>
-      <c r="R62" s="281" t="s">
+      <c r="Q62" s="270" t="s">
+        <v>241</v>
+      </c>
+      <c r="R62" s="274" t="s">
         <v>223</v>
       </c>
-      <c r="S62" s="282">
+      <c r="S62" s="275">
         <v>150000</v>
       </c>
-      <c r="T62" s="282">
+      <c r="T62" s="275">
         <v>10</v>
       </c>
-      <c r="U62" s="281">
+      <c r="U62" s="274">
         <v>11</v>
       </c>
-      <c r="V62" s="281">
+      <c r="V62" s="274">
         <v>20</v>
       </c>
-      <c r="W62" s="281">
+      <c r="W62" s="274">
         <v>6.7724462132900953E-3</v>
       </c>
-      <c r="X62" s="281">
+      <c r="X62" s="274">
         <v>6.1567692848091781E-4</v>
       </c>
-      <c r="Y62" s="281">
+      <c r="Y62" s="274">
         <v>5.0793346405029298E-3</v>
       </c>
-      <c r="Z62" s="281">
+      <c r="Z62" s="274">
         <v>7.7399387955665588E-3</v>
       </c>
-      <c r="AA62" s="281">
+      <c r="AA62" s="274">
         <v>7.0363079430535436E-4</v>
       </c>
-      <c r="AB62" s="320">
+      <c r="AB62" s="310">
         <v>5.8049540966749191E-3</v>
       </c>
-      <c r="AC62" s="36"/>
+      <c r="AC62" s="328" t="s">
+        <v>59</v>
+      </c>
       <c r="AD62" s="23"/>
       <c r="AE62" s="23"/>
       <c r="AF62" s="23"/>
@@ -12245,58 +12094,58 @@
       <c r="AN62" s="23"/>
       <c r="AO62" s="23"/>
     </row>
-    <row r="63" spans="2:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B63" s="267"/>
-      <c r="C63" s="34"/>
-      <c r="D63" s="268"/>
-      <c r="E63" s="268"/>
+    <row r="63" spans="4:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D63" s="267"/>
+      <c r="E63" s="34"/>
       <c r="F63" s="268"/>
       <c r="G63" s="268"/>
-      <c r="H63" s="275"/>
+      <c r="H63" s="268"/>
       <c r="I63" s="268"/>
-      <c r="J63" s="268"/>
+      <c r="J63" s="269"/>
       <c r="K63" s="268"/>
       <c r="L63" s="268"/>
-      <c r="M63" s="275"/>
-      <c r="N63" s="276"/>
+      <c r="M63" s="268"/>
+      <c r="N63" s="268"/>
       <c r="P63" s="227"/>
-      <c r="Q63" s="277" t="s">
-        <v>236</v>
-      </c>
-      <c r="R63" s="281" t="s">
+      <c r="Q63" s="270" t="s">
+        <v>241</v>
+      </c>
+      <c r="R63" s="274" t="s">
         <v>224</v>
       </c>
-      <c r="S63" s="282">
+      <c r="S63" s="275">
         <v>10000</v>
       </c>
-      <c r="T63" s="282">
+      <c r="T63" s="275">
         <v>10</v>
       </c>
-      <c r="U63" s="281">
+      <c r="U63" s="274">
         <v>11</v>
       </c>
-      <c r="V63" s="281">
+      <c r="V63" s="274">
         <v>20</v>
       </c>
-      <c r="W63" s="281">
+      <c r="W63" s="274">
         <v>6.7724462132900953E-3</v>
       </c>
-      <c r="X63" s="281">
+      <c r="X63" s="274">
         <v>6.1567692848091781E-4</v>
       </c>
-      <c r="Y63" s="281">
+      <c r="Y63" s="274">
         <v>3.3862230777740481E-4</v>
       </c>
-      <c r="Z63" s="281">
+      <c r="Z63" s="274">
         <v>7.7399387955665588E-3</v>
       </c>
-      <c r="AA63" s="281">
+      <c r="AA63" s="274">
         <v>7.0363079430535436E-4</v>
       </c>
-      <c r="AB63" s="320">
+      <c r="AB63" s="310">
         <v>3.8699692231602967E-4</v>
       </c>
-      <c r="AC63" s="36"/>
+      <c r="AC63" s="329" t="s">
+        <v>59</v>
+      </c>
       <c r="AD63" s="23"/>
       <c r="AE63" s="23"/>
       <c r="AF63" s="23"/>
@@ -12310,33 +12159,31 @@
       <c r="AN63" s="23"/>
       <c r="AO63" s="23"/>
     </row>
-    <row r="64" spans="2:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="267"/>
-      <c r="C64" s="34"/>
-      <c r="D64" s="268"/>
-      <c r="E64" s="268"/>
+    <row r="64" spans="4:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D64" s="267"/>
+      <c r="E64" s="34"/>
       <c r="F64" s="268"/>
       <c r="G64" s="268"/>
-      <c r="H64" s="275"/>
+      <c r="H64" s="268"/>
       <c r="I64" s="268"/>
-      <c r="J64" s="268"/>
+      <c r="J64" s="269"/>
       <c r="K64" s="268"/>
       <c r="L64" s="268"/>
-      <c r="M64" s="275"/>
-      <c r="N64" s="276"/>
+      <c r="M64" s="268"/>
+      <c r="N64" s="268"/>
       <c r="P64" s="227"/>
       <c r="Q64" s="82"/>
-      <c r="R64" s="281"/>
-      <c r="S64" s="283"/>
-      <c r="T64" s="283"/>
-      <c r="U64" s="281"/>
-      <c r="V64" s="281"/>
-      <c r="W64" s="281"/>
-      <c r="X64" s="281"/>
-      <c r="Y64" s="281"/>
-      <c r="Z64" s="281"/>
-      <c r="AA64" s="281"/>
-      <c r="AB64" s="320"/>
+      <c r="R64" s="274"/>
+      <c r="S64" s="276"/>
+      <c r="T64" s="276"/>
+      <c r="U64" s="274"/>
+      <c r="V64" s="274"/>
+      <c r="W64" s="274"/>
+      <c r="X64" s="274"/>
+      <c r="Y64" s="274"/>
+      <c r="Z64" s="274"/>
+      <c r="AA64" s="274"/>
+      <c r="AB64" s="310"/>
       <c r="AC64" s="36"/>
       <c r="AD64" s="23"/>
       <c r="AE64" s="23"/>
@@ -12352,264 +12199,246 @@
       <c r="AO64" s="23"/>
     </row>
     <row r="65" spans="2:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="267"/>
-      <c r="C65" s="34"/>
-      <c r="D65" s="268"/>
-      <c r="E65" s="268"/>
+      <c r="D65" s="267"/>
+      <c r="E65" s="34"/>
       <c r="F65" s="268"/>
       <c r="G65" s="268"/>
-      <c r="H65" s="275"/>
+      <c r="H65" s="268"/>
       <c r="I65" s="268"/>
-      <c r="J65" s="268"/>
+      <c r="J65" s="269"/>
       <c r="K65" s="268"/>
       <c r="L65" s="268"/>
-      <c r="M65" s="275"/>
-      <c r="N65" s="276"/>
+      <c r="M65" s="268"/>
+      <c r="N65" s="268"/>
       <c r="P65" s="227"/>
       <c r="Q65" s="82"/>
-      <c r="R65" s="281"/>
-      <c r="S65" s="283"/>
-      <c r="T65" s="283"/>
-      <c r="U65" s="281"/>
-      <c r="V65" s="281"/>
-      <c r="W65" s="281"/>
-      <c r="X65" s="281"/>
-      <c r="Y65" s="281"/>
-      <c r="Z65" s="281"/>
-      <c r="AA65" s="281"/>
-      <c r="AB65" s="320"/>
+      <c r="R65" s="274"/>
+      <c r="S65" s="276"/>
+      <c r="T65" s="276"/>
+      <c r="U65" s="274"/>
+      <c r="V65" s="274"/>
+      <c r="W65" s="274"/>
+      <c r="X65" s="274"/>
+      <c r="Y65" s="274"/>
+      <c r="Z65" s="274"/>
+      <c r="AA65" s="274"/>
+      <c r="AB65" s="310"/>
       <c r="AC65" s="36"/>
     </row>
     <row r="66" spans="2:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="267"/>
-      <c r="C66" s="34"/>
-      <c r="D66" s="268"/>
-      <c r="E66" s="268"/>
+      <c r="D66" s="267"/>
+      <c r="E66" s="34"/>
       <c r="F66" s="268"/>
       <c r="G66" s="268"/>
-      <c r="H66" s="275"/>
+      <c r="H66" s="268"/>
       <c r="I66" s="268"/>
-      <c r="J66" s="268"/>
+      <c r="J66" s="269"/>
       <c r="K66" s="268"/>
       <c r="L66" s="268"/>
-      <c r="M66" s="275"/>
-      <c r="N66" s="271"/>
+      <c r="M66" s="268"/>
+      <c r="N66" s="268"/>
       <c r="P66" s="227"/>
       <c r="Q66" s="82"/>
-      <c r="R66" s="281"/>
-      <c r="S66" s="283"/>
-      <c r="T66" s="283"/>
-      <c r="U66" s="281"/>
-      <c r="V66" s="281"/>
-      <c r="W66" s="281"/>
-      <c r="X66" s="281"/>
-      <c r="Y66" s="281"/>
-      <c r="Z66" s="281"/>
-      <c r="AA66" s="281"/>
-      <c r="AB66" s="320"/>
+      <c r="R66" s="274"/>
+      <c r="S66" s="276"/>
+      <c r="T66" s="276"/>
+      <c r="U66" s="274"/>
+      <c r="V66" s="274"/>
+      <c r="W66" s="274"/>
+      <c r="X66" s="274"/>
+      <c r="Y66" s="274"/>
+      <c r="Z66" s="274"/>
+      <c r="AA66" s="274"/>
+      <c r="AB66" s="310"/>
       <c r="AC66" s="36"/>
     </row>
     <row r="67" spans="2:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="267"/>
-      <c r="C67" s="34"/>
-      <c r="D67" s="268"/>
-      <c r="E67" s="268"/>
+      <c r="D67" s="267"/>
+      <c r="E67" s="34"/>
       <c r="F67" s="268"/>
       <c r="G67" s="268"/>
-      <c r="H67" s="275"/>
+      <c r="H67" s="268"/>
       <c r="I67" s="268"/>
-      <c r="J67" s="268"/>
+      <c r="J67" s="269"/>
       <c r="K67" s="268"/>
       <c r="L67" s="268"/>
-      <c r="M67" s="275"/>
-      <c r="N67" s="276"/>
+      <c r="M67" s="268"/>
+      <c r="N67" s="268"/>
       <c r="P67" s="227"/>
       <c r="Q67" s="82"/>
-      <c r="R67" s="281"/>
-      <c r="S67" s="283"/>
-      <c r="T67" s="283"/>
-      <c r="U67" s="281"/>
-      <c r="V67" s="281"/>
-      <c r="W67" s="281"/>
-      <c r="X67" s="281"/>
-      <c r="Y67" s="281"/>
-      <c r="Z67" s="281"/>
-      <c r="AA67" s="281"/>
-      <c r="AB67" s="320"/>
+      <c r="R67" s="274"/>
+      <c r="S67" s="276"/>
+      <c r="T67" s="276"/>
+      <c r="U67" s="274"/>
+      <c r="V67" s="274"/>
+      <c r="W67" s="274"/>
+      <c r="X67" s="274"/>
+      <c r="Y67" s="274"/>
+      <c r="Z67" s="274"/>
+      <c r="AA67" s="274"/>
+      <c r="AB67" s="310"/>
       <c r="AC67" s="36"/>
     </row>
     <row r="68" spans="2:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="267"/>
-      <c r="C68" s="34"/>
-      <c r="D68" s="268"/>
-      <c r="E68" s="268"/>
+      <c r="D68" s="267"/>
+      <c r="E68" s="34"/>
       <c r="F68" s="268"/>
       <c r="G68" s="268"/>
-      <c r="H68" s="275"/>
+      <c r="H68" s="268"/>
       <c r="I68" s="268"/>
-      <c r="J68" s="268"/>
+      <c r="J68" s="269"/>
       <c r="K68" s="268"/>
       <c r="L68" s="268"/>
-      <c r="M68" s="275"/>
-      <c r="N68" s="276"/>
+      <c r="M68" s="268"/>
+      <c r="N68" s="268"/>
       <c r="P68" s="227"/>
       <c r="Q68" s="82"/>
-      <c r="R68" s="281"/>
-      <c r="S68" s="283"/>
-      <c r="T68" s="283"/>
-      <c r="U68" s="281"/>
-      <c r="V68" s="281"/>
-      <c r="W68" s="281"/>
-      <c r="X68" s="281"/>
-      <c r="Y68" s="281"/>
-      <c r="Z68" s="281"/>
-      <c r="AA68" s="281"/>
-      <c r="AB68" s="320"/>
+      <c r="R68" s="274"/>
+      <c r="S68" s="276"/>
+      <c r="T68" s="276"/>
+      <c r="U68" s="274"/>
+      <c r="V68" s="274"/>
+      <c r="W68" s="274"/>
+      <c r="X68" s="274"/>
+      <c r="Y68" s="274"/>
+      <c r="Z68" s="274"/>
+      <c r="AA68" s="274"/>
+      <c r="AB68" s="310"/>
       <c r="AC68" s="36"/>
     </row>
     <row r="69" spans="2:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="267"/>
-      <c r="C69" s="34"/>
-      <c r="D69" s="268"/>
-      <c r="E69" s="268"/>
+      <c r="D69" s="267"/>
+      <c r="E69" s="34"/>
       <c r="F69" s="268"/>
       <c r="G69" s="268"/>
-      <c r="H69" s="275"/>
+      <c r="H69" s="268"/>
       <c r="I69" s="268"/>
-      <c r="J69" s="268"/>
+      <c r="J69" s="269"/>
       <c r="K69" s="268"/>
       <c r="L69" s="268"/>
-      <c r="M69" s="275"/>
-      <c r="N69" s="276"/>
+      <c r="M69" s="268"/>
+      <c r="N69" s="268"/>
       <c r="P69" s="227"/>
       <c r="Q69" s="82"/>
-      <c r="R69" s="281"/>
-      <c r="S69" s="283"/>
-      <c r="T69" s="283"/>
-      <c r="U69" s="281"/>
-      <c r="V69" s="281"/>
-      <c r="W69" s="281"/>
-      <c r="X69" s="281"/>
-      <c r="Y69" s="281"/>
-      <c r="Z69" s="281"/>
-      <c r="AA69" s="281"/>
-      <c r="AB69" s="320"/>
+      <c r="R69" s="274"/>
+      <c r="S69" s="276"/>
+      <c r="T69" s="276"/>
+      <c r="U69" s="274"/>
+      <c r="V69" s="274"/>
+      <c r="W69" s="274"/>
+      <c r="X69" s="274"/>
+      <c r="Y69" s="274"/>
+      <c r="Z69" s="274"/>
+      <c r="AA69" s="274"/>
+      <c r="AB69" s="310"/>
       <c r="AC69" s="36"/>
     </row>
     <row r="70" spans="2:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="267"/>
-      <c r="C70" s="34"/>
-      <c r="D70" s="268"/>
-      <c r="E70" s="268"/>
+      <c r="D70" s="267"/>
+      <c r="E70" s="34"/>
       <c r="F70" s="268"/>
       <c r="G70" s="268"/>
-      <c r="H70" s="275"/>
+      <c r="H70" s="268"/>
       <c r="I70" s="268"/>
-      <c r="J70" s="268"/>
+      <c r="J70" s="269"/>
       <c r="K70" s="268"/>
       <c r="L70" s="268"/>
-      <c r="M70" s="275"/>
-      <c r="N70" s="271"/>
+      <c r="M70" s="268"/>
+      <c r="N70" s="268"/>
       <c r="P70" s="227"/>
       <c r="Q70" s="82"/>
-      <c r="R70" s="281"/>
-      <c r="S70" s="283"/>
-      <c r="T70" s="283"/>
-      <c r="U70" s="281"/>
-      <c r="V70" s="281"/>
-      <c r="W70" s="281"/>
-      <c r="X70" s="281"/>
-      <c r="Y70" s="281"/>
-      <c r="Z70" s="281"/>
-      <c r="AA70" s="281"/>
-      <c r="AB70" s="320"/>
+      <c r="R70" s="274"/>
+      <c r="S70" s="276"/>
+      <c r="T70" s="276"/>
+      <c r="U70" s="274"/>
+      <c r="V70" s="274"/>
+      <c r="W70" s="274"/>
+      <c r="X70" s="274"/>
+      <c r="Y70" s="274"/>
+      <c r="Z70" s="274"/>
+      <c r="AA70" s="274"/>
+      <c r="AB70" s="310"/>
       <c r="AC70" s="36"/>
     </row>
     <row r="71" spans="2:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="267"/>
-      <c r="C71" s="34"/>
-      <c r="D71" s="268"/>
-      <c r="E71" s="268"/>
+      <c r="D71" s="267"/>
+      <c r="E71" s="34"/>
       <c r="F71" s="268"/>
       <c r="G71" s="268"/>
-      <c r="H71" s="275"/>
+      <c r="H71" s="268"/>
       <c r="I71" s="268"/>
-      <c r="J71" s="268"/>
+      <c r="J71" s="269"/>
       <c r="K71" s="268"/>
       <c r="L71" s="268"/>
-      <c r="M71" s="275"/>
-      <c r="N71" s="276"/>
+      <c r="M71" s="268"/>
+      <c r="N71" s="268"/>
       <c r="P71" s="227"/>
       <c r="Q71" s="82"/>
-      <c r="R71" s="281"/>
-      <c r="S71" s="283"/>
-      <c r="T71" s="283"/>
-      <c r="U71" s="281"/>
-      <c r="V71" s="281"/>
-      <c r="W71" s="281"/>
-      <c r="X71" s="281"/>
-      <c r="Y71" s="281"/>
-      <c r="Z71" s="281"/>
-      <c r="AA71" s="281"/>
-      <c r="AB71" s="320"/>
+      <c r="R71" s="274"/>
+      <c r="S71" s="276"/>
+      <c r="T71" s="276"/>
+      <c r="U71" s="274"/>
+      <c r="V71" s="274"/>
+      <c r="W71" s="274"/>
+      <c r="X71" s="274"/>
+      <c r="Y71" s="274"/>
+      <c r="Z71" s="274"/>
+      <c r="AA71" s="274"/>
+      <c r="AB71" s="310"/>
       <c r="AC71" s="36"/>
     </row>
     <row r="72" spans="2:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="267"/>
-      <c r="C72" s="34"/>
-      <c r="D72" s="268"/>
-      <c r="E72" s="268"/>
+      <c r="D72" s="267"/>
+      <c r="E72" s="34"/>
       <c r="F72" s="268"/>
       <c r="G72" s="268"/>
-      <c r="H72" s="275"/>
+      <c r="H72" s="268"/>
       <c r="I72" s="268"/>
-      <c r="J72" s="268"/>
+      <c r="J72" s="269"/>
       <c r="K72" s="268"/>
       <c r="L72" s="268"/>
-      <c r="M72" s="275"/>
-      <c r="N72" s="276"/>
+      <c r="M72" s="268"/>
+      <c r="N72" s="268"/>
       <c r="P72" s="227"/>
       <c r="Q72" s="82"/>
-      <c r="R72" s="281"/>
-      <c r="S72" s="283"/>
-      <c r="T72" s="283"/>
-      <c r="U72" s="281"/>
-      <c r="V72" s="281"/>
-      <c r="W72" s="281"/>
-      <c r="X72" s="281"/>
-      <c r="Y72" s="281"/>
-      <c r="Z72" s="281"/>
-      <c r="AA72" s="281"/>
-      <c r="AB72" s="320"/>
+      <c r="R72" s="274"/>
+      <c r="S72" s="276"/>
+      <c r="T72" s="276"/>
+      <c r="U72" s="274"/>
+      <c r="V72" s="274"/>
+      <c r="W72" s="274"/>
+      <c r="X72" s="274"/>
+      <c r="Y72" s="274"/>
+      <c r="Z72" s="274"/>
+      <c r="AA72" s="274"/>
+      <c r="AB72" s="310"/>
       <c r="AC72" s="36"/>
     </row>
     <row r="73" spans="2:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="267"/>
-      <c r="C73" s="34"/>
-      <c r="D73" s="268"/>
-      <c r="E73" s="268"/>
+      <c r="D73" s="267"/>
+      <c r="E73" s="34"/>
       <c r="F73" s="268"/>
       <c r="G73" s="268"/>
-      <c r="H73" s="275"/>
+      <c r="H73" s="268"/>
       <c r="I73" s="268"/>
-      <c r="J73" s="268"/>
+      <c r="J73" s="269"/>
       <c r="K73" s="268"/>
       <c r="L73" s="268"/>
-      <c r="M73" s="275"/>
-      <c r="N73" s="276"/>
+      <c r="M73" s="268"/>
+      <c r="N73" s="268"/>
       <c r="P73" s="227"/>
       <c r="Q73" s="82"/>
-      <c r="R73" s="281"/>
-      <c r="S73" s="283"/>
-      <c r="T73" s="283"/>
-      <c r="U73" s="281"/>
-      <c r="V73" s="281"/>
-      <c r="W73" s="281"/>
-      <c r="X73" s="281"/>
-      <c r="Y73" s="281"/>
-      <c r="Z73" s="281"/>
-      <c r="AA73" s="281"/>
-      <c r="AB73" s="320"/>
+      <c r="R73" s="274"/>
+      <c r="S73" s="276"/>
+      <c r="T73" s="276"/>
+      <c r="U73" s="274"/>
+      <c r="V73" s="274"/>
+      <c r="W73" s="274"/>
+      <c r="X73" s="274"/>
+      <c r="Y73" s="274"/>
+      <c r="Z73" s="274"/>
+      <c r="AA73" s="274"/>
+      <c r="AB73" s="310"/>
       <c r="AC73" s="36"/>
     </row>
     <row r="74" spans="2:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -12628,17 +12457,17 @@
       <c r="N74" s="46"/>
       <c r="P74" s="227"/>
       <c r="Q74" s="82"/>
-      <c r="R74" s="281"/>
-      <c r="S74" s="283"/>
-      <c r="T74" s="283"/>
-      <c r="U74" s="281"/>
-      <c r="V74" s="281"/>
-      <c r="W74" s="281"/>
-      <c r="X74" s="281"/>
-      <c r="Y74" s="281"/>
-      <c r="Z74" s="281"/>
-      <c r="AA74" s="281"/>
-      <c r="AB74" s="320"/>
+      <c r="R74" s="274"/>
+      <c r="S74" s="276"/>
+      <c r="T74" s="276"/>
+      <c r="U74" s="274"/>
+      <c r="V74" s="274"/>
+      <c r="W74" s="274"/>
+      <c r="X74" s="274"/>
+      <c r="Y74" s="274"/>
+      <c r="Z74" s="274"/>
+      <c r="AA74" s="274"/>
+      <c r="AB74" s="310"/>
       <c r="AC74" s="36"/>
     </row>
     <row r="75" spans="2:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -12658,17 +12487,17 @@
       <c r="O75" s="23"/>
       <c r="P75" s="227"/>
       <c r="Q75" s="82"/>
-      <c r="R75" s="281"/>
-      <c r="S75" s="283"/>
-      <c r="T75" s="281"/>
-      <c r="U75" s="281"/>
-      <c r="V75" s="281"/>
-      <c r="W75" s="281"/>
-      <c r="X75" s="281"/>
-      <c r="Y75" s="281"/>
-      <c r="Z75" s="281"/>
-      <c r="AA75" s="281"/>
-      <c r="AB75" s="320"/>
+      <c r="R75" s="274"/>
+      <c r="S75" s="276"/>
+      <c r="T75" s="274"/>
+      <c r="U75" s="274"/>
+      <c r="V75" s="274"/>
+      <c r="W75" s="274"/>
+      <c r="X75" s="274"/>
+      <c r="Y75" s="274"/>
+      <c r="Z75" s="274"/>
+      <c r="AA75" s="274"/>
+      <c r="AB75" s="310"/>
       <c r="AC75" s="36"/>
     </row>
     <row r="76" spans="2:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -12688,17 +12517,17 @@
       <c r="O76" s="23"/>
       <c r="P76" s="227"/>
       <c r="Q76" s="82"/>
-      <c r="R76" s="281"/>
-      <c r="S76" s="283"/>
-      <c r="T76" s="281"/>
-      <c r="U76" s="281"/>
-      <c r="V76" s="281"/>
-      <c r="W76" s="281"/>
-      <c r="X76" s="281"/>
-      <c r="Y76" s="281"/>
-      <c r="Z76" s="281"/>
-      <c r="AA76" s="281"/>
-      <c r="AB76" s="320"/>
+      <c r="R76" s="274"/>
+      <c r="S76" s="276"/>
+      <c r="T76" s="274"/>
+      <c r="U76" s="274"/>
+      <c r="V76" s="274"/>
+      <c r="W76" s="274"/>
+      <c r="X76" s="274"/>
+      <c r="Y76" s="274"/>
+      <c r="Z76" s="274"/>
+      <c r="AA76" s="274"/>
+      <c r="AB76" s="310"/>
       <c r="AC76" s="36"/>
     </row>
     <row r="77" spans="2:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -12718,17 +12547,17 @@
       <c r="O77" s="23"/>
       <c r="P77" s="227"/>
       <c r="Q77" s="82"/>
-      <c r="R77" s="281"/>
-      <c r="S77" s="283"/>
-      <c r="T77" s="281"/>
-      <c r="U77" s="281"/>
-      <c r="V77" s="281"/>
-      <c r="W77" s="281"/>
-      <c r="X77" s="281"/>
-      <c r="Y77" s="281"/>
-      <c r="Z77" s="281"/>
-      <c r="AA77" s="281"/>
-      <c r="AB77" s="320"/>
+      <c r="R77" s="274"/>
+      <c r="S77" s="276"/>
+      <c r="T77" s="274"/>
+      <c r="U77" s="274"/>
+      <c r="V77" s="274"/>
+      <c r="W77" s="274"/>
+      <c r="X77" s="274"/>
+      <c r="Y77" s="274"/>
+      <c r="Z77" s="274"/>
+      <c r="AA77" s="274"/>
+      <c r="AB77" s="310"/>
       <c r="AC77" s="36"/>
     </row>
     <row r="78" spans="2:29" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -12747,18 +12576,18 @@
       <c r="N78" s="46"/>
       <c r="O78" s="46"/>
       <c r="P78" s="254"/>
-      <c r="Q78" s="280"/>
-      <c r="R78" s="280"/>
-      <c r="S78" s="283"/>
-      <c r="T78" s="280"/>
-      <c r="U78" s="280"/>
-      <c r="V78" s="280"/>
-      <c r="W78" s="280"/>
-      <c r="X78" s="280"/>
-      <c r="Y78" s="280"/>
-      <c r="Z78" s="280"/>
-      <c r="AA78" s="281"/>
-      <c r="AB78" s="320"/>
+      <c r="Q78" s="273"/>
+      <c r="R78" s="273"/>
+      <c r="S78" s="276"/>
+      <c r="T78" s="273"/>
+      <c r="U78" s="273"/>
+      <c r="V78" s="273"/>
+      <c r="W78" s="273"/>
+      <c r="X78" s="273"/>
+      <c r="Y78" s="273"/>
+      <c r="Z78" s="273"/>
+      <c r="AA78" s="274"/>
+      <c r="AB78" s="310"/>
       <c r="AC78" s="36"/>
     </row>
     <row r="79" spans="2:29" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -12777,18 +12606,18 @@
       <c r="N79" s="46"/>
       <c r="O79" s="46"/>
       <c r="P79" s="254"/>
-      <c r="Q79" s="280"/>
-      <c r="R79" s="280"/>
-      <c r="S79" s="283"/>
-      <c r="T79" s="280"/>
-      <c r="U79" s="280"/>
-      <c r="V79" s="280"/>
-      <c r="W79" s="280"/>
-      <c r="X79" s="280"/>
-      <c r="Y79" s="280"/>
-      <c r="Z79" s="280"/>
-      <c r="AA79" s="281"/>
-      <c r="AB79" s="320"/>
+      <c r="Q79" s="273"/>
+      <c r="R79" s="273"/>
+      <c r="S79" s="276"/>
+      <c r="T79" s="273"/>
+      <c r="U79" s="273"/>
+      <c r="V79" s="273"/>
+      <c r="W79" s="273"/>
+      <c r="X79" s="273"/>
+      <c r="Y79" s="273"/>
+      <c r="Z79" s="273"/>
+      <c r="AA79" s="274"/>
+      <c r="AB79" s="310"/>
       <c r="AC79" s="36"/>
     </row>
     <row r="80" spans="2:29" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -12807,18 +12636,18 @@
       <c r="N80" s="46"/>
       <c r="O80" s="53"/>
       <c r="P80" s="259"/>
-      <c r="Q80" s="280"/>
-      <c r="R80" s="280"/>
-      <c r="S80" s="280"/>
-      <c r="T80" s="280"/>
-      <c r="U80" s="280"/>
-      <c r="V80" s="280"/>
-      <c r="W80" s="280"/>
-      <c r="X80" s="280"/>
-      <c r="Y80" s="280"/>
-      <c r="Z80" s="280"/>
-      <c r="AA80" s="281"/>
-      <c r="AB80" s="320"/>
+      <c r="Q80" s="273"/>
+      <c r="R80" s="273"/>
+      <c r="S80" s="273"/>
+      <c r="T80" s="273"/>
+      <c r="U80" s="273"/>
+      <c r="V80" s="273"/>
+      <c r="W80" s="273"/>
+      <c r="X80" s="273"/>
+      <c r="Y80" s="273"/>
+      <c r="Z80" s="273"/>
+      <c r="AA80" s="274"/>
+      <c r="AB80" s="310"/>
       <c r="AC80" s="36"/>
     </row>
     <row r="81" spans="2:29" ht="42.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12837,18 +12666,18 @@
       <c r="N81" s="46"/>
       <c r="O81" s="224"/>
       <c r="P81" s="260"/>
-      <c r="Q81" s="284"/>
-      <c r="R81" s="284"/>
-      <c r="S81" s="284"/>
-      <c r="T81" s="285"/>
-      <c r="U81" s="285"/>
-      <c r="V81" s="285"/>
-      <c r="W81" s="285"/>
-      <c r="X81" s="285"/>
-      <c r="Y81" s="285"/>
-      <c r="Z81" s="277"/>
-      <c r="AA81" s="281"/>
-      <c r="AB81" s="281"/>
+      <c r="Q81" s="277"/>
+      <c r="R81" s="277"/>
+      <c r="S81" s="277"/>
+      <c r="T81" s="278"/>
+      <c r="U81" s="278"/>
+      <c r="V81" s="278"/>
+      <c r="W81" s="278"/>
+      <c r="X81" s="278"/>
+      <c r="Y81" s="278"/>
+      <c r="Z81" s="270"/>
+      <c r="AA81" s="274"/>
+      <c r="AB81" s="274"/>
       <c r="AC81" s="36"/>
     </row>
     <row r="82" spans="2:29" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -12867,18 +12696,18 @@
       <c r="N82" s="46"/>
       <c r="O82" s="53"/>
       <c r="P82" s="263"/>
-      <c r="Q82" s="280"/>
-      <c r="R82" s="280"/>
-      <c r="S82" s="280"/>
-      <c r="T82" s="280"/>
-      <c r="U82" s="280"/>
-      <c r="V82" s="280"/>
-      <c r="W82" s="280"/>
+      <c r="Q82" s="273"/>
+      <c r="R82" s="273"/>
+      <c r="S82" s="273"/>
+      <c r="T82" s="273"/>
+      <c r="U82" s="273"/>
+      <c r="V82" s="273"/>
+      <c r="W82" s="273"/>
       <c r="X82" s="82"/>
-      <c r="Y82" s="280"/>
-      <c r="Z82" s="294"/>
-      <c r="AA82" s="281"/>
-      <c r="AB82" s="281"/>
+      <c r="Y82" s="273"/>
+      <c r="Z82" s="284"/>
+      <c r="AA82" s="274"/>
+      <c r="AB82" s="274"/>
       <c r="AC82" s="36"/>
     </row>
     <row r="83" spans="2:29" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -12897,18 +12726,18 @@
       <c r="N83" s="46"/>
       <c r="O83" s="53"/>
       <c r="P83" s="254"/>
-      <c r="Q83" s="280"/>
-      <c r="R83" s="280"/>
-      <c r="S83" s="280"/>
-      <c r="T83" s="280"/>
-      <c r="U83" s="280"/>
-      <c r="V83" s="280"/>
-      <c r="W83" s="280"/>
+      <c r="Q83" s="273"/>
+      <c r="R83" s="273"/>
+      <c r="S83" s="273"/>
+      <c r="T83" s="273"/>
+      <c r="U83" s="273"/>
+      <c r="V83" s="273"/>
+      <c r="W83" s="273"/>
       <c r="X83" s="82"/>
-      <c r="Y83" s="280"/>
-      <c r="Z83" s="295"/>
-      <c r="AA83" s="281"/>
-      <c r="AB83" s="281"/>
+      <c r="Y83" s="273"/>
+      <c r="Z83" s="285"/>
+      <c r="AA83" s="274"/>
+      <c r="AB83" s="274"/>
       <c r="AC83" s="36"/>
     </row>
     <row r="84" spans="2:29" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -12927,18 +12756,18 @@
       <c r="N84" s="46"/>
       <c r="O84" s="53"/>
       <c r="P84" s="254"/>
-      <c r="Q84" s="280"/>
-      <c r="R84" s="280"/>
-      <c r="S84" s="280"/>
-      <c r="T84" s="280"/>
-      <c r="U84" s="280"/>
-      <c r="V84" s="280"/>
-      <c r="W84" s="280"/>
+      <c r="Q84" s="273"/>
+      <c r="R84" s="273"/>
+      <c r="S84" s="273"/>
+      <c r="T84" s="273"/>
+      <c r="U84" s="273"/>
+      <c r="V84" s="273"/>
+      <c r="W84" s="273"/>
       <c r="X84" s="82"/>
-      <c r="Y84" s="280"/>
-      <c r="Z84" s="296"/>
-      <c r="AA84" s="281"/>
-      <c r="AB84" s="281"/>
+      <c r="Y84" s="273"/>
+      <c r="Z84" s="286"/>
+      <c r="AA84" s="274"/>
+      <c r="AB84" s="274"/>
       <c r="AC84" s="36"/>
     </row>
     <row r="85" spans="2:29" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -12957,18 +12786,18 @@
       <c r="N85" s="46"/>
       <c r="O85" s="53"/>
       <c r="P85" s="254"/>
-      <c r="Q85" s="280"/>
-      <c r="R85" s="280"/>
-      <c r="S85" s="280"/>
-      <c r="T85" s="280"/>
-      <c r="U85" s="280"/>
-      <c r="V85" s="280"/>
-      <c r="W85" s="280"/>
+      <c r="Q85" s="273"/>
+      <c r="R85" s="273"/>
+      <c r="S85" s="273"/>
+      <c r="T85" s="273"/>
+      <c r="U85" s="273"/>
+      <c r="V85" s="273"/>
+      <c r="W85" s="273"/>
       <c r="X85" s="82"/>
-      <c r="Y85" s="280"/>
-      <c r="Z85" s="297"/>
-      <c r="AA85" s="281"/>
-      <c r="AB85" s="281"/>
+      <c r="Y85" s="273"/>
+      <c r="Z85" s="287"/>
+      <c r="AA85" s="274"/>
+      <c r="AB85" s="274"/>
       <c r="AC85" s="36"/>
     </row>
     <row r="86" spans="2:29" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -12987,18 +12816,18 @@
       <c r="N86" s="46"/>
       <c r="O86" s="53"/>
       <c r="P86" s="254"/>
-      <c r="Q86" s="280"/>
-      <c r="R86" s="280"/>
-      <c r="S86" s="280"/>
-      <c r="T86" s="280"/>
-      <c r="U86" s="280"/>
-      <c r="V86" s="280"/>
-      <c r="W86" s="280"/>
+      <c r="Q86" s="273"/>
+      <c r="R86" s="273"/>
+      <c r="S86" s="273"/>
+      <c r="T86" s="273"/>
+      <c r="U86" s="273"/>
+      <c r="V86" s="273"/>
+      <c r="W86" s="273"/>
       <c r="X86" s="82"/>
-      <c r="Y86" s="280"/>
-      <c r="Z86" s="298"/>
-      <c r="AA86" s="281"/>
-      <c r="AB86" s="281"/>
+      <c r="Y86" s="273"/>
+      <c r="Z86" s="288"/>
+      <c r="AA86" s="274"/>
+      <c r="AB86" s="274"/>
       <c r="AC86" s="36"/>
     </row>
     <row r="87" spans="2:29" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -13017,18 +12846,18 @@
       <c r="N87" s="46"/>
       <c r="O87" s="53"/>
       <c r="P87" s="254"/>
-      <c r="Q87" s="280"/>
-      <c r="R87" s="280"/>
-      <c r="S87" s="280"/>
-      <c r="T87" s="280"/>
-      <c r="U87" s="280"/>
-      <c r="V87" s="280"/>
-      <c r="W87" s="280"/>
+      <c r="Q87" s="273"/>
+      <c r="R87" s="273"/>
+      <c r="S87" s="273"/>
+      <c r="T87" s="273"/>
+      <c r="U87" s="273"/>
+      <c r="V87" s="273"/>
+      <c r="W87" s="273"/>
       <c r="X87" s="82"/>
-      <c r="Y87" s="280"/>
-      <c r="Z87" s="279"/>
-      <c r="AA87" s="281"/>
-      <c r="AB87" s="281"/>
+      <c r="Y87" s="273"/>
+      <c r="Z87" s="272"/>
+      <c r="AA87" s="274"/>
+      <c r="AB87" s="274"/>
       <c r="AC87" s="36"/>
     </row>
     <row r="88" spans="2:29" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -13047,18 +12876,18 @@
       <c r="N88" s="46"/>
       <c r="O88" s="53"/>
       <c r="P88" s="254"/>
-      <c r="Q88" s="280"/>
-      <c r="R88" s="280"/>
-      <c r="S88" s="280"/>
-      <c r="T88" s="280"/>
-      <c r="U88" s="280"/>
-      <c r="V88" s="280"/>
-      <c r="W88" s="280"/>
+      <c r="Q88" s="273"/>
+      <c r="R88" s="273"/>
+      <c r="S88" s="273"/>
+      <c r="T88" s="273"/>
+      <c r="U88" s="273"/>
+      <c r="V88" s="273"/>
+      <c r="W88" s="273"/>
       <c r="X88" s="82"/>
-      <c r="Y88" s="280"/>
-      <c r="Z88" s="279"/>
-      <c r="AA88" s="281"/>
-      <c r="AB88" s="281"/>
+      <c r="Y88" s="273"/>
+      <c r="Z88" s="272"/>
+      <c r="AA88" s="274"/>
+      <c r="AB88" s="274"/>
       <c r="AC88" s="36"/>
     </row>
     <row r="89" spans="2:29" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -13077,18 +12906,18 @@
       <c r="N89" s="46"/>
       <c r="O89" s="53"/>
       <c r="P89" s="254"/>
-      <c r="Q89" s="280"/>
-      <c r="R89" s="280"/>
-      <c r="S89" s="280"/>
-      <c r="T89" s="280"/>
-      <c r="U89" s="280"/>
-      <c r="V89" s="280"/>
-      <c r="W89" s="280"/>
+      <c r="Q89" s="273"/>
+      <c r="R89" s="273"/>
+      <c r="S89" s="273"/>
+      <c r="T89" s="273"/>
+      <c r="U89" s="273"/>
+      <c r="V89" s="273"/>
+      <c r="W89" s="273"/>
       <c r="X89" s="82"/>
-      <c r="Y89" s="280"/>
-      <c r="Z89" s="279"/>
-      <c r="AA89" s="281"/>
-      <c r="AB89" s="281"/>
+      <c r="Y89" s="273"/>
+      <c r="Z89" s="272"/>
+      <c r="AA89" s="274"/>
+      <c r="AB89" s="274"/>
       <c r="AC89" s="36"/>
     </row>
     <row r="90" spans="2:29" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -13107,18 +12936,18 @@
       <c r="N90" s="46"/>
       <c r="O90" s="46"/>
       <c r="P90" s="254"/>
-      <c r="Q90" s="280"/>
-      <c r="R90" s="280"/>
-      <c r="S90" s="280"/>
-      <c r="T90" s="280"/>
-      <c r="U90" s="280"/>
-      <c r="V90" s="280"/>
-      <c r="W90" s="283"/>
-      <c r="X90" s="280"/>
-      <c r="Y90" s="280"/>
-      <c r="Z90" s="280"/>
-      <c r="AA90" s="281"/>
-      <c r="AB90" s="281"/>
+      <c r="Q90" s="273"/>
+      <c r="R90" s="273"/>
+      <c r="S90" s="273"/>
+      <c r="T90" s="273"/>
+      <c r="U90" s="273"/>
+      <c r="V90" s="273"/>
+      <c r="W90" s="276"/>
+      <c r="X90" s="273"/>
+      <c r="Y90" s="273"/>
+      <c r="Z90" s="273"/>
+      <c r="AA90" s="274"/>
+      <c r="AB90" s="274"/>
       <c r="AC90" s="36"/>
     </row>
     <row r="91" spans="2:29" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -13137,18 +12966,18 @@
       <c r="N91" s="46"/>
       <c r="O91" s="46"/>
       <c r="P91" s="254"/>
-      <c r="Q91" s="280"/>
-      <c r="R91" s="280"/>
-      <c r="S91" s="280"/>
-      <c r="T91" s="280"/>
-      <c r="U91" s="280"/>
-      <c r="V91" s="280"/>
-      <c r="W91" s="283"/>
-      <c r="X91" s="280"/>
-      <c r="Y91" s="280"/>
-      <c r="Z91" s="280"/>
-      <c r="AA91" s="281"/>
-      <c r="AB91" s="281"/>
+      <c r="Q91" s="273"/>
+      <c r="R91" s="273"/>
+      <c r="S91" s="273"/>
+      <c r="T91" s="273"/>
+      <c r="U91" s="273"/>
+      <c r="V91" s="273"/>
+      <c r="W91" s="276"/>
+      <c r="X91" s="273"/>
+      <c r="Y91" s="273"/>
+      <c r="Z91" s="273"/>
+      <c r="AA91" s="274"/>
+      <c r="AB91" s="274"/>
       <c r="AC91" s="36"/>
     </row>
     <row r="92" spans="2:29" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -13167,18 +12996,18 @@
       <c r="N92" s="46"/>
       <c r="O92" s="53"/>
       <c r="P92" s="259"/>
-      <c r="Q92" s="280"/>
-      <c r="R92" s="280"/>
-      <c r="S92" s="280"/>
-      <c r="T92" s="280"/>
-      <c r="U92" s="280"/>
-      <c r="V92" s="280"/>
-      <c r="W92" s="280"/>
-      <c r="X92" s="280"/>
-      <c r="Y92" s="280"/>
-      <c r="Z92" s="280"/>
-      <c r="AA92" s="281"/>
-      <c r="AB92" s="281"/>
+      <c r="Q92" s="273"/>
+      <c r="R92" s="273"/>
+      <c r="S92" s="273"/>
+      <c r="T92" s="273"/>
+      <c r="U92" s="273"/>
+      <c r="V92" s="273"/>
+      <c r="W92" s="273"/>
+      <c r="X92" s="273"/>
+      <c r="Y92" s="273"/>
+      <c r="Z92" s="273"/>
+      <c r="AA92" s="274"/>
+      <c r="AB92" s="274"/>
       <c r="AC92" s="36"/>
     </row>
     <row r="93" spans="2:29" ht="44.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -13197,18 +13026,18 @@
       <c r="N93" s="46"/>
       <c r="O93" s="224"/>
       <c r="P93" s="260"/>
-      <c r="Q93" s="284"/>
-      <c r="R93" s="284"/>
-      <c r="S93" s="284"/>
-      <c r="T93" s="285"/>
-      <c r="U93" s="285"/>
-      <c r="V93" s="285"/>
-      <c r="W93" s="285"/>
-      <c r="X93" s="285"/>
-      <c r="Y93" s="285"/>
-      <c r="Z93" s="277"/>
-      <c r="AA93" s="281"/>
-      <c r="AB93" s="281"/>
+      <c r="Q93" s="277"/>
+      <c r="R93" s="277"/>
+      <c r="S93" s="277"/>
+      <c r="T93" s="278"/>
+      <c r="U93" s="278"/>
+      <c r="V93" s="278"/>
+      <c r="W93" s="278"/>
+      <c r="X93" s="278"/>
+      <c r="Y93" s="278"/>
+      <c r="Z93" s="270"/>
+      <c r="AA93" s="274"/>
+      <c r="AB93" s="274"/>
       <c r="AC93" s="36"/>
     </row>
     <row r="94" spans="2:29" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -13227,18 +13056,18 @@
       <c r="N94" s="46"/>
       <c r="O94" s="53"/>
       <c r="P94" s="254"/>
-      <c r="Q94" s="280"/>
-      <c r="R94" s="280"/>
-      <c r="S94" s="280"/>
-      <c r="T94" s="280"/>
-      <c r="U94" s="280"/>
-      <c r="V94" s="280"/>
-      <c r="W94" s="280"/>
+      <c r="Q94" s="273"/>
+      <c r="R94" s="273"/>
+      <c r="S94" s="273"/>
+      <c r="T94" s="273"/>
+      <c r="U94" s="273"/>
+      <c r="V94" s="273"/>
+      <c r="W94" s="273"/>
       <c r="X94" s="82"/>
-      <c r="Y94" s="280"/>
-      <c r="Z94" s="299"/>
-      <c r="AA94" s="281"/>
-      <c r="AB94" s="281"/>
+      <c r="Y94" s="273"/>
+      <c r="Z94" s="289"/>
+      <c r="AA94" s="274"/>
+      <c r="AB94" s="274"/>
       <c r="AC94" s="36"/>
     </row>
     <row r="95" spans="2:29" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -13257,18 +13086,18 @@
       <c r="N95" s="46"/>
       <c r="O95" s="53"/>
       <c r="P95" s="254"/>
-      <c r="Q95" s="280"/>
-      <c r="R95" s="280"/>
-      <c r="S95" s="280"/>
-      <c r="T95" s="280"/>
-      <c r="U95" s="280"/>
-      <c r="V95" s="280"/>
-      <c r="W95" s="280"/>
+      <c r="Q95" s="273"/>
+      <c r="R95" s="273"/>
+      <c r="S95" s="273"/>
+      <c r="T95" s="273"/>
+      <c r="U95" s="273"/>
+      <c r="V95" s="273"/>
+      <c r="W95" s="273"/>
       <c r="X95" s="82"/>
-      <c r="Y95" s="280"/>
-      <c r="Z95" s="300"/>
-      <c r="AA95" s="281"/>
-      <c r="AB95" s="281"/>
+      <c r="Y95" s="273"/>
+      <c r="Z95" s="290"/>
+      <c r="AA95" s="274"/>
+      <c r="AB95" s="274"/>
       <c r="AC95" s="36"/>
     </row>
     <row r="96" spans="2:29" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -13287,18 +13116,18 @@
       <c r="N96" s="46"/>
       <c r="O96" s="53"/>
       <c r="P96" s="254"/>
-      <c r="Q96" s="280"/>
-      <c r="R96" s="280"/>
-      <c r="S96" s="280"/>
-      <c r="T96" s="280"/>
-      <c r="U96" s="280"/>
-      <c r="V96" s="280"/>
-      <c r="W96" s="280"/>
+      <c r="Q96" s="273"/>
+      <c r="R96" s="273"/>
+      <c r="S96" s="273"/>
+      <c r="T96" s="273"/>
+      <c r="U96" s="273"/>
+      <c r="V96" s="273"/>
+      <c r="W96" s="273"/>
       <c r="X96" s="82"/>
-      <c r="Y96" s="280"/>
-      <c r="Z96" s="301"/>
-      <c r="AA96" s="281"/>
-      <c r="AB96" s="281"/>
+      <c r="Y96" s="273"/>
+      <c r="Z96" s="291"/>
+      <c r="AA96" s="274"/>
+      <c r="AB96" s="274"/>
       <c r="AC96" s="36"/>
     </row>
     <row r="97" spans="2:29" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -13317,18 +13146,18 @@
       <c r="N97" s="46"/>
       <c r="O97" s="53"/>
       <c r="P97" s="254"/>
-      <c r="Q97" s="280"/>
-      <c r="R97" s="280"/>
-      <c r="S97" s="280"/>
-      <c r="T97" s="280"/>
-      <c r="U97" s="280"/>
-      <c r="V97" s="280"/>
-      <c r="W97" s="280"/>
+      <c r="Q97" s="273"/>
+      <c r="R97" s="273"/>
+      <c r="S97" s="273"/>
+      <c r="T97" s="273"/>
+      <c r="U97" s="273"/>
+      <c r="V97" s="273"/>
+      <c r="W97" s="273"/>
       <c r="X97" s="82"/>
-      <c r="Y97" s="280"/>
-      <c r="Z97" s="302"/>
-      <c r="AA97" s="281"/>
-      <c r="AB97" s="281"/>
+      <c r="Y97" s="273"/>
+      <c r="Z97" s="292"/>
+      <c r="AA97" s="274"/>
+      <c r="AB97" s="274"/>
       <c r="AC97" s="36"/>
     </row>
     <row r="98" spans="2:29" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -13347,18 +13176,18 @@
       <c r="N98" s="46"/>
       <c r="O98" s="53"/>
       <c r="P98" s="254"/>
-      <c r="Q98" s="280"/>
-      <c r="R98" s="280"/>
-      <c r="S98" s="280"/>
-      <c r="T98" s="280"/>
-      <c r="U98" s="280"/>
-      <c r="V98" s="280"/>
-      <c r="W98" s="280"/>
+      <c r="Q98" s="273"/>
+      <c r="R98" s="273"/>
+      <c r="S98" s="273"/>
+      <c r="T98" s="273"/>
+      <c r="U98" s="273"/>
+      <c r="V98" s="273"/>
+      <c r="W98" s="273"/>
       <c r="X98" s="82"/>
-      <c r="Y98" s="280"/>
-      <c r="Z98" s="303"/>
-      <c r="AA98" s="281"/>
-      <c r="AB98" s="281"/>
+      <c r="Y98" s="273"/>
+      <c r="Z98" s="293"/>
+      <c r="AA98" s="274"/>
+      <c r="AB98" s="274"/>
       <c r="AC98" s="36"/>
     </row>
     <row r="99" spans="2:29" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -13377,18 +13206,18 @@
       <c r="N99" s="46"/>
       <c r="O99" s="53"/>
       <c r="P99" s="254"/>
-      <c r="Q99" s="280"/>
-      <c r="R99" s="280"/>
-      <c r="S99" s="280"/>
-      <c r="T99" s="280"/>
-      <c r="U99" s="280"/>
-      <c r="V99" s="280"/>
-      <c r="W99" s="280"/>
+      <c r="Q99" s="273"/>
+      <c r="R99" s="273"/>
+      <c r="S99" s="273"/>
+      <c r="T99" s="273"/>
+      <c r="U99" s="273"/>
+      <c r="V99" s="273"/>
+      <c r="W99" s="273"/>
       <c r="X99" s="82"/>
-      <c r="Y99" s="280"/>
-      <c r="Z99" s="304"/>
-      <c r="AA99" s="281"/>
-      <c r="AB99" s="281"/>
+      <c r="Y99" s="273"/>
+      <c r="Z99" s="294"/>
+      <c r="AA99" s="274"/>
+      <c r="AB99" s="274"/>
       <c r="AC99" s="36"/>
     </row>
     <row r="100" spans="2:29" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -13407,18 +13236,18 @@
       <c r="N100" s="46"/>
       <c r="O100" s="53"/>
       <c r="P100" s="254"/>
-      <c r="Q100" s="280"/>
-      <c r="R100" s="280"/>
-      <c r="S100" s="280"/>
-      <c r="T100" s="280"/>
-      <c r="U100" s="280"/>
-      <c r="V100" s="280"/>
-      <c r="W100" s="280"/>
+      <c r="Q100" s="273"/>
+      <c r="R100" s="273"/>
+      <c r="S100" s="273"/>
+      <c r="T100" s="273"/>
+      <c r="U100" s="273"/>
+      <c r="V100" s="273"/>
+      <c r="W100" s="273"/>
       <c r="X100" s="82"/>
-      <c r="Y100" s="280"/>
-      <c r="Z100" s="279"/>
-      <c r="AA100" s="281"/>
-      <c r="AB100" s="281"/>
+      <c r="Y100" s="273"/>
+      <c r="Z100" s="272"/>
+      <c r="AA100" s="274"/>
+      <c r="AB100" s="274"/>
       <c r="AC100" s="36"/>
     </row>
     <row r="101" spans="2:29" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -13437,18 +13266,18 @@
       <c r="N101" s="46"/>
       <c r="O101" s="53"/>
       <c r="P101" s="254"/>
-      <c r="Q101" s="280"/>
-      <c r="R101" s="280"/>
-      <c r="S101" s="280"/>
-      <c r="T101" s="280"/>
-      <c r="U101" s="280"/>
-      <c r="V101" s="280"/>
-      <c r="W101" s="280"/>
+      <c r="Q101" s="273"/>
+      <c r="R101" s="273"/>
+      <c r="S101" s="273"/>
+      <c r="T101" s="273"/>
+      <c r="U101" s="273"/>
+      <c r="V101" s="273"/>
+      <c r="W101" s="273"/>
       <c r="X101" s="82"/>
-      <c r="Y101" s="280"/>
-      <c r="Z101" s="279"/>
-      <c r="AA101" s="281"/>
-      <c r="AB101" s="281"/>
+      <c r="Y101" s="273"/>
+      <c r="Z101" s="272"/>
+      <c r="AA101" s="274"/>
+      <c r="AB101" s="274"/>
       <c r="AC101" s="36"/>
     </row>
     <row r="102" spans="2:29" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -13467,18 +13296,18 @@
       <c r="N102" s="46"/>
       <c r="O102" s="46"/>
       <c r="P102" s="254"/>
-      <c r="Q102" s="280"/>
-      <c r="R102" s="280"/>
-      <c r="S102" s="280"/>
-      <c r="T102" s="280"/>
-      <c r="U102" s="280"/>
-      <c r="V102" s="280"/>
-      <c r="W102" s="280"/>
-      <c r="X102" s="283"/>
-      <c r="Y102" s="280"/>
-      <c r="Z102" s="280"/>
-      <c r="AA102" s="281"/>
-      <c r="AB102" s="281"/>
+      <c r="Q102" s="273"/>
+      <c r="R102" s="273"/>
+      <c r="S102" s="273"/>
+      <c r="T102" s="273"/>
+      <c r="U102" s="273"/>
+      <c r="V102" s="273"/>
+      <c r="W102" s="273"/>
+      <c r="X102" s="276"/>
+      <c r="Y102" s="273"/>
+      <c r="Z102" s="273"/>
+      <c r="AA102" s="274"/>
+      <c r="AB102" s="274"/>
       <c r="AC102" s="36"/>
     </row>
     <row r="103" spans="2:29" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -13497,18 +13326,18 @@
       <c r="N103" s="46"/>
       <c r="O103" s="46"/>
       <c r="P103" s="254"/>
-      <c r="Q103" s="280"/>
-      <c r="R103" s="280"/>
-      <c r="S103" s="280"/>
-      <c r="T103" s="280"/>
-      <c r="U103" s="280"/>
-      <c r="V103" s="280"/>
-      <c r="W103" s="280"/>
-      <c r="X103" s="283"/>
-      <c r="Y103" s="280"/>
-      <c r="Z103" s="280"/>
-      <c r="AA103" s="281"/>
-      <c r="AB103" s="281"/>
+      <c r="Q103" s="273"/>
+      <c r="R103" s="273"/>
+      <c r="S103" s="273"/>
+      <c r="T103" s="273"/>
+      <c r="U103" s="273"/>
+      <c r="V103" s="273"/>
+      <c r="W103" s="273"/>
+      <c r="X103" s="276"/>
+      <c r="Y103" s="273"/>
+      <c r="Z103" s="273"/>
+      <c r="AA103" s="274"/>
+      <c r="AB103" s="274"/>
       <c r="AC103" s="36"/>
     </row>
     <row r="104" spans="2:29" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -13527,18 +13356,18 @@
       <c r="N104" s="46"/>
       <c r="O104" s="53"/>
       <c r="P104" s="259"/>
-      <c r="Q104" s="280"/>
-      <c r="R104" s="280"/>
-      <c r="S104" s="280"/>
-      <c r="T104" s="280"/>
-      <c r="U104" s="280"/>
-      <c r="V104" s="280"/>
-      <c r="W104" s="280"/>
-      <c r="X104" s="280"/>
-      <c r="Y104" s="280"/>
-      <c r="Z104" s="280"/>
-      <c r="AA104" s="281"/>
-      <c r="AB104" s="281"/>
+      <c r="Q104" s="273"/>
+      <c r="R104" s="273"/>
+      <c r="S104" s="273"/>
+      <c r="T104" s="273"/>
+      <c r="U104" s="273"/>
+      <c r="V104" s="273"/>
+      <c r="W104" s="273"/>
+      <c r="X104" s="273"/>
+      <c r="Y104" s="273"/>
+      <c r="Z104" s="273"/>
+      <c r="AA104" s="274"/>
+      <c r="AB104" s="274"/>
       <c r="AC104" s="36"/>
     </row>
     <row r="105" spans="2:29" ht="41.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -13557,18 +13386,18 @@
       <c r="N105" s="46"/>
       <c r="O105" s="224"/>
       <c r="P105" s="260"/>
-      <c r="Q105" s="284"/>
-      <c r="R105" s="284"/>
-      <c r="S105" s="284"/>
-      <c r="T105" s="285"/>
-      <c r="U105" s="285"/>
-      <c r="V105" s="285"/>
-      <c r="W105" s="285"/>
-      <c r="X105" s="285"/>
-      <c r="Y105" s="285"/>
-      <c r="Z105" s="277"/>
-      <c r="AA105" s="281"/>
-      <c r="AB105" s="281"/>
+      <c r="Q105" s="277"/>
+      <c r="R105" s="277"/>
+      <c r="S105" s="277"/>
+      <c r="T105" s="278"/>
+      <c r="U105" s="278"/>
+      <c r="V105" s="278"/>
+      <c r="W105" s="278"/>
+      <c r="X105" s="278"/>
+      <c r="Y105" s="278"/>
+      <c r="Z105" s="270"/>
+      <c r="AA105" s="274"/>
+      <c r="AB105" s="274"/>
       <c r="AC105" s="36"/>
     </row>
     <row r="106" spans="2:29" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -13587,18 +13416,18 @@
       <c r="N106" s="46"/>
       <c r="O106" s="53"/>
       <c r="P106" s="254"/>
-      <c r="Q106" s="280"/>
-      <c r="R106" s="280"/>
-      <c r="S106" s="280"/>
-      <c r="T106" s="280"/>
-      <c r="U106" s="280"/>
-      <c r="V106" s="280"/>
-      <c r="W106" s="280"/>
+      <c r="Q106" s="273"/>
+      <c r="R106" s="273"/>
+      <c r="S106" s="273"/>
+      <c r="T106" s="273"/>
+      <c r="U106" s="273"/>
+      <c r="V106" s="273"/>
+      <c r="W106" s="273"/>
       <c r="X106" s="82"/>
-      <c r="Y106" s="280"/>
-      <c r="Z106" s="305"/>
-      <c r="AA106" s="281"/>
-      <c r="AB106" s="281"/>
+      <c r="Y106" s="273"/>
+      <c r="Z106" s="295"/>
+      <c r="AA106" s="274"/>
+      <c r="AB106" s="274"/>
       <c r="AC106" s="36"/>
     </row>
     <row r="107" spans="2:29" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -13617,18 +13446,18 @@
       <c r="N107" s="46"/>
       <c r="O107" s="53"/>
       <c r="P107" s="254"/>
-      <c r="Q107" s="280"/>
-      <c r="R107" s="280"/>
-      <c r="S107" s="280"/>
-      <c r="T107" s="280"/>
-      <c r="U107" s="280"/>
-      <c r="V107" s="280"/>
-      <c r="W107" s="280"/>
+      <c r="Q107" s="273"/>
+      <c r="R107" s="273"/>
+      <c r="S107" s="273"/>
+      <c r="T107" s="273"/>
+      <c r="U107" s="273"/>
+      <c r="V107" s="273"/>
+      <c r="W107" s="273"/>
       <c r="X107" s="82"/>
-      <c r="Y107" s="280"/>
-      <c r="Z107" s="306"/>
-      <c r="AA107" s="281"/>
-      <c r="AB107" s="281"/>
+      <c r="Y107" s="273"/>
+      <c r="Z107" s="296"/>
+      <c r="AA107" s="274"/>
+      <c r="AB107" s="274"/>
       <c r="AC107" s="36"/>
     </row>
     <row r="108" spans="2:29" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -13647,18 +13476,18 @@
       <c r="N108" s="46"/>
       <c r="O108" s="53"/>
       <c r="P108" s="254"/>
-      <c r="Q108" s="280"/>
-      <c r="R108" s="280"/>
-      <c r="S108" s="280"/>
-      <c r="T108" s="280"/>
-      <c r="U108" s="280"/>
-      <c r="V108" s="280"/>
-      <c r="W108" s="280"/>
+      <c r="Q108" s="273"/>
+      <c r="R108" s="273"/>
+      <c r="S108" s="273"/>
+      <c r="T108" s="273"/>
+      <c r="U108" s="273"/>
+      <c r="V108" s="273"/>
+      <c r="W108" s="273"/>
       <c r="X108" s="82"/>
-      <c r="Y108" s="280"/>
-      <c r="Z108" s="307"/>
-      <c r="AA108" s="281"/>
-      <c r="AB108" s="281"/>
+      <c r="Y108" s="273"/>
+      <c r="Z108" s="297"/>
+      <c r="AA108" s="274"/>
+      <c r="AB108" s="274"/>
       <c r="AC108" s="36"/>
     </row>
     <row r="109" spans="2:29" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -13677,18 +13506,18 @@
       <c r="N109" s="46"/>
       <c r="O109" s="53"/>
       <c r="P109" s="254"/>
-      <c r="Q109" s="280"/>
-      <c r="R109" s="280"/>
-      <c r="S109" s="280"/>
-      <c r="T109" s="280"/>
-      <c r="U109" s="280"/>
-      <c r="V109" s="280"/>
-      <c r="W109" s="280"/>
+      <c r="Q109" s="273"/>
+      <c r="R109" s="273"/>
+      <c r="S109" s="273"/>
+      <c r="T109" s="273"/>
+      <c r="U109" s="273"/>
+      <c r="V109" s="273"/>
+      <c r="W109" s="273"/>
       <c r="X109" s="82"/>
-      <c r="Y109" s="280"/>
-      <c r="Z109" s="308"/>
-      <c r="AA109" s="281"/>
-      <c r="AB109" s="281"/>
+      <c r="Y109" s="273"/>
+      <c r="Z109" s="298"/>
+      <c r="AA109" s="274"/>
+      <c r="AB109" s="274"/>
       <c r="AC109" s="36"/>
     </row>
     <row r="110" spans="2:29" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -13707,18 +13536,18 @@
       <c r="N110" s="46"/>
       <c r="O110" s="53"/>
       <c r="P110" s="254"/>
-      <c r="Q110" s="280"/>
-      <c r="R110" s="280"/>
-      <c r="S110" s="280"/>
-      <c r="T110" s="280"/>
-      <c r="U110" s="280"/>
-      <c r="V110" s="280"/>
-      <c r="W110" s="280"/>
+      <c r="Q110" s="273"/>
+      <c r="R110" s="273"/>
+      <c r="S110" s="273"/>
+      <c r="T110" s="273"/>
+      <c r="U110" s="273"/>
+      <c r="V110" s="273"/>
+      <c r="W110" s="273"/>
       <c r="X110" s="82"/>
-      <c r="Y110" s="280"/>
-      <c r="Z110" s="309"/>
-      <c r="AA110" s="281"/>
-      <c r="AB110" s="281"/>
+      <c r="Y110" s="273"/>
+      <c r="Z110" s="299"/>
+      <c r="AA110" s="274"/>
+      <c r="AB110" s="274"/>
       <c r="AC110" s="36"/>
     </row>
     <row r="111" spans="2:29" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -13737,18 +13566,18 @@
       <c r="N111" s="46"/>
       <c r="O111" s="53"/>
       <c r="P111" s="254"/>
-      <c r="Q111" s="280"/>
-      <c r="R111" s="280"/>
-      <c r="S111" s="280"/>
-      <c r="T111" s="280"/>
-      <c r="U111" s="280"/>
-      <c r="V111" s="280"/>
-      <c r="W111" s="280"/>
+      <c r="Q111" s="273"/>
+      <c r="R111" s="273"/>
+      <c r="S111" s="273"/>
+      <c r="T111" s="273"/>
+      <c r="U111" s="273"/>
+      <c r="V111" s="273"/>
+      <c r="W111" s="273"/>
       <c r="X111" s="82"/>
-      <c r="Y111" s="280"/>
-      <c r="Z111" s="279"/>
-      <c r="AA111" s="281"/>
-      <c r="AB111" s="281"/>
+      <c r="Y111" s="273"/>
+      <c r="Z111" s="272"/>
+      <c r="AA111" s="274"/>
+      <c r="AB111" s="274"/>
       <c r="AC111" s="36"/>
     </row>
     <row r="112" spans="2:29" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -13776,7 +13605,7 @@
       <c r="W112" s="254"/>
       <c r="X112" s="227"/>
       <c r="Y112" s="254"/>
-      <c r="Z112" s="310"/>
+      <c r="Z112" s="300"/>
       <c r="AA112" s="253"/>
       <c r="AB112" s="253"/>
     </row>
@@ -13805,7 +13634,7 @@
       <c r="W113" s="254"/>
       <c r="X113" s="227"/>
       <c r="Y113" s="254"/>
-      <c r="Z113" s="310"/>
+      <c r="Z113" s="300"/>
       <c r="AA113" s="253"/>
       <c r="AB113" s="253"/>
     </row>
@@ -13921,7 +13750,7 @@
       <c r="W117" s="262"/>
       <c r="X117" s="262"/>
       <c r="Y117" s="262"/>
-      <c r="Z117" s="311"/>
+      <c r="Z117" s="301"/>
       <c r="AA117" s="253"/>
       <c r="AB117" s="253"/>
     </row>
@@ -13950,7 +13779,7 @@
       <c r="W118" s="254"/>
       <c r="X118" s="227"/>
       <c r="Y118" s="254"/>
-      <c r="Z118" s="312"/>
+      <c r="Z118" s="302"/>
       <c r="AA118" s="253"/>
       <c r="AB118" s="253"/>
     </row>
@@ -13979,7 +13808,7 @@
       <c r="W119" s="254"/>
       <c r="X119" s="227"/>
       <c r="Y119" s="254"/>
-      <c r="Z119" s="313"/>
+      <c r="Z119" s="303"/>
       <c r="AA119" s="253"/>
       <c r="AB119" s="253"/>
     </row>
@@ -14008,7 +13837,7 @@
       <c r="W120" s="254"/>
       <c r="X120" s="227"/>
       <c r="Y120" s="254"/>
-      <c r="Z120" s="314"/>
+      <c r="Z120" s="304"/>
       <c r="AA120" s="253"/>
       <c r="AB120" s="253"/>
     </row>
@@ -14037,7 +13866,7 @@
       <c r="W121" s="254"/>
       <c r="X121" s="227"/>
       <c r="Y121" s="254"/>
-      <c r="Z121" s="315"/>
+      <c r="Z121" s="305"/>
       <c r="AA121" s="253"/>
       <c r="AB121" s="253"/>
     </row>
@@ -14066,7 +13895,7 @@
       <c r="W122" s="254"/>
       <c r="X122" s="227"/>
       <c r="Y122" s="254"/>
-      <c r="Z122" s="316"/>
+      <c r="Z122" s="306"/>
       <c r="AA122" s="253"/>
       <c r="AB122" s="253"/>
     </row>
@@ -14095,7 +13924,7 @@
       <c r="W123" s="254"/>
       <c r="X123" s="227"/>
       <c r="Y123" s="254"/>
-      <c r="Z123" s="317"/>
+      <c r="Z123" s="307"/>
       <c r="AA123" s="253"/>
       <c r="AB123" s="253"/>
     </row>
@@ -14124,7 +13953,7 @@
       <c r="W124" s="254"/>
       <c r="X124" s="227"/>
       <c r="Y124" s="254"/>
-      <c r="Z124" s="310"/>
+      <c r="Z124" s="300"/>
       <c r="AA124" s="253"/>
       <c r="AB124" s="253"/>
     </row>
@@ -14153,7 +13982,7 @@
       <c r="W125" s="254"/>
       <c r="X125" s="227"/>
       <c r="Y125" s="254"/>
-      <c r="Z125" s="310"/>
+      <c r="Z125" s="300"/>
       <c r="AA125" s="253"/>
       <c r="AB125" s="253"/>
     </row>
@@ -18683,6 +18512,47 @@
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="U21:U24"/>
+    <mergeCell ref="O21:O24"/>
+    <mergeCell ref="P21:P24"/>
+    <mergeCell ref="Q21:Q24"/>
+    <mergeCell ref="R21:R24"/>
+    <mergeCell ref="S21:S24"/>
+    <mergeCell ref="T21:T24"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="Q40:Y40"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="J40:M40"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="M21:M24"/>
+    <mergeCell ref="N21:N24"/>
+    <mergeCell ref="Q17:Q20"/>
+    <mergeCell ref="U17:U20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="M17:M20"/>
+    <mergeCell ref="N17:N20"/>
+    <mergeCell ref="O17:O20"/>
+    <mergeCell ref="P17:P20"/>
+    <mergeCell ref="P13:P16"/>
+    <mergeCell ref="Q13:Q16"/>
+    <mergeCell ref="R17:R20"/>
+    <mergeCell ref="S17:S20"/>
+    <mergeCell ref="T17:T20"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="M13:M16"/>
+    <mergeCell ref="N13:N16"/>
+    <mergeCell ref="O13:O16"/>
+    <mergeCell ref="R9:R12"/>
+    <mergeCell ref="S9:S12"/>
+    <mergeCell ref="T9:T12"/>
+    <mergeCell ref="U9:U12"/>
+    <mergeCell ref="R13:R16"/>
+    <mergeCell ref="S13:S16"/>
+    <mergeCell ref="T13:T16"/>
+    <mergeCell ref="U13:U16"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="F1:L1"/>
     <mergeCell ref="D6:H6"/>
@@ -18695,47 +18565,6 @@
     <mergeCell ref="O9:O12"/>
     <mergeCell ref="P9:P12"/>
     <mergeCell ref="Q9:Q12"/>
-    <mergeCell ref="R9:R12"/>
-    <mergeCell ref="S9:S12"/>
-    <mergeCell ref="T9:T12"/>
-    <mergeCell ref="U9:U12"/>
-    <mergeCell ref="R13:R16"/>
-    <mergeCell ref="S13:S16"/>
-    <mergeCell ref="T13:T16"/>
-    <mergeCell ref="U13:U16"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="M13:M16"/>
-    <mergeCell ref="N13:N16"/>
-    <mergeCell ref="O13:O16"/>
-    <mergeCell ref="P13:P16"/>
-    <mergeCell ref="Q13:Q16"/>
-    <mergeCell ref="R17:R20"/>
-    <mergeCell ref="S17:S20"/>
-    <mergeCell ref="T17:T20"/>
-    <mergeCell ref="U17:U20"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="M17:M20"/>
-    <mergeCell ref="N17:N20"/>
-    <mergeCell ref="O17:O20"/>
-    <mergeCell ref="P17:P20"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="M21:M24"/>
-    <mergeCell ref="N21:N24"/>
-    <mergeCell ref="Q17:Q20"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="U21:U24"/>
-    <mergeCell ref="O21:O24"/>
-    <mergeCell ref="P21:P24"/>
-    <mergeCell ref="Q21:Q24"/>
-    <mergeCell ref="I40:L40"/>
-    <mergeCell ref="R21:R24"/>
-    <mergeCell ref="S21:S24"/>
-    <mergeCell ref="T21:T24"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="Q40:Y40"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N9 N13 N17 N21">
@@ -18792,15 +18621,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="39" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="F1" s="360" t="s">
+      <c r="F1" s="333" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="360"/>
-      <c r="H1" s="360"/>
-      <c r="I1" s="360"/>
-      <c r="J1" s="360"/>
-      <c r="K1" s="360"/>
-      <c r="L1" s="360"/>
+      <c r="G1" s="333"/>
+      <c r="H1" s="333"/>
+      <c r="I1" s="333"/>
+      <c r="J1" s="333"/>
+      <c r="K1" s="333"/>
+      <c r="L1" s="333"/>
       <c r="U1" s="22" t="s">
         <v>62</v>
       </c>
@@ -18889,22 +18718,22 @@
       </c>
     </row>
     <row r="6" spans="1:47" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D6" s="361" t="s">
+      <c r="D6" s="334" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="362"/>
-      <c r="F6" s="362"/>
-      <c r="G6" s="362"/>
-      <c r="H6" s="363"/>
+      <c r="E6" s="335"/>
+      <c r="F6" s="335"/>
+      <c r="G6" s="335"/>
+      <c r="H6" s="336"/>
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
-      <c r="M6" s="361" t="s">
+      <c r="M6" s="334" t="s">
         <v>66</v>
       </c>
-      <c r="N6" s="362"/>
-      <c r="O6" s="362"/>
-      <c r="P6" s="362"/>
-      <c r="Q6" s="363"/>
+      <c r="N6" s="335"/>
+      <c r="O6" s="335"/>
+      <c r="P6" s="335"/>
+      <c r="Q6" s="336"/>
     </row>
     <row r="7" spans="1:47" ht="76.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="24" t="s">
@@ -18922,10 +18751,10 @@
       <c r="E7" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="364" t="s">
+      <c r="F7" s="337" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="365"/>
+      <c r="G7" s="338"/>
       <c r="H7" s="24" t="s">
         <v>73</v>
       </c>
@@ -18948,10 +18777,10 @@
         <v>79</v>
       </c>
       <c r="O7" s="29"/>
-      <c r="P7" s="364" t="s">
+      <c r="P7" s="337" t="s">
         <v>80</v>
       </c>
-      <c r="Q7" s="365"/>
+      <c r="Q7" s="338"/>
       <c r="R7" s="30" t="s">
         <v>74</v>
       </c>
@@ -19028,7 +18857,7 @@
       <c r="A9" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="352" t="s">
+      <c r="B9" s="339" t="s">
         <v>194</v>
       </c>
       <c r="C9" s="40" t="s">
@@ -19062,33 +18891,33 @@
         <f t="shared" ref="L9:L22" si="0">MIN(I9:K9)</f>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="M9" s="343">
+      <c r="M9" s="330">
         <v>20</v>
       </c>
-      <c r="N9" s="355" t="s">
+      <c r="N9" s="342" t="s">
         <v>95</v>
       </c>
-      <c r="O9" s="343">
+      <c r="O9" s="330">
         <f>IF(N9="daily",1,IF(N9="week",7,IF(N9="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P9" s="343">
+      <c r="P9" s="330">
         <v>3</v>
       </c>
-      <c r="Q9" s="343">
+      <c r="Q9" s="330">
         <f>P9/O9</f>
         <v>3</v>
       </c>
-      <c r="R9" s="343">
+      <c r="R9" s="330">
         <f>M9*Q9</f>
         <v>60</v>
       </c>
-      <c r="S9" s="343"/>
-      <c r="T9" s="346">
+      <c r="S9" s="330"/>
+      <c r="T9" s="345">
         <f>MIN(R9:S12)</f>
         <v>60</v>
       </c>
-      <c r="U9" s="343">
+      <c r="U9" s="330">
         <v>500</v>
       </c>
       <c r="V9" s="41">
@@ -19113,7 +18942,7 @@
       <c r="A10" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="B10" s="353"/>
+      <c r="B10" s="340"/>
       <c r="C10" s="40" t="s">
         <v>198</v>
       </c>
@@ -19145,15 +18974,15 @@
         <f t="shared" si="0"/>
         <v>0.21</v>
       </c>
-      <c r="M10" s="344"/>
-      <c r="N10" s="356"/>
-      <c r="O10" s="344"/>
-      <c r="P10" s="344"/>
-      <c r="Q10" s="344"/>
-      <c r="R10" s="344"/>
-      <c r="S10" s="344"/>
-      <c r="T10" s="347"/>
-      <c r="U10" s="344"/>
+      <c r="M10" s="331"/>
+      <c r="N10" s="343"/>
+      <c r="O10" s="331"/>
+      <c r="P10" s="331"/>
+      <c r="Q10" s="331"/>
+      <c r="R10" s="331"/>
+      <c r="S10" s="331"/>
+      <c r="T10" s="346"/>
+      <c r="U10" s="331"/>
       <c r="V10" s="41"/>
       <c r="W10" s="36"/>
       <c r="X10" s="36"/>
@@ -19161,10 +18990,10 @@
       <c r="AK10" s="46"/>
     </row>
     <row r="11" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="343" t="s">
+      <c r="A11" s="330" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="353"/>
+      <c r="B11" s="340"/>
       <c r="C11" s="40"/>
       <c r="D11" s="40"/>
       <c r="E11" s="40"/>
@@ -19175,15 +19004,15 @@
       <c r="J11" s="36"/>
       <c r="K11" s="36"/>
       <c r="L11" s="42"/>
-      <c r="M11" s="344"/>
-      <c r="N11" s="356"/>
-      <c r="O11" s="344"/>
-      <c r="P11" s="344"/>
-      <c r="Q11" s="344"/>
-      <c r="R11" s="344"/>
-      <c r="S11" s="344"/>
-      <c r="T11" s="347"/>
-      <c r="U11" s="344"/>
+      <c r="M11" s="331"/>
+      <c r="N11" s="343"/>
+      <c r="O11" s="331"/>
+      <c r="P11" s="331"/>
+      <c r="Q11" s="331"/>
+      <c r="R11" s="331"/>
+      <c r="S11" s="331"/>
+      <c r="T11" s="346"/>
+      <c r="U11" s="331"/>
       <c r="V11" s="41"/>
       <c r="W11" s="36"/>
       <c r="X11" s="36"/>
@@ -19202,8 +19031,8 @@
       <c r="AU11" s="65"/>
     </row>
     <row r="12" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="345"/>
-      <c r="B12" s="354"/>
+      <c r="A12" s="332"/>
+      <c r="B12" s="341"/>
       <c r="C12" s="40"/>
       <c r="D12" s="40"/>
       <c r="E12" s="40"/>
@@ -19214,15 +19043,15 @@
       <c r="J12" s="36"/>
       <c r="K12" s="36"/>
       <c r="L12" s="42"/>
-      <c r="M12" s="345"/>
-      <c r="N12" s="357"/>
-      <c r="O12" s="345"/>
-      <c r="P12" s="345"/>
-      <c r="Q12" s="345"/>
-      <c r="R12" s="345"/>
-      <c r="S12" s="345"/>
-      <c r="T12" s="348"/>
-      <c r="U12" s="345"/>
+      <c r="M12" s="332"/>
+      <c r="N12" s="344"/>
+      <c r="O12" s="332"/>
+      <c r="P12" s="332"/>
+      <c r="Q12" s="332"/>
+      <c r="R12" s="332"/>
+      <c r="S12" s="332"/>
+      <c r="T12" s="347"/>
+      <c r="U12" s="332"/>
       <c r="V12" s="41"/>
       <c r="W12" s="36"/>
       <c r="X12" s="36"/>
@@ -19238,7 +19067,7 @@
       <c r="A13" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="B13" s="352" t="s">
+      <c r="B13" s="339" t="s">
         <v>195</v>
       </c>
       <c r="C13" s="40" t="s">
@@ -19272,33 +19101,33 @@
         <f t="shared" si="0"/>
         <v>2E-3</v>
       </c>
-      <c r="M13" s="343">
+      <c r="M13" s="330">
         <v>80</v>
       </c>
-      <c r="N13" s="355" t="s">
+      <c r="N13" s="342" t="s">
         <v>95</v>
       </c>
-      <c r="O13" s="343">
+      <c r="O13" s="330">
         <f>IF(N13="daily",1,IF(N13="week",7,IF(N13="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P13" s="343">
+      <c r="P13" s="330">
         <v>2</v>
       </c>
-      <c r="Q13" s="343">
+      <c r="Q13" s="330">
         <f>P13/O13</f>
         <v>2</v>
       </c>
-      <c r="R13" s="343">
+      <c r="R13" s="330">
         <f>M13*Q13</f>
         <v>160</v>
       </c>
-      <c r="S13" s="343"/>
-      <c r="T13" s="346">
+      <c r="S13" s="330"/>
+      <c r="T13" s="345">
         <f>MIN(R13:S16)</f>
         <v>160</v>
       </c>
-      <c r="U13" s="343">
+      <c r="U13" s="330">
         <v>600</v>
       </c>
       <c r="V13" s="41">
@@ -19321,7 +19150,7 @@
       <c r="A14" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="B14" s="353"/>
+      <c r="B14" s="340"/>
       <c r="C14" s="40" t="s">
         <v>200</v>
       </c>
@@ -19353,15 +19182,15 @@
         <f t="shared" si="0"/>
         <v>0.08</v>
       </c>
-      <c r="M14" s="344"/>
-      <c r="N14" s="356"/>
-      <c r="O14" s="344"/>
-      <c r="P14" s="344"/>
-      <c r="Q14" s="344"/>
-      <c r="R14" s="344"/>
-      <c r="S14" s="344"/>
-      <c r="T14" s="347"/>
-      <c r="U14" s="344"/>
+      <c r="M14" s="331"/>
+      <c r="N14" s="343"/>
+      <c r="O14" s="331"/>
+      <c r="P14" s="331"/>
+      <c r="Q14" s="331"/>
+      <c r="R14" s="331"/>
+      <c r="S14" s="331"/>
+      <c r="T14" s="346"/>
+      <c r="U14" s="331"/>
       <c r="V14" s="41"/>
       <c r="W14" s="36"/>
       <c r="X14" s="36"/>
@@ -19369,10 +19198,10 @@
       <c r="AT14" s="70"/>
     </row>
     <row r="15" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="358" t="s">
+      <c r="A15" s="348" t="s">
         <v>101</v>
       </c>
-      <c r="B15" s="353"/>
+      <c r="B15" s="340"/>
       <c r="C15" s="40"/>
       <c r="D15" s="40"/>
       <c r="E15" s="40"/>
@@ -19383,15 +19212,15 @@
       <c r="J15" s="36"/>
       <c r="K15" s="36"/>
       <c r="L15" s="42"/>
-      <c r="M15" s="344"/>
-      <c r="N15" s="356"/>
-      <c r="O15" s="344"/>
-      <c r="P15" s="344"/>
-      <c r="Q15" s="344"/>
-      <c r="R15" s="344"/>
-      <c r="S15" s="344"/>
-      <c r="T15" s="347"/>
-      <c r="U15" s="344"/>
+      <c r="M15" s="331"/>
+      <c r="N15" s="343"/>
+      <c r="O15" s="331"/>
+      <c r="P15" s="331"/>
+      <c r="Q15" s="331"/>
+      <c r="R15" s="331"/>
+      <c r="S15" s="331"/>
+      <c r="T15" s="346"/>
+      <c r="U15" s="331"/>
       <c r="V15" s="41"/>
       <c r="W15" s="36"/>
       <c r="X15" s="36"/>
@@ -19401,8 +19230,8 @@
       <c r="AT15" s="46"/>
     </row>
     <row r="16" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="359"/>
-      <c r="B16" s="354"/>
+      <c r="A16" s="349"/>
+      <c r="B16" s="341"/>
       <c r="C16" s="40"/>
       <c r="D16" s="40"/>
       <c r="E16" s="40"/>
@@ -19413,15 +19242,15 @@
       <c r="J16" s="36"/>
       <c r="K16" s="36"/>
       <c r="L16" s="42"/>
-      <c r="M16" s="345"/>
-      <c r="N16" s="357"/>
-      <c r="O16" s="345"/>
-      <c r="P16" s="345"/>
-      <c r="Q16" s="345"/>
-      <c r="R16" s="345"/>
-      <c r="S16" s="345"/>
-      <c r="T16" s="348"/>
-      <c r="U16" s="345"/>
+      <c r="M16" s="332"/>
+      <c r="N16" s="344"/>
+      <c r="O16" s="332"/>
+      <c r="P16" s="332"/>
+      <c r="Q16" s="332"/>
+      <c r="R16" s="332"/>
+      <c r="S16" s="332"/>
+      <c r="T16" s="347"/>
+      <c r="U16" s="332"/>
       <c r="V16" s="41"/>
       <c r="W16" s="36"/>
       <c r="X16" s="36"/>
@@ -19432,7 +19261,7 @@
       <c r="A17" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="B17" s="352" t="s">
+      <c r="B17" s="339" t="s">
         <v>196</v>
       </c>
       <c r="C17" s="40" t="s">
@@ -19466,33 +19295,33 @@
         <f t="shared" si="0"/>
         <v>3.4999999999999996E-2</v>
       </c>
-      <c r="M17" s="343">
+      <c r="M17" s="330">
         <v>70</v>
       </c>
-      <c r="N17" s="355" t="s">
+      <c r="N17" s="342" t="s">
         <v>95</v>
       </c>
-      <c r="O17" s="343">
+      <c r="O17" s="330">
         <f>IF(N17="daily",1,IF(N17="week",7,IF(N17="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P17" s="343">
+      <c r="P17" s="330">
         <v>2</v>
       </c>
-      <c r="Q17" s="343">
+      <c r="Q17" s="330">
         <f>P17/O17</f>
         <v>2</v>
       </c>
-      <c r="R17" s="343">
+      <c r="R17" s="330">
         <f>M17*Q17</f>
         <v>140</v>
       </c>
-      <c r="S17" s="343"/>
-      <c r="T17" s="346">
+      <c r="S17" s="330"/>
+      <c r="T17" s="345">
         <f>MIN(R17:S20)</f>
         <v>140</v>
       </c>
-      <c r="U17" s="343">
+      <c r="U17" s="330">
         <v>850</v>
       </c>
       <c r="V17" s="41">
@@ -19511,7 +19340,7 @@
       <c r="A18" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="B18" s="353"/>
+      <c r="B18" s="340"/>
       <c r="C18" s="40" t="s">
         <v>202</v>
       </c>
@@ -19543,24 +19372,24 @@
         <f t="shared" si="0"/>
         <v>3.9999999999999994E-2</v>
       </c>
-      <c r="M18" s="344"/>
-      <c r="N18" s="356"/>
-      <c r="O18" s="344"/>
-      <c r="P18" s="344"/>
-      <c r="Q18" s="344"/>
-      <c r="R18" s="344"/>
-      <c r="S18" s="344"/>
-      <c r="T18" s="347"/>
-      <c r="U18" s="344"/>
+      <c r="M18" s="331"/>
+      <c r="N18" s="343"/>
+      <c r="O18" s="331"/>
+      <c r="P18" s="331"/>
+      <c r="Q18" s="331"/>
+      <c r="R18" s="331"/>
+      <c r="S18" s="331"/>
+      <c r="T18" s="346"/>
+      <c r="U18" s="331"/>
       <c r="V18" s="41"/>
       <c r="W18" s="36"/>
       <c r="X18" s="36"/>
     </row>
     <row r="19" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="343" t="s">
+      <c r="A19" s="330" t="s">
         <v>105</v>
       </c>
-      <c r="B19" s="353"/>
+      <c r="B19" s="340"/>
       <c r="C19" s="40"/>
       <c r="D19" s="40"/>
       <c r="E19" s="40"/>
@@ -19571,22 +19400,22 @@
       <c r="J19" s="36"/>
       <c r="K19" s="36"/>
       <c r="L19" s="42"/>
-      <c r="M19" s="344"/>
-      <c r="N19" s="356"/>
-      <c r="O19" s="344"/>
-      <c r="P19" s="344"/>
-      <c r="Q19" s="344"/>
-      <c r="R19" s="344"/>
-      <c r="S19" s="344"/>
-      <c r="T19" s="347"/>
-      <c r="U19" s="344"/>
+      <c r="M19" s="331"/>
+      <c r="N19" s="343"/>
+      <c r="O19" s="331"/>
+      <c r="P19" s="331"/>
+      <c r="Q19" s="331"/>
+      <c r="R19" s="331"/>
+      <c r="S19" s="331"/>
+      <c r="T19" s="346"/>
+      <c r="U19" s="331"/>
       <c r="V19" s="41"/>
       <c r="W19" s="36"/>
       <c r="X19" s="36"/>
     </row>
     <row r="20" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="345"/>
-      <c r="B20" s="354"/>
+      <c r="A20" s="332"/>
+      <c r="B20" s="341"/>
       <c r="C20" s="40"/>
       <c r="D20" s="40"/>
       <c r="E20" s="40"/>
@@ -19597,15 +19426,15 @@
       <c r="J20" s="36"/>
       <c r="K20" s="36"/>
       <c r="L20" s="42"/>
-      <c r="M20" s="345"/>
-      <c r="N20" s="357"/>
-      <c r="O20" s="345"/>
-      <c r="P20" s="345"/>
-      <c r="Q20" s="345"/>
-      <c r="R20" s="345"/>
-      <c r="S20" s="345"/>
-      <c r="T20" s="348"/>
-      <c r="U20" s="345"/>
+      <c r="M20" s="332"/>
+      <c r="N20" s="344"/>
+      <c r="O20" s="332"/>
+      <c r="P20" s="332"/>
+      <c r="Q20" s="332"/>
+      <c r="R20" s="332"/>
+      <c r="S20" s="332"/>
+      <c r="T20" s="347"/>
+      <c r="U20" s="332"/>
       <c r="V20" s="41"/>
       <c r="W20" s="36"/>
       <c r="X20" s="36"/>
@@ -19614,7 +19443,7 @@
       <c r="A21" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="352" t="s">
+      <c r="B21" s="339" t="s">
         <v>197</v>
       </c>
       <c r="C21" s="40" t="s">
@@ -19648,33 +19477,33 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="M21" s="343">
+      <c r="M21" s="330">
         <v>60</v>
       </c>
-      <c r="N21" s="355" t="s">
+      <c r="N21" s="342" t="s">
         <v>95</v>
       </c>
-      <c r="O21" s="343">
+      <c r="O21" s="330">
         <f>IF(N21="daily",1,IF(N21="week",7,IF(N21="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P21" s="343">
+      <c r="P21" s="330">
         <v>3</v>
       </c>
-      <c r="Q21" s="343">
+      <c r="Q21" s="330">
         <f>P21/O21</f>
         <v>3</v>
       </c>
-      <c r="R21" s="343">
+      <c r="R21" s="330">
         <f>M21*Q21</f>
         <v>180</v>
       </c>
-      <c r="S21" s="343"/>
-      <c r="T21" s="346">
+      <c r="S21" s="330"/>
+      <c r="T21" s="345">
         <f>MIN(R21:S24)</f>
         <v>180</v>
       </c>
-      <c r="U21" s="343">
+      <c r="U21" s="330">
         <v>700</v>
       </c>
       <c r="V21" s="41">
@@ -19691,7 +19520,7 @@
       <c r="A22" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="B22" s="353"/>
+      <c r="B22" s="340"/>
       <c r="C22" s="40" t="s">
         <v>204</v>
       </c>
@@ -19723,24 +19552,24 @@
         <f t="shared" si="0"/>
         <v>4.0000000000000008E-2</v>
       </c>
-      <c r="M22" s="344"/>
-      <c r="N22" s="356"/>
-      <c r="O22" s="344"/>
-      <c r="P22" s="344"/>
-      <c r="Q22" s="344"/>
-      <c r="R22" s="344"/>
-      <c r="S22" s="344"/>
-      <c r="T22" s="347"/>
-      <c r="U22" s="344"/>
+      <c r="M22" s="331"/>
+      <c r="N22" s="343"/>
+      <c r="O22" s="331"/>
+      <c r="P22" s="331"/>
+      <c r="Q22" s="331"/>
+      <c r="R22" s="331"/>
+      <c r="S22" s="331"/>
+      <c r="T22" s="346"/>
+      <c r="U22" s="331"/>
       <c r="V22" s="41"/>
       <c r="W22" s="36"/>
       <c r="X22" s="36"/>
     </row>
     <row r="23" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="349" t="s">
+      <c r="A23" s="350" t="s">
         <v>108</v>
       </c>
-      <c r="B23" s="353"/>
+      <c r="B23" s="340"/>
       <c r="C23" s="40"/>
       <c r="D23" s="40"/>
       <c r="E23" s="40"/>
@@ -19751,22 +19580,22 @@
       <c r="J23" s="36"/>
       <c r="K23" s="36"/>
       <c r="L23" s="42"/>
-      <c r="M23" s="344"/>
-      <c r="N23" s="356"/>
-      <c r="O23" s="344"/>
-      <c r="P23" s="344"/>
-      <c r="Q23" s="344"/>
-      <c r="R23" s="344"/>
-      <c r="S23" s="344"/>
-      <c r="T23" s="347"/>
-      <c r="U23" s="344"/>
+      <c r="M23" s="331"/>
+      <c r="N23" s="343"/>
+      <c r="O23" s="331"/>
+      <c r="P23" s="331"/>
+      <c r="Q23" s="331"/>
+      <c r="R23" s="331"/>
+      <c r="S23" s="331"/>
+      <c r="T23" s="346"/>
+      <c r="U23" s="331"/>
       <c r="V23" s="41"/>
       <c r="W23" s="36"/>
       <c r="X23" s="36"/>
     </row>
     <row r="24" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="350"/>
-      <c r="B24" s="354"/>
+      <c r="A24" s="351"/>
+      <c r="B24" s="341"/>
       <c r="C24" s="40"/>
       <c r="D24" s="40"/>
       <c r="E24" s="40"/>
@@ -19777,15 +19606,15 @@
       <c r="J24" s="36"/>
       <c r="K24" s="36"/>
       <c r="L24" s="42"/>
-      <c r="M24" s="345"/>
-      <c r="N24" s="357"/>
-      <c r="O24" s="345"/>
-      <c r="P24" s="345"/>
-      <c r="Q24" s="345"/>
-      <c r="R24" s="345"/>
-      <c r="S24" s="345"/>
-      <c r="T24" s="348"/>
-      <c r="U24" s="345"/>
+      <c r="M24" s="332"/>
+      <c r="N24" s="344"/>
+      <c r="O24" s="332"/>
+      <c r="P24" s="332"/>
+      <c r="Q24" s="332"/>
+      <c r="R24" s="332"/>
+      <c r="S24" s="332"/>
+      <c r="T24" s="347"/>
+      <c r="U24" s="332"/>
       <c r="V24" s="41"/>
       <c r="W24" s="36"/>
       <c r="X24" s="36"/>
@@ -19811,13 +19640,13 @@
       <c r="D27" s="46"/>
       <c r="E27" s="46"/>
       <c r="F27" s="46"/>
-      <c r="H27" s="351" t="s">
+      <c r="H27" s="352" t="s">
         <v>206</v>
       </c>
-      <c r="I27" s="351"/>
-      <c r="J27" s="351"/>
-      <c r="K27" s="351"/>
-      <c r="L27" s="351"/>
+      <c r="I27" s="352"/>
+      <c r="J27" s="352"/>
+      <c r="K27" s="352"/>
+      <c r="L27" s="352"/>
       <c r="M27" s="48"/>
       <c r="N27" s="48"/>
       <c r="O27" s="46"/>
@@ -20097,19 +19926,19 @@
     <row r="40" spans="1:40" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="104"/>
       <c r="C40" s="105"/>
-      <c r="D40" s="341" t="s">
+      <c r="D40" s="355" t="s">
         <v>4</v>
       </c>
-      <c r="E40" s="341"/>
-      <c r="F40" s="341"/>
-      <c r="G40" s="341"/>
-      <c r="H40" s="341"/>
-      <c r="I40" s="341" t="s">
+      <c r="E40" s="355"/>
+      <c r="F40" s="355"/>
+      <c r="G40" s="355"/>
+      <c r="H40" s="355"/>
+      <c r="I40" s="355" t="s">
         <v>5</v>
       </c>
-      <c r="J40" s="341"/>
-      <c r="K40" s="341"/>
-      <c r="L40" s="341"/>
+      <c r="J40" s="355"/>
+      <c r="K40" s="355"/>
+      <c r="L40" s="355"/>
       <c r="M40" s="117"/>
       <c r="N40" s="118" t="s">
         <v>48</v>
@@ -20233,19 +20062,19 @@
       </c>
     </row>
     <row r="42" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="336"/>
+      <c r="B42" s="356"/>
       <c r="C42" s="110"/>
       <c r="D42" s="111"/>
       <c r="E42" s="111"/>
       <c r="F42" s="125"/>
       <c r="G42" s="125"/>
-      <c r="H42" s="337"/>
+      <c r="H42" s="354"/>
       <c r="I42" s="111"/>
       <c r="J42" s="111"/>
       <c r="K42" s="125"/>
       <c r="L42" s="125"/>
-      <c r="M42" s="337"/>
-      <c r="N42" s="375"/>
+      <c r="M42" s="354"/>
+      <c r="N42" s="380"/>
       <c r="P42" s="91"/>
       <c r="Q42" s="91"/>
       <c r="U42" s="64"/>
@@ -20291,19 +20120,19 @@
       <c r="AN42" s="88"/>
     </row>
     <row r="43" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="336"/>
+      <c r="B43" s="356"/>
       <c r="C43" s="110"/>
       <c r="D43" s="125"/>
       <c r="E43" s="111"/>
       <c r="F43" s="125"/>
       <c r="G43" s="103"/>
-      <c r="H43" s="337"/>
+      <c r="H43" s="354"/>
       <c r="I43" s="111"/>
       <c r="J43" s="111"/>
       <c r="K43" s="103"/>
       <c r="L43" s="103"/>
-      <c r="M43" s="337"/>
-      <c r="N43" s="337"/>
+      <c r="M43" s="354"/>
+      <c r="N43" s="354"/>
       <c r="P43" s="92"/>
       <c r="Q43" s="92"/>
       <c r="U43" s="64"/>
@@ -20349,19 +20178,19 @@
       <c r="AN43" s="88"/>
     </row>
     <row r="44" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="336"/>
+      <c r="B44" s="356"/>
       <c r="C44" s="110"/>
       <c r="D44" s="111"/>
       <c r="E44" s="111"/>
       <c r="F44" s="125"/>
       <c r="G44" s="125"/>
-      <c r="H44" s="337"/>
+      <c r="H44" s="354"/>
       <c r="I44" s="111"/>
       <c r="J44" s="111"/>
       <c r="K44" s="125"/>
       <c r="L44" s="125"/>
-      <c r="M44" s="337"/>
-      <c r="N44" s="337"/>
+      <c r="M44" s="354"/>
+      <c r="N44" s="354"/>
       <c r="P44" s="91"/>
       <c r="Q44" s="91"/>
       <c r="U44" s="64"/>
@@ -20407,19 +20236,19 @@
       <c r="AN44" s="88"/>
     </row>
     <row r="45" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="336"/>
+      <c r="B45" s="356"/>
       <c r="C45" s="110"/>
       <c r="D45" s="111"/>
       <c r="E45" s="111"/>
       <c r="F45" s="125"/>
       <c r="G45" s="125"/>
-      <c r="H45" s="337"/>
+      <c r="H45" s="354"/>
       <c r="I45" s="111"/>
       <c r="J45" s="111"/>
       <c r="K45" s="125"/>
       <c r="L45" s="125"/>
-      <c r="M45" s="337"/>
-      <c r="N45" s="337"/>
+      <c r="M45" s="354"/>
+      <c r="N45" s="354"/>
       <c r="P45" s="91"/>
       <c r="Q45" s="91"/>
       <c r="U45" s="64"/>
@@ -20465,19 +20294,19 @@
       <c r="AN45" s="88"/>
     </row>
     <row r="46" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="336"/>
+      <c r="B46" s="356"/>
       <c r="C46" s="110"/>
       <c r="D46" s="111"/>
       <c r="E46" s="111"/>
       <c r="F46" s="125"/>
       <c r="G46" s="125"/>
-      <c r="H46" s="337"/>
+      <c r="H46" s="354"/>
       <c r="I46" s="111"/>
       <c r="J46" s="111"/>
       <c r="K46" s="125"/>
       <c r="L46" s="125"/>
-      <c r="M46" s="337"/>
-      <c r="N46" s="376"/>
+      <c r="M46" s="354"/>
+      <c r="N46" s="381"/>
       <c r="P46" s="91"/>
       <c r="Q46" s="91"/>
       <c r="U46" s="64"/>
@@ -20523,19 +20352,19 @@
       <c r="AN46" s="88"/>
     </row>
     <row r="47" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="336"/>
+      <c r="B47" s="356"/>
       <c r="C47" s="110"/>
       <c r="D47" s="111"/>
       <c r="E47" s="111"/>
       <c r="F47" s="111"/>
       <c r="G47" s="111"/>
-      <c r="H47" s="337"/>
+      <c r="H47" s="354"/>
       <c r="I47" s="111"/>
       <c r="J47" s="111"/>
       <c r="K47" s="111"/>
       <c r="L47" s="111"/>
-      <c r="M47" s="337"/>
-      <c r="N47" s="339"/>
+      <c r="M47" s="354"/>
+      <c r="N47" s="358"/>
       <c r="P47" s="81"/>
       <c r="Q47" s="81"/>
       <c r="S47" s="69"/>
@@ -20583,19 +20412,19 @@
       <c r="AN47" s="88"/>
     </row>
     <row r="48" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="336"/>
+      <c r="B48" s="356"/>
       <c r="C48" s="110"/>
       <c r="D48" s="111"/>
       <c r="E48" s="111"/>
       <c r="F48" s="111"/>
       <c r="G48" s="111"/>
-      <c r="H48" s="337"/>
+      <c r="H48" s="354"/>
       <c r="I48" s="111"/>
       <c r="J48" s="111"/>
       <c r="K48" s="111"/>
       <c r="L48" s="111"/>
-      <c r="M48" s="337"/>
-      <c r="N48" s="339"/>
+      <c r="M48" s="354"/>
+      <c r="N48" s="358"/>
       <c r="P48" s="81"/>
       <c r="Q48" s="81"/>
       <c r="S48" s="69"/>
@@ -20643,19 +20472,19 @@
       <c r="AN48" s="88"/>
     </row>
     <row r="49" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="336"/>
+      <c r="B49" s="356"/>
       <c r="C49" s="110"/>
       <c r="D49" s="111"/>
       <c r="E49" s="111"/>
       <c r="F49" s="111"/>
       <c r="G49" s="111"/>
-      <c r="H49" s="337"/>
+      <c r="H49" s="354"/>
       <c r="I49" s="111"/>
       <c r="J49" s="111"/>
       <c r="K49" s="111"/>
       <c r="L49" s="111"/>
-      <c r="M49" s="337"/>
-      <c r="N49" s="339"/>
+      <c r="M49" s="354"/>
+      <c r="N49" s="358"/>
       <c r="P49" s="81"/>
       <c r="Q49" s="81"/>
       <c r="S49" s="69"/>
@@ -20703,19 +20532,19 @@
       <c r="AN49" s="89"/>
     </row>
     <row r="50" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="331"/>
+      <c r="B50" s="359"/>
       <c r="C50" s="112"/>
       <c r="D50" s="113"/>
       <c r="E50" s="113"/>
       <c r="F50" s="113"/>
       <c r="G50" s="113"/>
-      <c r="H50" s="332"/>
+      <c r="H50" s="360"/>
       <c r="I50" s="113"/>
       <c r="J50" s="113"/>
       <c r="K50" s="113"/>
       <c r="L50" s="113"/>
-      <c r="M50" s="332"/>
-      <c r="N50" s="377"/>
+      <c r="M50" s="360"/>
+      <c r="N50" s="382"/>
       <c r="P50" s="81"/>
       <c r="Q50" s="81"/>
       <c r="S50" s="69"/>
@@ -20736,19 +20565,19 @@
       <c r="AN50" s="64"/>
     </row>
     <row r="51" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="331"/>
+      <c r="B51" s="359"/>
       <c r="C51" s="112"/>
       <c r="D51" s="113"/>
       <c r="E51" s="113"/>
       <c r="F51" s="113"/>
       <c r="G51" s="113"/>
-      <c r="H51" s="332"/>
+      <c r="H51" s="360"/>
       <c r="I51" s="113"/>
       <c r="J51" s="113"/>
       <c r="K51" s="113"/>
       <c r="L51" s="113"/>
-      <c r="M51" s="332"/>
-      <c r="N51" s="334"/>
+      <c r="M51" s="360"/>
+      <c r="N51" s="362"/>
       <c r="P51" s="81"/>
       <c r="Q51" s="81"/>
       <c r="S51" s="69"/>
@@ -20779,19 +20608,19 @@
       <c r="AN51" s="46"/>
     </row>
     <row r="52" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="331"/>
+      <c r="B52" s="359"/>
       <c r="C52" s="112"/>
       <c r="D52" s="113"/>
       <c r="E52" s="113"/>
       <c r="F52" s="113"/>
       <c r="G52" s="113"/>
-      <c r="H52" s="332"/>
+      <c r="H52" s="360"/>
       <c r="I52" s="113"/>
       <c r="J52" s="113"/>
       <c r="K52" s="113"/>
       <c r="L52" s="113"/>
-      <c r="M52" s="332"/>
-      <c r="N52" s="334"/>
+      <c r="M52" s="360"/>
+      <c r="N52" s="362"/>
       <c r="P52" s="81"/>
       <c r="Q52" s="81"/>
       <c r="S52" s="69"/>
@@ -20855,19 +20684,19 @@
       </c>
     </row>
     <row r="53" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="331"/>
+      <c r="B53" s="359"/>
       <c r="C53" s="112"/>
       <c r="D53" s="113"/>
       <c r="E53" s="113"/>
       <c r="F53" s="113"/>
       <c r="G53" s="113"/>
-      <c r="H53" s="332"/>
+      <c r="H53" s="360"/>
       <c r="I53" s="113"/>
       <c r="J53" s="113"/>
       <c r="K53" s="113"/>
       <c r="L53" s="113"/>
-      <c r="M53" s="332"/>
-      <c r="N53" s="334"/>
+      <c r="M53" s="360"/>
+      <c r="N53" s="362"/>
       <c r="P53" s="81"/>
       <c r="Q53" s="81"/>
       <c r="S53" s="69"/>
@@ -20916,19 +20745,19 @@
       <c r="AN53" s="88"/>
     </row>
     <row r="54" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="331"/>
+      <c r="B54" s="359"/>
       <c r="C54" s="112"/>
       <c r="D54" s="113"/>
       <c r="E54" s="113"/>
       <c r="F54" s="113"/>
       <c r="G54" s="113"/>
-      <c r="H54" s="332"/>
+      <c r="H54" s="360"/>
       <c r="I54" s="113"/>
       <c r="J54" s="113"/>
       <c r="K54" s="113"/>
       <c r="L54" s="113"/>
-      <c r="M54" s="332"/>
-      <c r="N54" s="370"/>
+      <c r="M54" s="360"/>
+      <c r="N54" s="383"/>
       <c r="P54" s="81"/>
       <c r="Q54" s="81"/>
       <c r="S54" s="69"/>
@@ -20975,19 +20804,19 @@
       <c r="AN54" s="88"/>
     </row>
     <row r="55" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="331"/>
+      <c r="B55" s="359"/>
       <c r="C55" s="112"/>
       <c r="D55" s="113"/>
       <c r="E55" s="113"/>
       <c r="F55" s="113"/>
       <c r="G55" s="113"/>
-      <c r="H55" s="332"/>
+      <c r="H55" s="360"/>
       <c r="I55" s="113"/>
       <c r="J55" s="113"/>
       <c r="K55" s="113"/>
       <c r="L55" s="113"/>
-      <c r="M55" s="332"/>
-      <c r="N55" s="334"/>
+      <c r="M55" s="360"/>
+      <c r="N55" s="362"/>
       <c r="P55" s="81"/>
       <c r="Q55" s="81"/>
       <c r="S55" s="69"/>
@@ -21034,19 +20863,19 @@
       <c r="AN55" s="88"/>
     </row>
     <row r="56" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="331"/>
+      <c r="B56" s="359"/>
       <c r="C56" s="112"/>
       <c r="D56" s="113"/>
       <c r="E56" s="113"/>
       <c r="F56" s="113"/>
       <c r="G56" s="113"/>
-      <c r="H56" s="332"/>
+      <c r="H56" s="360"/>
       <c r="I56" s="113"/>
       <c r="J56" s="113"/>
       <c r="K56" s="113"/>
       <c r="L56" s="113"/>
-      <c r="M56" s="332"/>
-      <c r="N56" s="334"/>
+      <c r="M56" s="360"/>
+      <c r="N56" s="362"/>
       <c r="P56" s="81"/>
       <c r="Q56" s="81"/>
       <c r="S56" s="69"/>
@@ -21093,19 +20922,19 @@
       <c r="AN56" s="88"/>
     </row>
     <row r="57" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="331"/>
+      <c r="B57" s="359"/>
       <c r="C57" s="112"/>
       <c r="D57" s="113"/>
       <c r="E57" s="113"/>
       <c r="F57" s="113"/>
       <c r="G57" s="113"/>
-      <c r="H57" s="332"/>
+      <c r="H57" s="360"/>
       <c r="I57" s="113"/>
       <c r="J57" s="113"/>
       <c r="K57" s="113"/>
       <c r="L57" s="113"/>
-      <c r="M57" s="332"/>
-      <c r="N57" s="334"/>
+      <c r="M57" s="360"/>
+      <c r="N57" s="362"/>
       <c r="P57" s="81"/>
       <c r="Q57" s="81"/>
       <c r="S57" s="69"/>
@@ -21152,19 +20981,19 @@
       <c r="AN57" s="88"/>
     </row>
     <row r="58" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="326"/>
+      <c r="B58" s="364"/>
       <c r="C58" s="114"/>
       <c r="D58" s="115"/>
       <c r="E58" s="115"/>
       <c r="F58" s="115"/>
       <c r="G58" s="115"/>
-      <c r="H58" s="327"/>
+      <c r="H58" s="365"/>
       <c r="I58" s="115"/>
       <c r="J58" s="115"/>
       <c r="K58" s="115"/>
       <c r="L58" s="115"/>
-      <c r="M58" s="327"/>
-      <c r="N58" s="371"/>
+      <c r="M58" s="365"/>
+      <c r="N58" s="384"/>
       <c r="P58" s="81"/>
       <c r="Q58" s="81"/>
       <c r="S58" s="69"/>
@@ -21211,19 +21040,19 @@
       <c r="AN58" s="88"/>
     </row>
     <row r="59" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="326"/>
+      <c r="B59" s="364"/>
       <c r="C59" s="114"/>
       <c r="D59" s="115"/>
       <c r="E59" s="115"/>
       <c r="F59" s="115"/>
       <c r="G59" s="115"/>
-      <c r="H59" s="327"/>
+      <c r="H59" s="365"/>
       <c r="I59" s="115"/>
       <c r="J59" s="115"/>
       <c r="K59" s="115"/>
       <c r="L59" s="115"/>
-      <c r="M59" s="327"/>
-      <c r="N59" s="329"/>
+      <c r="M59" s="365"/>
+      <c r="N59" s="367"/>
       <c r="P59" s="81"/>
       <c r="Q59" s="81"/>
       <c r="S59" s="69"/>
@@ -21270,19 +21099,19 @@
       <c r="AN59" s="88"/>
     </row>
     <row r="60" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="326"/>
+      <c r="B60" s="364"/>
       <c r="C60" s="114"/>
       <c r="D60" s="115"/>
       <c r="E60" s="115"/>
       <c r="F60" s="115"/>
       <c r="G60" s="115"/>
-      <c r="H60" s="327"/>
+      <c r="H60" s="365"/>
       <c r="I60" s="115"/>
       <c r="J60" s="115"/>
       <c r="K60" s="115"/>
       <c r="L60" s="115"/>
-      <c r="M60" s="327"/>
-      <c r="N60" s="329"/>
+      <c r="M60" s="365"/>
+      <c r="N60" s="367"/>
       <c r="P60" s="81"/>
       <c r="Q60" s="81"/>
       <c r="S60" s="69"/>
@@ -21329,247 +21158,247 @@
       <c r="AN60" s="89"/>
     </row>
     <row r="61" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="326"/>
+      <c r="B61" s="364"/>
       <c r="C61" s="114"/>
       <c r="D61" s="115"/>
       <c r="E61" s="115"/>
       <c r="F61" s="115"/>
       <c r="G61" s="115"/>
-      <c r="H61" s="327"/>
+      <c r="H61" s="365"/>
       <c r="I61" s="115"/>
       <c r="J61" s="115"/>
       <c r="K61" s="115"/>
       <c r="L61" s="115"/>
-      <c r="M61" s="327"/>
-      <c r="N61" s="329"/>
+      <c r="M61" s="365"/>
+      <c r="N61" s="367"/>
       <c r="P61" s="81"/>
       <c r="Q61" s="81"/>
       <c r="S61" s="69"/>
       <c r="T61" s="69"/>
     </row>
     <row r="62" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="326"/>
+      <c r="B62" s="364"/>
       <c r="C62" s="114"/>
       <c r="D62" s="115"/>
       <c r="E62" s="115"/>
       <c r="F62" s="115"/>
       <c r="G62" s="115"/>
-      <c r="H62" s="327"/>
+      <c r="H62" s="365"/>
       <c r="I62" s="115"/>
       <c r="J62" s="115"/>
       <c r="K62" s="115"/>
       <c r="L62" s="115"/>
-      <c r="M62" s="327"/>
-      <c r="N62" s="372"/>
+      <c r="M62" s="365"/>
+      <c r="N62" s="385"/>
       <c r="P62" s="81"/>
       <c r="Q62" s="81"/>
       <c r="S62" s="69"/>
       <c r="T62" s="69"/>
     </row>
     <row r="63" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="326"/>
+      <c r="B63" s="364"/>
       <c r="C63" s="114"/>
       <c r="D63" s="115"/>
       <c r="E63" s="115"/>
       <c r="F63" s="115"/>
       <c r="G63" s="115"/>
-      <c r="H63" s="327"/>
+      <c r="H63" s="365"/>
       <c r="I63" s="115"/>
       <c r="J63" s="115"/>
       <c r="K63" s="115"/>
       <c r="L63" s="115"/>
-      <c r="M63" s="327"/>
-      <c r="N63" s="329"/>
+      <c r="M63" s="365"/>
+      <c r="N63" s="367"/>
       <c r="P63" s="81"/>
       <c r="Q63" s="81"/>
       <c r="S63" s="69"/>
       <c r="T63" s="69"/>
     </row>
     <row r="64" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="326"/>
+      <c r="B64" s="364"/>
       <c r="C64" s="114"/>
       <c r="D64" s="115"/>
       <c r="E64" s="115"/>
       <c r="F64" s="115"/>
       <c r="G64" s="115"/>
-      <c r="H64" s="327"/>
+      <c r="H64" s="365"/>
       <c r="I64" s="115"/>
       <c r="J64" s="115"/>
       <c r="K64" s="115"/>
       <c r="L64" s="115"/>
-      <c r="M64" s="327"/>
-      <c r="N64" s="329"/>
+      <c r="M64" s="365"/>
+      <c r="N64" s="367"/>
       <c r="P64" s="81"/>
       <c r="Q64" s="81"/>
       <c r="S64" s="69"/>
       <c r="T64" s="69"/>
     </row>
     <row r="65" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="326"/>
+      <c r="B65" s="364"/>
       <c r="C65" s="114"/>
       <c r="D65" s="115"/>
       <c r="E65" s="115"/>
       <c r="F65" s="115"/>
       <c r="G65" s="115"/>
-      <c r="H65" s="327"/>
+      <c r="H65" s="365"/>
       <c r="I65" s="115"/>
       <c r="J65" s="115"/>
       <c r="K65" s="115"/>
       <c r="L65" s="115"/>
-      <c r="M65" s="327"/>
-      <c r="N65" s="329"/>
+      <c r="M65" s="365"/>
+      <c r="N65" s="367"/>
       <c r="P65" s="81"/>
       <c r="Q65" s="81"/>
       <c r="S65" s="69"/>
       <c r="T65" s="69"/>
     </row>
     <row r="66" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="322"/>
+      <c r="B66" s="368"/>
       <c r="C66" s="128"/>
       <c r="D66" s="116"/>
       <c r="E66" s="116"/>
       <c r="F66" s="116"/>
       <c r="G66" s="116"/>
-      <c r="H66" s="323"/>
+      <c r="H66" s="369"/>
       <c r="I66" s="116"/>
       <c r="J66" s="116"/>
       <c r="K66" s="116"/>
       <c r="L66" s="116"/>
-      <c r="M66" s="323"/>
-      <c r="N66" s="373"/>
+      <c r="M66" s="369"/>
+      <c r="N66" s="386"/>
       <c r="P66" s="81"/>
       <c r="Q66" s="81"/>
       <c r="S66" s="69"/>
       <c r="T66" s="69"/>
     </row>
     <row r="67" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="322"/>
+      <c r="B67" s="368"/>
       <c r="C67" s="128"/>
       <c r="D67" s="116"/>
       <c r="E67" s="116"/>
       <c r="F67" s="116"/>
       <c r="G67" s="116"/>
-      <c r="H67" s="323"/>
+      <c r="H67" s="369"/>
       <c r="I67" s="116"/>
       <c r="J67" s="116"/>
       <c r="K67" s="116"/>
       <c r="L67" s="116"/>
-      <c r="M67" s="323"/>
-      <c r="N67" s="325"/>
+      <c r="M67" s="369"/>
+      <c r="N67" s="371"/>
       <c r="P67" s="81"/>
       <c r="Q67" s="81"/>
       <c r="S67" s="69"/>
       <c r="T67" s="69"/>
     </row>
     <row r="68" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="322"/>
+      <c r="B68" s="368"/>
       <c r="C68" s="128"/>
       <c r="D68" s="116"/>
       <c r="E68" s="116"/>
       <c r="F68" s="116"/>
       <c r="G68" s="116"/>
-      <c r="H68" s="323"/>
+      <c r="H68" s="369"/>
       <c r="I68" s="116"/>
       <c r="J68" s="116"/>
       <c r="K68" s="116"/>
       <c r="L68" s="116"/>
-      <c r="M68" s="323"/>
-      <c r="N68" s="325"/>
+      <c r="M68" s="369"/>
+      <c r="N68" s="371"/>
       <c r="P68" s="81"/>
       <c r="Q68" s="81"/>
       <c r="S68" s="69"/>
       <c r="T68" s="69"/>
     </row>
     <row r="69" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="322"/>
+      <c r="B69" s="368"/>
       <c r="C69" s="128"/>
       <c r="D69" s="116"/>
       <c r="E69" s="116"/>
       <c r="F69" s="116"/>
       <c r="G69" s="116"/>
-      <c r="H69" s="323"/>
+      <c r="H69" s="369"/>
       <c r="I69" s="116"/>
       <c r="J69" s="116"/>
       <c r="K69" s="116"/>
       <c r="L69" s="116"/>
-      <c r="M69" s="323"/>
-      <c r="N69" s="325"/>
+      <c r="M69" s="369"/>
+      <c r="N69" s="371"/>
       <c r="P69" s="81"/>
       <c r="Q69" s="81"/>
       <c r="S69" s="69"/>
       <c r="T69" s="69"/>
     </row>
     <row r="70" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="322"/>
+      <c r="B70" s="368"/>
       <c r="C70" s="128"/>
       <c r="D70" s="116"/>
       <c r="E70" s="116"/>
       <c r="F70" s="116"/>
       <c r="G70" s="116"/>
-      <c r="H70" s="323"/>
+      <c r="H70" s="369"/>
       <c r="I70" s="116"/>
       <c r="J70" s="116"/>
       <c r="K70" s="116"/>
       <c r="L70" s="116"/>
-      <c r="M70" s="323"/>
-      <c r="N70" s="374"/>
+      <c r="M70" s="369"/>
+      <c r="N70" s="387"/>
       <c r="P70" s="81"/>
       <c r="Q70" s="81"/>
       <c r="S70" s="69"/>
       <c r="T70" s="69"/>
     </row>
     <row r="71" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="322"/>
+      <c r="B71" s="368"/>
       <c r="C71" s="128"/>
       <c r="D71" s="116"/>
       <c r="E71" s="116"/>
       <c r="F71" s="116"/>
       <c r="G71" s="116"/>
-      <c r="H71" s="323"/>
+      <c r="H71" s="369"/>
       <c r="I71" s="116"/>
       <c r="J71" s="116"/>
       <c r="K71" s="116"/>
       <c r="L71" s="116"/>
-      <c r="M71" s="323"/>
-      <c r="N71" s="325"/>
+      <c r="M71" s="369"/>
+      <c r="N71" s="371"/>
       <c r="P71" s="81"/>
       <c r="Q71" s="81"/>
       <c r="S71" s="69"/>
       <c r="T71" s="69"/>
     </row>
     <row r="72" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="322"/>
+      <c r="B72" s="368"/>
       <c r="C72" s="128"/>
       <c r="D72" s="116"/>
       <c r="E72" s="116"/>
       <c r="F72" s="116"/>
       <c r="G72" s="116"/>
-      <c r="H72" s="323"/>
+      <c r="H72" s="369"/>
       <c r="I72" s="116"/>
       <c r="J72" s="116"/>
       <c r="K72" s="116"/>
       <c r="L72" s="116"/>
-      <c r="M72" s="323"/>
-      <c r="N72" s="325"/>
+      <c r="M72" s="369"/>
+      <c r="N72" s="371"/>
       <c r="P72" s="81"/>
       <c r="Q72" s="81"/>
       <c r="S72" s="69"/>
       <c r="T72" s="69"/>
     </row>
     <row r="73" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="322"/>
+      <c r="B73" s="368"/>
       <c r="C73" s="128"/>
       <c r="D73" s="116"/>
       <c r="E73" s="116"/>
       <c r="F73" s="116"/>
       <c r="G73" s="116"/>
-      <c r="H73" s="323"/>
+      <c r="H73" s="369"/>
       <c r="I73" s="116"/>
       <c r="J73" s="116"/>
       <c r="K73" s="116"/>
       <c r="L73" s="116"/>
-      <c r="M73" s="323"/>
-      <c r="N73" s="325"/>
+      <c r="M73" s="369"/>
+      <c r="N73" s="371"/>
       <c r="P73" s="81"/>
       <c r="Q73" s="81"/>
       <c r="S73" s="69"/>
@@ -23050,24 +22879,56 @@
     <row r="140" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="T9:T12"/>
-    <mergeCell ref="U9:U12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="M9:M12"/>
-    <mergeCell ref="N9:N12"/>
-    <mergeCell ref="O9:O12"/>
-    <mergeCell ref="P9:P12"/>
-    <mergeCell ref="P13:P16"/>
-    <mergeCell ref="Q13:Q16"/>
-    <mergeCell ref="Q9:Q12"/>
-    <mergeCell ref="R9:R12"/>
-    <mergeCell ref="S9:S12"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="H54:H57"/>
+    <mergeCell ref="H66:H69"/>
+    <mergeCell ref="H42:H45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="H46:H49"/>
+    <mergeCell ref="H50:H53"/>
+    <mergeCell ref="M66:M69"/>
+    <mergeCell ref="H70:H73"/>
+    <mergeCell ref="M70:M73"/>
+    <mergeCell ref="M54:M57"/>
+    <mergeCell ref="H58:H61"/>
+    <mergeCell ref="M58:M61"/>
+    <mergeCell ref="H62:H65"/>
+    <mergeCell ref="M62:M65"/>
+    <mergeCell ref="N54:N57"/>
+    <mergeCell ref="N58:N61"/>
+    <mergeCell ref="N62:N65"/>
+    <mergeCell ref="N66:N69"/>
+    <mergeCell ref="N70:N73"/>
+    <mergeCell ref="U21:U24"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="M21:M24"/>
+    <mergeCell ref="N21:N24"/>
+    <mergeCell ref="O21:O24"/>
+    <mergeCell ref="P21:P24"/>
+    <mergeCell ref="Q21:Q24"/>
+    <mergeCell ref="Q17:Q20"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="T21:T24"/>
+    <mergeCell ref="R17:R20"/>
+    <mergeCell ref="S17:S20"/>
+    <mergeCell ref="R21:R24"/>
+    <mergeCell ref="S21:S24"/>
+    <mergeCell ref="T17:T20"/>
+    <mergeCell ref="M50:M53"/>
+    <mergeCell ref="N42:N45"/>
+    <mergeCell ref="N46:N49"/>
+    <mergeCell ref="N50:N53"/>
+    <mergeCell ref="M42:M45"/>
+    <mergeCell ref="M46:M49"/>
     <mergeCell ref="U17:U20"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="R13:R16"/>
@@ -23084,56 +22945,24 @@
     <mergeCell ref="M13:M16"/>
     <mergeCell ref="N13:N16"/>
     <mergeCell ref="O13:O16"/>
-    <mergeCell ref="M50:M53"/>
-    <mergeCell ref="N42:N45"/>
-    <mergeCell ref="N46:N49"/>
-    <mergeCell ref="N50:N53"/>
-    <mergeCell ref="M42:M45"/>
-    <mergeCell ref="M46:M49"/>
-    <mergeCell ref="Q17:Q20"/>
-    <mergeCell ref="I40:L40"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="T21:T24"/>
-    <mergeCell ref="R17:R20"/>
-    <mergeCell ref="S17:S20"/>
-    <mergeCell ref="R21:R24"/>
-    <mergeCell ref="S21:S24"/>
-    <mergeCell ref="T17:T20"/>
-    <mergeCell ref="U21:U24"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="M21:M24"/>
-    <mergeCell ref="N21:N24"/>
-    <mergeCell ref="O21:O24"/>
-    <mergeCell ref="P21:P24"/>
-    <mergeCell ref="Q21:Q24"/>
-    <mergeCell ref="N54:N57"/>
-    <mergeCell ref="N58:N61"/>
-    <mergeCell ref="N62:N65"/>
-    <mergeCell ref="N66:N69"/>
-    <mergeCell ref="N70:N73"/>
-    <mergeCell ref="M66:M69"/>
-    <mergeCell ref="H70:H73"/>
-    <mergeCell ref="M70:M73"/>
-    <mergeCell ref="M54:M57"/>
-    <mergeCell ref="H58:H61"/>
-    <mergeCell ref="M58:M61"/>
-    <mergeCell ref="H62:H65"/>
-    <mergeCell ref="M62:M65"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="D40:H40"/>
-    <mergeCell ref="H54:H57"/>
-    <mergeCell ref="H66:H69"/>
-    <mergeCell ref="H42:H45"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="H46:H49"/>
-    <mergeCell ref="H50:H53"/>
+    <mergeCell ref="P13:P16"/>
+    <mergeCell ref="Q13:Q16"/>
+    <mergeCell ref="Q9:Q12"/>
+    <mergeCell ref="R9:R12"/>
+    <mergeCell ref="S9:S12"/>
+    <mergeCell ref="T9:T12"/>
+    <mergeCell ref="U9:U12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="M9:M12"/>
+    <mergeCell ref="N9:N12"/>
+    <mergeCell ref="O9:O12"/>
+    <mergeCell ref="P9:P12"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N9 N13 N17 N21">
@@ -23450,8 +23279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A7:Q27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23697,7 +23526,9 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>242</v>
+      </c>
       <c r="E13" s="1" t="s">
         <v>218</v>
       </c>

--- a/eResidue_CV_eDocs/bin/Test Data/eResidue_eDocs_TestCase_result.xlsx
+++ b/eResidue_CV_eDocs/bin/Test Data/eResidue_eDocs_TestCase_result.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="255">
   <si>
     <t>Testcase_id</t>
   </si>
@@ -864,6 +864,21 @@
   <si>
     <t>E3,E1,E2,</t>
   </si>
+  <si>
+    <t>P1 active1</t>
+  </si>
+  <si>
+    <t>P2 active2</t>
+  </si>
+  <si>
+    <t>P3 active2</t>
+  </si>
+  <si>
+    <t>P4 active1</t>
+  </si>
+  <si>
+    <t>P4 active2</t>
+  </si>
 </sst>
 </file>
 
@@ -872,7 +887,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="191" x14ac:knownFonts="1">
+  <fonts count="197" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1658,32 +1673,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
+      <color indexed="10"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -1698,27 +1688,52 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="17"/>
+      <color indexed="10"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="17"/>
+      <color indexed="10"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="17"/>
+      <color indexed="10"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="17"/>
+      <color indexed="10"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="17"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -1794,32 +1809,7 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
+      <color indexed="10"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1834,27 +1824,82 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="17"/>
+      <color indexed="10"/>
     </font>
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="17"/>
+      <color indexed="10"/>
     </font>
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="17"/>
+      <color indexed="10"/>
     </font>
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="17"/>
+      <color indexed="10"/>
     </font>
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="17"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -2093,7 +2138,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="451">
+  <cellXfs count="457">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
@@ -2707,53 +2752,6 @@
     <xf applyFont="1" borderId="0" fillId="0" fontId="161" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="162" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="163" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="12" fontId="13" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="12" fontId="10" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="83" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="12" fontId="16" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="9" fontId="13" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="9" fontId="10" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="46" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="9" fontId="16" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="79" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="11" fontId="13" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="11" fontId="10" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="38" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="11" fontId="16" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="74" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="10" fontId="13" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="10" fontId="21" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="10" fontId="16" numFmtId="164" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="68" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="13" fontId="25" numFmtId="3" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="108" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="10" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2763,23 +2761,23 @@
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="10" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="4" fontId="10" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="11" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="12" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="7" fillId="4" fontId="10" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="6" fillId="0" fontId="12" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="4" fontId="10" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="12" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="10" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="3" fontId="13" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="10" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="28" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="13" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="16" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -2802,30 +2800,77 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="4" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="7" fillId="4" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="4" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="10" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="10" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="11" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="10" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="12" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="28" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="108" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="10" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="13" fontId="25" numFmtId="3" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="6" fillId="0" fontId="12" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="10" fontId="13" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="12" numFmtId="0" xfId="0">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="10" fontId="16" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="11" fontId="13" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="3" fontId="13" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="11" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="68" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="11" fontId="16" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="38" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="9" fontId="13" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="13" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="9" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="74" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="9" fontId="16" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="12" fontId="13" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="12" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="83" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="12" fontId="16" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="46" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="79" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="115" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2847,14 +2892,14 @@
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="7" fontId="25" numFmtId="3" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="64" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="31" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="68" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="38" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="74" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="46" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="79" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="83" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="64" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="31" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="68" numFmtId="0" xfId="0"/>
     <xf numFmtId="0" fontId="164" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="165" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="166" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -2882,6 +2927,12 @@
     <xf numFmtId="0" fontId="188" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="189" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="190" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="191" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="193" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="194" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="195" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="196" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -5301,15 +5352,15 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="39" r="1" spans="1:47" x14ac:dyDescent="0.5">
-      <c r="F1" s="403" t="s">
+      <c r="F1" s="368" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="403"/>
-      <c r="H1" s="403"/>
-      <c r="I1" s="403"/>
-      <c r="J1" s="403"/>
-      <c r="K1" s="403"/>
-      <c r="L1" s="403"/>
+      <c r="G1" s="368"/>
+      <c r="H1" s="368"/>
+      <c r="I1" s="368"/>
+      <c r="J1" s="368"/>
+      <c r="K1" s="368"/>
+      <c r="L1" s="368"/>
       <c r="U1" s="22" t="s">
         <v>62</v>
       </c>
@@ -5398,22 +5449,22 @@
       </c>
     </row>
     <row customHeight="1" ht="36.75" r="6" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="D6" s="404" t="s">
+      <c r="D6" s="369" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="405"/>
-      <c r="F6" s="405"/>
-      <c r="G6" s="405"/>
-      <c r="H6" s="406"/>
+      <c r="E6" s="370"/>
+      <c r="F6" s="370"/>
+      <c r="G6" s="370"/>
+      <c r="H6" s="371"/>
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
-      <c r="M6" s="404" t="s">
+      <c r="M6" s="369" t="s">
         <v>66</v>
       </c>
-      <c r="N6" s="405"/>
-      <c r="O6" s="405"/>
-      <c r="P6" s="405"/>
-      <c r="Q6" s="406"/>
+      <c r="N6" s="370"/>
+      <c r="O6" s="370"/>
+      <c r="P6" s="370"/>
+      <c r="Q6" s="371"/>
     </row>
     <row customHeight="1" ht="76.5" r="7" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A7" s="24" t="s">
@@ -5431,10 +5482,10 @@
       <c r="E7" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="407" t="s">
+      <c r="F7" s="372" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="408"/>
+      <c r="G7" s="373"/>
       <c r="H7" s="24" t="s">
         <v>73</v>
       </c>
@@ -5457,10 +5508,10 @@
         <v>79</v>
       </c>
       <c r="O7" s="29"/>
-      <c r="P7" s="407" t="s">
+      <c r="P7" s="372" t="s">
         <v>80</v>
       </c>
-      <c r="Q7" s="408"/>
+      <c r="Q7" s="373"/>
       <c r="R7" s="30" t="s">
         <v>74</v>
       </c>
@@ -5537,7 +5588,7 @@
       <c r="A9" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="395" t="s">
+      <c r="B9" s="374" t="s">
         <v>194</v>
       </c>
       <c r="C9" s="40" t="s">
@@ -5571,33 +5622,33 @@
         <f ref="L9:L22" si="0" t="shared">MIN(I9:K9)</f>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="M9" s="386">
+      <c r="M9" s="365">
         <v>20</v>
       </c>
-      <c r="N9" s="398" t="s">
+      <c r="N9" s="377" t="s">
         <v>95</v>
       </c>
-      <c r="O9" s="386">
+      <c r="O9" s="365">
         <f>IF(N9="daily",1,IF(N9="week",7,IF(N9="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P9" s="386">
+      <c r="P9" s="365">
         <v>3</v>
       </c>
-      <c r="Q9" s="386">
+      <c r="Q9" s="365">
         <f>P9/O9</f>
         <v>3</v>
       </c>
-      <c r="R9" s="386">
+      <c r="R9" s="365">
         <f>M9*Q9</f>
         <v>60</v>
       </c>
-      <c r="S9" s="386"/>
-      <c r="T9" s="389">
+      <c r="S9" s="365"/>
+      <c r="T9" s="380">
         <f>MIN(R9:S12)</f>
         <v>60</v>
       </c>
-      <c r="U9" s="386">
+      <c r="U9" s="365">
         <v>500</v>
       </c>
       <c r="V9" s="41">
@@ -5622,7 +5673,7 @@
       <c r="A10" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="B10" s="396"/>
+      <c r="B10" s="375"/>
       <c r="C10" s="40" t="s">
         <v>198</v>
       </c>
@@ -5654,15 +5705,15 @@
         <f si="0" t="shared"/>
         <v>0.21</v>
       </c>
-      <c r="M10" s="387"/>
-      <c r="N10" s="399"/>
-      <c r="O10" s="387"/>
-      <c r="P10" s="387"/>
-      <c r="Q10" s="387"/>
-      <c r="R10" s="387"/>
-      <c r="S10" s="387"/>
-      <c r="T10" s="390"/>
-      <c r="U10" s="387"/>
+      <c r="M10" s="366"/>
+      <c r="N10" s="378"/>
+      <c r="O10" s="366"/>
+      <c r="P10" s="366"/>
+      <c r="Q10" s="366"/>
+      <c r="R10" s="366"/>
+      <c r="S10" s="366"/>
+      <c r="T10" s="381"/>
+      <c r="U10" s="366"/>
       <c r="V10" s="41"/>
       <c r="W10" s="36"/>
       <c r="X10" s="36"/>
@@ -5670,10 +5721,10 @@
       <c r="AK10" s="46"/>
     </row>
     <row customHeight="1" ht="24.95" r="11" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A11" s="386" t="s">
+      <c r="A11" s="365" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="396"/>
+      <c r="B11" s="375"/>
       <c r="C11" s="40"/>
       <c r="D11" s="40"/>
       <c r="E11" s="40"/>
@@ -5684,15 +5735,15 @@
       <c r="J11" s="36"/>
       <c r="K11" s="36"/>
       <c r="L11" s="42"/>
-      <c r="M11" s="387"/>
-      <c r="N11" s="399"/>
-      <c r="O11" s="387"/>
-      <c r="P11" s="387"/>
-      <c r="Q11" s="387"/>
-      <c r="R11" s="387"/>
-      <c r="S11" s="387"/>
-      <c r="T11" s="390"/>
-      <c r="U11" s="387"/>
+      <c r="M11" s="366"/>
+      <c r="N11" s="378"/>
+      <c r="O11" s="366"/>
+      <c r="P11" s="366"/>
+      <c r="Q11" s="366"/>
+      <c r="R11" s="366"/>
+      <c r="S11" s="366"/>
+      <c r="T11" s="381"/>
+      <c r="U11" s="366"/>
       <c r="V11" s="41"/>
       <c r="W11" s="36"/>
       <c r="X11" s="36"/>
@@ -5711,8 +5762,8 @@
       <c r="AU11" s="65"/>
     </row>
     <row customHeight="1" ht="24.95" r="12" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A12" s="388"/>
-      <c r="B12" s="397"/>
+      <c r="A12" s="367"/>
+      <c r="B12" s="376"/>
       <c r="C12" s="40"/>
       <c r="D12" s="40"/>
       <c r="E12" s="40"/>
@@ -5723,15 +5774,15 @@
       <c r="J12" s="36"/>
       <c r="K12" s="36"/>
       <c r="L12" s="42"/>
-      <c r="M12" s="388"/>
-      <c r="N12" s="400"/>
-      <c r="O12" s="388"/>
-      <c r="P12" s="388"/>
-      <c r="Q12" s="388"/>
-      <c r="R12" s="388"/>
-      <c r="S12" s="388"/>
-      <c r="T12" s="391"/>
-      <c r="U12" s="388"/>
+      <c r="M12" s="367"/>
+      <c r="N12" s="379"/>
+      <c r="O12" s="367"/>
+      <c r="P12" s="367"/>
+      <c r="Q12" s="367"/>
+      <c r="R12" s="367"/>
+      <c r="S12" s="367"/>
+      <c r="T12" s="382"/>
+      <c r="U12" s="367"/>
       <c r="V12" s="41"/>
       <c r="W12" s="36"/>
       <c r="X12" s="36"/>
@@ -5747,7 +5798,7 @@
       <c r="A13" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="B13" s="395" t="s">
+      <c r="B13" s="374" t="s">
         <v>195</v>
       </c>
       <c r="C13" s="40" t="s">
@@ -5781,33 +5832,33 @@
         <f si="0" t="shared"/>
         <v>2E-3</v>
       </c>
-      <c r="M13" s="386">
+      <c r="M13" s="365">
         <v>80</v>
       </c>
-      <c r="N13" s="398" t="s">
+      <c r="N13" s="377" t="s">
         <v>95</v>
       </c>
-      <c r="O13" s="386">
+      <c r="O13" s="365">
         <f>IF(N13="daily",1,IF(N13="week",7,IF(N13="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P13" s="386">
+      <c r="P13" s="365">
         <v>2</v>
       </c>
-      <c r="Q13" s="386">
+      <c r="Q13" s="365">
         <f>P13/O13</f>
         <v>2</v>
       </c>
-      <c r="R13" s="386">
+      <c r="R13" s="365">
         <f>M13*Q13</f>
         <v>160</v>
       </c>
-      <c r="S13" s="386"/>
-      <c r="T13" s="389">
+      <c r="S13" s="365"/>
+      <c r="T13" s="380">
         <f>MIN(R13:S16)</f>
         <v>160</v>
       </c>
-      <c r="U13" s="386">
+      <c r="U13" s="365">
         <v>600</v>
       </c>
       <c r="V13" s="41">
@@ -5830,7 +5881,7 @@
       <c r="A14" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="B14" s="396"/>
+      <c r="B14" s="375"/>
       <c r="C14" s="40" t="s">
         <v>200</v>
       </c>
@@ -5862,15 +5913,15 @@
         <f si="0" t="shared"/>
         <v>0.08</v>
       </c>
-      <c r="M14" s="387"/>
-      <c r="N14" s="399"/>
-      <c r="O14" s="387"/>
-      <c r="P14" s="387"/>
-      <c r="Q14" s="387"/>
-      <c r="R14" s="387"/>
-      <c r="S14" s="387"/>
-      <c r="T14" s="390"/>
-      <c r="U14" s="387"/>
+      <c r="M14" s="366"/>
+      <c r="N14" s="378"/>
+      <c r="O14" s="366"/>
+      <c r="P14" s="366"/>
+      <c r="Q14" s="366"/>
+      <c r="R14" s="366"/>
+      <c r="S14" s="366"/>
+      <c r="T14" s="381"/>
+      <c r="U14" s="366"/>
       <c r="V14" s="41"/>
       <c r="W14" s="36"/>
       <c r="X14" s="36"/>
@@ -5878,10 +5929,10 @@
       <c r="AT14" s="70"/>
     </row>
     <row customHeight="1" ht="24.95" r="15" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A15" s="401" t="s">
+      <c r="A15" s="383" t="s">
         <v>101</v>
       </c>
-      <c r="B15" s="396"/>
+      <c r="B15" s="375"/>
       <c r="C15" s="40"/>
       <c r="D15" s="40"/>
       <c r="E15" s="40"/>
@@ -5892,15 +5943,15 @@
       <c r="J15" s="36"/>
       <c r="K15" s="36"/>
       <c r="L15" s="42"/>
-      <c r="M15" s="387"/>
-      <c r="N15" s="399"/>
-      <c r="O15" s="387"/>
-      <c r="P15" s="387"/>
-      <c r="Q15" s="387"/>
-      <c r="R15" s="387"/>
-      <c r="S15" s="387"/>
-      <c r="T15" s="390"/>
-      <c r="U15" s="387"/>
+      <c r="M15" s="366"/>
+      <c r="N15" s="378"/>
+      <c r="O15" s="366"/>
+      <c r="P15" s="366"/>
+      <c r="Q15" s="366"/>
+      <c r="R15" s="366"/>
+      <c r="S15" s="366"/>
+      <c r="T15" s="381"/>
+      <c r="U15" s="366"/>
       <c r="V15" s="41"/>
       <c r="W15" s="36"/>
       <c r="X15" s="36"/>
@@ -5910,8 +5961,8 @@
       <c r="AT15" s="46"/>
     </row>
     <row customHeight="1" ht="24.95" r="16" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A16" s="402"/>
-      <c r="B16" s="397"/>
+      <c r="A16" s="384"/>
+      <c r="B16" s="376"/>
       <c r="C16" s="40"/>
       <c r="D16" s="40"/>
       <c r="E16" s="40"/>
@@ -5922,15 +5973,15 @@
       <c r="J16" s="36"/>
       <c r="K16" s="36"/>
       <c r="L16" s="42"/>
-      <c r="M16" s="388"/>
-      <c r="N16" s="400"/>
-      <c r="O16" s="388"/>
-      <c r="P16" s="388"/>
-      <c r="Q16" s="388"/>
-      <c r="R16" s="388"/>
-      <c r="S16" s="388"/>
-      <c r="T16" s="391"/>
-      <c r="U16" s="388"/>
+      <c r="M16" s="367"/>
+      <c r="N16" s="379"/>
+      <c r="O16" s="367"/>
+      <c r="P16" s="367"/>
+      <c r="Q16" s="367"/>
+      <c r="R16" s="367"/>
+      <c r="S16" s="367"/>
+      <c r="T16" s="382"/>
+      <c r="U16" s="367"/>
       <c r="V16" s="41"/>
       <c r="W16" s="36"/>
       <c r="X16" s="36"/>
@@ -5941,7 +5992,7 @@
       <c r="A17" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="B17" s="395" t="s">
+      <c r="B17" s="374" t="s">
         <v>196</v>
       </c>
       <c r="C17" s="40" t="s">
@@ -5975,33 +6026,33 @@
         <f si="0" t="shared"/>
         <v>3.4999999999999996E-2</v>
       </c>
-      <c r="M17" s="386">
+      <c r="M17" s="365">
         <v>70</v>
       </c>
-      <c r="N17" s="398" t="s">
+      <c r="N17" s="377" t="s">
         <v>95</v>
       </c>
-      <c r="O17" s="386">
+      <c r="O17" s="365">
         <f>IF(N17="daily",1,IF(N17="week",7,IF(N17="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P17" s="386">
+      <c r="P17" s="365">
         <v>2</v>
       </c>
-      <c r="Q17" s="386">
+      <c r="Q17" s="365">
         <f>P17/O17</f>
         <v>2</v>
       </c>
-      <c r="R17" s="386">
+      <c r="R17" s="365">
         <f>M17*Q17</f>
         <v>140</v>
       </c>
-      <c r="S17" s="386"/>
-      <c r="T17" s="389">
+      <c r="S17" s="365"/>
+      <c r="T17" s="380">
         <f>MIN(R17:S20)</f>
         <v>140</v>
       </c>
-      <c r="U17" s="386">
+      <c r="U17" s="365">
         <v>850</v>
       </c>
       <c r="V17" s="41">
@@ -6020,7 +6071,7 @@
       <c r="A18" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="B18" s="396"/>
+      <c r="B18" s="375"/>
       <c r="C18" s="40" t="s">
         <v>202</v>
       </c>
@@ -6052,24 +6103,24 @@
         <f si="0" t="shared"/>
         <v>3.9999999999999994E-2</v>
       </c>
-      <c r="M18" s="387"/>
-      <c r="N18" s="399"/>
-      <c r="O18" s="387"/>
-      <c r="P18" s="387"/>
-      <c r="Q18" s="387"/>
-      <c r="R18" s="387"/>
-      <c r="S18" s="387"/>
-      <c r="T18" s="390"/>
-      <c r="U18" s="387"/>
+      <c r="M18" s="366"/>
+      <c r="N18" s="378"/>
+      <c r="O18" s="366"/>
+      <c r="P18" s="366"/>
+      <c r="Q18" s="366"/>
+      <c r="R18" s="366"/>
+      <c r="S18" s="366"/>
+      <c r="T18" s="381"/>
+      <c r="U18" s="366"/>
       <c r="V18" s="41"/>
       <c r="W18" s="36"/>
       <c r="X18" s="36"/>
     </row>
     <row customHeight="1" ht="24.95" r="19" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A19" s="386" t="s">
+      <c r="A19" s="365" t="s">
         <v>105</v>
       </c>
-      <c r="B19" s="396"/>
+      <c r="B19" s="375"/>
       <c r="C19" s="40"/>
       <c r="D19" s="40"/>
       <c r="E19" s="40"/>
@@ -6080,22 +6131,22 @@
       <c r="J19" s="36"/>
       <c r="K19" s="36"/>
       <c r="L19" s="42"/>
-      <c r="M19" s="387"/>
-      <c r="N19" s="399"/>
-      <c r="O19" s="387"/>
-      <c r="P19" s="387"/>
-      <c r="Q19" s="387"/>
-      <c r="R19" s="387"/>
-      <c r="S19" s="387"/>
-      <c r="T19" s="390"/>
-      <c r="U19" s="387"/>
+      <c r="M19" s="366"/>
+      <c r="N19" s="378"/>
+      <c r="O19" s="366"/>
+      <c r="P19" s="366"/>
+      <c r="Q19" s="366"/>
+      <c r="R19" s="366"/>
+      <c r="S19" s="366"/>
+      <c r="T19" s="381"/>
+      <c r="U19" s="366"/>
       <c r="V19" s="41"/>
       <c r="W19" s="36"/>
       <c r="X19" s="36"/>
     </row>
     <row customHeight="1" ht="24.95" r="20" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A20" s="388"/>
-      <c r="B20" s="397"/>
+      <c r="A20" s="367"/>
+      <c r="B20" s="376"/>
       <c r="C20" s="40"/>
       <c r="D20" s="40"/>
       <c r="E20" s="40"/>
@@ -6106,15 +6157,15 @@
       <c r="J20" s="36"/>
       <c r="K20" s="36"/>
       <c r="L20" s="42"/>
-      <c r="M20" s="388"/>
-      <c r="N20" s="400"/>
-      <c r="O20" s="388"/>
-      <c r="P20" s="388"/>
-      <c r="Q20" s="388"/>
-      <c r="R20" s="388"/>
-      <c r="S20" s="388"/>
-      <c r="T20" s="391"/>
-      <c r="U20" s="388"/>
+      <c r="M20" s="367"/>
+      <c r="N20" s="379"/>
+      <c r="O20" s="367"/>
+      <c r="P20" s="367"/>
+      <c r="Q20" s="367"/>
+      <c r="R20" s="367"/>
+      <c r="S20" s="367"/>
+      <c r="T20" s="382"/>
+      <c r="U20" s="367"/>
       <c r="V20" s="41"/>
       <c r="W20" s="36"/>
       <c r="X20" s="36"/>
@@ -6123,7 +6174,7 @@
       <c r="A21" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="395" t="s">
+      <c r="B21" s="374" t="s">
         <v>197</v>
       </c>
       <c r="C21" s="40" t="s">
@@ -6157,33 +6208,33 @@
         <f si="0" t="shared"/>
         <v>0.05</v>
       </c>
-      <c r="M21" s="386">
+      <c r="M21" s="365">
         <v>60</v>
       </c>
-      <c r="N21" s="398" t="s">
+      <c r="N21" s="377" t="s">
         <v>95</v>
       </c>
-      <c r="O21" s="386">
+      <c r="O21" s="365">
         <f>IF(N21="daily",1,IF(N21="week",7,IF(N21="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P21" s="386">
+      <c r="P21" s="365">
         <v>3</v>
       </c>
-      <c r="Q21" s="386">
+      <c r="Q21" s="365">
         <f>P21/O21</f>
         <v>3</v>
       </c>
-      <c r="R21" s="386">
+      <c r="R21" s="365">
         <f>M21*Q21</f>
         <v>180</v>
       </c>
-      <c r="S21" s="386"/>
-      <c r="T21" s="389">
+      <c r="S21" s="365"/>
+      <c r="T21" s="380">
         <f>MIN(R21:S24)</f>
         <v>180</v>
       </c>
-      <c r="U21" s="386">
+      <c r="U21" s="365">
         <v>700</v>
       </c>
       <c r="V21" s="41">
@@ -6200,7 +6251,7 @@
       <c r="A22" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="B22" s="396"/>
+      <c r="B22" s="375"/>
       <c r="C22" s="40" t="s">
         <v>204</v>
       </c>
@@ -6232,24 +6283,24 @@
         <f si="0" t="shared"/>
         <v>4.0000000000000008E-2</v>
       </c>
-      <c r="M22" s="387"/>
-      <c r="N22" s="399"/>
-      <c r="O22" s="387"/>
-      <c r="P22" s="387"/>
-      <c r="Q22" s="387"/>
-      <c r="R22" s="387"/>
-      <c r="S22" s="387"/>
-      <c r="T22" s="390"/>
-      <c r="U22" s="387"/>
+      <c r="M22" s="366"/>
+      <c r="N22" s="378"/>
+      <c r="O22" s="366"/>
+      <c r="P22" s="366"/>
+      <c r="Q22" s="366"/>
+      <c r="R22" s="366"/>
+      <c r="S22" s="366"/>
+      <c r="T22" s="381"/>
+      <c r="U22" s="366"/>
       <c r="V22" s="41"/>
       <c r="W22" s="36"/>
       <c r="X22" s="36"/>
     </row>
     <row customHeight="1" ht="24.95" r="23" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A23" s="392" t="s">
+      <c r="A23" s="385" t="s">
         <v>108</v>
       </c>
-      <c r="B23" s="396"/>
+      <c r="B23" s="375"/>
       <c r="C23" s="40"/>
       <c r="D23" s="40"/>
       <c r="E23" s="40"/>
@@ -6260,22 +6311,22 @@
       <c r="J23" s="36"/>
       <c r="K23" s="36"/>
       <c r="L23" s="42"/>
-      <c r="M23" s="387"/>
-      <c r="N23" s="399"/>
-      <c r="O23" s="387"/>
-      <c r="P23" s="387"/>
-      <c r="Q23" s="387"/>
-      <c r="R23" s="387"/>
-      <c r="S23" s="387"/>
-      <c r="T23" s="390"/>
-      <c r="U23" s="387"/>
+      <c r="M23" s="366"/>
+      <c r="N23" s="378"/>
+      <c r="O23" s="366"/>
+      <c r="P23" s="366"/>
+      <c r="Q23" s="366"/>
+      <c r="R23" s="366"/>
+      <c r="S23" s="366"/>
+      <c r="T23" s="381"/>
+      <c r="U23" s="366"/>
       <c r="V23" s="41"/>
       <c r="W23" s="36"/>
       <c r="X23" s="36"/>
     </row>
     <row customHeight="1" ht="24.95" r="24" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A24" s="393"/>
-      <c r="B24" s="397"/>
+      <c r="A24" s="386"/>
+      <c r="B24" s="376"/>
       <c r="C24" s="40"/>
       <c r="D24" s="40"/>
       <c r="E24" s="40"/>
@@ -6286,15 +6337,15 @@
       <c r="J24" s="36"/>
       <c r="K24" s="36"/>
       <c r="L24" s="42"/>
-      <c r="M24" s="388"/>
-      <c r="N24" s="400"/>
-      <c r="O24" s="388"/>
-      <c r="P24" s="388"/>
-      <c r="Q24" s="388"/>
-      <c r="R24" s="388"/>
-      <c r="S24" s="388"/>
-      <c r="T24" s="391"/>
-      <c r="U24" s="388"/>
+      <c r="M24" s="367"/>
+      <c r="N24" s="379"/>
+      <c r="O24" s="367"/>
+      <c r="P24" s="367"/>
+      <c r="Q24" s="367"/>
+      <c r="R24" s="367"/>
+      <c r="S24" s="367"/>
+      <c r="T24" s="382"/>
+      <c r="U24" s="367"/>
       <c r="V24" s="41"/>
       <c r="W24" s="36"/>
       <c r="X24" s="36"/>
@@ -6320,13 +6371,13 @@
       <c r="D27" s="46"/>
       <c r="E27" s="46"/>
       <c r="F27" s="46"/>
-      <c r="H27" s="394" t="s">
+      <c r="H27" s="387" t="s">
         <v>206</v>
       </c>
-      <c r="I27" s="394"/>
-      <c r="J27" s="394"/>
-      <c r="K27" s="394"/>
-      <c r="L27" s="394"/>
+      <c r="I27" s="387"/>
+      <c r="J27" s="387"/>
+      <c r="K27" s="387"/>
+      <c r="L27" s="387"/>
       <c r="M27" s="48"/>
       <c r="N27" s="48"/>
       <c r="O27" s="46"/>
@@ -6606,19 +6657,19 @@
     <row customHeight="1" ht="32.25" r="40" spans="1:40" x14ac:dyDescent="0.4">
       <c r="B40" s="104"/>
       <c r="C40" s="105"/>
-      <c r="D40" s="384" t="s">
+      <c r="D40" s="390" t="s">
         <v>4</v>
       </c>
-      <c r="E40" s="384"/>
-      <c r="F40" s="384"/>
-      <c r="G40" s="384"/>
-      <c r="H40" s="384"/>
-      <c r="I40" s="384" t="s">
+      <c r="E40" s="390"/>
+      <c r="F40" s="390"/>
+      <c r="G40" s="390"/>
+      <c r="H40" s="390"/>
+      <c r="I40" s="390" t="s">
         <v>5</v>
       </c>
-      <c r="J40" s="384"/>
-      <c r="K40" s="384"/>
-      <c r="L40" s="384"/>
+      <c r="J40" s="390"/>
+      <c r="K40" s="390"/>
+      <c r="L40" s="390"/>
       <c r="M40" s="117"/>
       <c r="N40" s="118" t="s">
         <v>48</v>
@@ -6742,7 +6793,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24.95" r="42" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="B42" s="379" t="s">
+      <c r="B42" s="391" t="s">
         <v>226</v>
       </c>
       <c r="C42" s="190"/>
@@ -6750,17 +6801,17 @@
       <c r="E42" s="111"/>
       <c r="F42" s="189"/>
       <c r="G42" s="189"/>
-      <c r="H42" s="380">
+      <c r="H42" s="389">
         <v>3.095975611358881E-3</v>
       </c>
       <c r="I42" s="111"/>
       <c r="J42" s="111"/>
       <c r="K42" s="189"/>
       <c r="L42" s="189"/>
-      <c r="M42" s="380">
+      <c r="M42" s="389">
         <v>1</v>
       </c>
-      <c r="N42" s="385" t="s">
+      <c r="N42" s="388" t="s">
         <v>59</v>
       </c>
       <c r="P42" s="91"/>
@@ -6808,7 +6859,7 @@
       <c r="AN42" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="43" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="B43" s="379"/>
+      <c r="B43" s="391"/>
       <c r="C43" s="190" t="s">
         <v>220</v>
       </c>
@@ -6824,7 +6875,7 @@
       <c r="G43" s="103">
         <v>97.126746422628088</v>
       </c>
-      <c r="H43" s="380"/>
+      <c r="H43" s="389"/>
       <c r="I43" s="111">
         <v>1</v>
       </c>
@@ -6837,8 +6888,8 @@
       <c r="L43" s="103">
         <v>1</v>
       </c>
-      <c r="M43" s="380"/>
-      <c r="N43" s="380"/>
+      <c r="M43" s="389"/>
+      <c r="N43" s="389"/>
       <c r="P43" s="92"/>
       <c r="Q43" s="92"/>
       <c r="U43" s="64"/>
@@ -6884,7 +6935,7 @@
       <c r="AN43" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="44" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="B44" s="379"/>
+      <c r="B44" s="391"/>
       <c r="C44" s="190" t="s">
         <v>218</v>
       </c>
@@ -6900,7 +6951,7 @@
       <c r="G44" s="189">
         <v>3.0959756012671502E-3</v>
       </c>
-      <c r="H44" s="380"/>
+      <c r="H44" s="389"/>
       <c r="I44" s="111">
         <v>1</v>
       </c>
@@ -6913,8 +6964,8 @@
       <c r="L44" s="189">
         <v>1</v>
       </c>
-      <c r="M44" s="380"/>
-      <c r="N44" s="380"/>
+      <c r="M44" s="389"/>
+      <c r="N44" s="389"/>
       <c r="P44" s="91"/>
       <c r="Q44" s="91"/>
       <c r="U44" s="64"/>
@@ -6960,7 +7011,7 @@
       <c r="AN44" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="45" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="B45" s="379"/>
+      <c r="B45" s="391"/>
       <c r="C45" s="190" t="s">
         <v>219</v>
       </c>
@@ -6976,7 +7027,7 @@
       <c r="G45" s="189">
         <v>3.0959756012671502E-3</v>
       </c>
-      <c r="H45" s="380"/>
+      <c r="H45" s="389"/>
       <c r="I45" s="111">
         <v>1</v>
       </c>
@@ -6989,8 +7040,8 @@
       <c r="L45" s="189">
         <v>1</v>
       </c>
-      <c r="M45" s="380"/>
-      <c r="N45" s="380"/>
+      <c r="M45" s="389"/>
+      <c r="N45" s="389"/>
       <c r="P45" s="91"/>
       <c r="Q45" s="91"/>
       <c r="U45" s="64"/>
@@ -7036,19 +7087,19 @@
       <c r="AN45" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="46" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="B46" s="379"/>
+      <c r="B46" s="391"/>
       <c r="C46" s="190"/>
       <c r="D46" s="111"/>
       <c r="E46" s="111"/>
       <c r="F46" s="189"/>
       <c r="G46" s="189"/>
-      <c r="H46" s="380"/>
+      <c r="H46" s="389"/>
       <c r="I46" s="111"/>
       <c r="J46" s="111"/>
       <c r="K46" s="189"/>
       <c r="L46" s="189"/>
-      <c r="M46" s="380"/>
-      <c r="N46" s="381"/>
+      <c r="M46" s="389"/>
+      <c r="N46" s="392"/>
       <c r="P46" s="91"/>
       <c r="Q46" s="91"/>
       <c r="U46" s="64"/>
@@ -7094,19 +7145,19 @@
       <c r="AN46" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="47" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="B47" s="379"/>
+      <c r="B47" s="391"/>
       <c r="C47" s="190"/>
       <c r="D47" s="111"/>
       <c r="E47" s="111"/>
       <c r="F47" s="111"/>
       <c r="G47" s="111"/>
-      <c r="H47" s="380"/>
+      <c r="H47" s="389"/>
       <c r="I47" s="111"/>
       <c r="J47" s="111"/>
       <c r="K47" s="111"/>
       <c r="L47" s="111"/>
-      <c r="M47" s="380"/>
-      <c r="N47" s="382"/>
+      <c r="M47" s="389"/>
+      <c r="N47" s="393"/>
       <c r="P47" s="81"/>
       <c r="Q47" s="81"/>
       <c r="S47" s="69"/>
@@ -7154,19 +7205,19 @@
       <c r="AN47" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="48" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="B48" s="379"/>
+      <c r="B48" s="391"/>
       <c r="C48" s="190"/>
       <c r="D48" s="111"/>
       <c r="E48" s="111"/>
       <c r="F48" s="111"/>
       <c r="G48" s="111"/>
-      <c r="H48" s="380"/>
+      <c r="H48" s="389"/>
       <c r="I48" s="111"/>
       <c r="J48" s="111"/>
       <c r="K48" s="111"/>
       <c r="L48" s="111"/>
-      <c r="M48" s="380"/>
-      <c r="N48" s="382"/>
+      <c r="M48" s="389"/>
+      <c r="N48" s="393"/>
       <c r="P48" s="81"/>
       <c r="Q48" s="81"/>
       <c r="S48" s="69"/>
@@ -7214,19 +7265,19 @@
       <c r="AN48" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="49" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B49" s="379"/>
+      <c r="B49" s="391"/>
       <c r="C49" s="190"/>
       <c r="D49" s="111"/>
       <c r="E49" s="111"/>
       <c r="F49" s="111"/>
       <c r="G49" s="111"/>
-      <c r="H49" s="380"/>
+      <c r="H49" s="389"/>
       <c r="I49" s="111"/>
       <c r="J49" s="111"/>
       <c r="K49" s="111"/>
       <c r="L49" s="111"/>
-      <c r="M49" s="380"/>
-      <c r="N49" s="382"/>
+      <c r="M49" s="389"/>
+      <c r="N49" s="393"/>
       <c r="P49" s="81"/>
       <c r="Q49" s="81"/>
       <c r="S49" s="69"/>
@@ -7274,19 +7325,19 @@
       <c r="AN49" s="89"/>
     </row>
     <row customHeight="1" ht="24.95" r="50" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B50" s="374"/>
+      <c r="B50" s="394"/>
       <c r="C50" s="191"/>
       <c r="D50" s="187"/>
       <c r="E50" s="187"/>
       <c r="F50" s="187"/>
       <c r="G50" s="187"/>
-      <c r="H50" s="375"/>
+      <c r="H50" s="395"/>
       <c r="I50" s="187"/>
       <c r="J50" s="187"/>
       <c r="K50" s="187"/>
       <c r="L50" s="187"/>
-      <c r="M50" s="375"/>
-      <c r="N50" s="383"/>
+      <c r="M50" s="395"/>
+      <c r="N50" s="396"/>
       <c r="P50" s="81"/>
       <c r="Q50" s="81"/>
       <c r="S50" s="69"/>
@@ -7307,19 +7358,19 @@
       <c r="AN50" s="64"/>
     </row>
     <row customHeight="1" ht="24.95" r="51" spans="2:40" x14ac:dyDescent="0.4">
-      <c r="B51" s="374"/>
+      <c r="B51" s="394"/>
       <c r="C51" s="191"/>
       <c r="D51" s="187"/>
       <c r="E51" s="187"/>
       <c r="F51" s="187"/>
       <c r="G51" s="187"/>
-      <c r="H51" s="375"/>
+      <c r="H51" s="395"/>
       <c r="I51" s="187"/>
       <c r="J51" s="187"/>
       <c r="K51" s="187"/>
       <c r="L51" s="187"/>
-      <c r="M51" s="375"/>
-      <c r="N51" s="377"/>
+      <c r="M51" s="395"/>
+      <c r="N51" s="397"/>
       <c r="P51" s="81"/>
       <c r="Q51" s="81"/>
       <c r="S51" s="69"/>
@@ -7350,19 +7401,19 @@
       <c r="AN51" s="46"/>
     </row>
     <row customHeight="1" ht="24.95" r="52" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B52" s="374"/>
+      <c r="B52" s="394"/>
       <c r="C52" s="191"/>
       <c r="D52" s="187"/>
       <c r="E52" s="187"/>
       <c r="F52" s="187"/>
       <c r="G52" s="187"/>
-      <c r="H52" s="375"/>
+      <c r="H52" s="395"/>
       <c r="I52" s="187"/>
       <c r="J52" s="187"/>
       <c r="K52" s="187"/>
       <c r="L52" s="187"/>
-      <c r="M52" s="375"/>
-      <c r="N52" s="377"/>
+      <c r="M52" s="395"/>
+      <c r="N52" s="397"/>
       <c r="P52" s="81"/>
       <c r="Q52" s="81"/>
       <c r="S52" s="69"/>
@@ -7426,19 +7477,19 @@
       </c>
     </row>
     <row customHeight="1" ht="24.95" r="53" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B53" s="374"/>
+      <c r="B53" s="394"/>
       <c r="C53" s="191"/>
       <c r="D53" s="187"/>
       <c r="E53" s="187"/>
       <c r="F53" s="187"/>
       <c r="G53" s="187"/>
-      <c r="H53" s="375"/>
+      <c r="H53" s="395"/>
       <c r="I53" s="187"/>
       <c r="J53" s="187"/>
       <c r="K53" s="187"/>
       <c r="L53" s="187"/>
-      <c r="M53" s="375"/>
-      <c r="N53" s="377"/>
+      <c r="M53" s="395"/>
+      <c r="N53" s="397"/>
       <c r="P53" s="81"/>
       <c r="Q53" s="81"/>
       <c r="S53" s="69"/>
@@ -7487,19 +7538,19 @@
       <c r="AN53" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="54" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B54" s="374"/>
+      <c r="B54" s="394"/>
       <c r="C54" s="191"/>
       <c r="D54" s="187"/>
       <c r="E54" s="187"/>
       <c r="F54" s="187"/>
       <c r="G54" s="187"/>
-      <c r="H54" s="375"/>
+      <c r="H54" s="395"/>
       <c r="I54" s="187"/>
       <c r="J54" s="187"/>
       <c r="K54" s="187"/>
       <c r="L54" s="187"/>
-      <c r="M54" s="375"/>
-      <c r="N54" s="376"/>
+      <c r="M54" s="395"/>
+      <c r="N54" s="398"/>
       <c r="P54" s="81"/>
       <c r="Q54" s="81"/>
       <c r="S54" s="69"/>
@@ -7546,19 +7597,19 @@
       <c r="AN54" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="55" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B55" s="374"/>
+      <c r="B55" s="394"/>
       <c r="C55" s="191"/>
       <c r="D55" s="187"/>
       <c r="E55" s="187"/>
       <c r="F55" s="187"/>
       <c r="G55" s="187"/>
-      <c r="H55" s="375"/>
+      <c r="H55" s="395"/>
       <c r="I55" s="187"/>
       <c r="J55" s="187"/>
       <c r="K55" s="187"/>
       <c r="L55" s="187"/>
-      <c r="M55" s="375"/>
-      <c r="N55" s="377"/>
+      <c r="M55" s="395"/>
+      <c r="N55" s="397"/>
       <c r="P55" s="81"/>
       <c r="Q55" s="81"/>
       <c r="S55" s="69"/>
@@ -7605,19 +7656,19 @@
       <c r="AN55" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="56" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B56" s="374"/>
+      <c r="B56" s="394"/>
       <c r="C56" s="191"/>
       <c r="D56" s="187"/>
       <c r="E56" s="187"/>
       <c r="F56" s="187"/>
       <c r="G56" s="187"/>
-      <c r="H56" s="375"/>
+      <c r="H56" s="395"/>
       <c r="I56" s="187"/>
       <c r="J56" s="187"/>
       <c r="K56" s="187"/>
       <c r="L56" s="187"/>
-      <c r="M56" s="375"/>
-      <c r="N56" s="377"/>
+      <c r="M56" s="395"/>
+      <c r="N56" s="397"/>
       <c r="P56" s="81"/>
       <c r="Q56" s="81"/>
       <c r="S56" s="69"/>
@@ -7664,19 +7715,19 @@
       <c r="AN56" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="57" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B57" s="374"/>
+      <c r="B57" s="394"/>
       <c r="C57" s="191"/>
       <c r="D57" s="187"/>
       <c r="E57" s="187"/>
       <c r="F57" s="187"/>
       <c r="G57" s="187"/>
-      <c r="H57" s="375"/>
+      <c r="H57" s="395"/>
       <c r="I57" s="187"/>
       <c r="J57" s="187"/>
       <c r="K57" s="187"/>
       <c r="L57" s="187"/>
-      <c r="M57" s="375"/>
-      <c r="N57" s="377"/>
+      <c r="M57" s="395"/>
+      <c r="N57" s="397"/>
       <c r="P57" s="81"/>
       <c r="Q57" s="81"/>
       <c r="S57" s="69"/>
@@ -7723,19 +7774,19 @@
       <c r="AN57" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="58" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B58" s="369"/>
+      <c r="B58" s="399"/>
       <c r="C58" s="185"/>
       <c r="D58" s="192"/>
       <c r="E58" s="192"/>
       <c r="F58" s="192"/>
       <c r="G58" s="192"/>
-      <c r="H58" s="370"/>
+      <c r="H58" s="400"/>
       <c r="I58" s="192"/>
       <c r="J58" s="192"/>
       <c r="K58" s="192"/>
       <c r="L58" s="192"/>
-      <c r="M58" s="370"/>
-      <c r="N58" s="378"/>
+      <c r="M58" s="400"/>
+      <c r="N58" s="401"/>
       <c r="P58" s="81"/>
       <c r="Q58" s="81"/>
       <c r="S58" s="69"/>
@@ -7782,19 +7833,19 @@
       <c r="AN58" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="59" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B59" s="369"/>
+      <c r="B59" s="399"/>
       <c r="C59" s="185"/>
       <c r="D59" s="192"/>
       <c r="E59" s="192"/>
       <c r="F59" s="192"/>
       <c r="G59" s="192"/>
-      <c r="H59" s="370"/>
+      <c r="H59" s="400"/>
       <c r="I59" s="192"/>
       <c r="J59" s="192"/>
       <c r="K59" s="192"/>
       <c r="L59" s="192"/>
-      <c r="M59" s="370"/>
-      <c r="N59" s="372"/>
+      <c r="M59" s="400"/>
+      <c r="N59" s="402"/>
       <c r="P59" s="81"/>
       <c r="Q59" s="81"/>
       <c r="S59" s="69"/>
@@ -7841,19 +7892,19 @@
       <c r="AN59" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="60" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B60" s="369"/>
+      <c r="B60" s="399"/>
       <c r="C60" s="185"/>
       <c r="D60" s="192"/>
       <c r="E60" s="192"/>
       <c r="F60" s="192"/>
       <c r="G60" s="192"/>
-      <c r="H60" s="370"/>
+      <c r="H60" s="400"/>
       <c r="I60" s="192"/>
       <c r="J60" s="192"/>
       <c r="K60" s="192"/>
       <c r="L60" s="192"/>
-      <c r="M60" s="370"/>
-      <c r="N60" s="372"/>
+      <c r="M60" s="400"/>
+      <c r="N60" s="402"/>
       <c r="P60" s="81"/>
       <c r="Q60" s="81"/>
       <c r="S60" s="69"/>
@@ -7900,247 +7951,247 @@
       <c r="AN60" s="89"/>
     </row>
     <row customHeight="1" ht="24.95" r="61" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B61" s="369"/>
+      <c r="B61" s="399"/>
       <c r="C61" s="185"/>
       <c r="D61" s="192"/>
       <c r="E61" s="192"/>
       <c r="F61" s="192"/>
       <c r="G61" s="192"/>
-      <c r="H61" s="370"/>
+      <c r="H61" s="400"/>
       <c r="I61" s="192"/>
       <c r="J61" s="192"/>
       <c r="K61" s="192"/>
       <c r="L61" s="192"/>
-      <c r="M61" s="370"/>
-      <c r="N61" s="372"/>
+      <c r="M61" s="400"/>
+      <c r="N61" s="402"/>
       <c r="P61" s="81"/>
       <c r="Q61" s="81"/>
       <c r="S61" s="69"/>
       <c r="T61" s="69"/>
     </row>
     <row customHeight="1" ht="24.95" r="62" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B62" s="369"/>
+      <c r="B62" s="399"/>
       <c r="C62" s="185"/>
       <c r="D62" s="192"/>
       <c r="E62" s="192"/>
       <c r="F62" s="192"/>
       <c r="G62" s="192"/>
-      <c r="H62" s="370"/>
+      <c r="H62" s="400"/>
       <c r="I62" s="192"/>
       <c r="J62" s="192"/>
       <c r="K62" s="192"/>
       <c r="L62" s="192"/>
-      <c r="M62" s="370"/>
-      <c r="N62" s="371"/>
+      <c r="M62" s="400"/>
+      <c r="N62" s="407"/>
       <c r="P62" s="81"/>
       <c r="Q62" s="81"/>
       <c r="S62" s="69"/>
       <c r="T62" s="69"/>
     </row>
     <row customHeight="1" ht="24.95" r="63" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B63" s="369"/>
+      <c r="B63" s="399"/>
       <c r="C63" s="185"/>
       <c r="D63" s="192"/>
       <c r="E63" s="192"/>
       <c r="F63" s="192"/>
       <c r="G63" s="192"/>
-      <c r="H63" s="370"/>
+      <c r="H63" s="400"/>
       <c r="I63" s="192"/>
       <c r="J63" s="192"/>
       <c r="K63" s="192"/>
       <c r="L63" s="192"/>
-      <c r="M63" s="370"/>
-      <c r="N63" s="372"/>
+      <c r="M63" s="400"/>
+      <c r="N63" s="402"/>
       <c r="P63" s="81"/>
       <c r="Q63" s="81"/>
       <c r="S63" s="69"/>
       <c r="T63" s="69"/>
     </row>
     <row customHeight="1" ht="24.95" r="64" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B64" s="369"/>
+      <c r="B64" s="399"/>
       <c r="C64" s="185"/>
       <c r="D64" s="192"/>
       <c r="E64" s="192"/>
       <c r="F64" s="192"/>
       <c r="G64" s="192"/>
-      <c r="H64" s="370"/>
+      <c r="H64" s="400"/>
       <c r="I64" s="192"/>
       <c r="J64" s="192"/>
       <c r="K64" s="192"/>
       <c r="L64" s="192"/>
-      <c r="M64" s="370"/>
-      <c r="N64" s="372"/>
+      <c r="M64" s="400"/>
+      <c r="N64" s="402"/>
       <c r="P64" s="81"/>
       <c r="Q64" s="81"/>
       <c r="S64" s="69"/>
       <c r="T64" s="69"/>
     </row>
     <row customHeight="1" ht="24.95" r="65" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B65" s="369"/>
+      <c r="B65" s="399"/>
       <c r="C65" s="185"/>
       <c r="D65" s="192"/>
       <c r="E65" s="192"/>
       <c r="F65" s="192"/>
       <c r="G65" s="192"/>
-      <c r="H65" s="370"/>
+      <c r="H65" s="400"/>
       <c r="I65" s="192"/>
       <c r="J65" s="192"/>
       <c r="K65" s="192"/>
       <c r="L65" s="192"/>
-      <c r="M65" s="370"/>
-      <c r="N65" s="372"/>
+      <c r="M65" s="400"/>
+      <c r="N65" s="402"/>
       <c r="P65" s="81"/>
       <c r="Q65" s="81"/>
       <c r="S65" s="69"/>
       <c r="T65" s="69"/>
     </row>
     <row customHeight="1" ht="24.95" r="66" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B66" s="365"/>
+      <c r="B66" s="403"/>
       <c r="C66" s="186"/>
       <c r="D66" s="188"/>
       <c r="E66" s="188"/>
       <c r="F66" s="188"/>
       <c r="G66" s="188"/>
-      <c r="H66" s="366"/>
+      <c r="H66" s="404"/>
       <c r="I66" s="188"/>
       <c r="J66" s="188"/>
       <c r="K66" s="188"/>
       <c r="L66" s="188"/>
-      <c r="M66" s="366"/>
-      <c r="N66" s="373"/>
+      <c r="M66" s="404"/>
+      <c r="N66" s="408"/>
       <c r="P66" s="81"/>
       <c r="Q66" s="81"/>
       <c r="S66" s="69"/>
       <c r="T66" s="69"/>
     </row>
     <row customHeight="1" ht="24.95" r="67" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B67" s="365"/>
+      <c r="B67" s="403"/>
       <c r="C67" s="186"/>
       <c r="D67" s="188"/>
       <c r="E67" s="188"/>
       <c r="F67" s="188"/>
       <c r="G67" s="188"/>
-      <c r="H67" s="366"/>
+      <c r="H67" s="404"/>
       <c r="I67" s="188"/>
       <c r="J67" s="188"/>
       <c r="K67" s="188"/>
       <c r="L67" s="188"/>
-      <c r="M67" s="366"/>
-      <c r="N67" s="368"/>
+      <c r="M67" s="404"/>
+      <c r="N67" s="406"/>
       <c r="P67" s="81"/>
       <c r="Q67" s="81"/>
       <c r="S67" s="69"/>
       <c r="T67" s="69"/>
     </row>
     <row customHeight="1" ht="24.95" r="68" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B68" s="365"/>
+      <c r="B68" s="403"/>
       <c r="C68" s="186"/>
       <c r="D68" s="188"/>
       <c r="E68" s="188"/>
       <c r="F68" s="188"/>
       <c r="G68" s="188"/>
-      <c r="H68" s="366"/>
+      <c r="H68" s="404"/>
       <c r="I68" s="188"/>
       <c r="J68" s="188"/>
       <c r="K68" s="188"/>
       <c r="L68" s="188"/>
-      <c r="M68" s="366"/>
-      <c r="N68" s="368"/>
+      <c r="M68" s="404"/>
+      <c r="N68" s="406"/>
       <c r="P68" s="81"/>
       <c r="Q68" s="81"/>
       <c r="S68" s="69"/>
       <c r="T68" s="69"/>
     </row>
     <row customHeight="1" ht="24.95" r="69" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B69" s="365"/>
+      <c r="B69" s="403"/>
       <c r="C69" s="186"/>
       <c r="D69" s="188"/>
       <c r="E69" s="188"/>
       <c r="F69" s="188"/>
       <c r="G69" s="188"/>
-      <c r="H69" s="366"/>
+      <c r="H69" s="404"/>
       <c r="I69" s="188"/>
       <c r="J69" s="188"/>
       <c r="K69" s="188"/>
       <c r="L69" s="188"/>
-      <c r="M69" s="366"/>
-      <c r="N69" s="368"/>
+      <c r="M69" s="404"/>
+      <c r="N69" s="406"/>
       <c r="P69" s="81"/>
       <c r="Q69" s="81"/>
       <c r="S69" s="69"/>
       <c r="T69" s="69"/>
     </row>
     <row customHeight="1" ht="24.95" r="70" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B70" s="365"/>
+      <c r="B70" s="403"/>
       <c r="C70" s="186"/>
       <c r="D70" s="188"/>
       <c r="E70" s="188"/>
       <c r="F70" s="188"/>
       <c r="G70" s="188"/>
-      <c r="H70" s="366"/>
+      <c r="H70" s="404"/>
       <c r="I70" s="188"/>
       <c r="J70" s="188"/>
       <c r="K70" s="188"/>
       <c r="L70" s="188"/>
-      <c r="M70" s="366"/>
-      <c r="N70" s="367"/>
+      <c r="M70" s="404"/>
+      <c r="N70" s="405"/>
       <c r="P70" s="81"/>
       <c r="Q70" s="81"/>
       <c r="S70" s="69"/>
       <c r="T70" s="69"/>
     </row>
     <row customHeight="1" ht="24.95" r="71" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B71" s="365"/>
+      <c r="B71" s="403"/>
       <c r="C71" s="186"/>
       <c r="D71" s="188"/>
       <c r="E71" s="188"/>
       <c r="F71" s="188"/>
       <c r="G71" s="188"/>
-      <c r="H71" s="366"/>
+      <c r="H71" s="404"/>
       <c r="I71" s="188"/>
       <c r="J71" s="188"/>
       <c r="K71" s="188"/>
       <c r="L71" s="188"/>
-      <c r="M71" s="366"/>
-      <c r="N71" s="368"/>
+      <c r="M71" s="404"/>
+      <c r="N71" s="406"/>
       <c r="P71" s="81"/>
       <c r="Q71" s="81"/>
       <c r="S71" s="69"/>
       <c r="T71" s="69"/>
     </row>
     <row customHeight="1" ht="24.95" r="72" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B72" s="365"/>
+      <c r="B72" s="403"/>
       <c r="C72" s="186"/>
       <c r="D72" s="188"/>
       <c r="E72" s="188"/>
       <c r="F72" s="188"/>
       <c r="G72" s="188"/>
-      <c r="H72" s="366"/>
+      <c r="H72" s="404"/>
       <c r="I72" s="188"/>
       <c r="J72" s="188"/>
       <c r="K72" s="188"/>
       <c r="L72" s="188"/>
-      <c r="M72" s="366"/>
-      <c r="N72" s="368"/>
+      <c r="M72" s="404"/>
+      <c r="N72" s="406"/>
       <c r="P72" s="81"/>
       <c r="Q72" s="81"/>
       <c r="S72" s="69"/>
       <c r="T72" s="69"/>
     </row>
     <row customHeight="1" ht="24.95" r="73" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B73" s="365"/>
+      <c r="B73" s="403"/>
       <c r="C73" s="186"/>
       <c r="D73" s="188"/>
       <c r="E73" s="188"/>
       <c r="F73" s="188"/>
       <c r="G73" s="188"/>
-      <c r="H73" s="366"/>
+      <c r="H73" s="404"/>
       <c r="I73" s="188"/>
       <c r="J73" s="188"/>
       <c r="K73" s="188"/>
       <c r="L73" s="188"/>
-      <c r="M73" s="366"/>
-      <c r="N73" s="368"/>
+      <c r="M73" s="404"/>
+      <c r="N73" s="406"/>
       <c r="P73" s="81"/>
       <c r="Q73" s="81"/>
       <c r="S73" s="69"/>
@@ -9693,23 +9744,57 @@
     <row customHeight="1" ht="30" r="140" spans="2:22" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="U9:U12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="M9:M12"/>
-    <mergeCell ref="N9:N12"/>
-    <mergeCell ref="O9:O12"/>
-    <mergeCell ref="P9:P12"/>
-    <mergeCell ref="Q13:Q16"/>
-    <mergeCell ref="Q9:Q12"/>
-    <mergeCell ref="R9:R12"/>
-    <mergeCell ref="S9:S12"/>
-    <mergeCell ref="T9:T12"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="H70:H73"/>
+    <mergeCell ref="M70:M73"/>
+    <mergeCell ref="N70:N73"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="H62:H65"/>
+    <mergeCell ref="M62:M65"/>
+    <mergeCell ref="N62:N65"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="H66:H69"/>
+    <mergeCell ref="M66:M69"/>
+    <mergeCell ref="N66:N69"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="H54:H57"/>
+    <mergeCell ref="M54:M57"/>
+    <mergeCell ref="N54:N57"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="H58:H61"/>
+    <mergeCell ref="M58:M61"/>
+    <mergeCell ref="N58:N61"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="H46:H49"/>
+    <mergeCell ref="M46:M49"/>
+    <mergeCell ref="N46:N49"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="H50:H53"/>
+    <mergeCell ref="M50:M53"/>
+    <mergeCell ref="N50:N53"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="H42:H45"/>
+    <mergeCell ref="M42:M45"/>
+    <mergeCell ref="N42:N45"/>
+    <mergeCell ref="R21:R24"/>
+    <mergeCell ref="S21:S24"/>
+    <mergeCell ref="T21:T24"/>
+    <mergeCell ref="U21:U24"/>
+    <mergeCell ref="O21:O24"/>
+    <mergeCell ref="P21:P24"/>
+    <mergeCell ref="Q21:Q24"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="M21:M24"/>
+    <mergeCell ref="N21:N24"/>
+    <mergeCell ref="Q17:Q20"/>
+    <mergeCell ref="R17:R20"/>
+    <mergeCell ref="S17:S20"/>
+    <mergeCell ref="T17:T20"/>
+    <mergeCell ref="U17:U20"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="R13:R16"/>
     <mergeCell ref="S13:S16"/>
@@ -9726,57 +9811,23 @@
     <mergeCell ref="N13:N16"/>
     <mergeCell ref="O13:O16"/>
     <mergeCell ref="P13:P16"/>
-    <mergeCell ref="Q17:Q20"/>
-    <mergeCell ref="R17:R20"/>
-    <mergeCell ref="S17:S20"/>
-    <mergeCell ref="T17:T20"/>
-    <mergeCell ref="U17:U20"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="M21:M24"/>
-    <mergeCell ref="N21:N24"/>
-    <mergeCell ref="N42:N45"/>
-    <mergeCell ref="R21:R24"/>
-    <mergeCell ref="S21:S24"/>
-    <mergeCell ref="T21:T24"/>
-    <mergeCell ref="U21:U24"/>
-    <mergeCell ref="O21:O24"/>
-    <mergeCell ref="P21:P24"/>
-    <mergeCell ref="Q21:Q24"/>
-    <mergeCell ref="D40:H40"/>
-    <mergeCell ref="I40:L40"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="H42:H45"/>
-    <mergeCell ref="M42:M45"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="H46:H49"/>
-    <mergeCell ref="M46:M49"/>
-    <mergeCell ref="N46:N49"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="H50:H53"/>
-    <mergeCell ref="M50:M53"/>
-    <mergeCell ref="N50:N53"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="H54:H57"/>
-    <mergeCell ref="M54:M57"/>
-    <mergeCell ref="N54:N57"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="H58:H61"/>
-    <mergeCell ref="M58:M61"/>
-    <mergeCell ref="N58:N61"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="H70:H73"/>
-    <mergeCell ref="M70:M73"/>
-    <mergeCell ref="N70:N73"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="H62:H65"/>
-    <mergeCell ref="M62:M65"/>
-    <mergeCell ref="N62:N65"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="H66:H69"/>
-    <mergeCell ref="M66:M69"/>
-    <mergeCell ref="N66:N69"/>
+    <mergeCell ref="Q13:Q16"/>
+    <mergeCell ref="Q9:Q12"/>
+    <mergeCell ref="R9:R12"/>
+    <mergeCell ref="S9:S12"/>
+    <mergeCell ref="T9:T12"/>
+    <mergeCell ref="U9:U12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="M9:M12"/>
+    <mergeCell ref="N9:N12"/>
+    <mergeCell ref="O9:O12"/>
+    <mergeCell ref="P9:P12"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="N9 N13 N17 N21" type="list">
@@ -9794,7 +9845,7 @@
   <dimension ref="A1:AV434"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0" zoomScale="50" zoomScaleNormal="50">
-      <selection activeCell="D42" sqref="D42:N54"/>
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -9842,15 +9893,15 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="39" r="1" spans="1:47" x14ac:dyDescent="0.5">
-      <c r="F1" s="403" t="s">
+      <c r="F1" s="368" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="403"/>
-      <c r="H1" s="403"/>
-      <c r="I1" s="403"/>
-      <c r="J1" s="403"/>
-      <c r="K1" s="403"/>
-      <c r="L1" s="403"/>
+      <c r="G1" s="368"/>
+      <c r="H1" s="368"/>
+      <c r="I1" s="368"/>
+      <c r="J1" s="368"/>
+      <c r="K1" s="368"/>
+      <c r="L1" s="368"/>
       <c r="U1" s="22" t="s">
         <v>62</v>
       </c>
@@ -9899,22 +9950,22 @@
       <c r="L5" s="23"/>
     </row>
     <row customHeight="1" ht="36.75" r="6" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="D6" s="404" t="s">
+      <c r="D6" s="369" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="405"/>
-      <c r="F6" s="405"/>
-      <c r="G6" s="405"/>
-      <c r="H6" s="406"/>
+      <c r="E6" s="370"/>
+      <c r="F6" s="370"/>
+      <c r="G6" s="370"/>
+      <c r="H6" s="371"/>
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
-      <c r="M6" s="404" t="s">
+      <c r="M6" s="369" t="s">
         <v>66</v>
       </c>
-      <c r="N6" s="405"/>
-      <c r="O6" s="405"/>
-      <c r="P6" s="405"/>
-      <c r="Q6" s="406"/>
+      <c r="N6" s="370"/>
+      <c r="O6" s="370"/>
+      <c r="P6" s="370"/>
+      <c r="Q6" s="371"/>
     </row>
     <row customHeight="1" ht="76.5" r="7" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A7" s="24" t="s">
@@ -9932,10 +9983,10 @@
       <c r="E7" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="407" t="s">
+      <c r="F7" s="372" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="408"/>
+      <c r="G7" s="373"/>
       <c r="H7" s="24" t="s">
         <v>73</v>
       </c>
@@ -9958,10 +10009,10 @@
         <v>79</v>
       </c>
       <c r="O7" s="29"/>
-      <c r="P7" s="407" t="s">
+      <c r="P7" s="372" t="s">
         <v>80</v>
       </c>
-      <c r="Q7" s="408"/>
+      <c r="Q7" s="373"/>
       <c r="R7" s="30" t="s">
         <v>74</v>
       </c>
@@ -10029,7 +10080,7 @@
     </row>
     <row customHeight="1" ht="24.95" r="9" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A9" s="39"/>
-      <c r="B9" s="395"/>
+      <c r="B9" s="374"/>
       <c r="C9" s="40"/>
       <c r="D9" s="40"/>
       <c r="E9" s="40"/>
@@ -10040,15 +10091,15 @@
       <c r="J9" s="36"/>
       <c r="K9" s="36"/>
       <c r="L9" s="42"/>
-      <c r="M9" s="386"/>
-      <c r="N9" s="398"/>
-      <c r="O9" s="386"/>
-      <c r="P9" s="386"/>
-      <c r="Q9" s="386"/>
-      <c r="R9" s="386"/>
-      <c r="S9" s="386"/>
-      <c r="T9" s="389"/>
-      <c r="U9" s="386"/>
+      <c r="M9" s="365"/>
+      <c r="N9" s="377"/>
+      <c r="O9" s="365"/>
+      <c r="P9" s="365"/>
+      <c r="Q9" s="365"/>
+      <c r="R9" s="365"/>
+      <c r="S9" s="365"/>
+      <c r="T9" s="380"/>
+      <c r="U9" s="365"/>
       <c r="V9" s="41"/>
       <c r="W9" s="36"/>
       <c r="X9" s="36"/>
@@ -10058,7 +10109,7 @@
     </row>
     <row customHeight="1" ht="24.95" r="10" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A10" s="40"/>
-      <c r="B10" s="396"/>
+      <c r="B10" s="375"/>
       <c r="C10" s="40"/>
       <c r="D10" s="40"/>
       <c r="E10" s="40"/>
@@ -10069,15 +10120,15 @@
       <c r="J10" s="36"/>
       <c r="K10" s="36"/>
       <c r="L10" s="42"/>
-      <c r="M10" s="387"/>
-      <c r="N10" s="399"/>
-      <c r="O10" s="387"/>
-      <c r="P10" s="387"/>
-      <c r="Q10" s="387"/>
-      <c r="R10" s="387"/>
-      <c r="S10" s="387"/>
-      <c r="T10" s="390"/>
-      <c r="U10" s="387"/>
+      <c r="M10" s="366"/>
+      <c r="N10" s="378"/>
+      <c r="O10" s="366"/>
+      <c r="P10" s="366"/>
+      <c r="Q10" s="366"/>
+      <c r="R10" s="366"/>
+      <c r="S10" s="366"/>
+      <c r="T10" s="381"/>
+      <c r="U10" s="366"/>
       <c r="V10" s="41"/>
       <c r="W10" s="36"/>
       <c r="X10" s="36"/>
@@ -10085,8 +10136,8 @@
       <c r="AK10" s="46"/>
     </row>
     <row customHeight="1" ht="24.95" r="11" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A11" s="386"/>
-      <c r="B11" s="396"/>
+      <c r="A11" s="365"/>
+      <c r="B11" s="375"/>
       <c r="C11" s="40"/>
       <c r="D11" s="40"/>
       <c r="E11" s="40"/>
@@ -10097,15 +10148,15 @@
       <c r="J11" s="36"/>
       <c r="K11" s="36"/>
       <c r="L11" s="42"/>
-      <c r="M11" s="387"/>
-      <c r="N11" s="399"/>
-      <c r="O11" s="387"/>
-      <c r="P11" s="387"/>
-      <c r="Q11" s="387"/>
-      <c r="R11" s="387"/>
-      <c r="S11" s="387"/>
-      <c r="T11" s="390"/>
-      <c r="U11" s="387"/>
+      <c r="M11" s="366"/>
+      <c r="N11" s="378"/>
+      <c r="O11" s="366"/>
+      <c r="P11" s="366"/>
+      <c r="Q11" s="366"/>
+      <c r="R11" s="366"/>
+      <c r="S11" s="366"/>
+      <c r="T11" s="381"/>
+      <c r="U11" s="366"/>
       <c r="V11" s="41"/>
       <c r="W11" s="36"/>
       <c r="X11" s="36"/>
@@ -10115,8 +10166,8 @@
       <c r="AU11" s="65"/>
     </row>
     <row customHeight="1" ht="24.95" r="12" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A12" s="388"/>
-      <c r="B12" s="397"/>
+      <c r="A12" s="367"/>
+      <c r="B12" s="376"/>
       <c r="C12" s="40"/>
       <c r="D12" s="40"/>
       <c r="E12" s="40"/>
@@ -10127,15 +10178,15 @@
       <c r="J12" s="36"/>
       <c r="K12" s="36"/>
       <c r="L12" s="42"/>
-      <c r="M12" s="388"/>
-      <c r="N12" s="400"/>
-      <c r="O12" s="388"/>
-      <c r="P12" s="388"/>
-      <c r="Q12" s="388"/>
-      <c r="R12" s="388"/>
-      <c r="S12" s="388"/>
-      <c r="T12" s="391"/>
-      <c r="U12" s="388"/>
+      <c r="M12" s="367"/>
+      <c r="N12" s="379"/>
+      <c r="O12" s="367"/>
+      <c r="P12" s="367"/>
+      <c r="Q12" s="367"/>
+      <c r="R12" s="367"/>
+      <c r="S12" s="367"/>
+      <c r="T12" s="382"/>
+      <c r="U12" s="367"/>
       <c r="V12" s="41"/>
       <c r="W12" s="36"/>
       <c r="X12" s="36"/>
@@ -10144,7 +10195,7 @@
     </row>
     <row customHeight="1" ht="24.95" r="13" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A13" s="43"/>
-      <c r="B13" s="395"/>
+      <c r="B13" s="374"/>
       <c r="C13" s="40"/>
       <c r="D13" s="40"/>
       <c r="E13" s="40"/>
@@ -10155,15 +10206,15 @@
       <c r="J13" s="36"/>
       <c r="K13" s="36"/>
       <c r="L13" s="42"/>
-      <c r="M13" s="386"/>
-      <c r="N13" s="398"/>
-      <c r="O13" s="386"/>
-      <c r="P13" s="386"/>
-      <c r="Q13" s="386"/>
-      <c r="R13" s="386"/>
-      <c r="S13" s="386"/>
-      <c r="T13" s="389"/>
-      <c r="U13" s="386"/>
+      <c r="M13" s="365"/>
+      <c r="N13" s="377"/>
+      <c r="O13" s="365"/>
+      <c r="P13" s="365"/>
+      <c r="Q13" s="365"/>
+      <c r="R13" s="365"/>
+      <c r="S13" s="365"/>
+      <c r="T13" s="380"/>
+      <c r="U13" s="365"/>
       <c r="V13" s="41"/>
       <c r="W13" s="36"/>
       <c r="X13" s="36"/>
@@ -10172,7 +10223,7 @@
     </row>
     <row customHeight="1" ht="24.95" r="14" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A14" s="44"/>
-      <c r="B14" s="396"/>
+      <c r="B14" s="375"/>
       <c r="C14" s="40"/>
       <c r="D14" s="40"/>
       <c r="E14" s="40"/>
@@ -10183,15 +10234,15 @@
       <c r="J14" s="36"/>
       <c r="K14" s="36"/>
       <c r="L14" s="42"/>
-      <c r="M14" s="387"/>
-      <c r="N14" s="399"/>
-      <c r="O14" s="387"/>
-      <c r="P14" s="387"/>
-      <c r="Q14" s="387"/>
-      <c r="R14" s="387"/>
-      <c r="S14" s="387"/>
-      <c r="T14" s="390"/>
-      <c r="U14" s="387"/>
+      <c r="M14" s="366"/>
+      <c r="N14" s="378"/>
+      <c r="O14" s="366"/>
+      <c r="P14" s="366"/>
+      <c r="Q14" s="366"/>
+      <c r="R14" s="366"/>
+      <c r="S14" s="366"/>
+      <c r="T14" s="381"/>
+      <c r="U14" s="366"/>
       <c r="V14" s="41"/>
       <c r="W14" s="36"/>
       <c r="X14" s="36"/>
@@ -10199,8 +10250,8 @@
       <c r="AT14" s="70"/>
     </row>
     <row customHeight="1" ht="24.95" r="15" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A15" s="401"/>
-      <c r="B15" s="396"/>
+      <c r="A15" s="383"/>
+      <c r="B15" s="375"/>
       <c r="C15" s="40"/>
       <c r="D15" s="40"/>
       <c r="E15" s="40"/>
@@ -10211,15 +10262,15 @@
       <c r="J15" s="36"/>
       <c r="K15" s="36"/>
       <c r="L15" s="42"/>
-      <c r="M15" s="387"/>
-      <c r="N15" s="399"/>
-      <c r="O15" s="387"/>
-      <c r="P15" s="387"/>
-      <c r="Q15" s="387"/>
-      <c r="R15" s="387"/>
-      <c r="S15" s="387"/>
-      <c r="T15" s="390"/>
-      <c r="U15" s="387"/>
+      <c r="M15" s="366"/>
+      <c r="N15" s="378"/>
+      <c r="O15" s="366"/>
+      <c r="P15" s="366"/>
+      <c r="Q15" s="366"/>
+      <c r="R15" s="366"/>
+      <c r="S15" s="366"/>
+      <c r="T15" s="381"/>
+      <c r="U15" s="366"/>
       <c r="V15" s="41"/>
       <c r="W15" s="36"/>
       <c r="X15" s="36"/>
@@ -10227,8 +10278,8 @@
       <c r="AT15" s="46"/>
     </row>
     <row customHeight="1" ht="24.95" r="16" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A16" s="402"/>
-      <c r="B16" s="397"/>
+      <c r="A16" s="384"/>
+      <c r="B16" s="376"/>
       <c r="C16" s="40"/>
       <c r="D16" s="40"/>
       <c r="E16" s="40"/>
@@ -10239,15 +10290,15 @@
       <c r="J16" s="36"/>
       <c r="K16" s="36"/>
       <c r="L16" s="42"/>
-      <c r="M16" s="388"/>
-      <c r="N16" s="400"/>
-      <c r="O16" s="388"/>
-      <c r="P16" s="388"/>
-      <c r="Q16" s="388"/>
-      <c r="R16" s="388"/>
-      <c r="S16" s="388"/>
-      <c r="T16" s="391"/>
-      <c r="U16" s="388"/>
+      <c r="M16" s="367"/>
+      <c r="N16" s="379"/>
+      <c r="O16" s="367"/>
+      <c r="P16" s="367"/>
+      <c r="Q16" s="367"/>
+      <c r="R16" s="367"/>
+      <c r="S16" s="367"/>
+      <c r="T16" s="382"/>
+      <c r="U16" s="367"/>
       <c r="V16" s="41"/>
       <c r="W16" s="36"/>
       <c r="X16" s="36"/>
@@ -10256,7 +10307,7 @@
     </row>
     <row customHeight="1" ht="24.95" r="17" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A17" s="39"/>
-      <c r="B17" s="395"/>
+      <c r="B17" s="374"/>
       <c r="C17" s="40"/>
       <c r="D17" s="40"/>
       <c r="E17" s="40"/>
@@ -10267,15 +10318,15 @@
       <c r="J17" s="36"/>
       <c r="K17" s="36"/>
       <c r="L17" s="42"/>
-      <c r="M17" s="386"/>
-      <c r="N17" s="398"/>
-      <c r="O17" s="386"/>
-      <c r="P17" s="386"/>
-      <c r="Q17" s="386"/>
-      <c r="R17" s="386"/>
-      <c r="S17" s="386"/>
-      <c r="T17" s="389"/>
-      <c r="U17" s="386"/>
+      <c r="M17" s="365"/>
+      <c r="N17" s="377"/>
+      <c r="O17" s="365"/>
+      <c r="P17" s="365"/>
+      <c r="Q17" s="365"/>
+      <c r="R17" s="365"/>
+      <c r="S17" s="365"/>
+      <c r="T17" s="380"/>
+      <c r="U17" s="365"/>
       <c r="V17" s="41"/>
       <c r="W17" s="36"/>
       <c r="X17" s="36"/>
@@ -10284,7 +10335,7 @@
     </row>
     <row customHeight="1" ht="24.95" r="18" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A18" s="40"/>
-      <c r="B18" s="396"/>
+      <c r="B18" s="375"/>
       <c r="C18" s="40"/>
       <c r="D18" s="40"/>
       <c r="E18" s="40"/>
@@ -10295,22 +10346,22 @@
       <c r="J18" s="36"/>
       <c r="K18" s="36"/>
       <c r="L18" s="42"/>
-      <c r="M18" s="387"/>
-      <c r="N18" s="399"/>
-      <c r="O18" s="387"/>
-      <c r="P18" s="387"/>
-      <c r="Q18" s="387"/>
-      <c r="R18" s="387"/>
-      <c r="S18" s="387"/>
-      <c r="T18" s="390"/>
-      <c r="U18" s="387"/>
+      <c r="M18" s="366"/>
+      <c r="N18" s="378"/>
+      <c r="O18" s="366"/>
+      <c r="P18" s="366"/>
+      <c r="Q18" s="366"/>
+      <c r="R18" s="366"/>
+      <c r="S18" s="366"/>
+      <c r="T18" s="381"/>
+      <c r="U18" s="366"/>
       <c r="V18" s="41"/>
       <c r="W18" s="36"/>
       <c r="X18" s="36"/>
     </row>
     <row customHeight="1" ht="24.95" r="19" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A19" s="386"/>
-      <c r="B19" s="396"/>
+      <c r="A19" s="365"/>
+      <c r="B19" s="375"/>
       <c r="C19" s="40"/>
       <c r="D19" s="40"/>
       <c r="E19" s="40"/>
@@ -10321,22 +10372,22 @@
       <c r="J19" s="36"/>
       <c r="K19" s="36"/>
       <c r="L19" s="42"/>
-      <c r="M19" s="387"/>
-      <c r="N19" s="399"/>
-      <c r="O19" s="387"/>
-      <c r="P19" s="387"/>
-      <c r="Q19" s="387"/>
-      <c r="R19" s="387"/>
-      <c r="S19" s="387"/>
-      <c r="T19" s="390"/>
-      <c r="U19" s="387"/>
+      <c r="M19" s="366"/>
+      <c r="N19" s="378"/>
+      <c r="O19" s="366"/>
+      <c r="P19" s="366"/>
+      <c r="Q19" s="366"/>
+      <c r="R19" s="366"/>
+      <c r="S19" s="366"/>
+      <c r="T19" s="381"/>
+      <c r="U19" s="366"/>
       <c r="V19" s="41"/>
       <c r="W19" s="36"/>
       <c r="X19" s="36"/>
     </row>
     <row customHeight="1" ht="24.95" r="20" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A20" s="388"/>
-      <c r="B20" s="397"/>
+      <c r="A20" s="367"/>
+      <c r="B20" s="376"/>
       <c r="C20" s="40"/>
       <c r="D20" s="40"/>
       <c r="E20" s="40"/>
@@ -10347,22 +10398,22 @@
       <c r="J20" s="36"/>
       <c r="K20" s="36"/>
       <c r="L20" s="42"/>
-      <c r="M20" s="388"/>
-      <c r="N20" s="400"/>
-      <c r="O20" s="388"/>
-      <c r="P20" s="388"/>
-      <c r="Q20" s="388"/>
-      <c r="R20" s="388"/>
-      <c r="S20" s="388"/>
-      <c r="T20" s="391"/>
-      <c r="U20" s="388"/>
+      <c r="M20" s="367"/>
+      <c r="N20" s="379"/>
+      <c r="O20" s="367"/>
+      <c r="P20" s="367"/>
+      <c r="Q20" s="367"/>
+      <c r="R20" s="367"/>
+      <c r="S20" s="367"/>
+      <c r="T20" s="382"/>
+      <c r="U20" s="367"/>
       <c r="V20" s="41"/>
       <c r="W20" s="36"/>
       <c r="X20" s="36"/>
     </row>
     <row customHeight="1" ht="24.95" r="21" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A21" s="39"/>
-      <c r="B21" s="395"/>
+      <c r="B21" s="374"/>
       <c r="C21" s="40"/>
       <c r="D21" s="40"/>
       <c r="E21" s="40"/>
@@ -10373,22 +10424,22 @@
       <c r="J21" s="36"/>
       <c r="K21" s="36"/>
       <c r="L21" s="42"/>
-      <c r="M21" s="386"/>
-      <c r="N21" s="398"/>
-      <c r="O21" s="386"/>
-      <c r="P21" s="386"/>
-      <c r="Q21" s="386"/>
-      <c r="R21" s="386"/>
-      <c r="S21" s="386"/>
-      <c r="T21" s="389"/>
-      <c r="U21" s="386"/>
+      <c r="M21" s="365"/>
+      <c r="N21" s="377"/>
+      <c r="O21" s="365"/>
+      <c r="P21" s="365"/>
+      <c r="Q21" s="365"/>
+      <c r="R21" s="365"/>
+      <c r="S21" s="365"/>
+      <c r="T21" s="380"/>
+      <c r="U21" s="365"/>
       <c r="V21" s="41"/>
       <c r="W21" s="36"/>
       <c r="X21" s="36"/>
     </row>
     <row customHeight="1" ht="24.95" r="22" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A22" s="40"/>
-      <c r="B22" s="396"/>
+      <c r="B22" s="375"/>
       <c r="C22" s="40"/>
       <c r="D22" s="40"/>
       <c r="E22" s="40"/>
@@ -10399,22 +10450,22 @@
       <c r="J22" s="36"/>
       <c r="K22" s="36"/>
       <c r="L22" s="42"/>
-      <c r="M22" s="387"/>
-      <c r="N22" s="399"/>
-      <c r="O22" s="387"/>
-      <c r="P22" s="387"/>
-      <c r="Q22" s="387"/>
-      <c r="R22" s="387"/>
-      <c r="S22" s="387"/>
-      <c r="T22" s="390"/>
-      <c r="U22" s="387"/>
+      <c r="M22" s="366"/>
+      <c r="N22" s="378"/>
+      <c r="O22" s="366"/>
+      <c r="P22" s="366"/>
+      <c r="Q22" s="366"/>
+      <c r="R22" s="366"/>
+      <c r="S22" s="366"/>
+      <c r="T22" s="381"/>
+      <c r="U22" s="366"/>
       <c r="V22" s="41"/>
       <c r="W22" s="36"/>
       <c r="X22" s="36"/>
     </row>
     <row customHeight="1" ht="24.95" r="23" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A23" s="392"/>
-      <c r="B23" s="396"/>
+      <c r="A23" s="385"/>
+      <c r="B23" s="375"/>
       <c r="C23" s="40"/>
       <c r="D23" s="40"/>
       <c r="E23" s="40"/>
@@ -10425,22 +10476,22 @@
       <c r="J23" s="36"/>
       <c r="K23" s="36"/>
       <c r="L23" s="42"/>
-      <c r="M23" s="387"/>
-      <c r="N23" s="399"/>
-      <c r="O23" s="387"/>
-      <c r="P23" s="387"/>
-      <c r="Q23" s="387"/>
-      <c r="R23" s="387"/>
-      <c r="S23" s="387"/>
-      <c r="T23" s="390"/>
-      <c r="U23" s="387"/>
+      <c r="M23" s="366"/>
+      <c r="N23" s="378"/>
+      <c r="O23" s="366"/>
+      <c r="P23" s="366"/>
+      <c r="Q23" s="366"/>
+      <c r="R23" s="366"/>
+      <c r="S23" s="366"/>
+      <c r="T23" s="381"/>
+      <c r="U23" s="366"/>
       <c r="V23" s="41"/>
       <c r="W23" s="36"/>
       <c r="X23" s="36"/>
     </row>
     <row customHeight="1" ht="24.95" r="24" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A24" s="393"/>
-      <c r="B24" s="397"/>
+      <c r="A24" s="386"/>
+      <c r="B24" s="376"/>
       <c r="C24" s="40"/>
       <c r="D24" s="40"/>
       <c r="E24" s="40"/>
@@ -10451,15 +10502,15 @@
       <c r="J24" s="36"/>
       <c r="K24" s="36"/>
       <c r="L24" s="42"/>
-      <c r="M24" s="388"/>
-      <c r="N24" s="400"/>
-      <c r="O24" s="388"/>
-      <c r="P24" s="388"/>
-      <c r="Q24" s="388"/>
-      <c r="R24" s="388"/>
-      <c r="S24" s="388"/>
-      <c r="T24" s="391"/>
-      <c r="U24" s="388"/>
+      <c r="M24" s="367"/>
+      <c r="N24" s="379"/>
+      <c r="O24" s="367"/>
+      <c r="P24" s="367"/>
+      <c r="Q24" s="367"/>
+      <c r="R24" s="367"/>
+      <c r="S24" s="367"/>
+      <c r="T24" s="382"/>
+      <c r="U24" s="367"/>
       <c r="V24" s="41"/>
       <c r="W24" s="36"/>
       <c r="X24" s="36"/>
@@ -10925,7 +10976,7 @@
         <v>93</v>
       </c>
       <c r="D42" s="34" t="s">
-        <v>93</v>
+        <v>250</v>
       </c>
       <c r="E42" s="34" t="s">
         <v>99</v>
@@ -10960,7 +11011,7 @@
       <c r="O42" s="64"/>
       <c r="P42" s="232"/>
       <c r="Q42" s="246" t="s">
-        <v>93</v>
+        <v>250</v>
       </c>
       <c r="R42" s="247" t="s">
         <v>222</v>
@@ -10996,7 +11047,7 @@
       </c>
       <c r="AD42" s="64"/>
       <c r="AE42" s="50" t="s">
-        <v>93</v>
+        <v>250</v>
       </c>
       <c r="AF42" s="50" t="s">
         <v>241</v>
@@ -11058,7 +11109,7 @@
       <c r="O43" s="64"/>
       <c r="P43" s="232"/>
       <c r="Q43" s="246" t="s">
-        <v>93</v>
+        <v>250</v>
       </c>
       <c r="R43" s="247" t="s">
         <v>223</v>
@@ -11094,7 +11145,7 @@
       </c>
       <c r="AD43" s="64"/>
       <c r="AE43" s="50" t="s">
-        <v>93</v>
+        <v>250</v>
       </c>
       <c r="AF43" s="50" t="s">
         <v>242</v>
@@ -11156,7 +11207,7 @@
       <c r="O44" s="64"/>
       <c r="P44" s="232"/>
       <c r="Q44" s="246" t="s">
-        <v>93</v>
+        <v>250</v>
       </c>
       <c r="R44" s="247" t="s">
         <v>224</v>
@@ -11211,22 +11262,22 @@
         <v>106</v>
       </c>
       <c r="D45" s="34" t="s">
-        <v>99</v>
+        <v>251</v>
       </c>
       <c r="E45" s="34" t="s">
         <v>93</v>
       </c>
       <c r="F45" s="286" t="n">
-        <v>0.04000000189989805</v>
+        <v>0.035000001662410796</v>
       </c>
       <c r="G45" s="286" t="n">
-        <v>4.000000189989805E-4</v>
+        <v>3.5000001662410796E-4</v>
       </c>
       <c r="H45" s="287" t="n">
-        <v>240.0000113993883</v>
+        <v>210.00000997446477</v>
       </c>
       <c r="I45" s="287" t="n">
-        <v>0.001500000071246177</v>
+        <v>0.004</v>
       </c>
       <c r="J45" s="287" t="s">
         <v>240</v>
@@ -11258,7 +11309,7 @@
       <c r="AC45" s="50"/>
       <c r="AD45" s="64"/>
       <c r="AE45" s="50" t="s">
-        <v>99</v>
+        <v>251</v>
       </c>
       <c r="AF45" s="50" t="s">
         <v>244</v>
@@ -11267,7 +11318,7 @@
         <v>25.0</v>
       </c>
       <c r="AH45" s="50" t="n">
-        <v>0.006029411684721708</v>
+        <v>0.03280000388622284</v>
       </c>
       <c r="AI45" s="50" t="s">
         <v>240</v>
@@ -11289,16 +11340,16 @@
         <v>103</v>
       </c>
       <c r="F46" s="286" t="n">
-        <v>0.04000000189989805</v>
+        <v>0.035000001662410796</v>
       </c>
       <c r="G46" s="286" t="n">
-        <v>1.6666667458290854E-4</v>
+        <v>1.45833340260045E-4</v>
       </c>
       <c r="H46" s="287" t="n">
-        <v>125.00000593718141</v>
+        <v>109.37500519503374</v>
       </c>
       <c r="I46" s="287" t="n">
-        <v>7.352941525716553E-4</v>
+        <v>0.004</v>
       </c>
       <c r="J46" s="287" t="n">
         <v>0.04000000283122063</v>
@@ -11313,12 +11364,12 @@
         <v>7.35294190235436E-4</v>
       </c>
       <c r="N46" s="430" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="O46" s="64"/>
       <c r="P46" s="232"/>
       <c r="Q46" s="246" t="s">
-        <v>99</v>
+        <v>251</v>
       </c>
       <c r="R46" s="247" t="s">
         <v>222</v>
@@ -11336,10 +11387,10 @@
         <v>25.0</v>
       </c>
       <c r="W46" s="247" t="n">
-        <v>0.0073529413202777505</v>
+        <v>0.04000000189989805</v>
       </c>
       <c r="X46" s="247" t="n">
-        <v>6.68449210934341E-4</v>
+        <v>0.003636363809081641</v>
       </c>
       <c r="Y46" s="248"/>
       <c r="Z46" s="247" t="n">
@@ -11350,11 +11401,11 @@
       </c>
       <c r="AB46" s="282"/>
       <c r="AC46" s="431" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AD46" s="64"/>
       <c r="AE46" s="50" t="s">
-        <v>99</v>
+        <v>251</v>
       </c>
       <c r="AF46" s="50" t="s">
         <v>245</v>
@@ -11363,7 +11414,7 @@
         <v>25.0</v>
       </c>
       <c r="AH46" s="50" t="n">
-        <v>0.004455882590264082</v>
+        <v>0.024240000173449516</v>
       </c>
       <c r="AI46" s="50" t="s">
         <v>240</v>
@@ -11385,16 +11436,16 @@
         <v>106</v>
       </c>
       <c r="F47" s="286" t="n">
-        <v>0.04000000189989805</v>
+        <v>0.035000001662410796</v>
       </c>
       <c r="G47" s="286" t="n">
-        <v>0.0010000000474974513</v>
+        <v>8.750000415602699E-4</v>
       </c>
       <c r="H47" s="286" t="n">
-        <v>900.0000427477062</v>
+        <v>787.5000374042429</v>
       </c>
       <c r="I47" s="286" t="n">
-        <v>0.005625000267173164</v>
+        <v>0.004</v>
       </c>
       <c r="J47" s="287" t="s">
         <v>240</v>
@@ -11411,7 +11462,7 @@
       <c r="N47" s="308"/>
       <c r="P47" s="218"/>
       <c r="Q47" s="244" t="s">
-        <v>99</v>
+        <v>251</v>
       </c>
       <c r="R47" s="248" t="s">
         <v>223</v>
@@ -11429,10 +11480,10 @@
         <v>25.0</v>
       </c>
       <c r="W47" s="248" t="n">
-        <v>0.0073529413202777505</v>
+        <v>0.04000000189989805</v>
       </c>
       <c r="X47" s="248" t="n">
-        <v>6.68449210934341E-4</v>
+        <v>0.003636363809081641</v>
       </c>
       <c r="Y47" s="248"/>
       <c r="Z47" s="248" t="n">
@@ -11443,7 +11494,7 @@
       </c>
       <c r="AB47" s="283"/>
       <c r="AC47" s="432" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AD47" s="23"/>
       <c r="AE47" s="72"/>
@@ -11462,22 +11513,22 @@
       <c r="A48" s="310"/>
       <c r="B48" s="310"/>
       <c r="D48" s="34" t="s">
-        <v>103</v>
+        <v>252</v>
       </c>
       <c r="E48" s="34" t="s">
         <v>93</v>
       </c>
       <c r="F48" s="286" t="n">
-        <v>0.025000001187436283</v>
+        <v>0.035000001662410796</v>
       </c>
       <c r="G48" s="286" t="n">
-        <v>2.500000118743628E-4</v>
+        <v>3.5000001662410796E-4</v>
       </c>
       <c r="H48" s="286" t="n">
-        <v>150.0000071246177</v>
+        <v>210.00000997446477</v>
       </c>
       <c r="I48" s="286" t="n">
-        <v>9.375000445288606E-4</v>
+        <v>0.004</v>
       </c>
       <c r="J48" s="287" t="s">
         <v>240</v>
@@ -11494,7 +11545,7 @@
       <c r="N48" s="308"/>
       <c r="P48" s="218"/>
       <c r="Q48" s="244" t="s">
-        <v>99</v>
+        <v>251</v>
       </c>
       <c r="R48" s="248" t="s">
         <v>224</v>
@@ -11512,10 +11563,10 @@
         <v>25.0</v>
       </c>
       <c r="W48" s="248" t="n">
-        <v>0.0073529413202777505</v>
+        <v>0.04000000189989805</v>
       </c>
       <c r="X48" s="248" t="n">
-        <v>6.68449210934341E-4</v>
+        <v>0.003636363809081641</v>
       </c>
       <c r="Y48" s="248"/>
       <c r="Z48" s="248" t="n">
@@ -11526,11 +11577,11 @@
       </c>
       <c r="AB48" s="283"/>
       <c r="AC48" s="433" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AD48" s="23"/>
       <c r="AE48" s="72" t="s">
-        <v>103</v>
+        <v>252</v>
       </c>
       <c r="AF48" s="36" t="s">
         <v>246</v>
@@ -11539,7 +11590,7 @@
         <v>25.0</v>
       </c>
       <c r="AH48" s="50" t="n">
-        <v>0.004666666965931654</v>
+        <v>0.02720000222325325</v>
       </c>
       <c r="AI48" s="36" t="s">
         <v>240</v>
@@ -11561,16 +11612,16 @@
         <v>99</v>
       </c>
       <c r="F49" s="286" t="n">
-        <v>0.025000001187436283</v>
+        <v>0.035000001662410796</v>
       </c>
       <c r="G49" s="286" t="n">
-        <v>1.6666667458290854E-4</v>
+        <v>2.3333334441607198E-4</v>
       </c>
       <c r="H49" s="286" t="n">
-        <v>116.66667220803598</v>
+        <v>163.3333410912504</v>
       </c>
       <c r="I49" s="286" t="n">
-        <v>6.862745424002116E-4</v>
+        <v>0.004</v>
       </c>
       <c r="J49" s="287" t="n">
         <v>0.02500000037252903</v>
@@ -11585,11 +11636,11 @@
         <v>6.862744921818376E-4</v>
       </c>
       <c r="N49" s="438" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="P49" s="218"/>
       <c r="Q49" s="244" t="s">
-        <v>99</v>
+        <v>251</v>
       </c>
       <c r="R49" s="248" t="s">
         <v>225</v>
@@ -11607,10 +11658,10 @@
         <v>25.0</v>
       </c>
       <c r="W49" s="248" t="n">
-        <v>0.0073529413202777505</v>
+        <v>0.04000000189989805</v>
       </c>
       <c r="X49" s="248" t="n">
-        <v>6.68449210934341E-4</v>
+        <v>0.003636363809081641</v>
       </c>
       <c r="Y49" s="248"/>
       <c r="Z49" s="248" t="n">
@@ -11621,11 +11672,11 @@
       </c>
       <c r="AB49" s="283"/>
       <c r="AC49" s="434" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AD49" s="23"/>
       <c r="AE49" s="72" t="s">
-        <v>103</v>
+        <v>252</v>
       </c>
       <c r="AF49" s="36" t="s">
         <v>247</v>
@@ -11634,7 +11685,7 @@
         <v>25.0</v>
       </c>
       <c r="AH49" s="50" t="n">
-        <v>0.004158823750913143</v>
+        <v>0.024240000173449516</v>
       </c>
       <c r="AI49" s="36" t="s">
         <v>240</v>
@@ -11656,16 +11707,16 @@
         <v>106</v>
       </c>
       <c r="F50" s="286" t="n">
-        <v>0.025000001187436283</v>
+        <v>0.035000001662410796</v>
       </c>
       <c r="G50" s="286" t="n">
-        <v>6.250000296859071E-4</v>
+        <v>8.750000415602699E-4</v>
       </c>
       <c r="H50" s="286" t="n">
-        <v>562.5000267173164</v>
+        <v>787.5000374042429</v>
       </c>
       <c r="I50" s="286" t="n">
-        <v>0.0035156251669832272</v>
+        <v>0.004</v>
       </c>
       <c r="J50" s="286" t="s">
         <v>240</v>
@@ -11682,7 +11733,7 @@
       <c r="N50" s="308"/>
       <c r="P50" s="218"/>
       <c r="Q50" s="244" t="s">
-        <v>99</v>
+        <v>251</v>
       </c>
       <c r="R50" s="248" t="s">
         <v>243</v>
@@ -11700,10 +11751,10 @@
         <v>25.0</v>
       </c>
       <c r="W50" s="248" t="n">
-        <v>0.0073529413202777505</v>
+        <v>0.04000000189989805</v>
       </c>
       <c r="X50" s="247" t="n">
-        <v>6.68449210934341E-4</v>
+        <v>0.003636363809081641</v>
       </c>
       <c r="Y50" s="247"/>
       <c r="Z50" s="247" t="n">
@@ -11714,7 +11765,7 @@
       </c>
       <c r="AB50" s="282"/>
       <c r="AC50" s="435" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AD50" s="46"/>
       <c r="AE50" s="50"/>
@@ -11733,22 +11784,22 @@
       <c r="A51" s="310"/>
       <c r="B51" s="310"/>
       <c r="D51" s="34" t="s">
-        <v>106</v>
+        <v>253</v>
       </c>
       <c r="E51" s="34" t="s">
         <v>93</v>
       </c>
       <c r="F51" s="286" t="n">
-        <v>0.035000001662410796</v>
+        <v>0.050000002374872565</v>
       </c>
       <c r="G51" s="286" t="n">
-        <v>3.5000001662410796E-4</v>
+        <v>5.000000237487257E-4</v>
       </c>
       <c r="H51" s="286" t="n">
-        <v>210.00000997446477</v>
+        <v>300.0000142492354</v>
       </c>
       <c r="I51" s="286" t="n">
-        <v>0.0013003096592846116</v>
+        <v>0.004</v>
       </c>
       <c r="J51" s="286" t="s">
         <v>240</v>
@@ -11779,7 +11830,7 @@
       <c r="AC51" s="50"/>
       <c r="AD51" s="76"/>
       <c r="AE51" s="50" t="s">
-        <v>106</v>
+        <v>253</v>
       </c>
       <c r="AF51" s="50" t="s">
         <v>248</v>
@@ -11788,7 +11839,7 @@
         <v>25.0</v>
       </c>
       <c r="AH51" s="50" t="n">
-        <v>4.101562808500603E-5</v>
+        <v>2.400000230409205E-4</v>
       </c>
       <c r="AI51" s="36" t="s">
         <v>240</v>
@@ -11810,16 +11861,16 @@
         <v>99</v>
       </c>
       <c r="F52" s="286" t="n">
-        <v>0.035000001662410796</v>
+        <v>0.050000002374872565</v>
       </c>
       <c r="G52" s="286" t="n">
-        <v>2.3333334441607198E-4</v>
+        <v>3.333333491658171E-4</v>
       </c>
       <c r="H52" s="286" t="n">
-        <v>163.3333410912504</v>
+        <v>233.33334441607195</v>
       </c>
       <c r="I52" s="286" t="n">
-        <v>0.001020833381820315</v>
+        <v>0.004</v>
       </c>
       <c r="J52" s="286" t="s">
         <v>240</v>
@@ -11836,7 +11887,7 @@
       <c r="N52" s="308"/>
       <c r="P52" s="218"/>
       <c r="Q52" s="244" t="s">
-        <v>103</v>
+        <v>252</v>
       </c>
       <c r="R52" s="248" t="s">
         <v>222</v>
@@ -11854,10 +11905,10 @@
         <v>25.0</v>
       </c>
       <c r="W52" s="248" t="n">
-        <v>0.006862745503894985</v>
+        <v>0.04000000189989805</v>
       </c>
       <c r="X52" s="248" t="n">
-        <v>6.238859548995441E-4</v>
+        <v>0.003636363809081641</v>
       </c>
       <c r="Y52" s="248"/>
       <c r="Z52" s="248" t="n">
@@ -11868,11 +11919,11 @@
       </c>
       <c r="AB52" s="283"/>
       <c r="AC52" s="439" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AD52" s="23"/>
       <c r="AE52" s="36" t="s">
-        <v>106</v>
+        <v>253</v>
       </c>
       <c r="AF52" s="36" t="s">
         <v>249</v>
@@ -11881,7 +11932,7 @@
         <v>25.0</v>
       </c>
       <c r="AH52" s="50" t="n">
-        <v>0.0044160159304738045</v>
+        <v>0.025840003043413162</v>
       </c>
       <c r="AI52" s="36" t="s">
         <v>240</v>
@@ -11903,16 +11954,16 @@
         <v>103</v>
       </c>
       <c r="F53" s="286" t="n">
-        <v>0.035000001662410796</v>
+        <v>0.050000002374872565</v>
       </c>
       <c r="G53" s="286" t="n">
-        <v>1.45833340260045E-4</v>
+        <v>2.083333432286357E-4</v>
       </c>
       <c r="H53" s="286" t="n">
-        <v>109.37500519503374</v>
+        <v>156.25000742147677</v>
       </c>
       <c r="I53" s="286" t="n">
-        <v>6.835937824689609E-4</v>
+        <v>0.004</v>
       </c>
       <c r="J53" s="286" t="n">
         <v>0.03500000014901161</v>
@@ -11931,7 +11982,7 @@
       </c>
       <c r="P53" s="218"/>
       <c r="Q53" s="244" t="s">
-        <v>103</v>
+        <v>252</v>
       </c>
       <c r="R53" s="248" t="s">
         <v>223</v>
@@ -11949,10 +12000,10 @@
         <v>25.0</v>
       </c>
       <c r="W53" s="248" t="n">
-        <v>0.006862745503894985</v>
+        <v>0.04000000189989805</v>
       </c>
       <c r="X53" s="248" t="n">
-        <v>6.238859548995441E-4</v>
+        <v>0.003636363809081641</v>
       </c>
       <c r="Y53" s="248"/>
       <c r="Z53" s="248" t="n">
@@ -11963,7 +12014,7 @@
       </c>
       <c r="AB53" s="283"/>
       <c r="AC53" s="440" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AD53" s="23"/>
       <c r="AE53" s="36"/>
@@ -11981,20 +12032,40 @@
     <row customHeight="1" ht="24.95" r="54" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A54" s="310"/>
       <c r="B54" s="310"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="286"/>
-      <c r="G54" s="286"/>
-      <c r="H54" s="286"/>
-      <c r="I54" s="286"/>
-      <c r="J54" s="286"/>
-      <c r="K54" s="286"/>
-      <c r="L54" s="286"/>
-      <c r="M54" s="286"/>
+      <c r="D54" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="E54" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="F54" s="286" t="n">
+        <v>0.035000001662410796</v>
+      </c>
+      <c r="G54" s="286" t="n">
+        <v>3.5000001662410796E-4</v>
+      </c>
+      <c r="H54" s="286" t="n">
+        <v>210.00000997446477</v>
+      </c>
+      <c r="I54" s="286" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="J54" s="286" t="s">
+        <v>240</v>
+      </c>
+      <c r="K54" s="286" t="s">
+        <v>240</v>
+      </c>
+      <c r="L54" s="286" t="s">
+        <v>240</v>
+      </c>
+      <c r="M54" s="286" t="s">
+        <v>240</v>
+      </c>
       <c r="N54" s="308"/>
       <c r="P54" s="218"/>
       <c r="Q54" s="244" t="s">
-        <v>103</v>
+        <v>252</v>
       </c>
       <c r="R54" s="248" t="s">
         <v>224</v>
@@ -12012,10 +12083,10 @@
         <v>25.0</v>
       </c>
       <c r="W54" s="248" t="n">
-        <v>0.006862745503894985</v>
+        <v>0.04000000189989805</v>
       </c>
       <c r="X54" s="248" t="n">
-        <v>6.238859548995441E-4</v>
+        <v>0.003636363809081641</v>
       </c>
       <c r="Y54" s="248"/>
       <c r="Z54" s="248" t="n">
@@ -12026,15 +12097,27 @@
       </c>
       <c r="AB54" s="283"/>
       <c r="AC54" s="441" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AD54" s="23"/>
-      <c r="AE54" s="36"/>
-      <c r="AF54" s="36"/>
-      <c r="AG54" s="50"/>
-      <c r="AH54" s="50"/>
-      <c r="AI54" s="36"/>
-      <c r="AJ54" s="336"/>
+      <c r="AE54" s="36" t="s">
+        <v>254</v>
+      </c>
+      <c r="AF54" s="36" t="s">
+        <v>248</v>
+      </c>
+      <c r="AG54" s="50" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="AH54" s="50" t="n">
+        <v>2.400000230409205E-4</v>
+      </c>
+      <c r="AI54" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="AJ54" s="455" t="s">
+        <v>59</v>
+      </c>
       <c r="AK54" s="23"/>
       <c r="AL54" s="23"/>
       <c r="AM54" s="23"/>
@@ -12045,19 +12128,37 @@
       <c r="A55" s="310"/>
       <c r="B55" s="310"/>
       <c r="D55" s="34"/>
-      <c r="E55" s="34"/>
-      <c r="F55" s="286"/>
-      <c r="G55" s="286"/>
-      <c r="H55" s="286"/>
-      <c r="I55" s="286"/>
-      <c r="J55" s="286"/>
-      <c r="K55" s="286"/>
-      <c r="L55" s="286"/>
-      <c r="M55" s="286"/>
+      <c r="E55" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="F55" s="286" t="n">
+        <v>0.035000001662410796</v>
+      </c>
+      <c r="G55" s="286" t="n">
+        <v>2.3333334441607198E-4</v>
+      </c>
+      <c r="H55" s="286" t="n">
+        <v>163.3333410912504</v>
+      </c>
+      <c r="I55" s="286" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="J55" s="286" t="s">
+        <v>240</v>
+      </c>
+      <c r="K55" s="286" t="s">
+        <v>240</v>
+      </c>
+      <c r="L55" s="286" t="s">
+        <v>240</v>
+      </c>
+      <c r="M55" s="286" t="s">
+        <v>240</v>
+      </c>
       <c r="N55" s="308"/>
       <c r="P55" s="218"/>
       <c r="Q55" s="244" t="s">
-        <v>103</v>
+        <v>252</v>
       </c>
       <c r="R55" s="248" t="s">
         <v>225</v>
@@ -12075,10 +12176,10 @@
         <v>25.0</v>
       </c>
       <c r="W55" s="248" t="n">
-        <v>0.006862745503894985</v>
+        <v>0.04000000189989805</v>
       </c>
       <c r="X55" s="248" t="n">
-        <v>6.238859548995441E-4</v>
+        <v>0.003636363809081641</v>
       </c>
       <c r="Y55" s="248"/>
       <c r="Z55" s="248" t="n">
@@ -12089,15 +12190,27 @@
       </c>
       <c r="AB55" s="283"/>
       <c r="AC55" s="442" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AD55" s="23"/>
-      <c r="AE55" s="36"/>
-      <c r="AF55" s="36"/>
-      <c r="AG55" s="50"/>
-      <c r="AH55" s="50"/>
-      <c r="AI55" s="36"/>
-      <c r="AJ55" s="337"/>
+      <c r="AE55" s="36" t="s">
+        <v>254</v>
+      </c>
+      <c r="AF55" s="36" t="s">
+        <v>249</v>
+      </c>
+      <c r="AG55" s="50" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="AH55" s="50" t="n">
+        <v>0.025840003043413162</v>
+      </c>
+      <c r="AI55" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="AJ55" s="456" t="s">
+        <v>59</v>
+      </c>
       <c r="AK55" s="23"/>
       <c r="AL55" s="23"/>
       <c r="AM55" s="23"/>
@@ -12108,16 +12221,36 @@
       <c r="A56" s="310"/>
       <c r="B56" s="310"/>
       <c r="D56" s="34"/>
-      <c r="E56" s="34"/>
-      <c r="F56" s="286"/>
-      <c r="G56" s="286"/>
-      <c r="H56" s="286"/>
-      <c r="I56" s="286"/>
-      <c r="J56" s="286"/>
-      <c r="K56" s="286"/>
-      <c r="L56" s="286"/>
-      <c r="M56" s="286"/>
-      <c r="N56" s="332"/>
+      <c r="E56" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="F56" s="286" t="n">
+        <v>0.035000001662410796</v>
+      </c>
+      <c r="G56" s="286" t="n">
+        <v>1.45833340260045E-4</v>
+      </c>
+      <c r="H56" s="286" t="n">
+        <v>109.37500519503374</v>
+      </c>
+      <c r="I56" s="286" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="J56" s="286" t="n">
+        <v>0.04000000283122063</v>
+      </c>
+      <c r="K56" s="286" t="n">
+        <v>1.6666667943354696E-4</v>
+      </c>
+      <c r="L56" s="286" t="n">
+        <v>125.00000762939453</v>
+      </c>
+      <c r="M56" s="286" t="n">
+        <v>7.739938446320593E-4</v>
+      </c>
+      <c r="N56" s="451" t="s">
+        <v>59</v>
+      </c>
       <c r="P56" s="218"/>
       <c r="Q56" s="244"/>
       <c r="R56" s="248"/>
@@ -12161,7 +12294,7 @@
       <c r="N57" s="309"/>
       <c r="P57" s="218"/>
       <c r="Q57" s="244" t="s">
-        <v>106</v>
+        <v>253</v>
       </c>
       <c r="R57" s="248" t="s">
         <v>222</v>
@@ -12179,10 +12312,10 @@
         <v>25.0</v>
       </c>
       <c r="W57" s="248" t="n">
-        <v>0.006835937965661287</v>
+        <v>0.04000000189989805</v>
       </c>
       <c r="X57" s="248" t="n">
-        <v>6.214489059692079E-4</v>
+        <v>0.003636363809081641</v>
       </c>
       <c r="Y57" s="248"/>
       <c r="Z57" s="248" t="n">
@@ -12224,7 +12357,7 @@
       <c r="N58" s="309"/>
       <c r="P58" s="218"/>
       <c r="Q58" s="244" t="s">
-        <v>106</v>
+        <v>253</v>
       </c>
       <c r="R58" s="248" t="s">
         <v>223</v>
@@ -12242,10 +12375,10 @@
         <v>25.0</v>
       </c>
       <c r="W58" s="248" t="n">
-        <v>0.006835937965661287</v>
+        <v>0.04000000189989805</v>
       </c>
       <c r="X58" s="248" t="n">
-        <v>6.214489059692079E-4</v>
+        <v>0.003636363809081641</v>
       </c>
       <c r="Y58" s="248"/>
       <c r="Z58" s="248" t="n">
@@ -12287,7 +12420,7 @@
       <c r="N59" s="242"/>
       <c r="P59" s="218"/>
       <c r="Q59" s="244" t="s">
-        <v>106</v>
+        <v>253</v>
       </c>
       <c r="R59" s="248" t="s">
         <v>224</v>
@@ -12305,10 +12438,10 @@
         <v>25.0</v>
       </c>
       <c r="W59" s="248" t="n">
-        <v>0.006835937965661287</v>
+        <v>0.04000000189989805</v>
       </c>
       <c r="X59" s="248" t="n">
-        <v>6.214489059692079E-4</v>
+        <v>0.003636363809081641</v>
       </c>
       <c r="Y59" s="248"/>
       <c r="Z59" s="248" t="n">
@@ -12388,19 +12521,41 @@
       <c r="M61" s="242"/>
       <c r="N61" s="242"/>
       <c r="P61" s="218"/>
-      <c r="Q61" s="244"/>
-      <c r="R61" s="248"/>
-      <c r="S61" s="249"/>
-      <c r="T61" s="249"/>
-      <c r="U61" s="248"/>
-      <c r="V61" s="248"/>
-      <c r="W61" s="248"/>
-      <c r="X61" s="248"/>
+      <c r="Q61" s="244" t="s">
+        <v>254</v>
+      </c>
+      <c r="R61" s="248" t="s">
+        <v>222</v>
+      </c>
+      <c r="S61" s="249" t="n">
+        <v>1500.0</v>
+      </c>
+      <c r="T61" s="249" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="U61" s="248" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="V61" s="248" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="W61" s="248" t="n">
+        <v>0.04000000189989805</v>
+      </c>
+      <c r="X61" s="248" t="n">
+        <v>0.003636363809081641</v>
+      </c>
       <c r="Y61" s="248"/>
-      <c r="Z61" s="248"/>
-      <c r="AA61" s="248"/>
+      <c r="Z61" s="248" t="n">
+        <v>0.007739938795566559</v>
+      </c>
+      <c r="AA61" s="248" t="n">
+        <v>7.036307943053544E-4</v>
+      </c>
       <c r="AB61" s="284"/>
-      <c r="AC61" s="333"/>
+      <c r="AC61" s="452" t="s">
+        <v>59</v>
+      </c>
       <c r="AD61" s="23"/>
       <c r="AE61" s="36"/>
       <c r="AF61" s="36"/>
@@ -12427,19 +12582,41 @@
       <c r="M62" s="242"/>
       <c r="N62" s="242"/>
       <c r="P62" s="218"/>
-      <c r="Q62" s="244"/>
-      <c r="R62" s="248"/>
-      <c r="S62" s="249"/>
-      <c r="T62" s="249"/>
-      <c r="U62" s="248"/>
-      <c r="V62" s="248"/>
-      <c r="W62" s="248"/>
-      <c r="X62" s="248"/>
+      <c r="Q62" s="244" t="s">
+        <v>254</v>
+      </c>
+      <c r="R62" s="248" t="s">
+        <v>223</v>
+      </c>
+      <c r="S62" s="249" t="n">
+        <v>150000.0</v>
+      </c>
+      <c r="T62" s="249" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="U62" s="248" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="V62" s="248" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="W62" s="248" t="n">
+        <v>0.04000000189989805</v>
+      </c>
+      <c r="X62" s="248" t="n">
+        <v>0.003636363809081641</v>
+      </c>
       <c r="Y62" s="248"/>
-      <c r="Z62" s="248"/>
-      <c r="AA62" s="248"/>
+      <c r="Z62" s="248" t="n">
+        <v>0.007739938795566559</v>
+      </c>
+      <c r="AA62" s="248" t="n">
+        <v>7.036307943053544E-4</v>
+      </c>
       <c r="AB62" s="284"/>
-      <c r="AC62" s="334"/>
+      <c r="AC62" s="453" t="s">
+        <v>59</v>
+      </c>
       <c r="AD62" s="23"/>
       <c r="AE62" s="36"/>
       <c r="AF62" s="36"/>
@@ -12466,19 +12643,41 @@
       <c r="M63" s="242"/>
       <c r="N63" s="242"/>
       <c r="P63" s="218"/>
-      <c r="Q63" s="244"/>
-      <c r="R63" s="248"/>
-      <c r="S63" s="249"/>
-      <c r="T63" s="249"/>
-      <c r="U63" s="248"/>
-      <c r="V63" s="248"/>
-      <c r="W63" s="248"/>
-      <c r="X63" s="248"/>
+      <c r="Q63" s="244" t="s">
+        <v>254</v>
+      </c>
+      <c r="R63" s="248" t="s">
+        <v>224</v>
+      </c>
+      <c r="S63" s="249" t="n">
+        <v>10000.0</v>
+      </c>
+      <c r="T63" s="249" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="U63" s="248" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="V63" s="248" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="W63" s="248" t="n">
+        <v>0.04000000189989805</v>
+      </c>
+      <c r="X63" s="248" t="n">
+        <v>0.003636363809081641</v>
+      </c>
       <c r="Y63" s="248"/>
-      <c r="Z63" s="248"/>
-      <c r="AA63" s="248"/>
+      <c r="Z63" s="248" t="n">
+        <v>0.007739938795566559</v>
+      </c>
+      <c r="AA63" s="248" t="n">
+        <v>7.036307943053544E-4</v>
+      </c>
       <c r="AB63" s="284"/>
-      <c r="AC63" s="335"/>
+      <c r="AC63" s="454" t="s">
+        <v>59</v>
+      </c>
       <c r="AD63" s="23"/>
       <c r="AE63" s="36"/>
       <c r="AF63" s="36"/>
@@ -19132,44 +19331,6 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="M9:M12"/>
-    <mergeCell ref="N9:N12"/>
-    <mergeCell ref="O9:O12"/>
-    <mergeCell ref="P9:P12"/>
-    <mergeCell ref="Q9:Q12"/>
-    <mergeCell ref="R9:R12"/>
-    <mergeCell ref="S9:S12"/>
-    <mergeCell ref="T9:T12"/>
-    <mergeCell ref="U9:U12"/>
-    <mergeCell ref="R13:R16"/>
-    <mergeCell ref="S13:S16"/>
-    <mergeCell ref="T13:T16"/>
-    <mergeCell ref="U13:U16"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="M13:M16"/>
-    <mergeCell ref="N13:N16"/>
-    <mergeCell ref="O13:O16"/>
-    <mergeCell ref="P13:P16"/>
-    <mergeCell ref="Q13:Q16"/>
-    <mergeCell ref="R17:R20"/>
-    <mergeCell ref="S17:S20"/>
-    <mergeCell ref="T17:T20"/>
-    <mergeCell ref="Q17:Q20"/>
-    <mergeCell ref="U17:U20"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="M17:M20"/>
-    <mergeCell ref="N17:N20"/>
-    <mergeCell ref="O17:O20"/>
-    <mergeCell ref="P17:P20"/>
     <mergeCell ref="Q40:Y40"/>
     <mergeCell ref="F40:I40"/>
     <mergeCell ref="J40:M40"/>
@@ -19184,6 +19345,44 @@
     <mergeCell ref="R21:R24"/>
     <mergeCell ref="S21:S24"/>
     <mergeCell ref="T21:T24"/>
+    <mergeCell ref="U17:U20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="M17:M20"/>
+    <mergeCell ref="N17:N20"/>
+    <mergeCell ref="O17:O20"/>
+    <mergeCell ref="P17:P20"/>
+    <mergeCell ref="P13:P16"/>
+    <mergeCell ref="Q13:Q16"/>
+    <mergeCell ref="R17:R20"/>
+    <mergeCell ref="S17:S20"/>
+    <mergeCell ref="T17:T20"/>
+    <mergeCell ref="Q17:Q20"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="M13:M16"/>
+    <mergeCell ref="N13:N16"/>
+    <mergeCell ref="O13:O16"/>
+    <mergeCell ref="R9:R12"/>
+    <mergeCell ref="S9:S12"/>
+    <mergeCell ref="T9:T12"/>
+    <mergeCell ref="U9:U12"/>
+    <mergeCell ref="R13:R16"/>
+    <mergeCell ref="S13:S16"/>
+    <mergeCell ref="T13:T16"/>
+    <mergeCell ref="U13:U16"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="M9:M12"/>
+    <mergeCell ref="N9:N12"/>
+    <mergeCell ref="O9:O12"/>
+    <mergeCell ref="P9:P12"/>
+    <mergeCell ref="Q9:Q12"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="N9 N13 N17 N21" type="list">
@@ -19239,15 +19438,15 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="39" r="1" spans="1:47" x14ac:dyDescent="0.5">
-      <c r="F1" s="403" t="s">
+      <c r="F1" s="368" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="403"/>
-      <c r="H1" s="403"/>
-      <c r="I1" s="403"/>
-      <c r="J1" s="403"/>
-      <c r="K1" s="403"/>
-      <c r="L1" s="403"/>
+      <c r="G1" s="368"/>
+      <c r="H1" s="368"/>
+      <c r="I1" s="368"/>
+      <c r="J1" s="368"/>
+      <c r="K1" s="368"/>
+      <c r="L1" s="368"/>
       <c r="U1" s="22" t="s">
         <v>62</v>
       </c>
@@ -19336,22 +19535,22 @@
       </c>
     </row>
     <row customHeight="1" ht="36.75" r="6" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="D6" s="404" t="s">
+      <c r="D6" s="369" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="405"/>
-      <c r="F6" s="405"/>
-      <c r="G6" s="405"/>
-      <c r="H6" s="406"/>
+      <c r="E6" s="370"/>
+      <c r="F6" s="370"/>
+      <c r="G6" s="370"/>
+      <c r="H6" s="371"/>
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
-      <c r="M6" s="404" t="s">
+      <c r="M6" s="369" t="s">
         <v>66</v>
       </c>
-      <c r="N6" s="405"/>
-      <c r="O6" s="405"/>
-      <c r="P6" s="405"/>
-      <c r="Q6" s="406"/>
+      <c r="N6" s="370"/>
+      <c r="O6" s="370"/>
+      <c r="P6" s="370"/>
+      <c r="Q6" s="371"/>
     </row>
     <row customHeight="1" ht="76.5" r="7" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A7" s="24" t="s">
@@ -19369,10 +19568,10 @@
       <c r="E7" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="407" t="s">
+      <c r="F7" s="372" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="408"/>
+      <c r="G7" s="373"/>
       <c r="H7" s="24" t="s">
         <v>73</v>
       </c>
@@ -19395,10 +19594,10 @@
         <v>79</v>
       </c>
       <c r="O7" s="29"/>
-      <c r="P7" s="407" t="s">
+      <c r="P7" s="372" t="s">
         <v>80</v>
       </c>
-      <c r="Q7" s="408"/>
+      <c r="Q7" s="373"/>
       <c r="R7" s="30" t="s">
         <v>74</v>
       </c>
@@ -19475,7 +19674,7 @@
       <c r="A9" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="395" t="s">
+      <c r="B9" s="374" t="s">
         <v>194</v>
       </c>
       <c r="C9" s="40" t="s">
@@ -19509,33 +19708,33 @@
         <f ref="L9:L22" si="0" t="shared">MIN(I9:K9)</f>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="M9" s="386">
+      <c r="M9" s="365">
         <v>20</v>
       </c>
-      <c r="N9" s="398" t="s">
+      <c r="N9" s="377" t="s">
         <v>95</v>
       </c>
-      <c r="O9" s="386">
+      <c r="O9" s="365">
         <f>IF(N9="daily",1,IF(N9="week",7,IF(N9="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P9" s="386">
+      <c r="P9" s="365">
         <v>3</v>
       </c>
-      <c r="Q9" s="386">
+      <c r="Q9" s="365">
         <f>P9/O9</f>
         <v>3</v>
       </c>
-      <c r="R9" s="386">
+      <c r="R9" s="365">
         <f>M9*Q9</f>
         <v>60</v>
       </c>
-      <c r="S9" s="386"/>
-      <c r="T9" s="389">
+      <c r="S9" s="365"/>
+      <c r="T9" s="380">
         <f>MIN(R9:S12)</f>
         <v>60</v>
       </c>
-      <c r="U9" s="386">
+      <c r="U9" s="365">
         <v>500</v>
       </c>
       <c r="V9" s="41">
@@ -19560,7 +19759,7 @@
       <c r="A10" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="B10" s="396"/>
+      <c r="B10" s="375"/>
       <c r="C10" s="40" t="s">
         <v>198</v>
       </c>
@@ -19592,15 +19791,15 @@
         <f si="0" t="shared"/>
         <v>0.21</v>
       </c>
-      <c r="M10" s="387"/>
-      <c r="N10" s="399"/>
-      <c r="O10" s="387"/>
-      <c r="P10" s="387"/>
-      <c r="Q10" s="387"/>
-      <c r="R10" s="387"/>
-      <c r="S10" s="387"/>
-      <c r="T10" s="390"/>
-      <c r="U10" s="387"/>
+      <c r="M10" s="366"/>
+      <c r="N10" s="378"/>
+      <c r="O10" s="366"/>
+      <c r="P10" s="366"/>
+      <c r="Q10" s="366"/>
+      <c r="R10" s="366"/>
+      <c r="S10" s="366"/>
+      <c r="T10" s="381"/>
+      <c r="U10" s="366"/>
       <c r="V10" s="41"/>
       <c r="W10" s="36"/>
       <c r="X10" s="36"/>
@@ -19608,10 +19807,10 @@
       <c r="AK10" s="46"/>
     </row>
     <row customHeight="1" ht="24.95" r="11" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A11" s="386" t="s">
+      <c r="A11" s="365" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="396"/>
+      <c r="B11" s="375"/>
       <c r="C11" s="40"/>
       <c r="D11" s="40"/>
       <c r="E11" s="40"/>
@@ -19622,15 +19821,15 @@
       <c r="J11" s="36"/>
       <c r="K11" s="36"/>
       <c r="L11" s="42"/>
-      <c r="M11" s="387"/>
-      <c r="N11" s="399"/>
-      <c r="O11" s="387"/>
-      <c r="P11" s="387"/>
-      <c r="Q11" s="387"/>
-      <c r="R11" s="387"/>
-      <c r="S11" s="387"/>
-      <c r="T11" s="390"/>
-      <c r="U11" s="387"/>
+      <c r="M11" s="366"/>
+      <c r="N11" s="378"/>
+      <c r="O11" s="366"/>
+      <c r="P11" s="366"/>
+      <c r="Q11" s="366"/>
+      <c r="R11" s="366"/>
+      <c r="S11" s="366"/>
+      <c r="T11" s="381"/>
+      <c r="U11" s="366"/>
       <c r="V11" s="41"/>
       <c r="W11" s="36"/>
       <c r="X11" s="36"/>
@@ -19649,8 +19848,8 @@
       <c r="AU11" s="65"/>
     </row>
     <row customHeight="1" ht="24.95" r="12" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A12" s="388"/>
-      <c r="B12" s="397"/>
+      <c r="A12" s="367"/>
+      <c r="B12" s="376"/>
       <c r="C12" s="40"/>
       <c r="D12" s="40"/>
       <c r="E12" s="40"/>
@@ -19661,15 +19860,15 @@
       <c r="J12" s="36"/>
       <c r="K12" s="36"/>
       <c r="L12" s="42"/>
-      <c r="M12" s="388"/>
-      <c r="N12" s="400"/>
-      <c r="O12" s="388"/>
-      <c r="P12" s="388"/>
-      <c r="Q12" s="388"/>
-      <c r="R12" s="388"/>
-      <c r="S12" s="388"/>
-      <c r="T12" s="391"/>
-      <c r="U12" s="388"/>
+      <c r="M12" s="367"/>
+      <c r="N12" s="379"/>
+      <c r="O12" s="367"/>
+      <c r="P12" s="367"/>
+      <c r="Q12" s="367"/>
+      <c r="R12" s="367"/>
+      <c r="S12" s="367"/>
+      <c r="T12" s="382"/>
+      <c r="U12" s="367"/>
       <c r="V12" s="41"/>
       <c r="W12" s="36"/>
       <c r="X12" s="36"/>
@@ -19685,7 +19884,7 @@
       <c r="A13" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="B13" s="395" t="s">
+      <c r="B13" s="374" t="s">
         <v>195</v>
       </c>
       <c r="C13" s="40" t="s">
@@ -19719,33 +19918,33 @@
         <f si="0" t="shared"/>
         <v>2E-3</v>
       </c>
-      <c r="M13" s="386">
+      <c r="M13" s="365">
         <v>80</v>
       </c>
-      <c r="N13" s="398" t="s">
+      <c r="N13" s="377" t="s">
         <v>95</v>
       </c>
-      <c r="O13" s="386">
+      <c r="O13" s="365">
         <f>IF(N13="daily",1,IF(N13="week",7,IF(N13="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P13" s="386">
+      <c r="P13" s="365">
         <v>2</v>
       </c>
-      <c r="Q13" s="386">
+      <c r="Q13" s="365">
         <f>P13/O13</f>
         <v>2</v>
       </c>
-      <c r="R13" s="386">
+      <c r="R13" s="365">
         <f>M13*Q13</f>
         <v>160</v>
       </c>
-      <c r="S13" s="386"/>
-      <c r="T13" s="389">
+      <c r="S13" s="365"/>
+      <c r="T13" s="380">
         <f>MIN(R13:S16)</f>
         <v>160</v>
       </c>
-      <c r="U13" s="386">
+      <c r="U13" s="365">
         <v>600</v>
       </c>
       <c r="V13" s="41">
@@ -19768,7 +19967,7 @@
       <c r="A14" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="B14" s="396"/>
+      <c r="B14" s="375"/>
       <c r="C14" s="40" t="s">
         <v>200</v>
       </c>
@@ -19800,15 +19999,15 @@
         <f si="0" t="shared"/>
         <v>0.08</v>
       </c>
-      <c r="M14" s="387"/>
-      <c r="N14" s="399"/>
-      <c r="O14" s="387"/>
-      <c r="P14" s="387"/>
-      <c r="Q14" s="387"/>
-      <c r="R14" s="387"/>
-      <c r="S14" s="387"/>
-      <c r="T14" s="390"/>
-      <c r="U14" s="387"/>
+      <c r="M14" s="366"/>
+      <c r="N14" s="378"/>
+      <c r="O14" s="366"/>
+      <c r="P14" s="366"/>
+      <c r="Q14" s="366"/>
+      <c r="R14" s="366"/>
+      <c r="S14" s="366"/>
+      <c r="T14" s="381"/>
+      <c r="U14" s="366"/>
       <c r="V14" s="41"/>
       <c r="W14" s="36"/>
       <c r="X14" s="36"/>
@@ -19816,10 +20015,10 @@
       <c r="AT14" s="70"/>
     </row>
     <row customHeight="1" ht="24.95" r="15" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A15" s="401" t="s">
+      <c r="A15" s="383" t="s">
         <v>101</v>
       </c>
-      <c r="B15" s="396"/>
+      <c r="B15" s="375"/>
       <c r="C15" s="40"/>
       <c r="D15" s="40"/>
       <c r="E15" s="40"/>
@@ -19830,15 +20029,15 @@
       <c r="J15" s="36"/>
       <c r="K15" s="36"/>
       <c r="L15" s="42"/>
-      <c r="M15" s="387"/>
-      <c r="N15" s="399"/>
-      <c r="O15" s="387"/>
-      <c r="P15" s="387"/>
-      <c r="Q15" s="387"/>
-      <c r="R15" s="387"/>
-      <c r="S15" s="387"/>
-      <c r="T15" s="390"/>
-      <c r="U15" s="387"/>
+      <c r="M15" s="366"/>
+      <c r="N15" s="378"/>
+      <c r="O15" s="366"/>
+      <c r="P15" s="366"/>
+      <c r="Q15" s="366"/>
+      <c r="R15" s="366"/>
+      <c r="S15" s="366"/>
+      <c r="T15" s="381"/>
+      <c r="U15" s="366"/>
       <c r="V15" s="41"/>
       <c r="W15" s="36"/>
       <c r="X15" s="36"/>
@@ -19848,8 +20047,8 @@
       <c r="AT15" s="46"/>
     </row>
     <row customHeight="1" ht="24.95" r="16" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A16" s="402"/>
-      <c r="B16" s="397"/>
+      <c r="A16" s="384"/>
+      <c r="B16" s="376"/>
       <c r="C16" s="40"/>
       <c r="D16" s="40"/>
       <c r="E16" s="40"/>
@@ -19860,15 +20059,15 @@
       <c r="J16" s="36"/>
       <c r="K16" s="36"/>
       <c r="L16" s="42"/>
-      <c r="M16" s="388"/>
-      <c r="N16" s="400"/>
-      <c r="O16" s="388"/>
-      <c r="P16" s="388"/>
-      <c r="Q16" s="388"/>
-      <c r="R16" s="388"/>
-      <c r="S16" s="388"/>
-      <c r="T16" s="391"/>
-      <c r="U16" s="388"/>
+      <c r="M16" s="367"/>
+      <c r="N16" s="379"/>
+      <c r="O16" s="367"/>
+      <c r="P16" s="367"/>
+      <c r="Q16" s="367"/>
+      <c r="R16" s="367"/>
+      <c r="S16" s="367"/>
+      <c r="T16" s="382"/>
+      <c r="U16" s="367"/>
       <c r="V16" s="41"/>
       <c r="W16" s="36"/>
       <c r="X16" s="36"/>
@@ -19879,7 +20078,7 @@
       <c r="A17" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="B17" s="395" t="s">
+      <c r="B17" s="374" t="s">
         <v>196</v>
       </c>
       <c r="C17" s="40" t="s">
@@ -19913,33 +20112,33 @@
         <f si="0" t="shared"/>
         <v>3.4999999999999996E-2</v>
       </c>
-      <c r="M17" s="386">
+      <c r="M17" s="365">
         <v>70</v>
       </c>
-      <c r="N17" s="398" t="s">
+      <c r="N17" s="377" t="s">
         <v>95</v>
       </c>
-      <c r="O17" s="386">
+      <c r="O17" s="365">
         <f>IF(N17="daily",1,IF(N17="week",7,IF(N17="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P17" s="386">
+      <c r="P17" s="365">
         <v>2</v>
       </c>
-      <c r="Q17" s="386">
+      <c r="Q17" s="365">
         <f>P17/O17</f>
         <v>2</v>
       </c>
-      <c r="R17" s="386">
+      <c r="R17" s="365">
         <f>M17*Q17</f>
         <v>140</v>
       </c>
-      <c r="S17" s="386"/>
-      <c r="T17" s="389">
+      <c r="S17" s="365"/>
+      <c r="T17" s="380">
         <f>MIN(R17:S20)</f>
         <v>140</v>
       </c>
-      <c r="U17" s="386">
+      <c r="U17" s="365">
         <v>850</v>
       </c>
       <c r="V17" s="41">
@@ -19958,7 +20157,7 @@
       <c r="A18" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="B18" s="396"/>
+      <c r="B18" s="375"/>
       <c r="C18" s="40" t="s">
         <v>202</v>
       </c>
@@ -19990,24 +20189,24 @@
         <f si="0" t="shared"/>
         <v>3.9999999999999994E-2</v>
       </c>
-      <c r="M18" s="387"/>
-      <c r="N18" s="399"/>
-      <c r="O18" s="387"/>
-      <c r="P18" s="387"/>
-      <c r="Q18" s="387"/>
-      <c r="R18" s="387"/>
-      <c r="S18" s="387"/>
-      <c r="T18" s="390"/>
-      <c r="U18" s="387"/>
+      <c r="M18" s="366"/>
+      <c r="N18" s="378"/>
+      <c r="O18" s="366"/>
+      <c r="P18" s="366"/>
+      <c r="Q18" s="366"/>
+      <c r="R18" s="366"/>
+      <c r="S18" s="366"/>
+      <c r="T18" s="381"/>
+      <c r="U18" s="366"/>
       <c r="V18" s="41"/>
       <c r="W18" s="36"/>
       <c r="X18" s="36"/>
     </row>
     <row customHeight="1" ht="24.95" r="19" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A19" s="386" t="s">
+      <c r="A19" s="365" t="s">
         <v>105</v>
       </c>
-      <c r="B19" s="396"/>
+      <c r="B19" s="375"/>
       <c r="C19" s="40"/>
       <c r="D19" s="40"/>
       <c r="E19" s="40"/>
@@ -20018,22 +20217,22 @@
       <c r="J19" s="36"/>
       <c r="K19" s="36"/>
       <c r="L19" s="42"/>
-      <c r="M19" s="387"/>
-      <c r="N19" s="399"/>
-      <c r="O19" s="387"/>
-      <c r="P19" s="387"/>
-      <c r="Q19" s="387"/>
-      <c r="R19" s="387"/>
-      <c r="S19" s="387"/>
-      <c r="T19" s="390"/>
-      <c r="U19" s="387"/>
+      <c r="M19" s="366"/>
+      <c r="N19" s="378"/>
+      <c r="O19" s="366"/>
+      <c r="P19" s="366"/>
+      <c r="Q19" s="366"/>
+      <c r="R19" s="366"/>
+      <c r="S19" s="366"/>
+      <c r="T19" s="381"/>
+      <c r="U19" s="366"/>
       <c r="V19" s="41"/>
       <c r="W19" s="36"/>
       <c r="X19" s="36"/>
     </row>
     <row customHeight="1" ht="24.95" r="20" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A20" s="388"/>
-      <c r="B20" s="397"/>
+      <c r="A20" s="367"/>
+      <c r="B20" s="376"/>
       <c r="C20" s="40"/>
       <c r="D20" s="40"/>
       <c r="E20" s="40"/>
@@ -20044,15 +20243,15 @@
       <c r="J20" s="36"/>
       <c r="K20" s="36"/>
       <c r="L20" s="42"/>
-      <c r="M20" s="388"/>
-      <c r="N20" s="400"/>
-      <c r="O20" s="388"/>
-      <c r="P20" s="388"/>
-      <c r="Q20" s="388"/>
-      <c r="R20" s="388"/>
-      <c r="S20" s="388"/>
-      <c r="T20" s="391"/>
-      <c r="U20" s="388"/>
+      <c r="M20" s="367"/>
+      <c r="N20" s="379"/>
+      <c r="O20" s="367"/>
+      <c r="P20" s="367"/>
+      <c r="Q20" s="367"/>
+      <c r="R20" s="367"/>
+      <c r="S20" s="367"/>
+      <c r="T20" s="382"/>
+      <c r="U20" s="367"/>
       <c r="V20" s="41"/>
       <c r="W20" s="36"/>
       <c r="X20" s="36"/>
@@ -20061,7 +20260,7 @@
       <c r="A21" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="395" t="s">
+      <c r="B21" s="374" t="s">
         <v>197</v>
       </c>
       <c r="C21" s="40" t="s">
@@ -20095,33 +20294,33 @@
         <f si="0" t="shared"/>
         <v>0.05</v>
       </c>
-      <c r="M21" s="386">
+      <c r="M21" s="365">
         <v>60</v>
       </c>
-      <c r="N21" s="398" t="s">
+      <c r="N21" s="377" t="s">
         <v>95</v>
       </c>
-      <c r="O21" s="386">
+      <c r="O21" s="365">
         <f>IF(N21="daily",1,IF(N21="week",7,IF(N21="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P21" s="386">
+      <c r="P21" s="365">
         <v>3</v>
       </c>
-      <c r="Q21" s="386">
+      <c r="Q21" s="365">
         <f>P21/O21</f>
         <v>3</v>
       </c>
-      <c r="R21" s="386">
+      <c r="R21" s="365">
         <f>M21*Q21</f>
         <v>180</v>
       </c>
-      <c r="S21" s="386"/>
-      <c r="T21" s="389">
+      <c r="S21" s="365"/>
+      <c r="T21" s="380">
         <f>MIN(R21:S24)</f>
         <v>180</v>
       </c>
-      <c r="U21" s="386">
+      <c r="U21" s="365">
         <v>700</v>
       </c>
       <c r="V21" s="41">
@@ -20138,7 +20337,7 @@
       <c r="A22" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="B22" s="396"/>
+      <c r="B22" s="375"/>
       <c r="C22" s="40" t="s">
         <v>204</v>
       </c>
@@ -20170,24 +20369,24 @@
         <f si="0" t="shared"/>
         <v>4.0000000000000008E-2</v>
       </c>
-      <c r="M22" s="387"/>
-      <c r="N22" s="399"/>
-      <c r="O22" s="387"/>
-      <c r="P22" s="387"/>
-      <c r="Q22" s="387"/>
-      <c r="R22" s="387"/>
-      <c r="S22" s="387"/>
-      <c r="T22" s="390"/>
-      <c r="U22" s="387"/>
+      <c r="M22" s="366"/>
+      <c r="N22" s="378"/>
+      <c r="O22" s="366"/>
+      <c r="P22" s="366"/>
+      <c r="Q22" s="366"/>
+      <c r="R22" s="366"/>
+      <c r="S22" s="366"/>
+      <c r="T22" s="381"/>
+      <c r="U22" s="366"/>
       <c r="V22" s="41"/>
       <c r="W22" s="36"/>
       <c r="X22" s="36"/>
     </row>
     <row customHeight="1" ht="24.95" r="23" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A23" s="392" t="s">
+      <c r="A23" s="385" t="s">
         <v>108</v>
       </c>
-      <c r="B23" s="396"/>
+      <c r="B23" s="375"/>
       <c r="C23" s="40"/>
       <c r="D23" s="40"/>
       <c r="E23" s="40"/>
@@ -20198,22 +20397,22 @@
       <c r="J23" s="36"/>
       <c r="K23" s="36"/>
       <c r="L23" s="42"/>
-      <c r="M23" s="387"/>
-      <c r="N23" s="399"/>
-      <c r="O23" s="387"/>
-      <c r="P23" s="387"/>
-      <c r="Q23" s="387"/>
-      <c r="R23" s="387"/>
-      <c r="S23" s="387"/>
-      <c r="T23" s="390"/>
-      <c r="U23" s="387"/>
+      <c r="M23" s="366"/>
+      <c r="N23" s="378"/>
+      <c r="O23" s="366"/>
+      <c r="P23" s="366"/>
+      <c r="Q23" s="366"/>
+      <c r="R23" s="366"/>
+      <c r="S23" s="366"/>
+      <c r="T23" s="381"/>
+      <c r="U23" s="366"/>
       <c r="V23" s="41"/>
       <c r="W23" s="36"/>
       <c r="X23" s="36"/>
     </row>
     <row customHeight="1" ht="24.95" r="24" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A24" s="393"/>
-      <c r="B24" s="397"/>
+      <c r="A24" s="386"/>
+      <c r="B24" s="376"/>
       <c r="C24" s="40"/>
       <c r="D24" s="40"/>
       <c r="E24" s="40"/>
@@ -20224,15 +20423,15 @@
       <c r="J24" s="36"/>
       <c r="K24" s="36"/>
       <c r="L24" s="42"/>
-      <c r="M24" s="388"/>
-      <c r="N24" s="400"/>
-      <c r="O24" s="388"/>
-      <c r="P24" s="388"/>
-      <c r="Q24" s="388"/>
-      <c r="R24" s="388"/>
-      <c r="S24" s="388"/>
-      <c r="T24" s="391"/>
-      <c r="U24" s="388"/>
+      <c r="M24" s="367"/>
+      <c r="N24" s="379"/>
+      <c r="O24" s="367"/>
+      <c r="P24" s="367"/>
+      <c r="Q24" s="367"/>
+      <c r="R24" s="367"/>
+      <c r="S24" s="367"/>
+      <c r="T24" s="382"/>
+      <c r="U24" s="367"/>
       <c r="V24" s="41"/>
       <c r="W24" s="36"/>
       <c r="X24" s="36"/>
@@ -20258,13 +20457,13 @@
       <c r="D27" s="46"/>
       <c r="E27" s="46"/>
       <c r="F27" s="46"/>
-      <c r="H27" s="394" t="s">
+      <c r="H27" s="387" t="s">
         <v>206</v>
       </c>
-      <c r="I27" s="394"/>
-      <c r="J27" s="394"/>
-      <c r="K27" s="394"/>
-      <c r="L27" s="394"/>
+      <c r="I27" s="387"/>
+      <c r="J27" s="387"/>
+      <c r="K27" s="387"/>
+      <c r="L27" s="387"/>
       <c r="M27" s="48"/>
       <c r="N27" s="48"/>
       <c r="O27" s="46"/>
@@ -20544,19 +20743,19 @@
     <row customHeight="1" ht="32.25" r="40" spans="1:40" x14ac:dyDescent="0.4">
       <c r="B40" s="104"/>
       <c r="C40" s="105"/>
-      <c r="D40" s="384" t="s">
+      <c r="D40" s="390" t="s">
         <v>4</v>
       </c>
-      <c r="E40" s="384"/>
-      <c r="F40" s="384"/>
-      <c r="G40" s="384"/>
-      <c r="H40" s="384"/>
-      <c r="I40" s="384" t="s">
+      <c r="E40" s="390"/>
+      <c r="F40" s="390"/>
+      <c r="G40" s="390"/>
+      <c r="H40" s="390"/>
+      <c r="I40" s="390" t="s">
         <v>5</v>
       </c>
-      <c r="J40" s="384"/>
-      <c r="K40" s="384"/>
-      <c r="L40" s="384"/>
+      <c r="J40" s="390"/>
+      <c r="K40" s="390"/>
+      <c r="L40" s="390"/>
       <c r="M40" s="117"/>
       <c r="N40" s="118" t="s">
         <v>48</v>
@@ -20680,19 +20879,19 @@
       </c>
     </row>
     <row customHeight="1" ht="24.95" r="42" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="B42" s="379"/>
+      <c r="B42" s="391"/>
       <c r="C42" s="110"/>
       <c r="D42" s="111"/>
       <c r="E42" s="111"/>
       <c r="F42" s="125"/>
       <c r="G42" s="125"/>
-      <c r="H42" s="380"/>
+      <c r="H42" s="389"/>
       <c r="I42" s="111"/>
       <c r="J42" s="111"/>
       <c r="K42" s="125"/>
       <c r="L42" s="125"/>
-      <c r="M42" s="380"/>
-      <c r="N42" s="421"/>
+      <c r="M42" s="389"/>
+      <c r="N42" s="416"/>
       <c r="P42" s="91"/>
       <c r="Q42" s="91"/>
       <c r="U42" s="64"/>
@@ -20738,19 +20937,19 @@
       <c r="AN42" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="43" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="B43" s="379"/>
+      <c r="B43" s="391"/>
       <c r="C43" s="110"/>
       <c r="D43" s="125"/>
       <c r="E43" s="111"/>
       <c r="F43" s="125"/>
       <c r="G43" s="103"/>
-      <c r="H43" s="380"/>
+      <c r="H43" s="389"/>
       <c r="I43" s="111"/>
       <c r="J43" s="111"/>
       <c r="K43" s="103"/>
       <c r="L43" s="103"/>
-      <c r="M43" s="380"/>
-      <c r="N43" s="380"/>
+      <c r="M43" s="389"/>
+      <c r="N43" s="389"/>
       <c r="P43" s="92"/>
       <c r="Q43" s="92"/>
       <c r="U43" s="64"/>
@@ -20796,19 +20995,19 @@
       <c r="AN43" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="44" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="B44" s="379"/>
+      <c r="B44" s="391"/>
       <c r="C44" s="110"/>
       <c r="D44" s="111"/>
       <c r="E44" s="111"/>
       <c r="F44" s="125"/>
       <c r="G44" s="125"/>
-      <c r="H44" s="380"/>
+      <c r="H44" s="389"/>
       <c r="I44" s="111"/>
       <c r="J44" s="111"/>
       <c r="K44" s="125"/>
       <c r="L44" s="125"/>
-      <c r="M44" s="380"/>
-      <c r="N44" s="380"/>
+      <c r="M44" s="389"/>
+      <c r="N44" s="389"/>
       <c r="P44" s="91"/>
       <c r="Q44" s="91"/>
       <c r="U44" s="64"/>
@@ -20854,19 +21053,19 @@
       <c r="AN44" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="45" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="B45" s="379"/>
+      <c r="B45" s="391"/>
       <c r="C45" s="110"/>
       <c r="D45" s="111"/>
       <c r="E45" s="111"/>
       <c r="F45" s="125"/>
       <c r="G45" s="125"/>
-      <c r="H45" s="380"/>
+      <c r="H45" s="389"/>
       <c r="I45" s="111"/>
       <c r="J45" s="111"/>
       <c r="K45" s="125"/>
       <c r="L45" s="125"/>
-      <c r="M45" s="380"/>
-      <c r="N45" s="380"/>
+      <c r="M45" s="389"/>
+      <c r="N45" s="389"/>
       <c r="P45" s="91"/>
       <c r="Q45" s="91"/>
       <c r="U45" s="64"/>
@@ -20912,19 +21111,19 @@
       <c r="AN45" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="46" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="B46" s="379"/>
+      <c r="B46" s="391"/>
       <c r="C46" s="110"/>
       <c r="D46" s="111"/>
       <c r="E46" s="111"/>
       <c r="F46" s="125"/>
       <c r="G46" s="125"/>
-      <c r="H46" s="380"/>
+      <c r="H46" s="389"/>
       <c r="I46" s="111"/>
       <c r="J46" s="111"/>
       <c r="K46" s="125"/>
       <c r="L46" s="125"/>
-      <c r="M46" s="380"/>
-      <c r="N46" s="422"/>
+      <c r="M46" s="389"/>
+      <c r="N46" s="417"/>
       <c r="P46" s="91"/>
       <c r="Q46" s="91"/>
       <c r="U46" s="64"/>
@@ -20970,19 +21169,19 @@
       <c r="AN46" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="47" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="B47" s="379"/>
+      <c r="B47" s="391"/>
       <c r="C47" s="110"/>
       <c r="D47" s="111"/>
       <c r="E47" s="111"/>
       <c r="F47" s="111"/>
       <c r="G47" s="111"/>
-      <c r="H47" s="380"/>
+      <c r="H47" s="389"/>
       <c r="I47" s="111"/>
       <c r="J47" s="111"/>
       <c r="K47" s="111"/>
       <c r="L47" s="111"/>
-      <c r="M47" s="380"/>
-      <c r="N47" s="382"/>
+      <c r="M47" s="389"/>
+      <c r="N47" s="393"/>
       <c r="P47" s="81"/>
       <c r="Q47" s="81"/>
       <c r="S47" s="69"/>
@@ -21030,19 +21229,19 @@
       <c r="AN47" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="48" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="B48" s="379"/>
+      <c r="B48" s="391"/>
       <c r="C48" s="110"/>
       <c r="D48" s="111"/>
       <c r="E48" s="111"/>
       <c r="F48" s="111"/>
       <c r="G48" s="111"/>
-      <c r="H48" s="380"/>
+      <c r="H48" s="389"/>
       <c r="I48" s="111"/>
       <c r="J48" s="111"/>
       <c r="K48" s="111"/>
       <c r="L48" s="111"/>
-      <c r="M48" s="380"/>
-      <c r="N48" s="382"/>
+      <c r="M48" s="389"/>
+      <c r="N48" s="393"/>
       <c r="P48" s="81"/>
       <c r="Q48" s="81"/>
       <c r="S48" s="69"/>
@@ -21090,19 +21289,19 @@
       <c r="AN48" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="49" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B49" s="379"/>
+      <c r="B49" s="391"/>
       <c r="C49" s="110"/>
       <c r="D49" s="111"/>
       <c r="E49" s="111"/>
       <c r="F49" s="111"/>
       <c r="G49" s="111"/>
-      <c r="H49" s="380"/>
+      <c r="H49" s="389"/>
       <c r="I49" s="111"/>
       <c r="J49" s="111"/>
       <c r="K49" s="111"/>
       <c r="L49" s="111"/>
-      <c r="M49" s="380"/>
-      <c r="N49" s="382"/>
+      <c r="M49" s="389"/>
+      <c r="N49" s="393"/>
       <c r="P49" s="81"/>
       <c r="Q49" s="81"/>
       <c r="S49" s="69"/>
@@ -21150,19 +21349,19 @@
       <c r="AN49" s="89"/>
     </row>
     <row customHeight="1" ht="24.95" r="50" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B50" s="374"/>
+      <c r="B50" s="394"/>
       <c r="C50" s="112"/>
       <c r="D50" s="113"/>
       <c r="E50" s="113"/>
       <c r="F50" s="113"/>
       <c r="G50" s="113"/>
-      <c r="H50" s="375"/>
+      <c r="H50" s="395"/>
       <c r="I50" s="113"/>
       <c r="J50" s="113"/>
       <c r="K50" s="113"/>
       <c r="L50" s="113"/>
-      <c r="M50" s="375"/>
-      <c r="N50" s="423"/>
+      <c r="M50" s="395"/>
+      <c r="N50" s="418"/>
       <c r="P50" s="81"/>
       <c r="Q50" s="81"/>
       <c r="S50" s="69"/>
@@ -21183,19 +21382,19 @@
       <c r="AN50" s="64"/>
     </row>
     <row customHeight="1" ht="24.95" r="51" spans="2:40" x14ac:dyDescent="0.4">
-      <c r="B51" s="374"/>
+      <c r="B51" s="394"/>
       <c r="C51" s="112"/>
       <c r="D51" s="113"/>
       <c r="E51" s="113"/>
       <c r="F51" s="113"/>
       <c r="G51" s="113"/>
-      <c r="H51" s="375"/>
+      <c r="H51" s="395"/>
       <c r="I51" s="113"/>
       <c r="J51" s="113"/>
       <c r="K51" s="113"/>
       <c r="L51" s="113"/>
-      <c r="M51" s="375"/>
-      <c r="N51" s="377"/>
+      <c r="M51" s="395"/>
+      <c r="N51" s="397"/>
       <c r="P51" s="81"/>
       <c r="Q51" s="81"/>
       <c r="S51" s="69"/>
@@ -21226,19 +21425,19 @@
       <c r="AN51" s="46"/>
     </row>
     <row customHeight="1" ht="24.95" r="52" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B52" s="374"/>
+      <c r="B52" s="394"/>
       <c r="C52" s="112"/>
       <c r="D52" s="113"/>
       <c r="E52" s="113"/>
       <c r="F52" s="113"/>
       <c r="G52" s="113"/>
-      <c r="H52" s="375"/>
+      <c r="H52" s="395"/>
       <c r="I52" s="113"/>
       <c r="J52" s="113"/>
       <c r="K52" s="113"/>
       <c r="L52" s="113"/>
-      <c r="M52" s="375"/>
-      <c r="N52" s="377"/>
+      <c r="M52" s="395"/>
+      <c r="N52" s="397"/>
       <c r="P52" s="81"/>
       <c r="Q52" s="81"/>
       <c r="S52" s="69"/>
@@ -21302,19 +21501,19 @@
       </c>
     </row>
     <row customHeight="1" ht="24.95" r="53" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B53" s="374"/>
+      <c r="B53" s="394"/>
       <c r="C53" s="112"/>
       <c r="D53" s="113"/>
       <c r="E53" s="113"/>
       <c r="F53" s="113"/>
       <c r="G53" s="113"/>
-      <c r="H53" s="375"/>
+      <c r="H53" s="395"/>
       <c r="I53" s="113"/>
       <c r="J53" s="113"/>
       <c r="K53" s="113"/>
       <c r="L53" s="113"/>
-      <c r="M53" s="375"/>
-      <c r="N53" s="377"/>
+      <c r="M53" s="395"/>
+      <c r="N53" s="397"/>
       <c r="P53" s="81"/>
       <c r="Q53" s="81"/>
       <c r="S53" s="69"/>
@@ -21363,19 +21562,19 @@
       <c r="AN53" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="54" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B54" s="374"/>
+      <c r="B54" s="394"/>
       <c r="C54" s="112"/>
       <c r="D54" s="113"/>
       <c r="E54" s="113"/>
       <c r="F54" s="113"/>
       <c r="G54" s="113"/>
-      <c r="H54" s="375"/>
+      <c r="H54" s="395"/>
       <c r="I54" s="113"/>
       <c r="J54" s="113"/>
       <c r="K54" s="113"/>
       <c r="L54" s="113"/>
-      <c r="M54" s="375"/>
-      <c r="N54" s="416"/>
+      <c r="M54" s="395"/>
+      <c r="N54" s="419"/>
       <c r="P54" s="81"/>
       <c r="Q54" s="81"/>
       <c r="S54" s="69"/>
@@ -21422,19 +21621,19 @@
       <c r="AN54" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="55" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B55" s="374"/>
+      <c r="B55" s="394"/>
       <c r="C55" s="112"/>
       <c r="D55" s="113"/>
       <c r="E55" s="113"/>
       <c r="F55" s="113"/>
       <c r="G55" s="113"/>
-      <c r="H55" s="375"/>
+      <c r="H55" s="395"/>
       <c r="I55" s="113"/>
       <c r="J55" s="113"/>
       <c r="K55" s="113"/>
       <c r="L55" s="113"/>
-      <c r="M55" s="375"/>
-      <c r="N55" s="377"/>
+      <c r="M55" s="395"/>
+      <c r="N55" s="397"/>
       <c r="P55" s="81"/>
       <c r="Q55" s="81"/>
       <c r="S55" s="69"/>
@@ -21481,19 +21680,19 @@
       <c r="AN55" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="56" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B56" s="374"/>
+      <c r="B56" s="394"/>
       <c r="C56" s="112"/>
       <c r="D56" s="113"/>
       <c r="E56" s="113"/>
       <c r="F56" s="113"/>
       <c r="G56" s="113"/>
-      <c r="H56" s="375"/>
+      <c r="H56" s="395"/>
       <c r="I56" s="113"/>
       <c r="J56" s="113"/>
       <c r="K56" s="113"/>
       <c r="L56" s="113"/>
-      <c r="M56" s="375"/>
-      <c r="N56" s="377"/>
+      <c r="M56" s="395"/>
+      <c r="N56" s="397"/>
       <c r="P56" s="81"/>
       <c r="Q56" s="81"/>
       <c r="S56" s="69"/>
@@ -21540,19 +21739,19 @@
       <c r="AN56" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="57" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B57" s="374"/>
+      <c r="B57" s="394"/>
       <c r="C57" s="112"/>
       <c r="D57" s="113"/>
       <c r="E57" s="113"/>
       <c r="F57" s="113"/>
       <c r="G57" s="113"/>
-      <c r="H57" s="375"/>
+      <c r="H57" s="395"/>
       <c r="I57" s="113"/>
       <c r="J57" s="113"/>
       <c r="K57" s="113"/>
       <c r="L57" s="113"/>
-      <c r="M57" s="375"/>
-      <c r="N57" s="377"/>
+      <c r="M57" s="395"/>
+      <c r="N57" s="397"/>
       <c r="P57" s="81"/>
       <c r="Q57" s="81"/>
       <c r="S57" s="69"/>
@@ -21599,19 +21798,19 @@
       <c r="AN57" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="58" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B58" s="369"/>
+      <c r="B58" s="399"/>
       <c r="C58" s="114"/>
       <c r="D58" s="115"/>
       <c r="E58" s="115"/>
       <c r="F58" s="115"/>
       <c r="G58" s="115"/>
-      <c r="H58" s="370"/>
+      <c r="H58" s="400"/>
       <c r="I58" s="115"/>
       <c r="J58" s="115"/>
       <c r="K58" s="115"/>
       <c r="L58" s="115"/>
-      <c r="M58" s="370"/>
-      <c r="N58" s="417"/>
+      <c r="M58" s="400"/>
+      <c r="N58" s="420"/>
       <c r="P58" s="81"/>
       <c r="Q58" s="81"/>
       <c r="S58" s="69"/>
@@ -21658,19 +21857,19 @@
       <c r="AN58" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="59" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B59" s="369"/>
+      <c r="B59" s="399"/>
       <c r="C59" s="114"/>
       <c r="D59" s="115"/>
       <c r="E59" s="115"/>
       <c r="F59" s="115"/>
       <c r="G59" s="115"/>
-      <c r="H59" s="370"/>
+      <c r="H59" s="400"/>
       <c r="I59" s="115"/>
       <c r="J59" s="115"/>
       <c r="K59" s="115"/>
       <c r="L59" s="115"/>
-      <c r="M59" s="370"/>
-      <c r="N59" s="372"/>
+      <c r="M59" s="400"/>
+      <c r="N59" s="402"/>
       <c r="P59" s="81"/>
       <c r="Q59" s="81"/>
       <c r="S59" s="69"/>
@@ -21717,19 +21916,19 @@
       <c r="AN59" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="60" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B60" s="369"/>
+      <c r="B60" s="399"/>
       <c r="C60" s="114"/>
       <c r="D60" s="115"/>
       <c r="E60" s="115"/>
       <c r="F60" s="115"/>
       <c r="G60" s="115"/>
-      <c r="H60" s="370"/>
+      <c r="H60" s="400"/>
       <c r="I60" s="115"/>
       <c r="J60" s="115"/>
       <c r="K60" s="115"/>
       <c r="L60" s="115"/>
-      <c r="M60" s="370"/>
-      <c r="N60" s="372"/>
+      <c r="M60" s="400"/>
+      <c r="N60" s="402"/>
       <c r="P60" s="81"/>
       <c r="Q60" s="81"/>
       <c r="S60" s="69"/>
@@ -21776,247 +21975,247 @@
       <c r="AN60" s="89"/>
     </row>
     <row customHeight="1" ht="24.95" r="61" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B61" s="369"/>
+      <c r="B61" s="399"/>
       <c r="C61" s="114"/>
       <c r="D61" s="115"/>
       <c r="E61" s="115"/>
       <c r="F61" s="115"/>
       <c r="G61" s="115"/>
-      <c r="H61" s="370"/>
+      <c r="H61" s="400"/>
       <c r="I61" s="115"/>
       <c r="J61" s="115"/>
       <c r="K61" s="115"/>
       <c r="L61" s="115"/>
-      <c r="M61" s="370"/>
-      <c r="N61" s="372"/>
+      <c r="M61" s="400"/>
+      <c r="N61" s="402"/>
       <c r="P61" s="81"/>
       <c r="Q61" s="81"/>
       <c r="S61" s="69"/>
       <c r="T61" s="69"/>
     </row>
     <row customHeight="1" ht="24.95" r="62" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B62" s="369"/>
+      <c r="B62" s="399"/>
       <c r="C62" s="114"/>
       <c r="D62" s="115"/>
       <c r="E62" s="115"/>
       <c r="F62" s="115"/>
       <c r="G62" s="115"/>
-      <c r="H62" s="370"/>
+      <c r="H62" s="400"/>
       <c r="I62" s="115"/>
       <c r="J62" s="115"/>
       <c r="K62" s="115"/>
       <c r="L62" s="115"/>
-      <c r="M62" s="370"/>
-      <c r="N62" s="418"/>
+      <c r="M62" s="400"/>
+      <c r="N62" s="421"/>
       <c r="P62" s="81"/>
       <c r="Q62" s="81"/>
       <c r="S62" s="69"/>
       <c r="T62" s="69"/>
     </row>
     <row customHeight="1" ht="24.95" r="63" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B63" s="369"/>
+      <c r="B63" s="399"/>
       <c r="C63" s="114"/>
       <c r="D63" s="115"/>
       <c r="E63" s="115"/>
       <c r="F63" s="115"/>
       <c r="G63" s="115"/>
-      <c r="H63" s="370"/>
+      <c r="H63" s="400"/>
       <c r="I63" s="115"/>
       <c r="J63" s="115"/>
       <c r="K63" s="115"/>
       <c r="L63" s="115"/>
-      <c r="M63" s="370"/>
-      <c r="N63" s="372"/>
+      <c r="M63" s="400"/>
+      <c r="N63" s="402"/>
       <c r="P63" s="81"/>
       <c r="Q63" s="81"/>
       <c r="S63" s="69"/>
       <c r="T63" s="69"/>
     </row>
     <row customHeight="1" ht="24.95" r="64" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B64" s="369"/>
+      <c r="B64" s="399"/>
       <c r="C64" s="114"/>
       <c r="D64" s="115"/>
       <c r="E64" s="115"/>
       <c r="F64" s="115"/>
       <c r="G64" s="115"/>
-      <c r="H64" s="370"/>
+      <c r="H64" s="400"/>
       <c r="I64" s="115"/>
       <c r="J64" s="115"/>
       <c r="K64" s="115"/>
       <c r="L64" s="115"/>
-      <c r="M64" s="370"/>
-      <c r="N64" s="372"/>
+      <c r="M64" s="400"/>
+      <c r="N64" s="402"/>
       <c r="P64" s="81"/>
       <c r="Q64" s="81"/>
       <c r="S64" s="69"/>
       <c r="T64" s="69"/>
     </row>
     <row customHeight="1" ht="24.95" r="65" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B65" s="369"/>
+      <c r="B65" s="399"/>
       <c r="C65" s="114"/>
       <c r="D65" s="115"/>
       <c r="E65" s="115"/>
       <c r="F65" s="115"/>
       <c r="G65" s="115"/>
-      <c r="H65" s="370"/>
+      <c r="H65" s="400"/>
       <c r="I65" s="115"/>
       <c r="J65" s="115"/>
       <c r="K65" s="115"/>
       <c r="L65" s="115"/>
-      <c r="M65" s="370"/>
-      <c r="N65" s="372"/>
+      <c r="M65" s="400"/>
+      <c r="N65" s="402"/>
       <c r="P65" s="81"/>
       <c r="Q65" s="81"/>
       <c r="S65" s="69"/>
       <c r="T65" s="69"/>
     </row>
     <row customHeight="1" ht="24.95" r="66" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B66" s="365"/>
+      <c r="B66" s="403"/>
       <c r="C66" s="128"/>
       <c r="D66" s="116"/>
       <c r="E66" s="116"/>
       <c r="F66" s="116"/>
       <c r="G66" s="116"/>
-      <c r="H66" s="366"/>
+      <c r="H66" s="404"/>
       <c r="I66" s="116"/>
       <c r="J66" s="116"/>
       <c r="K66" s="116"/>
       <c r="L66" s="116"/>
-      <c r="M66" s="366"/>
-      <c r="N66" s="419"/>
+      <c r="M66" s="404"/>
+      <c r="N66" s="422"/>
       <c r="P66" s="81"/>
       <c r="Q66" s="81"/>
       <c r="S66" s="69"/>
       <c r="T66" s="69"/>
     </row>
     <row customHeight="1" ht="24.95" r="67" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B67" s="365"/>
+      <c r="B67" s="403"/>
       <c r="C67" s="128"/>
       <c r="D67" s="116"/>
       <c r="E67" s="116"/>
       <c r="F67" s="116"/>
       <c r="G67" s="116"/>
-      <c r="H67" s="366"/>
+      <c r="H67" s="404"/>
       <c r="I67" s="116"/>
       <c r="J67" s="116"/>
       <c r="K67" s="116"/>
       <c r="L67" s="116"/>
-      <c r="M67" s="366"/>
-      <c r="N67" s="368"/>
+      <c r="M67" s="404"/>
+      <c r="N67" s="406"/>
       <c r="P67" s="81"/>
       <c r="Q67" s="81"/>
       <c r="S67" s="69"/>
       <c r="T67" s="69"/>
     </row>
     <row customHeight="1" ht="24.95" r="68" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B68" s="365"/>
+      <c r="B68" s="403"/>
       <c r="C68" s="128"/>
       <c r="D68" s="116"/>
       <c r="E68" s="116"/>
       <c r="F68" s="116"/>
       <c r="G68" s="116"/>
-      <c r="H68" s="366"/>
+      <c r="H68" s="404"/>
       <c r="I68" s="116"/>
       <c r="J68" s="116"/>
       <c r="K68" s="116"/>
       <c r="L68" s="116"/>
-      <c r="M68" s="366"/>
-      <c r="N68" s="368"/>
+      <c r="M68" s="404"/>
+      <c r="N68" s="406"/>
       <c r="P68" s="81"/>
       <c r="Q68" s="81"/>
       <c r="S68" s="69"/>
       <c r="T68" s="69"/>
     </row>
     <row customHeight="1" ht="24.95" r="69" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B69" s="365"/>
+      <c r="B69" s="403"/>
       <c r="C69" s="128"/>
       <c r="D69" s="116"/>
       <c r="E69" s="116"/>
       <c r="F69" s="116"/>
       <c r="G69" s="116"/>
-      <c r="H69" s="366"/>
+      <c r="H69" s="404"/>
       <c r="I69" s="116"/>
       <c r="J69" s="116"/>
       <c r="K69" s="116"/>
       <c r="L69" s="116"/>
-      <c r="M69" s="366"/>
-      <c r="N69" s="368"/>
+      <c r="M69" s="404"/>
+      <c r="N69" s="406"/>
       <c r="P69" s="81"/>
       <c r="Q69" s="81"/>
       <c r="S69" s="69"/>
       <c r="T69" s="69"/>
     </row>
     <row customHeight="1" ht="24.95" r="70" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B70" s="365"/>
+      <c r="B70" s="403"/>
       <c r="C70" s="128"/>
       <c r="D70" s="116"/>
       <c r="E70" s="116"/>
       <c r="F70" s="116"/>
       <c r="G70" s="116"/>
-      <c r="H70" s="366"/>
+      <c r="H70" s="404"/>
       <c r="I70" s="116"/>
       <c r="J70" s="116"/>
       <c r="K70" s="116"/>
       <c r="L70" s="116"/>
-      <c r="M70" s="366"/>
-      <c r="N70" s="420"/>
+      <c r="M70" s="404"/>
+      <c r="N70" s="423"/>
       <c r="P70" s="81"/>
       <c r="Q70" s="81"/>
       <c r="S70" s="69"/>
       <c r="T70" s="69"/>
     </row>
     <row customHeight="1" ht="24.95" r="71" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B71" s="365"/>
+      <c r="B71" s="403"/>
       <c r="C71" s="128"/>
       <c r="D71" s="116"/>
       <c r="E71" s="116"/>
       <c r="F71" s="116"/>
       <c r="G71" s="116"/>
-      <c r="H71" s="366"/>
+      <c r="H71" s="404"/>
       <c r="I71" s="116"/>
       <c r="J71" s="116"/>
       <c r="K71" s="116"/>
       <c r="L71" s="116"/>
-      <c r="M71" s="366"/>
-      <c r="N71" s="368"/>
+      <c r="M71" s="404"/>
+      <c r="N71" s="406"/>
       <c r="P71" s="81"/>
       <c r="Q71" s="81"/>
       <c r="S71" s="69"/>
       <c r="T71" s="69"/>
     </row>
     <row customHeight="1" ht="24.95" r="72" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B72" s="365"/>
+      <c r="B72" s="403"/>
       <c r="C72" s="128"/>
       <c r="D72" s="116"/>
       <c r="E72" s="116"/>
       <c r="F72" s="116"/>
       <c r="G72" s="116"/>
-      <c r="H72" s="366"/>
+      <c r="H72" s="404"/>
       <c r="I72" s="116"/>
       <c r="J72" s="116"/>
       <c r="K72" s="116"/>
       <c r="L72" s="116"/>
-      <c r="M72" s="366"/>
-      <c r="N72" s="368"/>
+      <c r="M72" s="404"/>
+      <c r="N72" s="406"/>
       <c r="P72" s="81"/>
       <c r="Q72" s="81"/>
       <c r="S72" s="69"/>
       <c r="T72" s="69"/>
     </row>
     <row customHeight="1" ht="24.95" r="73" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B73" s="365"/>
+      <c r="B73" s="403"/>
       <c r="C73" s="128"/>
       <c r="D73" s="116"/>
       <c r="E73" s="116"/>
       <c r="F73" s="116"/>
       <c r="G73" s="116"/>
-      <c r="H73" s="366"/>
+      <c r="H73" s="404"/>
       <c r="I73" s="116"/>
       <c r="J73" s="116"/>
       <c r="K73" s="116"/>
       <c r="L73" s="116"/>
-      <c r="M73" s="366"/>
-      <c r="N73" s="368"/>
+      <c r="M73" s="404"/>
+      <c r="N73" s="406"/>
       <c r="P73" s="81"/>
       <c r="Q73" s="81"/>
       <c r="S73" s="69"/>
@@ -23497,24 +23696,56 @@
     <row customHeight="1" ht="30" r="140" spans="2:22" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="T9:T12"/>
-    <mergeCell ref="U9:U12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="M9:M12"/>
-    <mergeCell ref="N9:N12"/>
-    <mergeCell ref="O9:O12"/>
-    <mergeCell ref="P9:P12"/>
-    <mergeCell ref="P13:P16"/>
-    <mergeCell ref="Q13:Q16"/>
-    <mergeCell ref="Q9:Q12"/>
-    <mergeCell ref="R9:R12"/>
-    <mergeCell ref="S9:S12"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="H54:H57"/>
+    <mergeCell ref="H66:H69"/>
+    <mergeCell ref="H42:H45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="H46:H49"/>
+    <mergeCell ref="H50:H53"/>
+    <mergeCell ref="M66:M69"/>
+    <mergeCell ref="H70:H73"/>
+    <mergeCell ref="M70:M73"/>
+    <mergeCell ref="M54:M57"/>
+    <mergeCell ref="H58:H61"/>
+    <mergeCell ref="M58:M61"/>
+    <mergeCell ref="H62:H65"/>
+    <mergeCell ref="M62:M65"/>
+    <mergeCell ref="N54:N57"/>
+    <mergeCell ref="N58:N61"/>
+    <mergeCell ref="N62:N65"/>
+    <mergeCell ref="N66:N69"/>
+    <mergeCell ref="N70:N73"/>
+    <mergeCell ref="U21:U24"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="M21:M24"/>
+    <mergeCell ref="N21:N24"/>
+    <mergeCell ref="O21:O24"/>
+    <mergeCell ref="P21:P24"/>
+    <mergeCell ref="Q21:Q24"/>
+    <mergeCell ref="Q17:Q20"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="T21:T24"/>
+    <mergeCell ref="R17:R20"/>
+    <mergeCell ref="S17:S20"/>
+    <mergeCell ref="R21:R24"/>
+    <mergeCell ref="S21:S24"/>
+    <mergeCell ref="T17:T20"/>
+    <mergeCell ref="M50:M53"/>
+    <mergeCell ref="N42:N45"/>
+    <mergeCell ref="N46:N49"/>
+    <mergeCell ref="N50:N53"/>
+    <mergeCell ref="M42:M45"/>
+    <mergeCell ref="M46:M49"/>
     <mergeCell ref="U17:U20"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="R13:R16"/>
@@ -23531,56 +23762,24 @@
     <mergeCell ref="M13:M16"/>
     <mergeCell ref="N13:N16"/>
     <mergeCell ref="O13:O16"/>
-    <mergeCell ref="M50:M53"/>
-    <mergeCell ref="N42:N45"/>
-    <mergeCell ref="N46:N49"/>
-    <mergeCell ref="N50:N53"/>
-    <mergeCell ref="M42:M45"/>
-    <mergeCell ref="M46:M49"/>
-    <mergeCell ref="Q17:Q20"/>
-    <mergeCell ref="I40:L40"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="T21:T24"/>
-    <mergeCell ref="R17:R20"/>
-    <mergeCell ref="S17:S20"/>
-    <mergeCell ref="R21:R24"/>
-    <mergeCell ref="S21:S24"/>
-    <mergeCell ref="T17:T20"/>
-    <mergeCell ref="U21:U24"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="M21:M24"/>
-    <mergeCell ref="N21:N24"/>
-    <mergeCell ref="O21:O24"/>
-    <mergeCell ref="P21:P24"/>
-    <mergeCell ref="Q21:Q24"/>
-    <mergeCell ref="N54:N57"/>
-    <mergeCell ref="N58:N61"/>
-    <mergeCell ref="N62:N65"/>
-    <mergeCell ref="N66:N69"/>
-    <mergeCell ref="N70:N73"/>
-    <mergeCell ref="M66:M69"/>
-    <mergeCell ref="H70:H73"/>
-    <mergeCell ref="M70:M73"/>
-    <mergeCell ref="M54:M57"/>
-    <mergeCell ref="H58:H61"/>
-    <mergeCell ref="M58:M61"/>
-    <mergeCell ref="H62:H65"/>
-    <mergeCell ref="M62:M65"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="D40:H40"/>
-    <mergeCell ref="H54:H57"/>
-    <mergeCell ref="H66:H69"/>
-    <mergeCell ref="H42:H45"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="H46:H49"/>
-    <mergeCell ref="H50:H53"/>
+    <mergeCell ref="P13:P16"/>
+    <mergeCell ref="Q13:Q16"/>
+    <mergeCell ref="Q9:Q12"/>
+    <mergeCell ref="R9:R12"/>
+    <mergeCell ref="S9:S12"/>
+    <mergeCell ref="T9:T12"/>
+    <mergeCell ref="U9:U12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="M9:M12"/>
+    <mergeCell ref="N9:N12"/>
+    <mergeCell ref="O9:O12"/>
+    <mergeCell ref="P9:P12"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="N9 N13 N17 N21" type="list">

--- a/eResidue_CV_eDocs/bin/Test Data/eResidue_eDocs_TestCase_result.xlsx
+++ b/eResidue_CV_eDocs/bin/Test Data/eResidue_eDocs_TestCase_result.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="255">
   <si>
     <t>Testcase_id</t>
   </si>
@@ -887,7 +887,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="197" x14ac:knownFonts="1">
+  <fonts count="230" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1941,6 +1941,171 @@
       <sz val="11.0"/>
       <color indexed="10"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
   </fonts>
   <fills count="15">
     <fill>
@@ -2138,7 +2303,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="457">
+  <cellXfs count="490">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
@@ -2900,39 +3065,72 @@
     <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="46" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="79" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="83" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="164" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="165" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="166" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="171" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="173" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="174" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="178" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="179" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="180" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="181" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="182" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="183" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="186" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="187" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="188" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="189" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="190" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="191" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="193" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="194" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="195" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="196" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="164" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="165" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="166" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="167" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="168" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="169" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="170" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="171" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="172" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="173" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="174" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="175" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="176" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="177" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="178" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="179" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="180" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="181" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="182" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="183" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="184" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="185" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="186" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="187" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="188" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="189" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="190" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="191" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="192" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="193" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="194" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="195" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="196" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="197" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="198" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="201" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="202" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="203" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="206" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="208" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="209" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="210" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="211" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="212" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="213" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="214" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="215" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="216" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="217" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="218" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="219" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="222" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="223" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="225" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="226" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="227" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="228" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="229" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -11005,7 +11203,7 @@
       <c r="M42" s="287" t="n">
         <v>0.0014447884168475866</v>
       </c>
-      <c r="N42" s="424" t="s">
+      <c r="N42" s="457" t="s">
         <v>59</v>
       </c>
       <c r="O42" s="64"/>
@@ -11042,7 +11240,7 @@
         <v>0.0013134441105648875</v>
       </c>
       <c r="AB42" s="282"/>
-      <c r="AC42" s="425" t="s">
+      <c r="AC42" s="458" t="s">
         <v>59</v>
       </c>
       <c r="AD42" s="64"/>
@@ -11061,7 +11259,7 @@
       <c r="AI42" s="50" t="s">
         <v>240</v>
       </c>
-      <c r="AJ42" s="428" t="s">
+      <c r="AJ42" s="461" t="s">
         <v>59</v>
       </c>
       <c r="AK42" s="226"/>
@@ -11140,7 +11338,7 @@
         <v>0.0013134441105648875</v>
       </c>
       <c r="AB43" s="282"/>
-      <c r="AC43" s="426" t="s">
+      <c r="AC43" s="459" t="s">
         <v>59</v>
       </c>
       <c r="AD43" s="64"/>
@@ -11159,7 +11357,7 @@
       <c r="AI43" s="50" t="s">
         <v>240</v>
       </c>
-      <c r="AJ43" s="429" t="s">
+      <c r="AJ43" s="462" t="s">
         <v>59</v>
       </c>
       <c r="AK43" s="226"/>
@@ -11238,7 +11436,7 @@
         <v>0.0013134441105648875</v>
       </c>
       <c r="AB44" s="282"/>
-      <c r="AC44" s="427" t="s">
+      <c r="AC44" s="460" t="s">
         <v>59</v>
       </c>
       <c r="AD44" s="64"/>
@@ -11323,7 +11521,7 @@
       <c r="AI45" s="50" t="s">
         <v>240</v>
       </c>
-      <c r="AJ45" s="436" t="s">
+      <c r="AJ45" s="469" t="s">
         <v>59</v>
       </c>
       <c r="AK45" s="226"/>
@@ -11363,7 +11561,7 @@
       <c r="M46" s="287" t="n">
         <v>7.35294190235436E-4</v>
       </c>
-      <c r="N46" s="430" t="s">
+      <c r="N46" s="463" t="s">
         <v>59</v>
       </c>
       <c r="O46" s="64"/>
@@ -11400,7 +11598,7 @@
         <v>6.684492691420019E-4</v>
       </c>
       <c r="AB46" s="282"/>
-      <c r="AC46" s="431" t="s">
+      <c r="AC46" s="464" t="s">
         <v>59</v>
       </c>
       <c r="AD46" s="64"/>
@@ -11419,7 +11617,7 @@
       <c r="AI46" s="50" t="s">
         <v>240</v>
       </c>
-      <c r="AJ46" s="437" t="s">
+      <c r="AJ46" s="470" t="s">
         <v>59</v>
       </c>
       <c r="AK46" s="226"/>
@@ -11493,7 +11691,7 @@
         <v>6.684492691420019E-4</v>
       </c>
       <c r="AB47" s="283"/>
-      <c r="AC47" s="432" t="s">
+      <c r="AC47" s="465" t="s">
         <v>59</v>
       </c>
       <c r="AD47" s="23"/>
@@ -11576,7 +11774,7 @@
         <v>6.684492691420019E-4</v>
       </c>
       <c r="AB48" s="283"/>
-      <c r="AC48" s="433" t="s">
+      <c r="AC48" s="466" t="s">
         <v>59</v>
       </c>
       <c r="AD48" s="23"/>
@@ -11595,7 +11793,7 @@
       <c r="AI48" s="36" t="s">
         <v>240</v>
       </c>
-      <c r="AJ48" s="443" t="s">
+      <c r="AJ48" s="476" t="s">
         <v>59</v>
       </c>
       <c r="AK48" s="226"/>
@@ -11635,7 +11833,7 @@
       <c r="M49" s="286" t="n">
         <v>6.862744921818376E-4</v>
       </c>
-      <c r="N49" s="438" t="s">
+      <c r="N49" s="471" t="s">
         <v>59</v>
       </c>
       <c r="P49" s="218"/>
@@ -11671,7 +11869,7 @@
         <v>6.684492691420019E-4</v>
       </c>
       <c r="AB49" s="283"/>
-      <c r="AC49" s="434" t="s">
+      <c r="AC49" s="467" t="s">
         <v>59</v>
       </c>
       <c r="AD49" s="23"/>
@@ -11690,7 +11888,7 @@
       <c r="AI49" s="36" t="s">
         <v>240</v>
       </c>
-      <c r="AJ49" s="444" t="s">
+      <c r="AJ49" s="477" t="s">
         <v>59</v>
       </c>
       <c r="AK49" s="226"/>
@@ -11764,7 +11962,7 @@
         <v>6.684492691420019E-4</v>
       </c>
       <c r="AB50" s="282"/>
-      <c r="AC50" s="435" t="s">
+      <c r="AC50" s="468" t="s">
         <v>59</v>
       </c>
       <c r="AD50" s="46"/>
@@ -11844,7 +12042,7 @@
       <c r="AI51" s="36" t="s">
         <v>240</v>
       </c>
-      <c r="AJ51" s="449" t="s">
+      <c r="AJ51" s="482" t="s">
         <v>59</v>
       </c>
       <c r="AK51" s="46"/>
@@ -11918,7 +12116,7 @@
         <v>6.238859496079385E-4</v>
       </c>
       <c r="AB52" s="283"/>
-      <c r="AC52" s="439" t="s">
+      <c r="AC52" s="472" t="s">
         <v>59</v>
       </c>
       <c r="AD52" s="23"/>
@@ -11937,7 +12135,7 @@
       <c r="AI52" s="36" t="s">
         <v>240</v>
       </c>
-      <c r="AJ52" s="450" t="s">
+      <c r="AJ52" s="483" t="s">
         <v>59</v>
       </c>
       <c r="AK52" s="23"/>
@@ -11977,7 +12175,7 @@
       <c r="M53" s="286" t="n">
         <v>6.772445631213486E-4</v>
       </c>
-      <c r="N53" s="445" t="s">
+      <c r="N53" s="478" t="s">
         <v>59</v>
       </c>
       <c r="P53" s="218"/>
@@ -12013,7 +12211,7 @@
         <v>6.238859496079385E-4</v>
       </c>
       <c r="AB53" s="283"/>
-      <c r="AC53" s="440" t="s">
+      <c r="AC53" s="473" t="s">
         <v>59</v>
       </c>
       <c r="AD53" s="23"/>
@@ -12096,7 +12294,7 @@
         <v>6.238859496079385E-4</v>
       </c>
       <c r="AB54" s="283"/>
-      <c r="AC54" s="441" t="s">
+      <c r="AC54" s="474" t="s">
         <v>59</v>
       </c>
       <c r="AD54" s="23"/>
@@ -12115,7 +12313,7 @@
       <c r="AI54" s="36" t="s">
         <v>240</v>
       </c>
-      <c r="AJ54" s="455" t="s">
+      <c r="AJ54" s="488" t="s">
         <v>59</v>
       </c>
       <c r="AK54" s="23"/>
@@ -12189,7 +12387,7 @@
         <v>6.238859496079385E-4</v>
       </c>
       <c r="AB55" s="283"/>
-      <c r="AC55" s="442" t="s">
+      <c r="AC55" s="475" t="s">
         <v>59</v>
       </c>
       <c r="AD55" s="23"/>
@@ -12208,7 +12406,7 @@
       <c r="AI55" s="36" t="s">
         <v>240</v>
       </c>
-      <c r="AJ55" s="456" t="s">
+      <c r="AJ55" s="489" t="s">
         <v>59</v>
       </c>
       <c r="AK55" s="23"/>
@@ -12248,7 +12446,7 @@
       <c r="M56" s="286" t="n">
         <v>7.739938446320593E-4</v>
       </c>
-      <c r="N56" s="451" t="s">
+      <c r="N56" s="484" t="s">
         <v>59</v>
       </c>
       <c r="P56" s="218"/>
@@ -12325,7 +12523,7 @@
         <v>6.156769231893122E-4</v>
       </c>
       <c r="AB57" s="283"/>
-      <c r="AC57" s="446" t="s">
+      <c r="AC57" s="479" t="s">
         <v>59</v>
       </c>
       <c r="AD57" s="23"/>
@@ -12388,7 +12586,7 @@
         <v>6.156769231893122E-4</v>
       </c>
       <c r="AB58" s="283"/>
-      <c r="AC58" s="447" t="s">
+      <c r="AC58" s="480" t="s">
         <v>59</v>
       </c>
       <c r="AD58" s="23"/>
@@ -12451,7 +12649,7 @@
         <v>6.156769231893122E-4</v>
       </c>
       <c r="AB59" s="283"/>
-      <c r="AC59" s="448" t="s">
+      <c r="AC59" s="481" t="s">
         <v>59</v>
       </c>
       <c r="AD59" s="23"/>
@@ -12553,7 +12751,7 @@
         <v>7.036307943053544E-4</v>
       </c>
       <c r="AB61" s="284"/>
-      <c r="AC61" s="452" t="s">
+      <c r="AC61" s="485" t="s">
         <v>59</v>
       </c>
       <c r="AD61" s="23"/>
@@ -12614,7 +12812,7 @@
         <v>7.036307943053544E-4</v>
       </c>
       <c r="AB62" s="284"/>
-      <c r="AC62" s="453" t="s">
+      <c r="AC62" s="486" t="s">
         <v>59</v>
       </c>
       <c r="AD62" s="23"/>
@@ -12675,7 +12873,7 @@
         <v>7.036307943053544E-4</v>
       </c>
       <c r="AB63" s="284"/>
-      <c r="AC63" s="454" t="s">
+      <c r="AC63" s="487" t="s">
         <v>59</v>
       </c>
       <c r="AD63" s="23"/>

--- a/eResidue_CV_eDocs/bin/Test Data/eResidue_eDocs_TestCase_result.xlsx
+++ b/eResidue_CV_eDocs/bin/Test Data/eResidue_eDocs_TestCase_result.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="246">
   <si>
     <t>Testcase_id</t>
   </si>
@@ -835,51 +835,6 @@
     <t>Solid</t>
   </si>
   <si>
-    <t>P1 active1</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>E3,E2,E1,</t>
-  </si>
-  <si>
-    <t>E1,E3,</t>
-  </si>
-  <si>
-    <t>P2 active2</t>
-  </si>
-  <si>
-    <t>E5</t>
-  </si>
-  <si>
-    <t>E4,E3,E2,E5,</t>
-  </si>
-  <si>
-    <t>E2,E1,</t>
-  </si>
-  <si>
-    <t>P3 active2</t>
-  </si>
-  <si>
-    <t>E2,E4,E3,</t>
-  </si>
-  <si>
-    <t>E1,E2,</t>
-  </si>
-  <si>
-    <t>P4 active1</t>
-  </si>
-  <si>
-    <t>E1,</t>
-  </si>
-  <si>
-    <t>E3,E1,E2,</t>
-  </si>
-  <si>
-    <t>P4 active2</t>
-  </si>
-  <si>
     <t>List o Products used for Calculation</t>
   </si>
   <si>
@@ -890,6 +845,12 @@
   </si>
   <si>
     <t>L4c Equipment Train Result for Each current Product</t>
+  </si>
+  <si>
+    <t>Test3</t>
+  </si>
+  <si>
+    <t>Test4</t>
   </si>
 </sst>
 </file>
@@ -899,7 +860,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="179" x14ac:knownFonts="1">
+  <fonts count="184" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1727,16 +1688,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color indexed="17"/>
       <name val="Calibri"/>
     </font>
@@ -1827,77 +1778,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -1947,7 +1828,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="17"/>
+      <color indexed="10"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -1958,6 +1839,111 @@
     <font>
       <sz val="11"/>
       <color indexed="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -2157,7 +2143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="444">
+  <cellXfs count="447">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2658,12 +2644,6 @@
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2733,52 +2713,74 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="143" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="148" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="149" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="153" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="154" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="116" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="156" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="157" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="119" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="160" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="161" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="117" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="166" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="167" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="118" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="172" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="173" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="119" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="177" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="178" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="120" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="141" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="142" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="147" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="148" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="139" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="140" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="146" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="150" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="151" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="155" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="156" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="157" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="158" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="159" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="162" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="163" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="164" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="165" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="169" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="170" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="171" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="174" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="175" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="176" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="137" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="138" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="139" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="140" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="142" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="144" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="145" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="146" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="155" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="133" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="163" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="164" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="165" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="166" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="171" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="173" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="174" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="178" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="179" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="180" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="181" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="182" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="183" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2898,6 +2900,9 @@
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="115" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2927,26 +2932,6 @@
     <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="79" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="83" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="130" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="149" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="131" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="133" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="134" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="132" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="168" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="135" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5366,15 +5351,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="39" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="F1" s="376" t="s">
+      <c r="F1" s="390" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="376"/>
-      <c r="H1" s="376"/>
-      <c r="I1" s="376"/>
-      <c r="J1" s="376"/>
-      <c r="K1" s="376"/>
-      <c r="L1" s="376"/>
+      <c r="G1" s="390"/>
+      <c r="H1" s="390"/>
+      <c r="I1" s="390"/>
+      <c r="J1" s="390"/>
+      <c r="K1" s="390"/>
+      <c r="L1" s="390"/>
       <c r="U1" s="22" t="s">
         <v>62</v>
       </c>
@@ -5463,22 +5448,22 @@
       </c>
     </row>
     <row r="6" spans="1:47" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D6" s="377" t="s">
+      <c r="D6" s="391" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="378"/>
-      <c r="F6" s="378"/>
-      <c r="G6" s="378"/>
-      <c r="H6" s="379"/>
+      <c r="E6" s="392"/>
+      <c r="F6" s="392"/>
+      <c r="G6" s="392"/>
+      <c r="H6" s="393"/>
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
-      <c r="M6" s="377" t="s">
+      <c r="M6" s="391" t="s">
         <v>66</v>
       </c>
-      <c r="N6" s="378"/>
-      <c r="O6" s="378"/>
-      <c r="P6" s="378"/>
-      <c r="Q6" s="379"/>
+      <c r="N6" s="392"/>
+      <c r="O6" s="392"/>
+      <c r="P6" s="392"/>
+      <c r="Q6" s="393"/>
     </row>
     <row r="7" spans="1:47" ht="76.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="24" t="s">
@@ -5496,10 +5481,10 @@
       <c r="E7" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="380" t="s">
+      <c r="F7" s="394" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="381"/>
+      <c r="G7" s="395"/>
       <c r="H7" s="24" t="s">
         <v>73</v>
       </c>
@@ -5522,10 +5507,10 @@
         <v>79</v>
       </c>
       <c r="O7" s="29"/>
-      <c r="P7" s="380" t="s">
+      <c r="P7" s="394" t="s">
         <v>80</v>
       </c>
-      <c r="Q7" s="381"/>
+      <c r="Q7" s="395"/>
       <c r="R7" s="30" t="s">
         <v>74</v>
       </c>
@@ -5602,7 +5587,7 @@
       <c r="A9" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="382" t="s">
+      <c r="B9" s="396" t="s">
         <v>194</v>
       </c>
       <c r="C9" s="40" t="s">
@@ -5636,33 +5621,33 @@
         <f t="shared" ref="L9:L22" si="0">MIN(I9:K9)</f>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="M9" s="373">
+      <c r="M9" s="387">
         <v>20</v>
       </c>
-      <c r="N9" s="385" t="s">
+      <c r="N9" s="399" t="s">
         <v>95</v>
       </c>
-      <c r="O9" s="373">
+      <c r="O9" s="387">
         <f>IF(N9="daily",1,IF(N9="week",7,IF(N9="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P9" s="373">
+      <c r="P9" s="387">
         <v>3</v>
       </c>
-      <c r="Q9" s="373">
+      <c r="Q9" s="387">
         <f>P9/O9</f>
         <v>3</v>
       </c>
-      <c r="R9" s="373">
+      <c r="R9" s="387">
         <f>M9*Q9</f>
         <v>60</v>
       </c>
-      <c r="S9" s="373"/>
-      <c r="T9" s="388">
+      <c r="S9" s="387"/>
+      <c r="T9" s="402">
         <f>MIN(R9:S12)</f>
         <v>60</v>
       </c>
-      <c r="U9" s="373">
+      <c r="U9" s="387">
         <v>500</v>
       </c>
       <c r="V9" s="41">
@@ -5687,7 +5672,7 @@
       <c r="A10" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="B10" s="383"/>
+      <c r="B10" s="397"/>
       <c r="C10" s="40" t="s">
         <v>198</v>
       </c>
@@ -5719,15 +5704,15 @@
         <f t="shared" si="0"/>
         <v>0.21</v>
       </c>
-      <c r="M10" s="374"/>
-      <c r="N10" s="386"/>
-      <c r="O10" s="374"/>
-      <c r="P10" s="374"/>
-      <c r="Q10" s="374"/>
-      <c r="R10" s="374"/>
-      <c r="S10" s="374"/>
-      <c r="T10" s="389"/>
-      <c r="U10" s="374"/>
+      <c r="M10" s="388"/>
+      <c r="N10" s="400"/>
+      <c r="O10" s="388"/>
+      <c r="P10" s="388"/>
+      <c r="Q10" s="388"/>
+      <c r="R10" s="388"/>
+      <c r="S10" s="388"/>
+      <c r="T10" s="403"/>
+      <c r="U10" s="388"/>
       <c r="V10" s="41"/>
       <c r="W10" s="36"/>
       <c r="X10" s="36"/>
@@ -5735,10 +5720,10 @@
       <c r="AK10" s="46"/>
     </row>
     <row r="11" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="373" t="s">
+      <c r="A11" s="387" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="383"/>
+      <c r="B11" s="397"/>
       <c r="C11" s="40"/>
       <c r="D11" s="40"/>
       <c r="E11" s="40"/>
@@ -5749,15 +5734,15 @@
       <c r="J11" s="36"/>
       <c r="K11" s="36"/>
       <c r="L11" s="42"/>
-      <c r="M11" s="374"/>
-      <c r="N11" s="386"/>
-      <c r="O11" s="374"/>
-      <c r="P11" s="374"/>
-      <c r="Q11" s="374"/>
-      <c r="R11" s="374"/>
-      <c r="S11" s="374"/>
-      <c r="T11" s="389"/>
-      <c r="U11" s="374"/>
+      <c r="M11" s="388"/>
+      <c r="N11" s="400"/>
+      <c r="O11" s="388"/>
+      <c r="P11" s="388"/>
+      <c r="Q11" s="388"/>
+      <c r="R11" s="388"/>
+      <c r="S11" s="388"/>
+      <c r="T11" s="403"/>
+      <c r="U11" s="388"/>
       <c r="V11" s="41"/>
       <c r="W11" s="36"/>
       <c r="X11" s="36"/>
@@ -5776,8 +5761,8 @@
       <c r="AU11" s="65"/>
     </row>
     <row r="12" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="375"/>
-      <c r="B12" s="384"/>
+      <c r="A12" s="389"/>
+      <c r="B12" s="398"/>
       <c r="C12" s="40"/>
       <c r="D12" s="40"/>
       <c r="E12" s="40"/>
@@ -5788,15 +5773,15 @@
       <c r="J12" s="36"/>
       <c r="K12" s="36"/>
       <c r="L12" s="42"/>
-      <c r="M12" s="375"/>
-      <c r="N12" s="387"/>
-      <c r="O12" s="375"/>
-      <c r="P12" s="375"/>
-      <c r="Q12" s="375"/>
-      <c r="R12" s="375"/>
-      <c r="S12" s="375"/>
-      <c r="T12" s="390"/>
-      <c r="U12" s="375"/>
+      <c r="M12" s="389"/>
+      <c r="N12" s="401"/>
+      <c r="O12" s="389"/>
+      <c r="P12" s="389"/>
+      <c r="Q12" s="389"/>
+      <c r="R12" s="389"/>
+      <c r="S12" s="389"/>
+      <c r="T12" s="404"/>
+      <c r="U12" s="389"/>
       <c r="V12" s="41"/>
       <c r="W12" s="36"/>
       <c r="X12" s="36"/>
@@ -5812,7 +5797,7 @@
       <c r="A13" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="B13" s="382" t="s">
+      <c r="B13" s="396" t="s">
         <v>195</v>
       </c>
       <c r="C13" s="40" t="s">
@@ -5846,33 +5831,33 @@
         <f t="shared" si="0"/>
         <v>2E-3</v>
       </c>
-      <c r="M13" s="373">
+      <c r="M13" s="387">
         <v>80</v>
       </c>
-      <c r="N13" s="385" t="s">
+      <c r="N13" s="399" t="s">
         <v>95</v>
       </c>
-      <c r="O13" s="373">
+      <c r="O13" s="387">
         <f>IF(N13="daily",1,IF(N13="week",7,IF(N13="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P13" s="373">
+      <c r="P13" s="387">
         <v>2</v>
       </c>
-      <c r="Q13" s="373">
+      <c r="Q13" s="387">
         <f>P13/O13</f>
         <v>2</v>
       </c>
-      <c r="R13" s="373">
+      <c r="R13" s="387">
         <f>M13*Q13</f>
         <v>160</v>
       </c>
-      <c r="S13" s="373"/>
-      <c r="T13" s="388">
+      <c r="S13" s="387"/>
+      <c r="T13" s="402">
         <f>MIN(R13:S16)</f>
         <v>160</v>
       </c>
-      <c r="U13" s="373">
+      <c r="U13" s="387">
         <v>600</v>
       </c>
       <c r="V13" s="41">
@@ -5895,7 +5880,7 @@
       <c r="A14" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="B14" s="383"/>
+      <c r="B14" s="397"/>
       <c r="C14" s="40" t="s">
         <v>200</v>
       </c>
@@ -5927,15 +5912,15 @@
         <f t="shared" si="0"/>
         <v>0.08</v>
       </c>
-      <c r="M14" s="374"/>
-      <c r="N14" s="386"/>
-      <c r="O14" s="374"/>
-      <c r="P14" s="374"/>
-      <c r="Q14" s="374"/>
-      <c r="R14" s="374"/>
-      <c r="S14" s="374"/>
-      <c r="T14" s="389"/>
-      <c r="U14" s="374"/>
+      <c r="M14" s="388"/>
+      <c r="N14" s="400"/>
+      <c r="O14" s="388"/>
+      <c r="P14" s="388"/>
+      <c r="Q14" s="388"/>
+      <c r="R14" s="388"/>
+      <c r="S14" s="388"/>
+      <c r="T14" s="403"/>
+      <c r="U14" s="388"/>
       <c r="V14" s="41"/>
       <c r="W14" s="36"/>
       <c r="X14" s="36"/>
@@ -5943,10 +5928,10 @@
       <c r="AT14" s="70"/>
     </row>
     <row r="15" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="391" t="s">
+      <c r="A15" s="405" t="s">
         <v>101</v>
       </c>
-      <c r="B15" s="383"/>
+      <c r="B15" s="397"/>
       <c r="C15" s="40"/>
       <c r="D15" s="40"/>
       <c r="E15" s="40"/>
@@ -5957,15 +5942,15 @@
       <c r="J15" s="36"/>
       <c r="K15" s="36"/>
       <c r="L15" s="42"/>
-      <c r="M15" s="374"/>
-      <c r="N15" s="386"/>
-      <c r="O15" s="374"/>
-      <c r="P15" s="374"/>
-      <c r="Q15" s="374"/>
-      <c r="R15" s="374"/>
-      <c r="S15" s="374"/>
-      <c r="T15" s="389"/>
-      <c r="U15" s="374"/>
+      <c r="M15" s="388"/>
+      <c r="N15" s="400"/>
+      <c r="O15" s="388"/>
+      <c r="P15" s="388"/>
+      <c r="Q15" s="388"/>
+      <c r="R15" s="388"/>
+      <c r="S15" s="388"/>
+      <c r="T15" s="403"/>
+      <c r="U15" s="388"/>
       <c r="V15" s="41"/>
       <c r="W15" s="36"/>
       <c r="X15" s="36"/>
@@ -5975,8 +5960,8 @@
       <c r="AT15" s="46"/>
     </row>
     <row r="16" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="392"/>
-      <c r="B16" s="384"/>
+      <c r="A16" s="406"/>
+      <c r="B16" s="398"/>
       <c r="C16" s="40"/>
       <c r="D16" s="40"/>
       <c r="E16" s="40"/>
@@ -5987,15 +5972,15 @@
       <c r="J16" s="36"/>
       <c r="K16" s="36"/>
       <c r="L16" s="42"/>
-      <c r="M16" s="375"/>
-      <c r="N16" s="387"/>
-      <c r="O16" s="375"/>
-      <c r="P16" s="375"/>
-      <c r="Q16" s="375"/>
-      <c r="R16" s="375"/>
-      <c r="S16" s="375"/>
-      <c r="T16" s="390"/>
-      <c r="U16" s="375"/>
+      <c r="M16" s="389"/>
+      <c r="N16" s="401"/>
+      <c r="O16" s="389"/>
+      <c r="P16" s="389"/>
+      <c r="Q16" s="389"/>
+      <c r="R16" s="389"/>
+      <c r="S16" s="389"/>
+      <c r="T16" s="404"/>
+      <c r="U16" s="389"/>
       <c r="V16" s="41"/>
       <c r="W16" s="36"/>
       <c r="X16" s="36"/>
@@ -6006,7 +5991,7 @@
       <c r="A17" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="B17" s="382" t="s">
+      <c r="B17" s="396" t="s">
         <v>196</v>
       </c>
       <c r="C17" s="40" t="s">
@@ -6040,33 +6025,33 @@
         <f t="shared" si="0"/>
         <v>3.4999999999999996E-2</v>
       </c>
-      <c r="M17" s="373">
+      <c r="M17" s="387">
         <v>70</v>
       </c>
-      <c r="N17" s="385" t="s">
+      <c r="N17" s="399" t="s">
         <v>95</v>
       </c>
-      <c r="O17" s="373">
+      <c r="O17" s="387">
         <f>IF(N17="daily",1,IF(N17="week",7,IF(N17="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P17" s="373">
+      <c r="P17" s="387">
         <v>2</v>
       </c>
-      <c r="Q17" s="373">
+      <c r="Q17" s="387">
         <f>P17/O17</f>
         <v>2</v>
       </c>
-      <c r="R17" s="373">
+      <c r="R17" s="387">
         <f>M17*Q17</f>
         <v>140</v>
       </c>
-      <c r="S17" s="373"/>
-      <c r="T17" s="388">
+      <c r="S17" s="387"/>
+      <c r="T17" s="402">
         <f>MIN(R17:S20)</f>
         <v>140</v>
       </c>
-      <c r="U17" s="373">
+      <c r="U17" s="387">
         <v>850</v>
       </c>
       <c r="V17" s="41">
@@ -6085,7 +6070,7 @@
       <c r="A18" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="B18" s="383"/>
+      <c r="B18" s="397"/>
       <c r="C18" s="40" t="s">
         <v>202</v>
       </c>
@@ -6117,24 +6102,24 @@
         <f t="shared" si="0"/>
         <v>3.9999999999999994E-2</v>
       </c>
-      <c r="M18" s="374"/>
-      <c r="N18" s="386"/>
-      <c r="O18" s="374"/>
-      <c r="P18" s="374"/>
-      <c r="Q18" s="374"/>
-      <c r="R18" s="374"/>
-      <c r="S18" s="374"/>
-      <c r="T18" s="389"/>
-      <c r="U18" s="374"/>
+      <c r="M18" s="388"/>
+      <c r="N18" s="400"/>
+      <c r="O18" s="388"/>
+      <c r="P18" s="388"/>
+      <c r="Q18" s="388"/>
+      <c r="R18" s="388"/>
+      <c r="S18" s="388"/>
+      <c r="T18" s="403"/>
+      <c r="U18" s="388"/>
       <c r="V18" s="41"/>
       <c r="W18" s="36"/>
       <c r="X18" s="36"/>
     </row>
     <row r="19" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="373" t="s">
+      <c r="A19" s="387" t="s">
         <v>105</v>
       </c>
-      <c r="B19" s="383"/>
+      <c r="B19" s="397"/>
       <c r="C19" s="40"/>
       <c r="D19" s="40"/>
       <c r="E19" s="40"/>
@@ -6145,22 +6130,22 @@
       <c r="J19" s="36"/>
       <c r="K19" s="36"/>
       <c r="L19" s="42"/>
-      <c r="M19" s="374"/>
-      <c r="N19" s="386"/>
-      <c r="O19" s="374"/>
-      <c r="P19" s="374"/>
-      <c r="Q19" s="374"/>
-      <c r="R19" s="374"/>
-      <c r="S19" s="374"/>
-      <c r="T19" s="389"/>
-      <c r="U19" s="374"/>
+      <c r="M19" s="388"/>
+      <c r="N19" s="400"/>
+      <c r="O19" s="388"/>
+      <c r="P19" s="388"/>
+      <c r="Q19" s="388"/>
+      <c r="R19" s="388"/>
+      <c r="S19" s="388"/>
+      <c r="T19" s="403"/>
+      <c r="U19" s="388"/>
       <c r="V19" s="41"/>
       <c r="W19" s="36"/>
       <c r="X19" s="36"/>
     </row>
     <row r="20" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="375"/>
-      <c r="B20" s="384"/>
+      <c r="A20" s="389"/>
+      <c r="B20" s="398"/>
       <c r="C20" s="40"/>
       <c r="D20" s="40"/>
       <c r="E20" s="40"/>
@@ -6171,15 +6156,15 @@
       <c r="J20" s="36"/>
       <c r="K20" s="36"/>
       <c r="L20" s="42"/>
-      <c r="M20" s="375"/>
-      <c r="N20" s="387"/>
-      <c r="O20" s="375"/>
-      <c r="P20" s="375"/>
-      <c r="Q20" s="375"/>
-      <c r="R20" s="375"/>
-      <c r="S20" s="375"/>
-      <c r="T20" s="390"/>
-      <c r="U20" s="375"/>
+      <c r="M20" s="389"/>
+      <c r="N20" s="401"/>
+      <c r="O20" s="389"/>
+      <c r="P20" s="389"/>
+      <c r="Q20" s="389"/>
+      <c r="R20" s="389"/>
+      <c r="S20" s="389"/>
+      <c r="T20" s="404"/>
+      <c r="U20" s="389"/>
       <c r="V20" s="41"/>
       <c r="W20" s="36"/>
       <c r="X20" s="36"/>
@@ -6188,7 +6173,7 @@
       <c r="A21" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="382" t="s">
+      <c r="B21" s="396" t="s">
         <v>197</v>
       </c>
       <c r="C21" s="40" t="s">
@@ -6222,33 +6207,33 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="M21" s="373">
+      <c r="M21" s="387">
         <v>60</v>
       </c>
-      <c r="N21" s="385" t="s">
+      <c r="N21" s="399" t="s">
         <v>95</v>
       </c>
-      <c r="O21" s="373">
+      <c r="O21" s="387">
         <f>IF(N21="daily",1,IF(N21="week",7,IF(N21="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P21" s="373">
+      <c r="P21" s="387">
         <v>3</v>
       </c>
-      <c r="Q21" s="373">
+      <c r="Q21" s="387">
         <f>P21/O21</f>
         <v>3</v>
       </c>
-      <c r="R21" s="373">
+      <c r="R21" s="387">
         <f>M21*Q21</f>
         <v>180</v>
       </c>
-      <c r="S21" s="373"/>
-      <c r="T21" s="388">
+      <c r="S21" s="387"/>
+      <c r="T21" s="402">
         <f>MIN(R21:S24)</f>
         <v>180</v>
       </c>
-      <c r="U21" s="373">
+      <c r="U21" s="387">
         <v>700</v>
       </c>
       <c r="V21" s="41">
@@ -6265,7 +6250,7 @@
       <c r="A22" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="B22" s="383"/>
+      <c r="B22" s="397"/>
       <c r="C22" s="40" t="s">
         <v>204</v>
       </c>
@@ -6297,24 +6282,24 @@
         <f t="shared" si="0"/>
         <v>4.0000000000000008E-2</v>
       </c>
-      <c r="M22" s="374"/>
-      <c r="N22" s="386"/>
-      <c r="O22" s="374"/>
-      <c r="P22" s="374"/>
-      <c r="Q22" s="374"/>
-      <c r="R22" s="374"/>
-      <c r="S22" s="374"/>
-      <c r="T22" s="389"/>
-      <c r="U22" s="374"/>
+      <c r="M22" s="388"/>
+      <c r="N22" s="400"/>
+      <c r="O22" s="388"/>
+      <c r="P22" s="388"/>
+      <c r="Q22" s="388"/>
+      <c r="R22" s="388"/>
+      <c r="S22" s="388"/>
+      <c r="T22" s="403"/>
+      <c r="U22" s="388"/>
       <c r="V22" s="41"/>
       <c r="W22" s="36"/>
       <c r="X22" s="36"/>
     </row>
     <row r="23" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="393" t="s">
+      <c r="A23" s="407" t="s">
         <v>108</v>
       </c>
-      <c r="B23" s="383"/>
+      <c r="B23" s="397"/>
       <c r="C23" s="40"/>
       <c r="D23" s="40"/>
       <c r="E23" s="40"/>
@@ -6325,22 +6310,22 @@
       <c r="J23" s="36"/>
       <c r="K23" s="36"/>
       <c r="L23" s="42"/>
-      <c r="M23" s="374"/>
-      <c r="N23" s="386"/>
-      <c r="O23" s="374"/>
-      <c r="P23" s="374"/>
-      <c r="Q23" s="374"/>
-      <c r="R23" s="374"/>
-      <c r="S23" s="374"/>
-      <c r="T23" s="389"/>
-      <c r="U23" s="374"/>
+      <c r="M23" s="388"/>
+      <c r="N23" s="400"/>
+      <c r="O23" s="388"/>
+      <c r="P23" s="388"/>
+      <c r="Q23" s="388"/>
+      <c r="R23" s="388"/>
+      <c r="S23" s="388"/>
+      <c r="T23" s="403"/>
+      <c r="U23" s="388"/>
       <c r="V23" s="41"/>
       <c r="W23" s="36"/>
       <c r="X23" s="36"/>
     </row>
     <row r="24" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="394"/>
-      <c r="B24" s="384"/>
+      <c r="A24" s="408"/>
+      <c r="B24" s="398"/>
       <c r="C24" s="40"/>
       <c r="D24" s="40"/>
       <c r="E24" s="40"/>
@@ -6351,15 +6336,15 @@
       <c r="J24" s="36"/>
       <c r="K24" s="36"/>
       <c r="L24" s="42"/>
-      <c r="M24" s="375"/>
-      <c r="N24" s="387"/>
-      <c r="O24" s="375"/>
-      <c r="P24" s="375"/>
-      <c r="Q24" s="375"/>
-      <c r="R24" s="375"/>
-      <c r="S24" s="375"/>
-      <c r="T24" s="390"/>
-      <c r="U24" s="375"/>
+      <c r="M24" s="389"/>
+      <c r="N24" s="401"/>
+      <c r="O24" s="389"/>
+      <c r="P24" s="389"/>
+      <c r="Q24" s="389"/>
+      <c r="R24" s="389"/>
+      <c r="S24" s="389"/>
+      <c r="T24" s="404"/>
+      <c r="U24" s="389"/>
       <c r="V24" s="41"/>
       <c r="W24" s="36"/>
       <c r="X24" s="36"/>
@@ -6385,13 +6370,13 @@
       <c r="D27" s="46"/>
       <c r="E27" s="46"/>
       <c r="F27" s="46"/>
-      <c r="H27" s="395" t="s">
+      <c r="H27" s="409" t="s">
         <v>206</v>
       </c>
-      <c r="I27" s="395"/>
-      <c r="J27" s="395"/>
-      <c r="K27" s="395"/>
-      <c r="L27" s="395"/>
+      <c r="I27" s="409"/>
+      <c r="J27" s="409"/>
+      <c r="K27" s="409"/>
+      <c r="L27" s="409"/>
       <c r="M27" s="48"/>
       <c r="N27" s="48"/>
       <c r="O27" s="46"/>
@@ -6671,19 +6656,19 @@
     <row r="40" spans="1:40" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="104"/>
       <c r="C40" s="105"/>
-      <c r="D40" s="398" t="s">
+      <c r="D40" s="412" t="s">
         <v>4</v>
       </c>
-      <c r="E40" s="398"/>
-      <c r="F40" s="398"/>
-      <c r="G40" s="398"/>
-      <c r="H40" s="398"/>
-      <c r="I40" s="398" t="s">
+      <c r="E40" s="412"/>
+      <c r="F40" s="412"/>
+      <c r="G40" s="412"/>
+      <c r="H40" s="412"/>
+      <c r="I40" s="412" t="s">
         <v>5</v>
       </c>
-      <c r="J40" s="398"/>
-      <c r="K40" s="398"/>
-      <c r="L40" s="398"/>
+      <c r="J40" s="412"/>
+      <c r="K40" s="412"/>
+      <c r="L40" s="412"/>
       <c r="M40" s="117"/>
       <c r="N40" s="118" t="s">
         <v>48</v>
@@ -6807,7 +6792,7 @@
       </c>
     </row>
     <row r="42" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="399" t="s">
+      <c r="B42" s="413" t="s">
         <v>226</v>
       </c>
       <c r="C42" s="190"/>
@@ -6815,17 +6800,17 @@
       <c r="E42" s="111"/>
       <c r="F42" s="189"/>
       <c r="G42" s="189"/>
-      <c r="H42" s="397">
+      <c r="H42" s="411">
         <v>3.095975611358881E-3</v>
       </c>
       <c r="I42" s="111"/>
       <c r="J42" s="111"/>
       <c r="K42" s="189"/>
       <c r="L42" s="189"/>
-      <c r="M42" s="397">
+      <c r="M42" s="411">
         <v>1</v>
       </c>
-      <c r="N42" s="396" t="s">
+      <c r="N42" s="410" t="s">
         <v>59</v>
       </c>
       <c r="P42" s="91"/>
@@ -6873,7 +6858,7 @@
       <c r="AN42" s="88"/>
     </row>
     <row r="43" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="399"/>
+      <c r="B43" s="413"/>
       <c r="C43" s="190" t="s">
         <v>220</v>
       </c>
@@ -6889,7 +6874,7 @@
       <c r="G43" s="103">
         <v>97.126746422628088</v>
       </c>
-      <c r="H43" s="397"/>
+      <c r="H43" s="411"/>
       <c r="I43" s="111">
         <v>1</v>
       </c>
@@ -6902,8 +6887,8 @@
       <c r="L43" s="103">
         <v>1</v>
       </c>
-      <c r="M43" s="397"/>
-      <c r="N43" s="397"/>
+      <c r="M43" s="411"/>
+      <c r="N43" s="411"/>
       <c r="P43" s="92"/>
       <c r="Q43" s="92"/>
       <c r="U43" s="64"/>
@@ -6949,7 +6934,7 @@
       <c r="AN43" s="88"/>
     </row>
     <row r="44" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="399"/>
+      <c r="B44" s="413"/>
       <c r="C44" s="190" t="s">
         <v>218</v>
       </c>
@@ -6965,7 +6950,7 @@
       <c r="G44" s="189">
         <v>3.0959756012671502E-3</v>
       </c>
-      <c r="H44" s="397"/>
+      <c r="H44" s="411"/>
       <c r="I44" s="111">
         <v>1</v>
       </c>
@@ -6978,8 +6963,8 @@
       <c r="L44" s="189">
         <v>1</v>
       </c>
-      <c r="M44" s="397"/>
-      <c r="N44" s="397"/>
+      <c r="M44" s="411"/>
+      <c r="N44" s="411"/>
       <c r="P44" s="91"/>
       <c r="Q44" s="91"/>
       <c r="U44" s="64"/>
@@ -7025,7 +7010,7 @@
       <c r="AN44" s="88"/>
     </row>
     <row r="45" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="399"/>
+      <c r="B45" s="413"/>
       <c r="C45" s="190" t="s">
         <v>219</v>
       </c>
@@ -7041,7 +7026,7 @@
       <c r="G45" s="189">
         <v>3.0959756012671502E-3</v>
       </c>
-      <c r="H45" s="397"/>
+      <c r="H45" s="411"/>
       <c r="I45" s="111">
         <v>1</v>
       </c>
@@ -7054,8 +7039,8 @@
       <c r="L45" s="189">
         <v>1</v>
       </c>
-      <c r="M45" s="397"/>
-      <c r="N45" s="397"/>
+      <c r="M45" s="411"/>
+      <c r="N45" s="411"/>
       <c r="P45" s="91"/>
       <c r="Q45" s="91"/>
       <c r="U45" s="64"/>
@@ -7101,19 +7086,19 @@
       <c r="AN45" s="88"/>
     </row>
     <row r="46" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="399"/>
+      <c r="B46" s="413"/>
       <c r="C46" s="190"/>
       <c r="D46" s="111"/>
       <c r="E46" s="111"/>
       <c r="F46" s="189"/>
       <c r="G46" s="189"/>
-      <c r="H46" s="397"/>
+      <c r="H46" s="411"/>
       <c r="I46" s="111"/>
       <c r="J46" s="111"/>
       <c r="K46" s="189"/>
       <c r="L46" s="189"/>
-      <c r="M46" s="397"/>
-      <c r="N46" s="400"/>
+      <c r="M46" s="411"/>
+      <c r="N46" s="414"/>
       <c r="P46" s="91"/>
       <c r="Q46" s="91"/>
       <c r="U46" s="64"/>
@@ -7159,19 +7144,19 @@
       <c r="AN46" s="88"/>
     </row>
     <row r="47" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="399"/>
+      <c r="B47" s="413"/>
       <c r="C47" s="190"/>
       <c r="D47" s="111"/>
       <c r="E47" s="111"/>
       <c r="F47" s="111"/>
       <c r="G47" s="111"/>
-      <c r="H47" s="397"/>
+      <c r="H47" s="411"/>
       <c r="I47" s="111"/>
       <c r="J47" s="111"/>
       <c r="K47" s="111"/>
       <c r="L47" s="111"/>
-      <c r="M47" s="397"/>
-      <c r="N47" s="401"/>
+      <c r="M47" s="411"/>
+      <c r="N47" s="415"/>
       <c r="P47" s="81"/>
       <c r="Q47" s="81"/>
       <c r="S47" s="69"/>
@@ -7219,19 +7204,19 @@
       <c r="AN47" s="88"/>
     </row>
     <row r="48" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="399"/>
+      <c r="B48" s="413"/>
       <c r="C48" s="190"/>
       <c r="D48" s="111"/>
       <c r="E48" s="111"/>
       <c r="F48" s="111"/>
       <c r="G48" s="111"/>
-      <c r="H48" s="397"/>
+      <c r="H48" s="411"/>
       <c r="I48" s="111"/>
       <c r="J48" s="111"/>
       <c r="K48" s="111"/>
       <c r="L48" s="111"/>
-      <c r="M48" s="397"/>
-      <c r="N48" s="401"/>
+      <c r="M48" s="411"/>
+      <c r="N48" s="415"/>
       <c r="P48" s="81"/>
       <c r="Q48" s="81"/>
       <c r="S48" s="69"/>
@@ -7279,19 +7264,19 @@
       <c r="AN48" s="88"/>
     </row>
     <row r="49" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="399"/>
+      <c r="B49" s="413"/>
       <c r="C49" s="190"/>
       <c r="D49" s="111"/>
       <c r="E49" s="111"/>
       <c r="F49" s="111"/>
       <c r="G49" s="111"/>
-      <c r="H49" s="397"/>
+      <c r="H49" s="411"/>
       <c r="I49" s="111"/>
       <c r="J49" s="111"/>
       <c r="K49" s="111"/>
       <c r="L49" s="111"/>
-      <c r="M49" s="397"/>
-      <c r="N49" s="401"/>
+      <c r="M49" s="411"/>
+      <c r="N49" s="415"/>
       <c r="P49" s="81"/>
       <c r="Q49" s="81"/>
       <c r="S49" s="69"/>
@@ -7339,19 +7324,19 @@
       <c r="AN49" s="89"/>
     </row>
     <row r="50" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="402"/>
+      <c r="B50" s="416"/>
       <c r="C50" s="191"/>
       <c r="D50" s="187"/>
       <c r="E50" s="187"/>
       <c r="F50" s="187"/>
       <c r="G50" s="187"/>
-      <c r="H50" s="403"/>
+      <c r="H50" s="417"/>
       <c r="I50" s="187"/>
       <c r="J50" s="187"/>
       <c r="K50" s="187"/>
       <c r="L50" s="187"/>
-      <c r="M50" s="403"/>
-      <c r="N50" s="404"/>
+      <c r="M50" s="417"/>
+      <c r="N50" s="418"/>
       <c r="P50" s="81"/>
       <c r="Q50" s="81"/>
       <c r="S50" s="69"/>
@@ -7372,19 +7357,19 @@
       <c r="AN50" s="64"/>
     </row>
     <row r="51" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="402"/>
+      <c r="B51" s="416"/>
       <c r="C51" s="191"/>
       <c r="D51" s="187"/>
       <c r="E51" s="187"/>
       <c r="F51" s="187"/>
       <c r="G51" s="187"/>
-      <c r="H51" s="403"/>
+      <c r="H51" s="417"/>
       <c r="I51" s="187"/>
       <c r="J51" s="187"/>
       <c r="K51" s="187"/>
       <c r="L51" s="187"/>
-      <c r="M51" s="403"/>
-      <c r="N51" s="405"/>
+      <c r="M51" s="417"/>
+      <c r="N51" s="419"/>
       <c r="P51" s="81"/>
       <c r="Q51" s="81"/>
       <c r="S51" s="69"/>
@@ -7415,19 +7400,19 @@
       <c r="AN51" s="46"/>
     </row>
     <row r="52" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="402"/>
+      <c r="B52" s="416"/>
       <c r="C52" s="191"/>
       <c r="D52" s="187"/>
       <c r="E52" s="187"/>
       <c r="F52" s="187"/>
       <c r="G52" s="187"/>
-      <c r="H52" s="403"/>
+      <c r="H52" s="417"/>
       <c r="I52" s="187"/>
       <c r="J52" s="187"/>
       <c r="K52" s="187"/>
       <c r="L52" s="187"/>
-      <c r="M52" s="403"/>
-      <c r="N52" s="405"/>
+      <c r="M52" s="417"/>
+      <c r="N52" s="419"/>
       <c r="P52" s="81"/>
       <c r="Q52" s="81"/>
       <c r="S52" s="69"/>
@@ -7491,19 +7476,19 @@
       </c>
     </row>
     <row r="53" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="402"/>
+      <c r="B53" s="416"/>
       <c r="C53" s="191"/>
       <c r="D53" s="187"/>
       <c r="E53" s="187"/>
       <c r="F53" s="187"/>
       <c r="G53" s="187"/>
-      <c r="H53" s="403"/>
+      <c r="H53" s="417"/>
       <c r="I53" s="187"/>
       <c r="J53" s="187"/>
       <c r="K53" s="187"/>
       <c r="L53" s="187"/>
-      <c r="M53" s="403"/>
-      <c r="N53" s="405"/>
+      <c r="M53" s="417"/>
+      <c r="N53" s="419"/>
       <c r="P53" s="81"/>
       <c r="Q53" s="81"/>
       <c r="S53" s="69"/>
@@ -7552,19 +7537,19 @@
       <c r="AN53" s="88"/>
     </row>
     <row r="54" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="402"/>
+      <c r="B54" s="416"/>
       <c r="C54" s="191"/>
       <c r="D54" s="187"/>
       <c r="E54" s="187"/>
       <c r="F54" s="187"/>
       <c r="G54" s="187"/>
-      <c r="H54" s="403"/>
+      <c r="H54" s="417"/>
       <c r="I54" s="187"/>
       <c r="J54" s="187"/>
       <c r="K54" s="187"/>
       <c r="L54" s="187"/>
-      <c r="M54" s="403"/>
-      <c r="N54" s="406"/>
+      <c r="M54" s="417"/>
+      <c r="N54" s="420"/>
       <c r="P54" s="81"/>
       <c r="Q54" s="81"/>
       <c r="S54" s="69"/>
@@ -7611,19 +7596,19 @@
       <c r="AN54" s="88"/>
     </row>
     <row r="55" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="402"/>
+      <c r="B55" s="416"/>
       <c r="C55" s="191"/>
       <c r="D55" s="187"/>
       <c r="E55" s="187"/>
       <c r="F55" s="187"/>
       <c r="G55" s="187"/>
-      <c r="H55" s="403"/>
+      <c r="H55" s="417"/>
       <c r="I55" s="187"/>
       <c r="J55" s="187"/>
       <c r="K55" s="187"/>
       <c r="L55" s="187"/>
-      <c r="M55" s="403"/>
-      <c r="N55" s="405"/>
+      <c r="M55" s="417"/>
+      <c r="N55" s="419"/>
       <c r="P55" s="81"/>
       <c r="Q55" s="81"/>
       <c r="S55" s="69"/>
@@ -7670,19 +7655,19 @@
       <c r="AN55" s="88"/>
     </row>
     <row r="56" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="402"/>
+      <c r="B56" s="416"/>
       <c r="C56" s="191"/>
       <c r="D56" s="187"/>
       <c r="E56" s="187"/>
       <c r="F56" s="187"/>
       <c r="G56" s="187"/>
-      <c r="H56" s="403"/>
+      <c r="H56" s="417"/>
       <c r="I56" s="187"/>
       <c r="J56" s="187"/>
       <c r="K56" s="187"/>
       <c r="L56" s="187"/>
-      <c r="M56" s="403"/>
-      <c r="N56" s="405"/>
+      <c r="M56" s="417"/>
+      <c r="N56" s="419"/>
       <c r="P56" s="81"/>
       <c r="Q56" s="81"/>
       <c r="S56" s="69"/>
@@ -7729,19 +7714,19 @@
       <c r="AN56" s="88"/>
     </row>
     <row r="57" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="402"/>
+      <c r="B57" s="416"/>
       <c r="C57" s="191"/>
       <c r="D57" s="187"/>
       <c r="E57" s="187"/>
       <c r="F57" s="187"/>
       <c r="G57" s="187"/>
-      <c r="H57" s="403"/>
+      <c r="H57" s="417"/>
       <c r="I57" s="187"/>
       <c r="J57" s="187"/>
       <c r="K57" s="187"/>
       <c r="L57" s="187"/>
-      <c r="M57" s="403"/>
-      <c r="N57" s="405"/>
+      <c r="M57" s="417"/>
+      <c r="N57" s="419"/>
       <c r="P57" s="81"/>
       <c r="Q57" s="81"/>
       <c r="S57" s="69"/>
@@ -7788,19 +7773,19 @@
       <c r="AN57" s="88"/>
     </row>
     <row r="58" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="407"/>
+      <c r="B58" s="421"/>
       <c r="C58" s="185"/>
       <c r="D58" s="192"/>
       <c r="E58" s="192"/>
       <c r="F58" s="192"/>
       <c r="G58" s="192"/>
-      <c r="H58" s="408"/>
+      <c r="H58" s="422"/>
       <c r="I58" s="192"/>
       <c r="J58" s="192"/>
       <c r="K58" s="192"/>
       <c r="L58" s="192"/>
-      <c r="M58" s="408"/>
-      <c r="N58" s="409"/>
+      <c r="M58" s="422"/>
+      <c r="N58" s="423"/>
       <c r="P58" s="81"/>
       <c r="Q58" s="81"/>
       <c r="S58" s="69"/>
@@ -7847,19 +7832,19 @@
       <c r="AN58" s="88"/>
     </row>
     <row r="59" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="407"/>
+      <c r="B59" s="421"/>
       <c r="C59" s="185"/>
       <c r="D59" s="192"/>
       <c r="E59" s="192"/>
       <c r="F59" s="192"/>
       <c r="G59" s="192"/>
-      <c r="H59" s="408"/>
+      <c r="H59" s="422"/>
       <c r="I59" s="192"/>
       <c r="J59" s="192"/>
       <c r="K59" s="192"/>
       <c r="L59" s="192"/>
-      <c r="M59" s="408"/>
-      <c r="N59" s="410"/>
+      <c r="M59" s="422"/>
+      <c r="N59" s="424"/>
       <c r="P59" s="81"/>
       <c r="Q59" s="81"/>
       <c r="S59" s="69"/>
@@ -7906,19 +7891,19 @@
       <c r="AN59" s="88"/>
     </row>
     <row r="60" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="407"/>
+      <c r="B60" s="421"/>
       <c r="C60" s="185"/>
       <c r="D60" s="192"/>
       <c r="E60" s="192"/>
       <c r="F60" s="192"/>
       <c r="G60" s="192"/>
-      <c r="H60" s="408"/>
+      <c r="H60" s="422"/>
       <c r="I60" s="192"/>
       <c r="J60" s="192"/>
       <c r="K60" s="192"/>
       <c r="L60" s="192"/>
-      <c r="M60" s="408"/>
-      <c r="N60" s="410"/>
+      <c r="M60" s="422"/>
+      <c r="N60" s="424"/>
       <c r="P60" s="81"/>
       <c r="Q60" s="81"/>
       <c r="S60" s="69"/>
@@ -7965,247 +7950,247 @@
       <c r="AN60" s="89"/>
     </row>
     <row r="61" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="407"/>
+      <c r="B61" s="421"/>
       <c r="C61" s="185"/>
       <c r="D61" s="192"/>
       <c r="E61" s="192"/>
       <c r="F61" s="192"/>
       <c r="G61" s="192"/>
-      <c r="H61" s="408"/>
+      <c r="H61" s="422"/>
       <c r="I61" s="192"/>
       <c r="J61" s="192"/>
       <c r="K61" s="192"/>
       <c r="L61" s="192"/>
-      <c r="M61" s="408"/>
-      <c r="N61" s="410"/>
+      <c r="M61" s="422"/>
+      <c r="N61" s="424"/>
       <c r="P61" s="81"/>
       <c r="Q61" s="81"/>
       <c r="S61" s="69"/>
       <c r="T61" s="69"/>
     </row>
     <row r="62" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="407"/>
+      <c r="B62" s="421"/>
       <c r="C62" s="185"/>
       <c r="D62" s="192"/>
       <c r="E62" s="192"/>
       <c r="F62" s="192"/>
       <c r="G62" s="192"/>
-      <c r="H62" s="408"/>
+      <c r="H62" s="422"/>
       <c r="I62" s="192"/>
       <c r="J62" s="192"/>
       <c r="K62" s="192"/>
       <c r="L62" s="192"/>
-      <c r="M62" s="408"/>
-      <c r="N62" s="415"/>
+      <c r="M62" s="422"/>
+      <c r="N62" s="429"/>
       <c r="P62" s="81"/>
       <c r="Q62" s="81"/>
       <c r="S62" s="69"/>
       <c r="T62" s="69"/>
     </row>
     <row r="63" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="407"/>
+      <c r="B63" s="421"/>
       <c r="C63" s="185"/>
       <c r="D63" s="192"/>
       <c r="E63" s="192"/>
       <c r="F63" s="192"/>
       <c r="G63" s="192"/>
-      <c r="H63" s="408"/>
+      <c r="H63" s="422"/>
       <c r="I63" s="192"/>
       <c r="J63" s="192"/>
       <c r="K63" s="192"/>
       <c r="L63" s="192"/>
-      <c r="M63" s="408"/>
-      <c r="N63" s="410"/>
+      <c r="M63" s="422"/>
+      <c r="N63" s="424"/>
       <c r="P63" s="81"/>
       <c r="Q63" s="81"/>
       <c r="S63" s="69"/>
       <c r="T63" s="69"/>
     </row>
     <row r="64" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="407"/>
+      <c r="B64" s="421"/>
       <c r="C64" s="185"/>
       <c r="D64" s="192"/>
       <c r="E64" s="192"/>
       <c r="F64" s="192"/>
       <c r="G64" s="192"/>
-      <c r="H64" s="408"/>
+      <c r="H64" s="422"/>
       <c r="I64" s="192"/>
       <c r="J64" s="192"/>
       <c r="K64" s="192"/>
       <c r="L64" s="192"/>
-      <c r="M64" s="408"/>
-      <c r="N64" s="410"/>
+      <c r="M64" s="422"/>
+      <c r="N64" s="424"/>
       <c r="P64" s="81"/>
       <c r="Q64" s="81"/>
       <c r="S64" s="69"/>
       <c r="T64" s="69"/>
     </row>
     <row r="65" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="407"/>
+      <c r="B65" s="421"/>
       <c r="C65" s="185"/>
       <c r="D65" s="192"/>
       <c r="E65" s="192"/>
       <c r="F65" s="192"/>
       <c r="G65" s="192"/>
-      <c r="H65" s="408"/>
+      <c r="H65" s="422"/>
       <c r="I65" s="192"/>
       <c r="J65" s="192"/>
       <c r="K65" s="192"/>
       <c r="L65" s="192"/>
-      <c r="M65" s="408"/>
-      <c r="N65" s="410"/>
+      <c r="M65" s="422"/>
+      <c r="N65" s="424"/>
       <c r="P65" s="81"/>
       <c r="Q65" s="81"/>
       <c r="S65" s="69"/>
       <c r="T65" s="69"/>
     </row>
     <row r="66" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="411"/>
+      <c r="B66" s="425"/>
       <c r="C66" s="186"/>
       <c r="D66" s="188"/>
       <c r="E66" s="188"/>
       <c r="F66" s="188"/>
       <c r="G66" s="188"/>
-      <c r="H66" s="412"/>
+      <c r="H66" s="426"/>
       <c r="I66" s="188"/>
       <c r="J66" s="188"/>
       <c r="K66" s="188"/>
       <c r="L66" s="188"/>
-      <c r="M66" s="412"/>
-      <c r="N66" s="416"/>
+      <c r="M66" s="426"/>
+      <c r="N66" s="430"/>
       <c r="P66" s="81"/>
       <c r="Q66" s="81"/>
       <c r="S66" s="69"/>
       <c r="T66" s="69"/>
     </row>
     <row r="67" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="411"/>
+      <c r="B67" s="425"/>
       <c r="C67" s="186"/>
       <c r="D67" s="188"/>
       <c r="E67" s="188"/>
       <c r="F67" s="188"/>
       <c r="G67" s="188"/>
-      <c r="H67" s="412"/>
+      <c r="H67" s="426"/>
       <c r="I67" s="188"/>
       <c r="J67" s="188"/>
       <c r="K67" s="188"/>
       <c r="L67" s="188"/>
-      <c r="M67" s="412"/>
-      <c r="N67" s="414"/>
+      <c r="M67" s="426"/>
+      <c r="N67" s="428"/>
       <c r="P67" s="81"/>
       <c r="Q67" s="81"/>
       <c r="S67" s="69"/>
       <c r="T67" s="69"/>
     </row>
     <row r="68" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="411"/>
+      <c r="B68" s="425"/>
       <c r="C68" s="186"/>
       <c r="D68" s="188"/>
       <c r="E68" s="188"/>
       <c r="F68" s="188"/>
       <c r="G68" s="188"/>
-      <c r="H68" s="412"/>
+      <c r="H68" s="426"/>
       <c r="I68" s="188"/>
       <c r="J68" s="188"/>
       <c r="K68" s="188"/>
       <c r="L68" s="188"/>
-      <c r="M68" s="412"/>
-      <c r="N68" s="414"/>
+      <c r="M68" s="426"/>
+      <c r="N68" s="428"/>
       <c r="P68" s="81"/>
       <c r="Q68" s="81"/>
       <c r="S68" s="69"/>
       <c r="T68" s="69"/>
     </row>
     <row r="69" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="411"/>
+      <c r="B69" s="425"/>
       <c r="C69" s="186"/>
       <c r="D69" s="188"/>
       <c r="E69" s="188"/>
       <c r="F69" s="188"/>
       <c r="G69" s="188"/>
-      <c r="H69" s="412"/>
+      <c r="H69" s="426"/>
       <c r="I69" s="188"/>
       <c r="J69" s="188"/>
       <c r="K69" s="188"/>
       <c r="L69" s="188"/>
-      <c r="M69" s="412"/>
-      <c r="N69" s="414"/>
+      <c r="M69" s="426"/>
+      <c r="N69" s="428"/>
       <c r="P69" s="81"/>
       <c r="Q69" s="81"/>
       <c r="S69" s="69"/>
       <c r="T69" s="69"/>
     </row>
     <row r="70" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="411"/>
+      <c r="B70" s="425"/>
       <c r="C70" s="186"/>
       <c r="D70" s="188"/>
       <c r="E70" s="188"/>
       <c r="F70" s="188"/>
       <c r="G70" s="188"/>
-      <c r="H70" s="412"/>
+      <c r="H70" s="426"/>
       <c r="I70" s="188"/>
       <c r="J70" s="188"/>
       <c r="K70" s="188"/>
       <c r="L70" s="188"/>
-      <c r="M70" s="412"/>
-      <c r="N70" s="413"/>
+      <c r="M70" s="426"/>
+      <c r="N70" s="427"/>
       <c r="P70" s="81"/>
       <c r="Q70" s="81"/>
       <c r="S70" s="69"/>
       <c r="T70" s="69"/>
     </row>
     <row r="71" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="411"/>
+      <c r="B71" s="425"/>
       <c r="C71" s="186"/>
       <c r="D71" s="188"/>
       <c r="E71" s="188"/>
       <c r="F71" s="188"/>
       <c r="G71" s="188"/>
-      <c r="H71" s="412"/>
+      <c r="H71" s="426"/>
       <c r="I71" s="188"/>
       <c r="J71" s="188"/>
       <c r="K71" s="188"/>
       <c r="L71" s="188"/>
-      <c r="M71" s="412"/>
-      <c r="N71" s="414"/>
+      <c r="M71" s="426"/>
+      <c r="N71" s="428"/>
       <c r="P71" s="81"/>
       <c r="Q71" s="81"/>
       <c r="S71" s="69"/>
       <c r="T71" s="69"/>
     </row>
     <row r="72" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="411"/>
+      <c r="B72" s="425"/>
       <c r="C72" s="186"/>
       <c r="D72" s="188"/>
       <c r="E72" s="188"/>
       <c r="F72" s="188"/>
       <c r="G72" s="188"/>
-      <c r="H72" s="412"/>
+      <c r="H72" s="426"/>
       <c r="I72" s="188"/>
       <c r="J72" s="188"/>
       <c r="K72" s="188"/>
       <c r="L72" s="188"/>
-      <c r="M72" s="412"/>
-      <c r="N72" s="414"/>
+      <c r="M72" s="426"/>
+      <c r="N72" s="428"/>
       <c r="P72" s="81"/>
       <c r="Q72" s="81"/>
       <c r="S72" s="69"/>
       <c r="T72" s="69"/>
     </row>
     <row r="73" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="411"/>
+      <c r="B73" s="425"/>
       <c r="C73" s="186"/>
       <c r="D73" s="188"/>
       <c r="E73" s="188"/>
       <c r="F73" s="188"/>
       <c r="G73" s="188"/>
-      <c r="H73" s="412"/>
+      <c r="H73" s="426"/>
       <c r="I73" s="188"/>
       <c r="J73" s="188"/>
       <c r="K73" s="188"/>
       <c r="L73" s="188"/>
-      <c r="M73" s="412"/>
-      <c r="N73" s="414"/>
+      <c r="M73" s="426"/>
+      <c r="N73" s="428"/>
       <c r="P73" s="81"/>
       <c r="Q73" s="81"/>
       <c r="S73" s="69"/>
@@ -9858,8 +9843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU434"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="S33" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="AB42" sqref="AB42:AB70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -9907,15 +9892,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="39" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="F1" s="376" t="s">
+      <c r="F1" s="390" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="376"/>
-      <c r="H1" s="376"/>
-      <c r="I1" s="376"/>
-      <c r="J1" s="376"/>
-      <c r="K1" s="376"/>
-      <c r="L1" s="376"/>
+      <c r="G1" s="390"/>
+      <c r="H1" s="390"/>
+      <c r="I1" s="390"/>
+      <c r="J1" s="390"/>
+      <c r="K1" s="390"/>
+      <c r="L1" s="390"/>
       <c r="U1" s="22" t="s">
         <v>62</v>
       </c>
@@ -9964,22 +9949,22 @@
       <c r="L5" s="23"/>
     </row>
     <row r="6" spans="1:47" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D6" s="377" t="s">
+      <c r="D6" s="391" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="378"/>
-      <c r="F6" s="378"/>
-      <c r="G6" s="378"/>
-      <c r="H6" s="379"/>
+      <c r="E6" s="392"/>
+      <c r="F6" s="392"/>
+      <c r="G6" s="392"/>
+      <c r="H6" s="393"/>
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
-      <c r="M6" s="377" t="s">
+      <c r="M6" s="391" t="s">
         <v>66</v>
       </c>
-      <c r="N6" s="378"/>
-      <c r="O6" s="378"/>
-      <c r="P6" s="378"/>
-      <c r="Q6" s="379"/>
+      <c r="N6" s="392"/>
+      <c r="O6" s="392"/>
+      <c r="P6" s="392"/>
+      <c r="Q6" s="393"/>
     </row>
     <row r="7" spans="1:47" ht="76.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="24" t="s">
@@ -9997,10 +9982,10 @@
       <c r="E7" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="380" t="s">
+      <c r="F7" s="394" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="381"/>
+      <c r="G7" s="395"/>
       <c r="H7" s="24" t="s">
         <v>73</v>
       </c>
@@ -10023,10 +10008,10 @@
         <v>79</v>
       </c>
       <c r="O7" s="29"/>
-      <c r="P7" s="380" t="s">
+      <c r="P7" s="394" t="s">
         <v>80</v>
       </c>
-      <c r="Q7" s="381"/>
+      <c r="Q7" s="395"/>
       <c r="R7" s="30" t="s">
         <v>74</v>
       </c>
@@ -10094,7 +10079,7 @@
     </row>
     <row r="9" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="39"/>
-      <c r="B9" s="382"/>
+      <c r="B9" s="396"/>
       <c r="C9" s="40"/>
       <c r="D9" s="40"/>
       <c r="E9" s="40"/>
@@ -10105,15 +10090,15 @@
       <c r="J9" s="36"/>
       <c r="K9" s="36"/>
       <c r="L9" s="42"/>
-      <c r="M9" s="373"/>
-      <c r="N9" s="385"/>
-      <c r="O9" s="373"/>
-      <c r="P9" s="373"/>
-      <c r="Q9" s="373"/>
-      <c r="R9" s="373"/>
-      <c r="S9" s="373"/>
-      <c r="T9" s="388"/>
-      <c r="U9" s="373"/>
+      <c r="M9" s="387"/>
+      <c r="N9" s="399"/>
+      <c r="O9" s="387"/>
+      <c r="P9" s="387"/>
+      <c r="Q9" s="387"/>
+      <c r="R9" s="387"/>
+      <c r="S9" s="387"/>
+      <c r="T9" s="402"/>
+      <c r="U9" s="387"/>
       <c r="V9" s="41"/>
       <c r="W9" s="36"/>
       <c r="X9" s="36"/>
@@ -10123,7 +10108,7 @@
     </row>
     <row r="10" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="40"/>
-      <c r="B10" s="383"/>
+      <c r="B10" s="397"/>
       <c r="C10" s="40"/>
       <c r="D10" s="40"/>
       <c r="E10" s="40"/>
@@ -10134,15 +10119,15 @@
       <c r="J10" s="36"/>
       <c r="K10" s="36"/>
       <c r="L10" s="42"/>
-      <c r="M10" s="374"/>
-      <c r="N10" s="386"/>
-      <c r="O10" s="374"/>
-      <c r="P10" s="374"/>
-      <c r="Q10" s="374"/>
-      <c r="R10" s="374"/>
-      <c r="S10" s="374"/>
-      <c r="T10" s="389"/>
-      <c r="U10" s="374"/>
+      <c r="M10" s="388"/>
+      <c r="N10" s="400"/>
+      <c r="O10" s="388"/>
+      <c r="P10" s="388"/>
+      <c r="Q10" s="388"/>
+      <c r="R10" s="388"/>
+      <c r="S10" s="388"/>
+      <c r="T10" s="403"/>
+      <c r="U10" s="388"/>
       <c r="V10" s="41"/>
       <c r="W10" s="36"/>
       <c r="X10" s="36"/>
@@ -10150,8 +10135,8 @@
       <c r="AK10" s="46"/>
     </row>
     <row r="11" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="373"/>
-      <c r="B11" s="383"/>
+      <c r="A11" s="387"/>
+      <c r="B11" s="397"/>
       <c r="C11" s="40"/>
       <c r="D11" s="40"/>
       <c r="E11" s="40"/>
@@ -10162,15 +10147,15 @@
       <c r="J11" s="36"/>
       <c r="K11" s="36"/>
       <c r="L11" s="42"/>
-      <c r="M11" s="374"/>
-      <c r="N11" s="386"/>
-      <c r="O11" s="374"/>
-      <c r="P11" s="374"/>
-      <c r="Q11" s="374"/>
-      <c r="R11" s="374"/>
-      <c r="S11" s="374"/>
-      <c r="T11" s="389"/>
-      <c r="U11" s="374"/>
+      <c r="M11" s="388"/>
+      <c r="N11" s="400"/>
+      <c r="O11" s="388"/>
+      <c r="P11" s="388"/>
+      <c r="Q11" s="388"/>
+      <c r="R11" s="388"/>
+      <c r="S11" s="388"/>
+      <c r="T11" s="403"/>
+      <c r="U11" s="388"/>
       <c r="V11" s="41"/>
       <c r="W11" s="36"/>
       <c r="X11" s="36"/>
@@ -10180,8 +10165,8 @@
       <c r="AU11" s="65"/>
     </row>
     <row r="12" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="375"/>
-      <c r="B12" s="384"/>
+      <c r="A12" s="389"/>
+      <c r="B12" s="398"/>
       <c r="C12" s="40"/>
       <c r="D12" s="40"/>
       <c r="E12" s="40"/>
@@ -10192,15 +10177,15 @@
       <c r="J12" s="36"/>
       <c r="K12" s="36"/>
       <c r="L12" s="42"/>
-      <c r="M12" s="375"/>
-      <c r="N12" s="387"/>
-      <c r="O12" s="375"/>
-      <c r="P12" s="375"/>
-      <c r="Q12" s="375"/>
-      <c r="R12" s="375"/>
-      <c r="S12" s="375"/>
-      <c r="T12" s="390"/>
-      <c r="U12" s="375"/>
+      <c r="M12" s="389"/>
+      <c r="N12" s="401"/>
+      <c r="O12" s="389"/>
+      <c r="P12" s="389"/>
+      <c r="Q12" s="389"/>
+      <c r="R12" s="389"/>
+      <c r="S12" s="389"/>
+      <c r="T12" s="404"/>
+      <c r="U12" s="389"/>
       <c r="V12" s="41"/>
       <c r="W12" s="36"/>
       <c r="X12" s="36"/>
@@ -10209,7 +10194,7 @@
     </row>
     <row r="13" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="43"/>
-      <c r="B13" s="382"/>
+      <c r="B13" s="396"/>
       <c r="C13" s="40"/>
       <c r="D13" s="40"/>
       <c r="E13" s="40"/>
@@ -10220,15 +10205,15 @@
       <c r="J13" s="36"/>
       <c r="K13" s="36"/>
       <c r="L13" s="42"/>
-      <c r="M13" s="373"/>
-      <c r="N13" s="385"/>
-      <c r="O13" s="373"/>
-      <c r="P13" s="373"/>
-      <c r="Q13" s="373"/>
-      <c r="R13" s="373"/>
-      <c r="S13" s="373"/>
-      <c r="T13" s="388"/>
-      <c r="U13" s="373"/>
+      <c r="M13" s="387"/>
+      <c r="N13" s="399"/>
+      <c r="O13" s="387"/>
+      <c r="P13" s="387"/>
+      <c r="Q13" s="387"/>
+      <c r="R13" s="387"/>
+      <c r="S13" s="387"/>
+      <c r="T13" s="402"/>
+      <c r="U13" s="387"/>
       <c r="V13" s="41"/>
       <c r="W13" s="36"/>
       <c r="X13" s="36"/>
@@ -10237,7 +10222,7 @@
     </row>
     <row r="14" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="44"/>
-      <c r="B14" s="383"/>
+      <c r="B14" s="397"/>
       <c r="C14" s="40"/>
       <c r="D14" s="40"/>
       <c r="E14" s="40"/>
@@ -10248,15 +10233,15 @@
       <c r="J14" s="36"/>
       <c r="K14" s="36"/>
       <c r="L14" s="42"/>
-      <c r="M14" s="374"/>
-      <c r="N14" s="386"/>
-      <c r="O14" s="374"/>
-      <c r="P14" s="374"/>
-      <c r="Q14" s="374"/>
-      <c r="R14" s="374"/>
-      <c r="S14" s="374"/>
-      <c r="T14" s="389"/>
-      <c r="U14" s="374"/>
+      <c r="M14" s="388"/>
+      <c r="N14" s="400"/>
+      <c r="O14" s="388"/>
+      <c r="P14" s="388"/>
+      <c r="Q14" s="388"/>
+      <c r="R14" s="388"/>
+      <c r="S14" s="388"/>
+      <c r="T14" s="403"/>
+      <c r="U14" s="388"/>
       <c r="V14" s="41"/>
       <c r="W14" s="36"/>
       <c r="X14" s="36"/>
@@ -10264,8 +10249,8 @@
       <c r="AT14" s="70"/>
     </row>
     <row r="15" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="391"/>
-      <c r="B15" s="383"/>
+      <c r="A15" s="405"/>
+      <c r="B15" s="397"/>
       <c r="C15" s="40"/>
       <c r="D15" s="40"/>
       <c r="E15" s="40"/>
@@ -10276,15 +10261,15 @@
       <c r="J15" s="36"/>
       <c r="K15" s="36"/>
       <c r="L15" s="42"/>
-      <c r="M15" s="374"/>
-      <c r="N15" s="386"/>
-      <c r="O15" s="374"/>
-      <c r="P15" s="374"/>
-      <c r="Q15" s="374"/>
-      <c r="R15" s="374"/>
-      <c r="S15" s="374"/>
-      <c r="T15" s="389"/>
-      <c r="U15" s="374"/>
+      <c r="M15" s="388"/>
+      <c r="N15" s="400"/>
+      <c r="O15" s="388"/>
+      <c r="P15" s="388"/>
+      <c r="Q15" s="388"/>
+      <c r="R15" s="388"/>
+      <c r="S15" s="388"/>
+      <c r="T15" s="403"/>
+      <c r="U15" s="388"/>
       <c r="V15" s="41"/>
       <c r="W15" s="36"/>
       <c r="X15" s="36"/>
@@ -10292,8 +10277,8 @@
       <c r="AT15" s="46"/>
     </row>
     <row r="16" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="392"/>
-      <c r="B16" s="384"/>
+      <c r="A16" s="406"/>
+      <c r="B16" s="398"/>
       <c r="C16" s="40"/>
       <c r="D16" s="40"/>
       <c r="E16" s="40"/>
@@ -10304,15 +10289,15 @@
       <c r="J16" s="36"/>
       <c r="K16" s="36"/>
       <c r="L16" s="42"/>
-      <c r="M16" s="375"/>
-      <c r="N16" s="387"/>
-      <c r="O16" s="375"/>
-      <c r="P16" s="375"/>
-      <c r="Q16" s="375"/>
-      <c r="R16" s="375"/>
-      <c r="S16" s="375"/>
-      <c r="T16" s="390"/>
-      <c r="U16" s="375"/>
+      <c r="M16" s="389"/>
+      <c r="N16" s="401"/>
+      <c r="O16" s="389"/>
+      <c r="P16" s="389"/>
+      <c r="Q16" s="389"/>
+      <c r="R16" s="389"/>
+      <c r="S16" s="389"/>
+      <c r="T16" s="404"/>
+      <c r="U16" s="389"/>
       <c r="V16" s="41"/>
       <c r="W16" s="36"/>
       <c r="X16" s="36"/>
@@ -10321,7 +10306,7 @@
     </row>
     <row r="17" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="39"/>
-      <c r="B17" s="382"/>
+      <c r="B17" s="396"/>
       <c r="C17" s="40"/>
       <c r="D17" s="40"/>
       <c r="E17" s="40"/>
@@ -10332,15 +10317,15 @@
       <c r="J17" s="36"/>
       <c r="K17" s="36"/>
       <c r="L17" s="42"/>
-      <c r="M17" s="373"/>
-      <c r="N17" s="385"/>
-      <c r="O17" s="373"/>
-      <c r="P17" s="373"/>
-      <c r="Q17" s="373"/>
-      <c r="R17" s="373"/>
-      <c r="S17" s="373"/>
-      <c r="T17" s="388"/>
-      <c r="U17" s="373"/>
+      <c r="M17" s="387"/>
+      <c r="N17" s="399"/>
+      <c r="O17" s="387"/>
+      <c r="P17" s="387"/>
+      <c r="Q17" s="387"/>
+      <c r="R17" s="387"/>
+      <c r="S17" s="387"/>
+      <c r="T17" s="402"/>
+      <c r="U17" s="387"/>
       <c r="V17" s="41"/>
       <c r="W17" s="36"/>
       <c r="X17" s="36"/>
@@ -10349,7 +10334,7 @@
     </row>
     <row r="18" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="40"/>
-      <c r="B18" s="383"/>
+      <c r="B18" s="397"/>
       <c r="C18" s="40"/>
       <c r="D18" s="40"/>
       <c r="E18" s="40"/>
@@ -10360,22 +10345,22 @@
       <c r="J18" s="36"/>
       <c r="K18" s="36"/>
       <c r="L18" s="42"/>
-      <c r="M18" s="374"/>
-      <c r="N18" s="386"/>
-      <c r="O18" s="374"/>
-      <c r="P18" s="374"/>
-      <c r="Q18" s="374"/>
-      <c r="R18" s="374"/>
-      <c r="S18" s="374"/>
-      <c r="T18" s="389"/>
-      <c r="U18" s="374"/>
+      <c r="M18" s="388"/>
+      <c r="N18" s="400"/>
+      <c r="O18" s="388"/>
+      <c r="P18" s="388"/>
+      <c r="Q18" s="388"/>
+      <c r="R18" s="388"/>
+      <c r="S18" s="388"/>
+      <c r="T18" s="403"/>
+      <c r="U18" s="388"/>
       <c r="V18" s="41"/>
       <c r="W18" s="36"/>
       <c r="X18" s="36"/>
     </row>
     <row r="19" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="373"/>
-      <c r="B19" s="383"/>
+      <c r="A19" s="387"/>
+      <c r="B19" s="397"/>
       <c r="C19" s="40"/>
       <c r="D19" s="40"/>
       <c r="E19" s="40"/>
@@ -10386,22 +10371,22 @@
       <c r="J19" s="36"/>
       <c r="K19" s="36"/>
       <c r="L19" s="42"/>
-      <c r="M19" s="374"/>
-      <c r="N19" s="386"/>
-      <c r="O19" s="374"/>
-      <c r="P19" s="374"/>
-      <c r="Q19" s="374"/>
-      <c r="R19" s="374"/>
-      <c r="S19" s="374"/>
-      <c r="T19" s="389"/>
-      <c r="U19" s="374"/>
+      <c r="M19" s="388"/>
+      <c r="N19" s="400"/>
+      <c r="O19" s="388"/>
+      <c r="P19" s="388"/>
+      <c r="Q19" s="388"/>
+      <c r="R19" s="388"/>
+      <c r="S19" s="388"/>
+      <c r="T19" s="403"/>
+      <c r="U19" s="388"/>
       <c r="V19" s="41"/>
       <c r="W19" s="36"/>
       <c r="X19" s="36"/>
     </row>
     <row r="20" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="375"/>
-      <c r="B20" s="384"/>
+      <c r="A20" s="389"/>
+      <c r="B20" s="398"/>
       <c r="C20" s="40"/>
       <c r="D20" s="40"/>
       <c r="E20" s="40"/>
@@ -10412,22 +10397,22 @@
       <c r="J20" s="36"/>
       <c r="K20" s="36"/>
       <c r="L20" s="42"/>
-      <c r="M20" s="375"/>
-      <c r="N20" s="387"/>
-      <c r="O20" s="375"/>
-      <c r="P20" s="375"/>
-      <c r="Q20" s="375"/>
-      <c r="R20" s="375"/>
-      <c r="S20" s="375"/>
-      <c r="T20" s="390"/>
-      <c r="U20" s="375"/>
+      <c r="M20" s="389"/>
+      <c r="N20" s="401"/>
+      <c r="O20" s="389"/>
+      <c r="P20" s="389"/>
+      <c r="Q20" s="389"/>
+      <c r="R20" s="389"/>
+      <c r="S20" s="389"/>
+      <c r="T20" s="404"/>
+      <c r="U20" s="389"/>
       <c r="V20" s="41"/>
       <c r="W20" s="36"/>
       <c r="X20" s="36"/>
     </row>
     <row r="21" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="39"/>
-      <c r="B21" s="382"/>
+      <c r="B21" s="396"/>
       <c r="C21" s="40"/>
       <c r="D21" s="40"/>
       <c r="E21" s="40"/>
@@ -10438,22 +10423,22 @@
       <c r="J21" s="36"/>
       <c r="K21" s="36"/>
       <c r="L21" s="42"/>
-      <c r="M21" s="373"/>
-      <c r="N21" s="385"/>
-      <c r="O21" s="373"/>
-      <c r="P21" s="373"/>
-      <c r="Q21" s="373"/>
-      <c r="R21" s="373"/>
-      <c r="S21" s="373"/>
-      <c r="T21" s="388"/>
-      <c r="U21" s="373"/>
+      <c r="M21" s="387"/>
+      <c r="N21" s="399"/>
+      <c r="O21" s="387"/>
+      <c r="P21" s="387"/>
+      <c r="Q21" s="387"/>
+      <c r="R21" s="387"/>
+      <c r="S21" s="387"/>
+      <c r="T21" s="402"/>
+      <c r="U21" s="387"/>
       <c r="V21" s="41"/>
       <c r="W21" s="36"/>
       <c r="X21" s="36"/>
     </row>
     <row r="22" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="40"/>
-      <c r="B22" s="383"/>
+      <c r="B22" s="397"/>
       <c r="C22" s="40"/>
       <c r="D22" s="40"/>
       <c r="E22" s="40"/>
@@ -10464,22 +10449,22 @@
       <c r="J22" s="36"/>
       <c r="K22" s="36"/>
       <c r="L22" s="42"/>
-      <c r="M22" s="374"/>
-      <c r="N22" s="386"/>
-      <c r="O22" s="374"/>
-      <c r="P22" s="374"/>
-      <c r="Q22" s="374"/>
-      <c r="R22" s="374"/>
-      <c r="S22" s="374"/>
-      <c r="T22" s="389"/>
-      <c r="U22" s="374"/>
+      <c r="M22" s="388"/>
+      <c r="N22" s="400"/>
+      <c r="O22" s="388"/>
+      <c r="P22" s="388"/>
+      <c r="Q22" s="388"/>
+      <c r="R22" s="388"/>
+      <c r="S22" s="388"/>
+      <c r="T22" s="403"/>
+      <c r="U22" s="388"/>
       <c r="V22" s="41"/>
       <c r="W22" s="36"/>
       <c r="X22" s="36"/>
     </row>
     <row r="23" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="393"/>
-      <c r="B23" s="383"/>
+      <c r="A23" s="407"/>
+      <c r="B23" s="397"/>
       <c r="C23" s="40"/>
       <c r="D23" s="40"/>
       <c r="E23" s="40"/>
@@ -10490,22 +10475,22 @@
       <c r="J23" s="36"/>
       <c r="K23" s="36"/>
       <c r="L23" s="42"/>
-      <c r="M23" s="374"/>
-      <c r="N23" s="386"/>
-      <c r="O23" s="374"/>
-      <c r="P23" s="374"/>
-      <c r="Q23" s="374"/>
-      <c r="R23" s="374"/>
-      <c r="S23" s="374"/>
-      <c r="T23" s="389"/>
-      <c r="U23" s="374"/>
+      <c r="M23" s="388"/>
+      <c r="N23" s="400"/>
+      <c r="O23" s="388"/>
+      <c r="P23" s="388"/>
+      <c r="Q23" s="388"/>
+      <c r="R23" s="388"/>
+      <c r="S23" s="388"/>
+      <c r="T23" s="403"/>
+      <c r="U23" s="388"/>
       <c r="V23" s="41"/>
       <c r="W23" s="36"/>
       <c r="X23" s="36"/>
     </row>
     <row r="24" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="394"/>
-      <c r="B24" s="384"/>
+      <c r="A24" s="408"/>
+      <c r="B24" s="398"/>
       <c r="C24" s="40"/>
       <c r="D24" s="40"/>
       <c r="E24" s="40"/>
@@ -10516,15 +10501,15 @@
       <c r="J24" s="36"/>
       <c r="K24" s="36"/>
       <c r="L24" s="42"/>
-      <c r="M24" s="375"/>
-      <c r="N24" s="387"/>
-      <c r="O24" s="375"/>
-      <c r="P24" s="375"/>
-      <c r="Q24" s="375"/>
-      <c r="R24" s="375"/>
-      <c r="S24" s="375"/>
-      <c r="T24" s="390"/>
-      <c r="U24" s="375"/>
+      <c r="M24" s="389"/>
+      <c r="N24" s="401"/>
+      <c r="O24" s="389"/>
+      <c r="P24" s="389"/>
+      <c r="Q24" s="389"/>
+      <c r="R24" s="389"/>
+      <c r="S24" s="389"/>
+      <c r="T24" s="404"/>
+      <c r="U24" s="389"/>
       <c r="V24" s="41"/>
       <c r="W24" s="36"/>
       <c r="X24" s="36"/>
@@ -10558,11 +10543,11 @@
       <c r="E27" s="46"/>
       <c r="F27" s="46"/>
       <c r="G27" s="46"/>
-      <c r="H27" s="314"/>
-      <c r="I27" s="314"/>
-      <c r="J27" s="314"/>
-      <c r="K27" s="314"/>
-      <c r="L27" s="314"/>
+      <c r="H27" s="312"/>
+      <c r="I27" s="312"/>
+      <c r="J27" s="312"/>
+      <c r="K27" s="312"/>
+      <c r="L27" s="312"/>
       <c r="M27" s="69"/>
       <c r="N27" s="48"/>
       <c r="O27" s="46"/>
@@ -10577,7 +10562,7 @@
       <c r="G28" s="46"/>
       <c r="H28" s="46"/>
       <c r="I28" s="53"/>
-      <c r="J28" s="311"/>
+      <c r="J28" s="309"/>
       <c r="K28" s="53"/>
       <c r="L28" s="53"/>
       <c r="M28" s="53"/>
@@ -10592,10 +10577,10 @@
       <c r="E29" s="46"/>
       <c r="F29" s="46"/>
       <c r="G29" s="46"/>
-      <c r="H29" s="312"/>
+      <c r="H29" s="310"/>
       <c r="I29" s="59"/>
       <c r="J29" s="69"/>
-      <c r="K29" s="310"/>
+      <c r="K29" s="308"/>
       <c r="L29" s="59"/>
       <c r="M29" s="59"/>
       <c r="N29" s="59"/>
@@ -10625,10 +10610,10 @@
       <c r="E31" s="46"/>
       <c r="F31" s="46"/>
       <c r="G31" s="46"/>
-      <c r="H31" s="313"/>
+      <c r="H31" s="311"/>
       <c r="I31" s="46"/>
       <c r="J31" s="59"/>
-      <c r="K31" s="310"/>
+      <c r="K31" s="308"/>
       <c r="L31" s="59"/>
       <c r="M31" s="59"/>
       <c r="N31" s="62"/>
@@ -10657,10 +10642,10 @@
       <c r="E33" s="46"/>
       <c r="F33" s="46"/>
       <c r="G33" s="46"/>
-      <c r="H33" s="313"/>
+      <c r="H33" s="311"/>
       <c r="I33" s="46"/>
-      <c r="J33" s="310"/>
-      <c r="K33" s="310"/>
+      <c r="J33" s="308"/>
+      <c r="K33" s="308"/>
       <c r="L33" s="59"/>
       <c r="M33" s="59"/>
       <c r="N33" s="59"/>
@@ -10689,11 +10674,11 @@
       <c r="E35" s="46"/>
       <c r="F35" s="46"/>
       <c r="G35" s="46"/>
-      <c r="H35" s="313"/>
+      <c r="H35" s="311"/>
       <c r="I35" s="46"/>
       <c r="J35" s="59"/>
-      <c r="K35" s="310"/>
-      <c r="L35" s="310"/>
+      <c r="K35" s="308"/>
+      <c r="L35" s="308"/>
       <c r="M35" s="46"/>
     </row>
     <row r="36" spans="1:41" x14ac:dyDescent="0.35">
@@ -10831,54 +10816,54 @@
       <c r="AO39" s="23"/>
     </row>
     <row r="40" spans="1:41" ht="39.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A40" s="434" t="s">
+      <c r="A40" s="357" t="s">
         <v>238</v>
       </c>
-      <c r="B40" s="435" t="s">
+      <c r="B40" s="358" t="s">
         <v>239</v>
       </c>
       <c r="D40" s="104"/>
       <c r="E40" s="105"/>
-      <c r="F40" s="418" t="s">
+      <c r="F40" s="433" t="s">
         <v>4</v>
       </c>
-      <c r="G40" s="419"/>
-      <c r="H40" s="419"/>
-      <c r="I40" s="420"/>
-      <c r="J40" s="421" t="s">
+      <c r="G40" s="434"/>
+      <c r="H40" s="434"/>
+      <c r="I40" s="435"/>
+      <c r="J40" s="436" t="s">
         <v>5</v>
       </c>
-      <c r="K40" s="422"/>
-      <c r="L40" s="422"/>
-      <c r="M40" s="423"/>
+      <c r="K40" s="437"/>
+      <c r="L40" s="437"/>
+      <c r="M40" s="438"/>
       <c r="N40" s="118" t="s">
         <v>48</v>
       </c>
       <c r="P40" s="227"/>
-      <c r="Q40" s="417" t="s">
+      <c r="Q40" s="432" t="s">
         <v>234</v>
       </c>
-      <c r="R40" s="417"/>
-      <c r="S40" s="417"/>
-      <c r="T40" s="417"/>
-      <c r="U40" s="417"/>
-      <c r="V40" s="417"/>
-      <c r="W40" s="417"/>
-      <c r="X40" s="417"/>
-      <c r="Y40" s="417"/>
+      <c r="R40" s="432"/>
+      <c r="S40" s="432"/>
+      <c r="T40" s="432"/>
+      <c r="U40" s="432"/>
+      <c r="V40" s="432"/>
+      <c r="W40" s="432"/>
+      <c r="X40" s="432"/>
+      <c r="Y40" s="432"/>
       <c r="Z40" s="46"/>
       <c r="AA40" s="46"/>
       <c r="AB40" s="46"/>
       <c r="AC40" s="46"/>
       <c r="AD40" s="77"/>
-      <c r="AE40" s="432" t="s">
-        <v>258</v>
-      </c>
-      <c r="AF40" s="432"/>
-      <c r="AG40" s="432"/>
-      <c r="AH40" s="432"/>
-      <c r="AI40" s="432"/>
-      <c r="AJ40" s="432"/>
+      <c r="AE40" s="431" t="s">
+        <v>243</v>
+      </c>
+      <c r="AF40" s="431"/>
+      <c r="AG40" s="431"/>
+      <c r="AH40" s="431"/>
+      <c r="AI40" s="431"/>
+      <c r="AJ40" s="431"/>
       <c r="AK40" s="23"/>
       <c r="AL40" s="46"/>
       <c r="AM40" s="46"/>
@@ -10886,11 +10871,11 @@
       <c r="AO40" s="23"/>
     </row>
     <row r="41" spans="1:41" ht="75.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="433" t="s">
+      <c r="A41" s="356" t="s">
         <v>7</v>
       </c>
-      <c r="B41" s="433" t="s">
-        <v>255</v>
+      <c r="B41" s="356" t="s">
+        <v>240</v>
       </c>
       <c r="D41" s="253" t="s">
         <v>235</v>
@@ -10962,7 +10947,7 @@
       <c r="AB41" s="245" t="s">
         <v>230</v>
       </c>
-      <c r="AC41" s="285" t="s">
+      <c r="AC41" s="283" t="s">
         <v>48</v>
       </c>
       <c r="AD41" s="23"/>
@@ -10976,12 +10961,12 @@
         <v>229</v>
       </c>
       <c r="AH41" s="253" t="s">
-        <v>256</v>
-      </c>
-      <c r="AI41" s="315" t="s">
-        <v>257</v>
-      </c>
-      <c r="AJ41" s="316" t="s">
+        <v>241</v>
+      </c>
+      <c r="AI41" s="313" t="s">
+        <v>242</v>
+      </c>
+      <c r="AJ41" s="314" t="s">
         <v>48</v>
       </c>
       <c r="AK41" s="226"/>
@@ -10991,99 +10976,45 @@
       <c r="AO41" s="23"/>
     </row>
     <row r="42" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="309">
+      <c r="A42" s="307">
         <v>1</v>
       </c>
-      <c r="B42" s="309" t="s">
-        <v>93</v>
-      </c>
-      <c r="D42" s="326" t="s">
-        <v>240</v>
-      </c>
-      <c r="E42" s="326" t="s">
-        <v>99</v>
-      </c>
-      <c r="F42" s="286">
-        <v>20172016</v>
-      </c>
-      <c r="G42" s="286">
-        <v>0.01</v>
-      </c>
-      <c r="H42" s="287">
-        <v>7000</v>
-      </c>
-      <c r="I42" s="287">
-        <v>4.3749999999999997E-2</v>
-      </c>
-      <c r="J42" s="287" t="s">
-        <v>241</v>
-      </c>
-      <c r="K42" s="286" t="s">
-        <v>241</v>
-      </c>
-      <c r="L42" s="286" t="s">
-        <v>241</v>
-      </c>
-      <c r="M42" s="287" t="s">
-        <v>241</v>
-      </c>
-      <c r="N42" s="436"/>
+      <c r="B42" s="307" t="s">
+        <v>244</v>
+      </c>
+      <c r="D42" s="324"/>
+      <c r="E42" s="324"/>
+      <c r="F42" s="284"/>
+      <c r="G42" s="284"/>
+      <c r="H42" s="285"/>
+      <c r="I42" s="285"/>
+      <c r="J42" s="285"/>
+      <c r="K42" s="284"/>
+      <c r="L42" s="284"/>
+      <c r="M42" s="285"/>
+      <c r="N42" s="366"/>
       <c r="O42" s="64"/>
       <c r="P42" s="232"/>
-      <c r="Q42" s="246" t="s">
-        <v>240</v>
-      </c>
-      <c r="R42" s="247" t="s">
-        <v>222</v>
-      </c>
-      <c r="S42" s="247">
-        <v>1500</v>
-      </c>
-      <c r="T42" s="247">
-        <v>10</v>
-      </c>
-      <c r="U42" s="247">
-        <v>11</v>
-      </c>
-      <c r="V42" s="247">
-        <v>25</v>
-      </c>
-      <c r="W42" s="247">
-        <v>4.0000001899898052E-2</v>
-      </c>
-      <c r="X42" s="247">
-        <v>3.6363638090816412E-3</v>
-      </c>
-      <c r="Y42" s="248"/>
-      <c r="Z42" s="247">
-        <v>2.34375E-2</v>
-      </c>
-      <c r="AA42" s="247">
-        <v>2.1306818816810846E-3</v>
-      </c>
-      <c r="AB42" s="282"/>
-      <c r="AC42" s="349" t="s">
-        <v>59</v>
-      </c>
+      <c r="Q42" s="246"/>
+      <c r="R42" s="247"/>
+      <c r="S42" s="324"/>
+      <c r="T42" s="324"/>
+      <c r="U42" s="284"/>
+      <c r="V42" s="284"/>
+      <c r="W42" s="285"/>
+      <c r="X42" s="285"/>
+      <c r="Y42" s="285"/>
+      <c r="Z42" s="284"/>
+      <c r="AA42" s="284"/>
+      <c r="AB42" s="285"/>
+      <c r="AC42" s="367"/>
       <c r="AD42" s="64"/>
-      <c r="AE42" s="50" t="s">
-        <v>240</v>
-      </c>
-      <c r="AF42" s="50" t="s">
-        <v>242</v>
-      </c>
-      <c r="AG42" s="50">
-        <v>25</v>
-      </c>
-      <c r="AH42" s="50">
-        <v>2.5840003043413162E-2</v>
-      </c>
-      <c r="AI42" s="50" t="s">
-        <v>241</v>
-      </c>
-      <c r="AJ42" s="330" t="s">
-        <v>59</v>
-      </c>
+      <c r="AE42" s="50"/>
+      <c r="AF42" s="50"/>
+      <c r="AG42" s="50"/>
+      <c r="AH42" s="50"/>
+      <c r="AI42" s="50"/>
+      <c r="AJ42" s="328"/>
       <c r="AK42" s="226"/>
       <c r="AL42" s="23"/>
       <c r="AM42" s="23"/>
@@ -11091,99 +11022,45 @@
       <c r="AO42" s="23"/>
     </row>
     <row r="43" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="309">
+      <c r="A43" s="307">
         <v>2</v>
       </c>
-      <c r="B43" s="309" t="s">
-        <v>99</v>
-      </c>
-      <c r="D43" s="326"/>
-      <c r="E43" s="326" t="s">
-        <v>103</v>
-      </c>
-      <c r="F43" s="287">
-        <v>20172016</v>
-      </c>
-      <c r="G43" s="286">
-        <v>0.01</v>
-      </c>
-      <c r="H43" s="287">
-        <v>7500</v>
-      </c>
-      <c r="I43" s="288">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="J43" s="287">
-        <v>0.11999999731779099</v>
-      </c>
-      <c r="K43" s="286">
-        <v>4.9999996554106474E-4</v>
-      </c>
-      <c r="L43" s="286">
-        <v>375</v>
-      </c>
-      <c r="M43" s="288">
-        <v>2.3437498603016138E-3</v>
-      </c>
-      <c r="N43" s="437" t="s">
-        <v>59</v>
-      </c>
+      <c r="B43" s="307" t="s">
+        <v>245</v>
+      </c>
+      <c r="D43" s="324"/>
+      <c r="E43" s="324"/>
+      <c r="F43" s="285"/>
+      <c r="G43" s="284"/>
+      <c r="H43" s="285"/>
+      <c r="I43" s="286"/>
+      <c r="J43" s="285"/>
+      <c r="K43" s="284"/>
+      <c r="L43" s="284"/>
+      <c r="M43" s="286"/>
+      <c r="N43" s="359"/>
       <c r="O43" s="64"/>
       <c r="P43" s="232"/>
-      <c r="Q43" s="246" t="s">
-        <v>240</v>
-      </c>
-      <c r="R43" s="247" t="s">
-        <v>223</v>
-      </c>
-      <c r="S43" s="247">
-        <v>150000</v>
-      </c>
-      <c r="T43" s="247">
-        <v>10</v>
-      </c>
-      <c r="U43" s="247">
-        <v>11</v>
-      </c>
-      <c r="V43" s="247">
-        <v>25</v>
-      </c>
-      <c r="W43" s="247">
-        <v>4.0000001899898052E-2</v>
-      </c>
-      <c r="X43" s="247">
-        <v>3.6363638090816412E-3</v>
-      </c>
-      <c r="Y43" s="248"/>
-      <c r="Z43" s="247">
-        <v>2.34375E-2</v>
-      </c>
-      <c r="AA43" s="247">
-        <v>2.1306818816810846E-3</v>
-      </c>
-      <c r="AB43" s="282"/>
-      <c r="AC43" s="350" t="s">
-        <v>59</v>
-      </c>
+      <c r="Q43" s="246"/>
+      <c r="R43" s="247"/>
+      <c r="S43" s="324"/>
+      <c r="T43" s="324"/>
+      <c r="U43" s="285"/>
+      <c r="V43" s="284"/>
+      <c r="W43" s="285"/>
+      <c r="X43" s="286"/>
+      <c r="Y43" s="285"/>
+      <c r="Z43" s="284"/>
+      <c r="AA43" s="284"/>
+      <c r="AB43" s="285"/>
+      <c r="AC43" s="368"/>
       <c r="AD43" s="64"/>
-      <c r="AE43" s="50" t="s">
-        <v>240</v>
-      </c>
-      <c r="AF43" s="50" t="s">
-        <v>243</v>
-      </c>
-      <c r="AG43" s="50">
-        <v>25</v>
-      </c>
-      <c r="AH43" s="50">
-        <v>1.8400001572445035E-3</v>
-      </c>
-      <c r="AI43" s="50" t="s">
-        <v>241</v>
-      </c>
-      <c r="AJ43" s="331" t="s">
-        <v>59</v>
-      </c>
+      <c r="AE43" s="50"/>
+      <c r="AF43" s="50"/>
+      <c r="AG43" s="50"/>
+      <c r="AH43" s="50"/>
+      <c r="AI43" s="50"/>
+      <c r="AJ43" s="329"/>
       <c r="AK43" s="226"/>
       <c r="AL43" s="23"/>
       <c r="AM43" s="23"/>
@@ -11191,85 +11068,43 @@
       <c r="AO43" s="23"/>
     </row>
     <row r="44" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="309">
+      <c r="A44" s="307">
         <v>3</v>
       </c>
-      <c r="B44" s="309" t="s">
-        <v>103</v>
-      </c>
-      <c r="D44" s="326"/>
-      <c r="E44" s="326" t="s">
-        <v>106</v>
-      </c>
-      <c r="F44" s="286">
-        <v>20172016</v>
-      </c>
-      <c r="G44" s="286">
-        <v>0.01</v>
-      </c>
-      <c r="H44" s="287">
-        <v>9000</v>
-      </c>
-      <c r="I44" s="287">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="J44" s="287" t="s">
-        <v>241</v>
-      </c>
-      <c r="K44" s="286" t="s">
-        <v>241</v>
-      </c>
-      <c r="L44" s="286" t="s">
-        <v>241</v>
-      </c>
-      <c r="M44" s="287" t="s">
-        <v>241</v>
-      </c>
-      <c r="N44" s="306"/>
+      <c r="B44" s="307"/>
+      <c r="D44" s="324"/>
+      <c r="E44" s="324"/>
+      <c r="F44" s="284"/>
+      <c r="G44" s="284"/>
+      <c r="H44" s="285"/>
+      <c r="I44" s="285"/>
+      <c r="J44" s="285"/>
+      <c r="K44" s="284"/>
+      <c r="L44" s="284"/>
+      <c r="M44" s="285"/>
+      <c r="N44" s="365"/>
       <c r="O44" s="64"/>
       <c r="P44" s="232"/>
-      <c r="Q44" s="246" t="s">
-        <v>240</v>
-      </c>
-      <c r="R44" s="247" t="s">
-        <v>224</v>
-      </c>
-      <c r="S44" s="247">
-        <v>10000</v>
-      </c>
-      <c r="T44" s="247">
-        <v>10</v>
-      </c>
-      <c r="U44" s="247">
-        <v>11</v>
-      </c>
-      <c r="V44" s="247">
-        <v>25</v>
-      </c>
-      <c r="W44" s="247">
-        <v>4.0000001899898052E-2</v>
-      </c>
-      <c r="X44" s="247">
-        <v>3.6363638090816412E-3</v>
-      </c>
-      <c r="Y44" s="248"/>
-      <c r="Z44" s="247">
-        <v>2.34375E-2</v>
-      </c>
-      <c r="AA44" s="247">
-        <v>2.1306818816810846E-3</v>
-      </c>
-      <c r="AB44" s="282"/>
-      <c r="AC44" s="351" t="s">
-        <v>59</v>
-      </c>
+      <c r="Q44" s="246"/>
+      <c r="R44" s="247"/>
+      <c r="S44" s="324"/>
+      <c r="T44" s="324"/>
+      <c r="U44" s="284"/>
+      <c r="V44" s="284"/>
+      <c r="W44" s="285"/>
+      <c r="X44" s="285"/>
+      <c r="Y44" s="285"/>
+      <c r="Z44" s="284"/>
+      <c r="AA44" s="284"/>
+      <c r="AB44" s="285"/>
+      <c r="AC44" s="304"/>
       <c r="AD44" s="64"/>
       <c r="AE44" s="50"/>
       <c r="AF44" s="50"/>
       <c r="AG44" s="50"/>
       <c r="AH44" s="50"/>
       <c r="AI44" s="50"/>
-      <c r="AJ44" s="332"/>
+      <c r="AJ44" s="330"/>
       <c r="AK44" s="226"/>
       <c r="AL44" s="23"/>
       <c r="AM44" s="23"/>
@@ -11277,77 +11112,43 @@
       <c r="AO44" s="23"/>
     </row>
     <row r="45" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="309">
+      <c r="A45" s="307">
         <v>4</v>
       </c>
-      <c r="B45" s="309" t="s">
-        <v>106</v>
-      </c>
-      <c r="D45" s="326" t="s">
-        <v>244</v>
-      </c>
-      <c r="E45" s="326" t="s">
-        <v>93</v>
-      </c>
-      <c r="F45" s="286">
-        <v>20172016</v>
-      </c>
-      <c r="G45" s="286">
-        <v>0.01</v>
-      </c>
-      <c r="H45" s="287">
-        <v>6000</v>
-      </c>
-      <c r="I45" s="287">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="J45" s="287" t="s">
-        <v>241</v>
-      </c>
-      <c r="K45" s="286" t="s">
-        <v>241</v>
-      </c>
-      <c r="L45" s="286" t="s">
-        <v>241</v>
-      </c>
-      <c r="M45" s="287" t="s">
-        <v>241</v>
-      </c>
-      <c r="N45" s="306"/>
+      <c r="B45" s="307"/>
+      <c r="D45" s="324"/>
+      <c r="E45" s="324"/>
+      <c r="F45" s="284"/>
+      <c r="G45" s="284"/>
+      <c r="H45" s="285"/>
+      <c r="I45" s="285"/>
+      <c r="J45" s="285"/>
+      <c r="K45" s="284"/>
+      <c r="L45" s="284"/>
+      <c r="M45" s="285"/>
+      <c r="N45" s="369"/>
       <c r="O45" s="64"/>
       <c r="P45" s="232"/>
       <c r="Q45" s="246"/>
       <c r="R45" s="247"/>
-      <c r="S45" s="247"/>
-      <c r="T45" s="247"/>
-      <c r="U45" s="247"/>
-      <c r="V45" s="247"/>
-      <c r="W45" s="247"/>
-      <c r="X45" s="247"/>
-      <c r="Y45" s="248"/>
-      <c r="Z45" s="247"/>
-      <c r="AA45" s="247"/>
-      <c r="AB45" s="282"/>
-      <c r="AC45" s="50"/>
+      <c r="S45" s="324"/>
+      <c r="T45" s="324"/>
+      <c r="U45" s="284"/>
+      <c r="V45" s="284"/>
+      <c r="W45" s="285"/>
+      <c r="X45" s="285"/>
+      <c r="Y45" s="285"/>
+      <c r="Z45" s="284"/>
+      <c r="AA45" s="284"/>
+      <c r="AB45" s="285"/>
+      <c r="AC45" s="370"/>
       <c r="AD45" s="64"/>
-      <c r="AE45" s="50" t="s">
-        <v>244</v>
-      </c>
-      <c r="AF45" s="50" t="s">
-        <v>246</v>
-      </c>
-      <c r="AG45" s="50">
-        <v>25</v>
-      </c>
-      <c r="AH45" s="50">
-        <v>3.2800003886222839E-2</v>
-      </c>
-      <c r="AI45" s="50" t="s">
-        <v>241</v>
-      </c>
-      <c r="AJ45" s="333" t="s">
-        <v>59</v>
-      </c>
+      <c r="AE45" s="50"/>
+      <c r="AF45" s="50"/>
+      <c r="AG45" s="50"/>
+      <c r="AH45" s="50"/>
+      <c r="AI45" s="50"/>
+      <c r="AJ45" s="331"/>
       <c r="AK45" s="226"/>
       <c r="AL45" s="23"/>
       <c r="AM45" s="23"/>
@@ -11355,93 +11156,41 @@
       <c r="AO45" s="23"/>
     </row>
     <row r="46" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="309"/>
-      <c r="B46" s="309"/>
-      <c r="D46" s="326"/>
-      <c r="E46" s="326" t="s">
-        <v>103</v>
-      </c>
-      <c r="F46" s="286">
-        <v>20172016</v>
-      </c>
-      <c r="G46" s="286">
-        <v>0.01</v>
-      </c>
-      <c r="H46" s="287">
-        <v>7500</v>
-      </c>
-      <c r="I46" s="287">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="J46" s="287" t="s">
-        <v>241</v>
-      </c>
-      <c r="K46" s="286" t="s">
-        <v>241</v>
-      </c>
-      <c r="L46" s="286" t="s">
-        <v>241</v>
-      </c>
-      <c r="M46" s="287" t="s">
-        <v>241</v>
-      </c>
-      <c r="N46" s="438"/>
+      <c r="A46" s="307"/>
+      <c r="B46" s="307"/>
+      <c r="D46" s="324"/>
+      <c r="E46" s="324"/>
+      <c r="F46" s="284"/>
+      <c r="G46" s="284"/>
+      <c r="H46" s="285"/>
+      <c r="I46" s="285"/>
+      <c r="J46" s="285"/>
+      <c r="K46" s="284"/>
+      <c r="L46" s="284"/>
+      <c r="M46" s="285"/>
+      <c r="N46" s="360"/>
       <c r="O46" s="64"/>
       <c r="P46" s="232"/>
-      <c r="Q46" s="246" t="s">
-        <v>244</v>
-      </c>
-      <c r="R46" s="247" t="s">
-        <v>222</v>
-      </c>
-      <c r="S46" s="247">
-        <v>1500</v>
-      </c>
-      <c r="T46" s="247">
-        <v>10</v>
-      </c>
-      <c r="U46" s="247">
-        <v>11</v>
-      </c>
-      <c r="V46" s="247">
-        <v>25</v>
-      </c>
-      <c r="W46" s="247">
-        <v>4.0000001899898052E-2</v>
-      </c>
-      <c r="X46" s="247">
-        <v>3.6363638090816412E-3</v>
-      </c>
-      <c r="Y46" s="248"/>
-      <c r="Z46" s="247">
-        <v>3.9999999105930328E-2</v>
-      </c>
-      <c r="AA46" s="247">
-        <v>3.6363636609166861E-3</v>
-      </c>
-      <c r="AB46" s="282"/>
-      <c r="AC46" s="352" t="s">
-        <v>56</v>
-      </c>
+      <c r="Q46" s="246"/>
+      <c r="R46" s="247"/>
+      <c r="S46" s="324"/>
+      <c r="T46" s="324"/>
+      <c r="U46" s="284"/>
+      <c r="V46" s="284"/>
+      <c r="W46" s="285"/>
+      <c r="X46" s="285"/>
+      <c r="Y46" s="285"/>
+      <c r="Z46" s="284"/>
+      <c r="AA46" s="284"/>
+      <c r="AB46" s="285"/>
+      <c r="AC46" s="371"/>
       <c r="AD46" s="64"/>
-      <c r="AE46" s="50" t="s">
-        <v>244</v>
-      </c>
-      <c r="AF46" s="50" t="s">
-        <v>247</v>
-      </c>
-      <c r="AG46" s="50">
-        <v>25</v>
-      </c>
-      <c r="AH46" s="50">
-        <v>2.4240000173449516E-2</v>
-      </c>
-      <c r="AI46" s="50" t="s">
-        <v>241</v>
-      </c>
-      <c r="AJ46" s="334" t="s">
-        <v>59</v>
-      </c>
+      <c r="AE46" s="50"/>
+      <c r="AF46" s="50"/>
+      <c r="AG46" s="50"/>
+      <c r="AH46" s="50"/>
+      <c r="AI46" s="50"/>
+      <c r="AJ46" s="332"/>
       <c r="AK46" s="226"/>
       <c r="AL46" s="23"/>
       <c r="AM46" s="23"/>
@@ -11449,80 +11198,40 @@
       <c r="AO46" s="23"/>
     </row>
     <row r="47" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="309"/>
-      <c r="B47" s="309"/>
-      <c r="D47" s="326"/>
-      <c r="E47" s="326" t="s">
-        <v>106</v>
-      </c>
-      <c r="F47" s="286">
-        <v>20172016</v>
-      </c>
-      <c r="G47" s="286">
-        <v>0.01</v>
-      </c>
-      <c r="H47" s="286">
-        <v>9000</v>
-      </c>
-      <c r="I47" s="286">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="J47" s="287" t="s">
-        <v>241</v>
-      </c>
-      <c r="K47" s="286" t="s">
-        <v>241</v>
-      </c>
-      <c r="L47" s="286" t="s">
-        <v>241</v>
-      </c>
-      <c r="M47" s="286" t="s">
-        <v>241</v>
-      </c>
-      <c r="N47" s="439"/>
+      <c r="A47" s="307"/>
+      <c r="B47" s="307"/>
+      <c r="D47" s="324"/>
+      <c r="E47" s="324"/>
+      <c r="F47" s="284"/>
+      <c r="G47" s="284"/>
+      <c r="H47" s="284"/>
+      <c r="I47" s="284"/>
+      <c r="J47" s="285"/>
+      <c r="K47" s="284"/>
+      <c r="L47" s="284"/>
+      <c r="M47" s="284"/>
+      <c r="N47" s="361"/>
       <c r="P47" s="218"/>
-      <c r="Q47" s="244" t="s">
-        <v>244</v>
-      </c>
-      <c r="R47" s="248" t="s">
-        <v>223</v>
-      </c>
-      <c r="S47" s="249">
-        <v>150000</v>
-      </c>
-      <c r="T47" s="249">
-        <v>10</v>
-      </c>
-      <c r="U47" s="247">
-        <v>11</v>
-      </c>
-      <c r="V47" s="247">
-        <v>25</v>
-      </c>
-      <c r="W47" s="248">
-        <v>4.0000001899898052E-2</v>
-      </c>
-      <c r="X47" s="248">
-        <v>3.6363638090816412E-3</v>
-      </c>
-      <c r="Y47" s="248"/>
-      <c r="Z47" s="248">
-        <v>3.9999999105930328E-2</v>
-      </c>
-      <c r="AA47" s="248">
-        <v>3.6363636609166861E-3</v>
-      </c>
-      <c r="AB47" s="283"/>
-      <c r="AC47" s="353" t="s">
-        <v>56</v>
-      </c>
+      <c r="Q47" s="244"/>
+      <c r="R47" s="248"/>
+      <c r="S47" s="324"/>
+      <c r="T47" s="324"/>
+      <c r="U47" s="284"/>
+      <c r="V47" s="284"/>
+      <c r="W47" s="284"/>
+      <c r="X47" s="284"/>
+      <c r="Y47" s="285"/>
+      <c r="Z47" s="284"/>
+      <c r="AA47" s="284"/>
+      <c r="AB47" s="285"/>
+      <c r="AC47" s="372"/>
       <c r="AD47" s="23"/>
       <c r="AE47" s="72"/>
       <c r="AF47" s="36"/>
       <c r="AG47" s="50"/>
       <c r="AH47" s="50"/>
       <c r="AI47" s="36"/>
-      <c r="AJ47" s="335"/>
+      <c r="AJ47" s="333"/>
       <c r="AK47" s="226"/>
       <c r="AL47" s="23"/>
       <c r="AM47" s="23"/>
@@ -11530,94 +11239,40 @@
       <c r="AO47" s="23"/>
     </row>
     <row r="48" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="309"/>
-      <c r="B48" s="309"/>
-      <c r="D48" s="326" t="s">
-        <v>248</v>
-      </c>
-      <c r="E48" s="326" t="s">
-        <v>93</v>
-      </c>
-      <c r="F48" s="286">
-        <v>20172016</v>
-      </c>
-      <c r="G48" s="286">
-        <v>0.01</v>
-      </c>
-      <c r="H48" s="286">
-        <v>6000</v>
-      </c>
-      <c r="I48" s="286">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="J48" s="287" t="s">
-        <v>241</v>
-      </c>
-      <c r="K48" s="286" t="s">
-        <v>241</v>
-      </c>
-      <c r="L48" s="286" t="s">
-        <v>241</v>
-      </c>
-      <c r="M48" s="286" t="s">
-        <v>241</v>
-      </c>
-      <c r="N48" s="307"/>
+      <c r="A48" s="307"/>
+      <c r="B48" s="307"/>
+      <c r="D48" s="324"/>
+      <c r="E48" s="324"/>
+      <c r="F48" s="284"/>
+      <c r="G48" s="284"/>
+      <c r="H48" s="284"/>
+      <c r="I48" s="284"/>
+      <c r="J48" s="285"/>
+      <c r="K48" s="284"/>
+      <c r="L48" s="284"/>
+      <c r="M48" s="284"/>
+      <c r="N48" s="375"/>
       <c r="P48" s="218"/>
-      <c r="Q48" s="244" t="s">
-        <v>244</v>
-      </c>
-      <c r="R48" s="248" t="s">
-        <v>224</v>
-      </c>
-      <c r="S48" s="249">
-        <v>10000</v>
-      </c>
-      <c r="T48" s="249">
-        <v>10</v>
-      </c>
-      <c r="U48" s="247">
-        <v>11</v>
-      </c>
-      <c r="V48" s="247">
-        <v>25</v>
-      </c>
-      <c r="W48" s="248">
-        <v>4.0000001899898052E-2</v>
-      </c>
-      <c r="X48" s="248">
-        <v>3.6363638090816412E-3</v>
-      </c>
+      <c r="Q48" s="244"/>
+      <c r="R48" s="248"/>
+      <c r="S48" s="249"/>
+      <c r="T48" s="249"/>
+      <c r="U48" s="247"/>
+      <c r="V48" s="247"/>
+      <c r="W48" s="248"/>
+      <c r="X48" s="248"/>
       <c r="Y48" s="248"/>
-      <c r="Z48" s="248">
-        <v>3.9999999105930328E-2</v>
-      </c>
-      <c r="AA48" s="248">
-        <v>3.6363636609166861E-3</v>
-      </c>
-      <c r="AB48" s="283"/>
-      <c r="AC48" s="354" t="s">
-        <v>56</v>
-      </c>
+      <c r="Z48" s="248"/>
+      <c r="AA48" s="248"/>
+      <c r="AB48" s="248"/>
+      <c r="AC48" s="373"/>
       <c r="AD48" s="23"/>
-      <c r="AE48" s="72" t="s">
-        <v>248</v>
-      </c>
-      <c r="AF48" s="36" t="s">
-        <v>249</v>
-      </c>
-      <c r="AG48" s="50">
-        <v>25</v>
-      </c>
-      <c r="AH48" s="50">
-        <v>2.720000222325325E-2</v>
-      </c>
-      <c r="AI48" s="36" t="s">
-        <v>241</v>
-      </c>
-      <c r="AJ48" s="336" t="s">
-        <v>59</v>
-      </c>
+      <c r="AE48" s="72"/>
+      <c r="AF48" s="36"/>
+      <c r="AG48" s="50"/>
+      <c r="AH48" s="50"/>
+      <c r="AI48" s="36"/>
+      <c r="AJ48" s="334"/>
       <c r="AK48" s="226"/>
       <c r="AL48" s="23"/>
       <c r="AM48" s="23"/>
@@ -11625,92 +11280,40 @@
       <c r="AO48" s="23"/>
     </row>
     <row r="49" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="309"/>
-      <c r="B49" s="309"/>
-      <c r="D49" s="326"/>
-      <c r="E49" s="326" t="s">
-        <v>99</v>
-      </c>
-      <c r="F49" s="286">
-        <v>20172016</v>
-      </c>
-      <c r="G49" s="286">
-        <v>0.01</v>
-      </c>
-      <c r="H49" s="286">
-        <v>7000</v>
-      </c>
-      <c r="I49" s="286">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="J49" s="287" t="s">
-        <v>241</v>
-      </c>
-      <c r="K49" s="286" t="s">
-        <v>241</v>
-      </c>
-      <c r="L49" s="286" t="s">
-        <v>241</v>
-      </c>
-      <c r="M49" s="286" t="s">
-        <v>241</v>
-      </c>
-      <c r="N49" s="440"/>
+      <c r="A49" s="307"/>
+      <c r="B49" s="307"/>
+      <c r="D49" s="324"/>
+      <c r="E49" s="324"/>
+      <c r="F49" s="284"/>
+      <c r="G49" s="284"/>
+      <c r="H49" s="284"/>
+      <c r="I49" s="284"/>
+      <c r="J49" s="285"/>
+      <c r="K49" s="284"/>
+      <c r="L49" s="284"/>
+      <c r="M49" s="284"/>
+      <c r="N49" s="362"/>
       <c r="P49" s="218"/>
-      <c r="Q49" s="244" t="s">
-        <v>244</v>
-      </c>
-      <c r="R49" s="248" t="s">
-        <v>225</v>
-      </c>
-      <c r="S49" s="249">
-        <v>10000</v>
-      </c>
-      <c r="T49" s="249">
-        <v>10</v>
-      </c>
-      <c r="U49" s="247">
-        <v>11</v>
-      </c>
-      <c r="V49" s="247">
-        <v>25</v>
-      </c>
-      <c r="W49" s="248">
-        <v>4.0000001899898052E-2</v>
-      </c>
-      <c r="X49" s="248">
-        <v>3.6363638090816412E-3</v>
-      </c>
+      <c r="Q49" s="244"/>
+      <c r="R49" s="248"/>
+      <c r="S49" s="249"/>
+      <c r="T49" s="249"/>
+      <c r="U49" s="247"/>
+      <c r="V49" s="247"/>
+      <c r="W49" s="248"/>
+      <c r="X49" s="248"/>
       <c r="Y49" s="248"/>
-      <c r="Z49" s="248">
-        <v>3.9999999105930328E-2</v>
-      </c>
-      <c r="AA49" s="248">
-        <v>3.6363636609166861E-3</v>
-      </c>
-      <c r="AB49" s="283"/>
-      <c r="AC49" s="355" t="s">
-        <v>56</v>
-      </c>
+      <c r="Z49" s="248"/>
+      <c r="AA49" s="248"/>
+      <c r="AB49" s="248"/>
+      <c r="AC49" s="374"/>
       <c r="AD49" s="23"/>
-      <c r="AE49" s="72" t="s">
-        <v>248</v>
-      </c>
-      <c r="AF49" s="36" t="s">
-        <v>250</v>
-      </c>
-      <c r="AG49" s="50">
-        <v>25</v>
-      </c>
-      <c r="AH49" s="50">
-        <v>2.4240000173449516E-2</v>
-      </c>
-      <c r="AI49" s="36" t="s">
-        <v>241</v>
-      </c>
-      <c r="AJ49" s="337" t="s">
-        <v>59</v>
-      </c>
+      <c r="AE49" s="72"/>
+      <c r="AF49" s="36"/>
+      <c r="AG49" s="50"/>
+      <c r="AH49" s="50"/>
+      <c r="AI49" s="36"/>
+      <c r="AJ49" s="335"/>
       <c r="AK49" s="226"/>
       <c r="AL49" s="23"/>
       <c r="AM49" s="23"/>
@@ -11718,80 +11321,40 @@
       <c r="AO49" s="23"/>
     </row>
     <row r="50" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="309"/>
-      <c r="B50" s="309"/>
-      <c r="D50" s="326"/>
-      <c r="E50" s="326" t="s">
-        <v>106</v>
-      </c>
-      <c r="F50" s="286">
-        <v>20172016</v>
-      </c>
-      <c r="G50" s="286">
-        <v>0.01</v>
-      </c>
-      <c r="H50" s="286">
-        <v>9000</v>
-      </c>
-      <c r="I50" s="286">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="J50" s="286" t="s">
-        <v>241</v>
-      </c>
-      <c r="K50" s="286" t="s">
-        <v>241</v>
-      </c>
-      <c r="L50" s="286" t="s">
-        <v>241</v>
-      </c>
-      <c r="M50" s="286" t="s">
-        <v>241</v>
-      </c>
-      <c r="N50" s="307"/>
+      <c r="A50" s="307"/>
+      <c r="B50" s="307"/>
+      <c r="D50" s="324"/>
+      <c r="E50" s="324"/>
+      <c r="F50" s="284"/>
+      <c r="G50" s="284"/>
+      <c r="H50" s="284"/>
+      <c r="I50" s="284"/>
+      <c r="J50" s="284"/>
+      <c r="K50" s="284"/>
+      <c r="L50" s="284"/>
+      <c r="M50" s="284"/>
+      <c r="N50" s="305"/>
       <c r="P50" s="218"/>
-      <c r="Q50" s="244" t="s">
-        <v>244</v>
-      </c>
-      <c r="R50" s="248" t="s">
-        <v>245</v>
-      </c>
-      <c r="S50" s="249">
-        <v>35000</v>
-      </c>
-      <c r="T50" s="249">
-        <v>10</v>
-      </c>
-      <c r="U50" s="247">
-        <v>11</v>
-      </c>
-      <c r="V50" s="247">
-        <v>25</v>
-      </c>
-      <c r="W50" s="248">
-        <v>4.0000001899898052E-2</v>
-      </c>
-      <c r="X50" s="247">
-        <v>3.6363638090816412E-3</v>
-      </c>
+      <c r="Q50" s="244"/>
+      <c r="R50" s="248"/>
+      <c r="S50" s="249"/>
+      <c r="T50" s="249"/>
+      <c r="U50" s="247"/>
+      <c r="V50" s="247"/>
+      <c r="W50" s="248"/>
+      <c r="X50" s="247"/>
       <c r="Y50" s="247"/>
-      <c r="Z50" s="247">
-        <v>3.9999999105930328E-2</v>
-      </c>
-      <c r="AA50" s="247">
-        <v>3.6363636609166861E-3</v>
-      </c>
-      <c r="AB50" s="282"/>
-      <c r="AC50" s="356" t="s">
-        <v>56</v>
-      </c>
+      <c r="Z50" s="247"/>
+      <c r="AA50" s="247"/>
+      <c r="AB50" s="247"/>
+      <c r="AC50" s="347"/>
       <c r="AD50" s="46"/>
       <c r="AE50" s="50"/>
       <c r="AF50" s="50"/>
       <c r="AG50" s="50"/>
       <c r="AH50" s="50"/>
       <c r="AI50" s="36"/>
-      <c r="AJ50" s="338"/>
+      <c r="AJ50" s="336"/>
       <c r="AK50" s="23"/>
       <c r="AL50" s="23"/>
       <c r="AM50" s="23"/>
@@ -11799,39 +11362,19 @@
       <c r="AO50" s="23"/>
     </row>
     <row r="51" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="309"/>
-      <c r="B51" s="309"/>
-      <c r="D51" s="326" t="s">
-        <v>251</v>
-      </c>
-      <c r="E51" s="326" t="s">
-        <v>93</v>
-      </c>
-      <c r="F51" s="286">
-        <v>20172016</v>
-      </c>
-      <c r="G51" s="286">
-        <v>0.01</v>
-      </c>
-      <c r="H51" s="286">
-        <v>6000</v>
-      </c>
-      <c r="I51" s="286">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="J51" s="286" t="s">
-        <v>241</v>
-      </c>
-      <c r="K51" s="286" t="s">
-        <v>241</v>
-      </c>
-      <c r="L51" s="286" t="s">
-        <v>241</v>
-      </c>
-      <c r="M51" s="286" t="s">
-        <v>241</v>
-      </c>
-      <c r="N51" s="441"/>
+      <c r="A51" s="307"/>
+      <c r="B51" s="307"/>
+      <c r="D51" s="324"/>
+      <c r="E51" s="324"/>
+      <c r="F51" s="284"/>
+      <c r="G51" s="284"/>
+      <c r="H51" s="284"/>
+      <c r="I51" s="284"/>
+      <c r="J51" s="284"/>
+      <c r="K51" s="284"/>
+      <c r="L51" s="284"/>
+      <c r="M51" s="284"/>
+      <c r="N51" s="381"/>
       <c r="P51" s="218"/>
       <c r="Q51" s="244"/>
       <c r="R51" s="248"/>
@@ -11844,27 +11387,15 @@
       <c r="Y51" s="247"/>
       <c r="Z51" s="247"/>
       <c r="AA51" s="247"/>
-      <c r="AB51" s="282"/>
-      <c r="AC51" s="50"/>
+      <c r="AB51" s="247"/>
+      <c r="AC51" s="376"/>
       <c r="AD51" s="76"/>
-      <c r="AE51" s="50" t="s">
-        <v>251</v>
-      </c>
-      <c r="AF51" s="50" t="s">
-        <v>252</v>
-      </c>
-      <c r="AG51" s="50">
-        <v>25</v>
-      </c>
-      <c r="AH51" s="50">
-        <v>2.400000230409205E-4</v>
-      </c>
-      <c r="AI51" s="36" t="s">
-        <v>241</v>
-      </c>
-      <c r="AJ51" s="339" t="s">
-        <v>59</v>
-      </c>
+      <c r="AE51" s="50"/>
+      <c r="AF51" s="50"/>
+      <c r="AG51" s="50"/>
+      <c r="AH51" s="50"/>
+      <c r="AI51" s="36"/>
+      <c r="AJ51" s="337"/>
       <c r="AK51" s="46"/>
       <c r="AL51" s="46"/>
       <c r="AM51" s="46"/>
@@ -11872,92 +11403,40 @@
       <c r="AO51" s="23"/>
     </row>
     <row r="52" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="309"/>
-      <c r="B52" s="309"/>
-      <c r="D52" s="326"/>
-      <c r="E52" s="326" t="s">
-        <v>99</v>
-      </c>
-      <c r="F52" s="286">
-        <v>20172016</v>
-      </c>
-      <c r="G52" s="286">
-        <v>0.01</v>
-      </c>
-      <c r="H52" s="286">
-        <v>7000</v>
-      </c>
-      <c r="I52" s="286">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="J52" s="286" t="s">
-        <v>241</v>
-      </c>
-      <c r="K52" s="286" t="s">
-        <v>241</v>
-      </c>
-      <c r="L52" s="286" t="s">
-        <v>241</v>
-      </c>
-      <c r="M52" s="286" t="s">
-        <v>241</v>
-      </c>
-      <c r="N52" s="307"/>
+      <c r="A52" s="307"/>
+      <c r="B52" s="307"/>
+      <c r="D52" s="324"/>
+      <c r="E52" s="324"/>
+      <c r="F52" s="284"/>
+      <c r="G52" s="284"/>
+      <c r="H52" s="284"/>
+      <c r="I52" s="284"/>
+      <c r="J52" s="284"/>
+      <c r="K52" s="284"/>
+      <c r="L52" s="284"/>
+      <c r="M52" s="284"/>
+      <c r="N52" s="305"/>
       <c r="P52" s="218"/>
-      <c r="Q52" s="244" t="s">
-        <v>248</v>
-      </c>
-      <c r="R52" s="248" t="s">
-        <v>222</v>
-      </c>
-      <c r="S52" s="249">
-        <v>1500</v>
-      </c>
-      <c r="T52" s="249">
-        <v>10</v>
-      </c>
-      <c r="U52" s="247">
-        <v>11</v>
-      </c>
-      <c r="V52" s="247">
-        <v>25</v>
-      </c>
-      <c r="W52" s="248">
-        <v>4.0000001899898052E-2</v>
-      </c>
-      <c r="X52" s="248">
-        <v>3.6363638090816412E-3</v>
-      </c>
+      <c r="Q52" s="244"/>
+      <c r="R52" s="248"/>
+      <c r="S52" s="249"/>
+      <c r="T52" s="249"/>
+      <c r="U52" s="247"/>
+      <c r="V52" s="247"/>
+      <c r="W52" s="248"/>
+      <c r="X52" s="248"/>
       <c r="Y52" s="248"/>
-      <c r="Z52" s="248">
-        <v>3.9999999105930328E-2</v>
-      </c>
-      <c r="AA52" s="248">
-        <v>3.6363636609166861E-3</v>
-      </c>
-      <c r="AB52" s="283"/>
-      <c r="AC52" s="357" t="s">
-        <v>56</v>
-      </c>
+      <c r="Z52" s="248"/>
+      <c r="AA52" s="248"/>
+      <c r="AB52" s="248"/>
+      <c r="AC52" s="377"/>
       <c r="AD52" s="23"/>
-      <c r="AE52" s="36" t="s">
-        <v>251</v>
-      </c>
-      <c r="AF52" s="36" t="s">
-        <v>253</v>
-      </c>
-      <c r="AG52" s="50">
-        <v>25</v>
-      </c>
-      <c r="AH52" s="50">
-        <v>2.5840003043413162E-2</v>
-      </c>
-      <c r="AI52" s="36" t="s">
-        <v>241</v>
-      </c>
-      <c r="AJ52" s="340" t="s">
-        <v>59</v>
-      </c>
+      <c r="AE52" s="36"/>
+      <c r="AF52" s="36"/>
+      <c r="AG52" s="50"/>
+      <c r="AH52" s="50"/>
+      <c r="AI52" s="36"/>
+      <c r="AJ52" s="338"/>
       <c r="AK52" s="23"/>
       <c r="AL52" s="23"/>
       <c r="AM52" s="23"/>
@@ -11965,82 +11444,40 @@
       <c r="AO52" s="23"/>
     </row>
     <row r="53" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="309"/>
-      <c r="B53" s="309"/>
-      <c r="D53" s="326"/>
-      <c r="E53" s="326" t="s">
-        <v>103</v>
-      </c>
-      <c r="F53" s="286">
-        <v>20172016</v>
-      </c>
-      <c r="G53" s="286">
-        <v>0.01</v>
-      </c>
-      <c r="H53" s="286">
-        <v>7500</v>
-      </c>
-      <c r="I53" s="286">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="J53" s="286">
-        <v>0.11999999731779099</v>
-      </c>
-      <c r="K53" s="286">
-        <v>4.9999996554106474E-4</v>
-      </c>
-      <c r="L53" s="286">
-        <v>375</v>
-      </c>
-      <c r="M53" s="286">
-        <v>2.3437498603016138E-3</v>
-      </c>
-      <c r="N53" s="442" t="s">
-        <v>59</v>
-      </c>
+      <c r="A53" s="307"/>
+      <c r="B53" s="307"/>
+      <c r="D53" s="324"/>
+      <c r="E53" s="324"/>
+      <c r="F53" s="284"/>
+      <c r="G53" s="284"/>
+      <c r="H53" s="284"/>
+      <c r="I53" s="284"/>
+      <c r="J53" s="284"/>
+      <c r="K53" s="284"/>
+      <c r="L53" s="284"/>
+      <c r="M53" s="284"/>
+      <c r="N53" s="363"/>
       <c r="P53" s="218"/>
-      <c r="Q53" s="244" t="s">
-        <v>248</v>
-      </c>
-      <c r="R53" s="248" t="s">
-        <v>223</v>
-      </c>
-      <c r="S53" s="249">
-        <v>150000</v>
-      </c>
-      <c r="T53" s="249">
-        <v>10</v>
-      </c>
-      <c r="U53" s="247">
-        <v>11</v>
-      </c>
-      <c r="V53" s="247">
-        <v>25</v>
-      </c>
-      <c r="W53" s="248">
-        <v>4.0000001899898052E-2</v>
-      </c>
-      <c r="X53" s="248">
-        <v>3.6363638090816412E-3</v>
-      </c>
+      <c r="Q53" s="244"/>
+      <c r="R53" s="248"/>
+      <c r="S53" s="249"/>
+      <c r="T53" s="249"/>
+      <c r="U53" s="247"/>
+      <c r="V53" s="247"/>
+      <c r="W53" s="248"/>
+      <c r="X53" s="248"/>
       <c r="Y53" s="248"/>
-      <c r="Z53" s="248">
-        <v>3.9999999105930328E-2</v>
-      </c>
-      <c r="AA53" s="248">
-        <v>3.6363636609166861E-3</v>
-      </c>
-      <c r="AB53" s="283"/>
-      <c r="AC53" s="358" t="s">
-        <v>56</v>
-      </c>
+      <c r="Z53" s="248"/>
+      <c r="AA53" s="248"/>
+      <c r="AB53" s="248"/>
+      <c r="AC53" s="378"/>
       <c r="AD53" s="23"/>
       <c r="AE53" s="36"/>
       <c r="AF53" s="36"/>
       <c r="AG53" s="50"/>
       <c r="AH53" s="50"/>
       <c r="AI53" s="36"/>
-      <c r="AJ53" s="341"/>
+      <c r="AJ53" s="339"/>
       <c r="AK53" s="23"/>
       <c r="AL53" s="23"/>
       <c r="AM53" s="23"/>
@@ -12048,94 +11485,40 @@
       <c r="AO53" s="23"/>
     </row>
     <row r="54" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="309"/>
-      <c r="B54" s="309"/>
-      <c r="D54" s="326" t="s">
-        <v>254</v>
-      </c>
-      <c r="E54" s="326" t="s">
-        <v>93</v>
-      </c>
-      <c r="F54" s="286">
-        <v>20172016</v>
-      </c>
-      <c r="G54" s="286">
-        <v>0.01</v>
-      </c>
-      <c r="H54" s="286">
-        <v>6000</v>
-      </c>
-      <c r="I54" s="286">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="J54" s="286" t="s">
-        <v>241</v>
-      </c>
-      <c r="K54" s="286" t="s">
-        <v>241</v>
-      </c>
-      <c r="L54" s="286" t="s">
-        <v>241</v>
-      </c>
-      <c r="M54" s="286" t="s">
-        <v>241</v>
-      </c>
-      <c r="N54" s="307"/>
+      <c r="A54" s="307"/>
+      <c r="B54" s="307"/>
+      <c r="D54" s="324"/>
+      <c r="E54" s="324"/>
+      <c r="F54" s="284"/>
+      <c r="G54" s="284"/>
+      <c r="H54" s="284"/>
+      <c r="I54" s="284"/>
+      <c r="J54" s="284"/>
+      <c r="K54" s="284"/>
+      <c r="L54" s="284"/>
+      <c r="M54" s="284"/>
+      <c r="N54" s="305"/>
       <c r="P54" s="218"/>
-      <c r="Q54" s="244" t="s">
-        <v>248</v>
-      </c>
-      <c r="R54" s="248" t="s">
-        <v>224</v>
-      </c>
-      <c r="S54" s="249">
-        <v>10000</v>
-      </c>
-      <c r="T54" s="249">
-        <v>10</v>
-      </c>
-      <c r="U54" s="248">
-        <v>11</v>
-      </c>
-      <c r="V54" s="248">
-        <v>25</v>
-      </c>
-      <c r="W54" s="248">
-        <v>4.0000001899898052E-2</v>
-      </c>
-      <c r="X54" s="248">
-        <v>3.6363638090816412E-3</v>
-      </c>
+      <c r="Q54" s="244"/>
+      <c r="R54" s="248"/>
+      <c r="S54" s="249"/>
+      <c r="T54" s="249"/>
+      <c r="U54" s="248"/>
+      <c r="V54" s="248"/>
+      <c r="W54" s="248"/>
+      <c r="X54" s="248"/>
       <c r="Y54" s="248"/>
-      <c r="Z54" s="248">
-        <v>3.9999999105930328E-2</v>
-      </c>
-      <c r="AA54" s="248">
-        <v>3.6363636609166861E-3</v>
-      </c>
-      <c r="AB54" s="283"/>
-      <c r="AC54" s="359" t="s">
-        <v>56</v>
-      </c>
+      <c r="Z54" s="248"/>
+      <c r="AA54" s="248"/>
+      <c r="AB54" s="248"/>
+      <c r="AC54" s="379"/>
       <c r="AD54" s="23"/>
-      <c r="AE54" s="36" t="s">
-        <v>254</v>
-      </c>
-      <c r="AF54" s="36" t="s">
-        <v>252</v>
-      </c>
-      <c r="AG54" s="50">
-        <v>25</v>
-      </c>
-      <c r="AH54" s="50">
-        <v>2.400000230409205E-4</v>
-      </c>
-      <c r="AI54" s="36" t="s">
-        <v>241</v>
-      </c>
-      <c r="AJ54" s="342" t="s">
-        <v>59</v>
-      </c>
+      <c r="AE54" s="36"/>
+      <c r="AF54" s="36"/>
+      <c r="AG54" s="50"/>
+      <c r="AH54" s="50"/>
+      <c r="AI54" s="36"/>
+      <c r="AJ54" s="340"/>
       <c r="AK54" s="23"/>
       <c r="AL54" s="23"/>
       <c r="AM54" s="23"/>
@@ -12143,92 +11526,40 @@
       <c r="AO54" s="23"/>
     </row>
     <row r="55" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="309"/>
-      <c r="B55" s="309"/>
-      <c r="D55" s="326"/>
-      <c r="E55" s="326" t="s">
-        <v>99</v>
-      </c>
-      <c r="F55" s="286">
-        <v>20172016</v>
-      </c>
-      <c r="G55" s="286">
-        <v>0.01</v>
-      </c>
-      <c r="H55" s="286">
-        <v>7000</v>
-      </c>
-      <c r="I55" s="286">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="J55" s="286" t="s">
-        <v>241</v>
-      </c>
-      <c r="K55" s="286" t="s">
-        <v>241</v>
-      </c>
-      <c r="L55" s="286" t="s">
-        <v>241</v>
-      </c>
-      <c r="M55" s="286" t="s">
-        <v>241</v>
-      </c>
-      <c r="N55" s="307"/>
+      <c r="A55" s="307"/>
+      <c r="B55" s="307"/>
+      <c r="D55" s="324"/>
+      <c r="E55" s="324"/>
+      <c r="F55" s="284"/>
+      <c r="G55" s="284"/>
+      <c r="H55" s="284"/>
+      <c r="I55" s="284"/>
+      <c r="J55" s="284"/>
+      <c r="K55" s="284"/>
+      <c r="L55" s="284"/>
+      <c r="M55" s="284"/>
+      <c r="N55" s="305"/>
       <c r="P55" s="218"/>
-      <c r="Q55" s="244" t="s">
-        <v>248</v>
-      </c>
-      <c r="R55" s="248" t="s">
-        <v>225</v>
-      </c>
-      <c r="S55" s="249">
-        <v>10000</v>
-      </c>
-      <c r="T55" s="249">
-        <v>10</v>
-      </c>
-      <c r="U55" s="248">
-        <v>11</v>
-      </c>
-      <c r="V55" s="248">
-        <v>25</v>
-      </c>
-      <c r="W55" s="248">
-        <v>4.0000001899898052E-2</v>
-      </c>
-      <c r="X55" s="248">
-        <v>3.6363638090816412E-3</v>
-      </c>
+      <c r="Q55" s="244"/>
+      <c r="R55" s="248"/>
+      <c r="S55" s="249"/>
+      <c r="T55" s="249"/>
+      <c r="U55" s="248"/>
+      <c r="V55" s="248"/>
+      <c r="W55" s="248"/>
+      <c r="X55" s="248"/>
       <c r="Y55" s="248"/>
-      <c r="Z55" s="248">
-        <v>3.9999999105930328E-2</v>
-      </c>
-      <c r="AA55" s="248">
-        <v>3.6363636609166861E-3</v>
-      </c>
-      <c r="AB55" s="283"/>
-      <c r="AC55" s="360" t="s">
-        <v>56</v>
-      </c>
+      <c r="Z55" s="248"/>
+      <c r="AA55" s="248"/>
+      <c r="AB55" s="248"/>
+      <c r="AC55" s="380"/>
       <c r="AD55" s="23"/>
-      <c r="AE55" s="36" t="s">
-        <v>254</v>
-      </c>
-      <c r="AF55" s="36" t="s">
-        <v>253</v>
-      </c>
-      <c r="AG55" s="50">
-        <v>25</v>
-      </c>
-      <c r="AH55" s="50">
-        <v>2.5840003043413162E-2</v>
-      </c>
-      <c r="AI55" s="36" t="s">
-        <v>241</v>
-      </c>
-      <c r="AJ55" s="343" t="s">
-        <v>59</v>
-      </c>
+      <c r="AE55" s="36"/>
+      <c r="AF55" s="36"/>
+      <c r="AG55" s="50"/>
+      <c r="AH55" s="50"/>
+      <c r="AI55" s="36"/>
+      <c r="AJ55" s="341"/>
       <c r="AK55" s="23"/>
       <c r="AL55" s="23"/>
       <c r="AM55" s="23"/>
@@ -12236,37 +11567,19 @@
       <c r="AO55" s="23"/>
     </row>
     <row r="56" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="309"/>
-      <c r="B56" s="309"/>
-      <c r="D56" s="326"/>
-      <c r="E56" s="326" t="s">
-        <v>103</v>
-      </c>
-      <c r="F56" s="286">
-        <v>20172016</v>
-      </c>
-      <c r="G56" s="286">
-        <v>0.01</v>
-      </c>
-      <c r="H56" s="286">
-        <v>7500</v>
-      </c>
-      <c r="I56" s="286">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="J56" s="286" t="s">
-        <v>241</v>
-      </c>
-      <c r="K56" s="286" t="s">
-        <v>241</v>
-      </c>
-      <c r="L56" s="286" t="s">
-        <v>241</v>
-      </c>
-      <c r="M56" s="286" t="s">
-        <v>241</v>
-      </c>
-      <c r="N56" s="443"/>
+      <c r="A56" s="307"/>
+      <c r="B56" s="307"/>
+      <c r="D56" s="324"/>
+      <c r="E56" s="324"/>
+      <c r="F56" s="284"/>
+      <c r="G56" s="284"/>
+      <c r="H56" s="284"/>
+      <c r="I56" s="284"/>
+      <c r="J56" s="284"/>
+      <c r="K56" s="284"/>
+      <c r="L56" s="284"/>
+      <c r="M56" s="284"/>
+      <c r="N56" s="364"/>
       <c r="P56" s="218"/>
       <c r="Q56" s="244"/>
       <c r="R56" s="248"/>
@@ -12279,7 +11592,7 @@
       <c r="Y56" s="248"/>
       <c r="Z56" s="248"/>
       <c r="AA56" s="248"/>
-      <c r="AB56" s="283"/>
+      <c r="AB56" s="248"/>
       <c r="AC56" s="50"/>
       <c r="AD56" s="23"/>
       <c r="AE56" s="36"/>
@@ -12287,7 +11600,7 @@
       <c r="AG56" s="50"/>
       <c r="AH56" s="50"/>
       <c r="AI56" s="36"/>
-      <c r="AJ56" s="344"/>
+      <c r="AJ56" s="342"/>
       <c r="AK56" s="23"/>
       <c r="AL56" s="23"/>
       <c r="AM56" s="23"/>
@@ -12295,10 +11608,10 @@
       <c r="AO56" s="23"/>
     </row>
     <row r="57" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="309"/>
-      <c r="B57" s="309"/>
-      <c r="D57" s="326"/>
-      <c r="E57" s="326"/>
+      <c r="A57" s="307"/>
+      <c r="B57" s="307"/>
+      <c r="D57" s="324"/>
+      <c r="E57" s="324"/>
       <c r="F57" s="242"/>
       <c r="G57" s="242"/>
       <c r="H57" s="242"/>
@@ -12307,50 +11620,28 @@
       <c r="K57" s="242"/>
       <c r="L57" s="242"/>
       <c r="M57" s="242"/>
-      <c r="N57" s="308"/>
+      <c r="N57" s="306"/>
       <c r="P57" s="218"/>
-      <c r="Q57" s="244" t="s">
-        <v>251</v>
-      </c>
-      <c r="R57" s="248" t="s">
-        <v>222</v>
-      </c>
-      <c r="S57" s="249">
-        <v>1500</v>
-      </c>
-      <c r="T57" s="249">
-        <v>10</v>
-      </c>
-      <c r="U57" s="248">
-        <v>11</v>
-      </c>
-      <c r="V57" s="248">
-        <v>25</v>
-      </c>
-      <c r="W57" s="248">
-        <v>4.0000001899898052E-2</v>
-      </c>
-      <c r="X57" s="248">
-        <v>3.6363638090816412E-3</v>
-      </c>
+      <c r="Q57" s="244"/>
+      <c r="R57" s="248"/>
+      <c r="S57" s="249"/>
+      <c r="T57" s="249"/>
+      <c r="U57" s="248"/>
+      <c r="V57" s="248"/>
+      <c r="W57" s="248"/>
+      <c r="X57" s="248"/>
       <c r="Y57" s="248"/>
-      <c r="Z57" s="248">
-        <v>2.34375E-2</v>
-      </c>
-      <c r="AA57" s="248">
-        <v>2.1306818816810846E-3</v>
-      </c>
-      <c r="AB57" s="283"/>
-      <c r="AC57" s="361" t="s">
-        <v>59</v>
-      </c>
+      <c r="Z57" s="248"/>
+      <c r="AA57" s="248"/>
+      <c r="AB57" s="248"/>
+      <c r="AC57" s="382"/>
       <c r="AD57" s="23"/>
       <c r="AE57" s="36"/>
       <c r="AF57" s="36"/>
       <c r="AG57" s="50"/>
       <c r="AH57" s="50"/>
       <c r="AI57" s="36"/>
-      <c r="AJ57" s="345"/>
+      <c r="AJ57" s="343"/>
       <c r="AK57" s="23"/>
       <c r="AL57" s="23"/>
       <c r="AM57" s="23"/>
@@ -12358,8 +11649,8 @@
       <c r="AO57" s="23"/>
     </row>
     <row r="58" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="309"/>
-      <c r="B58" s="309"/>
+      <c r="A58" s="307"/>
+      <c r="B58" s="307"/>
       <c r="D58" s="34"/>
       <c r="E58" s="34"/>
       <c r="F58" s="242"/>
@@ -12370,50 +11661,28 @@
       <c r="K58" s="242"/>
       <c r="L58" s="242"/>
       <c r="M58" s="242"/>
-      <c r="N58" s="308"/>
+      <c r="N58" s="306"/>
       <c r="P58" s="218"/>
-      <c r="Q58" s="244" t="s">
-        <v>251</v>
-      </c>
-      <c r="R58" s="248" t="s">
-        <v>223</v>
-      </c>
-      <c r="S58" s="249">
-        <v>150000</v>
-      </c>
-      <c r="T58" s="249">
-        <v>10</v>
-      </c>
-      <c r="U58" s="248">
-        <v>11</v>
-      </c>
-      <c r="V58" s="248">
-        <v>25</v>
-      </c>
-      <c r="W58" s="248">
-        <v>4.0000001899898052E-2</v>
-      </c>
-      <c r="X58" s="248">
-        <v>3.6363638090816412E-3</v>
-      </c>
+      <c r="Q58" s="244"/>
+      <c r="R58" s="248"/>
+      <c r="S58" s="249"/>
+      <c r="T58" s="249"/>
+      <c r="U58" s="248"/>
+      <c r="V58" s="248"/>
+      <c r="W58" s="248"/>
+      <c r="X58" s="248"/>
       <c r="Y58" s="248"/>
-      <c r="Z58" s="248">
-        <v>2.34375E-2</v>
-      </c>
-      <c r="AA58" s="248">
-        <v>2.1306818816810846E-3</v>
-      </c>
-      <c r="AB58" s="283"/>
-      <c r="AC58" s="362" t="s">
-        <v>59</v>
-      </c>
+      <c r="Z58" s="248"/>
+      <c r="AA58" s="248"/>
+      <c r="AB58" s="248"/>
+      <c r="AC58" s="383"/>
       <c r="AD58" s="23"/>
       <c r="AE58" s="36"/>
       <c r="AF58" s="36"/>
       <c r="AG58" s="50"/>
       <c r="AH58" s="50"/>
       <c r="AI58" s="36"/>
-      <c r="AJ58" s="346"/>
+      <c r="AJ58" s="344"/>
       <c r="AK58" s="23"/>
       <c r="AL58" s="23"/>
       <c r="AM58" s="23"/>
@@ -12421,8 +11690,8 @@
       <c r="AO58" s="23"/>
     </row>
     <row r="59" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="309"/>
-      <c r="B59" s="309"/>
+      <c r="A59" s="307"/>
+      <c r="B59" s="307"/>
       <c r="D59" s="34"/>
       <c r="E59" s="34"/>
       <c r="F59" s="242"/>
@@ -12435,41 +11704,19 @@
       <c r="M59" s="242"/>
       <c r="N59" s="242"/>
       <c r="P59" s="218"/>
-      <c r="Q59" s="244" t="s">
-        <v>251</v>
-      </c>
-      <c r="R59" s="248" t="s">
-        <v>224</v>
-      </c>
-      <c r="S59" s="249">
-        <v>10000</v>
-      </c>
-      <c r="T59" s="249">
-        <v>10</v>
-      </c>
-      <c r="U59" s="248">
-        <v>11</v>
-      </c>
-      <c r="V59" s="248">
-        <v>25</v>
-      </c>
-      <c r="W59" s="248">
-        <v>4.0000001899898052E-2</v>
-      </c>
-      <c r="X59" s="248">
-        <v>3.6363638090816412E-3</v>
-      </c>
+      <c r="Q59" s="244"/>
+      <c r="R59" s="248"/>
+      <c r="S59" s="249"/>
+      <c r="T59" s="249"/>
+      <c r="U59" s="248"/>
+      <c r="V59" s="248"/>
+      <c r="W59" s="248"/>
+      <c r="X59" s="248"/>
       <c r="Y59" s="248"/>
-      <c r="Z59" s="248">
-        <v>2.34375E-2</v>
-      </c>
-      <c r="AA59" s="248">
-        <v>2.1306818816810846E-3</v>
-      </c>
-      <c r="AB59" s="283"/>
-      <c r="AC59" s="363" t="s">
-        <v>59</v>
-      </c>
+      <c r="Z59" s="248"/>
+      <c r="AA59" s="248"/>
+      <c r="AB59" s="248"/>
+      <c r="AC59" s="384"/>
       <c r="AD59" s="23"/>
       <c r="AE59" s="36"/>
       <c r="AF59" s="36"/>
@@ -12484,8 +11731,8 @@
       <c r="AO59" s="23"/>
     </row>
     <row r="60" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="309"/>
-      <c r="B60" s="309"/>
+      <c r="A60" s="307"/>
+      <c r="B60" s="307"/>
       <c r="D60" s="34"/>
       <c r="E60" s="34"/>
       <c r="F60" s="242"/>
@@ -12509,15 +11756,15 @@
       <c r="Y60" s="248"/>
       <c r="Z60" s="248"/>
       <c r="AA60" s="248"/>
-      <c r="AB60" s="283"/>
-      <c r="AC60" s="50"/>
+      <c r="AB60" s="248"/>
+      <c r="AC60" s="385"/>
       <c r="AD60" s="23"/>
       <c r="AE60" s="36"/>
       <c r="AF60" s="36"/>
       <c r="AG60" s="50"/>
       <c r="AH60" s="50"/>
       <c r="AI60" s="36"/>
-      <c r="AJ60" s="347"/>
+      <c r="AJ60" s="345"/>
       <c r="AK60" s="23"/>
       <c r="AL60" s="23"/>
       <c r="AM60" s="23"/>
@@ -12535,50 +11782,28 @@
       <c r="K61" s="242"/>
       <c r="L61" s="242"/>
       <c r="M61" s="242"/>
-      <c r="N61" s="327"/>
+      <c r="N61" s="325"/>
       <c r="P61" s="218"/>
-      <c r="Q61" s="244" t="s">
-        <v>254</v>
-      </c>
-      <c r="R61" s="248" t="s">
-        <v>222</v>
-      </c>
-      <c r="S61" s="249">
-        <v>1500</v>
-      </c>
-      <c r="T61" s="249">
-        <v>10</v>
-      </c>
-      <c r="U61" s="248">
-        <v>11</v>
-      </c>
-      <c r="V61" s="248">
-        <v>25</v>
-      </c>
-      <c r="W61" s="248">
-        <v>4.0000001899898052E-2</v>
-      </c>
-      <c r="X61" s="248">
-        <v>3.6363638090816412E-3</v>
-      </c>
+      <c r="Q61" s="244"/>
+      <c r="R61" s="248"/>
+      <c r="S61" s="249"/>
+      <c r="T61" s="249"/>
+      <c r="U61" s="248"/>
+      <c r="V61" s="248"/>
+      <c r="W61" s="248"/>
+      <c r="X61" s="248"/>
       <c r="Y61" s="248"/>
-      <c r="Z61" s="248">
-        <v>3.9999999105930328E-2</v>
-      </c>
-      <c r="AA61" s="248">
-        <v>3.6363636609166861E-3</v>
-      </c>
-      <c r="AB61" s="284"/>
-      <c r="AC61" s="364" t="s">
-        <v>56</v>
-      </c>
+      <c r="Z61" s="248"/>
+      <c r="AA61" s="248"/>
+      <c r="AB61" s="248"/>
+      <c r="AC61" s="386"/>
       <c r="AD61" s="23"/>
       <c r="AE61" s="36"/>
       <c r="AF61" s="36"/>
       <c r="AG61" s="50"/>
       <c r="AH61" s="50"/>
       <c r="AI61" s="36"/>
-      <c r="AJ61" s="348"/>
+      <c r="AJ61" s="346"/>
       <c r="AK61" s="23"/>
       <c r="AL61" s="23"/>
       <c r="AM61" s="23"/>
@@ -12598,41 +11823,19 @@
       <c r="M62" s="242"/>
       <c r="N62" s="242"/>
       <c r="P62" s="218"/>
-      <c r="Q62" s="244" t="s">
-        <v>254</v>
-      </c>
-      <c r="R62" s="248" t="s">
-        <v>223</v>
-      </c>
-      <c r="S62" s="249">
-        <v>150000</v>
-      </c>
-      <c r="T62" s="249">
-        <v>10</v>
-      </c>
-      <c r="U62" s="248">
-        <v>11</v>
-      </c>
-      <c r="V62" s="248">
-        <v>25</v>
-      </c>
-      <c r="W62" s="248">
-        <v>4.0000001899898052E-2</v>
-      </c>
-      <c r="X62" s="248">
-        <v>3.6363638090816412E-3</v>
-      </c>
+      <c r="Q62" s="244"/>
+      <c r="R62" s="248"/>
+      <c r="S62" s="249"/>
+      <c r="T62" s="249"/>
+      <c r="U62" s="248"/>
+      <c r="V62" s="248"/>
+      <c r="W62" s="248"/>
+      <c r="X62" s="248"/>
       <c r="Y62" s="248"/>
-      <c r="Z62" s="248">
-        <v>3.9999999105930328E-2</v>
-      </c>
-      <c r="AA62" s="248">
-        <v>3.6363636609166861E-3</v>
-      </c>
-      <c r="AB62" s="284"/>
-      <c r="AC62" s="365" t="s">
-        <v>56</v>
-      </c>
+      <c r="Z62" s="248"/>
+      <c r="AA62" s="248"/>
+      <c r="AB62" s="248"/>
+      <c r="AC62" s="348"/>
       <c r="AD62" s="23"/>
       <c r="AE62" s="36"/>
       <c r="AF62" s="36"/>
@@ -12659,41 +11862,19 @@
       <c r="M63" s="242"/>
       <c r="N63" s="242"/>
       <c r="P63" s="218"/>
-      <c r="Q63" s="244" t="s">
-        <v>254</v>
-      </c>
-      <c r="R63" s="248" t="s">
-        <v>224</v>
-      </c>
-      <c r="S63" s="249">
-        <v>10000</v>
-      </c>
-      <c r="T63" s="249">
-        <v>10</v>
-      </c>
-      <c r="U63" s="248">
-        <v>11</v>
-      </c>
-      <c r="V63" s="248">
-        <v>25</v>
-      </c>
-      <c r="W63" s="248">
-        <v>4.0000001899898052E-2</v>
-      </c>
-      <c r="X63" s="248">
-        <v>3.6363638090816412E-3</v>
-      </c>
+      <c r="Q63" s="244"/>
+      <c r="R63" s="248"/>
+      <c r="S63" s="249"/>
+      <c r="T63" s="249"/>
+      <c r="U63" s="248"/>
+      <c r="V63" s="248"/>
+      <c r="W63" s="248"/>
+      <c r="X63" s="248"/>
       <c r="Y63" s="248"/>
-      <c r="Z63" s="248">
-        <v>3.9999999105930328E-2</v>
-      </c>
-      <c r="AA63" s="248">
-        <v>3.6363636609166861E-3</v>
-      </c>
-      <c r="AB63" s="284"/>
-      <c r="AC63" s="366" t="s">
-        <v>56</v>
-      </c>
+      <c r="Z63" s="248"/>
+      <c r="AA63" s="248"/>
+      <c r="AB63" s="248"/>
+      <c r="AC63" s="349"/>
       <c r="AD63" s="23"/>
       <c r="AE63" s="36"/>
       <c r="AF63" s="36"/>
@@ -12718,7 +11899,7 @@
       <c r="K64" s="242"/>
       <c r="L64" s="242"/>
       <c r="M64" s="242"/>
-      <c r="N64" s="328"/>
+      <c r="N64" s="326"/>
       <c r="P64" s="218"/>
       <c r="Q64" s="82"/>
       <c r="R64" s="248"/>
@@ -12731,7 +11912,7 @@
       <c r="Y64" s="248"/>
       <c r="Z64" s="248"/>
       <c r="AA64" s="248"/>
-      <c r="AB64" s="284"/>
+      <c r="AB64" s="248"/>
       <c r="AC64" s="36"/>
       <c r="AD64" s="23"/>
       <c r="AE64" s="36"/>
@@ -12770,8 +11951,8 @@
       <c r="Y65" s="248"/>
       <c r="Z65" s="248"/>
       <c r="AA65" s="248"/>
-      <c r="AB65" s="284"/>
-      <c r="AC65" s="367"/>
+      <c r="AB65" s="248"/>
+      <c r="AC65" s="350"/>
       <c r="AE65" s="36"/>
       <c r="AF65" s="36"/>
       <c r="AG65" s="50"/>
@@ -12803,8 +11984,8 @@
       <c r="Y66" s="248"/>
       <c r="Z66" s="248"/>
       <c r="AA66" s="248"/>
-      <c r="AB66" s="284"/>
-      <c r="AC66" s="368"/>
+      <c r="AB66" s="248"/>
+      <c r="AC66" s="351"/>
       <c r="AE66" s="36"/>
       <c r="AF66" s="36"/>
       <c r="AG66" s="50"/>
@@ -12823,7 +12004,7 @@
       <c r="K67" s="242"/>
       <c r="L67" s="242"/>
       <c r="M67" s="242"/>
-      <c r="N67" s="329"/>
+      <c r="N67" s="327"/>
       <c r="P67" s="218"/>
       <c r="Q67" s="82"/>
       <c r="R67" s="248"/>
@@ -12836,8 +12017,8 @@
       <c r="Y67" s="248"/>
       <c r="Z67" s="248"/>
       <c r="AA67" s="248"/>
-      <c r="AB67" s="284"/>
-      <c r="AC67" s="369"/>
+      <c r="AB67" s="248"/>
+      <c r="AC67" s="352"/>
       <c r="AE67" s="36"/>
       <c r="AF67" s="36"/>
       <c r="AG67" s="50"/>
@@ -12869,7 +12050,7 @@
       <c r="Y68" s="248"/>
       <c r="Z68" s="248"/>
       <c r="AA68" s="248"/>
-      <c r="AB68" s="284"/>
+      <c r="AB68" s="248"/>
       <c r="AC68" s="36"/>
       <c r="AE68" s="36"/>
       <c r="AF68" s="36"/>
@@ -12902,8 +12083,8 @@
       <c r="Y69" s="248"/>
       <c r="Z69" s="248"/>
       <c r="AA69" s="248"/>
-      <c r="AB69" s="284"/>
-      <c r="AC69" s="370"/>
+      <c r="AB69" s="248"/>
+      <c r="AC69" s="353"/>
       <c r="AE69" s="36"/>
       <c r="AF69" s="36"/>
       <c r="AG69" s="50"/>
@@ -12935,8 +12116,8 @@
       <c r="Y70" s="248"/>
       <c r="Z70" s="248"/>
       <c r="AA70" s="248"/>
-      <c r="AB70" s="284"/>
-      <c r="AC70" s="371"/>
+      <c r="AB70" s="248"/>
+      <c r="AC70" s="354"/>
       <c r="AE70" s="36"/>
       <c r="AF70" s="36"/>
       <c r="AG70" s="50"/>
@@ -12968,8 +12149,8 @@
       <c r="Y71" s="248"/>
       <c r="Z71" s="248"/>
       <c r="AA71" s="248"/>
-      <c r="AB71" s="284"/>
-      <c r="AC71" s="372"/>
+      <c r="AB71" s="282"/>
+      <c r="AC71" s="355"/>
       <c r="AE71" s="36"/>
       <c r="AF71" s="36"/>
       <c r="AG71" s="50"/>
@@ -13001,7 +12182,7 @@
       <c r="Y72" s="248"/>
       <c r="Z72" s="248"/>
       <c r="AA72" s="248"/>
-      <c r="AB72" s="284"/>
+      <c r="AB72" s="282"/>
       <c r="AC72" s="36"/>
       <c r="AE72" s="36"/>
       <c r="AF72" s="36"/>
@@ -13034,7 +12215,7 @@
       <c r="Y73" s="248"/>
       <c r="Z73" s="248"/>
       <c r="AA73" s="248"/>
-      <c r="AB73" s="284"/>
+      <c r="AB73" s="282"/>
       <c r="AC73" s="36"/>
       <c r="AE73" s="36"/>
       <c r="AF73" s="36"/>
@@ -13069,7 +12250,7 @@
       <c r="Y74" s="248"/>
       <c r="Z74" s="248"/>
       <c r="AA74" s="248"/>
-      <c r="AB74" s="284"/>
+      <c r="AB74" s="282"/>
       <c r="AC74" s="36"/>
       <c r="AE74" s="36"/>
       <c r="AF74" s="36"/>
@@ -13105,7 +12286,7 @@
       <c r="Y75" s="248"/>
       <c r="Z75" s="248"/>
       <c r="AA75" s="248"/>
-      <c r="AB75" s="284"/>
+      <c r="AB75" s="282"/>
       <c r="AC75" s="36"/>
       <c r="AE75" s="36"/>
       <c r="AF75" s="36"/>
@@ -13141,7 +12322,7 @@
       <c r="Y76" s="248"/>
       <c r="Z76" s="248"/>
       <c r="AA76" s="248"/>
-      <c r="AB76" s="284"/>
+      <c r="AB76" s="282"/>
       <c r="AC76" s="36"/>
       <c r="AE76" s="36"/>
       <c r="AF76" s="36"/>
@@ -13177,7 +12358,7 @@
       <c r="Y77" s="248"/>
       <c r="Z77" s="248"/>
       <c r="AA77" s="248"/>
-      <c r="AB77" s="284"/>
+      <c r="AB77" s="282"/>
       <c r="AC77" s="36"/>
       <c r="AE77" s="36"/>
       <c r="AF77" s="36"/>
@@ -13213,7 +12394,7 @@
       <c r="Y78" s="247"/>
       <c r="Z78" s="247"/>
       <c r="AA78" s="248"/>
-      <c r="AB78" s="284"/>
+      <c r="AB78" s="282"/>
       <c r="AC78" s="36"/>
       <c r="AE78" s="36"/>
       <c r="AF78" s="36"/>
@@ -13249,7 +12430,7 @@
       <c r="Y79" s="247"/>
       <c r="Z79" s="247"/>
       <c r="AA79" s="248"/>
-      <c r="AB79" s="284"/>
+      <c r="AB79" s="282"/>
       <c r="AC79" s="36"/>
       <c r="AE79" s="36"/>
       <c r="AF79" s="36"/>
@@ -13285,7 +12466,7 @@
       <c r="Y80" s="247"/>
       <c r="Z80" s="247"/>
       <c r="AA80" s="248"/>
-      <c r="AB80" s="284"/>
+      <c r="AB80" s="282"/>
       <c r="AC80" s="36"/>
       <c r="AE80" s="36"/>
       <c r="AF80" s="36"/>
@@ -13300,12 +12481,12 @@
       <c r="D81" s="100"/>
       <c r="E81" s="101"/>
       <c r="F81" s="101"/>
-      <c r="G81" s="289"/>
-      <c r="H81" s="289"/>
-      <c r="I81" s="289"/>
-      <c r="J81" s="289"/>
-      <c r="K81" s="289"/>
-      <c r="L81" s="289"/>
+      <c r="G81" s="287"/>
+      <c r="H81" s="287"/>
+      <c r="I81" s="287"/>
+      <c r="J81" s="287"/>
+      <c r="K81" s="287"/>
+      <c r="L81" s="287"/>
       <c r="M81" s="119"/>
       <c r="N81" s="50"/>
       <c r="O81" s="215"/>
@@ -13342,7 +12523,7 @@
       <c r="J82" s="50"/>
       <c r="K82" s="82"/>
       <c r="L82" s="50"/>
-      <c r="M82" s="290"/>
+      <c r="M82" s="288"/>
       <c r="N82" s="50"/>
       <c r="O82" s="53"/>
       <c r="P82" s="238"/>
@@ -13378,7 +12559,7 @@
       <c r="J83" s="50"/>
       <c r="K83" s="82"/>
       <c r="L83" s="50"/>
-      <c r="M83" s="291"/>
+      <c r="M83" s="289"/>
       <c r="N83" s="50"/>
       <c r="O83" s="53"/>
       <c r="P83" s="229"/>
@@ -13414,7 +12595,7 @@
       <c r="J84" s="50"/>
       <c r="K84" s="82"/>
       <c r="L84" s="50"/>
-      <c r="M84" s="292"/>
+      <c r="M84" s="290"/>
       <c r="N84" s="50"/>
       <c r="O84" s="53"/>
       <c r="P84" s="229"/>
@@ -13450,7 +12631,7 @@
       <c r="J85" s="50"/>
       <c r="K85" s="82"/>
       <c r="L85" s="50"/>
-      <c r="M85" s="293"/>
+      <c r="M85" s="291"/>
       <c r="N85" s="50"/>
       <c r="O85" s="53"/>
       <c r="P85" s="229"/>
@@ -13486,7 +12667,7 @@
       <c r="J86" s="50"/>
       <c r="K86" s="82"/>
       <c r="L86" s="50"/>
-      <c r="M86" s="294"/>
+      <c r="M86" s="292"/>
       <c r="N86" s="50"/>
       <c r="O86" s="53"/>
       <c r="P86" s="229"/>
@@ -13732,12 +12913,12 @@
       <c r="D93" s="101"/>
       <c r="E93" s="101"/>
       <c r="F93" s="101"/>
-      <c r="G93" s="289"/>
-      <c r="H93" s="289"/>
-      <c r="I93" s="289"/>
-      <c r="J93" s="289"/>
-      <c r="K93" s="289"/>
-      <c r="L93" s="289"/>
+      <c r="G93" s="287"/>
+      <c r="H93" s="287"/>
+      <c r="I93" s="287"/>
+      <c r="J93" s="287"/>
+      <c r="K93" s="287"/>
+      <c r="L93" s="287"/>
       <c r="M93" s="119"/>
       <c r="N93" s="50"/>
       <c r="O93" s="215"/>
@@ -13774,7 +12955,7 @@
       <c r="J94" s="50"/>
       <c r="K94" s="82"/>
       <c r="L94" s="50"/>
-      <c r="M94" s="295"/>
+      <c r="M94" s="293"/>
       <c r="N94" s="50"/>
       <c r="O94" s="53"/>
       <c r="P94" s="229"/>
@@ -13810,7 +12991,7 @@
       <c r="J95" s="50"/>
       <c r="K95" s="82"/>
       <c r="L95" s="50"/>
-      <c r="M95" s="296"/>
+      <c r="M95" s="294"/>
       <c r="N95" s="50"/>
       <c r="O95" s="53"/>
       <c r="P95" s="229"/>
@@ -13846,7 +13027,7 @@
       <c r="J96" s="50"/>
       <c r="K96" s="82"/>
       <c r="L96" s="50"/>
-      <c r="M96" s="297"/>
+      <c r="M96" s="295"/>
       <c r="N96" s="50"/>
       <c r="O96" s="53"/>
       <c r="P96" s="229"/>
@@ -13882,7 +13063,7 @@
       <c r="J97" s="50"/>
       <c r="K97" s="82"/>
       <c r="L97" s="50"/>
-      <c r="M97" s="298"/>
+      <c r="M97" s="296"/>
       <c r="N97" s="50"/>
       <c r="O97" s="53"/>
       <c r="P97" s="229"/>
@@ -13918,7 +13099,7 @@
       <c r="J98" s="50"/>
       <c r="K98" s="82"/>
       <c r="L98" s="50"/>
-      <c r="M98" s="299"/>
+      <c r="M98" s="297"/>
       <c r="N98" s="50"/>
       <c r="O98" s="53"/>
       <c r="P98" s="229"/>
@@ -13954,7 +13135,7 @@
       <c r="J99" s="50"/>
       <c r="K99" s="82"/>
       <c r="L99" s="50"/>
-      <c r="M99" s="300"/>
+      <c r="M99" s="298"/>
       <c r="N99" s="50"/>
       <c r="O99" s="53"/>
       <c r="P99" s="229"/>
@@ -14164,12 +13345,12 @@
       <c r="D105" s="101"/>
       <c r="E105" s="101"/>
       <c r="F105" s="101"/>
-      <c r="G105" s="289"/>
-      <c r="H105" s="289"/>
-      <c r="I105" s="289"/>
-      <c r="J105" s="289"/>
-      <c r="K105" s="289"/>
-      <c r="L105" s="289"/>
+      <c r="G105" s="287"/>
+      <c r="H105" s="287"/>
+      <c r="I105" s="287"/>
+      <c r="J105" s="287"/>
+      <c r="K105" s="287"/>
+      <c r="L105" s="287"/>
       <c r="M105" s="119"/>
       <c r="N105" s="50"/>
       <c r="O105" s="215"/>
@@ -14206,7 +13387,7 @@
       <c r="J106" s="50"/>
       <c r="K106" s="82"/>
       <c r="L106" s="50"/>
-      <c r="M106" s="301"/>
+      <c r="M106" s="299"/>
       <c r="N106" s="50"/>
       <c r="O106" s="53"/>
       <c r="P106" s="229"/>
@@ -14242,7 +13423,7 @@
       <c r="J107" s="50"/>
       <c r="K107" s="82"/>
       <c r="L107" s="50"/>
-      <c r="M107" s="302"/>
+      <c r="M107" s="300"/>
       <c r="N107" s="50"/>
       <c r="O107" s="53"/>
       <c r="P107" s="229"/>
@@ -14278,7 +13459,7 @@
       <c r="J108" s="50"/>
       <c r="K108" s="82"/>
       <c r="L108" s="50"/>
-      <c r="M108" s="303"/>
+      <c r="M108" s="301"/>
       <c r="N108" s="50"/>
       <c r="O108" s="53"/>
       <c r="P108" s="229"/>
@@ -14314,7 +13495,7 @@
       <c r="J109" s="50"/>
       <c r="K109" s="82"/>
       <c r="L109" s="50"/>
-      <c r="M109" s="304"/>
+      <c r="M109" s="302"/>
       <c r="N109" s="50"/>
       <c r="O109" s="53"/>
       <c r="P109" s="229"/>
@@ -14350,7 +13531,7 @@
       <c r="J110" s="50"/>
       <c r="K110" s="82"/>
       <c r="L110" s="50"/>
-      <c r="M110" s="305"/>
+      <c r="M110" s="303"/>
       <c r="N110" s="50"/>
       <c r="O110" s="53"/>
       <c r="P110" s="229"/>
@@ -19458,15 +18639,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="39" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="F1" s="376" t="s">
+      <c r="F1" s="390" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="376"/>
-      <c r="H1" s="376"/>
-      <c r="I1" s="376"/>
-      <c r="J1" s="376"/>
-      <c r="K1" s="376"/>
-      <c r="L1" s="376"/>
+      <c r="G1" s="390"/>
+      <c r="H1" s="390"/>
+      <c r="I1" s="390"/>
+      <c r="J1" s="390"/>
+      <c r="K1" s="390"/>
+      <c r="L1" s="390"/>
       <c r="U1" s="22" t="s">
         <v>62</v>
       </c>
@@ -19555,22 +18736,22 @@
       </c>
     </row>
     <row r="6" spans="1:47" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D6" s="377" t="s">
+      <c r="D6" s="391" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="378"/>
-      <c r="F6" s="378"/>
-      <c r="G6" s="378"/>
-      <c r="H6" s="379"/>
+      <c r="E6" s="392"/>
+      <c r="F6" s="392"/>
+      <c r="G6" s="392"/>
+      <c r="H6" s="393"/>
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
-      <c r="M6" s="377" t="s">
+      <c r="M6" s="391" t="s">
         <v>66</v>
       </c>
-      <c r="N6" s="378"/>
-      <c r="O6" s="378"/>
-      <c r="P6" s="378"/>
-      <c r="Q6" s="379"/>
+      <c r="N6" s="392"/>
+      <c r="O6" s="392"/>
+      <c r="P6" s="392"/>
+      <c r="Q6" s="393"/>
     </row>
     <row r="7" spans="1:47" ht="76.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="24" t="s">
@@ -19588,10 +18769,10 @@
       <c r="E7" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="380" t="s">
+      <c r="F7" s="394" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="381"/>
+      <c r="G7" s="395"/>
       <c r="H7" s="24" t="s">
         <v>73</v>
       </c>
@@ -19614,10 +18795,10 @@
         <v>79</v>
       </c>
       <c r="O7" s="29"/>
-      <c r="P7" s="380" t="s">
+      <c r="P7" s="394" t="s">
         <v>80</v>
       </c>
-      <c r="Q7" s="381"/>
+      <c r="Q7" s="395"/>
       <c r="R7" s="30" t="s">
         <v>74</v>
       </c>
@@ -19694,7 +18875,7 @@
       <c r="A9" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="382" t="s">
+      <c r="B9" s="396" t="s">
         <v>194</v>
       </c>
       <c r="C9" s="40" t="s">
@@ -19728,33 +18909,33 @@
         <f t="shared" ref="L9:L22" si="0">MIN(I9:K9)</f>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="M9" s="373">
+      <c r="M9" s="387">
         <v>20</v>
       </c>
-      <c r="N9" s="385" t="s">
+      <c r="N9" s="399" t="s">
         <v>95</v>
       </c>
-      <c r="O9" s="373">
+      <c r="O9" s="387">
         <f>IF(N9="daily",1,IF(N9="week",7,IF(N9="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P9" s="373">
+      <c r="P9" s="387">
         <v>3</v>
       </c>
-      <c r="Q9" s="373">
+      <c r="Q9" s="387">
         <f>P9/O9</f>
         <v>3</v>
       </c>
-      <c r="R9" s="373">
+      <c r="R9" s="387">
         <f>M9*Q9</f>
         <v>60</v>
       </c>
-      <c r="S9" s="373"/>
-      <c r="T9" s="388">
+      <c r="S9" s="387"/>
+      <c r="T9" s="402">
         <f>MIN(R9:S12)</f>
         <v>60</v>
       </c>
-      <c r="U9" s="373">
+      <c r="U9" s="387">
         <v>500</v>
       </c>
       <c r="V9" s="41">
@@ -19779,7 +18960,7 @@
       <c r="A10" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="B10" s="383"/>
+      <c r="B10" s="397"/>
       <c r="C10" s="40" t="s">
         <v>198</v>
       </c>
@@ -19811,15 +18992,15 @@
         <f t="shared" si="0"/>
         <v>0.21</v>
       </c>
-      <c r="M10" s="374"/>
-      <c r="N10" s="386"/>
-      <c r="O10" s="374"/>
-      <c r="P10" s="374"/>
-      <c r="Q10" s="374"/>
-      <c r="R10" s="374"/>
-      <c r="S10" s="374"/>
-      <c r="T10" s="389"/>
-      <c r="U10" s="374"/>
+      <c r="M10" s="388"/>
+      <c r="N10" s="400"/>
+      <c r="O10" s="388"/>
+      <c r="P10" s="388"/>
+      <c r="Q10" s="388"/>
+      <c r="R10" s="388"/>
+      <c r="S10" s="388"/>
+      <c r="T10" s="403"/>
+      <c r="U10" s="388"/>
       <c r="V10" s="41"/>
       <c r="W10" s="36"/>
       <c r="X10" s="36"/>
@@ -19827,10 +19008,10 @@
       <c r="AK10" s="46"/>
     </row>
     <row r="11" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="373" t="s">
+      <c r="A11" s="387" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="383"/>
+      <c r="B11" s="397"/>
       <c r="C11" s="40"/>
       <c r="D11" s="40"/>
       <c r="E11" s="40"/>
@@ -19841,15 +19022,15 @@
       <c r="J11" s="36"/>
       <c r="K11" s="36"/>
       <c r="L11" s="42"/>
-      <c r="M11" s="374"/>
-      <c r="N11" s="386"/>
-      <c r="O11" s="374"/>
-      <c r="P11" s="374"/>
-      <c r="Q11" s="374"/>
-      <c r="R11" s="374"/>
-      <c r="S11" s="374"/>
-      <c r="T11" s="389"/>
-      <c r="U11" s="374"/>
+      <c r="M11" s="388"/>
+      <c r="N11" s="400"/>
+      <c r="O11" s="388"/>
+      <c r="P11" s="388"/>
+      <c r="Q11" s="388"/>
+      <c r="R11" s="388"/>
+      <c r="S11" s="388"/>
+      <c r="T11" s="403"/>
+      <c r="U11" s="388"/>
       <c r="V11" s="41"/>
       <c r="W11" s="36"/>
       <c r="X11" s="36"/>
@@ -19868,8 +19049,8 @@
       <c r="AU11" s="65"/>
     </row>
     <row r="12" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="375"/>
-      <c r="B12" s="384"/>
+      <c r="A12" s="389"/>
+      <c r="B12" s="398"/>
       <c r="C12" s="40"/>
       <c r="D12" s="40"/>
       <c r="E12" s="40"/>
@@ -19880,15 +19061,15 @@
       <c r="J12" s="36"/>
       <c r="K12" s="36"/>
       <c r="L12" s="42"/>
-      <c r="M12" s="375"/>
-      <c r="N12" s="387"/>
-      <c r="O12" s="375"/>
-      <c r="P12" s="375"/>
-      <c r="Q12" s="375"/>
-      <c r="R12" s="375"/>
-      <c r="S12" s="375"/>
-      <c r="T12" s="390"/>
-      <c r="U12" s="375"/>
+      <c r="M12" s="389"/>
+      <c r="N12" s="401"/>
+      <c r="O12" s="389"/>
+      <c r="P12" s="389"/>
+      <c r="Q12" s="389"/>
+      <c r="R12" s="389"/>
+      <c r="S12" s="389"/>
+      <c r="T12" s="404"/>
+      <c r="U12" s="389"/>
       <c r="V12" s="41"/>
       <c r="W12" s="36"/>
       <c r="X12" s="36"/>
@@ -19904,7 +19085,7 @@
       <c r="A13" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="B13" s="382" t="s">
+      <c r="B13" s="396" t="s">
         <v>195</v>
       </c>
       <c r="C13" s="40" t="s">
@@ -19938,33 +19119,33 @@
         <f t="shared" si="0"/>
         <v>2E-3</v>
       </c>
-      <c r="M13" s="373">
+      <c r="M13" s="387">
         <v>80</v>
       </c>
-      <c r="N13" s="385" t="s">
+      <c r="N13" s="399" t="s">
         <v>95</v>
       </c>
-      <c r="O13" s="373">
+      <c r="O13" s="387">
         <f>IF(N13="daily",1,IF(N13="week",7,IF(N13="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P13" s="373">
+      <c r="P13" s="387">
         <v>2</v>
       </c>
-      <c r="Q13" s="373">
+      <c r="Q13" s="387">
         <f>P13/O13</f>
         <v>2</v>
       </c>
-      <c r="R13" s="373">
+      <c r="R13" s="387">
         <f>M13*Q13</f>
         <v>160</v>
       </c>
-      <c r="S13" s="373"/>
-      <c r="T13" s="388">
+      <c r="S13" s="387"/>
+      <c r="T13" s="402">
         <f>MIN(R13:S16)</f>
         <v>160</v>
       </c>
-      <c r="U13" s="373">
+      <c r="U13" s="387">
         <v>600</v>
       </c>
       <c r="V13" s="41">
@@ -19987,7 +19168,7 @@
       <c r="A14" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="B14" s="383"/>
+      <c r="B14" s="397"/>
       <c r="C14" s="40" t="s">
         <v>200</v>
       </c>
@@ -20019,15 +19200,15 @@
         <f t="shared" si="0"/>
         <v>0.08</v>
       </c>
-      <c r="M14" s="374"/>
-      <c r="N14" s="386"/>
-      <c r="O14" s="374"/>
-      <c r="P14" s="374"/>
-      <c r="Q14" s="374"/>
-      <c r="R14" s="374"/>
-      <c r="S14" s="374"/>
-      <c r="T14" s="389"/>
-      <c r="U14" s="374"/>
+      <c r="M14" s="388"/>
+      <c r="N14" s="400"/>
+      <c r="O14" s="388"/>
+      <c r="P14" s="388"/>
+      <c r="Q14" s="388"/>
+      <c r="R14" s="388"/>
+      <c r="S14" s="388"/>
+      <c r="T14" s="403"/>
+      <c r="U14" s="388"/>
       <c r="V14" s="41"/>
       <c r="W14" s="36"/>
       <c r="X14" s="36"/>
@@ -20035,10 +19216,10 @@
       <c r="AT14" s="70"/>
     </row>
     <row r="15" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="391" t="s">
+      <c r="A15" s="405" t="s">
         <v>101</v>
       </c>
-      <c r="B15" s="383"/>
+      <c r="B15" s="397"/>
       <c r="C15" s="40"/>
       <c r="D15" s="40"/>
       <c r="E15" s="40"/>
@@ -20049,15 +19230,15 @@
       <c r="J15" s="36"/>
       <c r="K15" s="36"/>
       <c r="L15" s="42"/>
-      <c r="M15" s="374"/>
-      <c r="N15" s="386"/>
-      <c r="O15" s="374"/>
-      <c r="P15" s="374"/>
-      <c r="Q15" s="374"/>
-      <c r="R15" s="374"/>
-      <c r="S15" s="374"/>
-      <c r="T15" s="389"/>
-      <c r="U15" s="374"/>
+      <c r="M15" s="388"/>
+      <c r="N15" s="400"/>
+      <c r="O15" s="388"/>
+      <c r="P15" s="388"/>
+      <c r="Q15" s="388"/>
+      <c r="R15" s="388"/>
+      <c r="S15" s="388"/>
+      <c r="T15" s="403"/>
+      <c r="U15" s="388"/>
       <c r="V15" s="41"/>
       <c r="W15" s="36"/>
       <c r="X15" s="36"/>
@@ -20067,8 +19248,8 @@
       <c r="AT15" s="46"/>
     </row>
     <row r="16" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="392"/>
-      <c r="B16" s="384"/>
+      <c r="A16" s="406"/>
+      <c r="B16" s="398"/>
       <c r="C16" s="40"/>
       <c r="D16" s="40"/>
       <c r="E16" s="40"/>
@@ -20079,15 +19260,15 @@
       <c r="J16" s="36"/>
       <c r="K16" s="36"/>
       <c r="L16" s="42"/>
-      <c r="M16" s="375"/>
-      <c r="N16" s="387"/>
-      <c r="O16" s="375"/>
-      <c r="P16" s="375"/>
-      <c r="Q16" s="375"/>
-      <c r="R16" s="375"/>
-      <c r="S16" s="375"/>
-      <c r="T16" s="390"/>
-      <c r="U16" s="375"/>
+      <c r="M16" s="389"/>
+      <c r="N16" s="401"/>
+      <c r="O16" s="389"/>
+      <c r="P16" s="389"/>
+      <c r="Q16" s="389"/>
+      <c r="R16" s="389"/>
+      <c r="S16" s="389"/>
+      <c r="T16" s="404"/>
+      <c r="U16" s="389"/>
       <c r="V16" s="41"/>
       <c r="W16" s="36"/>
       <c r="X16" s="36"/>
@@ -20098,7 +19279,7 @@
       <c r="A17" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="B17" s="382" t="s">
+      <c r="B17" s="396" t="s">
         <v>196</v>
       </c>
       <c r="C17" s="40" t="s">
@@ -20132,33 +19313,33 @@
         <f t="shared" si="0"/>
         <v>3.4999999999999996E-2</v>
       </c>
-      <c r="M17" s="373">
+      <c r="M17" s="387">
         <v>70</v>
       </c>
-      <c r="N17" s="385" t="s">
+      <c r="N17" s="399" t="s">
         <v>95</v>
       </c>
-      <c r="O17" s="373">
+      <c r="O17" s="387">
         <f>IF(N17="daily",1,IF(N17="week",7,IF(N17="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P17" s="373">
+      <c r="P17" s="387">
         <v>2</v>
       </c>
-      <c r="Q17" s="373">
+      <c r="Q17" s="387">
         <f>P17/O17</f>
         <v>2</v>
       </c>
-      <c r="R17" s="373">
+      <c r="R17" s="387">
         <f>M17*Q17</f>
         <v>140</v>
       </c>
-      <c r="S17" s="373"/>
-      <c r="T17" s="388">
+      <c r="S17" s="387"/>
+      <c r="T17" s="402">
         <f>MIN(R17:S20)</f>
         <v>140</v>
       </c>
-      <c r="U17" s="373">
+      <c r="U17" s="387">
         <v>850</v>
       </c>
       <c r="V17" s="41">
@@ -20177,7 +19358,7 @@
       <c r="A18" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="B18" s="383"/>
+      <c r="B18" s="397"/>
       <c r="C18" s="40" t="s">
         <v>202</v>
       </c>
@@ -20209,24 +19390,24 @@
         <f t="shared" si="0"/>
         <v>3.9999999999999994E-2</v>
       </c>
-      <c r="M18" s="374"/>
-      <c r="N18" s="386"/>
-      <c r="O18" s="374"/>
-      <c r="P18" s="374"/>
-      <c r="Q18" s="374"/>
-      <c r="R18" s="374"/>
-      <c r="S18" s="374"/>
-      <c r="T18" s="389"/>
-      <c r="U18" s="374"/>
+      <c r="M18" s="388"/>
+      <c r="N18" s="400"/>
+      <c r="O18" s="388"/>
+      <c r="P18" s="388"/>
+      <c r="Q18" s="388"/>
+      <c r="R18" s="388"/>
+      <c r="S18" s="388"/>
+      <c r="T18" s="403"/>
+      <c r="U18" s="388"/>
       <c r="V18" s="41"/>
       <c r="W18" s="36"/>
       <c r="X18" s="36"/>
     </row>
     <row r="19" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="373" t="s">
+      <c r="A19" s="387" t="s">
         <v>105</v>
       </c>
-      <c r="B19" s="383"/>
+      <c r="B19" s="397"/>
       <c r="C19" s="40"/>
       <c r="D19" s="40"/>
       <c r="E19" s="40"/>
@@ -20237,22 +19418,22 @@
       <c r="J19" s="36"/>
       <c r="K19" s="36"/>
       <c r="L19" s="42"/>
-      <c r="M19" s="374"/>
-      <c r="N19" s="386"/>
-      <c r="O19" s="374"/>
-      <c r="P19" s="374"/>
-      <c r="Q19" s="374"/>
-      <c r="R19" s="374"/>
-      <c r="S19" s="374"/>
-      <c r="T19" s="389"/>
-      <c r="U19" s="374"/>
+      <c r="M19" s="388"/>
+      <c r="N19" s="400"/>
+      <c r="O19" s="388"/>
+      <c r="P19" s="388"/>
+      <c r="Q19" s="388"/>
+      <c r="R19" s="388"/>
+      <c r="S19" s="388"/>
+      <c r="T19" s="403"/>
+      <c r="U19" s="388"/>
       <c r="V19" s="41"/>
       <c r="W19" s="36"/>
       <c r="X19" s="36"/>
     </row>
     <row r="20" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="375"/>
-      <c r="B20" s="384"/>
+      <c r="A20" s="389"/>
+      <c r="B20" s="398"/>
       <c r="C20" s="40"/>
       <c r="D20" s="40"/>
       <c r="E20" s="40"/>
@@ -20263,15 +19444,15 @@
       <c r="J20" s="36"/>
       <c r="K20" s="36"/>
       <c r="L20" s="42"/>
-      <c r="M20" s="375"/>
-      <c r="N20" s="387"/>
-      <c r="O20" s="375"/>
-      <c r="P20" s="375"/>
-      <c r="Q20" s="375"/>
-      <c r="R20" s="375"/>
-      <c r="S20" s="375"/>
-      <c r="T20" s="390"/>
-      <c r="U20" s="375"/>
+      <c r="M20" s="389"/>
+      <c r="N20" s="401"/>
+      <c r="O20" s="389"/>
+      <c r="P20" s="389"/>
+      <c r="Q20" s="389"/>
+      <c r="R20" s="389"/>
+      <c r="S20" s="389"/>
+      <c r="T20" s="404"/>
+      <c r="U20" s="389"/>
       <c r="V20" s="41"/>
       <c r="W20" s="36"/>
       <c r="X20" s="36"/>
@@ -20280,7 +19461,7 @@
       <c r="A21" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="382" t="s">
+      <c r="B21" s="396" t="s">
         <v>197</v>
       </c>
       <c r="C21" s="40" t="s">
@@ -20314,33 +19495,33 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="M21" s="373">
+      <c r="M21" s="387">
         <v>60</v>
       </c>
-      <c r="N21" s="385" t="s">
+      <c r="N21" s="399" t="s">
         <v>95</v>
       </c>
-      <c r="O21" s="373">
+      <c r="O21" s="387">
         <f>IF(N21="daily",1,IF(N21="week",7,IF(N21="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P21" s="373">
+      <c r="P21" s="387">
         <v>3</v>
       </c>
-      <c r="Q21" s="373">
+      <c r="Q21" s="387">
         <f>P21/O21</f>
         <v>3</v>
       </c>
-      <c r="R21" s="373">
+      <c r="R21" s="387">
         <f>M21*Q21</f>
         <v>180</v>
       </c>
-      <c r="S21" s="373"/>
-      <c r="T21" s="388">
+      <c r="S21" s="387"/>
+      <c r="T21" s="402">
         <f>MIN(R21:S24)</f>
         <v>180</v>
       </c>
-      <c r="U21" s="373">
+      <c r="U21" s="387">
         <v>700</v>
       </c>
       <c r="V21" s="41">
@@ -20357,7 +19538,7 @@
       <c r="A22" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="B22" s="383"/>
+      <c r="B22" s="397"/>
       <c r="C22" s="40" t="s">
         <v>204</v>
       </c>
@@ -20389,24 +19570,24 @@
         <f t="shared" si="0"/>
         <v>4.0000000000000008E-2</v>
       </c>
-      <c r="M22" s="374"/>
-      <c r="N22" s="386"/>
-      <c r="O22" s="374"/>
-      <c r="P22" s="374"/>
-      <c r="Q22" s="374"/>
-      <c r="R22" s="374"/>
-      <c r="S22" s="374"/>
-      <c r="T22" s="389"/>
-      <c r="U22" s="374"/>
+      <c r="M22" s="388"/>
+      <c r="N22" s="400"/>
+      <c r="O22" s="388"/>
+      <c r="P22" s="388"/>
+      <c r="Q22" s="388"/>
+      <c r="R22" s="388"/>
+      <c r="S22" s="388"/>
+      <c r="T22" s="403"/>
+      <c r="U22" s="388"/>
       <c r="V22" s="41"/>
       <c r="W22" s="36"/>
       <c r="X22" s="36"/>
     </row>
     <row r="23" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="393" t="s">
+      <c r="A23" s="407" t="s">
         <v>108</v>
       </c>
-      <c r="B23" s="383"/>
+      <c r="B23" s="397"/>
       <c r="C23" s="40"/>
       <c r="D23" s="40"/>
       <c r="E23" s="40"/>
@@ -20417,22 +19598,22 @@
       <c r="J23" s="36"/>
       <c r="K23" s="36"/>
       <c r="L23" s="42"/>
-      <c r="M23" s="374"/>
-      <c r="N23" s="386"/>
-      <c r="O23" s="374"/>
-      <c r="P23" s="374"/>
-      <c r="Q23" s="374"/>
-      <c r="R23" s="374"/>
-      <c r="S23" s="374"/>
-      <c r="T23" s="389"/>
-      <c r="U23" s="374"/>
+      <c r="M23" s="388"/>
+      <c r="N23" s="400"/>
+      <c r="O23" s="388"/>
+      <c r="P23" s="388"/>
+      <c r="Q23" s="388"/>
+      <c r="R23" s="388"/>
+      <c r="S23" s="388"/>
+      <c r="T23" s="403"/>
+      <c r="U23" s="388"/>
       <c r="V23" s="41"/>
       <c r="W23" s="36"/>
       <c r="X23" s="36"/>
     </row>
     <row r="24" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="394"/>
-      <c r="B24" s="384"/>
+      <c r="A24" s="408"/>
+      <c r="B24" s="398"/>
       <c r="C24" s="40"/>
       <c r="D24" s="40"/>
       <c r="E24" s="40"/>
@@ -20443,15 +19624,15 @@
       <c r="J24" s="36"/>
       <c r="K24" s="36"/>
       <c r="L24" s="42"/>
-      <c r="M24" s="375"/>
-      <c r="N24" s="387"/>
-      <c r="O24" s="375"/>
-      <c r="P24" s="375"/>
-      <c r="Q24" s="375"/>
-      <c r="R24" s="375"/>
-      <c r="S24" s="375"/>
-      <c r="T24" s="390"/>
-      <c r="U24" s="375"/>
+      <c r="M24" s="389"/>
+      <c r="N24" s="401"/>
+      <c r="O24" s="389"/>
+      <c r="P24" s="389"/>
+      <c r="Q24" s="389"/>
+      <c r="R24" s="389"/>
+      <c r="S24" s="389"/>
+      <c r="T24" s="404"/>
+      <c r="U24" s="389"/>
       <c r="V24" s="41"/>
       <c r="W24" s="36"/>
       <c r="X24" s="36"/>
@@ -20477,13 +19658,13 @@
       <c r="D27" s="46"/>
       <c r="E27" s="46"/>
       <c r="F27" s="46"/>
-      <c r="H27" s="395" t="s">
+      <c r="H27" s="409" t="s">
         <v>206</v>
       </c>
-      <c r="I27" s="395"/>
-      <c r="J27" s="395"/>
-      <c r="K27" s="395"/>
-      <c r="L27" s="395"/>
+      <c r="I27" s="409"/>
+      <c r="J27" s="409"/>
+      <c r="K27" s="409"/>
+      <c r="L27" s="409"/>
       <c r="M27" s="48"/>
       <c r="N27" s="48"/>
       <c r="O27" s="46"/>
@@ -20763,19 +19944,19 @@
     <row r="40" spans="1:40" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="104"/>
       <c r="C40" s="105"/>
-      <c r="D40" s="398" t="s">
+      <c r="D40" s="412" t="s">
         <v>4</v>
       </c>
-      <c r="E40" s="398"/>
-      <c r="F40" s="398"/>
-      <c r="G40" s="398"/>
-      <c r="H40" s="398"/>
-      <c r="I40" s="398" t="s">
+      <c r="E40" s="412"/>
+      <c r="F40" s="412"/>
+      <c r="G40" s="412"/>
+      <c r="H40" s="412"/>
+      <c r="I40" s="412" t="s">
         <v>5</v>
       </c>
-      <c r="J40" s="398"/>
-      <c r="K40" s="398"/>
-      <c r="L40" s="398"/>
+      <c r="J40" s="412"/>
+      <c r="K40" s="412"/>
+      <c r="L40" s="412"/>
       <c r="M40" s="117"/>
       <c r="N40" s="118" t="s">
         <v>48</v>
@@ -20899,19 +20080,19 @@
       </c>
     </row>
     <row r="42" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="399"/>
+      <c r="B42" s="413"/>
       <c r="C42" s="110"/>
       <c r="D42" s="111"/>
       <c r="E42" s="111"/>
       <c r="F42" s="125"/>
       <c r="G42" s="125"/>
-      <c r="H42" s="397"/>
+      <c r="H42" s="411"/>
       <c r="I42" s="111"/>
       <c r="J42" s="111"/>
       <c r="K42" s="125"/>
       <c r="L42" s="125"/>
-      <c r="M42" s="397"/>
-      <c r="N42" s="424"/>
+      <c r="M42" s="411"/>
+      <c r="N42" s="439"/>
       <c r="P42" s="91"/>
       <c r="Q42" s="91"/>
       <c r="U42" s="64"/>
@@ -20957,19 +20138,19 @@
       <c r="AN42" s="88"/>
     </row>
     <row r="43" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="399"/>
+      <c r="B43" s="413"/>
       <c r="C43" s="110"/>
       <c r="D43" s="125"/>
       <c r="E43" s="111"/>
       <c r="F43" s="125"/>
       <c r="G43" s="103"/>
-      <c r="H43" s="397"/>
+      <c r="H43" s="411"/>
       <c r="I43" s="111"/>
       <c r="J43" s="111"/>
       <c r="K43" s="103"/>
       <c r="L43" s="103"/>
-      <c r="M43" s="397"/>
-      <c r="N43" s="397"/>
+      <c r="M43" s="411"/>
+      <c r="N43" s="411"/>
       <c r="P43" s="92"/>
       <c r="Q43" s="92"/>
       <c r="U43" s="64"/>
@@ -21015,19 +20196,19 @@
       <c r="AN43" s="88"/>
     </row>
     <row r="44" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="399"/>
+      <c r="B44" s="413"/>
       <c r="C44" s="110"/>
       <c r="D44" s="111"/>
       <c r="E44" s="111"/>
       <c r="F44" s="125"/>
       <c r="G44" s="125"/>
-      <c r="H44" s="397"/>
+      <c r="H44" s="411"/>
       <c r="I44" s="111"/>
       <c r="J44" s="111"/>
       <c r="K44" s="125"/>
       <c r="L44" s="125"/>
-      <c r="M44" s="397"/>
-      <c r="N44" s="397"/>
+      <c r="M44" s="411"/>
+      <c r="N44" s="411"/>
       <c r="P44" s="91"/>
       <c r="Q44" s="91"/>
       <c r="U44" s="64"/>
@@ -21073,19 +20254,19 @@
       <c r="AN44" s="88"/>
     </row>
     <row r="45" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="399"/>
+      <c r="B45" s="413"/>
       <c r="C45" s="110"/>
       <c r="D45" s="111"/>
       <c r="E45" s="111"/>
       <c r="F45" s="125"/>
       <c r="G45" s="125"/>
-      <c r="H45" s="397"/>
+      <c r="H45" s="411"/>
       <c r="I45" s="111"/>
       <c r="J45" s="111"/>
       <c r="K45" s="125"/>
       <c r="L45" s="125"/>
-      <c r="M45" s="397"/>
-      <c r="N45" s="397"/>
+      <c r="M45" s="411"/>
+      <c r="N45" s="411"/>
       <c r="P45" s="91"/>
       <c r="Q45" s="91"/>
       <c r="U45" s="64"/>
@@ -21131,19 +20312,19 @@
       <c r="AN45" s="88"/>
     </row>
     <row r="46" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="399"/>
+      <c r="B46" s="413"/>
       <c r="C46" s="110"/>
       <c r="D46" s="111"/>
       <c r="E46" s="111"/>
       <c r="F46" s="125"/>
       <c r="G46" s="125"/>
-      <c r="H46" s="397"/>
+      <c r="H46" s="411"/>
       <c r="I46" s="111"/>
       <c r="J46" s="111"/>
       <c r="K46" s="125"/>
       <c r="L46" s="125"/>
-      <c r="M46" s="397"/>
-      <c r="N46" s="425"/>
+      <c r="M46" s="411"/>
+      <c r="N46" s="440"/>
       <c r="P46" s="91"/>
       <c r="Q46" s="91"/>
       <c r="U46" s="64"/>
@@ -21189,19 +20370,19 @@
       <c r="AN46" s="88"/>
     </row>
     <row r="47" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="399"/>
+      <c r="B47" s="413"/>
       <c r="C47" s="110"/>
       <c r="D47" s="111"/>
       <c r="E47" s="111"/>
       <c r="F47" s="111"/>
       <c r="G47" s="111"/>
-      <c r="H47" s="397"/>
+      <c r="H47" s="411"/>
       <c r="I47" s="111"/>
       <c r="J47" s="111"/>
       <c r="K47" s="111"/>
       <c r="L47" s="111"/>
-      <c r="M47" s="397"/>
-      <c r="N47" s="401"/>
+      <c r="M47" s="411"/>
+      <c r="N47" s="415"/>
       <c r="P47" s="81"/>
       <c r="Q47" s="81"/>
       <c r="S47" s="69"/>
@@ -21249,19 +20430,19 @@
       <c r="AN47" s="88"/>
     </row>
     <row r="48" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="399"/>
+      <c r="B48" s="413"/>
       <c r="C48" s="110"/>
       <c r="D48" s="111"/>
       <c r="E48" s="111"/>
       <c r="F48" s="111"/>
       <c r="G48" s="111"/>
-      <c r="H48" s="397"/>
+      <c r="H48" s="411"/>
       <c r="I48" s="111"/>
       <c r="J48" s="111"/>
       <c r="K48" s="111"/>
       <c r="L48" s="111"/>
-      <c r="M48" s="397"/>
-      <c r="N48" s="401"/>
+      <c r="M48" s="411"/>
+      <c r="N48" s="415"/>
       <c r="P48" s="81"/>
       <c r="Q48" s="81"/>
       <c r="S48" s="69"/>
@@ -21309,19 +20490,19 @@
       <c r="AN48" s="88"/>
     </row>
     <row r="49" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="399"/>
+      <c r="B49" s="413"/>
       <c r="C49" s="110"/>
       <c r="D49" s="111"/>
       <c r="E49" s="111"/>
       <c r="F49" s="111"/>
       <c r="G49" s="111"/>
-      <c r="H49" s="397"/>
+      <c r="H49" s="411"/>
       <c r="I49" s="111"/>
       <c r="J49" s="111"/>
       <c r="K49" s="111"/>
       <c r="L49" s="111"/>
-      <c r="M49" s="397"/>
-      <c r="N49" s="401"/>
+      <c r="M49" s="411"/>
+      <c r="N49" s="415"/>
       <c r="P49" s="81"/>
       <c r="Q49" s="81"/>
       <c r="S49" s="69"/>
@@ -21369,19 +20550,19 @@
       <c r="AN49" s="89"/>
     </row>
     <row r="50" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="402"/>
+      <c r="B50" s="416"/>
       <c r="C50" s="112"/>
       <c r="D50" s="113"/>
       <c r="E50" s="113"/>
       <c r="F50" s="113"/>
       <c r="G50" s="113"/>
-      <c r="H50" s="403"/>
+      <c r="H50" s="417"/>
       <c r="I50" s="113"/>
       <c r="J50" s="113"/>
       <c r="K50" s="113"/>
       <c r="L50" s="113"/>
-      <c r="M50" s="403"/>
-      <c r="N50" s="426"/>
+      <c r="M50" s="417"/>
+      <c r="N50" s="441"/>
       <c r="P50" s="81"/>
       <c r="Q50" s="81"/>
       <c r="S50" s="69"/>
@@ -21402,19 +20583,19 @@
       <c r="AN50" s="64"/>
     </row>
     <row r="51" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="402"/>
+      <c r="B51" s="416"/>
       <c r="C51" s="112"/>
       <c r="D51" s="113"/>
       <c r="E51" s="113"/>
       <c r="F51" s="113"/>
       <c r="G51" s="113"/>
-      <c r="H51" s="403"/>
+      <c r="H51" s="417"/>
       <c r="I51" s="113"/>
       <c r="J51" s="113"/>
       <c r="K51" s="113"/>
       <c r="L51" s="113"/>
-      <c r="M51" s="403"/>
-      <c r="N51" s="405"/>
+      <c r="M51" s="417"/>
+      <c r="N51" s="419"/>
       <c r="P51" s="81"/>
       <c r="Q51" s="81"/>
       <c r="S51" s="69"/>
@@ -21445,19 +20626,19 @@
       <c r="AN51" s="46"/>
     </row>
     <row r="52" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="402"/>
+      <c r="B52" s="416"/>
       <c r="C52" s="112"/>
       <c r="D52" s="113"/>
       <c r="E52" s="113"/>
       <c r="F52" s="113"/>
       <c r="G52" s="113"/>
-      <c r="H52" s="403"/>
+      <c r="H52" s="417"/>
       <c r="I52" s="113"/>
       <c r="J52" s="113"/>
       <c r="K52" s="113"/>
       <c r="L52" s="113"/>
-      <c r="M52" s="403"/>
-      <c r="N52" s="405"/>
+      <c r="M52" s="417"/>
+      <c r="N52" s="419"/>
       <c r="P52" s="81"/>
       <c r="Q52" s="81"/>
       <c r="S52" s="69"/>
@@ -21521,19 +20702,19 @@
       </c>
     </row>
     <row r="53" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="402"/>
+      <c r="B53" s="416"/>
       <c r="C53" s="112"/>
       <c r="D53" s="113"/>
       <c r="E53" s="113"/>
       <c r="F53" s="113"/>
       <c r="G53" s="113"/>
-      <c r="H53" s="403"/>
+      <c r="H53" s="417"/>
       <c r="I53" s="113"/>
       <c r="J53" s="113"/>
       <c r="K53" s="113"/>
       <c r="L53" s="113"/>
-      <c r="M53" s="403"/>
-      <c r="N53" s="405"/>
+      <c r="M53" s="417"/>
+      <c r="N53" s="419"/>
       <c r="P53" s="81"/>
       <c r="Q53" s="81"/>
       <c r="S53" s="69"/>
@@ -21582,19 +20763,19 @@
       <c r="AN53" s="88"/>
     </row>
     <row r="54" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="402"/>
+      <c r="B54" s="416"/>
       <c r="C54" s="112"/>
       <c r="D54" s="113"/>
       <c r="E54" s="113"/>
       <c r="F54" s="113"/>
       <c r="G54" s="113"/>
-      <c r="H54" s="403"/>
+      <c r="H54" s="417"/>
       <c r="I54" s="113"/>
       <c r="J54" s="113"/>
       <c r="K54" s="113"/>
       <c r="L54" s="113"/>
-      <c r="M54" s="403"/>
-      <c r="N54" s="427"/>
+      <c r="M54" s="417"/>
+      <c r="N54" s="442"/>
       <c r="P54" s="81"/>
       <c r="Q54" s="81"/>
       <c r="S54" s="69"/>
@@ -21641,19 +20822,19 @@
       <c r="AN54" s="88"/>
     </row>
     <row r="55" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="402"/>
+      <c r="B55" s="416"/>
       <c r="C55" s="112"/>
       <c r="D55" s="113"/>
       <c r="E55" s="113"/>
       <c r="F55" s="113"/>
       <c r="G55" s="113"/>
-      <c r="H55" s="403"/>
+      <c r="H55" s="417"/>
       <c r="I55" s="113"/>
       <c r="J55" s="113"/>
       <c r="K55" s="113"/>
       <c r="L55" s="113"/>
-      <c r="M55" s="403"/>
-      <c r="N55" s="405"/>
+      <c r="M55" s="417"/>
+      <c r="N55" s="419"/>
       <c r="P55" s="81"/>
       <c r="Q55" s="81"/>
       <c r="S55" s="69"/>
@@ -21700,19 +20881,19 @@
       <c r="AN55" s="88"/>
     </row>
     <row r="56" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="402"/>
+      <c r="B56" s="416"/>
       <c r="C56" s="112"/>
       <c r="D56" s="113"/>
       <c r="E56" s="113"/>
       <c r="F56" s="113"/>
       <c r="G56" s="113"/>
-      <c r="H56" s="403"/>
+      <c r="H56" s="417"/>
       <c r="I56" s="113"/>
       <c r="J56" s="113"/>
       <c r="K56" s="113"/>
       <c r="L56" s="113"/>
-      <c r="M56" s="403"/>
-      <c r="N56" s="405"/>
+      <c r="M56" s="417"/>
+      <c r="N56" s="419"/>
       <c r="P56" s="81"/>
       <c r="Q56" s="81"/>
       <c r="S56" s="69"/>
@@ -21759,19 +20940,19 @@
       <c r="AN56" s="88"/>
     </row>
     <row r="57" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="402"/>
+      <c r="B57" s="416"/>
       <c r="C57" s="112"/>
       <c r="D57" s="113"/>
       <c r="E57" s="113"/>
       <c r="F57" s="113"/>
       <c r="G57" s="113"/>
-      <c r="H57" s="403"/>
+      <c r="H57" s="417"/>
       <c r="I57" s="113"/>
       <c r="J57" s="113"/>
       <c r="K57" s="113"/>
       <c r="L57" s="113"/>
-      <c r="M57" s="403"/>
-      <c r="N57" s="405"/>
+      <c r="M57" s="417"/>
+      <c r="N57" s="419"/>
       <c r="P57" s="81"/>
       <c r="Q57" s="81"/>
       <c r="S57" s="69"/>
@@ -21818,19 +20999,19 @@
       <c r="AN57" s="88"/>
     </row>
     <row r="58" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="407"/>
+      <c r="B58" s="421"/>
       <c r="C58" s="114"/>
       <c r="D58" s="115"/>
       <c r="E58" s="115"/>
       <c r="F58" s="115"/>
       <c r="G58" s="115"/>
-      <c r="H58" s="408"/>
+      <c r="H58" s="422"/>
       <c r="I58" s="115"/>
       <c r="J58" s="115"/>
       <c r="K58" s="115"/>
       <c r="L58" s="115"/>
-      <c r="M58" s="408"/>
-      <c r="N58" s="428"/>
+      <c r="M58" s="422"/>
+      <c r="N58" s="443"/>
       <c r="P58" s="81"/>
       <c r="Q58" s="81"/>
       <c r="S58" s="69"/>
@@ -21877,19 +21058,19 @@
       <c r="AN58" s="88"/>
     </row>
     <row r="59" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="407"/>
+      <c r="B59" s="421"/>
       <c r="C59" s="114"/>
       <c r="D59" s="115"/>
       <c r="E59" s="115"/>
       <c r="F59" s="115"/>
       <c r="G59" s="115"/>
-      <c r="H59" s="408"/>
+      <c r="H59" s="422"/>
       <c r="I59" s="115"/>
       <c r="J59" s="115"/>
       <c r="K59" s="115"/>
       <c r="L59" s="115"/>
-      <c r="M59" s="408"/>
-      <c r="N59" s="410"/>
+      <c r="M59" s="422"/>
+      <c r="N59" s="424"/>
       <c r="P59" s="81"/>
       <c r="Q59" s="81"/>
       <c r="S59" s="69"/>
@@ -21936,19 +21117,19 @@
       <c r="AN59" s="88"/>
     </row>
     <row r="60" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="407"/>
+      <c r="B60" s="421"/>
       <c r="C60" s="114"/>
       <c r="D60" s="115"/>
       <c r="E60" s="115"/>
       <c r="F60" s="115"/>
       <c r="G60" s="115"/>
-      <c r="H60" s="408"/>
+      <c r="H60" s="422"/>
       <c r="I60" s="115"/>
       <c r="J60" s="115"/>
       <c r="K60" s="115"/>
       <c r="L60" s="115"/>
-      <c r="M60" s="408"/>
-      <c r="N60" s="410"/>
+      <c r="M60" s="422"/>
+      <c r="N60" s="424"/>
       <c r="P60" s="81"/>
       <c r="Q60" s="81"/>
       <c r="S60" s="69"/>
@@ -21995,247 +21176,247 @@
       <c r="AN60" s="89"/>
     </row>
     <row r="61" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="407"/>
+      <c r="B61" s="421"/>
       <c r="C61" s="114"/>
       <c r="D61" s="115"/>
       <c r="E61" s="115"/>
       <c r="F61" s="115"/>
       <c r="G61" s="115"/>
-      <c r="H61" s="408"/>
+      <c r="H61" s="422"/>
       <c r="I61" s="115"/>
       <c r="J61" s="115"/>
       <c r="K61" s="115"/>
       <c r="L61" s="115"/>
-      <c r="M61" s="408"/>
-      <c r="N61" s="410"/>
+      <c r="M61" s="422"/>
+      <c r="N61" s="424"/>
       <c r="P61" s="81"/>
       <c r="Q61" s="81"/>
       <c r="S61" s="69"/>
       <c r="T61" s="69"/>
     </row>
     <row r="62" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="407"/>
+      <c r="B62" s="421"/>
       <c r="C62" s="114"/>
       <c r="D62" s="115"/>
       <c r="E62" s="115"/>
       <c r="F62" s="115"/>
       <c r="G62" s="115"/>
-      <c r="H62" s="408"/>
+      <c r="H62" s="422"/>
       <c r="I62" s="115"/>
       <c r="J62" s="115"/>
       <c r="K62" s="115"/>
       <c r="L62" s="115"/>
-      <c r="M62" s="408"/>
-      <c r="N62" s="429"/>
+      <c r="M62" s="422"/>
+      <c r="N62" s="444"/>
       <c r="P62" s="81"/>
       <c r="Q62" s="81"/>
       <c r="S62" s="69"/>
       <c r="T62" s="69"/>
     </row>
     <row r="63" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="407"/>
+      <c r="B63" s="421"/>
       <c r="C63" s="114"/>
       <c r="D63" s="115"/>
       <c r="E63" s="115"/>
       <c r="F63" s="115"/>
       <c r="G63" s="115"/>
-      <c r="H63" s="408"/>
+      <c r="H63" s="422"/>
       <c r="I63" s="115"/>
       <c r="J63" s="115"/>
       <c r="K63" s="115"/>
       <c r="L63" s="115"/>
-      <c r="M63" s="408"/>
-      <c r="N63" s="410"/>
+      <c r="M63" s="422"/>
+      <c r="N63" s="424"/>
       <c r="P63" s="81"/>
       <c r="Q63" s="81"/>
       <c r="S63" s="69"/>
       <c r="T63" s="69"/>
     </row>
     <row r="64" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="407"/>
+      <c r="B64" s="421"/>
       <c r="C64" s="114"/>
       <c r="D64" s="115"/>
       <c r="E64" s="115"/>
       <c r="F64" s="115"/>
       <c r="G64" s="115"/>
-      <c r="H64" s="408"/>
+      <c r="H64" s="422"/>
       <c r="I64" s="115"/>
       <c r="J64" s="115"/>
       <c r="K64" s="115"/>
       <c r="L64" s="115"/>
-      <c r="M64" s="408"/>
-      <c r="N64" s="410"/>
+      <c r="M64" s="422"/>
+      <c r="N64" s="424"/>
       <c r="P64" s="81"/>
       <c r="Q64" s="81"/>
       <c r="S64" s="69"/>
       <c r="T64" s="69"/>
     </row>
     <row r="65" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="407"/>
+      <c r="B65" s="421"/>
       <c r="C65" s="114"/>
       <c r="D65" s="115"/>
       <c r="E65" s="115"/>
       <c r="F65" s="115"/>
       <c r="G65" s="115"/>
-      <c r="H65" s="408"/>
+      <c r="H65" s="422"/>
       <c r="I65" s="115"/>
       <c r="J65" s="115"/>
       <c r="K65" s="115"/>
       <c r="L65" s="115"/>
-      <c r="M65" s="408"/>
-      <c r="N65" s="410"/>
+      <c r="M65" s="422"/>
+      <c r="N65" s="424"/>
       <c r="P65" s="81"/>
       <c r="Q65" s="81"/>
       <c r="S65" s="69"/>
       <c r="T65" s="69"/>
     </row>
     <row r="66" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="411"/>
+      <c r="B66" s="425"/>
       <c r="C66" s="128"/>
       <c r="D66" s="116"/>
       <c r="E66" s="116"/>
       <c r="F66" s="116"/>
       <c r="G66" s="116"/>
-      <c r="H66" s="412"/>
+      <c r="H66" s="426"/>
       <c r="I66" s="116"/>
       <c r="J66" s="116"/>
       <c r="K66" s="116"/>
       <c r="L66" s="116"/>
-      <c r="M66" s="412"/>
-      <c r="N66" s="430"/>
+      <c r="M66" s="426"/>
+      <c r="N66" s="445"/>
       <c r="P66" s="81"/>
       <c r="Q66" s="81"/>
       <c r="S66" s="69"/>
       <c r="T66" s="69"/>
     </row>
     <row r="67" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="411"/>
+      <c r="B67" s="425"/>
       <c r="C67" s="128"/>
       <c r="D67" s="116"/>
       <c r="E67" s="116"/>
       <c r="F67" s="116"/>
       <c r="G67" s="116"/>
-      <c r="H67" s="412"/>
+      <c r="H67" s="426"/>
       <c r="I67" s="116"/>
       <c r="J67" s="116"/>
       <c r="K67" s="116"/>
       <c r="L67" s="116"/>
-      <c r="M67" s="412"/>
-      <c r="N67" s="414"/>
+      <c r="M67" s="426"/>
+      <c r="N67" s="428"/>
       <c r="P67" s="81"/>
       <c r="Q67" s="81"/>
       <c r="S67" s="69"/>
       <c r="T67" s="69"/>
     </row>
     <row r="68" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="411"/>
+      <c r="B68" s="425"/>
       <c r="C68" s="128"/>
       <c r="D68" s="116"/>
       <c r="E68" s="116"/>
       <c r="F68" s="116"/>
       <c r="G68" s="116"/>
-      <c r="H68" s="412"/>
+      <c r="H68" s="426"/>
       <c r="I68" s="116"/>
       <c r="J68" s="116"/>
       <c r="K68" s="116"/>
       <c r="L68" s="116"/>
-      <c r="M68" s="412"/>
-      <c r="N68" s="414"/>
+      <c r="M68" s="426"/>
+      <c r="N68" s="428"/>
       <c r="P68" s="81"/>
       <c r="Q68" s="81"/>
       <c r="S68" s="69"/>
       <c r="T68" s="69"/>
     </row>
     <row r="69" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="411"/>
+      <c r="B69" s="425"/>
       <c r="C69" s="128"/>
       <c r="D69" s="116"/>
       <c r="E69" s="116"/>
       <c r="F69" s="116"/>
       <c r="G69" s="116"/>
-      <c r="H69" s="412"/>
+      <c r="H69" s="426"/>
       <c r="I69" s="116"/>
       <c r="J69" s="116"/>
       <c r="K69" s="116"/>
       <c r="L69" s="116"/>
-      <c r="M69" s="412"/>
-      <c r="N69" s="414"/>
+      <c r="M69" s="426"/>
+      <c r="N69" s="428"/>
       <c r="P69" s="81"/>
       <c r="Q69" s="81"/>
       <c r="S69" s="69"/>
       <c r="T69" s="69"/>
     </row>
     <row r="70" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="411"/>
+      <c r="B70" s="425"/>
       <c r="C70" s="128"/>
       <c r="D70" s="116"/>
       <c r="E70" s="116"/>
       <c r="F70" s="116"/>
       <c r="G70" s="116"/>
-      <c r="H70" s="412"/>
+      <c r="H70" s="426"/>
       <c r="I70" s="116"/>
       <c r="J70" s="116"/>
       <c r="K70" s="116"/>
       <c r="L70" s="116"/>
-      <c r="M70" s="412"/>
-      <c r="N70" s="431"/>
+      <c r="M70" s="426"/>
+      <c r="N70" s="446"/>
       <c r="P70" s="81"/>
       <c r="Q70" s="81"/>
       <c r="S70" s="69"/>
       <c r="T70" s="69"/>
     </row>
     <row r="71" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="411"/>
+      <c r="B71" s="425"/>
       <c r="C71" s="128"/>
       <c r="D71" s="116"/>
       <c r="E71" s="116"/>
       <c r="F71" s="116"/>
       <c r="G71" s="116"/>
-      <c r="H71" s="412"/>
+      <c r="H71" s="426"/>
       <c r="I71" s="116"/>
       <c r="J71" s="116"/>
       <c r="K71" s="116"/>
       <c r="L71" s="116"/>
-      <c r="M71" s="412"/>
-      <c r="N71" s="414"/>
+      <c r="M71" s="426"/>
+      <c r="N71" s="428"/>
       <c r="P71" s="81"/>
       <c r="Q71" s="81"/>
       <c r="S71" s="69"/>
       <c r="T71" s="69"/>
     </row>
     <row r="72" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="411"/>
+      <c r="B72" s="425"/>
       <c r="C72" s="128"/>
       <c r="D72" s="116"/>
       <c r="E72" s="116"/>
       <c r="F72" s="116"/>
       <c r="G72" s="116"/>
-      <c r="H72" s="412"/>
+      <c r="H72" s="426"/>
       <c r="I72" s="116"/>
       <c r="J72" s="116"/>
       <c r="K72" s="116"/>
       <c r="L72" s="116"/>
-      <c r="M72" s="412"/>
-      <c r="N72" s="414"/>
+      <c r="M72" s="426"/>
+      <c r="N72" s="428"/>
       <c r="P72" s="81"/>
       <c r="Q72" s="81"/>
       <c r="S72" s="69"/>
       <c r="T72" s="69"/>
     </row>
     <row r="73" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="411"/>
+      <c r="B73" s="425"/>
       <c r="C73" s="128"/>
       <c r="D73" s="116"/>
       <c r="E73" s="116"/>
       <c r="F73" s="116"/>
       <c r="G73" s="116"/>
-      <c r="H73" s="412"/>
+      <c r="H73" s="426"/>
       <c r="I73" s="116"/>
       <c r="J73" s="116"/>
       <c r="K73" s="116"/>
       <c r="L73" s="116"/>
-      <c r="M73" s="412"/>
-      <c r="N73" s="414"/>
+      <c r="M73" s="426"/>
+      <c r="N73" s="428"/>
       <c r="P73" s="81"/>
       <c r="Q73" s="81"/>
       <c r="S73" s="69"/>
@@ -24304,7 +23485,7 @@
       <c r="H11" s="1">
         <v>2.5799791812896729</v>
       </c>
-      <c r="I11" s="317" t="s">
+      <c r="I11" s="315" t="s">
         <v>56</v>
       </c>
       <c r="J11" s="1">
@@ -24313,7 +23494,7 @@
       <c r="K11" s="1">
         <v>77.399398803710938</v>
       </c>
-      <c r="L11" s="318" t="s">
+      <c r="L11" s="316" t="s">
         <v>56</v>
       </c>
       <c r="M11" s="1">
@@ -24322,7 +23503,7 @@
       <c r="N11" s="1">
         <v>41.666664123535156</v>
       </c>
-      <c r="O11" s="319" t="s">
+      <c r="O11" s="317" t="s">
         <v>56</v>
       </c>
     </row>
@@ -24409,7 +23590,7 @@
       <c r="H14" s="1">
         <v>2.5799791812896729</v>
       </c>
-      <c r="I14" s="320" t="s">
+      <c r="I14" s="318" t="s">
         <v>56</v>
       </c>
       <c r="J14" s="1">
@@ -24418,7 +23599,7 @@
       <c r="K14" s="1">
         <v>77.399398803710938</v>
       </c>
-      <c r="L14" s="321" t="s">
+      <c r="L14" s="319" t="s">
         <v>56</v>
       </c>
       <c r="M14" s="1">
@@ -24427,7 +23608,7 @@
       <c r="N14" s="1">
         <v>41.666664123535156</v>
       </c>
-      <c r="O14" s="322" t="s">
+      <c r="O14" s="320" t="s">
         <v>56</v>
       </c>
     </row>
@@ -24477,7 +23658,7 @@
       <c r="H16" s="1">
         <v>2.5799791812896729</v>
       </c>
-      <c r="I16" s="323" t="s">
+      <c r="I16" s="321" t="s">
         <v>56</v>
       </c>
       <c r="J16" s="1">
@@ -24486,7 +23667,7 @@
       <c r="K16" s="1">
         <v>77.399398803710938</v>
       </c>
-      <c r="L16" s="324" t="s">
+      <c r="L16" s="322" t="s">
         <v>56</v>
       </c>
       <c r="M16" s="1">
@@ -24495,7 +23676,7 @@
       <c r="N16" s="1">
         <v>41.666664123535156</v>
       </c>
-      <c r="O16" s="325" t="s">
+      <c r="O16" s="323" t="s">
         <v>56</v>
       </c>
     </row>

--- a/eResidue_CV_eDocs/bin/Test Data/eResidue_eDocs_TestCase_result.xlsx
+++ b/eResidue_CV_eDocs/bin/Test Data/eResidue_eDocs_TestCase_result.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="251">
   <si>
     <t>Testcase_id</t>
   </si>
@@ -838,40 +838,34 @@
     <t>Solid</t>
   </si>
   <si>
-    <t>Select Type:</t>
-  </si>
-  <si>
-    <t>Test3</t>
-  </si>
-  <si>
-    <t>Test4</t>
-  </si>
-  <si>
-    <t>Test4 P1A1</t>
-  </si>
-  <si>
-    <t>Test Equipment5</t>
-  </si>
-  <si>
-    <t>Test Equipment6</t>
-  </si>
-  <si>
-    <t>Test Equipment8</t>
-  </si>
-  <si>
-    <t>Test Equipment6,Test Equipment8,Test Equipment5,</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>Test3 P1A1</t>
-  </si>
-  <si>
-    <t>Test Equipment7</t>
-  </si>
-  <si>
-    <t>Test Equipment6,Test Equipment5,Test Equipment7,</t>
+    <t>Select Product Type</t>
+  </si>
+  <si>
+    <t>Limit Selection Type</t>
+  </si>
+  <si>
+    <t>Manual</t>
+  </si>
+  <si>
+    <t>Test Product5</t>
+  </si>
+  <si>
+    <t>Test Product6</t>
+  </si>
+  <si>
+    <t>Test Product5 Test API</t>
+  </si>
+  <si>
+    <t>test equipment</t>
+  </si>
+  <si>
+    <t>test equipment1</t>
+  </si>
+  <si>
+    <t>Test Product6 Test API</t>
+  </si>
+  <si>
+    <t>Test Equipment27</t>
   </si>
 </sst>
 </file>
@@ -881,7 +875,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="174" x14ac:knownFonts="1">
+  <fonts count="171" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1773,52 +1767,37 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="10"/>
+      <color indexed="17"/>
     </font>
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="10"/>
+      <color indexed="17"/>
     </font>
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="10"/>
+      <color indexed="17"/>
     </font>
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="10"/>
+      <color indexed="17"/>
     </font>
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="10"/>
+      <color indexed="17"/>
     </font>
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="10"/>
+      <color indexed="17"/>
     </font>
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
+      <color indexed="17"/>
     </font>
   </fonts>
   <fills count="15">
@@ -2017,7 +1996,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="437">
+  <cellXfs count="435">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
@@ -2638,6 +2617,53 @@
       <alignment wrapText="1"/>
     </xf>
     <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="12" fontId="13" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="12" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="83" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="12" fontId="16" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="9" fontId="13" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="9" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="46" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="9" fontId="16" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="79" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="11" fontId="13" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="11" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="38" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="11" fontId="16" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="74" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="10" fontId="13" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="10" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="10" fontId="16" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="68" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="13" fontId="25" numFmtId="3" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="108" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="10" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2647,23 +2673,23 @@
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="10" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="11" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="4" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="7" fillId="4" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="4" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="10" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="12" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="6" fillId="0" fontId="12" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="12" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="3" fontId="13" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="13" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="28" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="16" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -2686,77 +2712,30 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="4" fontId="10" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="7" fillId="4" fontId="10" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="4" fontId="10" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="10" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="10" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="10" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="11" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="10" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="28" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="108" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="10" fontId="21" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="13" fontId="25" numFmtId="3" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="12" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="10" fontId="13" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="6" fillId="0" fontId="12" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="10" fontId="16" numFmtId="164" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="11" fontId="13" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="12" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="11" fontId="10" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="68" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="11" fontId="16" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="38" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="9" fontId="13" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="3" fontId="13" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="9" fontId="10" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="74" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="9" fontId="16" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="12" fontId="13" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="13" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="12" fontId="10" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="83" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="12" fontId="16" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="46" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="79" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="115" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2778,14 +2757,17 @@
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="7" fontId="25" numFmtId="3" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="64" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="31" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="68" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="38" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="74" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="46" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="79" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="83" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="64" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="31" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="68" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="164" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="165" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="166" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -2793,9 +2775,6 @@
     <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="171" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="173" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -5215,15 +5194,15 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="39" r="1" spans="1:47" x14ac:dyDescent="0.5">
-      <c r="F1" s="371" t="s">
+      <c r="F1" s="406" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="371"/>
-      <c r="H1" s="371"/>
-      <c r="I1" s="371"/>
-      <c r="J1" s="371"/>
-      <c r="K1" s="371"/>
-      <c r="L1" s="371"/>
+      <c r="G1" s="406"/>
+      <c r="H1" s="406"/>
+      <c r="I1" s="406"/>
+      <c r="J1" s="406"/>
+      <c r="K1" s="406"/>
+      <c r="L1" s="406"/>
       <c r="U1" s="22" t="s">
         <v>62</v>
       </c>
@@ -5312,22 +5291,22 @@
       </c>
     </row>
     <row customHeight="1" ht="36.75" r="6" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="D6" s="372" t="s">
+      <c r="D6" s="407" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="373"/>
-      <c r="F6" s="373"/>
-      <c r="G6" s="373"/>
-      <c r="H6" s="374"/>
+      <c r="E6" s="408"/>
+      <c r="F6" s="408"/>
+      <c r="G6" s="408"/>
+      <c r="H6" s="409"/>
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
-      <c r="M6" s="372" t="s">
+      <c r="M6" s="407" t="s">
         <v>66</v>
       </c>
-      <c r="N6" s="373"/>
-      <c r="O6" s="373"/>
-      <c r="P6" s="373"/>
-      <c r="Q6" s="374"/>
+      <c r="N6" s="408"/>
+      <c r="O6" s="408"/>
+      <c r="P6" s="408"/>
+      <c r="Q6" s="409"/>
     </row>
     <row customHeight="1" ht="76.5" r="7" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A7" s="24" t="s">
@@ -5345,10 +5324,10 @@
       <c r="E7" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="375" t="s">
+      <c r="F7" s="410" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="376"/>
+      <c r="G7" s="411"/>
       <c r="H7" s="24" t="s">
         <v>73</v>
       </c>
@@ -5371,10 +5350,10 @@
         <v>79</v>
       </c>
       <c r="O7" s="29"/>
-      <c r="P7" s="375" t="s">
+      <c r="P7" s="410" t="s">
         <v>80</v>
       </c>
-      <c r="Q7" s="376"/>
+      <c r="Q7" s="411"/>
       <c r="R7" s="30" t="s">
         <v>74</v>
       </c>
@@ -5451,7 +5430,7 @@
       <c r="A9" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="377" t="s">
+      <c r="B9" s="398" t="s">
         <v>194</v>
       </c>
       <c r="C9" s="40" t="s">
@@ -5485,33 +5464,33 @@
         <f ref="L9:L22" si="0" t="shared">MIN(I9:K9)</f>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="M9" s="368">
+      <c r="M9" s="389">
         <v>20</v>
       </c>
-      <c r="N9" s="380" t="s">
+      <c r="N9" s="401" t="s">
         <v>95</v>
       </c>
-      <c r="O9" s="368">
+      <c r="O9" s="389">
         <f>IF(N9="daily",1,IF(N9="week",7,IF(N9="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P9" s="368">
+      <c r="P9" s="389">
         <v>3</v>
       </c>
-      <c r="Q9" s="368">
+      <c r="Q9" s="389">
         <f>P9/O9</f>
         <v>3</v>
       </c>
-      <c r="R9" s="368">
+      <c r="R9" s="389">
         <f>M9*Q9</f>
         <v>60</v>
       </c>
-      <c r="S9" s="368"/>
-      <c r="T9" s="383">
+      <c r="S9" s="389"/>
+      <c r="T9" s="392">
         <f>MIN(R9:S12)</f>
         <v>60</v>
       </c>
-      <c r="U9" s="368">
+      <c r="U9" s="389">
         <v>500</v>
       </c>
       <c r="V9" s="41">
@@ -5536,7 +5515,7 @@
       <c r="A10" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="B10" s="378"/>
+      <c r="B10" s="399"/>
       <c r="C10" s="40" t="s">
         <v>198</v>
       </c>
@@ -5568,15 +5547,15 @@
         <f si="0" t="shared"/>
         <v>0.21</v>
       </c>
-      <c r="M10" s="369"/>
-      <c r="N10" s="381"/>
-      <c r="O10" s="369"/>
-      <c r="P10" s="369"/>
-      <c r="Q10" s="369"/>
-      <c r="R10" s="369"/>
-      <c r="S10" s="369"/>
-      <c r="T10" s="384"/>
-      <c r="U10" s="369"/>
+      <c r="M10" s="390"/>
+      <c r="N10" s="402"/>
+      <c r="O10" s="390"/>
+      <c r="P10" s="390"/>
+      <c r="Q10" s="390"/>
+      <c r="R10" s="390"/>
+      <c r="S10" s="390"/>
+      <c r="T10" s="393"/>
+      <c r="U10" s="390"/>
       <c r="V10" s="41"/>
       <c r="W10" s="36"/>
       <c r="X10" s="36"/>
@@ -5584,10 +5563,10 @@
       <c r="AK10" s="46"/>
     </row>
     <row customHeight="1" ht="24.95" r="11" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A11" s="368" t="s">
+      <c r="A11" s="389" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="378"/>
+      <c r="B11" s="399"/>
       <c r="C11" s="40"/>
       <c r="D11" s="40"/>
       <c r="E11" s="40"/>
@@ -5598,15 +5577,15 @@
       <c r="J11" s="36"/>
       <c r="K11" s="36"/>
       <c r="L11" s="42"/>
-      <c r="M11" s="369"/>
-      <c r="N11" s="381"/>
-      <c r="O11" s="369"/>
-      <c r="P11" s="369"/>
-      <c r="Q11" s="369"/>
-      <c r="R11" s="369"/>
-      <c r="S11" s="369"/>
-      <c r="T11" s="384"/>
-      <c r="U11" s="369"/>
+      <c r="M11" s="390"/>
+      <c r="N11" s="402"/>
+      <c r="O11" s="390"/>
+      <c r="P11" s="390"/>
+      <c r="Q11" s="390"/>
+      <c r="R11" s="390"/>
+      <c r="S11" s="390"/>
+      <c r="T11" s="393"/>
+      <c r="U11" s="390"/>
       <c r="V11" s="41"/>
       <c r="W11" s="36"/>
       <c r="X11" s="36"/>
@@ -5625,8 +5604,8 @@
       <c r="AU11" s="65"/>
     </row>
     <row customHeight="1" ht="24.95" r="12" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A12" s="370"/>
-      <c r="B12" s="379"/>
+      <c r="A12" s="391"/>
+      <c r="B12" s="400"/>
       <c r="C12" s="40"/>
       <c r="D12" s="40"/>
       <c r="E12" s="40"/>
@@ -5637,15 +5616,15 @@
       <c r="J12" s="36"/>
       <c r="K12" s="36"/>
       <c r="L12" s="42"/>
-      <c r="M12" s="370"/>
-      <c r="N12" s="382"/>
-      <c r="O12" s="370"/>
-      <c r="P12" s="370"/>
-      <c r="Q12" s="370"/>
-      <c r="R12" s="370"/>
-      <c r="S12" s="370"/>
-      <c r="T12" s="385"/>
-      <c r="U12" s="370"/>
+      <c r="M12" s="391"/>
+      <c r="N12" s="403"/>
+      <c r="O12" s="391"/>
+      <c r="P12" s="391"/>
+      <c r="Q12" s="391"/>
+      <c r="R12" s="391"/>
+      <c r="S12" s="391"/>
+      <c r="T12" s="394"/>
+      <c r="U12" s="391"/>
       <c r="V12" s="41"/>
       <c r="W12" s="36"/>
       <c r="X12" s="36"/>
@@ -5661,7 +5640,7 @@
       <c r="A13" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="B13" s="377" t="s">
+      <c r="B13" s="398" t="s">
         <v>195</v>
       </c>
       <c r="C13" s="40" t="s">
@@ -5695,33 +5674,33 @@
         <f si="0" t="shared"/>
         <v>2E-3</v>
       </c>
-      <c r="M13" s="368">
+      <c r="M13" s="389">
         <v>80</v>
       </c>
-      <c r="N13" s="380" t="s">
+      <c r="N13" s="401" t="s">
         <v>95</v>
       </c>
-      <c r="O13" s="368">
+      <c r="O13" s="389">
         <f>IF(N13="daily",1,IF(N13="week",7,IF(N13="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P13" s="368">
+      <c r="P13" s="389">
         <v>2</v>
       </c>
-      <c r="Q13" s="368">
+      <c r="Q13" s="389">
         <f>P13/O13</f>
         <v>2</v>
       </c>
-      <c r="R13" s="368">
+      <c r="R13" s="389">
         <f>M13*Q13</f>
         <v>160</v>
       </c>
-      <c r="S13" s="368"/>
-      <c r="T13" s="383">
+      <c r="S13" s="389"/>
+      <c r="T13" s="392">
         <f>MIN(R13:S16)</f>
         <v>160</v>
       </c>
-      <c r="U13" s="368">
+      <c r="U13" s="389">
         <v>600</v>
       </c>
       <c r="V13" s="41">
@@ -5744,7 +5723,7 @@
       <c r="A14" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="B14" s="378"/>
+      <c r="B14" s="399"/>
       <c r="C14" s="40" t="s">
         <v>200</v>
       </c>
@@ -5776,15 +5755,15 @@
         <f si="0" t="shared"/>
         <v>0.08</v>
       </c>
-      <c r="M14" s="369"/>
-      <c r="N14" s="381"/>
-      <c r="O14" s="369"/>
-      <c r="P14" s="369"/>
-      <c r="Q14" s="369"/>
-      <c r="R14" s="369"/>
-      <c r="S14" s="369"/>
-      <c r="T14" s="384"/>
-      <c r="U14" s="369"/>
+      <c r="M14" s="390"/>
+      <c r="N14" s="402"/>
+      <c r="O14" s="390"/>
+      <c r="P14" s="390"/>
+      <c r="Q14" s="390"/>
+      <c r="R14" s="390"/>
+      <c r="S14" s="390"/>
+      <c r="T14" s="393"/>
+      <c r="U14" s="390"/>
       <c r="V14" s="41"/>
       <c r="W14" s="36"/>
       <c r="X14" s="36"/>
@@ -5792,10 +5771,10 @@
       <c r="AT14" s="70"/>
     </row>
     <row customHeight="1" ht="24.95" r="15" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A15" s="386" t="s">
+      <c r="A15" s="404" t="s">
         <v>101</v>
       </c>
-      <c r="B15" s="378"/>
+      <c r="B15" s="399"/>
       <c r="C15" s="40"/>
       <c r="D15" s="40"/>
       <c r="E15" s="40"/>
@@ -5806,15 +5785,15 @@
       <c r="J15" s="36"/>
       <c r="K15" s="36"/>
       <c r="L15" s="42"/>
-      <c r="M15" s="369"/>
-      <c r="N15" s="381"/>
-      <c r="O15" s="369"/>
-      <c r="P15" s="369"/>
-      <c r="Q15" s="369"/>
-      <c r="R15" s="369"/>
-      <c r="S15" s="369"/>
-      <c r="T15" s="384"/>
-      <c r="U15" s="369"/>
+      <c r="M15" s="390"/>
+      <c r="N15" s="402"/>
+      <c r="O15" s="390"/>
+      <c r="P15" s="390"/>
+      <c r="Q15" s="390"/>
+      <c r="R15" s="390"/>
+      <c r="S15" s="390"/>
+      <c r="T15" s="393"/>
+      <c r="U15" s="390"/>
       <c r="V15" s="41"/>
       <c r="W15" s="36"/>
       <c r="X15" s="36"/>
@@ -5824,8 +5803,8 @@
       <c r="AT15" s="46"/>
     </row>
     <row customHeight="1" ht="24.95" r="16" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A16" s="387"/>
-      <c r="B16" s="379"/>
+      <c r="A16" s="405"/>
+      <c r="B16" s="400"/>
       <c r="C16" s="40"/>
       <c r="D16" s="40"/>
       <c r="E16" s="40"/>
@@ -5836,15 +5815,15 @@
       <c r="J16" s="36"/>
       <c r="K16" s="36"/>
       <c r="L16" s="42"/>
-      <c r="M16" s="370"/>
-      <c r="N16" s="382"/>
-      <c r="O16" s="370"/>
-      <c r="P16" s="370"/>
-      <c r="Q16" s="370"/>
-      <c r="R16" s="370"/>
-      <c r="S16" s="370"/>
-      <c r="T16" s="385"/>
-      <c r="U16" s="370"/>
+      <c r="M16" s="391"/>
+      <c r="N16" s="403"/>
+      <c r="O16" s="391"/>
+      <c r="P16" s="391"/>
+      <c r="Q16" s="391"/>
+      <c r="R16" s="391"/>
+      <c r="S16" s="391"/>
+      <c r="T16" s="394"/>
+      <c r="U16" s="391"/>
       <c r="V16" s="41"/>
       <c r="W16" s="36"/>
       <c r="X16" s="36"/>
@@ -5855,7 +5834,7 @@
       <c r="A17" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="B17" s="377" t="s">
+      <c r="B17" s="398" t="s">
         <v>196</v>
       </c>
       <c r="C17" s="40" t="s">
@@ -5889,33 +5868,33 @@
         <f si="0" t="shared"/>
         <v>3.4999999999999996E-2</v>
       </c>
-      <c r="M17" s="368">
+      <c r="M17" s="389">
         <v>70</v>
       </c>
-      <c r="N17" s="380" t="s">
+      <c r="N17" s="401" t="s">
         <v>95</v>
       </c>
-      <c r="O17" s="368">
+      <c r="O17" s="389">
         <f>IF(N17="daily",1,IF(N17="week",7,IF(N17="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P17" s="368">
+      <c r="P17" s="389">
         <v>2</v>
       </c>
-      <c r="Q17" s="368">
+      <c r="Q17" s="389">
         <f>P17/O17</f>
         <v>2</v>
       </c>
-      <c r="R17" s="368">
+      <c r="R17" s="389">
         <f>M17*Q17</f>
         <v>140</v>
       </c>
-      <c r="S17" s="368"/>
-      <c r="T17" s="383">
+      <c r="S17" s="389"/>
+      <c r="T17" s="392">
         <f>MIN(R17:S20)</f>
         <v>140</v>
       </c>
-      <c r="U17" s="368">
+      <c r="U17" s="389">
         <v>850</v>
       </c>
       <c r="V17" s="41">
@@ -5934,7 +5913,7 @@
       <c r="A18" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="B18" s="378"/>
+      <c r="B18" s="399"/>
       <c r="C18" s="40" t="s">
         <v>202</v>
       </c>
@@ -5966,24 +5945,24 @@
         <f si="0" t="shared"/>
         <v>3.9999999999999994E-2</v>
       </c>
-      <c r="M18" s="369"/>
-      <c r="N18" s="381"/>
-      <c r="O18" s="369"/>
-      <c r="P18" s="369"/>
-      <c r="Q18" s="369"/>
-      <c r="R18" s="369"/>
-      <c r="S18" s="369"/>
-      <c r="T18" s="384"/>
-      <c r="U18" s="369"/>
+      <c r="M18" s="390"/>
+      <c r="N18" s="402"/>
+      <c r="O18" s="390"/>
+      <c r="P18" s="390"/>
+      <c r="Q18" s="390"/>
+      <c r="R18" s="390"/>
+      <c r="S18" s="390"/>
+      <c r="T18" s="393"/>
+      <c r="U18" s="390"/>
       <c r="V18" s="41"/>
       <c r="W18" s="36"/>
       <c r="X18" s="36"/>
     </row>
     <row customHeight="1" ht="24.95" r="19" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A19" s="368" t="s">
+      <c r="A19" s="389" t="s">
         <v>105</v>
       </c>
-      <c r="B19" s="378"/>
+      <c r="B19" s="399"/>
       <c r="C19" s="40"/>
       <c r="D19" s="40"/>
       <c r="E19" s="40"/>
@@ -5994,22 +5973,22 @@
       <c r="J19" s="36"/>
       <c r="K19" s="36"/>
       <c r="L19" s="42"/>
-      <c r="M19" s="369"/>
-      <c r="N19" s="381"/>
-      <c r="O19" s="369"/>
-      <c r="P19" s="369"/>
-      <c r="Q19" s="369"/>
-      <c r="R19" s="369"/>
-      <c r="S19" s="369"/>
-      <c r="T19" s="384"/>
-      <c r="U19" s="369"/>
+      <c r="M19" s="390"/>
+      <c r="N19" s="402"/>
+      <c r="O19" s="390"/>
+      <c r="P19" s="390"/>
+      <c r="Q19" s="390"/>
+      <c r="R19" s="390"/>
+      <c r="S19" s="390"/>
+      <c r="T19" s="393"/>
+      <c r="U19" s="390"/>
       <c r="V19" s="41"/>
       <c r="W19" s="36"/>
       <c r="X19" s="36"/>
     </row>
     <row customHeight="1" ht="24.95" r="20" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A20" s="370"/>
-      <c r="B20" s="379"/>
+      <c r="A20" s="391"/>
+      <c r="B20" s="400"/>
       <c r="C20" s="40"/>
       <c r="D20" s="40"/>
       <c r="E20" s="40"/>
@@ -6020,15 +5999,15 @@
       <c r="J20" s="36"/>
       <c r="K20" s="36"/>
       <c r="L20" s="42"/>
-      <c r="M20" s="370"/>
-      <c r="N20" s="382"/>
-      <c r="O20" s="370"/>
-      <c r="P20" s="370"/>
-      <c r="Q20" s="370"/>
-      <c r="R20" s="370"/>
-      <c r="S20" s="370"/>
-      <c r="T20" s="385"/>
-      <c r="U20" s="370"/>
+      <c r="M20" s="391"/>
+      <c r="N20" s="403"/>
+      <c r="O20" s="391"/>
+      <c r="P20" s="391"/>
+      <c r="Q20" s="391"/>
+      <c r="R20" s="391"/>
+      <c r="S20" s="391"/>
+      <c r="T20" s="394"/>
+      <c r="U20" s="391"/>
       <c r="V20" s="41"/>
       <c r="W20" s="36"/>
       <c r="X20" s="36"/>
@@ -6037,7 +6016,7 @@
       <c r="A21" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="377" t="s">
+      <c r="B21" s="398" t="s">
         <v>197</v>
       </c>
       <c r="C21" s="40" t="s">
@@ -6071,33 +6050,33 @@
         <f si="0" t="shared"/>
         <v>0.05</v>
       </c>
-      <c r="M21" s="368">
+      <c r="M21" s="389">
         <v>60</v>
       </c>
-      <c r="N21" s="380" t="s">
+      <c r="N21" s="401" t="s">
         <v>95</v>
       </c>
-      <c r="O21" s="368">
+      <c r="O21" s="389">
         <f>IF(N21="daily",1,IF(N21="week",7,IF(N21="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P21" s="368">
+      <c r="P21" s="389">
         <v>3</v>
       </c>
-      <c r="Q21" s="368">
+      <c r="Q21" s="389">
         <f>P21/O21</f>
         <v>3</v>
       </c>
-      <c r="R21" s="368">
+      <c r="R21" s="389">
         <f>M21*Q21</f>
         <v>180</v>
       </c>
-      <c r="S21" s="368"/>
-      <c r="T21" s="383">
+      <c r="S21" s="389"/>
+      <c r="T21" s="392">
         <f>MIN(R21:S24)</f>
         <v>180</v>
       </c>
-      <c r="U21" s="368">
+      <c r="U21" s="389">
         <v>700</v>
       </c>
       <c r="V21" s="41">
@@ -6114,7 +6093,7 @@
       <c r="A22" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="B22" s="378"/>
+      <c r="B22" s="399"/>
       <c r="C22" s="40" t="s">
         <v>204</v>
       </c>
@@ -6146,24 +6125,24 @@
         <f si="0" t="shared"/>
         <v>4.0000000000000008E-2</v>
       </c>
-      <c r="M22" s="369"/>
-      <c r="N22" s="381"/>
-      <c r="O22" s="369"/>
-      <c r="P22" s="369"/>
-      <c r="Q22" s="369"/>
-      <c r="R22" s="369"/>
-      <c r="S22" s="369"/>
-      <c r="T22" s="384"/>
-      <c r="U22" s="369"/>
+      <c r="M22" s="390"/>
+      <c r="N22" s="402"/>
+      <c r="O22" s="390"/>
+      <c r="P22" s="390"/>
+      <c r="Q22" s="390"/>
+      <c r="R22" s="390"/>
+      <c r="S22" s="390"/>
+      <c r="T22" s="393"/>
+      <c r="U22" s="390"/>
       <c r="V22" s="41"/>
       <c r="W22" s="36"/>
       <c r="X22" s="36"/>
     </row>
     <row customHeight="1" ht="24.95" r="23" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A23" s="388" t="s">
+      <c r="A23" s="395" t="s">
         <v>108</v>
       </c>
-      <c r="B23" s="378"/>
+      <c r="B23" s="399"/>
       <c r="C23" s="40"/>
       <c r="D23" s="40"/>
       <c r="E23" s="40"/>
@@ -6174,22 +6153,22 @@
       <c r="J23" s="36"/>
       <c r="K23" s="36"/>
       <c r="L23" s="42"/>
-      <c r="M23" s="369"/>
-      <c r="N23" s="381"/>
-      <c r="O23" s="369"/>
-      <c r="P23" s="369"/>
-      <c r="Q23" s="369"/>
-      <c r="R23" s="369"/>
-      <c r="S23" s="369"/>
-      <c r="T23" s="384"/>
-      <c r="U23" s="369"/>
+      <c r="M23" s="390"/>
+      <c r="N23" s="402"/>
+      <c r="O23" s="390"/>
+      <c r="P23" s="390"/>
+      <c r="Q23" s="390"/>
+      <c r="R23" s="390"/>
+      <c r="S23" s="390"/>
+      <c r="T23" s="393"/>
+      <c r="U23" s="390"/>
       <c r="V23" s="41"/>
       <c r="W23" s="36"/>
       <c r="X23" s="36"/>
     </row>
     <row customHeight="1" ht="24.95" r="24" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A24" s="389"/>
-      <c r="B24" s="379"/>
+      <c r="A24" s="396"/>
+      <c r="B24" s="400"/>
       <c r="C24" s="40"/>
       <c r="D24" s="40"/>
       <c r="E24" s="40"/>
@@ -6200,15 +6179,15 @@
       <c r="J24" s="36"/>
       <c r="K24" s="36"/>
       <c r="L24" s="42"/>
-      <c r="M24" s="370"/>
-      <c r="N24" s="382"/>
-      <c r="O24" s="370"/>
-      <c r="P24" s="370"/>
-      <c r="Q24" s="370"/>
-      <c r="R24" s="370"/>
-      <c r="S24" s="370"/>
-      <c r="T24" s="385"/>
-      <c r="U24" s="370"/>
+      <c r="M24" s="391"/>
+      <c r="N24" s="403"/>
+      <c r="O24" s="391"/>
+      <c r="P24" s="391"/>
+      <c r="Q24" s="391"/>
+      <c r="R24" s="391"/>
+      <c r="S24" s="391"/>
+      <c r="T24" s="394"/>
+      <c r="U24" s="391"/>
       <c r="V24" s="41"/>
       <c r="W24" s="36"/>
       <c r="X24" s="36"/>
@@ -6234,13 +6213,13 @@
       <c r="D27" s="46"/>
       <c r="E27" s="46"/>
       <c r="F27" s="46"/>
-      <c r="H27" s="390" t="s">
+      <c r="H27" s="397" t="s">
         <v>206</v>
       </c>
-      <c r="I27" s="390"/>
-      <c r="J27" s="390"/>
-      <c r="K27" s="390"/>
-      <c r="L27" s="390"/>
+      <c r="I27" s="397"/>
+      <c r="J27" s="397"/>
+      <c r="K27" s="397"/>
+      <c r="L27" s="397"/>
       <c r="M27" s="48"/>
       <c r="N27" s="48"/>
       <c r="O27" s="46"/>
@@ -6520,19 +6499,19 @@
     <row customHeight="1" ht="32.25" r="40" spans="1:40" x14ac:dyDescent="0.4">
       <c r="B40" s="104"/>
       <c r="C40" s="105"/>
-      <c r="D40" s="393" t="s">
+      <c r="D40" s="387" t="s">
         <v>4</v>
       </c>
-      <c r="E40" s="393"/>
-      <c r="F40" s="393"/>
-      <c r="G40" s="393"/>
-      <c r="H40" s="393"/>
-      <c r="I40" s="393" t="s">
+      <c r="E40" s="387"/>
+      <c r="F40" s="387"/>
+      <c r="G40" s="387"/>
+      <c r="H40" s="387"/>
+      <c r="I40" s="387" t="s">
         <v>5</v>
       </c>
-      <c r="J40" s="393"/>
-      <c r="K40" s="393"/>
-      <c r="L40" s="393"/>
+      <c r="J40" s="387"/>
+      <c r="K40" s="387"/>
+      <c r="L40" s="387"/>
       <c r="M40" s="117"/>
       <c r="N40" s="118" t="s">
         <v>48</v>
@@ -6656,7 +6635,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24.95" r="42" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="B42" s="394" t="s">
+      <c r="B42" s="382" t="s">
         <v>226</v>
       </c>
       <c r="C42" s="190"/>
@@ -6664,17 +6643,17 @@
       <c r="E42" s="111"/>
       <c r="F42" s="189"/>
       <c r="G42" s="189"/>
-      <c r="H42" s="392">
+      <c r="H42" s="383">
         <v>3.095975611358881E-3</v>
       </c>
       <c r="I42" s="111"/>
       <c r="J42" s="111"/>
       <c r="K42" s="189"/>
       <c r="L42" s="189"/>
-      <c r="M42" s="392">
+      <c r="M42" s="383">
         <v>1</v>
       </c>
-      <c r="N42" s="391" t="s">
+      <c r="N42" s="388" t="s">
         <v>59</v>
       </c>
       <c r="P42" s="91"/>
@@ -6722,7 +6701,7 @@
       <c r="AN42" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="43" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="B43" s="394"/>
+      <c r="B43" s="382"/>
       <c r="C43" s="190" t="s">
         <v>220</v>
       </c>
@@ -6738,7 +6717,7 @@
       <c r="G43" s="103">
         <v>97.126746422628088</v>
       </c>
-      <c r="H43" s="392"/>
+      <c r="H43" s="383"/>
       <c r="I43" s="111">
         <v>1</v>
       </c>
@@ -6751,8 +6730,8 @@
       <c r="L43" s="103">
         <v>1</v>
       </c>
-      <c r="M43" s="392"/>
-      <c r="N43" s="392"/>
+      <c r="M43" s="383"/>
+      <c r="N43" s="383"/>
       <c r="P43" s="92"/>
       <c r="Q43" s="92"/>
       <c r="U43" s="64"/>
@@ -6798,7 +6777,7 @@
       <c r="AN43" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="44" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="B44" s="394"/>
+      <c r="B44" s="382"/>
       <c r="C44" s="190" t="s">
         <v>218</v>
       </c>
@@ -6814,7 +6793,7 @@
       <c r="G44" s="189">
         <v>3.0959756012671502E-3</v>
       </c>
-      <c r="H44" s="392"/>
+      <c r="H44" s="383"/>
       <c r="I44" s="111">
         <v>1</v>
       </c>
@@ -6827,8 +6806,8 @@
       <c r="L44" s="189">
         <v>1</v>
       </c>
-      <c r="M44" s="392"/>
-      <c r="N44" s="392"/>
+      <c r="M44" s="383"/>
+      <c r="N44" s="383"/>
       <c r="P44" s="91"/>
       <c r="Q44" s="91"/>
       <c r="U44" s="64"/>
@@ -6874,7 +6853,7 @@
       <c r="AN44" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="45" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="B45" s="394"/>
+      <c r="B45" s="382"/>
       <c r="C45" s="190" t="s">
         <v>219</v>
       </c>
@@ -6890,7 +6869,7 @@
       <c r="G45" s="189">
         <v>3.0959756012671502E-3</v>
       </c>
-      <c r="H45" s="392"/>
+      <c r="H45" s="383"/>
       <c r="I45" s="111">
         <v>1</v>
       </c>
@@ -6903,8 +6882,8 @@
       <c r="L45" s="189">
         <v>1</v>
       </c>
-      <c r="M45" s="392"/>
-      <c r="N45" s="392"/>
+      <c r="M45" s="383"/>
+      <c r="N45" s="383"/>
       <c r="P45" s="91"/>
       <c r="Q45" s="91"/>
       <c r="U45" s="64"/>
@@ -6950,19 +6929,19 @@
       <c r="AN45" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="46" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="B46" s="394"/>
+      <c r="B46" s="382"/>
       <c r="C46" s="190"/>
       <c r="D46" s="111"/>
       <c r="E46" s="111"/>
       <c r="F46" s="189"/>
       <c r="G46" s="189"/>
-      <c r="H46" s="392"/>
+      <c r="H46" s="383"/>
       <c r="I46" s="111"/>
       <c r="J46" s="111"/>
       <c r="K46" s="189"/>
       <c r="L46" s="189"/>
-      <c r="M46" s="392"/>
-      <c r="N46" s="395"/>
+      <c r="M46" s="383"/>
+      <c r="N46" s="384"/>
       <c r="P46" s="91"/>
       <c r="Q46" s="91"/>
       <c r="U46" s="64"/>
@@ -7008,19 +6987,19 @@
       <c r="AN46" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="47" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="B47" s="394"/>
+      <c r="B47" s="382"/>
       <c r="C47" s="190"/>
       <c r="D47" s="111"/>
       <c r="E47" s="111"/>
       <c r="F47" s="111"/>
       <c r="G47" s="111"/>
-      <c r="H47" s="392"/>
+      <c r="H47" s="383"/>
       <c r="I47" s="111"/>
       <c r="J47" s="111"/>
       <c r="K47" s="111"/>
       <c r="L47" s="111"/>
-      <c r="M47" s="392"/>
-      <c r="N47" s="396"/>
+      <c r="M47" s="383"/>
+      <c r="N47" s="385"/>
       <c r="P47" s="81"/>
       <c r="Q47" s="81"/>
       <c r="S47" s="69"/>
@@ -7068,19 +7047,19 @@
       <c r="AN47" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="48" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="B48" s="394"/>
+      <c r="B48" s="382"/>
       <c r="C48" s="190"/>
       <c r="D48" s="111"/>
       <c r="E48" s="111"/>
       <c r="F48" s="111"/>
       <c r="G48" s="111"/>
-      <c r="H48" s="392"/>
+      <c r="H48" s="383"/>
       <c r="I48" s="111"/>
       <c r="J48" s="111"/>
       <c r="K48" s="111"/>
       <c r="L48" s="111"/>
-      <c r="M48" s="392"/>
-      <c r="N48" s="396"/>
+      <c r="M48" s="383"/>
+      <c r="N48" s="385"/>
       <c r="P48" s="81"/>
       <c r="Q48" s="81"/>
       <c r="S48" s="69"/>
@@ -7128,19 +7107,19 @@
       <c r="AN48" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="49" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B49" s="394"/>
+      <c r="B49" s="382"/>
       <c r="C49" s="190"/>
       <c r="D49" s="111"/>
       <c r="E49" s="111"/>
       <c r="F49" s="111"/>
       <c r="G49" s="111"/>
-      <c r="H49" s="392"/>
+      <c r="H49" s="383"/>
       <c r="I49" s="111"/>
       <c r="J49" s="111"/>
       <c r="K49" s="111"/>
       <c r="L49" s="111"/>
-      <c r="M49" s="392"/>
-      <c r="N49" s="396"/>
+      <c r="M49" s="383"/>
+      <c r="N49" s="385"/>
       <c r="P49" s="81"/>
       <c r="Q49" s="81"/>
       <c r="S49" s="69"/>
@@ -7188,19 +7167,19 @@
       <c r="AN49" s="89"/>
     </row>
     <row customHeight="1" ht="24.95" r="50" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B50" s="397"/>
+      <c r="B50" s="377"/>
       <c r="C50" s="191"/>
       <c r="D50" s="187"/>
       <c r="E50" s="187"/>
       <c r="F50" s="187"/>
       <c r="G50" s="187"/>
-      <c r="H50" s="398"/>
+      <c r="H50" s="378"/>
       <c r="I50" s="187"/>
       <c r="J50" s="187"/>
       <c r="K50" s="187"/>
       <c r="L50" s="187"/>
-      <c r="M50" s="398"/>
-      <c r="N50" s="399"/>
+      <c r="M50" s="378"/>
+      <c r="N50" s="386"/>
       <c r="P50" s="81"/>
       <c r="Q50" s="81"/>
       <c r="S50" s="69"/>
@@ -7221,19 +7200,19 @@
       <c r="AN50" s="64"/>
     </row>
     <row customHeight="1" ht="24.95" r="51" spans="2:40" x14ac:dyDescent="0.4">
-      <c r="B51" s="397"/>
+      <c r="B51" s="377"/>
       <c r="C51" s="191"/>
       <c r="D51" s="187"/>
       <c r="E51" s="187"/>
       <c r="F51" s="187"/>
       <c r="G51" s="187"/>
-      <c r="H51" s="398"/>
+      <c r="H51" s="378"/>
       <c r="I51" s="187"/>
       <c r="J51" s="187"/>
       <c r="K51" s="187"/>
       <c r="L51" s="187"/>
-      <c r="M51" s="398"/>
-      <c r="N51" s="400"/>
+      <c r="M51" s="378"/>
+      <c r="N51" s="380"/>
       <c r="P51" s="81"/>
       <c r="Q51" s="81"/>
       <c r="S51" s="69"/>
@@ -7264,19 +7243,19 @@
       <c r="AN51" s="46"/>
     </row>
     <row customHeight="1" ht="24.95" r="52" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B52" s="397"/>
+      <c r="B52" s="377"/>
       <c r="C52" s="191"/>
       <c r="D52" s="187"/>
       <c r="E52" s="187"/>
       <c r="F52" s="187"/>
       <c r="G52" s="187"/>
-      <c r="H52" s="398"/>
+      <c r="H52" s="378"/>
       <c r="I52" s="187"/>
       <c r="J52" s="187"/>
       <c r="K52" s="187"/>
       <c r="L52" s="187"/>
-      <c r="M52" s="398"/>
-      <c r="N52" s="400"/>
+      <c r="M52" s="378"/>
+      <c r="N52" s="380"/>
       <c r="P52" s="81"/>
       <c r="Q52" s="81"/>
       <c r="S52" s="69"/>
@@ -7340,19 +7319,19 @@
       </c>
     </row>
     <row customHeight="1" ht="24.95" r="53" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B53" s="397"/>
+      <c r="B53" s="377"/>
       <c r="C53" s="191"/>
       <c r="D53" s="187"/>
       <c r="E53" s="187"/>
       <c r="F53" s="187"/>
       <c r="G53" s="187"/>
-      <c r="H53" s="398"/>
+      <c r="H53" s="378"/>
       <c r="I53" s="187"/>
       <c r="J53" s="187"/>
       <c r="K53" s="187"/>
       <c r="L53" s="187"/>
-      <c r="M53" s="398"/>
-      <c r="N53" s="400"/>
+      <c r="M53" s="378"/>
+      <c r="N53" s="380"/>
       <c r="P53" s="81"/>
       <c r="Q53" s="81"/>
       <c r="S53" s="69"/>
@@ -7401,19 +7380,19 @@
       <c r="AN53" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="54" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B54" s="397"/>
+      <c r="B54" s="377"/>
       <c r="C54" s="191"/>
       <c r="D54" s="187"/>
       <c r="E54" s="187"/>
       <c r="F54" s="187"/>
       <c r="G54" s="187"/>
-      <c r="H54" s="398"/>
+      <c r="H54" s="378"/>
       <c r="I54" s="187"/>
       <c r="J54" s="187"/>
       <c r="K54" s="187"/>
       <c r="L54" s="187"/>
-      <c r="M54" s="398"/>
-      <c r="N54" s="401"/>
+      <c r="M54" s="378"/>
+      <c r="N54" s="379"/>
       <c r="P54" s="81"/>
       <c r="Q54" s="81"/>
       <c r="S54" s="69"/>
@@ -7460,19 +7439,19 @@
       <c r="AN54" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="55" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B55" s="397"/>
+      <c r="B55" s="377"/>
       <c r="C55" s="191"/>
       <c r="D55" s="187"/>
       <c r="E55" s="187"/>
       <c r="F55" s="187"/>
       <c r="G55" s="187"/>
-      <c r="H55" s="398"/>
+      <c r="H55" s="378"/>
       <c r="I55" s="187"/>
       <c r="J55" s="187"/>
       <c r="K55" s="187"/>
       <c r="L55" s="187"/>
-      <c r="M55" s="398"/>
-      <c r="N55" s="400"/>
+      <c r="M55" s="378"/>
+      <c r="N55" s="380"/>
       <c r="P55" s="81"/>
       <c r="Q55" s="81"/>
       <c r="S55" s="69"/>
@@ -7519,19 +7498,19 @@
       <c r="AN55" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="56" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B56" s="397"/>
+      <c r="B56" s="377"/>
       <c r="C56" s="191"/>
       <c r="D56" s="187"/>
       <c r="E56" s="187"/>
       <c r="F56" s="187"/>
       <c r="G56" s="187"/>
-      <c r="H56" s="398"/>
+      <c r="H56" s="378"/>
       <c r="I56" s="187"/>
       <c r="J56" s="187"/>
       <c r="K56" s="187"/>
       <c r="L56" s="187"/>
-      <c r="M56" s="398"/>
-      <c r="N56" s="400"/>
+      <c r="M56" s="378"/>
+      <c r="N56" s="380"/>
       <c r="P56" s="81"/>
       <c r="Q56" s="81"/>
       <c r="S56" s="69"/>
@@ -7578,19 +7557,19 @@
       <c r="AN56" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="57" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B57" s="397"/>
+      <c r="B57" s="377"/>
       <c r="C57" s="191"/>
       <c r="D57" s="187"/>
       <c r="E57" s="187"/>
       <c r="F57" s="187"/>
       <c r="G57" s="187"/>
-      <c r="H57" s="398"/>
+      <c r="H57" s="378"/>
       <c r="I57" s="187"/>
       <c r="J57" s="187"/>
       <c r="K57" s="187"/>
       <c r="L57" s="187"/>
-      <c r="M57" s="398"/>
-      <c r="N57" s="400"/>
+      <c r="M57" s="378"/>
+      <c r="N57" s="380"/>
       <c r="P57" s="81"/>
       <c r="Q57" s="81"/>
       <c r="S57" s="69"/>
@@ -7637,19 +7616,19 @@
       <c r="AN57" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="58" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B58" s="402"/>
+      <c r="B58" s="372"/>
       <c r="C58" s="185"/>
       <c r="D58" s="192"/>
       <c r="E58" s="192"/>
       <c r="F58" s="192"/>
       <c r="G58" s="192"/>
-      <c r="H58" s="403"/>
+      <c r="H58" s="373"/>
       <c r="I58" s="192"/>
       <c r="J58" s="192"/>
       <c r="K58" s="192"/>
       <c r="L58" s="192"/>
-      <c r="M58" s="403"/>
-      <c r="N58" s="404"/>
+      <c r="M58" s="373"/>
+      <c r="N58" s="381"/>
       <c r="P58" s="81"/>
       <c r="Q58" s="81"/>
       <c r="S58" s="69"/>
@@ -7696,19 +7675,19 @@
       <c r="AN58" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="59" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B59" s="402"/>
+      <c r="B59" s="372"/>
       <c r="C59" s="185"/>
       <c r="D59" s="192"/>
       <c r="E59" s="192"/>
       <c r="F59" s="192"/>
       <c r="G59" s="192"/>
-      <c r="H59" s="403"/>
+      <c r="H59" s="373"/>
       <c r="I59" s="192"/>
       <c r="J59" s="192"/>
       <c r="K59" s="192"/>
       <c r="L59" s="192"/>
-      <c r="M59" s="403"/>
-      <c r="N59" s="405"/>
+      <c r="M59" s="373"/>
+      <c r="N59" s="375"/>
       <c r="P59" s="81"/>
       <c r="Q59" s="81"/>
       <c r="S59" s="69"/>
@@ -7755,19 +7734,19 @@
       <c r="AN59" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="60" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B60" s="402"/>
+      <c r="B60" s="372"/>
       <c r="C60" s="185"/>
       <c r="D60" s="192"/>
       <c r="E60" s="192"/>
       <c r="F60" s="192"/>
       <c r="G60" s="192"/>
-      <c r="H60" s="403"/>
+      <c r="H60" s="373"/>
       <c r="I60" s="192"/>
       <c r="J60" s="192"/>
       <c r="K60" s="192"/>
       <c r="L60" s="192"/>
-      <c r="M60" s="403"/>
-      <c r="N60" s="405"/>
+      <c r="M60" s="373"/>
+      <c r="N60" s="375"/>
       <c r="P60" s="81"/>
       <c r="Q60" s="81"/>
       <c r="S60" s="69"/>
@@ -7814,247 +7793,247 @@
       <c r="AN60" s="89"/>
     </row>
     <row customHeight="1" ht="24.95" r="61" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B61" s="402"/>
+      <c r="B61" s="372"/>
       <c r="C61" s="185"/>
       <c r="D61" s="192"/>
       <c r="E61" s="192"/>
       <c r="F61" s="192"/>
       <c r="G61" s="192"/>
-      <c r="H61" s="403"/>
+      <c r="H61" s="373"/>
       <c r="I61" s="192"/>
       <c r="J61" s="192"/>
       <c r="K61" s="192"/>
       <c r="L61" s="192"/>
-      <c r="M61" s="403"/>
-      <c r="N61" s="405"/>
+      <c r="M61" s="373"/>
+      <c r="N61" s="375"/>
       <c r="P61" s="81"/>
       <c r="Q61" s="81"/>
       <c r="S61" s="69"/>
       <c r="T61" s="69"/>
     </row>
     <row customHeight="1" ht="24.95" r="62" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B62" s="402"/>
+      <c r="B62" s="372"/>
       <c r="C62" s="185"/>
       <c r="D62" s="192"/>
       <c r="E62" s="192"/>
       <c r="F62" s="192"/>
       <c r="G62" s="192"/>
-      <c r="H62" s="403"/>
+      <c r="H62" s="373"/>
       <c r="I62" s="192"/>
       <c r="J62" s="192"/>
       <c r="K62" s="192"/>
       <c r="L62" s="192"/>
-      <c r="M62" s="403"/>
-      <c r="N62" s="410"/>
+      <c r="M62" s="373"/>
+      <c r="N62" s="374"/>
       <c r="P62" s="81"/>
       <c r="Q62" s="81"/>
       <c r="S62" s="69"/>
       <c r="T62" s="69"/>
     </row>
     <row customHeight="1" ht="24.95" r="63" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B63" s="402"/>
+      <c r="B63" s="372"/>
       <c r="C63" s="185"/>
       <c r="D63" s="192"/>
       <c r="E63" s="192"/>
       <c r="F63" s="192"/>
       <c r="G63" s="192"/>
-      <c r="H63" s="403"/>
+      <c r="H63" s="373"/>
       <c r="I63" s="192"/>
       <c r="J63" s="192"/>
       <c r="K63" s="192"/>
       <c r="L63" s="192"/>
-      <c r="M63" s="403"/>
-      <c r="N63" s="405"/>
+      <c r="M63" s="373"/>
+      <c r="N63" s="375"/>
       <c r="P63" s="81"/>
       <c r="Q63" s="81"/>
       <c r="S63" s="69"/>
       <c r="T63" s="69"/>
     </row>
     <row customHeight="1" ht="24.95" r="64" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B64" s="402"/>
+      <c r="B64" s="372"/>
       <c r="C64" s="185"/>
       <c r="D64" s="192"/>
       <c r="E64" s="192"/>
       <c r="F64" s="192"/>
       <c r="G64" s="192"/>
-      <c r="H64" s="403"/>
+      <c r="H64" s="373"/>
       <c r="I64" s="192"/>
       <c r="J64" s="192"/>
       <c r="K64" s="192"/>
       <c r="L64" s="192"/>
-      <c r="M64" s="403"/>
-      <c r="N64" s="405"/>
+      <c r="M64" s="373"/>
+      <c r="N64" s="375"/>
       <c r="P64" s="81"/>
       <c r="Q64" s="81"/>
       <c r="S64" s="69"/>
       <c r="T64" s="69"/>
     </row>
     <row customHeight="1" ht="24.95" r="65" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B65" s="402"/>
+      <c r="B65" s="372"/>
       <c r="C65" s="185"/>
       <c r="D65" s="192"/>
       <c r="E65" s="192"/>
       <c r="F65" s="192"/>
       <c r="G65" s="192"/>
-      <c r="H65" s="403"/>
+      <c r="H65" s="373"/>
       <c r="I65" s="192"/>
       <c r="J65" s="192"/>
       <c r="K65" s="192"/>
       <c r="L65" s="192"/>
-      <c r="M65" s="403"/>
-      <c r="N65" s="405"/>
+      <c r="M65" s="373"/>
+      <c r="N65" s="375"/>
       <c r="P65" s="81"/>
       <c r="Q65" s="81"/>
       <c r="S65" s="69"/>
       <c r="T65" s="69"/>
     </row>
     <row customHeight="1" ht="24.95" r="66" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B66" s="406"/>
+      <c r="B66" s="368"/>
       <c r="C66" s="186"/>
       <c r="D66" s="188"/>
       <c r="E66" s="188"/>
       <c r="F66" s="188"/>
       <c r="G66" s="188"/>
-      <c r="H66" s="407"/>
+      <c r="H66" s="369"/>
       <c r="I66" s="188"/>
       <c r="J66" s="188"/>
       <c r="K66" s="188"/>
       <c r="L66" s="188"/>
-      <c r="M66" s="407"/>
-      <c r="N66" s="411"/>
+      <c r="M66" s="369"/>
+      <c r="N66" s="376"/>
       <c r="P66" s="81"/>
       <c r="Q66" s="81"/>
       <c r="S66" s="69"/>
       <c r="T66" s="69"/>
     </row>
     <row customHeight="1" ht="24.95" r="67" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B67" s="406"/>
+      <c r="B67" s="368"/>
       <c r="C67" s="186"/>
       <c r="D67" s="188"/>
       <c r="E67" s="188"/>
       <c r="F67" s="188"/>
       <c r="G67" s="188"/>
-      <c r="H67" s="407"/>
+      <c r="H67" s="369"/>
       <c r="I67" s="188"/>
       <c r="J67" s="188"/>
       <c r="K67" s="188"/>
       <c r="L67" s="188"/>
-      <c r="M67" s="407"/>
-      <c r="N67" s="409"/>
+      <c r="M67" s="369"/>
+      <c r="N67" s="371"/>
       <c r="P67" s="81"/>
       <c r="Q67" s="81"/>
       <c r="S67" s="69"/>
       <c r="T67" s="69"/>
     </row>
     <row customHeight="1" ht="24.95" r="68" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B68" s="406"/>
+      <c r="B68" s="368"/>
       <c r="C68" s="186"/>
       <c r="D68" s="188"/>
       <c r="E68" s="188"/>
       <c r="F68" s="188"/>
       <c r="G68" s="188"/>
-      <c r="H68" s="407"/>
+      <c r="H68" s="369"/>
       <c r="I68" s="188"/>
       <c r="J68" s="188"/>
       <c r="K68" s="188"/>
       <c r="L68" s="188"/>
-      <c r="M68" s="407"/>
-      <c r="N68" s="409"/>
+      <c r="M68" s="369"/>
+      <c r="N68" s="371"/>
       <c r="P68" s="81"/>
       <c r="Q68" s="81"/>
       <c r="S68" s="69"/>
       <c r="T68" s="69"/>
     </row>
     <row customHeight="1" ht="24.95" r="69" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B69" s="406"/>
+      <c r="B69" s="368"/>
       <c r="C69" s="186"/>
       <c r="D69" s="188"/>
       <c r="E69" s="188"/>
       <c r="F69" s="188"/>
       <c r="G69" s="188"/>
-      <c r="H69" s="407"/>
+      <c r="H69" s="369"/>
       <c r="I69" s="188"/>
       <c r="J69" s="188"/>
       <c r="K69" s="188"/>
       <c r="L69" s="188"/>
-      <c r="M69" s="407"/>
-      <c r="N69" s="409"/>
+      <c r="M69" s="369"/>
+      <c r="N69" s="371"/>
       <c r="P69" s="81"/>
       <c r="Q69" s="81"/>
       <c r="S69" s="69"/>
       <c r="T69" s="69"/>
     </row>
     <row customHeight="1" ht="24.95" r="70" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B70" s="406"/>
+      <c r="B70" s="368"/>
       <c r="C70" s="186"/>
       <c r="D70" s="188"/>
       <c r="E70" s="188"/>
       <c r="F70" s="188"/>
       <c r="G70" s="188"/>
-      <c r="H70" s="407"/>
+      <c r="H70" s="369"/>
       <c r="I70" s="188"/>
       <c r="J70" s="188"/>
       <c r="K70" s="188"/>
       <c r="L70" s="188"/>
-      <c r="M70" s="407"/>
-      <c r="N70" s="408"/>
+      <c r="M70" s="369"/>
+      <c r="N70" s="370"/>
       <c r="P70" s="81"/>
       <c r="Q70" s="81"/>
       <c r="S70" s="69"/>
       <c r="T70" s="69"/>
     </row>
     <row customHeight="1" ht="24.95" r="71" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B71" s="406"/>
+      <c r="B71" s="368"/>
       <c r="C71" s="186"/>
       <c r="D71" s="188"/>
       <c r="E71" s="188"/>
       <c r="F71" s="188"/>
       <c r="G71" s="188"/>
-      <c r="H71" s="407"/>
+      <c r="H71" s="369"/>
       <c r="I71" s="188"/>
       <c r="J71" s="188"/>
       <c r="K71" s="188"/>
       <c r="L71" s="188"/>
-      <c r="M71" s="407"/>
-      <c r="N71" s="409"/>
+      <c r="M71" s="369"/>
+      <c r="N71" s="371"/>
       <c r="P71" s="81"/>
       <c r="Q71" s="81"/>
       <c r="S71" s="69"/>
       <c r="T71" s="69"/>
     </row>
     <row customHeight="1" ht="24.95" r="72" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B72" s="406"/>
+      <c r="B72" s="368"/>
       <c r="C72" s="186"/>
       <c r="D72" s="188"/>
       <c r="E72" s="188"/>
       <c r="F72" s="188"/>
       <c r="G72" s="188"/>
-      <c r="H72" s="407"/>
+      <c r="H72" s="369"/>
       <c r="I72" s="188"/>
       <c r="J72" s="188"/>
       <c r="K72" s="188"/>
       <c r="L72" s="188"/>
-      <c r="M72" s="407"/>
-      <c r="N72" s="409"/>
+      <c r="M72" s="369"/>
+      <c r="N72" s="371"/>
       <c r="P72" s="81"/>
       <c r="Q72" s="81"/>
       <c r="S72" s="69"/>
       <c r="T72" s="69"/>
     </row>
     <row customHeight="1" ht="24.95" r="73" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B73" s="406"/>
+      <c r="B73" s="368"/>
       <c r="C73" s="186"/>
       <c r="D73" s="188"/>
       <c r="E73" s="188"/>
       <c r="F73" s="188"/>
       <c r="G73" s="188"/>
-      <c r="H73" s="407"/>
+      <c r="H73" s="369"/>
       <c r="I73" s="188"/>
       <c r="J73" s="188"/>
       <c r="K73" s="188"/>
       <c r="L73" s="188"/>
-      <c r="M73" s="407"/>
-      <c r="N73" s="409"/>
+      <c r="M73" s="369"/>
+      <c r="N73" s="371"/>
       <c r="P73" s="81"/>
       <c r="Q73" s="81"/>
       <c r="S73" s="69"/>
@@ -9607,57 +9586,23 @@
     <row customHeight="1" ht="30" r="140" spans="2:22" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="H70:H73"/>
-    <mergeCell ref="M70:M73"/>
-    <mergeCell ref="N70:N73"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="H62:H65"/>
-    <mergeCell ref="M62:M65"/>
-    <mergeCell ref="N62:N65"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="H66:H69"/>
-    <mergeCell ref="M66:M69"/>
-    <mergeCell ref="N66:N69"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="H54:H57"/>
-    <mergeCell ref="M54:M57"/>
-    <mergeCell ref="N54:N57"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="H58:H61"/>
-    <mergeCell ref="M58:M61"/>
-    <mergeCell ref="N58:N61"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="H46:H49"/>
-    <mergeCell ref="M46:M49"/>
-    <mergeCell ref="N46:N49"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="H50:H53"/>
-    <mergeCell ref="M50:M53"/>
-    <mergeCell ref="N50:N53"/>
-    <mergeCell ref="D40:H40"/>
-    <mergeCell ref="I40:L40"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="H42:H45"/>
-    <mergeCell ref="M42:M45"/>
-    <mergeCell ref="N42:N45"/>
-    <mergeCell ref="R21:R24"/>
-    <mergeCell ref="S21:S24"/>
-    <mergeCell ref="T21:T24"/>
-    <mergeCell ref="U21:U24"/>
-    <mergeCell ref="O21:O24"/>
-    <mergeCell ref="P21:P24"/>
-    <mergeCell ref="Q21:Q24"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="M21:M24"/>
-    <mergeCell ref="N21:N24"/>
-    <mergeCell ref="Q17:Q20"/>
-    <mergeCell ref="R17:R20"/>
-    <mergeCell ref="S17:S20"/>
-    <mergeCell ref="T17:T20"/>
-    <mergeCell ref="U17:U20"/>
+    <mergeCell ref="U9:U12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="M9:M12"/>
+    <mergeCell ref="N9:N12"/>
+    <mergeCell ref="O9:O12"/>
+    <mergeCell ref="P9:P12"/>
+    <mergeCell ref="Q13:Q16"/>
+    <mergeCell ref="Q9:Q12"/>
+    <mergeCell ref="R9:R12"/>
+    <mergeCell ref="S9:S12"/>
+    <mergeCell ref="T9:T12"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="R13:R16"/>
     <mergeCell ref="S13:S16"/>
@@ -9674,23 +9619,57 @@
     <mergeCell ref="N13:N16"/>
     <mergeCell ref="O13:O16"/>
     <mergeCell ref="P13:P16"/>
-    <mergeCell ref="Q13:Q16"/>
-    <mergeCell ref="Q9:Q12"/>
-    <mergeCell ref="R9:R12"/>
-    <mergeCell ref="S9:S12"/>
-    <mergeCell ref="T9:T12"/>
-    <mergeCell ref="U9:U12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="M9:M12"/>
-    <mergeCell ref="N9:N12"/>
-    <mergeCell ref="O9:O12"/>
-    <mergeCell ref="P9:P12"/>
+    <mergeCell ref="Q17:Q20"/>
+    <mergeCell ref="R17:R20"/>
+    <mergeCell ref="S17:S20"/>
+    <mergeCell ref="T17:T20"/>
+    <mergeCell ref="U17:U20"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="M21:M24"/>
+    <mergeCell ref="N21:N24"/>
+    <mergeCell ref="N42:N45"/>
+    <mergeCell ref="R21:R24"/>
+    <mergeCell ref="S21:S24"/>
+    <mergeCell ref="T21:T24"/>
+    <mergeCell ref="U21:U24"/>
+    <mergeCell ref="O21:O24"/>
+    <mergeCell ref="P21:P24"/>
+    <mergeCell ref="Q21:Q24"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="H42:H45"/>
+    <mergeCell ref="M42:M45"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="H46:H49"/>
+    <mergeCell ref="M46:M49"/>
+    <mergeCell ref="N46:N49"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="H50:H53"/>
+    <mergeCell ref="M50:M53"/>
+    <mergeCell ref="N50:N53"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="H54:H57"/>
+    <mergeCell ref="M54:M57"/>
+    <mergeCell ref="N54:N57"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="H58:H61"/>
+    <mergeCell ref="M58:M61"/>
+    <mergeCell ref="N58:N61"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="H70:H73"/>
+    <mergeCell ref="M70:M73"/>
+    <mergeCell ref="N70:N73"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="H62:H65"/>
+    <mergeCell ref="M62:M65"/>
+    <mergeCell ref="N62:N65"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="H66:H69"/>
+    <mergeCell ref="M66:M69"/>
+    <mergeCell ref="N66:N69"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="N9 N13 N17 N21" type="list">
@@ -9708,14 +9687,14 @@
   <dimension ref="A1:AV434"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0" zoomScale="50" zoomScaleNormal="50">
-      <selection activeCell="B44" sqref="B44:B45"/>
+      <selection activeCell="B42" sqref="B42:B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="22" width="27.0" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" style="22" width="29.5703125" collapsed="true"/>
     <col min="2" max="2" customWidth="true" style="22" width="33.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="22" width="11.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="22" width="25.0" collapsed="true"/>
     <col min="4" max="4" customWidth="true" style="22" width="36.140625" collapsed="true"/>
     <col min="5" max="5" customWidth="true" style="22" width="30.5703125" collapsed="true"/>
     <col min="6" max="6" customWidth="true" style="22" width="21.42578125" collapsed="true"/>
@@ -9756,15 +9735,15 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="39" r="1" spans="1:47" x14ac:dyDescent="0.5">
-      <c r="F1" s="371" t="s">
+      <c r="F1" s="406" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="371"/>
-      <c r="H1" s="371"/>
-      <c r="I1" s="371"/>
-      <c r="J1" s="371"/>
-      <c r="K1" s="371"/>
-      <c r="L1" s="371"/>
+      <c r="G1" s="406"/>
+      <c r="H1" s="406"/>
+      <c r="I1" s="406"/>
+      <c r="J1" s="406"/>
+      <c r="K1" s="406"/>
+      <c r="L1" s="406"/>
       <c r="U1" s="22" t="s">
         <v>62</v>
       </c>
@@ -9813,22 +9792,22 @@
       <c r="L5" s="23"/>
     </row>
     <row customHeight="1" ht="36.75" r="6" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="D6" s="372" t="s">
+      <c r="D6" s="407" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="373"/>
-      <c r="F6" s="373"/>
-      <c r="G6" s="373"/>
-      <c r="H6" s="374"/>
+      <c r="E6" s="408"/>
+      <c r="F6" s="408"/>
+      <c r="G6" s="408"/>
+      <c r="H6" s="409"/>
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
-      <c r="M6" s="372" t="s">
+      <c r="M6" s="407" t="s">
         <v>66</v>
       </c>
-      <c r="N6" s="373"/>
-      <c r="O6" s="373"/>
-      <c r="P6" s="373"/>
-      <c r="Q6" s="374"/>
+      <c r="N6" s="408"/>
+      <c r="O6" s="408"/>
+      <c r="P6" s="408"/>
+      <c r="Q6" s="409"/>
     </row>
     <row customHeight="1" ht="76.5" r="7" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A7" s="24" t="s">
@@ -9846,10 +9825,10 @@
       <c r="E7" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="375" t="s">
+      <c r="F7" s="410" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="376"/>
+      <c r="G7" s="411"/>
       <c r="H7" s="24" t="s">
         <v>73</v>
       </c>
@@ -9872,10 +9851,10 @@
         <v>79</v>
       </c>
       <c r="O7" s="29"/>
-      <c r="P7" s="375" t="s">
+      <c r="P7" s="410" t="s">
         <v>80</v>
       </c>
-      <c r="Q7" s="376"/>
+      <c r="Q7" s="411"/>
       <c r="R7" s="30" t="s">
         <v>74</v>
       </c>
@@ -9943,7 +9922,7 @@
     </row>
     <row customHeight="1" ht="24.95" r="9" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A9" s="39"/>
-      <c r="B9" s="377"/>
+      <c r="B9" s="398"/>
       <c r="C9" s="40"/>
       <c r="D9" s="40"/>
       <c r="E9" s="40"/>
@@ -9954,15 +9933,15 @@
       <c r="J9" s="36"/>
       <c r="K9" s="36"/>
       <c r="L9" s="42"/>
-      <c r="M9" s="368"/>
-      <c r="N9" s="380"/>
-      <c r="O9" s="368"/>
-      <c r="P9" s="368"/>
-      <c r="Q9" s="368"/>
-      <c r="R9" s="368"/>
-      <c r="S9" s="368"/>
-      <c r="T9" s="383"/>
-      <c r="U9" s="368"/>
+      <c r="M9" s="389"/>
+      <c r="N9" s="401"/>
+      <c r="O9" s="389"/>
+      <c r="P9" s="389"/>
+      <c r="Q9" s="389"/>
+      <c r="R9" s="389"/>
+      <c r="S9" s="389"/>
+      <c r="T9" s="392"/>
+      <c r="U9" s="389"/>
       <c r="V9" s="41"/>
       <c r="W9" s="36"/>
       <c r="X9" s="36"/>
@@ -9972,7 +9951,7 @@
     </row>
     <row customHeight="1" ht="24.95" r="10" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A10" s="40"/>
-      <c r="B10" s="378"/>
+      <c r="B10" s="399"/>
       <c r="C10" s="40"/>
       <c r="D10" s="40"/>
       <c r="E10" s="40"/>
@@ -9983,15 +9962,15 @@
       <c r="J10" s="36"/>
       <c r="K10" s="36"/>
       <c r="L10" s="42"/>
-      <c r="M10" s="369"/>
-      <c r="N10" s="381"/>
-      <c r="O10" s="369"/>
-      <c r="P10" s="369"/>
-      <c r="Q10" s="369"/>
-      <c r="R10" s="369"/>
-      <c r="S10" s="369"/>
-      <c r="T10" s="384"/>
-      <c r="U10" s="369"/>
+      <c r="M10" s="390"/>
+      <c r="N10" s="402"/>
+      <c r="O10" s="390"/>
+      <c r="P10" s="390"/>
+      <c r="Q10" s="390"/>
+      <c r="R10" s="390"/>
+      <c r="S10" s="390"/>
+      <c r="T10" s="393"/>
+      <c r="U10" s="390"/>
       <c r="V10" s="41"/>
       <c r="W10" s="36"/>
       <c r="X10" s="36"/>
@@ -9999,8 +9978,8 @@
       <c r="AK10" s="46"/>
     </row>
     <row customHeight="1" ht="24.95" r="11" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A11" s="368"/>
-      <c r="B11" s="378"/>
+      <c r="A11" s="389"/>
+      <c r="B11" s="399"/>
       <c r="C11" s="40"/>
       <c r="D11" s="40"/>
       <c r="E11" s="40"/>
@@ -10011,15 +9990,15 @@
       <c r="J11" s="36"/>
       <c r="K11" s="36"/>
       <c r="L11" s="42"/>
-      <c r="M11" s="369"/>
-      <c r="N11" s="381"/>
-      <c r="O11" s="369"/>
-      <c r="P11" s="369"/>
-      <c r="Q11" s="369"/>
-      <c r="R11" s="369"/>
-      <c r="S11" s="369"/>
-      <c r="T11" s="384"/>
-      <c r="U11" s="369"/>
+      <c r="M11" s="390"/>
+      <c r="N11" s="402"/>
+      <c r="O11" s="390"/>
+      <c r="P11" s="390"/>
+      <c r="Q11" s="390"/>
+      <c r="R11" s="390"/>
+      <c r="S11" s="390"/>
+      <c r="T11" s="393"/>
+      <c r="U11" s="390"/>
       <c r="V11" s="41"/>
       <c r="W11" s="36"/>
       <c r="X11" s="36"/>
@@ -10029,8 +10008,8 @@
       <c r="AU11" s="65"/>
     </row>
     <row customHeight="1" ht="24.95" r="12" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A12" s="370"/>
-      <c r="B12" s="379"/>
+      <c r="A12" s="391"/>
+      <c r="B12" s="400"/>
       <c r="C12" s="40"/>
       <c r="D12" s="40"/>
       <c r="E12" s="40"/>
@@ -10041,15 +10020,15 @@
       <c r="J12" s="36"/>
       <c r="K12" s="36"/>
       <c r="L12" s="42"/>
-      <c r="M12" s="370"/>
-      <c r="N12" s="382"/>
-      <c r="O12" s="370"/>
-      <c r="P12" s="370"/>
-      <c r="Q12" s="370"/>
-      <c r="R12" s="370"/>
-      <c r="S12" s="370"/>
-      <c r="T12" s="385"/>
-      <c r="U12" s="370"/>
+      <c r="M12" s="391"/>
+      <c r="N12" s="403"/>
+      <c r="O12" s="391"/>
+      <c r="P12" s="391"/>
+      <c r="Q12" s="391"/>
+      <c r="R12" s="391"/>
+      <c r="S12" s="391"/>
+      <c r="T12" s="394"/>
+      <c r="U12" s="391"/>
       <c r="V12" s="41"/>
       <c r="W12" s="36"/>
       <c r="X12" s="36"/>
@@ -10058,7 +10037,7 @@
     </row>
     <row customHeight="1" ht="24.95" r="13" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A13" s="43"/>
-      <c r="B13" s="377"/>
+      <c r="B13" s="398"/>
       <c r="C13" s="40"/>
       <c r="D13" s="40"/>
       <c r="E13" s="40"/>
@@ -10069,15 +10048,15 @@
       <c r="J13" s="36"/>
       <c r="K13" s="36"/>
       <c r="L13" s="42"/>
-      <c r="M13" s="368"/>
-      <c r="N13" s="380"/>
-      <c r="O13" s="368"/>
-      <c r="P13" s="368"/>
-      <c r="Q13" s="368"/>
-      <c r="R13" s="368"/>
-      <c r="S13" s="368"/>
-      <c r="T13" s="383"/>
-      <c r="U13" s="368"/>
+      <c r="M13" s="389"/>
+      <c r="N13" s="401"/>
+      <c r="O13" s="389"/>
+      <c r="P13" s="389"/>
+      <c r="Q13" s="389"/>
+      <c r="R13" s="389"/>
+      <c r="S13" s="389"/>
+      <c r="T13" s="392"/>
+      <c r="U13" s="389"/>
       <c r="V13" s="41"/>
       <c r="W13" s="36"/>
       <c r="X13" s="36"/>
@@ -10086,7 +10065,7 @@
     </row>
     <row customHeight="1" ht="24.95" r="14" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A14" s="44"/>
-      <c r="B14" s="378"/>
+      <c r="B14" s="399"/>
       <c r="C14" s="40"/>
       <c r="D14" s="40"/>
       <c r="E14" s="40"/>
@@ -10097,15 +10076,15 @@
       <c r="J14" s="36"/>
       <c r="K14" s="36"/>
       <c r="L14" s="42"/>
-      <c r="M14" s="369"/>
-      <c r="N14" s="381"/>
-      <c r="O14" s="369"/>
-      <c r="P14" s="369"/>
-      <c r="Q14" s="369"/>
-      <c r="R14" s="369"/>
-      <c r="S14" s="369"/>
-      <c r="T14" s="384"/>
-      <c r="U14" s="369"/>
+      <c r="M14" s="390"/>
+      <c r="N14" s="402"/>
+      <c r="O14" s="390"/>
+      <c r="P14" s="390"/>
+      <c r="Q14" s="390"/>
+      <c r="R14" s="390"/>
+      <c r="S14" s="390"/>
+      <c r="T14" s="393"/>
+      <c r="U14" s="390"/>
       <c r="V14" s="41"/>
       <c r="W14" s="36"/>
       <c r="X14" s="36"/>
@@ -10113,8 +10092,8 @@
       <c r="AT14" s="70"/>
     </row>
     <row customHeight="1" ht="24.95" r="15" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A15" s="386"/>
-      <c r="B15" s="378"/>
+      <c r="A15" s="404"/>
+      <c r="B15" s="399"/>
       <c r="C15" s="40"/>
       <c r="D15" s="40"/>
       <c r="E15" s="40"/>
@@ -10125,15 +10104,15 @@
       <c r="J15" s="36"/>
       <c r="K15" s="36"/>
       <c r="L15" s="42"/>
-      <c r="M15" s="369"/>
-      <c r="N15" s="381"/>
-      <c r="O15" s="369"/>
-      <c r="P15" s="369"/>
-      <c r="Q15" s="369"/>
-      <c r="R15" s="369"/>
-      <c r="S15" s="369"/>
-      <c r="T15" s="384"/>
-      <c r="U15" s="369"/>
+      <c r="M15" s="390"/>
+      <c r="N15" s="402"/>
+      <c r="O15" s="390"/>
+      <c r="P15" s="390"/>
+      <c r="Q15" s="390"/>
+      <c r="R15" s="390"/>
+      <c r="S15" s="390"/>
+      <c r="T15" s="393"/>
+      <c r="U15" s="390"/>
       <c r="V15" s="41"/>
       <c r="W15" s="36"/>
       <c r="X15" s="36"/>
@@ -10141,8 +10120,8 @@
       <c r="AT15" s="46"/>
     </row>
     <row customHeight="1" ht="24.95" r="16" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A16" s="387"/>
-      <c r="B16" s="379"/>
+      <c r="A16" s="405"/>
+      <c r="B16" s="400"/>
       <c r="C16" s="40"/>
       <c r="D16" s="40"/>
       <c r="E16" s="40"/>
@@ -10153,15 +10132,15 @@
       <c r="J16" s="36"/>
       <c r="K16" s="36"/>
       <c r="L16" s="42"/>
-      <c r="M16" s="370"/>
-      <c r="N16" s="382"/>
-      <c r="O16" s="370"/>
-      <c r="P16" s="370"/>
-      <c r="Q16" s="370"/>
-      <c r="R16" s="370"/>
-      <c r="S16" s="370"/>
-      <c r="T16" s="385"/>
-      <c r="U16" s="370"/>
+      <c r="M16" s="391"/>
+      <c r="N16" s="403"/>
+      <c r="O16" s="391"/>
+      <c r="P16" s="391"/>
+      <c r="Q16" s="391"/>
+      <c r="R16" s="391"/>
+      <c r="S16" s="391"/>
+      <c r="T16" s="394"/>
+      <c r="U16" s="391"/>
       <c r="V16" s="41"/>
       <c r="W16" s="36"/>
       <c r="X16" s="36"/>
@@ -10170,7 +10149,7 @@
     </row>
     <row customHeight="1" ht="24.95" r="17" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A17" s="39"/>
-      <c r="B17" s="377"/>
+      <c r="B17" s="398"/>
       <c r="C17" s="40"/>
       <c r="D17" s="40"/>
       <c r="E17" s="40"/>
@@ -10181,15 +10160,15 @@
       <c r="J17" s="36"/>
       <c r="K17" s="36"/>
       <c r="L17" s="42"/>
-      <c r="M17" s="368"/>
-      <c r="N17" s="380"/>
-      <c r="O17" s="368"/>
-      <c r="P17" s="368"/>
-      <c r="Q17" s="368"/>
-      <c r="R17" s="368"/>
-      <c r="S17" s="368"/>
-      <c r="T17" s="383"/>
-      <c r="U17" s="368"/>
+      <c r="M17" s="389"/>
+      <c r="N17" s="401"/>
+      <c r="O17" s="389"/>
+      <c r="P17" s="389"/>
+      <c r="Q17" s="389"/>
+      <c r="R17" s="389"/>
+      <c r="S17" s="389"/>
+      <c r="T17" s="392"/>
+      <c r="U17" s="389"/>
       <c r="V17" s="41"/>
       <c r="W17" s="36"/>
       <c r="X17" s="36"/>
@@ -10198,7 +10177,7 @@
     </row>
     <row customHeight="1" ht="24.95" r="18" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A18" s="40"/>
-      <c r="B18" s="378"/>
+      <c r="B18" s="399"/>
       <c r="C18" s="40"/>
       <c r="D18" s="40"/>
       <c r="E18" s="40"/>
@@ -10209,22 +10188,22 @@
       <c r="J18" s="36"/>
       <c r="K18" s="36"/>
       <c r="L18" s="42"/>
-      <c r="M18" s="369"/>
-      <c r="N18" s="381"/>
-      <c r="O18" s="369"/>
-      <c r="P18" s="369"/>
-      <c r="Q18" s="369"/>
-      <c r="R18" s="369"/>
-      <c r="S18" s="369"/>
-      <c r="T18" s="384"/>
-      <c r="U18" s="369"/>
+      <c r="M18" s="390"/>
+      <c r="N18" s="402"/>
+      <c r="O18" s="390"/>
+      <c r="P18" s="390"/>
+      <c r="Q18" s="390"/>
+      <c r="R18" s="390"/>
+      <c r="S18" s="390"/>
+      <c r="T18" s="393"/>
+      <c r="U18" s="390"/>
       <c r="V18" s="41"/>
       <c r="W18" s="36"/>
       <c r="X18" s="36"/>
     </row>
     <row customHeight="1" ht="24.95" r="19" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A19" s="368"/>
-      <c r="B19" s="378"/>
+      <c r="A19" s="389"/>
+      <c r="B19" s="399"/>
       <c r="C19" s="40"/>
       <c r="D19" s="40"/>
       <c r="E19" s="40"/>
@@ -10235,22 +10214,22 @@
       <c r="J19" s="36"/>
       <c r="K19" s="36"/>
       <c r="L19" s="42"/>
-      <c r="M19" s="369"/>
-      <c r="N19" s="381"/>
-      <c r="O19" s="369"/>
-      <c r="P19" s="369"/>
-      <c r="Q19" s="369"/>
-      <c r="R19" s="369"/>
-      <c r="S19" s="369"/>
-      <c r="T19" s="384"/>
-      <c r="U19" s="369"/>
+      <c r="M19" s="390"/>
+      <c r="N19" s="402"/>
+      <c r="O19" s="390"/>
+      <c r="P19" s="390"/>
+      <c r="Q19" s="390"/>
+      <c r="R19" s="390"/>
+      <c r="S19" s="390"/>
+      <c r="T19" s="393"/>
+      <c r="U19" s="390"/>
       <c r="V19" s="41"/>
       <c r="W19" s="36"/>
       <c r="X19" s="36"/>
     </row>
     <row customHeight="1" ht="24.95" r="20" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A20" s="370"/>
-      <c r="B20" s="379"/>
+      <c r="A20" s="391"/>
+      <c r="B20" s="400"/>
       <c r="C20" s="40"/>
       <c r="D20" s="40"/>
       <c r="E20" s="40"/>
@@ -10261,22 +10240,22 @@
       <c r="J20" s="36"/>
       <c r="K20" s="36"/>
       <c r="L20" s="42"/>
-      <c r="M20" s="370"/>
-      <c r="N20" s="382"/>
-      <c r="O20" s="370"/>
-      <c r="P20" s="370"/>
-      <c r="Q20" s="370"/>
-      <c r="R20" s="370"/>
-      <c r="S20" s="370"/>
-      <c r="T20" s="385"/>
-      <c r="U20" s="370"/>
+      <c r="M20" s="391"/>
+      <c r="N20" s="403"/>
+      <c r="O20" s="391"/>
+      <c r="P20" s="391"/>
+      <c r="Q20" s="391"/>
+      <c r="R20" s="391"/>
+      <c r="S20" s="391"/>
+      <c r="T20" s="394"/>
+      <c r="U20" s="391"/>
       <c r="V20" s="41"/>
       <c r="W20" s="36"/>
       <c r="X20" s="36"/>
     </row>
     <row customHeight="1" ht="24.95" r="21" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A21" s="39"/>
-      <c r="B21" s="377"/>
+      <c r="B21" s="398"/>
       <c r="C21" s="40"/>
       <c r="D21" s="40"/>
       <c r="E21" s="40"/>
@@ -10287,22 +10266,22 @@
       <c r="J21" s="36"/>
       <c r="K21" s="36"/>
       <c r="L21" s="42"/>
-      <c r="M21" s="368"/>
-      <c r="N21" s="380"/>
-      <c r="O21" s="368"/>
-      <c r="P21" s="368"/>
-      <c r="Q21" s="368"/>
-      <c r="R21" s="368"/>
-      <c r="S21" s="368"/>
-      <c r="T21" s="383"/>
-      <c r="U21" s="368"/>
+      <c r="M21" s="389"/>
+      <c r="N21" s="401"/>
+      <c r="O21" s="389"/>
+      <c r="P21" s="389"/>
+      <c r="Q21" s="389"/>
+      <c r="R21" s="389"/>
+      <c r="S21" s="389"/>
+      <c r="T21" s="392"/>
+      <c r="U21" s="389"/>
       <c r="V21" s="41"/>
       <c r="W21" s="36"/>
       <c r="X21" s="36"/>
     </row>
     <row customHeight="1" ht="24.95" r="22" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A22" s="40"/>
-      <c r="B22" s="378"/>
+      <c r="B22" s="399"/>
       <c r="C22" s="40"/>
       <c r="D22" s="40"/>
       <c r="E22" s="40"/>
@@ -10313,22 +10292,22 @@
       <c r="J22" s="36"/>
       <c r="K22" s="36"/>
       <c r="L22" s="42"/>
-      <c r="M22" s="369"/>
-      <c r="N22" s="381"/>
-      <c r="O22" s="369"/>
-      <c r="P22" s="369"/>
-      <c r="Q22" s="369"/>
-      <c r="R22" s="369"/>
-      <c r="S22" s="369"/>
-      <c r="T22" s="384"/>
-      <c r="U22" s="369"/>
+      <c r="M22" s="390"/>
+      <c r="N22" s="402"/>
+      <c r="O22" s="390"/>
+      <c r="P22" s="390"/>
+      <c r="Q22" s="390"/>
+      <c r="R22" s="390"/>
+      <c r="S22" s="390"/>
+      <c r="T22" s="393"/>
+      <c r="U22" s="390"/>
       <c r="V22" s="41"/>
       <c r="W22" s="36"/>
       <c r="X22" s="36"/>
     </row>
     <row customHeight="1" ht="24.95" r="23" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A23" s="388"/>
-      <c r="B23" s="378"/>
+      <c r="A23" s="395"/>
+      <c r="B23" s="399"/>
       <c r="C23" s="40"/>
       <c r="D23" s="40"/>
       <c r="E23" s="40"/>
@@ -10339,22 +10318,22 @@
       <c r="J23" s="36"/>
       <c r="K23" s="36"/>
       <c r="L23" s="42"/>
-      <c r="M23" s="369"/>
-      <c r="N23" s="381"/>
-      <c r="O23" s="369"/>
-      <c r="P23" s="369"/>
-      <c r="Q23" s="369"/>
-      <c r="R23" s="369"/>
-      <c r="S23" s="369"/>
-      <c r="T23" s="384"/>
-      <c r="U23" s="369"/>
+      <c r="M23" s="390"/>
+      <c r="N23" s="402"/>
+      <c r="O23" s="390"/>
+      <c r="P23" s="390"/>
+      <c r="Q23" s="390"/>
+      <c r="R23" s="390"/>
+      <c r="S23" s="390"/>
+      <c r="T23" s="393"/>
+      <c r="U23" s="390"/>
       <c r="V23" s="41"/>
       <c r="W23" s="36"/>
       <c r="X23" s="36"/>
     </row>
     <row customHeight="1" ht="24.95" r="24" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A24" s="389"/>
-      <c r="B24" s="379"/>
+      <c r="A24" s="396"/>
+      <c r="B24" s="400"/>
       <c r="C24" s="40"/>
       <c r="D24" s="40"/>
       <c r="E24" s="40"/>
@@ -10365,15 +10344,15 @@
       <c r="J24" s="36"/>
       <c r="K24" s="36"/>
       <c r="L24" s="42"/>
-      <c r="M24" s="370"/>
-      <c r="N24" s="382"/>
-      <c r="O24" s="370"/>
-      <c r="P24" s="370"/>
-      <c r="Q24" s="370"/>
-      <c r="R24" s="370"/>
-      <c r="S24" s="370"/>
-      <c r="T24" s="385"/>
-      <c r="U24" s="370"/>
+      <c r="M24" s="391"/>
+      <c r="N24" s="403"/>
+      <c r="O24" s="391"/>
+      <c r="P24" s="391"/>
+      <c r="Q24" s="391"/>
+      <c r="R24" s="391"/>
+      <c r="S24" s="391"/>
+      <c r="T24" s="394"/>
+      <c r="U24" s="391"/>
       <c r="V24" s="41"/>
       <c r="W24" s="36"/>
       <c r="X24" s="36"/>
@@ -10564,12 +10543,12 @@
       <c r="K37" s="46"/>
     </row>
     <row customHeight="1" ht="25.5" r="38" spans="1:41" x14ac:dyDescent="0.35"/>
-    <row r="39" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A39" s="22">
-        <v>0</v>
-      </c>
-      <c r="B39" s="22">
-        <v>1</v>
+    <row customHeight="1" ht="49.5" r="39" spans="1:41" x14ac:dyDescent="0.4">
+      <c r="A39" s="427" t="s">
+        <v>242</v>
+      </c>
+      <c r="B39" s="427" t="s">
+        <v>241</v>
       </c>
       <c r="C39" s="22">
         <v>2</v>
@@ -10681,7 +10660,7 @@
     </row>
     <row customHeight="1" ht="50.25" r="40" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A40" s="366" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B40" s="367" t="s">
         <v>240</v>
@@ -10842,51 +10821,51 @@
         <v>1</v>
       </c>
       <c r="B42" s="310" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D42" s="34" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E42" s="34" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F42" s="286" t="n">
-        <v>0.20000000298023224</v>
+        <v>0.035000001662410796</v>
       </c>
       <c r="G42" s="286" t="n">
-        <v>0.002500000037252903</v>
+        <v>8.750000415602699E-4</v>
       </c>
       <c r="H42" s="287" t="n">
-        <v>1250.0000186264515</v>
+        <v>437.50002078013495</v>
       </c>
       <c r="I42" s="287" t="n">
-        <v>0.009687504269112676</v>
+        <v>19.886364580915224</v>
       </c>
       <c r="J42" s="287" t="n">
-        <v>0.020000001415610313</v>
+        <v>0.03500000014901161</v>
       </c>
       <c r="K42" s="286" t="n">
-        <v>2.500000118743628E-4</v>
+        <v>8.750000270083547E-4</v>
       </c>
       <c r="L42" s="286" t="n">
-        <v>125.00000762939453</v>
+        <v>437.5</v>
       </c>
       <c r="M42" s="287" t="n">
-        <v>9.687505080364645E-4</v>
-      </c>
-      <c r="N42" s="427" t="s">
-        <v>59</v>
+        <v>19.886363983154297</v>
+      </c>
+      <c r="N42" s="428" t="s">
+        <v>56</v>
       </c>
       <c r="O42" s="64"/>
       <c r="P42" s="232"/>
       <c r="Q42" s="246" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="R42" s="247" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="S42" s="247" t="n">
-        <v>64516.1015625</v>
+        <v>11.0</v>
       </c>
       <c r="T42" s="247" t="n">
         <v>60.0</v>
@@ -10898,41 +10877,33 @@
         <v>20.0</v>
       </c>
       <c r="W42" s="247" t="n">
-        <v>0.5812502838671207</v>
+        <v>1193.1818389892578</v>
       </c>
       <c r="X42" s="247" t="n">
-        <v>0.014531257096678019</v>
-      </c>
-      <c r="Y42" s="248"/>
+        <v>29.829545974731445</v>
+      </c>
+      <c r="Y42" s="248" t="n">
+        <v>0.0109375</v>
+      </c>
       <c r="Z42" s="247" t="n">
-        <v>0.058125030249357224</v>
+        <v>1193.1817626953125</v>
       </c>
       <c r="AA42" s="247" t="n">
-        <v>0.0014531257329508662</v>
-      </c>
-      <c r="AB42" s="282"/>
-      <c r="AC42" s="428" t="s">
-        <v>59</v>
+        <v>29.829545974731445</v>
+      </c>
+      <c r="AB42" s="282" t="n">
+        <v>0.010937499813735485</v>
+      </c>
+      <c r="AC42" s="429" t="s">
+        <v>56</v>
       </c>
       <c r="AD42" s="64"/>
-      <c r="AE42" s="50" t="s">
-        <v>244</v>
-      </c>
-      <c r="AF42" s="50" t="s">
-        <v>248</v>
-      </c>
-      <c r="AG42" s="50" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="AH42" s="50" t="n">
-        <v>0.0937500149011612</v>
-      </c>
-      <c r="AI42" s="50" t="s">
-        <v>249</v>
-      </c>
-      <c r="AJ42" s="431" t="s">
-        <v>59</v>
-      </c>
+      <c r="AE42" s="50"/>
+      <c r="AF42" s="50"/>
+      <c r="AG42" s="50"/>
+      <c r="AH42" s="50"/>
+      <c r="AI42" s="50"/>
+      <c r="AJ42" s="333"/>
       <c r="AK42" s="226"/>
       <c r="AL42" s="23"/>
       <c r="AM42" s="23"/>
@@ -10944,51 +10915,51 @@
         <v>2</v>
       </c>
       <c r="B43" s="310" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D43" s="34" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E43" s="34" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F43" s="287" t="n">
-        <v>0.20000000298023224</v>
+        <v>0.035000001662410796</v>
       </c>
       <c r="G43" s="286" t="n">
-        <v>0.0022222222553359137</v>
+        <v>8.750000415602699E-4</v>
       </c>
       <c r="H43" s="287" t="n">
-        <v>1777.777804268731</v>
+        <v>437.50002078013495</v>
       </c>
       <c r="I43" s="288" t="n">
-        <v>0.013777783849404694</v>
+        <v>19.886364580915224</v>
       </c>
       <c r="J43" s="287" t="n">
-        <v>0.030000001192092896</v>
+        <v>0.03500000014901161</v>
       </c>
       <c r="K43" s="286" t="n">
-        <v>3.333333588670939E-4</v>
+        <v>8.750000270083547E-4</v>
       </c>
       <c r="L43" s="286" t="n">
-        <v>266.66668701171875</v>
+        <v>437.5</v>
       </c>
       <c r="M43" s="288" t="n">
-        <v>0.0020666676573455334</v>
-      </c>
-      <c r="N43" s="432" t="s">
-        <v>59</v>
+        <v>19.886363983154297</v>
+      </c>
+      <c r="N43" s="431" t="s">
+        <v>56</v>
       </c>
       <c r="O43" s="64"/>
       <c r="P43" s="232"/>
       <c r="Q43" s="246" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="R43" s="247" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="S43" s="247" t="n">
-        <v>64516.1015625</v>
+        <v>11.0</v>
       </c>
       <c r="T43" s="247" t="n">
         <v>60.0</v>
@@ -11000,21 +10971,25 @@
         <v>20.0</v>
       </c>
       <c r="W43" s="247" t="n">
-        <v>0.5812502838671207</v>
+        <v>1193.1818389892578</v>
       </c>
       <c r="X43" s="247" t="n">
-        <v>0.014531257096678019</v>
-      </c>
-      <c r="Y43" s="248"/>
+        <v>29.829545974731445</v>
+      </c>
+      <c r="Y43" s="248" t="n">
+        <v>0.0109375</v>
+      </c>
       <c r="Z43" s="247" t="n">
-        <v>0.058125030249357224</v>
+        <v>1193.1817626953125</v>
       </c>
       <c r="AA43" s="247" t="n">
-        <v>0.0014531257329508662</v>
-      </c>
-      <c r="AB43" s="282"/>
-      <c r="AC43" s="429" t="s">
-        <v>59</v>
+        <v>29.829545974731445</v>
+      </c>
+      <c r="AB43" s="282" t="n">
+        <v>0.010937499813735485</v>
+      </c>
+      <c r="AC43" s="430" t="s">
+        <v>56</v>
       </c>
       <c r="AD43" s="64"/>
       <c r="AE43" s="50"/>
@@ -11047,60 +11022,26 @@
       <c r="N44" s="307"/>
       <c r="O44" s="64"/>
       <c r="P44" s="232"/>
-      <c r="Q44" s="246" t="s">
-        <v>244</v>
-      </c>
-      <c r="R44" s="247" t="s">
-        <v>247</v>
-      </c>
-      <c r="S44" s="247" t="n">
-        <v>64516.1015625</v>
-      </c>
-      <c r="T44" s="247" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="U44" s="247" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="V44" s="247" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="W44" s="247" t="n">
-        <v>0.5812502838671207</v>
-      </c>
-      <c r="X44" s="247" t="n">
-        <v>0.014531257096678019</v>
-      </c>
+      <c r="Q44" s="246"/>
+      <c r="R44" s="247"/>
+      <c r="S44" s="247"/>
+      <c r="T44" s="247"/>
+      <c r="U44" s="247"/>
+      <c r="V44" s="247"/>
+      <c r="W44" s="247"/>
+      <c r="X44" s="247"/>
       <c r="Y44" s="248"/>
-      <c r="Z44" s="247" t="n">
-        <v>0.058125030249357224</v>
-      </c>
-      <c r="AA44" s="247" t="n">
-        <v>0.0014531257329508662</v>
-      </c>
+      <c r="Z44" s="247"/>
+      <c r="AA44" s="247"/>
       <c r="AB44" s="282"/>
-      <c r="AC44" s="430" t="s">
-        <v>59</v>
-      </c>
+      <c r="AC44" s="349"/>
       <c r="AD44" s="64"/>
-      <c r="AE44" s="50" t="s">
-        <v>250</v>
-      </c>
-      <c r="AF44" s="50" t="s">
-        <v>252</v>
-      </c>
-      <c r="AG44" s="50" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="AH44" s="50" t="n">
-        <v>0.13333334028720856</v>
-      </c>
-      <c r="AI44" s="50" t="s">
-        <v>249</v>
-      </c>
-      <c r="AJ44" s="436" t="s">
-        <v>59</v>
-      </c>
+      <c r="AE44" s="50"/>
+      <c r="AF44" s="50"/>
+      <c r="AG44" s="50"/>
+      <c r="AH44" s="50"/>
+      <c r="AI44" s="50"/>
+      <c r="AJ44" s="318"/>
       <c r="AK44" s="226"/>
       <c r="AL44" s="23"/>
       <c r="AM44" s="23"/>
@@ -11125,19 +11066,45 @@
       <c r="N45" s="307"/>
       <c r="O45" s="64"/>
       <c r="P45" s="232"/>
-      <c r="Q45" s="246"/>
-      <c r="R45" s="247"/>
-      <c r="S45" s="247"/>
-      <c r="T45" s="247"/>
-      <c r="U45" s="247"/>
-      <c r="V45" s="247"/>
-      <c r="W45" s="247"/>
-      <c r="X45" s="247"/>
-      <c r="Y45" s="248"/>
-      <c r="Z45" s="247"/>
-      <c r="AA45" s="247"/>
-      <c r="AB45" s="282"/>
-      <c r="AC45" s="50"/>
+      <c r="Q45" s="246" t="s">
+        <v>249</v>
+      </c>
+      <c r="R45" s="247" t="s">
+        <v>247</v>
+      </c>
+      <c r="S45" s="247" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="T45" s="247" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="U45" s="247" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="V45" s="247" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="W45" s="247" t="n">
+        <v>1193.1818389892578</v>
+      </c>
+      <c r="X45" s="247" t="n">
+        <v>29.829545974731445</v>
+      </c>
+      <c r="Y45" s="248" t="n">
+        <v>0.0109375</v>
+      </c>
+      <c r="Z45" s="247" t="n">
+        <v>1193.1817626953125</v>
+      </c>
+      <c r="AA45" s="247" t="n">
+        <v>29.829545974731445</v>
+      </c>
+      <c r="AB45" s="282" t="n">
+        <v>0.010937499813735485</v>
+      </c>
+      <c r="AC45" s="432" t="s">
+        <v>56</v>
+      </c>
       <c r="AD45" s="64"/>
       <c r="AE45" s="50"/>
       <c r="AF45" s="50"/>
@@ -11168,13 +11135,13 @@
       <c r="O46" s="64"/>
       <c r="P46" s="232"/>
       <c r="Q46" s="246" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="R46" s="247" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="S46" s="247" t="n">
-        <v>64516.1015625</v>
+        <v>11.0</v>
       </c>
       <c r="T46" s="247" t="n">
         <v>60.0</v>
@@ -11186,21 +11153,25 @@
         <v>20.0</v>
       </c>
       <c r="W46" s="247" t="n">
-        <v>0.8266670443117619</v>
+        <v>1193.1818389892578</v>
       </c>
       <c r="X46" s="247" t="n">
-        <v>0.020666676107794046</v>
-      </c>
-      <c r="Y46" s="248"/>
+        <v>29.829545974731445</v>
+      </c>
+      <c r="Y46" s="248" t="n">
+        <v>0.0109375</v>
+      </c>
       <c r="Z46" s="247" t="n">
-        <v>0.12400005757808685</v>
+        <v>1193.1817626953125</v>
       </c>
       <c r="AA46" s="247" t="n">
-        <v>0.0031000014860183</v>
-      </c>
-      <c r="AB46" s="282"/>
+        <v>29.829545974731445</v>
+      </c>
+      <c r="AB46" s="282" t="n">
+        <v>0.010937499813735485</v>
+      </c>
       <c r="AC46" s="433" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="AD46" s="64"/>
       <c r="AE46" s="50"/>
@@ -11231,13 +11202,13 @@
       <c r="N47" s="308"/>
       <c r="P47" s="218"/>
       <c r="Q47" s="244" t="s">
+        <v>249</v>
+      </c>
+      <c r="R47" s="248" t="s">
         <v>250</v>
       </c>
-      <c r="R47" s="248" t="s">
-        <v>246</v>
-      </c>
       <c r="S47" s="249" t="n">
-        <v>64516.1015625</v>
+        <v>10000.0</v>
       </c>
       <c r="T47" s="249" t="n">
         <v>60.0</v>
@@ -11249,21 +11220,25 @@
         <v>20.0</v>
       </c>
       <c r="W47" s="248" t="n">
-        <v>0.8266670443117619</v>
+        <v>1193.1818389892578</v>
       </c>
       <c r="X47" s="248" t="n">
-        <v>0.020666676107794046</v>
-      </c>
-      <c r="Y47" s="248"/>
+        <v>29.829545974731445</v>
+      </c>
+      <c r="Y47" s="248" t="n">
+        <v>9.94318203125</v>
+      </c>
       <c r="Z47" s="248" t="n">
-        <v>0.12400005757808685</v>
+        <v>1193.1817626953125</v>
       </c>
       <c r="AA47" s="248" t="n">
-        <v>0.0031000014860183</v>
-      </c>
-      <c r="AB47" s="283"/>
+        <v>29.829545974731445</v>
+      </c>
+      <c r="AB47" s="283" t="n">
+        <v>9.943181991577148</v>
+      </c>
       <c r="AC47" s="434" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="AD47" s="23"/>
       <c r="AE47" s="72"/>
@@ -11293,41 +11268,19 @@
       <c r="M48" s="286"/>
       <c r="N48" s="308"/>
       <c r="P48" s="218"/>
-      <c r="Q48" s="244" t="s">
-        <v>250</v>
-      </c>
-      <c r="R48" s="248" t="s">
-        <v>251</v>
-      </c>
-      <c r="S48" s="249" t="n">
-        <v>64516.1015625</v>
-      </c>
-      <c r="T48" s="249" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="U48" s="247" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="V48" s="247" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="W48" s="248" t="n">
-        <v>0.8266670443117619</v>
-      </c>
-      <c r="X48" s="248" t="n">
-        <v>0.020666676107794046</v>
-      </c>
+      <c r="Q48" s="244"/>
+      <c r="R48" s="248"/>
+      <c r="S48" s="249"/>
+      <c r="T48" s="249"/>
+      <c r="U48" s="247"/>
+      <c r="V48" s="247"/>
+      <c r="W48" s="248"/>
+      <c r="X48" s="248"/>
       <c r="Y48" s="248"/>
-      <c r="Z48" s="248" t="n">
-        <v>0.12400005757808685</v>
-      </c>
-      <c r="AA48" s="248" t="n">
-        <v>0.0031000014860183</v>
-      </c>
+      <c r="Z48" s="248"/>
+      <c r="AA48" s="248"/>
       <c r="AB48" s="283"/>
-      <c r="AC48" s="435" t="s">
-        <v>59</v>
-      </c>
+      <c r="AC48" s="352"/>
       <c r="AD48" s="23"/>
       <c r="AE48" s="72"/>
       <c r="AF48" s="36"/>
@@ -18590,6 +18543,44 @@
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="M9:M12"/>
+    <mergeCell ref="N9:N12"/>
+    <mergeCell ref="O9:O12"/>
+    <mergeCell ref="P9:P12"/>
+    <mergeCell ref="Q9:Q12"/>
+    <mergeCell ref="R9:R12"/>
+    <mergeCell ref="S9:S12"/>
+    <mergeCell ref="T9:T12"/>
+    <mergeCell ref="U9:U12"/>
+    <mergeCell ref="R13:R16"/>
+    <mergeCell ref="S13:S16"/>
+    <mergeCell ref="T13:T16"/>
+    <mergeCell ref="U13:U16"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="M13:M16"/>
+    <mergeCell ref="N13:N16"/>
+    <mergeCell ref="O13:O16"/>
+    <mergeCell ref="P13:P16"/>
+    <mergeCell ref="Q13:Q16"/>
+    <mergeCell ref="R17:R20"/>
+    <mergeCell ref="S17:S20"/>
+    <mergeCell ref="T17:T20"/>
+    <mergeCell ref="Q17:Q20"/>
+    <mergeCell ref="U17:U20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="M17:M20"/>
+    <mergeCell ref="N17:N20"/>
+    <mergeCell ref="O17:O20"/>
+    <mergeCell ref="P17:P20"/>
     <mergeCell ref="Q40:Y40"/>
     <mergeCell ref="F40:I40"/>
     <mergeCell ref="J40:M40"/>
@@ -18604,51 +18595,16 @@
     <mergeCell ref="R21:R24"/>
     <mergeCell ref="S21:S24"/>
     <mergeCell ref="T21:T24"/>
-    <mergeCell ref="U17:U20"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="M17:M20"/>
-    <mergeCell ref="N17:N20"/>
-    <mergeCell ref="O17:O20"/>
-    <mergeCell ref="P17:P20"/>
-    <mergeCell ref="P13:P16"/>
-    <mergeCell ref="Q13:Q16"/>
-    <mergeCell ref="R17:R20"/>
-    <mergeCell ref="S17:S20"/>
-    <mergeCell ref="T17:T20"/>
-    <mergeCell ref="Q17:Q20"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="M13:M16"/>
-    <mergeCell ref="N13:N16"/>
-    <mergeCell ref="O13:O16"/>
-    <mergeCell ref="R9:R12"/>
-    <mergeCell ref="S9:S12"/>
-    <mergeCell ref="T9:T12"/>
-    <mergeCell ref="U9:U12"/>
-    <mergeCell ref="R13:R16"/>
-    <mergeCell ref="S13:S16"/>
-    <mergeCell ref="T13:T16"/>
-    <mergeCell ref="U13:U16"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="M9:M12"/>
-    <mergeCell ref="N9:N12"/>
-    <mergeCell ref="O9:O12"/>
-    <mergeCell ref="P9:P12"/>
-    <mergeCell ref="Q9:Q12"/>
   </mergeCells>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="N9 N13 N17 N21" type="list">
       <formula1>"daily,week,month"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B40" type="list">
       <formula1>"Solid,Liquid,Inhalant,Patch,Topical"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="A40" type="list">
+      <formula1>"Manual,Campaign"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -18700,15 +18656,15 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="39" r="1" spans="1:47" x14ac:dyDescent="0.5">
-      <c r="F1" s="371" t="s">
+      <c r="F1" s="406" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="371"/>
-      <c r="H1" s="371"/>
-      <c r="I1" s="371"/>
-      <c r="J1" s="371"/>
-      <c r="K1" s="371"/>
-      <c r="L1" s="371"/>
+      <c r="G1" s="406"/>
+      <c r="H1" s="406"/>
+      <c r="I1" s="406"/>
+      <c r="J1" s="406"/>
+      <c r="K1" s="406"/>
+      <c r="L1" s="406"/>
       <c r="U1" s="22" t="s">
         <v>62</v>
       </c>
@@ -18797,22 +18753,22 @@
       </c>
     </row>
     <row customHeight="1" ht="36.75" r="6" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="D6" s="372" t="s">
+      <c r="D6" s="407" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="373"/>
-      <c r="F6" s="373"/>
-      <c r="G6" s="373"/>
-      <c r="H6" s="374"/>
+      <c r="E6" s="408"/>
+      <c r="F6" s="408"/>
+      <c r="G6" s="408"/>
+      <c r="H6" s="409"/>
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
-      <c r="M6" s="372" t="s">
+      <c r="M6" s="407" t="s">
         <v>66</v>
       </c>
-      <c r="N6" s="373"/>
-      <c r="O6" s="373"/>
-      <c r="P6" s="373"/>
-      <c r="Q6" s="374"/>
+      <c r="N6" s="408"/>
+      <c r="O6" s="408"/>
+      <c r="P6" s="408"/>
+      <c r="Q6" s="409"/>
     </row>
     <row customHeight="1" ht="76.5" r="7" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A7" s="24" t="s">
@@ -18830,10 +18786,10 @@
       <c r="E7" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="375" t="s">
+      <c r="F7" s="410" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="376"/>
+      <c r="G7" s="411"/>
       <c r="H7" s="24" t="s">
         <v>73</v>
       </c>
@@ -18856,10 +18812,10 @@
         <v>79</v>
       </c>
       <c r="O7" s="29"/>
-      <c r="P7" s="375" t="s">
+      <c r="P7" s="410" t="s">
         <v>80</v>
       </c>
-      <c r="Q7" s="376"/>
+      <c r="Q7" s="411"/>
       <c r="R7" s="30" t="s">
         <v>74</v>
       </c>
@@ -18936,7 +18892,7 @@
       <c r="A9" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="377" t="s">
+      <c r="B9" s="398" t="s">
         <v>194</v>
       </c>
       <c r="C9" s="40" t="s">
@@ -18970,33 +18926,33 @@
         <f ref="L9:L22" si="0" t="shared">MIN(I9:K9)</f>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="M9" s="368">
+      <c r="M9" s="389">
         <v>20</v>
       </c>
-      <c r="N9" s="380" t="s">
+      <c r="N9" s="401" t="s">
         <v>95</v>
       </c>
-      <c r="O9" s="368">
+      <c r="O9" s="389">
         <f>IF(N9="daily",1,IF(N9="week",7,IF(N9="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P9" s="368">
+      <c r="P9" s="389">
         <v>3</v>
       </c>
-      <c r="Q9" s="368">
+      <c r="Q9" s="389">
         <f>P9/O9</f>
         <v>3</v>
       </c>
-      <c r="R9" s="368">
+      <c r="R9" s="389">
         <f>M9*Q9</f>
         <v>60</v>
       </c>
-      <c r="S9" s="368"/>
-      <c r="T9" s="383">
+      <c r="S9" s="389"/>
+      <c r="T9" s="392">
         <f>MIN(R9:S12)</f>
         <v>60</v>
       </c>
-      <c r="U9" s="368">
+      <c r="U9" s="389">
         <v>500</v>
       </c>
       <c r="V9" s="41">
@@ -19021,7 +18977,7 @@
       <c r="A10" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="B10" s="378"/>
+      <c r="B10" s="399"/>
       <c r="C10" s="40" t="s">
         <v>198</v>
       </c>
@@ -19053,15 +19009,15 @@
         <f si="0" t="shared"/>
         <v>0.21</v>
       </c>
-      <c r="M10" s="369"/>
-      <c r="N10" s="381"/>
-      <c r="O10" s="369"/>
-      <c r="P10" s="369"/>
-      <c r="Q10" s="369"/>
-      <c r="R10" s="369"/>
-      <c r="S10" s="369"/>
-      <c r="T10" s="384"/>
-      <c r="U10" s="369"/>
+      <c r="M10" s="390"/>
+      <c r="N10" s="402"/>
+      <c r="O10" s="390"/>
+      <c r="P10" s="390"/>
+      <c r="Q10" s="390"/>
+      <c r="R10" s="390"/>
+      <c r="S10" s="390"/>
+      <c r="T10" s="393"/>
+      <c r="U10" s="390"/>
       <c r="V10" s="41"/>
       <c r="W10" s="36"/>
       <c r="X10" s="36"/>
@@ -19069,10 +19025,10 @@
       <c r="AK10" s="46"/>
     </row>
     <row customHeight="1" ht="24.95" r="11" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A11" s="368" t="s">
+      <c r="A11" s="389" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="378"/>
+      <c r="B11" s="399"/>
       <c r="C11" s="40"/>
       <c r="D11" s="40"/>
       <c r="E11" s="40"/>
@@ -19083,15 +19039,15 @@
       <c r="J11" s="36"/>
       <c r="K11" s="36"/>
       <c r="L11" s="42"/>
-      <c r="M11" s="369"/>
-      <c r="N11" s="381"/>
-      <c r="O11" s="369"/>
-      <c r="P11" s="369"/>
-      <c r="Q11" s="369"/>
-      <c r="R11" s="369"/>
-      <c r="S11" s="369"/>
-      <c r="T11" s="384"/>
-      <c r="U11" s="369"/>
+      <c r="M11" s="390"/>
+      <c r="N11" s="402"/>
+      <c r="O11" s="390"/>
+      <c r="P11" s="390"/>
+      <c r="Q11" s="390"/>
+      <c r="R11" s="390"/>
+      <c r="S11" s="390"/>
+      <c r="T11" s="393"/>
+      <c r="U11" s="390"/>
       <c r="V11" s="41"/>
       <c r="W11" s="36"/>
       <c r="X11" s="36"/>
@@ -19110,8 +19066,8 @@
       <c r="AU11" s="65"/>
     </row>
     <row customHeight="1" ht="24.95" r="12" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A12" s="370"/>
-      <c r="B12" s="379"/>
+      <c r="A12" s="391"/>
+      <c r="B12" s="400"/>
       <c r="C12" s="40"/>
       <c r="D12" s="40"/>
       <c r="E12" s="40"/>
@@ -19122,15 +19078,15 @@
       <c r="J12" s="36"/>
       <c r="K12" s="36"/>
       <c r="L12" s="42"/>
-      <c r="M12" s="370"/>
-      <c r="N12" s="382"/>
-      <c r="O12" s="370"/>
-      <c r="P12" s="370"/>
-      <c r="Q12" s="370"/>
-      <c r="R12" s="370"/>
-      <c r="S12" s="370"/>
-      <c r="T12" s="385"/>
-      <c r="U12" s="370"/>
+      <c r="M12" s="391"/>
+      <c r="N12" s="403"/>
+      <c r="O12" s="391"/>
+      <c r="P12" s="391"/>
+      <c r="Q12" s="391"/>
+      <c r="R12" s="391"/>
+      <c r="S12" s="391"/>
+      <c r="T12" s="394"/>
+      <c r="U12" s="391"/>
       <c r="V12" s="41"/>
       <c r="W12" s="36"/>
       <c r="X12" s="36"/>
@@ -19146,7 +19102,7 @@
       <c r="A13" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="B13" s="377" t="s">
+      <c r="B13" s="398" t="s">
         <v>195</v>
       </c>
       <c r="C13" s="40" t="s">
@@ -19180,33 +19136,33 @@
         <f si="0" t="shared"/>
         <v>2E-3</v>
       </c>
-      <c r="M13" s="368">
+      <c r="M13" s="389">
         <v>80</v>
       </c>
-      <c r="N13" s="380" t="s">
+      <c r="N13" s="401" t="s">
         <v>95</v>
       </c>
-      <c r="O13" s="368">
+      <c r="O13" s="389">
         <f>IF(N13="daily",1,IF(N13="week",7,IF(N13="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P13" s="368">
+      <c r="P13" s="389">
         <v>2</v>
       </c>
-      <c r="Q13" s="368">
+      <c r="Q13" s="389">
         <f>P13/O13</f>
         <v>2</v>
       </c>
-      <c r="R13" s="368">
+      <c r="R13" s="389">
         <f>M13*Q13</f>
         <v>160</v>
       </c>
-      <c r="S13" s="368"/>
-      <c r="T13" s="383">
+      <c r="S13" s="389"/>
+      <c r="T13" s="392">
         <f>MIN(R13:S16)</f>
         <v>160</v>
       </c>
-      <c r="U13" s="368">
+      <c r="U13" s="389">
         <v>600</v>
       </c>
       <c r="V13" s="41">
@@ -19229,7 +19185,7 @@
       <c r="A14" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="B14" s="378"/>
+      <c r="B14" s="399"/>
       <c r="C14" s="40" t="s">
         <v>200</v>
       </c>
@@ -19261,15 +19217,15 @@
         <f si="0" t="shared"/>
         <v>0.08</v>
       </c>
-      <c r="M14" s="369"/>
-      <c r="N14" s="381"/>
-      <c r="O14" s="369"/>
-      <c r="P14" s="369"/>
-      <c r="Q14" s="369"/>
-      <c r="R14" s="369"/>
-      <c r="S14" s="369"/>
-      <c r="T14" s="384"/>
-      <c r="U14" s="369"/>
+      <c r="M14" s="390"/>
+      <c r="N14" s="402"/>
+      <c r="O14" s="390"/>
+      <c r="P14" s="390"/>
+      <c r="Q14" s="390"/>
+      <c r="R14" s="390"/>
+      <c r="S14" s="390"/>
+      <c r="T14" s="393"/>
+      <c r="U14" s="390"/>
       <c r="V14" s="41"/>
       <c r="W14" s="36"/>
       <c r="X14" s="36"/>
@@ -19277,10 +19233,10 @@
       <c r="AT14" s="70"/>
     </row>
     <row customHeight="1" ht="24.95" r="15" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A15" s="386" t="s">
+      <c r="A15" s="404" t="s">
         <v>101</v>
       </c>
-      <c r="B15" s="378"/>
+      <c r="B15" s="399"/>
       <c r="C15" s="40"/>
       <c r="D15" s="40"/>
       <c r="E15" s="40"/>
@@ -19291,15 +19247,15 @@
       <c r="J15" s="36"/>
       <c r="K15" s="36"/>
       <c r="L15" s="42"/>
-      <c r="M15" s="369"/>
-      <c r="N15" s="381"/>
-      <c r="O15" s="369"/>
-      <c r="P15" s="369"/>
-      <c r="Q15" s="369"/>
-      <c r="R15" s="369"/>
-      <c r="S15" s="369"/>
-      <c r="T15" s="384"/>
-      <c r="U15" s="369"/>
+      <c r="M15" s="390"/>
+      <c r="N15" s="402"/>
+      <c r="O15" s="390"/>
+      <c r="P15" s="390"/>
+      <c r="Q15" s="390"/>
+      <c r="R15" s="390"/>
+      <c r="S15" s="390"/>
+      <c r="T15" s="393"/>
+      <c r="U15" s="390"/>
       <c r="V15" s="41"/>
       <c r="W15" s="36"/>
       <c r="X15" s="36"/>
@@ -19309,8 +19265,8 @@
       <c r="AT15" s="46"/>
     </row>
     <row customHeight="1" ht="24.95" r="16" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A16" s="387"/>
-      <c r="B16" s="379"/>
+      <c r="A16" s="405"/>
+      <c r="B16" s="400"/>
       <c r="C16" s="40"/>
       <c r="D16" s="40"/>
       <c r="E16" s="40"/>
@@ -19321,15 +19277,15 @@
       <c r="J16" s="36"/>
       <c r="K16" s="36"/>
       <c r="L16" s="42"/>
-      <c r="M16" s="370"/>
-      <c r="N16" s="382"/>
-      <c r="O16" s="370"/>
-      <c r="P16" s="370"/>
-      <c r="Q16" s="370"/>
-      <c r="R16" s="370"/>
-      <c r="S16" s="370"/>
-      <c r="T16" s="385"/>
-      <c r="U16" s="370"/>
+      <c r="M16" s="391"/>
+      <c r="N16" s="403"/>
+      <c r="O16" s="391"/>
+      <c r="P16" s="391"/>
+      <c r="Q16" s="391"/>
+      <c r="R16" s="391"/>
+      <c r="S16" s="391"/>
+      <c r="T16" s="394"/>
+      <c r="U16" s="391"/>
       <c r="V16" s="41"/>
       <c r="W16" s="36"/>
       <c r="X16" s="36"/>
@@ -19340,7 +19296,7 @@
       <c r="A17" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="B17" s="377" t="s">
+      <c r="B17" s="398" t="s">
         <v>196</v>
       </c>
       <c r="C17" s="40" t="s">
@@ -19374,33 +19330,33 @@
         <f si="0" t="shared"/>
         <v>3.4999999999999996E-2</v>
       </c>
-      <c r="M17" s="368">
+      <c r="M17" s="389">
         <v>70</v>
       </c>
-      <c r="N17" s="380" t="s">
+      <c r="N17" s="401" t="s">
         <v>95</v>
       </c>
-      <c r="O17" s="368">
+      <c r="O17" s="389">
         <f>IF(N17="daily",1,IF(N17="week",7,IF(N17="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P17" s="368">
+      <c r="P17" s="389">
         <v>2</v>
       </c>
-      <c r="Q17" s="368">
+      <c r="Q17" s="389">
         <f>P17/O17</f>
         <v>2</v>
       </c>
-      <c r="R17" s="368">
+      <c r="R17" s="389">
         <f>M17*Q17</f>
         <v>140</v>
       </c>
-      <c r="S17" s="368"/>
-      <c r="T17" s="383">
+      <c r="S17" s="389"/>
+      <c r="T17" s="392">
         <f>MIN(R17:S20)</f>
         <v>140</v>
       </c>
-      <c r="U17" s="368">
+      <c r="U17" s="389">
         <v>850</v>
       </c>
       <c r="V17" s="41">
@@ -19419,7 +19375,7 @@
       <c r="A18" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="B18" s="378"/>
+      <c r="B18" s="399"/>
       <c r="C18" s="40" t="s">
         <v>202</v>
       </c>
@@ -19451,24 +19407,24 @@
         <f si="0" t="shared"/>
         <v>3.9999999999999994E-2</v>
       </c>
-      <c r="M18" s="369"/>
-      <c r="N18" s="381"/>
-      <c r="O18" s="369"/>
-      <c r="P18" s="369"/>
-      <c r="Q18" s="369"/>
-      <c r="R18" s="369"/>
-      <c r="S18" s="369"/>
-      <c r="T18" s="384"/>
-      <c r="U18" s="369"/>
+      <c r="M18" s="390"/>
+      <c r="N18" s="402"/>
+      <c r="O18" s="390"/>
+      <c r="P18" s="390"/>
+      <c r="Q18" s="390"/>
+      <c r="R18" s="390"/>
+      <c r="S18" s="390"/>
+      <c r="T18" s="393"/>
+      <c r="U18" s="390"/>
       <c r="V18" s="41"/>
       <c r="W18" s="36"/>
       <c r="X18" s="36"/>
     </row>
     <row customHeight="1" ht="24.95" r="19" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A19" s="368" t="s">
+      <c r="A19" s="389" t="s">
         <v>105</v>
       </c>
-      <c r="B19" s="378"/>
+      <c r="B19" s="399"/>
       <c r="C19" s="40"/>
       <c r="D19" s="40"/>
       <c r="E19" s="40"/>
@@ -19479,22 +19435,22 @@
       <c r="J19" s="36"/>
       <c r="K19" s="36"/>
       <c r="L19" s="42"/>
-      <c r="M19" s="369"/>
-      <c r="N19" s="381"/>
-      <c r="O19" s="369"/>
-      <c r="P19" s="369"/>
-      <c r="Q19" s="369"/>
-      <c r="R19" s="369"/>
-      <c r="S19" s="369"/>
-      <c r="T19" s="384"/>
-      <c r="U19" s="369"/>
+      <c r="M19" s="390"/>
+      <c r="N19" s="402"/>
+      <c r="O19" s="390"/>
+      <c r="P19" s="390"/>
+      <c r="Q19" s="390"/>
+      <c r="R19" s="390"/>
+      <c r="S19" s="390"/>
+      <c r="T19" s="393"/>
+      <c r="U19" s="390"/>
       <c r="V19" s="41"/>
       <c r="W19" s="36"/>
       <c r="X19" s="36"/>
     </row>
     <row customHeight="1" ht="24.95" r="20" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A20" s="370"/>
-      <c r="B20" s="379"/>
+      <c r="A20" s="391"/>
+      <c r="B20" s="400"/>
       <c r="C20" s="40"/>
       <c r="D20" s="40"/>
       <c r="E20" s="40"/>
@@ -19505,15 +19461,15 @@
       <c r="J20" s="36"/>
       <c r="K20" s="36"/>
       <c r="L20" s="42"/>
-      <c r="M20" s="370"/>
-      <c r="N20" s="382"/>
-      <c r="O20" s="370"/>
-      <c r="P20" s="370"/>
-      <c r="Q20" s="370"/>
-      <c r="R20" s="370"/>
-      <c r="S20" s="370"/>
-      <c r="T20" s="385"/>
-      <c r="U20" s="370"/>
+      <c r="M20" s="391"/>
+      <c r="N20" s="403"/>
+      <c r="O20" s="391"/>
+      <c r="P20" s="391"/>
+      <c r="Q20" s="391"/>
+      <c r="R20" s="391"/>
+      <c r="S20" s="391"/>
+      <c r="T20" s="394"/>
+      <c r="U20" s="391"/>
       <c r="V20" s="41"/>
       <c r="W20" s="36"/>
       <c r="X20" s="36"/>
@@ -19522,7 +19478,7 @@
       <c r="A21" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="377" t="s">
+      <c r="B21" s="398" t="s">
         <v>197</v>
       </c>
       <c r="C21" s="40" t="s">
@@ -19556,33 +19512,33 @@
         <f si="0" t="shared"/>
         <v>0.05</v>
       </c>
-      <c r="M21" s="368">
+      <c r="M21" s="389">
         <v>60</v>
       </c>
-      <c r="N21" s="380" t="s">
+      <c r="N21" s="401" t="s">
         <v>95</v>
       </c>
-      <c r="O21" s="368">
+      <c r="O21" s="389">
         <f>IF(N21="daily",1,IF(N21="week",7,IF(N21="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P21" s="368">
+      <c r="P21" s="389">
         <v>3</v>
       </c>
-      <c r="Q21" s="368">
+      <c r="Q21" s="389">
         <f>P21/O21</f>
         <v>3</v>
       </c>
-      <c r="R21" s="368">
+      <c r="R21" s="389">
         <f>M21*Q21</f>
         <v>180</v>
       </c>
-      <c r="S21" s="368"/>
-      <c r="T21" s="383">
+      <c r="S21" s="389"/>
+      <c r="T21" s="392">
         <f>MIN(R21:S24)</f>
         <v>180</v>
       </c>
-      <c r="U21" s="368">
+      <c r="U21" s="389">
         <v>700</v>
       </c>
       <c r="V21" s="41">
@@ -19599,7 +19555,7 @@
       <c r="A22" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="B22" s="378"/>
+      <c r="B22" s="399"/>
       <c r="C22" s="40" t="s">
         <v>204</v>
       </c>
@@ -19631,24 +19587,24 @@
         <f si="0" t="shared"/>
         <v>4.0000000000000008E-2</v>
       </c>
-      <c r="M22" s="369"/>
-      <c r="N22" s="381"/>
-      <c r="O22" s="369"/>
-      <c r="P22" s="369"/>
-      <c r="Q22" s="369"/>
-      <c r="R22" s="369"/>
-      <c r="S22" s="369"/>
-      <c r="T22" s="384"/>
-      <c r="U22" s="369"/>
+      <c r="M22" s="390"/>
+      <c r="N22" s="402"/>
+      <c r="O22" s="390"/>
+      <c r="P22" s="390"/>
+      <c r="Q22" s="390"/>
+      <c r="R22" s="390"/>
+      <c r="S22" s="390"/>
+      <c r="T22" s="393"/>
+      <c r="U22" s="390"/>
       <c r="V22" s="41"/>
       <c r="W22" s="36"/>
       <c r="X22" s="36"/>
     </row>
     <row customHeight="1" ht="24.95" r="23" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A23" s="388" t="s">
+      <c r="A23" s="395" t="s">
         <v>108</v>
       </c>
-      <c r="B23" s="378"/>
+      <c r="B23" s="399"/>
       <c r="C23" s="40"/>
       <c r="D23" s="40"/>
       <c r="E23" s="40"/>
@@ -19659,22 +19615,22 @@
       <c r="J23" s="36"/>
       <c r="K23" s="36"/>
       <c r="L23" s="42"/>
-      <c r="M23" s="369"/>
-      <c r="N23" s="381"/>
-      <c r="O23" s="369"/>
-      <c r="P23" s="369"/>
-      <c r="Q23" s="369"/>
-      <c r="R23" s="369"/>
-      <c r="S23" s="369"/>
-      <c r="T23" s="384"/>
-      <c r="U23" s="369"/>
+      <c r="M23" s="390"/>
+      <c r="N23" s="402"/>
+      <c r="O23" s="390"/>
+      <c r="P23" s="390"/>
+      <c r="Q23" s="390"/>
+      <c r="R23" s="390"/>
+      <c r="S23" s="390"/>
+      <c r="T23" s="393"/>
+      <c r="U23" s="390"/>
       <c r="V23" s="41"/>
       <c r="W23" s="36"/>
       <c r="X23" s="36"/>
     </row>
     <row customHeight="1" ht="24.95" r="24" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A24" s="389"/>
-      <c r="B24" s="379"/>
+      <c r="A24" s="396"/>
+      <c r="B24" s="400"/>
       <c r="C24" s="40"/>
       <c r="D24" s="40"/>
       <c r="E24" s="40"/>
@@ -19685,15 +19641,15 @@
       <c r="J24" s="36"/>
       <c r="K24" s="36"/>
       <c r="L24" s="42"/>
-      <c r="M24" s="370"/>
-      <c r="N24" s="382"/>
-      <c r="O24" s="370"/>
-      <c r="P24" s="370"/>
-      <c r="Q24" s="370"/>
-      <c r="R24" s="370"/>
-      <c r="S24" s="370"/>
-      <c r="T24" s="385"/>
-      <c r="U24" s="370"/>
+      <c r="M24" s="391"/>
+      <c r="N24" s="403"/>
+      <c r="O24" s="391"/>
+      <c r="P24" s="391"/>
+      <c r="Q24" s="391"/>
+      <c r="R24" s="391"/>
+      <c r="S24" s="391"/>
+      <c r="T24" s="394"/>
+      <c r="U24" s="391"/>
       <c r="V24" s="41"/>
       <c r="W24" s="36"/>
       <c r="X24" s="36"/>
@@ -19719,13 +19675,13 @@
       <c r="D27" s="46"/>
       <c r="E27" s="46"/>
       <c r="F27" s="46"/>
-      <c r="H27" s="390" t="s">
+      <c r="H27" s="397" t="s">
         <v>206</v>
       </c>
-      <c r="I27" s="390"/>
-      <c r="J27" s="390"/>
-      <c r="K27" s="390"/>
-      <c r="L27" s="390"/>
+      <c r="I27" s="397"/>
+      <c r="J27" s="397"/>
+      <c r="K27" s="397"/>
+      <c r="L27" s="397"/>
       <c r="M27" s="48"/>
       <c r="N27" s="48"/>
       <c r="O27" s="46"/>
@@ -20005,19 +19961,19 @@
     <row customHeight="1" ht="32.25" r="40" spans="1:40" x14ac:dyDescent="0.4">
       <c r="B40" s="104"/>
       <c r="C40" s="105"/>
-      <c r="D40" s="393" t="s">
+      <c r="D40" s="387" t="s">
         <v>4</v>
       </c>
-      <c r="E40" s="393"/>
-      <c r="F40" s="393"/>
-      <c r="G40" s="393"/>
-      <c r="H40" s="393"/>
-      <c r="I40" s="393" t="s">
+      <c r="E40" s="387"/>
+      <c r="F40" s="387"/>
+      <c r="G40" s="387"/>
+      <c r="H40" s="387"/>
+      <c r="I40" s="387" t="s">
         <v>5</v>
       </c>
-      <c r="J40" s="393"/>
-      <c r="K40" s="393"/>
-      <c r="L40" s="393"/>
+      <c r="J40" s="387"/>
+      <c r="K40" s="387"/>
+      <c r="L40" s="387"/>
       <c r="M40" s="117"/>
       <c r="N40" s="118" t="s">
         <v>48</v>
@@ -20141,19 +20097,19 @@
       </c>
     </row>
     <row customHeight="1" ht="24.95" r="42" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="B42" s="394"/>
+      <c r="B42" s="382"/>
       <c r="C42" s="110"/>
       <c r="D42" s="111"/>
       <c r="E42" s="111"/>
       <c r="F42" s="125"/>
       <c r="G42" s="125"/>
-      <c r="H42" s="392"/>
+      <c r="H42" s="383"/>
       <c r="I42" s="111"/>
       <c r="J42" s="111"/>
       <c r="K42" s="125"/>
       <c r="L42" s="125"/>
-      <c r="M42" s="392"/>
-      <c r="N42" s="419"/>
+      <c r="M42" s="383"/>
+      <c r="N42" s="424"/>
       <c r="P42" s="91"/>
       <c r="Q42" s="91"/>
       <c r="U42" s="64"/>
@@ -20199,19 +20155,19 @@
       <c r="AN42" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="43" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="B43" s="394"/>
+      <c r="B43" s="382"/>
       <c r="C43" s="110"/>
       <c r="D43" s="125"/>
       <c r="E43" s="111"/>
       <c r="F43" s="125"/>
       <c r="G43" s="103"/>
-      <c r="H43" s="392"/>
+      <c r="H43" s="383"/>
       <c r="I43" s="111"/>
       <c r="J43" s="111"/>
       <c r="K43" s="103"/>
       <c r="L43" s="103"/>
-      <c r="M43" s="392"/>
-      <c r="N43" s="392"/>
+      <c r="M43" s="383"/>
+      <c r="N43" s="383"/>
       <c r="P43" s="92"/>
       <c r="Q43" s="92"/>
       <c r="U43" s="64"/>
@@ -20257,19 +20213,19 @@
       <c r="AN43" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="44" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="B44" s="394"/>
+      <c r="B44" s="382"/>
       <c r="C44" s="110"/>
       <c r="D44" s="111"/>
       <c r="E44" s="111"/>
       <c r="F44" s="125"/>
       <c r="G44" s="125"/>
-      <c r="H44" s="392"/>
+      <c r="H44" s="383"/>
       <c r="I44" s="111"/>
       <c r="J44" s="111"/>
       <c r="K44" s="125"/>
       <c r="L44" s="125"/>
-      <c r="M44" s="392"/>
-      <c r="N44" s="392"/>
+      <c r="M44" s="383"/>
+      <c r="N44" s="383"/>
       <c r="P44" s="91"/>
       <c r="Q44" s="91"/>
       <c r="U44" s="64"/>
@@ -20315,19 +20271,19 @@
       <c r="AN44" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="45" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="B45" s="394"/>
+      <c r="B45" s="382"/>
       <c r="C45" s="110"/>
       <c r="D45" s="111"/>
       <c r="E45" s="111"/>
       <c r="F45" s="125"/>
       <c r="G45" s="125"/>
-      <c r="H45" s="392"/>
+      <c r="H45" s="383"/>
       <c r="I45" s="111"/>
       <c r="J45" s="111"/>
       <c r="K45" s="125"/>
       <c r="L45" s="125"/>
-      <c r="M45" s="392"/>
-      <c r="N45" s="392"/>
+      <c r="M45" s="383"/>
+      <c r="N45" s="383"/>
       <c r="P45" s="91"/>
       <c r="Q45" s="91"/>
       <c r="U45" s="64"/>
@@ -20373,19 +20329,19 @@
       <c r="AN45" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="46" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="B46" s="394"/>
+      <c r="B46" s="382"/>
       <c r="C46" s="110"/>
       <c r="D46" s="111"/>
       <c r="E46" s="111"/>
       <c r="F46" s="125"/>
       <c r="G46" s="125"/>
-      <c r="H46" s="392"/>
+      <c r="H46" s="383"/>
       <c r="I46" s="111"/>
       <c r="J46" s="111"/>
       <c r="K46" s="125"/>
       <c r="L46" s="125"/>
-      <c r="M46" s="392"/>
-      <c r="N46" s="420"/>
+      <c r="M46" s="383"/>
+      <c r="N46" s="425"/>
       <c r="P46" s="91"/>
       <c r="Q46" s="91"/>
       <c r="U46" s="64"/>
@@ -20431,19 +20387,19 @@
       <c r="AN46" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="47" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="B47" s="394"/>
+      <c r="B47" s="382"/>
       <c r="C47" s="110"/>
       <c r="D47" s="111"/>
       <c r="E47" s="111"/>
       <c r="F47" s="111"/>
       <c r="G47" s="111"/>
-      <c r="H47" s="392"/>
+      <c r="H47" s="383"/>
       <c r="I47" s="111"/>
       <c r="J47" s="111"/>
       <c r="K47" s="111"/>
       <c r="L47" s="111"/>
-      <c r="M47" s="392"/>
-      <c r="N47" s="396"/>
+      <c r="M47" s="383"/>
+      <c r="N47" s="385"/>
       <c r="P47" s="81"/>
       <c r="Q47" s="81"/>
       <c r="S47" s="69"/>
@@ -20491,19 +20447,19 @@
       <c r="AN47" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="48" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="B48" s="394"/>
+      <c r="B48" s="382"/>
       <c r="C48" s="110"/>
       <c r="D48" s="111"/>
       <c r="E48" s="111"/>
       <c r="F48" s="111"/>
       <c r="G48" s="111"/>
-      <c r="H48" s="392"/>
+      <c r="H48" s="383"/>
       <c r="I48" s="111"/>
       <c r="J48" s="111"/>
       <c r="K48" s="111"/>
       <c r="L48" s="111"/>
-      <c r="M48" s="392"/>
-      <c r="N48" s="396"/>
+      <c r="M48" s="383"/>
+      <c r="N48" s="385"/>
       <c r="P48" s="81"/>
       <c r="Q48" s="81"/>
       <c r="S48" s="69"/>
@@ -20551,19 +20507,19 @@
       <c r="AN48" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="49" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B49" s="394"/>
+      <c r="B49" s="382"/>
       <c r="C49" s="110"/>
       <c r="D49" s="111"/>
       <c r="E49" s="111"/>
       <c r="F49" s="111"/>
       <c r="G49" s="111"/>
-      <c r="H49" s="392"/>
+      <c r="H49" s="383"/>
       <c r="I49" s="111"/>
       <c r="J49" s="111"/>
       <c r="K49" s="111"/>
       <c r="L49" s="111"/>
-      <c r="M49" s="392"/>
-      <c r="N49" s="396"/>
+      <c r="M49" s="383"/>
+      <c r="N49" s="385"/>
       <c r="P49" s="81"/>
       <c r="Q49" s="81"/>
       <c r="S49" s="69"/>
@@ -20611,19 +20567,19 @@
       <c r="AN49" s="89"/>
     </row>
     <row customHeight="1" ht="24.95" r="50" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B50" s="397"/>
+      <c r="B50" s="377"/>
       <c r="C50" s="112"/>
       <c r="D50" s="113"/>
       <c r="E50" s="113"/>
       <c r="F50" s="113"/>
       <c r="G50" s="113"/>
-      <c r="H50" s="398"/>
+      <c r="H50" s="378"/>
       <c r="I50" s="113"/>
       <c r="J50" s="113"/>
       <c r="K50" s="113"/>
       <c r="L50" s="113"/>
-      <c r="M50" s="398"/>
-      <c r="N50" s="421"/>
+      <c r="M50" s="378"/>
+      <c r="N50" s="426"/>
       <c r="P50" s="81"/>
       <c r="Q50" s="81"/>
       <c r="S50" s="69"/>
@@ -20644,19 +20600,19 @@
       <c r="AN50" s="64"/>
     </row>
     <row customHeight="1" ht="24.95" r="51" spans="2:40" x14ac:dyDescent="0.4">
-      <c r="B51" s="397"/>
+      <c r="B51" s="377"/>
       <c r="C51" s="112"/>
       <c r="D51" s="113"/>
       <c r="E51" s="113"/>
       <c r="F51" s="113"/>
       <c r="G51" s="113"/>
-      <c r="H51" s="398"/>
+      <c r="H51" s="378"/>
       <c r="I51" s="113"/>
       <c r="J51" s="113"/>
       <c r="K51" s="113"/>
       <c r="L51" s="113"/>
-      <c r="M51" s="398"/>
-      <c r="N51" s="400"/>
+      <c r="M51" s="378"/>
+      <c r="N51" s="380"/>
       <c r="P51" s="81"/>
       <c r="Q51" s="81"/>
       <c r="S51" s="69"/>
@@ -20687,19 +20643,19 @@
       <c r="AN51" s="46"/>
     </row>
     <row customHeight="1" ht="24.95" r="52" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B52" s="397"/>
+      <c r="B52" s="377"/>
       <c r="C52" s="112"/>
       <c r="D52" s="113"/>
       <c r="E52" s="113"/>
       <c r="F52" s="113"/>
       <c r="G52" s="113"/>
-      <c r="H52" s="398"/>
+      <c r="H52" s="378"/>
       <c r="I52" s="113"/>
       <c r="J52" s="113"/>
       <c r="K52" s="113"/>
       <c r="L52" s="113"/>
-      <c r="M52" s="398"/>
-      <c r="N52" s="400"/>
+      <c r="M52" s="378"/>
+      <c r="N52" s="380"/>
       <c r="P52" s="81"/>
       <c r="Q52" s="81"/>
       <c r="S52" s="69"/>
@@ -20763,19 +20719,19 @@
       </c>
     </row>
     <row customHeight="1" ht="24.95" r="53" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B53" s="397"/>
+      <c r="B53" s="377"/>
       <c r="C53" s="112"/>
       <c r="D53" s="113"/>
       <c r="E53" s="113"/>
       <c r="F53" s="113"/>
       <c r="G53" s="113"/>
-      <c r="H53" s="398"/>
+      <c r="H53" s="378"/>
       <c r="I53" s="113"/>
       <c r="J53" s="113"/>
       <c r="K53" s="113"/>
       <c r="L53" s="113"/>
-      <c r="M53" s="398"/>
-      <c r="N53" s="400"/>
+      <c r="M53" s="378"/>
+      <c r="N53" s="380"/>
       <c r="P53" s="81"/>
       <c r="Q53" s="81"/>
       <c r="S53" s="69"/>
@@ -20824,19 +20780,19 @@
       <c r="AN53" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="54" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B54" s="397"/>
+      <c r="B54" s="377"/>
       <c r="C54" s="112"/>
       <c r="D54" s="113"/>
       <c r="E54" s="113"/>
       <c r="F54" s="113"/>
       <c r="G54" s="113"/>
-      <c r="H54" s="398"/>
+      <c r="H54" s="378"/>
       <c r="I54" s="113"/>
       <c r="J54" s="113"/>
       <c r="K54" s="113"/>
       <c r="L54" s="113"/>
-      <c r="M54" s="398"/>
-      <c r="N54" s="422"/>
+      <c r="M54" s="378"/>
+      <c r="N54" s="419"/>
       <c r="P54" s="81"/>
       <c r="Q54" s="81"/>
       <c r="S54" s="69"/>
@@ -20883,19 +20839,19 @@
       <c r="AN54" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="55" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B55" s="397"/>
+      <c r="B55" s="377"/>
       <c r="C55" s="112"/>
       <c r="D55" s="113"/>
       <c r="E55" s="113"/>
       <c r="F55" s="113"/>
       <c r="G55" s="113"/>
-      <c r="H55" s="398"/>
+      <c r="H55" s="378"/>
       <c r="I55" s="113"/>
       <c r="J55" s="113"/>
       <c r="K55" s="113"/>
       <c r="L55" s="113"/>
-      <c r="M55" s="398"/>
-      <c r="N55" s="400"/>
+      <c r="M55" s="378"/>
+      <c r="N55" s="380"/>
       <c r="P55" s="81"/>
       <c r="Q55" s="81"/>
       <c r="S55" s="69"/>
@@ -20942,19 +20898,19 @@
       <c r="AN55" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="56" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B56" s="397"/>
+      <c r="B56" s="377"/>
       <c r="C56" s="112"/>
       <c r="D56" s="113"/>
       <c r="E56" s="113"/>
       <c r="F56" s="113"/>
       <c r="G56" s="113"/>
-      <c r="H56" s="398"/>
+      <c r="H56" s="378"/>
       <c r="I56" s="113"/>
       <c r="J56" s="113"/>
       <c r="K56" s="113"/>
       <c r="L56" s="113"/>
-      <c r="M56" s="398"/>
-      <c r="N56" s="400"/>
+      <c r="M56" s="378"/>
+      <c r="N56" s="380"/>
       <c r="P56" s="81"/>
       <c r="Q56" s="81"/>
       <c r="S56" s="69"/>
@@ -21001,19 +20957,19 @@
       <c r="AN56" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="57" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B57" s="397"/>
+      <c r="B57" s="377"/>
       <c r="C57" s="112"/>
       <c r="D57" s="113"/>
       <c r="E57" s="113"/>
       <c r="F57" s="113"/>
       <c r="G57" s="113"/>
-      <c r="H57" s="398"/>
+      <c r="H57" s="378"/>
       <c r="I57" s="113"/>
       <c r="J57" s="113"/>
       <c r="K57" s="113"/>
       <c r="L57" s="113"/>
-      <c r="M57" s="398"/>
-      <c r="N57" s="400"/>
+      <c r="M57" s="378"/>
+      <c r="N57" s="380"/>
       <c r="P57" s="81"/>
       <c r="Q57" s="81"/>
       <c r="S57" s="69"/>
@@ -21060,19 +21016,19 @@
       <c r="AN57" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="58" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B58" s="402"/>
+      <c r="B58" s="372"/>
       <c r="C58" s="114"/>
       <c r="D58" s="115"/>
       <c r="E58" s="115"/>
       <c r="F58" s="115"/>
       <c r="G58" s="115"/>
-      <c r="H58" s="403"/>
+      <c r="H58" s="373"/>
       <c r="I58" s="115"/>
       <c r="J58" s="115"/>
       <c r="K58" s="115"/>
       <c r="L58" s="115"/>
-      <c r="M58" s="403"/>
-      <c r="N58" s="423"/>
+      <c r="M58" s="373"/>
+      <c r="N58" s="420"/>
       <c r="P58" s="81"/>
       <c r="Q58" s="81"/>
       <c r="S58" s="69"/>
@@ -21119,19 +21075,19 @@
       <c r="AN58" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="59" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B59" s="402"/>
+      <c r="B59" s="372"/>
       <c r="C59" s="114"/>
       <c r="D59" s="115"/>
       <c r="E59" s="115"/>
       <c r="F59" s="115"/>
       <c r="G59" s="115"/>
-      <c r="H59" s="403"/>
+      <c r="H59" s="373"/>
       <c r="I59" s="115"/>
       <c r="J59" s="115"/>
       <c r="K59" s="115"/>
       <c r="L59" s="115"/>
-      <c r="M59" s="403"/>
-      <c r="N59" s="405"/>
+      <c r="M59" s="373"/>
+      <c r="N59" s="375"/>
       <c r="P59" s="81"/>
       <c r="Q59" s="81"/>
       <c r="S59" s="69"/>
@@ -21178,19 +21134,19 @@
       <c r="AN59" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="60" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B60" s="402"/>
+      <c r="B60" s="372"/>
       <c r="C60" s="114"/>
       <c r="D60" s="115"/>
       <c r="E60" s="115"/>
       <c r="F60" s="115"/>
       <c r="G60" s="115"/>
-      <c r="H60" s="403"/>
+      <c r="H60" s="373"/>
       <c r="I60" s="115"/>
       <c r="J60" s="115"/>
       <c r="K60" s="115"/>
       <c r="L60" s="115"/>
-      <c r="M60" s="403"/>
-      <c r="N60" s="405"/>
+      <c r="M60" s="373"/>
+      <c r="N60" s="375"/>
       <c r="P60" s="81"/>
       <c r="Q60" s="81"/>
       <c r="S60" s="69"/>
@@ -21237,247 +21193,247 @@
       <c r="AN60" s="89"/>
     </row>
     <row customHeight="1" ht="24.95" r="61" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B61" s="402"/>
+      <c r="B61" s="372"/>
       <c r="C61" s="114"/>
       <c r="D61" s="115"/>
       <c r="E61" s="115"/>
       <c r="F61" s="115"/>
       <c r="G61" s="115"/>
-      <c r="H61" s="403"/>
+      <c r="H61" s="373"/>
       <c r="I61" s="115"/>
       <c r="J61" s="115"/>
       <c r="K61" s="115"/>
       <c r="L61" s="115"/>
-      <c r="M61" s="403"/>
-      <c r="N61" s="405"/>
+      <c r="M61" s="373"/>
+      <c r="N61" s="375"/>
       <c r="P61" s="81"/>
       <c r="Q61" s="81"/>
       <c r="S61" s="69"/>
       <c r="T61" s="69"/>
     </row>
     <row customHeight="1" ht="24.95" r="62" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B62" s="402"/>
+      <c r="B62" s="372"/>
       <c r="C62" s="114"/>
       <c r="D62" s="115"/>
       <c r="E62" s="115"/>
       <c r="F62" s="115"/>
       <c r="G62" s="115"/>
-      <c r="H62" s="403"/>
+      <c r="H62" s="373"/>
       <c r="I62" s="115"/>
       <c r="J62" s="115"/>
       <c r="K62" s="115"/>
       <c r="L62" s="115"/>
-      <c r="M62" s="403"/>
-      <c r="N62" s="424"/>
+      <c r="M62" s="373"/>
+      <c r="N62" s="421"/>
       <c r="P62" s="81"/>
       <c r="Q62" s="81"/>
       <c r="S62" s="69"/>
       <c r="T62" s="69"/>
     </row>
     <row customHeight="1" ht="24.95" r="63" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B63" s="402"/>
+      <c r="B63" s="372"/>
       <c r="C63" s="114"/>
       <c r="D63" s="115"/>
       <c r="E63" s="115"/>
       <c r="F63" s="115"/>
       <c r="G63" s="115"/>
-      <c r="H63" s="403"/>
+      <c r="H63" s="373"/>
       <c r="I63" s="115"/>
       <c r="J63" s="115"/>
       <c r="K63" s="115"/>
       <c r="L63" s="115"/>
-      <c r="M63" s="403"/>
-      <c r="N63" s="405"/>
+      <c r="M63" s="373"/>
+      <c r="N63" s="375"/>
       <c r="P63" s="81"/>
       <c r="Q63" s="81"/>
       <c r="S63" s="69"/>
       <c r="T63" s="69"/>
     </row>
     <row customHeight="1" ht="24.95" r="64" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B64" s="402"/>
+      <c r="B64" s="372"/>
       <c r="C64" s="114"/>
       <c r="D64" s="115"/>
       <c r="E64" s="115"/>
       <c r="F64" s="115"/>
       <c r="G64" s="115"/>
-      <c r="H64" s="403"/>
+      <c r="H64" s="373"/>
       <c r="I64" s="115"/>
       <c r="J64" s="115"/>
       <c r="K64" s="115"/>
       <c r="L64" s="115"/>
-      <c r="M64" s="403"/>
-      <c r="N64" s="405"/>
+      <c r="M64" s="373"/>
+      <c r="N64" s="375"/>
       <c r="P64" s="81"/>
       <c r="Q64" s="81"/>
       <c r="S64" s="69"/>
       <c r="T64" s="69"/>
     </row>
     <row customHeight="1" ht="24.95" r="65" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B65" s="402"/>
+      <c r="B65" s="372"/>
       <c r="C65" s="114"/>
       <c r="D65" s="115"/>
       <c r="E65" s="115"/>
       <c r="F65" s="115"/>
       <c r="G65" s="115"/>
-      <c r="H65" s="403"/>
+      <c r="H65" s="373"/>
       <c r="I65" s="115"/>
       <c r="J65" s="115"/>
       <c r="K65" s="115"/>
       <c r="L65" s="115"/>
-      <c r="M65" s="403"/>
-      <c r="N65" s="405"/>
+      <c r="M65" s="373"/>
+      <c r="N65" s="375"/>
       <c r="P65" s="81"/>
       <c r="Q65" s="81"/>
       <c r="S65" s="69"/>
       <c r="T65" s="69"/>
     </row>
     <row customHeight="1" ht="24.95" r="66" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B66" s="406"/>
+      <c r="B66" s="368"/>
       <c r="C66" s="128"/>
       <c r="D66" s="116"/>
       <c r="E66" s="116"/>
       <c r="F66" s="116"/>
       <c r="G66" s="116"/>
-      <c r="H66" s="407"/>
+      <c r="H66" s="369"/>
       <c r="I66" s="116"/>
       <c r="J66" s="116"/>
       <c r="K66" s="116"/>
       <c r="L66" s="116"/>
-      <c r="M66" s="407"/>
-      <c r="N66" s="425"/>
+      <c r="M66" s="369"/>
+      <c r="N66" s="422"/>
       <c r="P66" s="81"/>
       <c r="Q66" s="81"/>
       <c r="S66" s="69"/>
       <c r="T66" s="69"/>
     </row>
     <row customHeight="1" ht="24.95" r="67" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B67" s="406"/>
+      <c r="B67" s="368"/>
       <c r="C67" s="128"/>
       <c r="D67" s="116"/>
       <c r="E67" s="116"/>
       <c r="F67" s="116"/>
       <c r="G67" s="116"/>
-      <c r="H67" s="407"/>
+      <c r="H67" s="369"/>
       <c r="I67" s="116"/>
       <c r="J67" s="116"/>
       <c r="K67" s="116"/>
       <c r="L67" s="116"/>
-      <c r="M67" s="407"/>
-      <c r="N67" s="409"/>
+      <c r="M67" s="369"/>
+      <c r="N67" s="371"/>
       <c r="P67" s="81"/>
       <c r="Q67" s="81"/>
       <c r="S67" s="69"/>
       <c r="T67" s="69"/>
     </row>
     <row customHeight="1" ht="24.95" r="68" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B68" s="406"/>
+      <c r="B68" s="368"/>
       <c r="C68" s="128"/>
       <c r="D68" s="116"/>
       <c r="E68" s="116"/>
       <c r="F68" s="116"/>
       <c r="G68" s="116"/>
-      <c r="H68" s="407"/>
+      <c r="H68" s="369"/>
       <c r="I68" s="116"/>
       <c r="J68" s="116"/>
       <c r="K68" s="116"/>
       <c r="L68" s="116"/>
-      <c r="M68" s="407"/>
-      <c r="N68" s="409"/>
+      <c r="M68" s="369"/>
+      <c r="N68" s="371"/>
       <c r="P68" s="81"/>
       <c r="Q68" s="81"/>
       <c r="S68" s="69"/>
       <c r="T68" s="69"/>
     </row>
     <row customHeight="1" ht="24.95" r="69" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B69" s="406"/>
+      <c r="B69" s="368"/>
       <c r="C69" s="128"/>
       <c r="D69" s="116"/>
       <c r="E69" s="116"/>
       <c r="F69" s="116"/>
       <c r="G69" s="116"/>
-      <c r="H69" s="407"/>
+      <c r="H69" s="369"/>
       <c r="I69" s="116"/>
       <c r="J69" s="116"/>
       <c r="K69" s="116"/>
       <c r="L69" s="116"/>
-      <c r="M69" s="407"/>
-      <c r="N69" s="409"/>
+      <c r="M69" s="369"/>
+      <c r="N69" s="371"/>
       <c r="P69" s="81"/>
       <c r="Q69" s="81"/>
       <c r="S69" s="69"/>
       <c r="T69" s="69"/>
     </row>
     <row customHeight="1" ht="24.95" r="70" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B70" s="406"/>
+      <c r="B70" s="368"/>
       <c r="C70" s="128"/>
       <c r="D70" s="116"/>
       <c r="E70" s="116"/>
       <c r="F70" s="116"/>
       <c r="G70" s="116"/>
-      <c r="H70" s="407"/>
+      <c r="H70" s="369"/>
       <c r="I70" s="116"/>
       <c r="J70" s="116"/>
       <c r="K70" s="116"/>
       <c r="L70" s="116"/>
-      <c r="M70" s="407"/>
-      <c r="N70" s="426"/>
+      <c r="M70" s="369"/>
+      <c r="N70" s="423"/>
       <c r="P70" s="81"/>
       <c r="Q70" s="81"/>
       <c r="S70" s="69"/>
       <c r="T70" s="69"/>
     </row>
     <row customHeight="1" ht="24.95" r="71" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B71" s="406"/>
+      <c r="B71" s="368"/>
       <c r="C71" s="128"/>
       <c r="D71" s="116"/>
       <c r="E71" s="116"/>
       <c r="F71" s="116"/>
       <c r="G71" s="116"/>
-      <c r="H71" s="407"/>
+      <c r="H71" s="369"/>
       <c r="I71" s="116"/>
       <c r="J71" s="116"/>
       <c r="K71" s="116"/>
       <c r="L71" s="116"/>
-      <c r="M71" s="407"/>
-      <c r="N71" s="409"/>
+      <c r="M71" s="369"/>
+      <c r="N71" s="371"/>
       <c r="P71" s="81"/>
       <c r="Q71" s="81"/>
       <c r="S71" s="69"/>
       <c r="T71" s="69"/>
     </row>
     <row customHeight="1" ht="24.95" r="72" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B72" s="406"/>
+      <c r="B72" s="368"/>
       <c r="C72" s="128"/>
       <c r="D72" s="116"/>
       <c r="E72" s="116"/>
       <c r="F72" s="116"/>
       <c r="G72" s="116"/>
-      <c r="H72" s="407"/>
+      <c r="H72" s="369"/>
       <c r="I72" s="116"/>
       <c r="J72" s="116"/>
       <c r="K72" s="116"/>
       <c r="L72" s="116"/>
-      <c r="M72" s="407"/>
-      <c r="N72" s="409"/>
+      <c r="M72" s="369"/>
+      <c r="N72" s="371"/>
       <c r="P72" s="81"/>
       <c r="Q72" s="81"/>
       <c r="S72" s="69"/>
       <c r="T72" s="69"/>
     </row>
     <row customHeight="1" ht="24.95" r="73" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B73" s="406"/>
+      <c r="B73" s="368"/>
       <c r="C73" s="128"/>
       <c r="D73" s="116"/>
       <c r="E73" s="116"/>
       <c r="F73" s="116"/>
       <c r="G73" s="116"/>
-      <c r="H73" s="407"/>
+      <c r="H73" s="369"/>
       <c r="I73" s="116"/>
       <c r="J73" s="116"/>
       <c r="K73" s="116"/>
       <c r="L73" s="116"/>
-      <c r="M73" s="407"/>
-      <c r="N73" s="409"/>
+      <c r="M73" s="369"/>
+      <c r="N73" s="371"/>
       <c r="P73" s="81"/>
       <c r="Q73" s="81"/>
       <c r="S73" s="69"/>
@@ -22958,56 +22914,24 @@
     <row customHeight="1" ht="30" r="140" spans="2:22" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="D40:H40"/>
-    <mergeCell ref="H54:H57"/>
-    <mergeCell ref="H66:H69"/>
-    <mergeCell ref="H42:H45"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="H46:H49"/>
-    <mergeCell ref="H50:H53"/>
-    <mergeCell ref="M66:M69"/>
-    <mergeCell ref="H70:H73"/>
-    <mergeCell ref="M70:M73"/>
-    <mergeCell ref="M54:M57"/>
-    <mergeCell ref="H58:H61"/>
-    <mergeCell ref="M58:M61"/>
-    <mergeCell ref="H62:H65"/>
-    <mergeCell ref="M62:M65"/>
-    <mergeCell ref="N54:N57"/>
-    <mergeCell ref="N58:N61"/>
-    <mergeCell ref="N62:N65"/>
-    <mergeCell ref="N66:N69"/>
-    <mergeCell ref="N70:N73"/>
-    <mergeCell ref="U21:U24"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="M21:M24"/>
-    <mergeCell ref="N21:N24"/>
-    <mergeCell ref="O21:O24"/>
-    <mergeCell ref="P21:P24"/>
-    <mergeCell ref="Q21:Q24"/>
-    <mergeCell ref="Q17:Q20"/>
-    <mergeCell ref="I40:L40"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="T21:T24"/>
-    <mergeCell ref="R17:R20"/>
-    <mergeCell ref="S17:S20"/>
-    <mergeCell ref="R21:R24"/>
-    <mergeCell ref="S21:S24"/>
-    <mergeCell ref="T17:T20"/>
-    <mergeCell ref="M50:M53"/>
-    <mergeCell ref="N42:N45"/>
-    <mergeCell ref="N46:N49"/>
-    <mergeCell ref="N50:N53"/>
-    <mergeCell ref="M42:M45"/>
-    <mergeCell ref="M46:M49"/>
+    <mergeCell ref="T9:T12"/>
+    <mergeCell ref="U9:U12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="M9:M12"/>
+    <mergeCell ref="N9:N12"/>
+    <mergeCell ref="O9:O12"/>
+    <mergeCell ref="P9:P12"/>
+    <mergeCell ref="P13:P16"/>
+    <mergeCell ref="Q13:Q16"/>
+    <mergeCell ref="Q9:Q12"/>
+    <mergeCell ref="R9:R12"/>
+    <mergeCell ref="S9:S12"/>
     <mergeCell ref="U17:U20"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="R13:R16"/>
@@ -23024,24 +22948,56 @@
     <mergeCell ref="M13:M16"/>
     <mergeCell ref="N13:N16"/>
     <mergeCell ref="O13:O16"/>
-    <mergeCell ref="P13:P16"/>
-    <mergeCell ref="Q13:Q16"/>
-    <mergeCell ref="Q9:Q12"/>
-    <mergeCell ref="R9:R12"/>
-    <mergeCell ref="S9:S12"/>
-    <mergeCell ref="T9:T12"/>
-    <mergeCell ref="U9:U12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="M9:M12"/>
-    <mergeCell ref="N9:N12"/>
-    <mergeCell ref="O9:O12"/>
-    <mergeCell ref="P9:P12"/>
+    <mergeCell ref="M50:M53"/>
+    <mergeCell ref="N42:N45"/>
+    <mergeCell ref="N46:N49"/>
+    <mergeCell ref="N50:N53"/>
+    <mergeCell ref="M42:M45"/>
+    <mergeCell ref="M46:M49"/>
+    <mergeCell ref="Q17:Q20"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="T21:T24"/>
+    <mergeCell ref="R17:R20"/>
+    <mergeCell ref="S17:S20"/>
+    <mergeCell ref="R21:R24"/>
+    <mergeCell ref="S21:S24"/>
+    <mergeCell ref="T17:T20"/>
+    <mergeCell ref="U21:U24"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="M21:M24"/>
+    <mergeCell ref="N21:N24"/>
+    <mergeCell ref="O21:O24"/>
+    <mergeCell ref="P21:P24"/>
+    <mergeCell ref="Q21:Q24"/>
+    <mergeCell ref="N54:N57"/>
+    <mergeCell ref="N58:N61"/>
+    <mergeCell ref="N62:N65"/>
+    <mergeCell ref="N66:N69"/>
+    <mergeCell ref="N70:N73"/>
+    <mergeCell ref="M66:M69"/>
+    <mergeCell ref="H70:H73"/>
+    <mergeCell ref="M70:M73"/>
+    <mergeCell ref="M54:M57"/>
+    <mergeCell ref="H58:H61"/>
+    <mergeCell ref="M58:M61"/>
+    <mergeCell ref="H62:H65"/>
+    <mergeCell ref="M62:M65"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="H54:H57"/>
+    <mergeCell ref="H66:H69"/>
+    <mergeCell ref="H42:H45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="H46:H49"/>
+    <mergeCell ref="H50:H53"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="N9 N13 N17 N21" type="list">

--- a/eResidue_CV_eDocs/bin/Test Data/eResidue_eDocs_TestCase_result.xlsx
+++ b/eResidue_CV_eDocs/bin/Test Data/eResidue_eDocs_TestCase_result.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="257">
   <si>
     <t>Testcase_id</t>
   </si>
@@ -856,40 +856,34 @@
     <t>Tenant ID:</t>
   </si>
   <si>
-    <t>S4 active1</t>
-  </si>
-  <si>
-    <t>S4</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>Liquid</t>
-  </si>
-  <si>
-    <t>Inhalant</t>
+    <t>S1 active1</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>E8</t>
+  </si>
+  <si>
+    <t>S1 active2</t>
+  </si>
+  <si>
+    <t>S2 active1</t>
+  </si>
+  <si>
+    <t>S1</t>
   </si>
   <si>
     <t>E5</t>
   </si>
   <si>
-    <t>E7</t>
-  </si>
-  <si>
-    <t>S4 active2</t>
-  </si>
-  <si>
-    <t>Liquid active1</t>
-  </si>
-  <si>
-    <t>Liquid active3</t>
-  </si>
-  <si>
-    <t>Inhalant active1</t>
-  </si>
-  <si>
-    <t>Inhalant active4</t>
+    <t>S2 active2</t>
   </si>
 </sst>
 </file>
@@ -899,7 +893,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="182" x14ac:knownFonts="1">
+  <fonts count="180" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1713,117 +1707,7 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
+      <color indexed="10"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1853,7 +1737,107 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="17"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -2077,7 +2061,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="435">
+  <cellXfs count="433">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
@@ -2860,8 +2844,6 @@
     <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="178" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="179" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="180" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="181" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -10924,67 +10906,69 @@
         <v>0.005714286584407091</v>
       </c>
       <c r="G42" s="252" t="n">
-        <v>1.1111020026569237E-4</v>
+        <v>1.6000130122925156E-4</v>
       </c>
       <c r="H42" s="253" t="n">
-        <v>199.99836047824627</v>
+        <v>80.00065061462577</v>
       </c>
       <c r="I42" s="253" t="n">
-        <v>2.8168783165950177E-4</v>
-      </c>
-      <c r="J42" s="253" t="s">
-        <v>249</v>
-      </c>
-      <c r="K42" s="252" t="s">
-        <v>249</v>
-      </c>
-      <c r="L42" s="252" t="s">
-        <v>249</v>
-      </c>
-      <c r="M42" s="253" t="s">
-        <v>249</v>
-      </c>
-      <c r="N42" s="298"/>
+        <v>1.1851948239203817E-4</v>
+      </c>
+      <c r="J42" s="253" t="n">
+        <v>0.005714286584407091</v>
+      </c>
+      <c r="K42" s="252" t="n">
+        <v>1.6000002506189048E-4</v>
+      </c>
+      <c r="L42" s="252" t="n">
+        <v>80.00000762939453</v>
+      </c>
+      <c r="M42" s="253" t="n">
+        <v>7.646356825716794E-4</v>
+      </c>
+      <c r="N42" s="401" t="s">
+        <v>59</v>
+      </c>
       <c r="O42" s="64"/>
       <c r="P42" s="232"/>
       <c r="Q42" s="243" t="s">
         <v>247</v>
       </c>
       <c r="R42" s="381" t="s">
-        <v>252</v>
+        <v>225</v>
       </c>
       <c r="S42" s="381" t="n">
-        <v>35000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="T42" s="381" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="U42" s="381" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V42" s="381" t="n">
         <v>60.0</v>
       </c>
-      <c r="U42" s="381" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="V42" s="381" t="n">
-        <v>70.0</v>
-      </c>
       <c r="W42" s="381" t="n">
-        <v>0.0013136290945112705</v>
+        <v>0.00592597434297204</v>
       </c>
       <c r="X42" s="381" t="n">
-        <v>4.378763648370902E-5</v>
+        <v>2.96298717148602E-4</v>
       </c>
       <c r="Y42" s="382" t="n">
-        <v>1.0946909242193215E-5</v>
+        <v>1.9753248125198297E-5</v>
       </c>
       <c r="Z42" s="381" t="n">
-        <v>0.0013136290945112705</v>
+        <v>0.03823178634047508</v>
       </c>
       <c r="AA42" s="381" t="n">
-        <v>4.378763696877286E-5</v>
+        <v>0.0019115892937406898</v>
       </c>
       <c r="AB42" s="383" t="n">
-        <v>1.0946909242193215E-5</v>
+        <v>1.2743928527925164E-4</v>
       </c>
       <c r="AC42" s="402" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AD42" s="64"/>
       <c r="AE42" s="50"/>
@@ -11006,75 +10990,79 @@
       <c r="B43" s="276" t="s">
         <v>245</v>
       </c>
-      <c r="D43" s="34"/>
+      <c r="D43" s="34" t="s">
+        <v>252</v>
+      </c>
       <c r="E43" s="34" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F43" s="253" t="n">
-        <v>0.005714286584407091</v>
+        <v>0.011428573168814182</v>
       </c>
       <c r="G43" s="252" t="n">
-        <v>1.5873018290019698E-5</v>
+        <v>3.200026024585031E-4</v>
       </c>
       <c r="H43" s="253" t="n">
-        <v>15.873018290019699</v>
+        <v>160.00130122925154</v>
       </c>
       <c r="I43" s="254" t="n">
-        <v>3.648969721843609E-5</v>
-      </c>
-      <c r="J43" s="253" t="s">
-        <v>249</v>
-      </c>
-      <c r="K43" s="252" t="s">
-        <v>249</v>
-      </c>
-      <c r="L43" s="252" t="s">
-        <v>249</v>
-      </c>
-      <c r="M43" s="254" t="s">
-        <v>249</v>
-      </c>
-      <c r="N43" s="272"/>
+        <v>2.3703896478407635E-4</v>
+      </c>
+      <c r="J43" s="253" t="n">
+        <v>0.011428573168814182</v>
+      </c>
+      <c r="K43" s="252" t="n">
+        <v>3.2000005012378097E-4</v>
+      </c>
+      <c r="L43" s="252" t="n">
+        <v>160.00001525878906</v>
+      </c>
+      <c r="M43" s="254" t="n">
+        <v>0.0015292713651433587</v>
+      </c>
+      <c r="N43" s="409" t="s">
+        <v>59</v>
+      </c>
       <c r="O43" s="64"/>
       <c r="P43" s="232"/>
       <c r="Q43" s="243" t="s">
         <v>247</v>
       </c>
       <c r="R43" s="381" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="S43" s="381" t="n">
-        <v>75000.0</v>
+        <v>25000.0</v>
       </c>
       <c r="T43" s="381" t="n">
         <v>60.0</v>
       </c>
       <c r="U43" s="381" t="n">
-        <v>100.0</v>
+        <v>40.0</v>
       </c>
       <c r="V43" s="381" t="n">
-        <v>30.0</v>
+        <v>20.0</v>
       </c>
       <c r="W43" s="381" t="n">
-        <v>0.0013136290945112705</v>
+        <v>0.007111168932169676</v>
       </c>
       <c r="X43" s="381" t="n">
-        <v>1.3136290945112706E-5</v>
+        <v>1.7777922330424188E-4</v>
       </c>
       <c r="Y43" s="382" t="n">
-        <v>5.4734548029955477E-5</v>
+        <v>1.481493527535349E-4</v>
       </c>
       <c r="Z43" s="381" t="n">
-        <v>0.0013136290945112705</v>
+        <v>0.04587814211845398</v>
       </c>
       <c r="AA43" s="381" t="n">
-        <v>1.3136291272530798E-5</v>
+        <v>0.0011469535529613495</v>
       </c>
       <c r="AB43" s="383" t="n">
-        <v>5.473454439197667E-5</v>
+        <v>9.557946468703449E-4</v>
       </c>
       <c r="AC43" s="403" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AD43" s="64"/>
       <c r="AE43" s="50"/>
@@ -11094,36 +11082,38 @@
         <v>3</v>
       </c>
       <c r="B44" s="276"/>
-      <c r="D44" s="34"/>
+      <c r="D44" s="34" t="s">
+        <v>253</v>
+      </c>
       <c r="E44" s="34" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="F44" s="252" t="n">
-        <v>0.005714286584407091</v>
+        <v>0.007142857648432255</v>
       </c>
       <c r="G44" s="252" t="n">
-        <v>7.936509145009849E-6</v>
+        <v>1.3888773901405367E-4</v>
       </c>
       <c r="H44" s="253" t="n">
-        <v>9.52381097401182</v>
+        <v>249.9979302252966</v>
       </c>
       <c r="I44" s="253" t="n">
-        <v>2.1893818331061655E-5</v>
+        <v>3.703673040374765E-4</v>
       </c>
       <c r="J44" s="253" t="n">
-        <v>0.005714286584407091</v>
+        <v>0.007142857648432255</v>
       </c>
       <c r="K44" s="252" t="n">
-        <v>7.936509064165875E-6</v>
+        <v>1.3888889225199819E-4</v>
       </c>
       <c r="L44" s="252" t="n">
-        <v>9.523811340332031</v>
+        <v>250.0</v>
       </c>
       <c r="M44" s="253" t="n">
-        <v>2.189381848438643E-5</v>
-      </c>
-      <c r="N44" s="401" t="s">
-        <v>56</v>
+        <v>0.002389486413449049</v>
+      </c>
+      <c r="N44" s="417" t="s">
+        <v>59</v>
       </c>
       <c r="O44" s="64"/>
       <c r="P44" s="232"/>
@@ -11131,40 +11121,40 @@
         <v>247</v>
       </c>
       <c r="R44" s="381" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="S44" s="381" t="n">
-        <v>100000.0</v>
+        <v>75000.0</v>
       </c>
       <c r="T44" s="381" t="n">
-        <v>20.0</v>
+        <v>60.0</v>
       </c>
       <c r="U44" s="381" t="n">
-        <v>50.0</v>
+        <v>100.0</v>
       </c>
       <c r="V44" s="381" t="n">
         <v>30.0</v>
       </c>
       <c r="W44" s="381" t="n">
-        <v>4.378763842396438E-4</v>
+        <v>0.007111168932169676</v>
       </c>
       <c r="X44" s="381" t="n">
-        <v>8.757527684792876E-6</v>
+        <v>7.111168932169676E-5</v>
       </c>
       <c r="Y44" s="382" t="n">
-        <v>7.297939737327397E-5</v>
+        <v>2.962987346109003E-4</v>
       </c>
       <c r="Z44" s="381" t="n">
-        <v>4.3787635513581336E-4</v>
+        <v>0.04587814211845398</v>
       </c>
       <c r="AA44" s="381" t="n">
-        <v>8.757527211855631E-6</v>
+        <v>4.587814037222415E-4</v>
       </c>
       <c r="AB44" s="383" t="n">
-        <v>7.297939737327397E-5</v>
+        <v>0.0019115892937406898</v>
       </c>
       <c r="AC44" s="404" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AD44" s="64"/>
       <c r="AE44" s="50"/>
@@ -11185,76 +11175,78 @@
       </c>
       <c r="B45" s="276"/>
       <c r="D45" s="34" t="s">
+        <v>256</v>
+      </c>
+      <c r="E45" s="34" t="s">
         <v>254</v>
       </c>
-      <c r="E45" s="34" t="s">
-        <v>248</v>
-      </c>
       <c r="F45" s="252" t="n">
-        <v>0.011428573168814182</v>
+        <v>0.0035714288242161274</v>
       </c>
       <c r="G45" s="252" t="n">
-        <v>2.2222040053138475E-4</v>
+        <v>6.944386950702684E-5</v>
       </c>
       <c r="H45" s="253" t="n">
-        <v>399.99672095649254</v>
+        <v>124.9989651126483</v>
       </c>
       <c r="I45" s="253" t="n">
-        <v>5.633756633190035E-4</v>
-      </c>
-      <c r="J45" s="253" t="s">
-        <v>249</v>
-      </c>
-      <c r="K45" s="252" t="s">
-        <v>249</v>
-      </c>
-      <c r="L45" s="252" t="s">
-        <v>249</v>
-      </c>
-      <c r="M45" s="253" t="s">
-        <v>249</v>
-      </c>
-      <c r="N45" s="273"/>
+        <v>1.8518365201873824E-4</v>
+      </c>
+      <c r="J45" s="253" t="n">
+        <v>0.0035714288242161274</v>
+      </c>
+      <c r="K45" s="252" t="n">
+        <v>6.944444612599909E-5</v>
+      </c>
+      <c r="L45" s="252" t="n">
+        <v>125.0</v>
+      </c>
+      <c r="M45" s="253" t="n">
+        <v>0.0011947432067245245</v>
+      </c>
+      <c r="N45" s="425" t="s">
+        <v>59</v>
+      </c>
       <c r="O45" s="64"/>
       <c r="P45" s="232"/>
       <c r="Q45" s="243" t="s">
         <v>247</v>
       </c>
       <c r="R45" s="381" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="S45" s="381" t="n">
-        <v>300000.0</v>
+        <v>55000.0</v>
       </c>
       <c r="T45" s="381" t="n">
-        <v>40.0</v>
+        <v>70.0</v>
       </c>
       <c r="U45" s="381" t="n">
-        <v>10.0</v>
+        <v>120.0</v>
       </c>
       <c r="V45" s="381" t="n">
-        <v>50.0</v>
+        <v>100.0</v>
       </c>
       <c r="W45" s="381" t="n">
-        <v>8.757527684792876E-4</v>
+        <v>0.008296363987028599</v>
       </c>
       <c r="X45" s="381" t="n">
-        <v>8.757527684792877E-5</v>
+        <v>6.913636655857166E-5</v>
       </c>
       <c r="Y45" s="382" t="n">
-        <v>1.313629181822762E-4</v>
+        <v>6.518571899505332E-5</v>
       </c>
       <c r="Z45" s="381" t="n">
-        <v>8.757527102716267E-4</v>
+        <v>0.05352449789643288</v>
       </c>
       <c r="AA45" s="381" t="n">
-        <v>8.757527393754572E-5</v>
+        <v>4.460374766495079E-4</v>
       </c>
       <c r="AB45" s="383" t="n">
-        <v>1.3136290363036096E-4</v>
+        <v>4.205496225040406E-4</v>
       </c>
       <c r="AC45" s="405" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AD45" s="64"/>
       <c r="AE45" s="50"/>
@@ -11273,49 +11265,57 @@
       <c r="A46" s="276"/>
       <c r="B46" s="276"/>
       <c r="D46" s="34"/>
-      <c r="E46" s="34" t="s">
-        <v>250</v>
-      </c>
-      <c r="F46" s="252" t="n">
-        <v>0.011428573168814182</v>
-      </c>
-      <c r="G46" s="252" t="n">
-        <v>3.1746036580039396E-5</v>
-      </c>
-      <c r="H46" s="253" t="n">
-        <v>31.746036580039398</v>
-      </c>
-      <c r="I46" s="253" t="n">
-        <v>7.297939443687218E-5</v>
-      </c>
-      <c r="J46" s="253" t="s">
-        <v>249</v>
-      </c>
-      <c r="K46" s="252" t="s">
-        <v>249</v>
-      </c>
-      <c r="L46" s="252" t="s">
-        <v>249</v>
-      </c>
-      <c r="M46" s="253" t="s">
-        <v>249</v>
-      </c>
+      <c r="E46" s="34"/>
+      <c r="F46" s="252"/>
+      <c r="G46" s="252"/>
+      <c r="H46" s="253"/>
+      <c r="I46" s="253"/>
+      <c r="J46" s="253"/>
+      <c r="K46" s="252"/>
+      <c r="L46" s="252"/>
+      <c r="M46" s="253"/>
       <c r="N46" s="301"/>
       <c r="O46" s="64"/>
       <c r="P46" s="232"/>
-      <c r="Q46" s="243"/>
-      <c r="R46" s="381"/>
-      <c r="S46" s="381"/>
-      <c r="T46" s="381"/>
-      <c r="U46" s="381"/>
-      <c r="V46" s="381"/>
-      <c r="W46" s="381"/>
-      <c r="X46" s="381"/>
-      <c r="Y46" s="382"/>
-      <c r="Z46" s="381"/>
-      <c r="AA46" s="381"/>
-      <c r="AB46" s="383"/>
-      <c r="AC46" s="384"/>
+      <c r="Q46" s="243" t="s">
+        <v>247</v>
+      </c>
+      <c r="R46" s="381" t="s">
+        <v>222</v>
+      </c>
+      <c r="S46" s="381" t="n">
+        <v>100000.0</v>
+      </c>
+      <c r="T46" s="381" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="U46" s="381" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="V46" s="381" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="W46" s="381" t="n">
+        <v>0.0023703896440565586</v>
+      </c>
+      <c r="X46" s="381" t="n">
+        <v>4.7407792881131175E-5</v>
+      </c>
+      <c r="Y46" s="382" t="n">
+        <v>3.9506496977992356E-4</v>
+      </c>
+      <c r="Z46" s="381" t="n">
+        <v>0.015292714349925518</v>
+      </c>
+      <c r="AA46" s="381" t="n">
+        <v>3.0585427884943783E-4</v>
+      </c>
+      <c r="AB46" s="383" t="n">
+        <v>0.002548785647377372</v>
+      </c>
+      <c r="AC46" s="406" t="s">
+        <v>59</v>
+      </c>
       <c r="AD46" s="64"/>
       <c r="AE46" s="50"/>
       <c r="AF46" s="50"/>
@@ -11333,75 +11333,55 @@
       <c r="A47" s="276"/>
       <c r="B47" s="276"/>
       <c r="D47" s="34"/>
-      <c r="E47" s="34" t="s">
-        <v>251</v>
-      </c>
-      <c r="F47" s="252" t="n">
-        <v>0.011428573168814182</v>
-      </c>
-      <c r="G47" s="252" t="n">
-        <v>1.5873018290019698E-5</v>
-      </c>
-      <c r="H47" s="252" t="n">
-        <v>19.04762194802364</v>
-      </c>
-      <c r="I47" s="252" t="n">
-        <v>4.378763666212331E-5</v>
-      </c>
-      <c r="J47" s="253" t="n">
-        <v>0.011428573168814182</v>
-      </c>
-      <c r="K47" s="252" t="n">
-        <v>1.587301812833175E-5</v>
-      </c>
-      <c r="L47" s="252" t="n">
-        <v>19.047622680664062</v>
-      </c>
-      <c r="M47" s="252" t="n">
-        <v>4.378763696877286E-5</v>
-      </c>
-      <c r="N47" s="406" t="s">
-        <v>56</v>
-      </c>
+      <c r="E47" s="34"/>
+      <c r="F47" s="252"/>
+      <c r="G47" s="252"/>
+      <c r="H47" s="252"/>
+      <c r="I47" s="252"/>
+      <c r="J47" s="253"/>
+      <c r="K47" s="252"/>
+      <c r="L47" s="252"/>
+      <c r="M47" s="252"/>
+      <c r="N47" s="274"/>
       <c r="P47" s="218"/>
       <c r="Q47" s="241" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="R47" s="382" t="s">
-        <v>252</v>
+        <v>223</v>
       </c>
       <c r="S47" s="386" t="n">
-        <v>35000.0</v>
+        <v>15000.0</v>
       </c>
       <c r="T47" s="386" t="n">
-        <v>60.0</v>
+        <v>30.0</v>
       </c>
       <c r="U47" s="381" t="n">
-        <v>30.0</v>
+        <v>40.0</v>
       </c>
       <c r="V47" s="381" t="n">
-        <v>70.0</v>
+        <v>40.0</v>
       </c>
       <c r="W47" s="382" t="n">
-        <v>0.002627258189022541</v>
+        <v>0.003555584466084838</v>
       </c>
       <c r="X47" s="382" t="n">
-        <v>8.757527296741804E-5</v>
+        <v>8.888961165212094E-5</v>
       </c>
       <c r="Y47" s="382" t="n">
-        <v>2.189381848438643E-5</v>
+        <v>4.444480873644352E-5</v>
       </c>
       <c r="Z47" s="382" t="n">
-        <v>0.002627258189022541</v>
+        <v>0.02293907105922699</v>
       </c>
       <c r="AA47" s="382" t="n">
-        <v>8.757527393754572E-5</v>
+        <v>5.734767764806747E-4</v>
       </c>
       <c r="AB47" s="387" t="n">
-        <v>2.189381848438643E-5</v>
+        <v>2.8673838824033737E-4</v>
       </c>
       <c r="AC47" s="407" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AD47" s="23"/>
       <c r="AE47" s="72"/>
@@ -11419,76 +11399,56 @@
     <row customHeight="1" ht="24.95" r="48" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A48" s="276"/>
       <c r="B48" s="276"/>
-      <c r="D48" s="34" t="s">
-        <v>255</v>
-      </c>
-      <c r="E48" s="34" t="s">
-        <v>248</v>
-      </c>
-      <c r="F48" s="252" t="n">
-        <v>0.010000000707805157</v>
-      </c>
-      <c r="G48" s="252" t="n">
-        <v>1.9444283461967515E-4</v>
-      </c>
-      <c r="H48" s="252" t="n">
-        <v>349.99710231541525</v>
-      </c>
-      <c r="I48" s="252" t="n">
-        <v>8.045910398055523E-4</v>
-      </c>
-      <c r="J48" s="253" t="s">
-        <v>249</v>
-      </c>
-      <c r="K48" s="252" t="s">
-        <v>249</v>
-      </c>
-      <c r="L48" s="252" t="s">
-        <v>249</v>
-      </c>
-      <c r="M48" s="252" t="s">
-        <v>249</v>
-      </c>
+      <c r="D48" s="34"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="252"/>
+      <c r="G48" s="252"/>
+      <c r="H48" s="252"/>
+      <c r="I48" s="252"/>
+      <c r="J48" s="253"/>
+      <c r="K48" s="252"/>
+      <c r="L48" s="252"/>
+      <c r="M48" s="252"/>
       <c r="N48" s="274"/>
       <c r="P48" s="218"/>
       <c r="Q48" s="241" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="R48" s="382" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="S48" s="386" t="n">
-        <v>75000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="T48" s="386" t="n">
-        <v>60.0</v>
+        <v>40.0</v>
       </c>
       <c r="U48" s="381" t="n">
-        <v>100.0</v>
+        <v>10.0</v>
       </c>
       <c r="V48" s="381" t="n">
-        <v>30.0</v>
+        <v>50.0</v>
       </c>
       <c r="W48" s="382" t="n">
-        <v>0.002627258189022541</v>
+        <v>0.004740779288113117</v>
       </c>
       <c r="X48" s="382" t="n">
-        <v>2.627258189022541E-5</v>
+        <v>4.740779288113117E-4</v>
       </c>
       <c r="Y48" s="382" t="n">
-        <v>1.0946909605991095E-4</v>
+        <v>7.111169397830963E-4</v>
       </c>
       <c r="Z48" s="382" t="n">
-        <v>0.002627258189022541</v>
+        <v>0.030585428699851036</v>
       </c>
       <c r="AA48" s="382" t="n">
-        <v>2.6272582545061596E-5</v>
+        <v>0.0030585427302867174</v>
       </c>
       <c r="AB48" s="387" t="n">
-        <v>1.0946908878395334E-4</v>
+        <v>0.004587814211845398</v>
       </c>
       <c r="AC48" s="408" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AD48" s="23"/>
       <c r="AE48" s="72"/>
@@ -11507,74 +11467,30 @@
       <c r="A49" s="276"/>
       <c r="B49" s="276"/>
       <c r="D49" s="34"/>
-      <c r="E49" s="34" t="s">
-        <v>250</v>
-      </c>
-      <c r="F49" s="252" t="n">
-        <v>0.010000000707805157</v>
-      </c>
-      <c r="G49" s="252" t="n">
-        <v>2.7777779743903213E-5</v>
-      </c>
-      <c r="H49" s="252" t="n">
-        <v>27.777779743903213</v>
-      </c>
-      <c r="I49" s="252" t="n">
-        <v>6.038647770413742E-5</v>
-      </c>
-      <c r="J49" s="253" t="s">
-        <v>249</v>
-      </c>
-      <c r="K49" s="252" t="s">
-        <v>249</v>
-      </c>
-      <c r="L49" s="252" t="s">
-        <v>249</v>
-      </c>
-      <c r="M49" s="252" t="s">
-        <v>249</v>
-      </c>
+      <c r="E49" s="34"/>
+      <c r="F49" s="252"/>
+      <c r="G49" s="252"/>
+      <c r="H49" s="252"/>
+      <c r="I49" s="252"/>
+      <c r="J49" s="253"/>
+      <c r="K49" s="252"/>
+      <c r="L49" s="252"/>
+      <c r="M49" s="252"/>
       <c r="N49" s="304"/>
       <c r="P49" s="218"/>
-      <c r="Q49" s="241" t="s">
-        <v>254</v>
-      </c>
-      <c r="R49" s="382" t="s">
-        <v>222</v>
-      </c>
-      <c r="S49" s="386" t="n">
-        <v>100000.0</v>
-      </c>
-      <c r="T49" s="386" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="U49" s="381" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="V49" s="381" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="W49" s="382" t="n">
-        <v>8.757527684792876E-4</v>
-      </c>
-      <c r="X49" s="382" t="n">
-        <v>1.751505536958575E-5</v>
-      </c>
-      <c r="Y49" s="382" t="n">
-        <v>1.4595879474654794E-4</v>
-      </c>
-      <c r="Z49" s="382" t="n">
-        <v>8.757527102716267E-4</v>
-      </c>
-      <c r="AA49" s="382" t="n">
-        <v>1.7515054423711263E-5</v>
-      </c>
-      <c r="AB49" s="387" t="n">
-        <v>1.4595879474654794E-4</v>
-      </c>
-      <c r="AC49" s="409" t="s">
-        <v>56</v>
-      </c>
+      <c r="Q49" s="241"/>
+      <c r="R49" s="382"/>
+      <c r="S49" s="386"/>
+      <c r="T49" s="386"/>
+      <c r="U49" s="381"/>
+      <c r="V49" s="381"/>
+      <c r="W49" s="382"/>
+      <c r="X49" s="382"/>
+      <c r="Y49" s="382"/>
+      <c r="Z49" s="382"/>
+      <c r="AA49" s="382"/>
+      <c r="AB49" s="387"/>
+      <c r="AC49" s="384"/>
       <c r="AD49" s="23"/>
       <c r="AE49" s="72"/>
       <c r="AF49" s="36"/>
@@ -11592,75 +11508,55 @@
       <c r="A50" s="276"/>
       <c r="B50" s="276"/>
       <c r="D50" s="34"/>
-      <c r="E50" s="34" t="s">
-        <v>251</v>
-      </c>
-      <c r="F50" s="252" t="n">
-        <v>0.010000000707805157</v>
-      </c>
-      <c r="G50" s="252" t="n">
-        <v>1.3888889871951606E-5</v>
-      </c>
-      <c r="H50" s="252" t="n">
-        <v>16.666667846341927</v>
-      </c>
-      <c r="I50" s="252" t="n">
-        <v>3.623188662248245E-5</v>
-      </c>
-      <c r="J50" s="252" t="n">
-        <v>0.010000000707805157</v>
-      </c>
-      <c r="K50" s="252" t="n">
-        <v>1.388888995279558E-5</v>
-      </c>
-      <c r="L50" s="252" t="n">
-        <v>16.666667938232422</v>
-      </c>
-      <c r="M50" s="252" t="n">
-        <v>3.6231886042514816E-5</v>
-      </c>
-      <c r="N50" s="411" t="s">
-        <v>56</v>
-      </c>
+      <c r="E50" s="34"/>
+      <c r="F50" s="252"/>
+      <c r="G50" s="252"/>
+      <c r="H50" s="252"/>
+      <c r="I50" s="252"/>
+      <c r="J50" s="252"/>
+      <c r="K50" s="252"/>
+      <c r="L50" s="252"/>
+      <c r="M50" s="252"/>
+      <c r="N50" s="274"/>
       <c r="P50" s="218"/>
       <c r="Q50" s="241" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="R50" s="382" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="S50" s="386" t="n">
-        <v>300000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="T50" s="386" t="n">
-        <v>40.0</v>
+        <v>50.0</v>
       </c>
       <c r="U50" s="381" t="n">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="V50" s="381" t="n">
-        <v>50.0</v>
+        <v>60.0</v>
       </c>
       <c r="W50" s="382" t="n">
-        <v>0.0017515055369585752</v>
+        <v>0.01185194868594408</v>
       </c>
       <c r="X50" s="381" t="n">
-        <v>1.7515055369585753E-4</v>
+        <v>5.92597434297204E-4</v>
       </c>
       <c r="Y50" s="381" t="n">
-        <v>2.627258363645524E-4</v>
+        <v>3.9506496250396594E-5</v>
       </c>
       <c r="Z50" s="381" t="n">
-        <v>0.0017515054205432534</v>
+        <v>0.07646357268095016</v>
       </c>
       <c r="AA50" s="381" t="n">
-        <v>1.7515054787509143E-4</v>
+        <v>0.0038231785874813795</v>
       </c>
       <c r="AB50" s="383" t="n">
-        <v>2.627258072607219E-4</v>
+        <v>2.5487857055850327E-4</v>
       </c>
       <c r="AC50" s="410" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AD50" s="46"/>
       <c r="AE50" s="50"/>
@@ -11678,51 +11574,57 @@
     <row customHeight="1" ht="24.95" r="51" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A51" s="276"/>
       <c r="B51" s="276"/>
-      <c r="D51" s="34" t="s">
-        <v>256</v>
-      </c>
-      <c r="E51" s="34" t="s">
-        <v>248</v>
-      </c>
-      <c r="F51" s="252" t="n">
-        <v>0.019999999552965164</v>
-      </c>
-      <c r="G51" s="252" t="n">
-        <v>3.888856330215526E-4</v>
-      </c>
-      <c r="H51" s="252" t="n">
-        <v>699.9941394387947</v>
-      </c>
-      <c r="I51" s="252" t="n">
-        <v>0.0016091819297443556</v>
-      </c>
-      <c r="J51" s="252" t="s">
-        <v>249</v>
-      </c>
-      <c r="K51" s="252" t="s">
-        <v>249</v>
-      </c>
-      <c r="L51" s="252" t="s">
-        <v>249</v>
-      </c>
-      <c r="M51" s="252" t="s">
-        <v>249</v>
-      </c>
+      <c r="D51" s="34"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="252"/>
+      <c r="G51" s="252"/>
+      <c r="H51" s="252"/>
+      <c r="I51" s="252"/>
+      <c r="J51" s="252"/>
+      <c r="K51" s="252"/>
+      <c r="L51" s="252"/>
+      <c r="M51" s="252"/>
       <c r="N51" s="274"/>
       <c r="P51" s="218"/>
-      <c r="Q51" s="241"/>
-      <c r="R51" s="382"/>
-      <c r="S51" s="386"/>
-      <c r="T51" s="386"/>
-      <c r="U51" s="381"/>
-      <c r="V51" s="381"/>
-      <c r="W51" s="382"/>
-      <c r="X51" s="381"/>
-      <c r="Y51" s="381"/>
-      <c r="Z51" s="381"/>
-      <c r="AA51" s="381"/>
-      <c r="AB51" s="383"/>
-      <c r="AC51" s="385"/>
+      <c r="Q51" s="241" t="s">
+        <v>252</v>
+      </c>
+      <c r="R51" s="382" t="s">
+        <v>249</v>
+      </c>
+      <c r="S51" s="386" t="n">
+        <v>25000.0</v>
+      </c>
+      <c r="T51" s="386" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="U51" s="381" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="V51" s="381" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="W51" s="382" t="n">
+        <v>0.014222337864339352</v>
+      </c>
+      <c r="X51" s="381" t="n">
+        <v>3.5555844660848377E-4</v>
+      </c>
+      <c r="Y51" s="381" t="n">
+        <v>2.962987055070698E-4</v>
+      </c>
+      <c r="Z51" s="381" t="n">
+        <v>0.09175628423690796</v>
+      </c>
+      <c r="AA51" s="381" t="n">
+        <v>0.002293907105922699</v>
+      </c>
+      <c r="AB51" s="383" t="n">
+        <v>0.0019115892937406898</v>
+      </c>
+      <c r="AC51" s="411" t="s">
+        <v>59</v>
+      </c>
       <c r="AD51" s="76"/>
       <c r="AE51" s="50"/>
       <c r="AF51" s="50"/>
@@ -11740,73 +11642,55 @@
       <c r="A52" s="276"/>
       <c r="B52" s="276"/>
       <c r="D52" s="34"/>
-      <c r="E52" s="34" t="s">
-        <v>250</v>
-      </c>
-      <c r="F52" s="252" t="n">
-        <v>0.019999999552965164</v>
-      </c>
-      <c r="G52" s="252" t="n">
-        <v>5.5555554313792125E-5</v>
-      </c>
-      <c r="H52" s="252" t="n">
-        <v>55.55555431379212</v>
-      </c>
-      <c r="I52" s="252" t="n">
-        <v>1.2077294416041766E-4</v>
-      </c>
-      <c r="J52" s="252" t="s">
-        <v>249</v>
-      </c>
-      <c r="K52" s="252" t="s">
-        <v>249</v>
-      </c>
-      <c r="L52" s="252" t="s">
-        <v>249</v>
-      </c>
-      <c r="M52" s="252" t="s">
-        <v>249</v>
-      </c>
+      <c r="E52" s="34"/>
+      <c r="F52" s="252"/>
+      <c r="G52" s="252"/>
+      <c r="H52" s="252"/>
+      <c r="I52" s="252"/>
+      <c r="J52" s="252"/>
+      <c r="K52" s="252"/>
+      <c r="L52" s="252"/>
+      <c r="M52" s="252"/>
       <c r="N52" s="274"/>
       <c r="P52" s="218"/>
       <c r="Q52" s="241" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="R52" s="382" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="S52" s="386" t="n">
-        <v>10000.0</v>
+        <v>75000.0</v>
       </c>
       <c r="T52" s="386" t="n">
-        <v>50.0</v>
+        <v>60.0</v>
       </c>
       <c r="U52" s="381" t="n">
-        <v>20.0</v>
+        <v>100.0</v>
       </c>
       <c r="V52" s="381" t="n">
-        <v>60.0</v>
+        <v>30.0</v>
       </c>
       <c r="W52" s="382" t="n">
-        <v>0.001811594353057444</v>
+        <v>0.014222337864339352</v>
       </c>
       <c r="X52" s="382" t="n">
-        <v>9.05797176528722E-5</v>
+        <v>1.4222337864339352E-4</v>
       </c>
       <c r="Y52" s="382" t="n">
-        <v>6.03864782533492E-6</v>
+        <v>5.925974692218006E-4</v>
       </c>
       <c r="Z52" s="382" t="n">
-        <v>0.001811594353057444</v>
+        <v>0.09175628423690796</v>
       </c>
       <c r="AA52" s="382" t="n">
-        <v>9.057971328729764E-5</v>
+        <v>9.17562807444483E-4</v>
       </c>
       <c r="AB52" s="387" t="n">
-        <v>6.03864782533492E-6</v>
+        <v>0.0038231785874813795</v>
       </c>
       <c r="AC52" s="412" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AD52" s="23"/>
       <c r="AE52" s="36"/>
@@ -11825,75 +11709,55 @@
       <c r="A53" s="276"/>
       <c r="B53" s="276"/>
       <c r="D53" s="34"/>
-      <c r="E53" s="34" t="s">
-        <v>251</v>
-      </c>
-      <c r="F53" s="252" t="n">
-        <v>0.019999999552965164</v>
-      </c>
-      <c r="G53" s="252" t="n">
-        <v>2.7777777156896063E-5</v>
-      </c>
-      <c r="H53" s="252" t="n">
-        <v>33.333332588275276</v>
-      </c>
-      <c r="I53" s="252" t="n">
-        <v>7.24637664962506E-5</v>
-      </c>
-      <c r="J53" s="252" t="n">
-        <v>0.019999999552965164</v>
-      </c>
-      <c r="K53" s="252" t="n">
-        <v>2.7777776267612353E-5</v>
-      </c>
-      <c r="L53" s="252" t="n">
-        <v>33.33333206176758</v>
-      </c>
-      <c r="M53" s="252" t="n">
-        <v>7.246376480907202E-5</v>
-      </c>
-      <c r="N53" s="417" t="s">
-        <v>56</v>
-      </c>
+      <c r="E53" s="34"/>
+      <c r="F53" s="252"/>
+      <c r="G53" s="252"/>
+      <c r="H53" s="252"/>
+      <c r="I53" s="252"/>
+      <c r="J53" s="252"/>
+      <c r="K53" s="252"/>
+      <c r="L53" s="252"/>
+      <c r="M53" s="252"/>
+      <c r="N53" s="307"/>
       <c r="P53" s="218"/>
       <c r="Q53" s="241" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="R53" s="382" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S53" s="386" t="n">
-        <v>35000.0</v>
+        <v>55000.0</v>
       </c>
       <c r="T53" s="386" t="n">
-        <v>60.0</v>
+        <v>70.0</v>
       </c>
       <c r="U53" s="381" t="n">
-        <v>30.0</v>
+        <v>120.0</v>
       </c>
       <c r="V53" s="381" t="n">
-        <v>70.0</v>
+        <v>100.0</v>
       </c>
       <c r="W53" s="382" t="n">
-        <v>0.002173913177102804</v>
+        <v>0.016592727974057198</v>
       </c>
       <c r="X53" s="382" t="n">
-        <v>7.246377257009347E-5</v>
+        <v>1.3827273311714332E-4</v>
       </c>
       <c r="Y53" s="382" t="n">
-        <v>1.8115943021257408E-5</v>
+        <v>1.3037143799010664E-4</v>
       </c>
       <c r="Z53" s="382" t="n">
-        <v>0.002173913177102804</v>
+        <v>0.10704899579286575</v>
       </c>
       <c r="AA53" s="382" t="n">
-        <v>7.246377208502963E-5</v>
+        <v>8.920749532990158E-4</v>
       </c>
       <c r="AB53" s="387" t="n">
-        <v>1.8115943021257408E-5</v>
+        <v>8.410992450080812E-4</v>
       </c>
       <c r="AC53" s="413" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AD53" s="23"/>
       <c r="AE53" s="36"/>
@@ -11911,40 +11775,20 @@
     <row customHeight="1" ht="24.95" r="54" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A54" s="276"/>
       <c r="B54" s="276"/>
-      <c r="D54" s="34" t="s">
-        <v>257</v>
-      </c>
-      <c r="E54" s="34" t="s">
-        <v>248</v>
-      </c>
-      <c r="F54" s="252" t="n">
-        <v>0.010000000707805157</v>
-      </c>
-      <c r="G54" s="252" t="n">
-        <v>1.9444283461967515E-4</v>
-      </c>
-      <c r="H54" s="252" t="n">
-        <v>349.99710231541525</v>
-      </c>
-      <c r="I54" s="252" t="n">
-        <v>8.045910398055523E-4</v>
-      </c>
-      <c r="J54" s="252" t="s">
-        <v>249</v>
-      </c>
-      <c r="K54" s="252" t="s">
-        <v>249</v>
-      </c>
-      <c r="L54" s="252" t="s">
-        <v>249</v>
-      </c>
-      <c r="M54" s="252" t="s">
-        <v>249</v>
-      </c>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="252"/>
+      <c r="G54" s="252"/>
+      <c r="H54" s="252"/>
+      <c r="I54" s="252"/>
+      <c r="J54" s="252"/>
+      <c r="K54" s="252"/>
+      <c r="L54" s="252"/>
+      <c r="M54" s="252"/>
       <c r="N54" s="274"/>
       <c r="P54" s="218"/>
       <c r="Q54" s="241" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="R54" s="382" t="s">
         <v>222</v>
@@ -11962,25 +11806,25 @@
         <v>30.0</v>
       </c>
       <c r="W54" s="382" t="n">
-        <v>7.246377062983811E-4</v>
+        <v>0.004740779288113117</v>
       </c>
       <c r="X54" s="382" t="n">
-        <v>1.4492754125967622E-5</v>
+        <v>9.481558576226235E-5</v>
       </c>
       <c r="Y54" s="382" t="n">
-        <v>1.2077295104973018E-4</v>
+        <v>7.901299395598471E-4</v>
       </c>
       <c r="Z54" s="382" t="n">
-        <v>7.246377062983811E-4</v>
+        <v>0.030585428699851036</v>
       </c>
       <c r="AA54" s="382" t="n">
-        <v>1.4492754417005926E-5</v>
+        <v>6.117085576988757E-4</v>
       </c>
       <c r="AB54" s="387" t="n">
-        <v>1.207729583256878E-4</v>
+        <v>0.005097571294754744</v>
       </c>
       <c r="AC54" s="414" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AD54" s="23"/>
       <c r="AE54" s="36"/>
@@ -11999,39 +11843,19 @@
       <c r="A55" s="276"/>
       <c r="B55" s="276"/>
       <c r="D55" s="34"/>
-      <c r="E55" s="34" t="s">
-        <v>250</v>
-      </c>
-      <c r="F55" s="252" t="n">
-        <v>0.010000000707805157</v>
-      </c>
-      <c r="G55" s="252" t="n">
-        <v>2.7777779743903213E-5</v>
-      </c>
-      <c r="H55" s="252" t="n">
-        <v>27.777779743903213</v>
-      </c>
-      <c r="I55" s="252" t="n">
-        <v>6.038647770413742E-5</v>
-      </c>
-      <c r="J55" s="252" t="n">
-        <v>0.010000000707805157</v>
-      </c>
-      <c r="K55" s="252" t="n">
-        <v>2.777777990559116E-5</v>
-      </c>
-      <c r="L55" s="252" t="n">
-        <v>27.777780532836914</v>
-      </c>
-      <c r="M55" s="252" t="n">
-        <v>6.03864791628439E-5</v>
-      </c>
-      <c r="N55" s="423" t="s">
-        <v>56</v>
-      </c>
+      <c r="E55" s="34"/>
+      <c r="F55" s="252"/>
+      <c r="G55" s="252"/>
+      <c r="H55" s="252"/>
+      <c r="I55" s="252"/>
+      <c r="J55" s="252"/>
+      <c r="K55" s="252"/>
+      <c r="L55" s="252"/>
+      <c r="M55" s="252"/>
+      <c r="N55" s="274"/>
       <c r="P55" s="218"/>
       <c r="Q55" s="241" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="R55" s="382" t="s">
         <v>223</v>
@@ -12049,25 +11873,25 @@
         <v>40.0</v>
       </c>
       <c r="W55" s="382" t="n">
-        <v>0.001086956588551402</v>
+        <v>0.007111168932169676</v>
       </c>
       <c r="X55" s="382" t="n">
-        <v>2.717391471378505E-5</v>
+        <v>1.7777922330424188E-4</v>
       </c>
       <c r="Y55" s="382" t="n">
-        <v>1.3586957720690407E-5</v>
+        <v>8.888961747288704E-5</v>
       </c>
       <c r="Z55" s="382" t="n">
-        <v>0.001086956588551402</v>
+        <v>0.04587814211845398</v>
       </c>
       <c r="AA55" s="382" t="n">
-        <v>2.7173915441380814E-5</v>
+        <v>0.0011469535529613495</v>
       </c>
       <c r="AB55" s="387" t="n">
-        <v>1.3586957720690407E-5</v>
+        <v>5.734767764806747E-4</v>
       </c>
       <c r="AC55" s="415" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AD55" s="23"/>
       <c r="AE55" s="36"/>
@@ -12086,37 +11910,19 @@
       <c r="A56" s="276"/>
       <c r="B56" s="276"/>
       <c r="D56" s="34"/>
-      <c r="E56" s="34" t="s">
-        <v>251</v>
-      </c>
-      <c r="F56" s="252" t="n">
-        <v>0.010000000707805157</v>
-      </c>
-      <c r="G56" s="252" t="n">
-        <v>1.3888889871951606E-5</v>
-      </c>
-      <c r="H56" s="252" t="n">
-        <v>16.666667846341927</v>
-      </c>
-      <c r="I56" s="252" t="n">
-        <v>3.623188662248245E-5</v>
-      </c>
-      <c r="J56" s="252" t="s">
-        <v>249</v>
-      </c>
-      <c r="K56" s="252" t="s">
-        <v>249</v>
-      </c>
-      <c r="L56" s="252" t="s">
-        <v>249</v>
-      </c>
-      <c r="M56" s="252" t="s">
-        <v>249</v>
-      </c>
+      <c r="E56" s="34"/>
+      <c r="F56" s="252"/>
+      <c r="G56" s="252"/>
+      <c r="H56" s="252"/>
+      <c r="I56" s="252"/>
+      <c r="J56" s="252"/>
+      <c r="K56" s="252"/>
+      <c r="L56" s="252"/>
+      <c r="M56" s="252"/>
       <c r="N56" s="310"/>
       <c r="P56" s="218"/>
       <c r="Q56" s="241" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="R56" s="382" t="s">
         <v>224</v>
@@ -12134,25 +11940,25 @@
         <v>50.0</v>
       </c>
       <c r="W56" s="382" t="n">
-        <v>0.0014492754125967622</v>
+        <v>0.009481558576226234</v>
       </c>
       <c r="X56" s="382" t="n">
-        <v>1.4492754125967623E-4</v>
+        <v>9.481558576226234E-4</v>
       </c>
       <c r="Y56" s="382" t="n">
-        <v>2.173913235310465E-4</v>
+        <v>0.0014222338795661926</v>
       </c>
       <c r="Z56" s="382" t="n">
-        <v>0.0014492754125967622</v>
+        <v>0.06117085739970207</v>
       </c>
       <c r="AA56" s="382" t="n">
-        <v>1.4492754417005926E-4</v>
+        <v>0.006117085460573435</v>
       </c>
       <c r="AB56" s="387" t="n">
-        <v>2.173913235310465E-4</v>
+        <v>0.009175628423690796</v>
       </c>
       <c r="AC56" s="416" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AD56" s="23"/>
       <c r="AE56" s="36"/>
@@ -12170,36 +11976,16 @@
     <row customHeight="1" ht="24.95" r="57" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A57" s="276"/>
       <c r="B57" s="276"/>
-      <c r="D57" s="34" t="s">
-        <v>258</v>
-      </c>
-      <c r="E57" s="34" t="s">
-        <v>248</v>
-      </c>
-      <c r="F57" s="239" t="n">
-        <v>0.015000000596046448</v>
-      </c>
-      <c r="G57" s="239" t="n">
-        <v>2.916642428750633E-4</v>
-      </c>
-      <c r="H57" s="239" t="n">
-        <v>524.9956371751139</v>
-      </c>
-      <c r="I57" s="239" t="n">
-        <v>0.001206886522241641</v>
-      </c>
-      <c r="J57" s="240" t="s">
-        <v>249</v>
-      </c>
-      <c r="K57" s="239" t="s">
-        <v>249</v>
-      </c>
-      <c r="L57" s="239" t="s">
-        <v>249</v>
-      </c>
-      <c r="M57" s="239" t="s">
-        <v>249</v>
-      </c>
+      <c r="D57" s="34"/>
+      <c r="E57" s="34"/>
+      <c r="F57" s="239"/>
+      <c r="G57" s="239"/>
+      <c r="H57" s="239"/>
+      <c r="I57" s="239"/>
+      <c r="J57" s="240"/>
+      <c r="K57" s="239"/>
+      <c r="L57" s="239"/>
+      <c r="M57" s="239"/>
       <c r="N57" s="275"/>
       <c r="P57" s="218"/>
       <c r="Q57" s="241"/>
@@ -12232,75 +12018,55 @@
       <c r="A58" s="276"/>
       <c r="B58" s="276"/>
       <c r="D58" s="34"/>
-      <c r="E58" s="34" t="s">
-        <v>250</v>
-      </c>
-      <c r="F58" s="239" t="n">
-        <v>0.015000000596046448</v>
-      </c>
-      <c r="G58" s="239" t="n">
-        <v>4.166666832235124E-5</v>
-      </c>
-      <c r="H58" s="239" t="n">
-        <v>41.66666832235124</v>
-      </c>
-      <c r="I58" s="239" t="n">
-        <v>9.057971374424182E-5</v>
-      </c>
-      <c r="J58" s="240" t="n">
-        <v>0.015000000596046448</v>
-      </c>
-      <c r="K58" s="239" t="n">
-        <v>4.166666985838674E-5</v>
-      </c>
-      <c r="L58" s="239" t="n">
-        <v>41.66666793823242</v>
-      </c>
-      <c r="M58" s="239" t="n">
-        <v>9.057971328729764E-5</v>
-      </c>
-      <c r="N58" s="429" t="s">
-        <v>56</v>
-      </c>
+      <c r="E58" s="34"/>
+      <c r="F58" s="239"/>
+      <c r="G58" s="239"/>
+      <c r="H58" s="239"/>
+      <c r="I58" s="239"/>
+      <c r="J58" s="240"/>
+      <c r="K58" s="239"/>
+      <c r="L58" s="239"/>
+      <c r="M58" s="239"/>
+      <c r="N58" s="275"/>
       <c r="P58" s="218"/>
       <c r="Q58" s="241" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="R58" s="382" t="s">
-        <v>225</v>
+        <v>255</v>
       </c>
       <c r="S58" s="386" t="n">
-        <v>10000.0</v>
+        <v>35000.0</v>
       </c>
       <c r="T58" s="386" t="n">
-        <v>50.0</v>
+        <v>60.0</v>
       </c>
       <c r="U58" s="382" t="n">
-        <v>20.0</v>
+        <v>30.0</v>
       </c>
       <c r="V58" s="382" t="n">
-        <v>60.0</v>
+        <v>70.0</v>
       </c>
       <c r="W58" s="382" t="n">
-        <v>0.003623188240453601</v>
+        <v>0.022222038358449936</v>
       </c>
       <c r="X58" s="382" t="n">
-        <v>1.8115941202268004E-4</v>
+        <v>7.407346119483311E-4</v>
       </c>
       <c r="Y58" s="382" t="n">
-        <v>1.2077293831680436E-5</v>
+        <v>1.8518365686759353E-4</v>
       </c>
       <c r="Z58" s="382" t="n">
-        <v>0.003623188240453601</v>
+        <v>0.1433691829442978</v>
       </c>
       <c r="AA58" s="382" t="n">
-        <v>1.8115941202268004E-4</v>
+        <v>0.004778972826898098</v>
       </c>
       <c r="AB58" s="387" t="n">
-        <v>1.2077294741175137E-5</v>
+        <v>0.0011947432067245245</v>
       </c>
       <c r="AC58" s="418" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AD58" s="23"/>
       <c r="AE58" s="36"/>
@@ -12319,73 +12085,55 @@
       <c r="A59" s="276"/>
       <c r="B59" s="276"/>
       <c r="D59" s="34"/>
-      <c r="E59" s="34" t="s">
-        <v>251</v>
-      </c>
-      <c r="F59" s="239" t="n">
-        <v>0.015000000596046448</v>
-      </c>
-      <c r="G59" s="239" t="n">
-        <v>2.083333416117562E-5</v>
-      </c>
-      <c r="H59" s="239" t="n">
-        <v>25.000000993410744</v>
-      </c>
-      <c r="I59" s="239" t="n">
-        <v>5.434782824654509E-5</v>
-      </c>
-      <c r="J59" s="240" t="s">
-        <v>249</v>
-      </c>
-      <c r="K59" s="239" t="s">
-        <v>249</v>
-      </c>
-      <c r="L59" s="239" t="s">
-        <v>249</v>
-      </c>
-      <c r="M59" s="239" t="s">
-        <v>249</v>
-      </c>
+      <c r="E59" s="34"/>
+      <c r="F59" s="239"/>
+      <c r="G59" s="239"/>
+      <c r="H59" s="239"/>
+      <c r="I59" s="239"/>
+      <c r="J59" s="240"/>
+      <c r="K59" s="239"/>
+      <c r="L59" s="239"/>
+      <c r="M59" s="239"/>
       <c r="N59" s="239"/>
       <c r="P59" s="218"/>
       <c r="Q59" s="241" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="R59" s="382" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="S59" s="386" t="n">
-        <v>35000.0</v>
+        <v>25000.0</v>
       </c>
       <c r="T59" s="386" t="n">
         <v>60.0</v>
       </c>
       <c r="U59" s="382" t="n">
-        <v>30.0</v>
+        <v>40.0</v>
       </c>
       <c r="V59" s="382" t="n">
-        <v>70.0</v>
+        <v>20.0</v>
       </c>
       <c r="W59" s="382" t="n">
-        <v>0.004347825888544321</v>
+        <v>0.022222038358449936</v>
       </c>
       <c r="X59" s="382" t="n">
-        <v>1.4492752961814404E-4</v>
+        <v>5.555509589612484E-4</v>
       </c>
       <c r="Y59" s="382" t="n">
-        <v>3.623188240453601E-5</v>
+        <v>4.629591421689838E-4</v>
       </c>
       <c r="Z59" s="382" t="n">
-        <v>0.004347825888544321</v>
+        <v>0.1433691829442978</v>
       </c>
       <c r="AA59" s="382" t="n">
-        <v>1.4492752961814404E-4</v>
+        <v>0.00358422938734293</v>
       </c>
       <c r="AB59" s="387" t="n">
-        <v>3.623188240453601E-5</v>
+        <v>0.0029868579003959894</v>
       </c>
       <c r="AC59" s="419" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AD59" s="23"/>
       <c r="AE59" s="36"/>
@@ -12416,43 +12164,43 @@
       <c r="N60" s="239"/>
       <c r="P60" s="218"/>
       <c r="Q60" s="241" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="R60" s="382" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="S60" s="386" t="n">
-        <v>100000.0</v>
+        <v>75000.0</v>
       </c>
       <c r="T60" s="386" t="n">
-        <v>20.0</v>
+        <v>60.0</v>
       </c>
       <c r="U60" s="382" t="n">
-        <v>50.0</v>
+        <v>100.0</v>
       </c>
       <c r="V60" s="382" t="n">
         <v>30.0</v>
       </c>
       <c r="W60" s="382" t="n">
-        <v>0.0014492752961814404</v>
+        <v>0.022222038358449936</v>
       </c>
       <c r="X60" s="382" t="n">
-        <v>2.8985505923628808E-5</v>
+        <v>2.2222038358449937E-4</v>
       </c>
       <c r="Y60" s="382" t="n">
-        <v>2.4154588754754514E-4</v>
+        <v>9.259182843379676E-4</v>
       </c>
       <c r="Z60" s="382" t="n">
-        <v>0.0014492752961814404</v>
+        <v>0.1433691829442978</v>
       </c>
       <c r="AA60" s="382" t="n">
-        <v>2.898550701502245E-5</v>
+        <v>0.001433691824786365</v>
       </c>
       <c r="AB60" s="387" t="n">
-        <v>2.4154588754754514E-4</v>
+        <v>0.005973715800791979</v>
       </c>
       <c r="AC60" s="420" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AD60" s="23"/>
       <c r="AE60" s="36"/>
@@ -12481,43 +12229,43 @@
       <c r="N61" s="239"/>
       <c r="P61" s="218"/>
       <c r="Q61" s="241" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="R61" s="382" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="S61" s="386" t="n">
-        <v>15000.0</v>
+        <v>55000.0</v>
       </c>
       <c r="T61" s="386" t="n">
-        <v>30.0</v>
+        <v>70.0</v>
       </c>
       <c r="U61" s="382" t="n">
-        <v>40.0</v>
+        <v>120.0</v>
       </c>
       <c r="V61" s="382" t="n">
-        <v>40.0</v>
+        <v>100.0</v>
       </c>
       <c r="W61" s="382" t="n">
-        <v>0.0021739129442721605</v>
+        <v>0.025925712659955025</v>
       </c>
       <c r="X61" s="382" t="n">
-        <v>5.434782360680401E-5</v>
+        <v>2.160476054996252E-4</v>
       </c>
       <c r="Y61" s="382" t="n">
-        <v>2.7173911803402007E-5</v>
+        <v>2.0370203128550202E-4</v>
       </c>
       <c r="Z61" s="382" t="n">
-        <v>0.0021739129442721605</v>
+        <v>0.16726404428482056</v>
       </c>
       <c r="AA61" s="382" t="n">
-        <v>5.434782360680401E-5</v>
+        <v>0.0013938670745119452</v>
       </c>
       <c r="AB61" s="388" t="n">
-        <v>2.7173911803402007E-5</v>
+        <v>0.0013142174575477839</v>
       </c>
       <c r="AC61" s="421" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AD61" s="23"/>
       <c r="AE61" s="36"/>
@@ -12546,43 +12294,43 @@
       <c r="N62" s="239"/>
       <c r="P62" s="218"/>
       <c r="Q62" s="241" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="R62" s="382" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="S62" s="386" t="n">
-        <v>300000.0</v>
+        <v>100000.0</v>
       </c>
       <c r="T62" s="386" t="n">
-        <v>40.0</v>
+        <v>20.0</v>
       </c>
       <c r="U62" s="382" t="n">
-        <v>10.0</v>
+        <v>50.0</v>
       </c>
       <c r="V62" s="382" t="n">
-        <v>50.0</v>
+        <v>30.0</v>
       </c>
       <c r="W62" s="382" t="n">
-        <v>0.0028985505923628807</v>
+        <v>0.007407346274703741</v>
       </c>
       <c r="X62" s="382" t="n">
-        <v>2.8985505923628807E-4</v>
+        <v>1.481469254940748E-4</v>
       </c>
       <c r="Y62" s="382" t="n">
-        <v>4.347825888544321E-4</v>
+        <v>0.0012345577124506235</v>
       </c>
       <c r="Z62" s="382" t="n">
-        <v>0.0028985505923628807</v>
+        <v>0.04778972640633583</v>
       </c>
       <c r="AA62" s="382" t="n">
-        <v>2.8985505923628807E-4</v>
+        <v>9.55794530455023E-4</v>
       </c>
       <c r="AB62" s="388" t="n">
-        <v>4.347825888544321E-4</v>
+        <v>0.00796495471149683</v>
       </c>
       <c r="AC62" s="422" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AD62" s="23"/>
       <c r="AE62" s="36"/>
@@ -12610,19 +12358,45 @@
       <c r="M63" s="239"/>
       <c r="N63" s="239"/>
       <c r="P63" s="218"/>
-      <c r="Q63" s="241"/>
-      <c r="R63" s="382"/>
-      <c r="S63" s="386"/>
-      <c r="T63" s="386"/>
-      <c r="U63" s="382"/>
-      <c r="V63" s="382"/>
-      <c r="W63" s="382"/>
-      <c r="X63" s="382"/>
-      <c r="Y63" s="382"/>
-      <c r="Z63" s="382"/>
-      <c r="AA63" s="382"/>
-      <c r="AB63" s="388"/>
-      <c r="AC63" s="384"/>
+      <c r="Q63" s="241" t="s">
+        <v>253</v>
+      </c>
+      <c r="R63" s="382" t="s">
+        <v>223</v>
+      </c>
+      <c r="S63" s="386" t="n">
+        <v>15000.0</v>
+      </c>
+      <c r="T63" s="386" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="U63" s="382" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="V63" s="382" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="W63" s="382" t="n">
+        <v>0.011111019179224968</v>
+      </c>
+      <c r="X63" s="382" t="n">
+        <v>2.777754794806242E-4</v>
+      </c>
+      <c r="Y63" s="382" t="n">
+        <v>1.3888774265069515E-4</v>
+      </c>
+      <c r="Z63" s="382" t="n">
+        <v>0.0716845914721489</v>
+      </c>
+      <c r="AA63" s="382" t="n">
+        <v>0.001792114693671465</v>
+      </c>
+      <c r="AB63" s="388" t="n">
+        <v>8.960573468357325E-4</v>
+      </c>
+      <c r="AC63" s="423" t="s">
+        <v>59</v>
+      </c>
       <c r="AD63" s="23"/>
       <c r="AE63" s="36"/>
       <c r="AF63" s="36"/>
@@ -12650,40 +12424,40 @@
       <c r="N64" s="239"/>
       <c r="P64" s="218"/>
       <c r="Q64" s="82" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="R64" s="382" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="S64" s="389" t="n">
-        <v>10000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="T64" s="389" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="U64" s="382" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="V64" s="382" t="n">
         <v>50.0</v>
       </c>
-      <c r="U64" s="382" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="V64" s="382" t="n">
-        <v>60.0</v>
-      </c>
       <c r="W64" s="382" t="n">
-        <v>0.001811594353057444</v>
+        <v>0.014814692549407482</v>
       </c>
       <c r="X64" s="382" t="n">
-        <v>9.05797176528722E-5</v>
+        <v>0.0014814692549407482</v>
       </c>
       <c r="Y64" s="382" t="n">
-        <v>6.03864782533492E-6</v>
+        <v>0.0022222038824111223</v>
       </c>
       <c r="Z64" s="382" t="n">
-        <v>0.003019323805347085</v>
+        <v>0.09557945281267166</v>
       </c>
       <c r="AA64" s="382" t="n">
-        <v>1.5096619608812034E-4</v>
+        <v>0.009557945653796196</v>
       </c>
       <c r="AB64" s="388" t="n">
-        <v>1.0064412890642416E-5</v>
+        <v>0.01433691754937172</v>
       </c>
       <c r="AC64" s="424" t="s">
         <v>59</v>
@@ -12714,45 +12488,19 @@
       <c r="M65" s="239"/>
       <c r="N65" s="239"/>
       <c r="P65" s="218"/>
-      <c r="Q65" s="82" t="s">
-        <v>257</v>
-      </c>
-      <c r="R65" s="382" t="s">
-        <v>252</v>
-      </c>
-      <c r="S65" s="389" t="n">
-        <v>35000.0</v>
-      </c>
-      <c r="T65" s="389" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="U65" s="382" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="V65" s="382" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="W65" s="382" t="n">
-        <v>0.002173913177102804</v>
-      </c>
-      <c r="X65" s="382" t="n">
-        <v>7.246377257009347E-5</v>
-      </c>
-      <c r="Y65" s="382" t="n">
-        <v>1.8115943021257408E-5</v>
-      </c>
-      <c r="Z65" s="382" t="n">
-        <v>0.003623188706114888</v>
-      </c>
-      <c r="AA65" s="382" t="n">
-        <v>1.207729583256878E-4</v>
-      </c>
-      <c r="AB65" s="388" t="n">
-        <v>3.019323958142195E-5</v>
-      </c>
-      <c r="AC65" s="425" t="s">
-        <v>59</v>
-      </c>
+      <c r="Q65" s="82"/>
+      <c r="R65" s="382"/>
+      <c r="S65" s="389"/>
+      <c r="T65" s="389"/>
+      <c r="U65" s="382"/>
+      <c r="V65" s="382"/>
+      <c r="W65" s="382"/>
+      <c r="X65" s="382"/>
+      <c r="Y65" s="382"/>
+      <c r="Z65" s="382"/>
+      <c r="AA65" s="382"/>
+      <c r="AB65" s="388"/>
+      <c r="AC65" s="390"/>
       <c r="AE65" s="36"/>
       <c r="AF65" s="36"/>
       <c r="AG65" s="50"/>
@@ -12774,40 +12522,40 @@
       <c r="N66" s="239"/>
       <c r="P66" s="218"/>
       <c r="Q66" s="82" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R66" s="382" t="s">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="S66" s="389" t="n">
-        <v>100000.0</v>
+        <v>35000.0</v>
       </c>
       <c r="T66" s="389" t="n">
-        <v>20.0</v>
+        <v>60.0</v>
       </c>
       <c r="U66" s="382" t="n">
-        <v>50.0</v>
+        <v>30.0</v>
       </c>
       <c r="V66" s="382" t="n">
-        <v>30.0</v>
+        <v>70.0</v>
       </c>
       <c r="W66" s="382" t="n">
-        <v>7.246377062983811E-4</v>
+        <v>0.011111019179224968</v>
       </c>
       <c r="X66" s="382" t="n">
-        <v>1.4492754125967622E-5</v>
+        <v>3.703673059741656E-4</v>
       </c>
       <c r="Y66" s="382" t="n">
-        <v>1.2077295104973018E-4</v>
+        <v>9.259182843379676E-5</v>
       </c>
       <c r="Z66" s="382" t="n">
-        <v>0.0012077295687049627</v>
+        <v>0.0716845914721489</v>
       </c>
       <c r="AA66" s="382" t="n">
-        <v>2.415459130133968E-5</v>
+        <v>0.002389486413449049</v>
       </c>
       <c r="AB66" s="388" t="n">
-        <v>2.0128826145082712E-4</v>
+        <v>5.973716033622622E-4</v>
       </c>
       <c r="AC66" s="426" t="s">
         <v>59</v>
@@ -12833,40 +12581,40 @@
       <c r="N67" s="239"/>
       <c r="P67" s="218"/>
       <c r="Q67" s="82" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R67" s="382" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="S67" s="389" t="n">
-        <v>15000.0</v>
+        <v>25000.0</v>
       </c>
       <c r="T67" s="389" t="n">
-        <v>30.0</v>
+        <v>60.0</v>
       </c>
       <c r="U67" s="382" t="n">
         <v>40.0</v>
       </c>
       <c r="V67" s="382" t="n">
-        <v>40.0</v>
+        <v>20.0</v>
       </c>
       <c r="W67" s="382" t="n">
-        <v>0.001086956588551402</v>
+        <v>0.011111019179224968</v>
       </c>
       <c r="X67" s="382" t="n">
-        <v>2.717391471378505E-5</v>
+        <v>2.777754794806242E-4</v>
       </c>
       <c r="Y67" s="382" t="n">
-        <v>1.3586957720690407E-5</v>
+        <v>2.314795710844919E-4</v>
       </c>
       <c r="Z67" s="382" t="n">
-        <v>0.001811594353057444</v>
+        <v>0.0716845914721489</v>
       </c>
       <c r="AA67" s="382" t="n">
-        <v>4.528985664364882E-5</v>
+        <v>0.001792114693671465</v>
       </c>
       <c r="AB67" s="388" t="n">
-        <v>2.264492832182441E-5</v>
+        <v>0.0014934289501979947</v>
       </c>
       <c r="AC67" s="427" t="s">
         <v>59</v>
@@ -12892,40 +12640,40 @@
       <c r="N68" s="239"/>
       <c r="P68" s="218"/>
       <c r="Q68" s="82" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R68" s="382" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="S68" s="389" t="n">
-        <v>300000.0</v>
+        <v>75000.0</v>
       </c>
       <c r="T68" s="389" t="n">
-        <v>40.0</v>
+        <v>60.0</v>
       </c>
       <c r="U68" s="382" t="n">
-        <v>10.0</v>
+        <v>100.0</v>
       </c>
       <c r="V68" s="382" t="n">
-        <v>50.0</v>
+        <v>30.0</v>
       </c>
       <c r="W68" s="382" t="n">
-        <v>0.0014492754125967622</v>
+        <v>0.011111019179224968</v>
       </c>
       <c r="X68" s="382" t="n">
-        <v>1.4492754125967623E-4</v>
+        <v>1.1111019179224968E-4</v>
       </c>
       <c r="Y68" s="382" t="n">
-        <v>2.173913235310465E-4</v>
+        <v>4.629591421689838E-4</v>
       </c>
       <c r="Z68" s="382" t="n">
-        <v>0.0024154591374099255</v>
+        <v>0.0716845914721489</v>
       </c>
       <c r="AA68" s="382" t="n">
-        <v>2.415459166513756E-4</v>
+        <v>7.168459123931825E-4</v>
       </c>
       <c r="AB68" s="388" t="n">
-        <v>3.6231885314919055E-4</v>
+        <v>0.0029868579003959894</v>
       </c>
       <c r="AC68" s="428" t="s">
         <v>59</v>
@@ -12950,19 +12698,45 @@
       <c r="M69" s="239"/>
       <c r="N69" s="239"/>
       <c r="P69" s="218"/>
-      <c r="Q69" s="82"/>
-      <c r="R69" s="382"/>
-      <c r="S69" s="389"/>
-      <c r="T69" s="389"/>
-      <c r="U69" s="382"/>
-      <c r="V69" s="382"/>
-      <c r="W69" s="382"/>
-      <c r="X69" s="382"/>
-      <c r="Y69" s="382"/>
-      <c r="Z69" s="382"/>
-      <c r="AA69" s="382"/>
-      <c r="AB69" s="388"/>
-      <c r="AC69" s="390"/>
+      <c r="Q69" s="82" t="s">
+        <v>256</v>
+      </c>
+      <c r="R69" s="382" t="s">
+        <v>251</v>
+      </c>
+      <c r="S69" s="389" t="n">
+        <v>55000.0</v>
+      </c>
+      <c r="T69" s="389" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="U69" s="382" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="V69" s="382" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="W69" s="382" t="n">
+        <v>0.012962856329977512</v>
+      </c>
+      <c r="X69" s="382" t="n">
+        <v>1.080238027498126E-4</v>
+      </c>
+      <c r="Y69" s="382" t="n">
+        <v>1.0185101564275101E-4</v>
+      </c>
+      <c r="Z69" s="382" t="n">
+        <v>0.08363202214241028</v>
+      </c>
+      <c r="AA69" s="382" t="n">
+        <v>6.969335372559726E-4</v>
+      </c>
+      <c r="AB69" s="388" t="n">
+        <v>6.571087287738919E-4</v>
+      </c>
+      <c r="AC69" s="429" t="s">
+        <v>59</v>
+      </c>
       <c r="AE69" s="36"/>
       <c r="AF69" s="36"/>
       <c r="AG69" s="50"/>
@@ -12984,40 +12758,40 @@
       <c r="N70" s="239"/>
       <c r="P70" s="218"/>
       <c r="Q70" s="82" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="R70" s="382" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="S70" s="389" t="n">
-        <v>10000.0</v>
+        <v>100000.0</v>
       </c>
       <c r="T70" s="389" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="U70" s="382" t="n">
         <v>50.0</v>
       </c>
-      <c r="U70" s="382" t="n">
-        <v>20.0</v>
-      </c>
       <c r="V70" s="382" t="n">
-        <v>60.0</v>
+        <v>30.0</v>
       </c>
       <c r="W70" s="382" t="n">
-        <v>0.0027173913549631834</v>
+        <v>0.0037036731373518705</v>
       </c>
       <c r="X70" s="382" t="n">
-        <v>1.3586956774815916E-4</v>
+        <v>7.40734627470374E-5</v>
       </c>
       <c r="Y70" s="382" t="n">
-        <v>9.057970601134002E-6</v>
+        <v>6.172788562253118E-4</v>
       </c>
       <c r="Z70" s="382" t="n">
-        <v>0.004528985824435949</v>
+        <v>0.023894863203167915</v>
       </c>
       <c r="AA70" s="382" t="n">
-        <v>2.2644927958026528E-4</v>
+        <v>4.778972652275115E-4</v>
       </c>
       <c r="AB70" s="388" t="n">
-        <v>1.5096618881216273E-5</v>
+        <v>0.003982477355748415</v>
       </c>
       <c r="AC70" s="430" t="s">
         <v>59</v>
@@ -13043,40 +12817,40 @@
       <c r="N71" s="239"/>
       <c r="P71" s="218"/>
       <c r="Q71" s="82" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="R71" s="382" t="s">
-        <v>252</v>
+        <v>223</v>
       </c>
       <c r="S71" s="389" t="n">
-        <v>35000.0</v>
+        <v>15000.0</v>
       </c>
       <c r="T71" s="389" t="n">
-        <v>60.0</v>
+        <v>30.0</v>
       </c>
       <c r="U71" s="382" t="n">
-        <v>30.0</v>
+        <v>40.0</v>
       </c>
       <c r="V71" s="382" t="n">
-        <v>70.0</v>
+        <v>40.0</v>
       </c>
       <c r="W71" s="382" t="n">
-        <v>0.0032608695328235626</v>
+        <v>0.005555509589612484</v>
       </c>
       <c r="X71" s="382" t="n">
-        <v>1.0869565109411875E-4</v>
+        <v>1.388877397403121E-4</v>
       </c>
       <c r="Y71" s="382" t="n">
-        <v>2.717391362239141E-5</v>
+        <v>6.944387132534757E-5</v>
       </c>
       <c r="Z71" s="382" t="n">
-        <v>0.005434782709926367</v>
+        <v>0.03584229573607445</v>
       </c>
       <c r="AA71" s="382" t="n">
-        <v>1.8115942657459527E-4</v>
+        <v>8.960573468357325E-4</v>
       </c>
       <c r="AB71" s="388" t="n">
-        <v>4.528985664364882E-5</v>
+        <v>4.4802867341786623E-4</v>
       </c>
       <c r="AC71" s="431" t="s">
         <v>59</v>
@@ -13102,40 +12876,40 @@
       <c r="N72" s="239"/>
       <c r="P72" s="218"/>
       <c r="Q72" s="82" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="R72" s="382" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="S72" s="389" t="n">
-        <v>100000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="T72" s="389" t="n">
-        <v>20.0</v>
+        <v>40.0</v>
       </c>
       <c r="U72" s="382" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="V72" s="382" t="n">
         <v>50.0</v>
       </c>
-      <c r="V72" s="382" t="n">
-        <v>30.0</v>
-      </c>
       <c r="W72" s="382" t="n">
-        <v>0.001086956588551402</v>
+        <v>0.007407346274703741</v>
       </c>
       <c r="X72" s="382" t="n">
-        <v>2.1739131771028042E-5</v>
+        <v>7.407346274703741E-4</v>
       </c>
       <c r="Y72" s="382" t="n">
-        <v>1.8115941202268004E-4</v>
+        <v>0.0011111019412055612</v>
       </c>
       <c r="Z72" s="382" t="n">
-        <v>0.0018115942366421223</v>
+        <v>0.04778972640633583</v>
       </c>
       <c r="AA72" s="382" t="n">
-        <v>3.6231886042514816E-5</v>
+        <v>0.004778972826898098</v>
       </c>
       <c r="AB72" s="388" t="n">
-        <v>3.019323921762407E-4</v>
+        <v>0.00716845877468586</v>
       </c>
       <c r="AC72" s="432" t="s">
         <v>59</v>
@@ -13160,45 +12934,19 @@
       <c r="M73" s="239"/>
       <c r="N73" s="239"/>
       <c r="P73" s="218"/>
-      <c r="Q73" s="82" t="s">
-        <v>258</v>
-      </c>
-      <c r="R73" s="382" t="s">
-        <v>223</v>
-      </c>
-      <c r="S73" s="389" t="n">
-        <v>15000.0</v>
-      </c>
-      <c r="T73" s="389" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="U73" s="382" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="V73" s="382" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="W73" s="382" t="n">
-        <v>0.0016304347664117813</v>
-      </c>
-      <c r="X73" s="382" t="n">
-        <v>4.0760869160294534E-5</v>
-      </c>
-      <c r="Y73" s="382" t="n">
-        <v>2.038043567154091E-5</v>
-      </c>
-      <c r="Z73" s="382" t="n">
-        <v>0.0027173913549631834</v>
-      </c>
-      <c r="AA73" s="382" t="n">
-        <v>6.793478678446263E-5</v>
-      </c>
-      <c r="AB73" s="388" t="n">
-        <v>3.3967393392231315E-5</v>
-      </c>
-      <c r="AC73" s="433" t="s">
-        <v>59</v>
-      </c>
+      <c r="Q73" s="82"/>
+      <c r="R73" s="382"/>
+      <c r="S73" s="389"/>
+      <c r="T73" s="389"/>
+      <c r="U73" s="382"/>
+      <c r="V73" s="382"/>
+      <c r="W73" s="382"/>
+      <c r="X73" s="382"/>
+      <c r="Y73" s="382"/>
+      <c r="Z73" s="382"/>
+      <c r="AA73" s="382"/>
+      <c r="AB73" s="388"/>
+      <c r="AC73" s="390"/>
       <c r="AE73" s="36"/>
       <c r="AF73" s="36"/>
       <c r="AG73" s="50"/>
@@ -13221,45 +12969,19 @@
       <c r="M74" s="50"/>
       <c r="N74" s="50"/>
       <c r="P74" s="218"/>
-      <c r="Q74" s="82" t="s">
-        <v>258</v>
-      </c>
-      <c r="R74" s="382" t="s">
-        <v>224</v>
-      </c>
-      <c r="S74" s="389" t="n">
-        <v>300000.0</v>
-      </c>
-      <c r="T74" s="389" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="U74" s="382" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="V74" s="382" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="W74" s="382" t="n">
-        <v>0.002173913177102804</v>
-      </c>
-      <c r="X74" s="382" t="n">
-        <v>2.173913177102804E-4</v>
-      </c>
-      <c r="Y74" s="382" t="n">
-        <v>3.2608697074465454E-4</v>
-      </c>
-      <c r="Z74" s="382" t="n">
-        <v>0.0036231884732842445</v>
-      </c>
-      <c r="AA74" s="382" t="n">
-        <v>3.6231885314919055E-4</v>
-      </c>
-      <c r="AB74" s="388" t="n">
-        <v>5.43478294275701E-4</v>
-      </c>
-      <c r="AC74" s="434" t="s">
-        <v>59</v>
-      </c>
+      <c r="Q74" s="82"/>
+      <c r="R74" s="382"/>
+      <c r="S74" s="389"/>
+      <c r="T74" s="389"/>
+      <c r="U74" s="382"/>
+      <c r="V74" s="382"/>
+      <c r="W74" s="382"/>
+      <c r="X74" s="382"/>
+      <c r="Y74" s="382"/>
+      <c r="Z74" s="382"/>
+      <c r="AA74" s="382"/>
+      <c r="AB74" s="388"/>
+      <c r="AC74" s="390"/>
       <c r="AE74" s="36"/>
       <c r="AF74" s="36"/>
       <c r="AG74" s="50"/>

--- a/eResidue_CV_eDocs/bin/Test Data/eResidue_eDocs_TestCase_result.xlsx
+++ b/eResidue_CV_eDocs/bin/Test Data/eResidue_eDocs_TestCase_result.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="152">
   <si>
     <t>Testcase_id</t>
   </si>
@@ -493,28 +493,40 @@
     <t>Preferential Transfer</t>
   </si>
   <si>
-    <t>EPref2</t>
-  </si>
-  <si>
-    <t>EPref1</t>
+    <t>Product/ Sample/ Solid1 API1</t>
+  </si>
+  <si>
+    <t>Product/ Sample/Solid</t>
   </si>
   <si>
     <t>NA</t>
   </si>
   <si>
-    <t>E1</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>E2</t>
-  </si>
-  <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>E4</t>
+    <t>Product/Sample/Solid4</t>
+  </si>
+  <si>
+    <t>Product/Sample/Solid3</t>
+  </si>
+  <si>
+    <t>Equipment/ Sample3</t>
+  </si>
+  <si>
+    <t>Equipment / sample1</t>
+  </si>
+  <si>
+    <t>Equipment/ sample2</t>
+  </si>
+  <si>
+    <t>Product/ Sample/ Solid1</t>
+  </si>
+  <si>
+    <t>Product/ Sample/Solid API1</t>
+  </si>
+  <si>
+    <t>Product/Sample/Solid4 API1</t>
+  </si>
+  <si>
+    <t>Product/Sample/Solid3 API1</t>
   </si>
 </sst>
 </file>
@@ -522,7 +534,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="113" x14ac:knownFonts="1">
+  <fonts count="108" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1125,31 +1137,6 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1311,7 +1298,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="280">
+  <cellXfs count="275">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
@@ -1748,29 +1735,32 @@
     <xf applyAlignment="1" applyBorder="1" borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="8" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="75" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="5" fillId="2" fontId="21" numFmtId="3" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="6" fillId="2" fontId="21" numFmtId="3" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="9" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="2" fontId="21" numFmtId="3" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="5" fillId="5" fontId="21" numFmtId="3" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="6" fillId="5" fontId="21" numFmtId="3" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="5" fontId="21" numFmtId="3" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="8" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="10" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="6" fillId="0" fontId="10" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="10" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="3" fontId="11" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="11" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="14" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -1781,7 +1771,13 @@
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="14" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="8" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="7" fillId="0" fontId="8" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="3" fillId="0" fontId="8" numFmtId="49" xfId="0">
@@ -1811,53 +1807,29 @@
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="75" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="9" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="5" fillId="2" fontId="21" numFmtId="3" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="10" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="6" fillId="2" fontId="21" numFmtId="3" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="6" fillId="0" fontId="10" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="2" fontId="21" numFmtId="3" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="10" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="5" fillId="5" fontId="21" numFmtId="3" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="3" fontId="11" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="6" fillId="5" fontId="21" numFmtId="3" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="11" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="5" fontId="21" numFmtId="3" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="8" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3744,8 +3716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW434"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB39" workbookViewId="0" zoomScale="50" zoomScaleNormal="50">
-      <selection activeCell="AM42" sqref="AM42"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0" zoomScale="50" zoomScaleNormal="50">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -3794,15 +3766,15 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="39" r="1" spans="1:48" x14ac:dyDescent="0.5">
-      <c r="F1" s="248" t="s">
+      <c r="F1" s="269" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="248"/>
-      <c r="H1" s="248"/>
-      <c r="I1" s="248"/>
-      <c r="J1" s="248"/>
-      <c r="K1" s="248"/>
-      <c r="L1" s="248"/>
+      <c r="G1" s="269"/>
+      <c r="H1" s="269"/>
+      <c r="I1" s="269"/>
+      <c r="J1" s="269"/>
+      <c r="K1" s="269"/>
+      <c r="L1" s="269"/>
       <c r="U1" s="20" t="s">
         <v>53</v>
       </c>
@@ -3851,22 +3823,22 @@
       <c r="L5" s="21"/>
     </row>
     <row customHeight="1" ht="36.75" r="6" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="D6" s="249" t="s">
+      <c r="D6" s="270" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="250"/>
-      <c r="F6" s="250"/>
-      <c r="G6" s="250"/>
-      <c r="H6" s="251"/>
+      <c r="E6" s="271"/>
+      <c r="F6" s="271"/>
+      <c r="G6" s="271"/>
+      <c r="H6" s="272"/>
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
-      <c r="M6" s="249" t="s">
+      <c r="M6" s="270" t="s">
         <v>56</v>
       </c>
-      <c r="N6" s="250"/>
-      <c r="O6" s="250"/>
-      <c r="P6" s="250"/>
-      <c r="Q6" s="251"/>
+      <c r="N6" s="271"/>
+      <c r="O6" s="271"/>
+      <c r="P6" s="271"/>
+      <c r="Q6" s="272"/>
     </row>
     <row customHeight="1" ht="76.5" r="7" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A7" s="22" t="s">
@@ -3884,10 +3856,10 @@
       <c r="E7" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="252" t="s">
+      <c r="F7" s="273" t="s">
         <v>62</v>
       </c>
-      <c r="G7" s="253"/>
+      <c r="G7" s="274"/>
       <c r="H7" s="22" t="s">
         <v>63</v>
       </c>
@@ -3910,10 +3882,10 @@
         <v>69</v>
       </c>
       <c r="O7" s="27"/>
-      <c r="P7" s="252" t="s">
+      <c r="P7" s="273" t="s">
         <v>70</v>
       </c>
-      <c r="Q7" s="253"/>
+      <c r="Q7" s="274"/>
       <c r="R7" s="28" t="s">
         <v>64</v>
       </c>
@@ -3981,7 +3953,7 @@
     </row>
     <row customHeight="1" ht="24.95" r="9" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A9" s="37"/>
-      <c r="B9" s="254"/>
+      <c r="B9" s="255"/>
       <c r="C9" s="38"/>
       <c r="D9" s="38"/>
       <c r="E9" s="38"/>
@@ -3992,15 +3964,15 @@
       <c r="J9" s="34"/>
       <c r="K9" s="34"/>
       <c r="L9" s="40"/>
-      <c r="M9" s="246"/>
-      <c r="N9" s="258"/>
-      <c r="O9" s="246"/>
-      <c r="P9" s="246"/>
-      <c r="Q9" s="246"/>
-      <c r="R9" s="246"/>
-      <c r="S9" s="246"/>
-      <c r="T9" s="261"/>
-      <c r="U9" s="246"/>
+      <c r="M9" s="258"/>
+      <c r="N9" s="261"/>
+      <c r="O9" s="258"/>
+      <c r="P9" s="258"/>
+      <c r="Q9" s="258"/>
+      <c r="R9" s="258"/>
+      <c r="S9" s="258"/>
+      <c r="T9" s="264"/>
+      <c r="U9" s="258"/>
       <c r="V9" s="39"/>
       <c r="W9" s="34"/>
       <c r="X9" s="34"/>
@@ -4010,7 +3982,7 @@
     </row>
     <row customHeight="1" ht="24.95" r="10" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A10" s="38"/>
-      <c r="B10" s="255"/>
+      <c r="B10" s="256"/>
       <c r="C10" s="38"/>
       <c r="D10" s="38"/>
       <c r="E10" s="38"/>
@@ -4021,15 +3993,15 @@
       <c r="J10" s="34"/>
       <c r="K10" s="34"/>
       <c r="L10" s="40"/>
-      <c r="M10" s="257"/>
-      <c r="N10" s="259"/>
-      <c r="O10" s="257"/>
-      <c r="P10" s="257"/>
-      <c r="Q10" s="257"/>
-      <c r="R10" s="257"/>
-      <c r="S10" s="257"/>
-      <c r="T10" s="262"/>
-      <c r="U10" s="257"/>
+      <c r="M10" s="259"/>
+      <c r="N10" s="262"/>
+      <c r="O10" s="259"/>
+      <c r="P10" s="259"/>
+      <c r="Q10" s="259"/>
+      <c r="R10" s="259"/>
+      <c r="S10" s="259"/>
+      <c r="T10" s="265"/>
+      <c r="U10" s="259"/>
       <c r="V10" s="39"/>
       <c r="W10" s="34"/>
       <c r="X10" s="34"/>
@@ -4037,8 +4009,8 @@
       <c r="AK10" s="44"/>
     </row>
     <row customHeight="1" ht="24.95" r="11" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A11" s="246"/>
-      <c r="B11" s="255"/>
+      <c r="A11" s="258"/>
+      <c r="B11" s="256"/>
       <c r="C11" s="38"/>
       <c r="D11" s="38"/>
       <c r="E11" s="38"/>
@@ -4049,15 +4021,15 @@
       <c r="J11" s="34"/>
       <c r="K11" s="34"/>
       <c r="L11" s="40"/>
-      <c r="M11" s="257"/>
-      <c r="N11" s="259"/>
-      <c r="O11" s="257"/>
-      <c r="P11" s="257"/>
-      <c r="Q11" s="257"/>
-      <c r="R11" s="257"/>
-      <c r="S11" s="257"/>
-      <c r="T11" s="262"/>
-      <c r="U11" s="257"/>
+      <c r="M11" s="259"/>
+      <c r="N11" s="262"/>
+      <c r="O11" s="259"/>
+      <c r="P11" s="259"/>
+      <c r="Q11" s="259"/>
+      <c r="R11" s="259"/>
+      <c r="S11" s="259"/>
+      <c r="T11" s="265"/>
+      <c r="U11" s="259"/>
       <c r="V11" s="39"/>
       <c r="W11" s="34"/>
       <c r="X11" s="34"/>
@@ -4067,8 +4039,8 @@
       <c r="AV11" s="54"/>
     </row>
     <row customHeight="1" ht="24.95" r="12" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A12" s="247"/>
-      <c r="B12" s="256"/>
+      <c r="A12" s="260"/>
+      <c r="B12" s="257"/>
       <c r="C12" s="38"/>
       <c r="D12" s="38"/>
       <c r="E12" s="38"/>
@@ -4079,15 +4051,15 @@
       <c r="J12" s="34"/>
       <c r="K12" s="34"/>
       <c r="L12" s="40"/>
-      <c r="M12" s="247"/>
-      <c r="N12" s="260"/>
-      <c r="O12" s="247"/>
-      <c r="P12" s="247"/>
-      <c r="Q12" s="247"/>
-      <c r="R12" s="247"/>
-      <c r="S12" s="247"/>
-      <c r="T12" s="263"/>
-      <c r="U12" s="247"/>
+      <c r="M12" s="260"/>
+      <c r="N12" s="263"/>
+      <c r="O12" s="260"/>
+      <c r="P12" s="260"/>
+      <c r="Q12" s="260"/>
+      <c r="R12" s="260"/>
+      <c r="S12" s="260"/>
+      <c r="T12" s="266"/>
+      <c r="U12" s="260"/>
       <c r="V12" s="39"/>
       <c r="W12" s="34"/>
       <c r="X12" s="34"/>
@@ -4096,7 +4068,7 @@
     </row>
     <row customHeight="1" ht="24.95" r="13" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A13" s="41"/>
-      <c r="B13" s="254"/>
+      <c r="B13" s="255"/>
       <c r="C13" s="38"/>
       <c r="D13" s="38"/>
       <c r="E13" s="38"/>
@@ -4107,15 +4079,15 @@
       <c r="J13" s="34"/>
       <c r="K13" s="34"/>
       <c r="L13" s="40"/>
-      <c r="M13" s="246"/>
-      <c r="N13" s="258"/>
-      <c r="O13" s="246"/>
-      <c r="P13" s="246"/>
-      <c r="Q13" s="246"/>
-      <c r="R13" s="246"/>
-      <c r="S13" s="246"/>
-      <c r="T13" s="261"/>
-      <c r="U13" s="246"/>
+      <c r="M13" s="258"/>
+      <c r="N13" s="261"/>
+      <c r="O13" s="258"/>
+      <c r="P13" s="258"/>
+      <c r="Q13" s="258"/>
+      <c r="R13" s="258"/>
+      <c r="S13" s="258"/>
+      <c r="T13" s="264"/>
+      <c r="U13" s="258"/>
       <c r="V13" s="39"/>
       <c r="W13" s="34"/>
       <c r="X13" s="34"/>
@@ -4124,7 +4096,7 @@
     </row>
     <row customHeight="1" ht="24.95" r="14" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A14" s="42"/>
-      <c r="B14" s="255"/>
+      <c r="B14" s="256"/>
       <c r="C14" s="38"/>
       <c r="D14" s="38"/>
       <c r="E14" s="38"/>
@@ -4135,15 +4107,15 @@
       <c r="J14" s="34"/>
       <c r="K14" s="34"/>
       <c r="L14" s="40"/>
-      <c r="M14" s="257"/>
-      <c r="N14" s="259"/>
-      <c r="O14" s="257"/>
-      <c r="P14" s="257"/>
-      <c r="Q14" s="257"/>
-      <c r="R14" s="257"/>
-      <c r="S14" s="257"/>
-      <c r="T14" s="262"/>
-      <c r="U14" s="257"/>
+      <c r="M14" s="259"/>
+      <c r="N14" s="262"/>
+      <c r="O14" s="259"/>
+      <c r="P14" s="259"/>
+      <c r="Q14" s="259"/>
+      <c r="R14" s="259"/>
+      <c r="S14" s="259"/>
+      <c r="T14" s="265"/>
+      <c r="U14" s="259"/>
       <c r="V14" s="39"/>
       <c r="W14" s="34"/>
       <c r="X14" s="34"/>
@@ -4151,8 +4123,8 @@
       <c r="AU14" s="59"/>
     </row>
     <row customHeight="1" ht="24.95" r="15" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A15" s="264"/>
-      <c r="B15" s="255"/>
+      <c r="A15" s="267"/>
+      <c r="B15" s="256"/>
       <c r="C15" s="38"/>
       <c r="D15" s="38"/>
       <c r="E15" s="38"/>
@@ -4163,15 +4135,15 @@
       <c r="J15" s="34"/>
       <c r="K15" s="34"/>
       <c r="L15" s="40"/>
-      <c r="M15" s="257"/>
-      <c r="N15" s="259"/>
-      <c r="O15" s="257"/>
-      <c r="P15" s="257"/>
-      <c r="Q15" s="257"/>
-      <c r="R15" s="257"/>
-      <c r="S15" s="257"/>
-      <c r="T15" s="262"/>
-      <c r="U15" s="257"/>
+      <c r="M15" s="259"/>
+      <c r="N15" s="262"/>
+      <c r="O15" s="259"/>
+      <c r="P15" s="259"/>
+      <c r="Q15" s="259"/>
+      <c r="R15" s="259"/>
+      <c r="S15" s="259"/>
+      <c r="T15" s="265"/>
+      <c r="U15" s="259"/>
       <c r="V15" s="39"/>
       <c r="W15" s="34"/>
       <c r="X15" s="34"/>
@@ -4179,8 +4151,8 @@
       <c r="AU15" s="44"/>
     </row>
     <row customHeight="1" ht="24.95" r="16" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A16" s="265"/>
-      <c r="B16" s="256"/>
+      <c r="A16" s="268"/>
+      <c r="B16" s="257"/>
       <c r="C16" s="38"/>
       <c r="D16" s="38"/>
       <c r="E16" s="38"/>
@@ -4191,15 +4163,15 @@
       <c r="J16" s="34"/>
       <c r="K16" s="34"/>
       <c r="L16" s="40"/>
-      <c r="M16" s="247"/>
-      <c r="N16" s="260"/>
-      <c r="O16" s="247"/>
-      <c r="P16" s="247"/>
-      <c r="Q16" s="247"/>
-      <c r="R16" s="247"/>
-      <c r="S16" s="247"/>
-      <c r="T16" s="263"/>
-      <c r="U16" s="247"/>
+      <c r="M16" s="260"/>
+      <c r="N16" s="263"/>
+      <c r="O16" s="260"/>
+      <c r="P16" s="260"/>
+      <c r="Q16" s="260"/>
+      <c r="R16" s="260"/>
+      <c r="S16" s="260"/>
+      <c r="T16" s="266"/>
+      <c r="U16" s="260"/>
       <c r="V16" s="39"/>
       <c r="W16" s="34"/>
       <c r="X16" s="34"/>
@@ -4208,7 +4180,7 @@
     </row>
     <row customHeight="1" ht="24.95" r="17" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A17" s="37"/>
-      <c r="B17" s="254"/>
+      <c r="B17" s="255"/>
       <c r="C17" s="38"/>
       <c r="D17" s="38"/>
       <c r="E17" s="38"/>
@@ -4219,15 +4191,15 @@
       <c r="J17" s="34"/>
       <c r="K17" s="34"/>
       <c r="L17" s="40"/>
-      <c r="M17" s="246"/>
-      <c r="N17" s="258"/>
-      <c r="O17" s="246"/>
-      <c r="P17" s="246"/>
-      <c r="Q17" s="246"/>
-      <c r="R17" s="246"/>
-      <c r="S17" s="246"/>
-      <c r="T17" s="261"/>
-      <c r="U17" s="246"/>
+      <c r="M17" s="258"/>
+      <c r="N17" s="261"/>
+      <c r="O17" s="258"/>
+      <c r="P17" s="258"/>
+      <c r="Q17" s="258"/>
+      <c r="R17" s="258"/>
+      <c r="S17" s="258"/>
+      <c r="T17" s="264"/>
+      <c r="U17" s="258"/>
       <c r="V17" s="39"/>
       <c r="W17" s="34"/>
       <c r="X17" s="34"/>
@@ -4236,7 +4208,7 @@
     </row>
     <row customHeight="1" ht="24.95" r="18" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A18" s="38"/>
-      <c r="B18" s="255"/>
+      <c r="B18" s="256"/>
       <c r="C18" s="38"/>
       <c r="D18" s="38"/>
       <c r="E18" s="38"/>
@@ -4247,22 +4219,22 @@
       <c r="J18" s="34"/>
       <c r="K18" s="34"/>
       <c r="L18" s="40"/>
-      <c r="M18" s="257"/>
-      <c r="N18" s="259"/>
-      <c r="O18" s="257"/>
-      <c r="P18" s="257"/>
-      <c r="Q18" s="257"/>
-      <c r="R18" s="257"/>
-      <c r="S18" s="257"/>
-      <c r="T18" s="262"/>
-      <c r="U18" s="257"/>
+      <c r="M18" s="259"/>
+      <c r="N18" s="262"/>
+      <c r="O18" s="259"/>
+      <c r="P18" s="259"/>
+      <c r="Q18" s="259"/>
+      <c r="R18" s="259"/>
+      <c r="S18" s="259"/>
+      <c r="T18" s="265"/>
+      <c r="U18" s="259"/>
       <c r="V18" s="39"/>
       <c r="W18" s="34"/>
       <c r="X18" s="34"/>
     </row>
     <row customHeight="1" ht="24.95" r="19" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A19" s="246"/>
-      <c r="B19" s="255"/>
+      <c r="A19" s="258"/>
+      <c r="B19" s="256"/>
       <c r="C19" s="38"/>
       <c r="D19" s="38"/>
       <c r="E19" s="38"/>
@@ -4273,22 +4245,22 @@
       <c r="J19" s="34"/>
       <c r="K19" s="34"/>
       <c r="L19" s="40"/>
-      <c r="M19" s="257"/>
-      <c r="N19" s="259"/>
-      <c r="O19" s="257"/>
-      <c r="P19" s="257"/>
-      <c r="Q19" s="257"/>
-      <c r="R19" s="257"/>
-      <c r="S19" s="257"/>
-      <c r="T19" s="262"/>
-      <c r="U19" s="257"/>
+      <c r="M19" s="259"/>
+      <c r="N19" s="262"/>
+      <c r="O19" s="259"/>
+      <c r="P19" s="259"/>
+      <c r="Q19" s="259"/>
+      <c r="R19" s="259"/>
+      <c r="S19" s="259"/>
+      <c r="T19" s="265"/>
+      <c r="U19" s="259"/>
       <c r="V19" s="39"/>
       <c r="W19" s="34"/>
       <c r="X19" s="34"/>
     </row>
     <row customHeight="1" ht="24.95" r="20" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A20" s="247"/>
-      <c r="B20" s="256"/>
+      <c r="A20" s="260"/>
+      <c r="B20" s="257"/>
       <c r="C20" s="38"/>
       <c r="D20" s="38"/>
       <c r="E20" s="38"/>
@@ -4299,22 +4271,22 @@
       <c r="J20" s="34"/>
       <c r="K20" s="34"/>
       <c r="L20" s="40"/>
-      <c r="M20" s="247"/>
-      <c r="N20" s="260"/>
-      <c r="O20" s="247"/>
-      <c r="P20" s="247"/>
-      <c r="Q20" s="247"/>
-      <c r="R20" s="247"/>
-      <c r="S20" s="247"/>
-      <c r="T20" s="263"/>
-      <c r="U20" s="247"/>
+      <c r="M20" s="260"/>
+      <c r="N20" s="263"/>
+      <c r="O20" s="260"/>
+      <c r="P20" s="260"/>
+      <c r="Q20" s="260"/>
+      <c r="R20" s="260"/>
+      <c r="S20" s="260"/>
+      <c r="T20" s="266"/>
+      <c r="U20" s="260"/>
       <c r="V20" s="39"/>
       <c r="W20" s="34"/>
       <c r="X20" s="34"/>
     </row>
     <row customHeight="1" ht="24.95" r="21" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A21" s="37"/>
-      <c r="B21" s="254"/>
+      <c r="B21" s="255"/>
       <c r="C21" s="38"/>
       <c r="D21" s="38"/>
       <c r="E21" s="38"/>
@@ -4325,22 +4297,22 @@
       <c r="J21" s="34"/>
       <c r="K21" s="34"/>
       <c r="L21" s="40"/>
-      <c r="M21" s="246"/>
-      <c r="N21" s="258"/>
-      <c r="O21" s="246"/>
-      <c r="P21" s="246"/>
-      <c r="Q21" s="246"/>
-      <c r="R21" s="246"/>
-      <c r="S21" s="246"/>
-      <c r="T21" s="261"/>
-      <c r="U21" s="246"/>
+      <c r="M21" s="258"/>
+      <c r="N21" s="261"/>
+      <c r="O21" s="258"/>
+      <c r="P21" s="258"/>
+      <c r="Q21" s="258"/>
+      <c r="R21" s="258"/>
+      <c r="S21" s="258"/>
+      <c r="T21" s="264"/>
+      <c r="U21" s="258"/>
       <c r="V21" s="39"/>
       <c r="W21" s="34"/>
       <c r="X21" s="34"/>
     </row>
     <row customHeight="1" ht="24.95" r="22" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A22" s="38"/>
-      <c r="B22" s="255"/>
+      <c r="B22" s="256"/>
       <c r="C22" s="38"/>
       <c r="D22" s="38"/>
       <c r="E22" s="38"/>
@@ -4351,22 +4323,22 @@
       <c r="J22" s="34"/>
       <c r="K22" s="34"/>
       <c r="L22" s="40"/>
-      <c r="M22" s="257"/>
-      <c r="N22" s="259"/>
-      <c r="O22" s="257"/>
-      <c r="P22" s="257"/>
-      <c r="Q22" s="257"/>
-      <c r="R22" s="257"/>
-      <c r="S22" s="257"/>
-      <c r="T22" s="262"/>
-      <c r="U22" s="257"/>
+      <c r="M22" s="259"/>
+      <c r="N22" s="262"/>
+      <c r="O22" s="259"/>
+      <c r="P22" s="259"/>
+      <c r="Q22" s="259"/>
+      <c r="R22" s="259"/>
+      <c r="S22" s="259"/>
+      <c r="T22" s="265"/>
+      <c r="U22" s="259"/>
       <c r="V22" s="39"/>
       <c r="W22" s="34"/>
       <c r="X22" s="34"/>
     </row>
     <row customHeight="1" ht="24.95" r="23" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A23" s="273"/>
-      <c r="B23" s="255"/>
+      <c r="A23" s="253"/>
+      <c r="B23" s="256"/>
       <c r="C23" s="38"/>
       <c r="D23" s="38"/>
       <c r="E23" s="38"/>
@@ -4377,22 +4349,22 @@
       <c r="J23" s="34"/>
       <c r="K23" s="34"/>
       <c r="L23" s="40"/>
-      <c r="M23" s="257"/>
-      <c r="N23" s="259"/>
-      <c r="O23" s="257"/>
-      <c r="P23" s="257"/>
-      <c r="Q23" s="257"/>
-      <c r="R23" s="257"/>
-      <c r="S23" s="257"/>
-      <c r="T23" s="262"/>
-      <c r="U23" s="257"/>
+      <c r="M23" s="259"/>
+      <c r="N23" s="262"/>
+      <c r="O23" s="259"/>
+      <c r="P23" s="259"/>
+      <c r="Q23" s="259"/>
+      <c r="R23" s="259"/>
+      <c r="S23" s="259"/>
+      <c r="T23" s="265"/>
+      <c r="U23" s="259"/>
       <c r="V23" s="39"/>
       <c r="W23" s="34"/>
       <c r="X23" s="34"/>
     </row>
     <row customHeight="1" ht="24.95" r="24" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A24" s="274"/>
-      <c r="B24" s="256"/>
+      <c r="A24" s="254"/>
+      <c r="B24" s="257"/>
       <c r="C24" s="38"/>
       <c r="D24" s="38"/>
       <c r="E24" s="38"/>
@@ -4403,15 +4375,15 @@
       <c r="J24" s="34"/>
       <c r="K24" s="34"/>
       <c r="L24" s="40"/>
-      <c r="M24" s="247"/>
-      <c r="N24" s="260"/>
-      <c r="O24" s="247"/>
-      <c r="P24" s="247"/>
-      <c r="Q24" s="247"/>
-      <c r="R24" s="247"/>
-      <c r="S24" s="247"/>
-      <c r="T24" s="263"/>
-      <c r="U24" s="247"/>
+      <c r="M24" s="260"/>
+      <c r="N24" s="263"/>
+      <c r="O24" s="260"/>
+      <c r="P24" s="260"/>
+      <c r="Q24" s="260"/>
+      <c r="R24" s="260"/>
+      <c r="S24" s="260"/>
+      <c r="T24" s="266"/>
+      <c r="U24" s="260"/>
       <c r="V24" s="39"/>
       <c r="W24" s="34"/>
       <c r="X24" s="34"/>
@@ -4731,33 +4703,33 @@
       </c>
       <c r="D40" s="77"/>
       <c r="E40" s="78"/>
-      <c r="F40" s="267" t="s">
+      <c r="F40" s="247" t="s">
         <v>4</v>
       </c>
-      <c r="G40" s="268"/>
-      <c r="H40" s="268"/>
-      <c r="I40" s="269"/>
-      <c r="J40" s="270" t="s">
+      <c r="G40" s="248"/>
+      <c r="H40" s="248"/>
+      <c r="I40" s="249"/>
+      <c r="J40" s="250" t="s">
         <v>5</v>
       </c>
-      <c r="K40" s="271"/>
-      <c r="L40" s="271"/>
-      <c r="M40" s="272"/>
+      <c r="K40" s="251"/>
+      <c r="L40" s="251"/>
+      <c r="M40" s="252"/>
       <c r="N40" s="79" t="s">
         <v>46</v>
       </c>
       <c r="P40" s="125"/>
-      <c r="Q40" s="266" t="s">
+      <c r="Q40" s="246" t="s">
         <v>116</v>
       </c>
-      <c r="R40" s="266"/>
-      <c r="S40" s="266"/>
-      <c r="T40" s="266"/>
-      <c r="U40" s="266"/>
-      <c r="V40" s="266"/>
-      <c r="W40" s="266"/>
-      <c r="X40" s="266"/>
-      <c r="Y40" s="266"/>
+      <c r="R40" s="246"/>
+      <c r="S40" s="246"/>
+      <c r="T40" s="246"/>
+      <c r="U40" s="246"/>
+      <c r="V40" s="246"/>
+      <c r="W40" s="246"/>
+      <c r="X40" s="246"/>
+      <c r="Y40" s="246"/>
       <c r="Z40" s="44"/>
       <c r="AA40" s="44"/>
       <c r="AB40" s="44"/>
@@ -4904,16 +4876,16 @@
         <v>141</v>
       </c>
       <c r="F42" s="150" t="n">
-        <v>0.007142857482124652</v>
+        <v>10.0</v>
       </c>
       <c r="G42" s="150" t="n">
-        <v>2.0000160558163928E-4</v>
+        <v>0.1</v>
       </c>
       <c r="H42" s="151" t="n">
-        <v>360.0028900469507</v>
+        <v>100000.0</v>
       </c>
       <c r="I42" s="151" t="n">
-        <v>0.0012000096334898356</v>
+        <v>3333.3333333333335</v>
       </c>
       <c r="J42" s="151" t="s">
         <v>142</v>
@@ -4934,35 +4906,31 @@
         <v>140</v>
       </c>
       <c r="R42" s="205" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="S42" s="205" t="n">
-        <v>100000.0</v>
+        <v>10.0</v>
       </c>
       <c r="T42" s="205" t="n">
+        <v>38.709999084472656</v>
+      </c>
+      <c r="U42" s="205" t="n">
         <v>20.0</v>
       </c>
-      <c r="U42" s="205" t="n">
-        <v>50.0</v>
-      </c>
       <c r="V42" s="205" t="n">
-        <v>30.0</v>
+        <v>20.0</v>
       </c>
       <c r="W42" s="205" t="n">
-        <v>0.024000192061066628</v>
+        <v>129033.32713134773</v>
       </c>
       <c r="X42" s="205" t="n">
-        <v>4.8000384122133256E-4</v>
-      </c>
-      <c r="Y42" s="206" t="n">
-        <v>0.004000031854957342</v>
-      </c>
+        <v>6451.666356567386</v>
+      </c>
+      <c r="Y42" s="206"/>
       <c r="Z42" s="205"/>
       <c r="AA42" s="205"/>
       <c r="AB42" s="207"/>
-      <c r="AC42" s="275" t="s">
-        <v>144</v>
-      </c>
+      <c r="AC42" s="208"/>
       <c r="AD42" s="53"/>
       <c r="AE42" s="47"/>
       <c r="AF42" s="47"/>
@@ -4972,16 +4940,16 @@
       <c r="AJ42" s="228"/>
       <c r="AK42" s="124"/>
       <c r="AL42" s="47" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="AM42" s="47" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AN42" s="34" t="n">
-        <v>0.0012000096030533314</v>
-      </c>
-      <c r="AO42" s="34" t="e">
-        <v>#DIV/0!</v>
+        <v>3333.333251953125</v>
+      </c>
+      <c r="AO42" s="34" t="n">
+        <v>6666.66650390625</v>
       </c>
       <c r="AP42" s="21"/>
     </row>
@@ -4992,23 +4960,21 @@
       <c r="B43" s="174" t="s">
         <v>125</v>
       </c>
-      <c r="D43" s="32" t="s">
-        <v>141</v>
-      </c>
+      <c r="D43" s="32"/>
       <c r="E43" s="32" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F43" s="151" t="n">
-        <v>0.008571428978549582</v>
+        <v>10.0</v>
       </c>
       <c r="G43" s="150" t="n">
-        <v>2.4000192669796714E-4</v>
+        <v>0.1</v>
       </c>
       <c r="H43" s="151" t="n">
-        <v>120.00096334898356</v>
+        <v>100000.0</v>
       </c>
       <c r="I43" s="152" t="n">
-        <v>4.0000321116327855E-4</v>
+        <v>3333.3333333333335</v>
       </c>
       <c r="J43" s="151" t="s">
         <v>142</v>
@@ -5029,35 +4995,31 @@
         <v>140</v>
       </c>
       <c r="R43" s="205" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="S43" s="205" t="n">
-        <v>15000.0</v>
+        <v>10.0</v>
       </c>
       <c r="T43" s="205" t="n">
-        <v>30.0</v>
+        <v>38.709999084472656</v>
       </c>
       <c r="U43" s="205" t="n">
-        <v>40.0</v>
+        <v>20.0</v>
       </c>
       <c r="V43" s="205" t="n">
-        <v>40.0</v>
+        <v>20.0</v>
       </c>
       <c r="W43" s="205" t="n">
-        <v>0.036000289022922516</v>
+        <v>129033.32713134773</v>
       </c>
       <c r="X43" s="205" t="n">
-        <v>9.000072255730629E-4</v>
-      </c>
-      <c r="Y43" s="206" t="n">
-        <v>4.500036302488297E-4</v>
-      </c>
+        <v>6451.666356567386</v>
+      </c>
+      <c r="Y43" s="206"/>
       <c r="Z43" s="205"/>
       <c r="AA43" s="205"/>
       <c r="AB43" s="207"/>
-      <c r="AC43" s="276" t="s">
-        <v>144</v>
-      </c>
+      <c r="AC43" s="208"/>
       <c r="AD43" s="53"/>
       <c r="AE43" s="47"/>
       <c r="AF43" s="47"/>
@@ -5067,16 +5029,16 @@
       <c r="AJ43" s="229"/>
       <c r="AK43" s="124"/>
       <c r="AL43" s="47" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="AM43" s="47" t="s">
         <v>147</v>
       </c>
       <c r="AN43" s="34" t="n">
-        <v>4.0000322042033076E-4</v>
-      </c>
-      <c r="AO43" s="34" t="e">
-        <v>#DIV/0!</v>
+        <v>3333.333251953125</v>
+      </c>
+      <c r="AO43" s="34" t="n">
+        <v>66666.6640625</v>
       </c>
       <c r="AP43" s="21"/>
     </row>
@@ -5086,15 +5048,33 @@
       </c>
       <c r="B44" s="174"/>
       <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="150"/>
-      <c r="G44" s="150"/>
-      <c r="H44" s="151"/>
-      <c r="I44" s="151"/>
-      <c r="J44" s="151"/>
-      <c r="K44" s="150"/>
-      <c r="L44" s="150"/>
-      <c r="M44" s="151"/>
+      <c r="E44" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="F44" s="150" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G44" s="150" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H44" s="151" t="n">
+        <v>100000.0</v>
+      </c>
+      <c r="I44" s="151" t="n">
+        <v>3333.3333333333335</v>
+      </c>
+      <c r="J44" s="151" t="s">
+        <v>142</v>
+      </c>
+      <c r="K44" s="150" t="s">
+        <v>142</v>
+      </c>
+      <c r="L44" s="150" t="s">
+        <v>142</v>
+      </c>
+      <c r="M44" s="151" t="s">
+        <v>142</v>
+      </c>
       <c r="N44" s="171"/>
       <c r="O44" s="53"/>
       <c r="P44" s="130"/>
@@ -5102,35 +5082,31 @@
         <v>140</v>
       </c>
       <c r="R44" s="205" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="S44" s="205" t="n">
-        <v>300000.0</v>
+        <v>10.0</v>
       </c>
       <c r="T44" s="205" t="n">
-        <v>60.0</v>
+        <v>38.709999084472656</v>
       </c>
       <c r="U44" s="205" t="n">
-        <v>40.0</v>
+        <v>20.0</v>
       </c>
       <c r="V44" s="205" t="n">
         <v>20.0</v>
       </c>
       <c r="W44" s="205" t="n">
-        <v>0.07200057804584503</v>
+        <v>129033.32713134773</v>
       </c>
       <c r="X44" s="205" t="n">
-        <v>0.0018000144511461258</v>
-      </c>
-      <c r="Y44" s="206" t="n">
-        <v>0.01800014264881611</v>
-      </c>
+        <v>6451.666356567386</v>
+      </c>
+      <c r="Y44" s="206"/>
       <c r="Z44" s="205"/>
       <c r="AA44" s="205"/>
       <c r="AB44" s="207"/>
-      <c r="AC44" s="277" t="s">
-        <v>144</v>
-      </c>
+      <c r="AC44" s="208"/>
       <c r="AD44" s="53"/>
       <c r="AE44" s="47"/>
       <c r="AF44" s="47"/>
@@ -5143,13 +5119,13 @@
         <v>141</v>
       </c>
       <c r="AM44" s="47" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AN44" s="34" t="n">
-        <v>4.0000322042033076E-4</v>
-      </c>
-      <c r="AO44" s="34" t="e">
-        <v>#DIV/0!</v>
+        <v>3333.333251953125</v>
+      </c>
+      <c r="AO44" s="34" t="n">
+        <v>66666.6640625</v>
       </c>
       <c r="AP44" s="21"/>
     </row>
@@ -5158,16 +5134,36 @@
         <v>4</v>
       </c>
       <c r="B45" s="174"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="150"/>
-      <c r="G45" s="150"/>
-      <c r="H45" s="151"/>
-      <c r="I45" s="151"/>
-      <c r="J45" s="151"/>
-      <c r="K45" s="150"/>
-      <c r="L45" s="150"/>
-      <c r="M45" s="151"/>
+      <c r="D45" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="E45" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="F45" s="150" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G45" s="150" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H45" s="151" t="n">
+        <v>100000.0</v>
+      </c>
+      <c r="I45" s="151" t="n">
+        <v>3333.3333333333335</v>
+      </c>
+      <c r="J45" s="151" t="s">
+        <v>142</v>
+      </c>
+      <c r="K45" s="150" t="s">
+        <v>142</v>
+      </c>
+      <c r="L45" s="150" t="s">
+        <v>142</v>
+      </c>
+      <c r="M45" s="151" t="s">
+        <v>142</v>
+      </c>
       <c r="N45" s="171"/>
       <c r="O45" s="53"/>
       <c r="P45" s="130"/>
@@ -5192,61 +5188,83 @@
       <c r="AI45" s="207"/>
       <c r="AJ45" s="231"/>
       <c r="AK45" s="124"/>
-      <c r="AL45" s="47"/>
-      <c r="AM45" s="47"/>
-      <c r="AN45" s="34"/>
-      <c r="AO45" s="34"/>
+      <c r="AL45" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="AM45" s="47" t="s">
+        <v>147</v>
+      </c>
+      <c r="AN45" s="34" t="n">
+        <v>3333.333251953125</v>
+      </c>
+      <c r="AO45" s="34" t="n">
+        <v>66666.6640625</v>
+      </c>
       <c r="AP45" s="21"/>
     </row>
     <row customHeight="1" ht="24.95" r="46" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A46" s="174"/>
       <c r="B46" s="174"/>
       <c r="D46" s="32"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="150"/>
-      <c r="G46" s="150"/>
-      <c r="H46" s="151"/>
-      <c r="I46" s="151"/>
-      <c r="J46" s="151"/>
-      <c r="K46" s="150"/>
-      <c r="L46" s="150"/>
-      <c r="M46" s="151"/>
+      <c r="E46" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="F46" s="150" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G46" s="150" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H46" s="151" t="n">
+        <v>100000.0</v>
+      </c>
+      <c r="I46" s="151" t="n">
+        <v>3333.3333333333335</v>
+      </c>
+      <c r="J46" s="151" t="s">
+        <v>142</v>
+      </c>
+      <c r="K46" s="150" t="s">
+        <v>142</v>
+      </c>
+      <c r="L46" s="150" t="s">
+        <v>142</v>
+      </c>
+      <c r="M46" s="151" t="s">
+        <v>142</v>
+      </c>
       <c r="N46" s="192"/>
       <c r="O46" s="53"/>
       <c r="P46" s="130"/>
       <c r="Q46" s="141" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="R46" s="205" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="S46" s="205" t="n">
-        <v>10000.0</v>
+        <v>10.0</v>
       </c>
       <c r="T46" s="205" t="n">
-        <v>60.0</v>
+        <v>38.709999084472656</v>
       </c>
       <c r="U46" s="205" t="n">
-        <v>40.0</v>
+        <v>20.0</v>
       </c>
       <c r="V46" s="205" t="n">
         <v>20.0</v>
       </c>
       <c r="W46" s="205" t="n">
-        <v>0.024000193923711777</v>
+        <v>129033.32713134773</v>
       </c>
       <c r="X46" s="205" t="n">
-        <v>6.000048480927945E-4</v>
-      </c>
-      <c r="Y46" s="206" t="n">
-        <v>2.000016247620806E-4</v>
-      </c>
+        <v>6451.666356567386</v>
+      </c>
+      <c r="Y46" s="206"/>
       <c r="Z46" s="205"/>
       <c r="AA46" s="205"/>
       <c r="AB46" s="207"/>
-      <c r="AC46" s="278" t="s">
-        <v>144</v>
-      </c>
+      <c r="AC46" s="208"/>
       <c r="AD46" s="53"/>
       <c r="AE46" s="47"/>
       <c r="AF46" s="47"/>
@@ -5255,60 +5273,82 @@
       <c r="AI46" s="207"/>
       <c r="AJ46" s="232"/>
       <c r="AK46" s="124"/>
-      <c r="AL46" s="47"/>
-      <c r="AM46" s="47"/>
-      <c r="AN46" s="34"/>
-      <c r="AO46" s="34"/>
+      <c r="AL46" s="47" t="s">
+        <v>143</v>
+      </c>
+      <c r="AM46" s="47" t="s">
+        <v>145</v>
+      </c>
+      <c r="AN46" s="34" t="n">
+        <v>3333.333251953125</v>
+      </c>
+      <c r="AO46" s="34" t="n">
+        <v>3333.333251953125</v>
+      </c>
       <c r="AP46" s="21"/>
     </row>
     <row customHeight="1" ht="24.95" r="47" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A47" s="174"/>
       <c r="B47" s="174"/>
       <c r="D47" s="32"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="150"/>
-      <c r="G47" s="150"/>
-      <c r="H47" s="150"/>
-      <c r="I47" s="150"/>
-      <c r="J47" s="151"/>
-      <c r="K47" s="150"/>
-      <c r="L47" s="150"/>
-      <c r="M47" s="150"/>
+      <c r="E47" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="F47" s="150" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G47" s="150" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H47" s="150" t="n">
+        <v>100000.0</v>
+      </c>
+      <c r="I47" s="150" t="n">
+        <v>3333.3333333333335</v>
+      </c>
+      <c r="J47" s="151" t="s">
+        <v>142</v>
+      </c>
+      <c r="K47" s="150" t="s">
+        <v>142</v>
+      </c>
+      <c r="L47" s="150" t="s">
+        <v>142</v>
+      </c>
+      <c r="M47" s="150" t="s">
+        <v>142</v>
+      </c>
       <c r="N47" s="172"/>
       <c r="P47" s="117"/>
       <c r="Q47" s="139" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="R47" s="206" t="s">
         <v>146</v>
       </c>
       <c r="S47" s="210" t="n">
-        <v>300000.0</v>
+        <v>10.0</v>
       </c>
       <c r="T47" s="210" t="n">
-        <v>60.0</v>
+        <v>38.709999084472656</v>
       </c>
       <c r="U47" s="205" t="n">
-        <v>40.0</v>
+        <v>20.0</v>
       </c>
       <c r="V47" s="205" t="n">
         <v>20.0</v>
       </c>
       <c r="W47" s="206" t="n">
-        <v>0.024000193923711777</v>
+        <v>129033.32713134773</v>
       </c>
       <c r="X47" s="206" t="n">
-        <v>6.000048480927945E-4</v>
-      </c>
-      <c r="Y47" s="206" t="n">
-        <v>0.006000048480927944</v>
-      </c>
+        <v>6451.666356567386</v>
+      </c>
+      <c r="Y47" s="206"/>
       <c r="Z47" s="206"/>
       <c r="AA47" s="206"/>
       <c r="AB47" s="211"/>
-      <c r="AC47" s="279" t="s">
-        <v>144</v>
-      </c>
+      <c r="AC47" s="208"/>
       <c r="AD47" s="21"/>
       <c r="AE47" s="60"/>
       <c r="AF47" s="34"/>
@@ -5317,35 +5357,79 @@
       <c r="AI47" s="211"/>
       <c r="AJ47" s="233"/>
       <c r="AK47" s="124"/>
-      <c r="AL47" s="60"/>
-      <c r="AM47" s="60"/>
-      <c r="AN47" s="34"/>
-      <c r="AO47" s="34"/>
+      <c r="AL47" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="AM47" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="AN47" s="34" t="n">
+        <v>3333.333251953125</v>
+      </c>
+      <c r="AO47" s="34" t="n">
+        <v>66666.6640625</v>
+      </c>
       <c r="AP47" s="21"/>
     </row>
     <row customHeight="1" ht="24.95" r="48" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A48" s="174"/>
       <c r="B48" s="174"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="32"/>
-      <c r="F48" s="150"/>
-      <c r="G48" s="150"/>
-      <c r="H48" s="150"/>
-      <c r="I48" s="150"/>
-      <c r="J48" s="151"/>
-      <c r="K48" s="150"/>
-      <c r="L48" s="150"/>
-      <c r="M48" s="150"/>
+      <c r="D48" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="E48" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="F48" s="150" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G48" s="150" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H48" s="150" t="n">
+        <v>100000.0</v>
+      </c>
+      <c r="I48" s="150" t="n">
+        <v>3333.3333333333335</v>
+      </c>
+      <c r="J48" s="151" t="s">
+        <v>142</v>
+      </c>
+      <c r="K48" s="150" t="s">
+        <v>142</v>
+      </c>
+      <c r="L48" s="150" t="s">
+        <v>142</v>
+      </c>
+      <c r="M48" s="150" t="s">
+        <v>142</v>
+      </c>
       <c r="N48" s="172"/>
       <c r="P48" s="117"/>
-      <c r="Q48" s="139"/>
-      <c r="R48" s="206"/>
-      <c r="S48" s="210"/>
-      <c r="T48" s="210"/>
-      <c r="U48" s="205"/>
-      <c r="V48" s="205"/>
-      <c r="W48" s="206"/>
-      <c r="X48" s="206"/>
+      <c r="Q48" s="139" t="s">
+        <v>149</v>
+      </c>
+      <c r="R48" s="206" t="s">
+        <v>147</v>
+      </c>
+      <c r="S48" s="210" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="T48" s="210" t="n">
+        <v>38.709999084472656</v>
+      </c>
+      <c r="U48" s="205" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V48" s="205" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="W48" s="206" t="n">
+        <v>129033.32713134773</v>
+      </c>
+      <c r="X48" s="206" t="n">
+        <v>6451.666356567386</v>
+      </c>
       <c r="Y48" s="206"/>
       <c r="Z48" s="206"/>
       <c r="AA48" s="206"/>
@@ -5359,25 +5443,51 @@
       <c r="AI48" s="211"/>
       <c r="AJ48" s="234"/>
       <c r="AK48" s="124"/>
-      <c r="AL48" s="60"/>
-      <c r="AM48" s="60"/>
-      <c r="AN48" s="34"/>
-      <c r="AO48" s="34"/>
+      <c r="AL48" s="60" t="s">
+        <v>144</v>
+      </c>
+      <c r="AM48" s="60" t="s">
+        <v>145</v>
+      </c>
+      <c r="AN48" s="34" t="n">
+        <v>3333.333251953125</v>
+      </c>
+      <c r="AO48" s="34" t="n">
+        <v>133333.328125</v>
+      </c>
       <c r="AP48" s="21"/>
     </row>
     <row customHeight="1" ht="24.95" r="49" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A49" s="174"/>
       <c r="B49" s="174"/>
       <c r="D49" s="32"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="150"/>
-      <c r="G49" s="150"/>
-      <c r="H49" s="150"/>
-      <c r="I49" s="150"/>
-      <c r="J49" s="151"/>
-      <c r="K49" s="150"/>
-      <c r="L49" s="150"/>
-      <c r="M49" s="150"/>
+      <c r="E49" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="F49" s="150" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G49" s="150" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H49" s="150" t="n">
+        <v>100000.0</v>
+      </c>
+      <c r="I49" s="150" t="n">
+        <v>3333.3333333333335</v>
+      </c>
+      <c r="J49" s="151" t="s">
+        <v>142</v>
+      </c>
+      <c r="K49" s="150" t="s">
+        <v>142</v>
+      </c>
+      <c r="L49" s="150" t="s">
+        <v>142</v>
+      </c>
+      <c r="M49" s="150" t="s">
+        <v>142</v>
+      </c>
       <c r="N49" s="193"/>
       <c r="P49" s="117"/>
       <c r="Q49" s="139"/>
@@ -5401,35 +5511,77 @@
       <c r="AI49" s="211"/>
       <c r="AJ49" s="235"/>
       <c r="AK49" s="124"/>
-      <c r="AL49" s="60"/>
-      <c r="AM49" s="60"/>
-      <c r="AN49" s="34"/>
-      <c r="AO49" s="34"/>
+      <c r="AL49" s="60" t="s">
+        <v>144</v>
+      </c>
+      <c r="AM49" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="AN49" s="34" t="n">
+        <v>3333.333251953125</v>
+      </c>
+      <c r="AO49" s="34" t="n">
+        <v>66666.6640625</v>
+      </c>
       <c r="AP49" s="21"/>
     </row>
     <row customHeight="1" ht="24.95" r="50" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A50" s="174"/>
       <c r="B50" s="174"/>
       <c r="D50" s="32"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="150"/>
-      <c r="G50" s="150"/>
-      <c r="H50" s="150"/>
-      <c r="I50" s="150"/>
-      <c r="J50" s="150"/>
-      <c r="K50" s="150"/>
-      <c r="L50" s="150"/>
-      <c r="M50" s="150"/>
+      <c r="E50" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="F50" s="150" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G50" s="150" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H50" s="150" t="n">
+        <v>100000.0</v>
+      </c>
+      <c r="I50" s="150" t="n">
+        <v>3333.3333333333335</v>
+      </c>
+      <c r="J50" s="150" t="s">
+        <v>142</v>
+      </c>
+      <c r="K50" s="150" t="s">
+        <v>142</v>
+      </c>
+      <c r="L50" s="150" t="s">
+        <v>142</v>
+      </c>
+      <c r="M50" s="150" t="s">
+        <v>142</v>
+      </c>
       <c r="N50" s="172"/>
       <c r="P50" s="117"/>
-      <c r="Q50" s="139"/>
-      <c r="R50" s="206"/>
-      <c r="S50" s="210"/>
-      <c r="T50" s="210"/>
-      <c r="U50" s="205"/>
-      <c r="V50" s="205"/>
-      <c r="W50" s="206"/>
-      <c r="X50" s="205"/>
+      <c r="Q50" s="139" t="s">
+        <v>150</v>
+      </c>
+      <c r="R50" s="206" t="s">
+        <v>145</v>
+      </c>
+      <c r="S50" s="210" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="T50" s="210" t="n">
+        <v>38.709999084472656</v>
+      </c>
+      <c r="U50" s="205" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V50" s="205" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="W50" s="206" t="n">
+        <v>129033.32713134773</v>
+      </c>
+      <c r="X50" s="205" t="n">
+        <v>6451.666356567386</v>
+      </c>
       <c r="Y50" s="205"/>
       <c r="Z50" s="205"/>
       <c r="AA50" s="205"/>
@@ -5452,26 +5604,62 @@
     <row customHeight="1" ht="24.95" r="51" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A51" s="174"/>
       <c r="B51" s="174"/>
-      <c r="D51" s="32"/>
-      <c r="E51" s="32"/>
-      <c r="F51" s="150"/>
-      <c r="G51" s="150"/>
-      <c r="H51" s="150"/>
-      <c r="I51" s="150"/>
-      <c r="J51" s="150"/>
-      <c r="K51" s="150"/>
-      <c r="L51" s="150"/>
-      <c r="M51" s="150"/>
+      <c r="D51" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="E51" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="F51" s="150" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G51" s="150" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H51" s="150" t="n">
+        <v>100000.0</v>
+      </c>
+      <c r="I51" s="150" t="n">
+        <v>3333.3333333333335</v>
+      </c>
+      <c r="J51" s="150" t="s">
+        <v>142</v>
+      </c>
+      <c r="K51" s="150" t="s">
+        <v>142</v>
+      </c>
+      <c r="L51" s="150" t="s">
+        <v>142</v>
+      </c>
+      <c r="M51" s="150" t="s">
+        <v>142</v>
+      </c>
       <c r="N51" s="172"/>
       <c r="P51" s="117"/>
-      <c r="Q51" s="139"/>
-      <c r="R51" s="206"/>
-      <c r="S51" s="210"/>
-      <c r="T51" s="210"/>
-      <c r="U51" s="205"/>
-      <c r="V51" s="205"/>
-      <c r="W51" s="206"/>
-      <c r="X51" s="205"/>
+      <c r="Q51" s="139" t="s">
+        <v>150</v>
+      </c>
+      <c r="R51" s="206" t="s">
+        <v>146</v>
+      </c>
+      <c r="S51" s="210" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="T51" s="210" t="n">
+        <v>38.709999084472656</v>
+      </c>
+      <c r="U51" s="205" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V51" s="205" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="W51" s="206" t="n">
+        <v>129033.32713134773</v>
+      </c>
+      <c r="X51" s="205" t="n">
+        <v>6451.666356567386</v>
+      </c>
       <c r="Y51" s="205"/>
       <c r="Z51" s="205"/>
       <c r="AA51" s="205"/>
@@ -5495,25 +5683,59 @@
       <c r="A52" s="174"/>
       <c r="B52" s="174"/>
       <c r="D52" s="32"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="150"/>
-      <c r="G52" s="150"/>
-      <c r="H52" s="150"/>
-      <c r="I52" s="150"/>
-      <c r="J52" s="150"/>
-      <c r="K52" s="150"/>
-      <c r="L52" s="150"/>
-      <c r="M52" s="150"/>
+      <c r="E52" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="F52" s="150" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G52" s="150" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H52" s="150" t="n">
+        <v>100000.0</v>
+      </c>
+      <c r="I52" s="150" t="n">
+        <v>3333.3333333333335</v>
+      </c>
+      <c r="J52" s="150" t="s">
+        <v>142</v>
+      </c>
+      <c r="K52" s="150" t="s">
+        <v>142</v>
+      </c>
+      <c r="L52" s="150" t="s">
+        <v>142</v>
+      </c>
+      <c r="M52" s="150" t="s">
+        <v>142</v>
+      </c>
       <c r="N52" s="172"/>
       <c r="P52" s="117"/>
-      <c r="Q52" s="139"/>
-      <c r="R52" s="206"/>
-      <c r="S52" s="210"/>
-      <c r="T52" s="210"/>
-      <c r="U52" s="205"/>
-      <c r="V52" s="205"/>
-      <c r="W52" s="206"/>
-      <c r="X52" s="206"/>
+      <c r="Q52" s="139" t="s">
+        <v>150</v>
+      </c>
+      <c r="R52" s="206" t="s">
+        <v>147</v>
+      </c>
+      <c r="S52" s="210" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="T52" s="210" t="n">
+        <v>38.709999084472656</v>
+      </c>
+      <c r="U52" s="205" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V52" s="205" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="W52" s="206" t="n">
+        <v>129033.32713134773</v>
+      </c>
+      <c r="X52" s="206" t="n">
+        <v>6451.666356567386</v>
+      </c>
       <c r="Y52" s="206"/>
       <c r="Z52" s="206"/>
       <c r="AA52" s="206"/>
@@ -5537,15 +5759,33 @@
       <c r="A53" s="174"/>
       <c r="B53" s="174"/>
       <c r="D53" s="32"/>
-      <c r="E53" s="32"/>
-      <c r="F53" s="150"/>
-      <c r="G53" s="150"/>
-      <c r="H53" s="150"/>
-      <c r="I53" s="150"/>
-      <c r="J53" s="150"/>
-      <c r="K53" s="150"/>
-      <c r="L53" s="150"/>
-      <c r="M53" s="150"/>
+      <c r="E53" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="F53" s="150" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G53" s="150" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H53" s="150" t="n">
+        <v>100000.0</v>
+      </c>
+      <c r="I53" s="150" t="n">
+        <v>3333.3333333333335</v>
+      </c>
+      <c r="J53" s="150" t="s">
+        <v>142</v>
+      </c>
+      <c r="K53" s="150" t="s">
+        <v>142</v>
+      </c>
+      <c r="L53" s="150" t="s">
+        <v>142</v>
+      </c>
+      <c r="M53" s="150" t="s">
+        <v>142</v>
+      </c>
       <c r="N53" s="194"/>
       <c r="P53" s="117"/>
       <c r="Q53" s="139"/>
@@ -5590,14 +5830,30 @@
       <c r="M54" s="150"/>
       <c r="N54" s="172"/>
       <c r="P54" s="117"/>
-      <c r="Q54" s="139"/>
-      <c r="R54" s="206"/>
-      <c r="S54" s="210"/>
-      <c r="T54" s="210"/>
-      <c r="U54" s="206"/>
-      <c r="V54" s="206"/>
-      <c r="W54" s="206"/>
-      <c r="X54" s="206"/>
+      <c r="Q54" s="139" t="s">
+        <v>151</v>
+      </c>
+      <c r="R54" s="206" t="s">
+        <v>145</v>
+      </c>
+      <c r="S54" s="210" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="T54" s="210" t="n">
+        <v>38.709999084472656</v>
+      </c>
+      <c r="U54" s="206" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V54" s="206" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="W54" s="206" t="n">
+        <v>129033.32713134773</v>
+      </c>
+      <c r="X54" s="206" t="n">
+        <v>6451.666356567386</v>
+      </c>
       <c r="Y54" s="206"/>
       <c r="Z54" s="206"/>
       <c r="AA54" s="206"/>
@@ -5632,14 +5888,30 @@
       <c r="M55" s="150"/>
       <c r="N55" s="172"/>
       <c r="P55" s="117"/>
-      <c r="Q55" s="139"/>
-      <c r="R55" s="206"/>
-      <c r="S55" s="210"/>
-      <c r="T55" s="210"/>
-      <c r="U55" s="206"/>
-      <c r="V55" s="206"/>
-      <c r="W55" s="206"/>
-      <c r="X55" s="206"/>
+      <c r="Q55" s="139" t="s">
+        <v>151</v>
+      </c>
+      <c r="R55" s="206" t="s">
+        <v>146</v>
+      </c>
+      <c r="S55" s="210" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="T55" s="210" t="n">
+        <v>38.709999084472656</v>
+      </c>
+      <c r="U55" s="206" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V55" s="206" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="W55" s="206" t="n">
+        <v>129033.32713134773</v>
+      </c>
+      <c r="X55" s="206" t="n">
+        <v>6451.666356567386</v>
+      </c>
       <c r="Y55" s="206"/>
       <c r="Z55" s="206"/>
       <c r="AA55" s="206"/>
@@ -5674,14 +5946,30 @@
       <c r="M56" s="150"/>
       <c r="N56" s="195"/>
       <c r="P56" s="117"/>
-      <c r="Q56" s="139"/>
-      <c r="R56" s="206"/>
-      <c r="S56" s="210"/>
-      <c r="T56" s="210"/>
-      <c r="U56" s="206"/>
-      <c r="V56" s="206"/>
-      <c r="W56" s="206"/>
-      <c r="X56" s="206"/>
+      <c r="Q56" s="139" t="s">
+        <v>151</v>
+      </c>
+      <c r="R56" s="206" t="s">
+        <v>147</v>
+      </c>
+      <c r="S56" s="210" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="T56" s="210" t="n">
+        <v>38.709999084472656</v>
+      </c>
+      <c r="U56" s="206" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V56" s="206" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="W56" s="206" t="n">
+        <v>129033.32713134773</v>
+      </c>
+      <c r="X56" s="206" t="n">
+        <v>6451.666356567386</v>
+      </c>
       <c r="Y56" s="206"/>
       <c r="Z56" s="206"/>
       <c r="AA56" s="206"/>
@@ -13181,6 +13469,44 @@
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="M9:M12"/>
+    <mergeCell ref="N9:N12"/>
+    <mergeCell ref="O9:O12"/>
+    <mergeCell ref="P9:P12"/>
+    <mergeCell ref="Q9:Q12"/>
+    <mergeCell ref="R9:R12"/>
+    <mergeCell ref="S9:S12"/>
+    <mergeCell ref="T9:T12"/>
+    <mergeCell ref="U9:U12"/>
+    <mergeCell ref="R13:R16"/>
+    <mergeCell ref="S13:S16"/>
+    <mergeCell ref="T13:T16"/>
+    <mergeCell ref="U13:U16"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="M13:M16"/>
+    <mergeCell ref="N13:N16"/>
+    <mergeCell ref="O13:O16"/>
+    <mergeCell ref="P13:P16"/>
+    <mergeCell ref="Q13:Q16"/>
+    <mergeCell ref="R17:R20"/>
+    <mergeCell ref="S17:S20"/>
+    <mergeCell ref="T17:T20"/>
+    <mergeCell ref="Q17:Q20"/>
+    <mergeCell ref="U17:U20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="M17:M20"/>
+    <mergeCell ref="N17:N20"/>
+    <mergeCell ref="O17:O20"/>
+    <mergeCell ref="P17:P20"/>
     <mergeCell ref="Q40:Y40"/>
     <mergeCell ref="F40:I40"/>
     <mergeCell ref="J40:M40"/>
@@ -13195,47 +13521,9 @@
     <mergeCell ref="R21:R24"/>
     <mergeCell ref="S21:S24"/>
     <mergeCell ref="T21:T24"/>
-    <mergeCell ref="U17:U20"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="M17:M20"/>
-    <mergeCell ref="N17:N20"/>
-    <mergeCell ref="O17:O20"/>
-    <mergeCell ref="P17:P20"/>
-    <mergeCell ref="P13:P16"/>
-    <mergeCell ref="Q13:Q16"/>
-    <mergeCell ref="R17:R20"/>
-    <mergeCell ref="S17:S20"/>
-    <mergeCell ref="T17:T20"/>
-    <mergeCell ref="Q17:Q20"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="M13:M16"/>
-    <mergeCell ref="N13:N16"/>
-    <mergeCell ref="O13:O16"/>
-    <mergeCell ref="R9:R12"/>
-    <mergeCell ref="S9:S12"/>
-    <mergeCell ref="T9:T12"/>
-    <mergeCell ref="U9:U12"/>
-    <mergeCell ref="R13:R16"/>
-    <mergeCell ref="S13:S16"/>
-    <mergeCell ref="T13:T16"/>
-    <mergeCell ref="U13:U16"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="M9:M12"/>
-    <mergeCell ref="N9:N12"/>
-    <mergeCell ref="O9:O12"/>
-    <mergeCell ref="P9:P12"/>
-    <mergeCell ref="Q9:Q12"/>
   </mergeCells>
   <conditionalFormatting sqref="AM1:AM1048576">
-    <cfRule dxfId="1" priority="1" type="duplicateValues"/>
+    <cfRule dxfId="0" priority="1" type="duplicateValues"/>
   </conditionalFormatting>
   <dataValidations count="3">
     <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="N9 N13 N17 N21" type="list">

--- a/eResidue_CV_eDocs/bin/Test Data/eResidue_eDocs_TestCase_result.xlsx
+++ b/eResidue_CV_eDocs/bin/Test Data/eResidue_eDocs_TestCase_result.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="150">
   <si>
     <t>Testcase_id</t>
   </si>
@@ -452,9 +452,6 @@
     <t>Tenant ID:</t>
   </si>
   <si>
-    <t>Manual</t>
-  </si>
-  <si>
     <t xml:space="preserve">Actual Error Message </t>
   </si>
   <si>
@@ -487,46 +484,43 @@
     <t xml:space="preserve">  selenium</t>
   </si>
   <si>
-    <t>Solid</t>
-  </si>
-  <si>
     <t>Preferential Transfer</t>
   </si>
   <si>
-    <t>Product/ Sample/ Solid1 API1</t>
-  </si>
-  <si>
-    <t>Product/ Sample/Solid</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>Product/Sample/Solid4</t>
-  </si>
-  <si>
-    <t>Product/Sample/Solid3</t>
-  </si>
-  <si>
-    <t>Equipment/ Sample3</t>
-  </si>
-  <si>
-    <t>Equipment / sample1</t>
-  </si>
-  <si>
-    <t>Equipment/ sample2</t>
-  </si>
-  <si>
-    <t>Product/ Sample/ Solid1</t>
-  </si>
-  <si>
-    <t>Product/ Sample/Solid API1</t>
-  </si>
-  <si>
-    <t>Product/Sample/Solid4 API1</t>
-  </si>
-  <si>
-    <t>Product/Sample/Solid3 API1</t>
+    <t>Topical</t>
+  </si>
+  <si>
+    <t>Manual</t>
+  </si>
+  <si>
+    <t>Topical2</t>
+  </si>
+  <si>
+    <t>Topical1</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>E4</t>
   </si>
 </sst>
 </file>
@@ -534,7 +528,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="108" x14ac:knownFonts="1">
+  <fonts count="120" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1137,6 +1131,66 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1298,7 +1352,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="275">
+  <cellXfs count="287">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
@@ -1825,6 +1879,18 @@
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="11" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -3565,10 +3631,10 @@
         <v>45</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H6" s="15" t="s">
         <v>46</v>
@@ -3589,7 +3655,7 @@
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="16"/>
@@ -3604,10 +3670,10 @@
         <v>49</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F8" t="s">
         <v>131</v>
-      </c>
-      <c r="F8" t="s">
-        <v>132</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="17"/>
@@ -3622,7 +3688,7 @@
         <v>50</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F9" s="2">
         <v>75</v>
@@ -3640,10 +3706,10 @@
         <v>51</v>
       </c>
       <c r="E10" s="226" t="s">
+        <v>134</v>
+      </c>
+      <c r="F10" s="12" t="s">
         <v>135</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>136</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="19"/>
@@ -3653,10 +3719,10 @@
       <c r="B11" s="245"/>
       <c r="C11" s="245"/>
       <c r="D11" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -3716,8 +3782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW434"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0" zoomScale="50" zoomScaleNormal="50">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0" zoomScale="50" zoomScaleNormal="50">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -4696,7 +4762,7 @@
     </row>
     <row customHeight="1" ht="50.25" r="40" spans="1:42" x14ac:dyDescent="0.5">
       <c r="A40" s="197" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="B40" s="198" t="s">
         <v>138</v>
@@ -4858,7 +4924,7 @@
         <v>91</v>
       </c>
       <c r="AO41" s="227" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AP41" s="21"/>
     </row>
@@ -4876,61 +4942,73 @@
         <v>141</v>
       </c>
       <c r="F42" s="150" t="n">
-        <v>10.0</v>
+        <v>0.0010000000474974513</v>
       </c>
       <c r="G42" s="150" t="n">
-        <v>0.1</v>
+        <v>0.0018181819045408206</v>
       </c>
       <c r="H42" s="151" t="n">
-        <v>100000.0</v>
+        <v>909.0909522704103</v>
       </c>
       <c r="I42" s="151" t="n">
-        <v>3333.3333333333335</v>
-      </c>
-      <c r="J42" s="151" t="s">
+        <v>0.003030303174234701</v>
+      </c>
+      <c r="J42" s="151" t="n">
+        <v>0.0010000000474974513</v>
+      </c>
+      <c r="K42" s="150" t="n">
+        <v>0.0018181819468736649</v>
+      </c>
+      <c r="L42" s="150" t="n">
+        <v>909.0909423828125</v>
+      </c>
+      <c r="M42" s="151" t="n">
+        <v>0.003030303167179227</v>
+      </c>
+      <c r="N42" s="275" t="s">
         <v>142</v>
       </c>
-      <c r="K42" s="150" t="s">
-        <v>142</v>
-      </c>
-      <c r="L42" s="150" t="s">
-        <v>142</v>
-      </c>
-      <c r="M42" s="151" t="s">
-        <v>142</v>
-      </c>
-      <c r="N42" s="191"/>
       <c r="O42" s="53"/>
       <c r="P42" s="130"/>
       <c r="Q42" s="141" t="s">
         <v>140</v>
       </c>
       <c r="R42" s="205" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="S42" s="205" t="n">
-        <v>10.0</v>
+        <v>25000.0</v>
       </c>
       <c r="T42" s="205" t="n">
-        <v>38.709999084472656</v>
+        <v>60.0</v>
       </c>
       <c r="U42" s="205" t="n">
-        <v>20.0</v>
+        <v>40.0</v>
       </c>
       <c r="V42" s="205" t="n">
         <v>20.0</v>
       </c>
       <c r="W42" s="205" t="n">
-        <v>129033.32713134773</v>
+        <v>0.1818181872367859</v>
       </c>
       <c r="X42" s="205" t="n">
-        <v>6451.666356567386</v>
-      </c>
-      <c r="Y42" s="206"/>
-      <c r="Z42" s="205"/>
-      <c r="AA42" s="205"/>
-      <c r="AB42" s="207"/>
-      <c r="AC42" s="208"/>
+        <v>0.004545454680919647</v>
+      </c>
+      <c r="Y42" s="206" t="n">
+        <v>0.0037878789007663727</v>
+      </c>
+      <c r="Z42" s="205" t="n">
+        <v>0.1818181872367859</v>
+      </c>
+      <c r="AA42" s="205" t="n">
+        <v>0.004545454867184162</v>
+      </c>
+      <c r="AB42" s="207" t="n">
+        <v>0.0037878789007663727</v>
+      </c>
+      <c r="AC42" s="276" t="s">
+        <v>142</v>
+      </c>
       <c r="AD42" s="53"/>
       <c r="AE42" s="47"/>
       <c r="AF42" s="47"/>
@@ -4940,16 +5018,16 @@
       <c r="AJ42" s="228"/>
       <c r="AK42" s="124"/>
       <c r="AL42" s="47" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="AM42" s="47" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AN42" s="34" t="n">
-        <v>3333.333251953125</v>
+        <v>0.003030303167179227</v>
       </c>
       <c r="AO42" s="34" t="n">
-        <v>6666.66650390625</v>
+        <v>166.66665649414062</v>
       </c>
       <c r="AP42" s="21"/>
     </row>
@@ -4960,66 +5038,80 @@
       <c r="B43" s="174" t="s">
         <v>125</v>
       </c>
-      <c r="D43" s="32"/>
+      <c r="D43" s="32" t="s">
+        <v>141</v>
+      </c>
       <c r="E43" s="32" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F43" s="151" t="n">
-        <v>10.0</v>
+        <v>0.0010000000474974513</v>
       </c>
       <c r="G43" s="150" t="n">
-        <v>0.1</v>
+        <v>0.0023809524940415507</v>
       </c>
       <c r="H43" s="151" t="n">
-        <v>100000.0</v>
+        <v>1190.4762470207752</v>
       </c>
       <c r="I43" s="152" t="n">
-        <v>3333.3333333333335</v>
-      </c>
-      <c r="J43" s="151" t="s">
-        <v>142</v>
-      </c>
-      <c r="K43" s="150" t="s">
-        <v>142</v>
-      </c>
-      <c r="L43" s="150" t="s">
-        <v>142</v>
-      </c>
-      <c r="M43" s="152" t="s">
-        <v>142</v>
-      </c>
-      <c r="N43" s="170"/>
+        <v>0.003968254156735918</v>
+      </c>
+      <c r="J43" s="151" t="n">
+        <v>3.100000030826777E-4</v>
+      </c>
+      <c r="K43" s="150" t="n">
+        <v>7.380952592939138E-4</v>
+      </c>
+      <c r="L43" s="150" t="n">
+        <v>369.047607421875</v>
+      </c>
+      <c r="M43" s="152" t="n">
+        <v>0.0012301587266847491</v>
+      </c>
+      <c r="N43" s="282" t="s">
+        <v>148</v>
+      </c>
       <c r="O43" s="53"/>
       <c r="P43" s="130"/>
       <c r="Q43" s="141" t="s">
         <v>140</v>
       </c>
       <c r="R43" s="205" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="S43" s="205" t="n">
-        <v>10.0</v>
+        <v>75000.0</v>
       </c>
       <c r="T43" s="205" t="n">
-        <v>38.709999084472656</v>
+        <v>60.0</v>
       </c>
       <c r="U43" s="205" t="n">
-        <v>20.0</v>
+        <v>100.0</v>
       </c>
       <c r="V43" s="205" t="n">
-        <v>20.0</v>
+        <v>30.0</v>
       </c>
       <c r="W43" s="205" t="n">
-        <v>129033.32713134773</v>
+        <v>0.1818181872367859</v>
       </c>
       <c r="X43" s="205" t="n">
-        <v>6451.666356567386</v>
-      </c>
-      <c r="Y43" s="206"/>
-      <c r="Z43" s="205"/>
-      <c r="AA43" s="205"/>
-      <c r="AB43" s="207"/>
-      <c r="AC43" s="208"/>
+        <v>0.0018181818723678588</v>
+      </c>
+      <c r="Y43" s="206" t="n">
+        <v>0.007575757801532745</v>
+      </c>
+      <c r="Z43" s="205" t="n">
+        <v>0.1818181872367859</v>
+      </c>
+      <c r="AA43" s="205" t="n">
+        <v>0.0018181819468736649</v>
+      </c>
+      <c r="AB43" s="207" t="n">
+        <v>0.007575757801532745</v>
+      </c>
+      <c r="AC43" s="277" t="s">
+        <v>142</v>
+      </c>
       <c r="AD43" s="53"/>
       <c r="AE43" s="47"/>
       <c r="AF43" s="47"/>
@@ -5029,16 +5121,16 @@
       <c r="AJ43" s="229"/>
       <c r="AK43" s="124"/>
       <c r="AL43" s="47" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="AM43" s="47" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AN43" s="34" t="n">
-        <v>3333.333251953125</v>
+        <v>0.003968254197388887</v>
       </c>
       <c r="AO43" s="34" t="n">
-        <v>66666.6640625</v>
+        <v>333.3333435058594</v>
       </c>
       <c r="AP43" s="21"/>
     </row>
@@ -5048,33 +5140,15 @@
       </c>
       <c r="B44" s="174"/>
       <c r="D44" s="32"/>
-      <c r="E44" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="F44" s="150" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="G44" s="150" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H44" s="151" t="n">
-        <v>100000.0</v>
-      </c>
-      <c r="I44" s="151" t="n">
-        <v>3333.3333333333335</v>
-      </c>
-      <c r="J44" s="151" t="s">
-        <v>142</v>
-      </c>
-      <c r="K44" s="150" t="s">
-        <v>142</v>
-      </c>
-      <c r="L44" s="150" t="s">
-        <v>142</v>
-      </c>
-      <c r="M44" s="151" t="s">
-        <v>142</v>
-      </c>
+      <c r="E44" s="32"/>
+      <c r="F44" s="150"/>
+      <c r="G44" s="150"/>
+      <c r="H44" s="151"/>
+      <c r="I44" s="151"/>
+      <c r="J44" s="151"/>
+      <c r="K44" s="150"/>
+      <c r="L44" s="150"/>
+      <c r="M44" s="151"/>
       <c r="N44" s="171"/>
       <c r="O44" s="53"/>
       <c r="P44" s="130"/>
@@ -5082,31 +5156,41 @@
         <v>140</v>
       </c>
       <c r="R44" s="205" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="S44" s="205" t="n">
-        <v>10.0</v>
+        <v>55000.0</v>
       </c>
       <c r="T44" s="205" t="n">
-        <v>38.709999084472656</v>
+        <v>70.0</v>
       </c>
       <c r="U44" s="205" t="n">
-        <v>20.0</v>
+        <v>120.0</v>
       </c>
       <c r="V44" s="205" t="n">
-        <v>20.0</v>
+        <v>100.0</v>
       </c>
       <c r="W44" s="205" t="n">
-        <v>129033.32713134773</v>
+        <v>0.21212121844291687</v>
       </c>
       <c r="X44" s="205" t="n">
-        <v>6451.666356567386</v>
-      </c>
-      <c r="Y44" s="206"/>
-      <c r="Z44" s="205"/>
-      <c r="AA44" s="205"/>
-      <c r="AB44" s="207"/>
-      <c r="AC44" s="208"/>
+        <v>0.0017676768203576407</v>
+      </c>
+      <c r="Y44" s="206" t="n">
+        <v>0.0016666667070239782</v>
+      </c>
+      <c r="Z44" s="205" t="n">
+        <v>0.21212121844291687</v>
+      </c>
+      <c r="AA44" s="205" t="n">
+        <v>0.0017676769057288766</v>
+      </c>
+      <c r="AB44" s="207" t="n">
+        <v>0.0016666667070239782</v>
+      </c>
+      <c r="AC44" s="278" t="s">
+        <v>142</v>
+      </c>
       <c r="AD44" s="53"/>
       <c r="AE44" s="47"/>
       <c r="AF44" s="47"/>
@@ -5119,13 +5203,13 @@
         <v>141</v>
       </c>
       <c r="AM44" s="47" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AN44" s="34" t="n">
-        <v>3333.333251953125</v>
+        <v>0.003968254197388887</v>
       </c>
       <c r="AO44" s="34" t="n">
-        <v>66666.6640625</v>
+        <v>166.6666717529297</v>
       </c>
       <c r="AP44" s="21"/>
     </row>
@@ -5134,52 +5218,58 @@
         <v>4</v>
       </c>
       <c r="B45" s="174"/>
-      <c r="D45" s="32" t="s">
-        <v>149</v>
-      </c>
-      <c r="E45" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="F45" s="150" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="G45" s="150" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H45" s="151" t="n">
-        <v>100000.0</v>
-      </c>
-      <c r="I45" s="151" t="n">
-        <v>3333.3333333333335</v>
-      </c>
-      <c r="J45" s="151" t="s">
-        <v>142</v>
-      </c>
-      <c r="K45" s="150" t="s">
-        <v>142</v>
-      </c>
-      <c r="L45" s="150" t="s">
-        <v>142</v>
-      </c>
-      <c r="M45" s="151" t="s">
-        <v>142</v>
-      </c>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="150"/>
+      <c r="G45" s="150"/>
+      <c r="H45" s="151"/>
+      <c r="I45" s="151"/>
+      <c r="J45" s="151"/>
+      <c r="K45" s="150"/>
+      <c r="L45" s="150"/>
+      <c r="M45" s="151"/>
       <c r="N45" s="171"/>
       <c r="O45" s="53"/>
       <c r="P45" s="130"/>
-      <c r="Q45" s="141"/>
-      <c r="R45" s="205"/>
-      <c r="S45" s="205"/>
-      <c r="T45" s="205"/>
-      <c r="U45" s="205"/>
-      <c r="V45" s="205"/>
-      <c r="W45" s="205"/>
-      <c r="X45" s="205"/>
-      <c r="Y45" s="206"/>
-      <c r="Z45" s="205"/>
-      <c r="AA45" s="205"/>
-      <c r="AB45" s="207"/>
-      <c r="AC45" s="209"/>
+      <c r="Q45" s="141" t="s">
+        <v>140</v>
+      </c>
+      <c r="R45" s="205" t="s">
+        <v>145</v>
+      </c>
+      <c r="S45" s="205" t="n">
+        <v>100000.0</v>
+      </c>
+      <c r="T45" s="205" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="U45" s="205" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="V45" s="205" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="W45" s="205" t="n">
+        <v>0.06060606241226196</v>
+      </c>
+      <c r="X45" s="205" t="n">
+        <v>0.0012121212482452393</v>
+      </c>
+      <c r="Y45" s="206" t="n">
+        <v>0.010101010091602802</v>
+      </c>
+      <c r="Z45" s="205" t="n">
+        <v>0.06060606241226196</v>
+      </c>
+      <c r="AA45" s="205" t="n">
+        <v>0.001212121220305562</v>
+      </c>
+      <c r="AB45" s="207" t="n">
+        <v>0.010101011022925377</v>
+      </c>
+      <c r="AC45" s="279" t="s">
+        <v>142</v>
+      </c>
       <c r="AD45" s="53"/>
       <c r="AE45" s="47"/>
       <c r="AF45" s="47"/>
@@ -5188,83 +5278,67 @@
       <c r="AI45" s="207"/>
       <c r="AJ45" s="231"/>
       <c r="AK45" s="124"/>
-      <c r="AL45" s="47" t="s">
-        <v>141</v>
-      </c>
-      <c r="AM45" s="47" t="s">
-        <v>147</v>
-      </c>
-      <c r="AN45" s="34" t="n">
-        <v>3333.333251953125</v>
-      </c>
-      <c r="AO45" s="34" t="n">
-        <v>66666.6640625</v>
-      </c>
+      <c r="AL45" s="47"/>
+      <c r="AM45" s="47"/>
+      <c r="AN45" s="34"/>
+      <c r="AO45" s="34"/>
       <c r="AP45" s="21"/>
     </row>
     <row customHeight="1" ht="24.95" r="46" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A46" s="174"/>
       <c r="B46" s="174"/>
       <c r="D46" s="32"/>
-      <c r="E46" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="F46" s="150" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="G46" s="150" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H46" s="151" t="n">
-        <v>100000.0</v>
-      </c>
-      <c r="I46" s="151" t="n">
-        <v>3333.3333333333335</v>
-      </c>
-      <c r="J46" s="151" t="s">
-        <v>142</v>
-      </c>
-      <c r="K46" s="150" t="s">
-        <v>142</v>
-      </c>
-      <c r="L46" s="150" t="s">
-        <v>142</v>
-      </c>
-      <c r="M46" s="151" t="s">
-        <v>142</v>
-      </c>
+      <c r="E46" s="32"/>
+      <c r="F46" s="150"/>
+      <c r="G46" s="150"/>
+      <c r="H46" s="151"/>
+      <c r="I46" s="151"/>
+      <c r="J46" s="151"/>
+      <c r="K46" s="150"/>
+      <c r="L46" s="150"/>
+      <c r="M46" s="151"/>
       <c r="N46" s="192"/>
       <c r="O46" s="53"/>
       <c r="P46" s="130"/>
       <c r="Q46" s="141" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="R46" s="205" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="S46" s="205" t="n">
-        <v>10.0</v>
+        <v>15000.0</v>
       </c>
       <c r="T46" s="205" t="n">
-        <v>38.709999084472656</v>
+        <v>30.0</v>
       </c>
       <c r="U46" s="205" t="n">
-        <v>20.0</v>
+        <v>40.0</v>
       </c>
       <c r="V46" s="205" t="n">
-        <v>20.0</v>
+        <v>40.0</v>
       </c>
       <c r="W46" s="205" t="n">
-        <v>129033.32713134773</v>
+        <v>0.09090909361839294</v>
       </c>
       <c r="X46" s="205" t="n">
-        <v>6451.666356567386</v>
-      </c>
-      <c r="Y46" s="206"/>
-      <c r="Z46" s="205"/>
-      <c r="AA46" s="205"/>
-      <c r="AB46" s="207"/>
-      <c r="AC46" s="208"/>
+        <v>0.0022727273404598235</v>
+      </c>
+      <c r="Y46" s="206" t="n">
+        <v>0.0011363637167960405</v>
+      </c>
+      <c r="Z46" s="205" t="n">
+        <v>0.09090909361839294</v>
+      </c>
+      <c r="AA46" s="205" t="n">
+        <v>0.002272727433592081</v>
+      </c>
+      <c r="AB46" s="207" t="n">
+        <v>0.0011363637167960405</v>
+      </c>
+      <c r="AC46" s="280" t="s">
+        <v>142</v>
+      </c>
       <c r="AD46" s="53"/>
       <c r="AE46" s="47"/>
       <c r="AF46" s="47"/>
@@ -5273,82 +5347,66 @@
       <c r="AI46" s="207"/>
       <c r="AJ46" s="232"/>
       <c r="AK46" s="124"/>
-      <c r="AL46" s="47" t="s">
-        <v>143</v>
-      </c>
-      <c r="AM46" s="47" t="s">
-        <v>145</v>
-      </c>
-      <c r="AN46" s="34" t="n">
-        <v>3333.333251953125</v>
-      </c>
-      <c r="AO46" s="34" t="n">
-        <v>3333.333251953125</v>
-      </c>
+      <c r="AL46" s="47"/>
+      <c r="AM46" s="47"/>
+      <c r="AN46" s="34"/>
+      <c r="AO46" s="34"/>
       <c r="AP46" s="21"/>
     </row>
     <row customHeight="1" ht="24.95" r="47" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A47" s="174"/>
       <c r="B47" s="174"/>
       <c r="D47" s="32"/>
-      <c r="E47" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="F47" s="150" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="G47" s="150" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H47" s="150" t="n">
-        <v>100000.0</v>
-      </c>
-      <c r="I47" s="150" t="n">
-        <v>3333.3333333333335</v>
-      </c>
-      <c r="J47" s="151" t="s">
-        <v>142</v>
-      </c>
-      <c r="K47" s="150" t="s">
-        <v>142</v>
-      </c>
-      <c r="L47" s="150" t="s">
-        <v>142</v>
-      </c>
-      <c r="M47" s="150" t="s">
-        <v>142</v>
-      </c>
+      <c r="E47" s="32"/>
+      <c r="F47" s="150"/>
+      <c r="G47" s="150"/>
+      <c r="H47" s="150"/>
+      <c r="I47" s="150"/>
+      <c r="J47" s="151"/>
+      <c r="K47" s="150"/>
+      <c r="L47" s="150"/>
+      <c r="M47" s="152"/>
       <c r="N47" s="172"/>
       <c r="P47" s="117"/>
       <c r="Q47" s="139" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="R47" s="206" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="S47" s="210" t="n">
-        <v>10.0</v>
+        <v>300000.0</v>
       </c>
       <c r="T47" s="210" t="n">
-        <v>38.709999084472656</v>
+        <v>60.0</v>
       </c>
       <c r="U47" s="205" t="n">
-        <v>20.0</v>
+        <v>40.0</v>
       </c>
       <c r="V47" s="205" t="n">
         <v>20.0</v>
       </c>
       <c r="W47" s="206" t="n">
-        <v>129033.32713134773</v>
+        <v>0.1818181872367859</v>
       </c>
       <c r="X47" s="206" t="n">
-        <v>6451.666356567386</v>
-      </c>
-      <c r="Y47" s="206"/>
-      <c r="Z47" s="206"/>
-      <c r="AA47" s="206"/>
-      <c r="AB47" s="211"/>
-      <c r="AC47" s="208"/>
+        <v>0.004545454680919647</v>
+      </c>
+      <c r="Y47" s="206" t="n">
+        <v>0.04545454680919647</v>
+      </c>
+      <c r="Z47" s="206" t="n">
+        <v>0.1818181872367859</v>
+      </c>
+      <c r="AA47" s="206" t="n">
+        <v>0.004545454867184162</v>
+      </c>
+      <c r="AB47" s="211" t="n">
+        <v>0.04545454680919647</v>
+      </c>
+      <c r="AC47" s="281" t="s">
+        <v>142</v>
+      </c>
       <c r="AD47" s="21"/>
       <c r="AE47" s="60"/>
       <c r="AF47" s="34"/>
@@ -5357,79 +5415,35 @@
       <c r="AI47" s="211"/>
       <c r="AJ47" s="233"/>
       <c r="AK47" s="124"/>
-      <c r="AL47" s="60" t="s">
-        <v>143</v>
-      </c>
-      <c r="AM47" s="60" t="s">
-        <v>147</v>
-      </c>
-      <c r="AN47" s="34" t="n">
-        <v>3333.333251953125</v>
-      </c>
-      <c r="AO47" s="34" t="n">
-        <v>66666.6640625</v>
-      </c>
+      <c r="AL47" s="60"/>
+      <c r="AM47" s="60"/>
+      <c r="AN47" s="34"/>
+      <c r="AO47" s="34"/>
       <c r="AP47" s="21"/>
     </row>
     <row customHeight="1" ht="24.95" r="48" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A48" s="174"/>
       <c r="B48" s="174"/>
-      <c r="D48" s="32" t="s">
-        <v>150</v>
-      </c>
-      <c r="E48" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="F48" s="150" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="G48" s="150" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H48" s="150" t="n">
-        <v>100000.0</v>
-      </c>
-      <c r="I48" s="150" t="n">
-        <v>3333.3333333333335</v>
-      </c>
-      <c r="J48" s="151" t="s">
-        <v>142</v>
-      </c>
-      <c r="K48" s="150" t="s">
-        <v>142</v>
-      </c>
-      <c r="L48" s="150" t="s">
-        <v>142</v>
-      </c>
-      <c r="M48" s="150" t="s">
-        <v>142</v>
-      </c>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="150"/>
+      <c r="G48" s="150"/>
+      <c r="H48" s="150"/>
+      <c r="I48" s="150"/>
+      <c r="J48" s="151"/>
+      <c r="K48" s="150"/>
+      <c r="L48" s="150"/>
+      <c r="M48" s="151"/>
       <c r="N48" s="172"/>
       <c r="P48" s="117"/>
-      <c r="Q48" s="139" t="s">
-        <v>149</v>
-      </c>
-      <c r="R48" s="206" t="s">
-        <v>147</v>
-      </c>
-      <c r="S48" s="210" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="T48" s="210" t="n">
-        <v>38.709999084472656</v>
-      </c>
-      <c r="U48" s="205" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="V48" s="205" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="W48" s="206" t="n">
-        <v>129033.32713134773</v>
-      </c>
-      <c r="X48" s="206" t="n">
-        <v>6451.666356567386</v>
-      </c>
+      <c r="Q48" s="139"/>
+      <c r="R48" s="206"/>
+      <c r="S48" s="210"/>
+      <c r="T48" s="210"/>
+      <c r="U48" s="205"/>
+      <c r="V48" s="205"/>
+      <c r="W48" s="206"/>
+      <c r="X48" s="206"/>
       <c r="Y48" s="206"/>
       <c r="Z48" s="206"/>
       <c r="AA48" s="206"/>
@@ -5443,66 +5457,66 @@
       <c r="AI48" s="211"/>
       <c r="AJ48" s="234"/>
       <c r="AK48" s="124"/>
-      <c r="AL48" s="60" t="s">
-        <v>144</v>
-      </c>
-      <c r="AM48" s="60" t="s">
-        <v>145</v>
-      </c>
-      <c r="AN48" s="34" t="n">
-        <v>3333.333251953125</v>
-      </c>
-      <c r="AO48" s="34" t="n">
-        <v>133333.328125</v>
-      </c>
+      <c r="AL48" s="60"/>
+      <c r="AM48" s="60"/>
+      <c r="AN48" s="34"/>
+      <c r="AO48" s="34"/>
       <c r="AP48" s="21"/>
     </row>
     <row customHeight="1" ht="24.95" r="49" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A49" s="174"/>
       <c r="B49" s="174"/>
       <c r="D49" s="32"/>
-      <c r="E49" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="F49" s="150" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="G49" s="150" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H49" s="150" t="n">
-        <v>100000.0</v>
-      </c>
-      <c r="I49" s="150" t="n">
-        <v>3333.3333333333335</v>
-      </c>
-      <c r="J49" s="151" t="s">
-        <v>142</v>
-      </c>
-      <c r="K49" s="150" t="s">
-        <v>142</v>
-      </c>
-      <c r="L49" s="150" t="s">
-        <v>142</v>
-      </c>
-      <c r="M49" s="150" t="s">
-        <v>142</v>
-      </c>
+      <c r="E49" s="32"/>
+      <c r="F49" s="150"/>
+      <c r="G49" s="150"/>
+      <c r="H49" s="150"/>
+      <c r="I49" s="150"/>
+      <c r="J49" s="151"/>
+      <c r="K49" s="150"/>
+      <c r="L49" s="150"/>
+      <c r="M49" s="151"/>
       <c r="N49" s="193"/>
       <c r="P49" s="117"/>
-      <c r="Q49" s="139"/>
-      <c r="R49" s="206"/>
-      <c r="S49" s="210"/>
-      <c r="T49" s="210"/>
-      <c r="U49" s="205"/>
-      <c r="V49" s="205"/>
-      <c r="W49" s="206"/>
-      <c r="X49" s="206"/>
-      <c r="Y49" s="206"/>
-      <c r="Z49" s="206"/>
-      <c r="AA49" s="206"/>
-      <c r="AB49" s="211"/>
-      <c r="AC49" s="208"/>
+      <c r="Q49" s="139" t="s">
+        <v>141</v>
+      </c>
+      <c r="R49" s="206" t="s">
+        <v>149</v>
+      </c>
+      <c r="S49" s="210" t="n">
+        <v>10000.0</v>
+      </c>
+      <c r="T49" s="210" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="U49" s="205" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="V49" s="205" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="W49" s="206" t="n">
+        <v>0.2380952537059784</v>
+      </c>
+      <c r="X49" s="206" t="n">
+        <v>0.00595238134264946</v>
+      </c>
+      <c r="Y49" s="206" t="n">
+        <v>0.0019841270986944437</v>
+      </c>
+      <c r="Z49" s="206" t="n">
+        <v>0.07380952686071396</v>
+      </c>
+      <c r="AA49" s="206" t="n">
+        <v>0.0018452381482347846</v>
+      </c>
+      <c r="AB49" s="211" t="n">
+        <v>6.150793633423746E-4</v>
+      </c>
+      <c r="AC49" s="283" t="s">
+        <v>148</v>
+      </c>
       <c r="AD49" s="21"/>
       <c r="AE49" s="60"/>
       <c r="AF49" s="34"/>
@@ -5511,82 +5525,66 @@
       <c r="AI49" s="211"/>
       <c r="AJ49" s="235"/>
       <c r="AK49" s="124"/>
-      <c r="AL49" s="60" t="s">
-        <v>144</v>
-      </c>
-      <c r="AM49" s="60" t="s">
-        <v>147</v>
-      </c>
-      <c r="AN49" s="34" t="n">
-        <v>3333.333251953125</v>
-      </c>
-      <c r="AO49" s="34" t="n">
-        <v>66666.6640625</v>
-      </c>
+      <c r="AL49" s="60"/>
+      <c r="AM49" s="60"/>
+      <c r="AN49" s="34"/>
+      <c r="AO49" s="34"/>
       <c r="AP49" s="21"/>
     </row>
     <row customHeight="1" ht="24.95" r="50" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A50" s="174"/>
       <c r="B50" s="174"/>
       <c r="D50" s="32"/>
-      <c r="E50" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="F50" s="150" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="G50" s="150" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H50" s="150" t="n">
-        <v>100000.0</v>
-      </c>
-      <c r="I50" s="150" t="n">
-        <v>3333.3333333333335</v>
-      </c>
-      <c r="J50" s="150" t="s">
-        <v>142</v>
-      </c>
-      <c r="K50" s="150" t="s">
-        <v>142</v>
-      </c>
-      <c r="L50" s="150" t="s">
-        <v>142</v>
-      </c>
-      <c r="M50" s="150" t="s">
-        <v>142</v>
-      </c>
+      <c r="E50" s="32"/>
+      <c r="F50" s="150"/>
+      <c r="G50" s="150"/>
+      <c r="H50" s="150"/>
+      <c r="I50" s="150"/>
+      <c r="J50" s="150"/>
+      <c r="K50" s="150"/>
+      <c r="L50" s="150"/>
+      <c r="M50" s="151"/>
       <c r="N50" s="172"/>
       <c r="P50" s="117"/>
       <c r="Q50" s="139" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="R50" s="206" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="S50" s="210" t="n">
-        <v>10.0</v>
+        <v>75000.0</v>
       </c>
       <c r="T50" s="210" t="n">
-        <v>38.709999084472656</v>
+        <v>60.0</v>
       </c>
       <c r="U50" s="205" t="n">
-        <v>20.0</v>
+        <v>100.0</v>
       </c>
       <c r="V50" s="205" t="n">
-        <v>20.0</v>
+        <v>30.0</v>
       </c>
       <c r="W50" s="206" t="n">
-        <v>129033.32713134773</v>
+        <v>0.2380952537059784</v>
       </c>
       <c r="X50" s="205" t="n">
-        <v>6451.666356567386</v>
-      </c>
-      <c r="Y50" s="205"/>
-      <c r="Z50" s="205"/>
-      <c r="AA50" s="205"/>
-      <c r="AB50" s="207"/>
-      <c r="AC50" s="208"/>
+        <v>0.0023809525370597838</v>
+      </c>
+      <c r="Y50" s="205" t="n">
+        <v>0.00992063619196415</v>
+      </c>
+      <c r="Z50" s="205" t="n">
+        <v>0.07380952686071396</v>
+      </c>
+      <c r="AA50" s="205" t="n">
+        <v>7.380952592939138E-4</v>
+      </c>
+      <c r="AB50" s="207" t="n">
+        <v>0.0030753968749195337</v>
+      </c>
+      <c r="AC50" s="284" t="s">
+        <v>148</v>
+      </c>
       <c r="AD50" s="44"/>
       <c r="AE50" s="47"/>
       <c r="AF50" s="47"/>
@@ -5604,67 +5602,57 @@
     <row customHeight="1" ht="24.95" r="51" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A51" s="174"/>
       <c r="B51" s="174"/>
-      <c r="D51" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="E51" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="F51" s="150" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="G51" s="150" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H51" s="150" t="n">
-        <v>100000.0</v>
-      </c>
-      <c r="I51" s="150" t="n">
-        <v>3333.3333333333335</v>
-      </c>
-      <c r="J51" s="150" t="s">
-        <v>142</v>
-      </c>
-      <c r="K51" s="150" t="s">
-        <v>142</v>
-      </c>
-      <c r="L51" s="150" t="s">
-        <v>142</v>
-      </c>
-      <c r="M51" s="150" t="s">
-        <v>142</v>
-      </c>
+      <c r="D51" s="32"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="150"/>
+      <c r="G51" s="150"/>
+      <c r="H51" s="150"/>
+      <c r="I51" s="150"/>
+      <c r="J51" s="150"/>
+      <c r="K51" s="150"/>
+      <c r="L51" s="150"/>
+      <c r="M51" s="151"/>
       <c r="N51" s="172"/>
       <c r="P51" s="117"/>
       <c r="Q51" s="139" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="R51" s="206" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="S51" s="210" t="n">
-        <v>10.0</v>
+        <v>55000.0</v>
       </c>
       <c r="T51" s="210" t="n">
-        <v>38.709999084472656</v>
+        <v>70.0</v>
       </c>
       <c r="U51" s="205" t="n">
-        <v>20.0</v>
+        <v>120.0</v>
       </c>
       <c r="V51" s="205" t="n">
-        <v>20.0</v>
+        <v>100.0</v>
       </c>
       <c r="W51" s="206" t="n">
-        <v>129033.32713134773</v>
+        <v>0.2777777910232544</v>
       </c>
       <c r="X51" s="205" t="n">
-        <v>6451.666356567386</v>
-      </c>
-      <c r="Y51" s="205"/>
-      <c r="Z51" s="205"/>
-      <c r="AA51" s="205"/>
-      <c r="AB51" s="207"/>
-      <c r="AC51" s="209"/>
+        <v>0.0023148149251937867</v>
+      </c>
+      <c r="Y51" s="205" t="n">
+        <v>0.0021825397852808237</v>
+      </c>
+      <c r="Z51" s="205" t="n">
+        <v>0.08611111342906952</v>
+      </c>
+      <c r="AA51" s="205" t="n">
+        <v>7.175926002673805E-4</v>
+      </c>
+      <c r="AB51" s="207" t="n">
+        <v>6.765872822143137E-4</v>
+      </c>
+      <c r="AC51" s="285" t="s">
+        <v>148</v>
+      </c>
       <c r="AD51" s="63"/>
       <c r="AE51" s="47"/>
       <c r="AF51" s="47"/>
@@ -5683,64 +5671,56 @@
       <c r="A52" s="174"/>
       <c r="B52" s="174"/>
       <c r="D52" s="32"/>
-      <c r="E52" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="F52" s="150" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="G52" s="150" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H52" s="150" t="n">
-        <v>100000.0</v>
-      </c>
-      <c r="I52" s="150" t="n">
-        <v>3333.3333333333335</v>
-      </c>
-      <c r="J52" s="150" t="s">
-        <v>142</v>
-      </c>
-      <c r="K52" s="150" t="s">
-        <v>142</v>
-      </c>
-      <c r="L52" s="150" t="s">
-        <v>142</v>
-      </c>
-      <c r="M52" s="150" t="s">
-        <v>142</v>
-      </c>
+      <c r="E52" s="32"/>
+      <c r="F52" s="150"/>
+      <c r="G52" s="150"/>
+      <c r="H52" s="150"/>
+      <c r="I52" s="150"/>
+      <c r="J52" s="150"/>
+      <c r="K52" s="150"/>
+      <c r="L52" s="150"/>
+      <c r="M52" s="151"/>
       <c r="N52" s="172"/>
       <c r="P52" s="117"/>
       <c r="Q52" s="139" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="R52" s="206" t="s">
         <v>147</v>
       </c>
       <c r="S52" s="210" t="n">
-        <v>10.0</v>
+        <v>300000.0</v>
       </c>
       <c r="T52" s="210" t="n">
-        <v>38.709999084472656</v>
+        <v>60.0</v>
       </c>
       <c r="U52" s="205" t="n">
-        <v>20.0</v>
+        <v>40.0</v>
       </c>
       <c r="V52" s="205" t="n">
         <v>20.0</v>
       </c>
       <c r="W52" s="206" t="n">
-        <v>129033.32713134773</v>
+        <v>0.2380952537059784</v>
       </c>
       <c r="X52" s="206" t="n">
-        <v>6451.666356567386</v>
-      </c>
-      <c r="Y52" s="206"/>
-      <c r="Z52" s="206"/>
-      <c r="AA52" s="206"/>
-      <c r="AB52" s="211"/>
-      <c r="AC52" s="208"/>
+        <v>0.00595238134264946</v>
+      </c>
+      <c r="Y52" s="206" t="n">
+        <v>0.0595238171517849</v>
+      </c>
+      <c r="Z52" s="206" t="n">
+        <v>0.07380952686071396</v>
+      </c>
+      <c r="AA52" s="206" t="n">
+        <v>0.0018452381482347846</v>
+      </c>
+      <c r="AB52" s="211" t="n">
+        <v>0.01845238171517849</v>
+      </c>
+      <c r="AC52" s="286" t="s">
+        <v>148</v>
+      </c>
       <c r="AD52" s="21"/>
       <c r="AE52" s="34"/>
       <c r="AF52" s="34"/>
@@ -5759,33 +5739,15 @@
       <c r="A53" s="174"/>
       <c r="B53" s="174"/>
       <c r="D53" s="32"/>
-      <c r="E53" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="F53" s="150" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="G53" s="150" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H53" s="150" t="n">
-        <v>100000.0</v>
-      </c>
-      <c r="I53" s="150" t="n">
-        <v>3333.3333333333335</v>
-      </c>
-      <c r="J53" s="150" t="s">
-        <v>142</v>
-      </c>
-      <c r="K53" s="150" t="s">
-        <v>142</v>
-      </c>
-      <c r="L53" s="150" t="s">
-        <v>142</v>
-      </c>
-      <c r="M53" s="150" t="s">
-        <v>142</v>
-      </c>
+      <c r="E53" s="32"/>
+      <c r="F53" s="150"/>
+      <c r="G53" s="150"/>
+      <c r="H53" s="150"/>
+      <c r="I53" s="150"/>
+      <c r="J53" s="150"/>
+      <c r="K53" s="150"/>
+      <c r="L53" s="150"/>
+      <c r="M53" s="152"/>
       <c r="N53" s="194"/>
       <c r="P53" s="117"/>
       <c r="Q53" s="139"/>
@@ -5827,33 +5789,17 @@
       <c r="J54" s="150"/>
       <c r="K54" s="150"/>
       <c r="L54" s="150"/>
-      <c r="M54" s="150"/>
+      <c r="M54" s="151"/>
       <c r="N54" s="172"/>
       <c r="P54" s="117"/>
-      <c r="Q54" s="139" t="s">
-        <v>151</v>
-      </c>
-      <c r="R54" s="206" t="s">
-        <v>145</v>
-      </c>
-      <c r="S54" s="210" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="T54" s="210" t="n">
-        <v>38.709999084472656</v>
-      </c>
-      <c r="U54" s="206" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="V54" s="206" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="W54" s="206" t="n">
-        <v>129033.32713134773</v>
-      </c>
-      <c r="X54" s="206" t="n">
-        <v>6451.666356567386</v>
-      </c>
+      <c r="Q54" s="139"/>
+      <c r="R54" s="206"/>
+      <c r="S54" s="210"/>
+      <c r="T54" s="210"/>
+      <c r="U54" s="206"/>
+      <c r="V54" s="206"/>
+      <c r="W54" s="206"/>
+      <c r="X54" s="206"/>
       <c r="Y54" s="206"/>
       <c r="Z54" s="206"/>
       <c r="AA54" s="206"/>
@@ -5885,33 +5831,17 @@
       <c r="J55" s="150"/>
       <c r="K55" s="150"/>
       <c r="L55" s="150"/>
-      <c r="M55" s="150"/>
+      <c r="M55" s="151"/>
       <c r="N55" s="172"/>
       <c r="P55" s="117"/>
-      <c r="Q55" s="139" t="s">
-        <v>151</v>
-      </c>
-      <c r="R55" s="206" t="s">
-        <v>146</v>
-      </c>
-      <c r="S55" s="210" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="T55" s="210" t="n">
-        <v>38.709999084472656</v>
-      </c>
-      <c r="U55" s="206" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="V55" s="206" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="W55" s="206" t="n">
-        <v>129033.32713134773</v>
-      </c>
-      <c r="X55" s="206" t="n">
-        <v>6451.666356567386</v>
-      </c>
+      <c r="Q55" s="139"/>
+      <c r="R55" s="206"/>
+      <c r="S55" s="210"/>
+      <c r="T55" s="210"/>
+      <c r="U55" s="206"/>
+      <c r="V55" s="206"/>
+      <c r="W55" s="206"/>
+      <c r="X55" s="206"/>
       <c r="Y55" s="206"/>
       <c r="Z55" s="206"/>
       <c r="AA55" s="206"/>
@@ -5943,33 +5873,17 @@
       <c r="J56" s="150"/>
       <c r="K56" s="150"/>
       <c r="L56" s="150"/>
-      <c r="M56" s="150"/>
+      <c r="M56" s="151"/>
       <c r="N56" s="195"/>
       <c r="P56" s="117"/>
-      <c r="Q56" s="139" t="s">
-        <v>151</v>
-      </c>
-      <c r="R56" s="206" t="s">
-        <v>147</v>
-      </c>
-      <c r="S56" s="210" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="T56" s="210" t="n">
-        <v>38.709999084472656</v>
-      </c>
-      <c r="U56" s="206" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="V56" s="206" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="W56" s="206" t="n">
-        <v>129033.32713134773</v>
-      </c>
-      <c r="X56" s="206" t="n">
-        <v>6451.666356567386</v>
-      </c>
+      <c r="Q56" s="139"/>
+      <c r="R56" s="206"/>
+      <c r="S56" s="210"/>
+      <c r="T56" s="210"/>
+      <c r="U56" s="206"/>
+      <c r="V56" s="206"/>
+      <c r="W56" s="206"/>
+      <c r="X56" s="206"/>
       <c r="Y56" s="206"/>
       <c r="Z56" s="206"/>
       <c r="AA56" s="206"/>
@@ -6001,7 +5915,7 @@
       <c r="J57" s="138"/>
       <c r="K57" s="137"/>
       <c r="L57" s="137"/>
-      <c r="M57" s="137"/>
+      <c r="M57" s="150"/>
       <c r="N57" s="173"/>
       <c r="P57" s="117"/>
       <c r="Q57" s="139"/>
@@ -6043,7 +5957,7 @@
       <c r="J58" s="138"/>
       <c r="K58" s="137"/>
       <c r="L58" s="137"/>
-      <c r="M58" s="137"/>
+      <c r="M58" s="150"/>
       <c r="N58" s="173"/>
       <c r="P58" s="117"/>
       <c r="Q58" s="139"/>
@@ -6085,7 +5999,7 @@
       <c r="J59" s="138"/>
       <c r="K59" s="137"/>
       <c r="L59" s="137"/>
-      <c r="M59" s="137"/>
+      <c r="M59" s="150"/>
       <c r="N59" s="137"/>
       <c r="P59" s="117"/>
       <c r="Q59" s="139"/>
@@ -6127,7 +6041,7 @@
       <c r="J60" s="138"/>
       <c r="K60" s="137"/>
       <c r="L60" s="137"/>
-      <c r="M60" s="137"/>
+      <c r="M60" s="150"/>
       <c r="N60" s="137"/>
       <c r="P60" s="117"/>
       <c r="Q60" s="139"/>
@@ -6167,7 +6081,7 @@
       <c r="J61" s="138"/>
       <c r="K61" s="137"/>
       <c r="L61" s="137"/>
-      <c r="M61" s="137"/>
+      <c r="M61" s="150"/>
       <c r="N61" s="137"/>
       <c r="P61" s="117"/>
       <c r="Q61" s="139"/>

--- a/eResidue_CV_eDocs/bin/Test Data/eResidue_eDocs_TestCase_result.xlsx
+++ b/eResidue_CV_eDocs/bin/Test Data/eResidue_eDocs_TestCase_result.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="189">
   <si>
     <t>Testcase_id</t>
   </si>
@@ -499,9 +499,6 @@
     <t>Max Length</t>
   </si>
   <si>
-    <t>Asser No</t>
-  </si>
-  <si>
     <t>Manufacturer</t>
   </si>
   <si>
@@ -577,13 +574,70 @@
     <t>Minimum Batch size cannot be empty</t>
   </si>
   <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>Space Accepted</t>
+    <t>Assert No</t>
+  </si>
+  <si>
+    <t>Choose Cleaning Process Type</t>
+  </si>
+  <si>
+    <t>S3 active1</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>E5</t>
   </si>
   <si>
     <t>Fail</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>S3 active2</t>
+  </si>
+  <si>
+    <t>S3 active3</t>
+  </si>
+  <si>
+    <t>S3 active4</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>S4 active1</t>
+  </si>
+  <si>
+    <t>S4 active2</t>
+  </si>
+  <si>
+    <t>S1 active1</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>S1 active2</t>
   </si>
 </sst>
 </file>
@@ -591,7 +645,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="113" x14ac:knownFonts="1">
+  <fonts count="164" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1197,17 +1251,7 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
+      <color indexed="10"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1217,7 +1261,272 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="17"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1380,7 +1689,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="278">
+  <cellXfs count="330">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
@@ -1820,32 +2129,36 @@
     <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="8" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="75" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="5" fillId="2" fontId="21" numFmtId="3" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="6" fillId="2" fontId="21" numFmtId="3" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="9" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="2" fontId="21" numFmtId="3" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="5" fillId="5" fontId="21" numFmtId="3" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="6" fillId="5" fontId="21" numFmtId="3" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="5" fontId="21" numFmtId="3" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="8" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="10" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="6" fillId="0" fontId="10" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="10" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="3" fontId="11" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="11" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="14" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -1856,7 +2169,13 @@
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="14" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="8" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="7" fillId="0" fontId="8" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="3" fillId="0" fontId="8" numFmtId="49" xfId="0">
@@ -1886,38 +2205,80 @@
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="75" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="9" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="5" fillId="2" fontId="21" numFmtId="3" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="10" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="6" fillId="2" fontId="21" numFmtId="3" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="6" fillId="0" fontId="10" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="2" fontId="21" numFmtId="3" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="10" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="5" fillId="5" fontId="21" numFmtId="3" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="3" fontId="11" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="6" fillId="5" fontId="21" numFmtId="3" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="11" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="5" fontId="21" numFmtId="3" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="8" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="108" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="109" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="110" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="111" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="123" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="148" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="149" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="156" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="157" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="158" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="163" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -3599,21 +3960,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="80" width="5.7109375" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" style="80" width="5.7109375" collapsed="false"/>
     <col min="2" max="2" customWidth="true" style="80" width="15.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="80" width="38.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="80" width="38.7109375" collapsed="false"/>
     <col min="4" max="4" customWidth="true" style="80" width="37.5703125" collapsed="true"/>
     <col min="5" max="5" customWidth="true" style="80" width="23.28515625" collapsed="true"/>
     <col min="6" max="6" customWidth="true" style="80" width="26.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="80" width="27.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="80" width="27.5703125" collapsed="false"/>
     <col min="8" max="8" customWidth="true" style="80" width="8.85546875" collapsed="true"/>
-    <col min="9" max="16384" style="80" width="9.140625" collapsed="true"/>
+    <col min="9" max="16384" style="80" width="9.140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -3672,10 +4033,10 @@
       <c r="A7" s="12">
         <v>1</v>
       </c>
-      <c r="B7" s="243" t="s">
+      <c r="B7" s="244" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="243" t="s">
+      <c r="C7" s="244" t="s">
         <v>47</v>
       </c>
       <c r="D7" s="12" t="s">
@@ -3685,19 +4046,15 @@
       <c r="F7" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="G7" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="H7" s="273" t="s">
-        <v>168</v>
-      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="237"/>
     </row>
     <row ht="30" r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>2</v>
       </c>
-      <c r="B8" s="243"/>
-      <c r="C8" s="243"/>
+      <c r="B8" s="244"/>
+      <c r="C8" s="244"/>
       <c r="D8" s="12" t="s">
         <v>49</v>
       </c>
@@ -3707,19 +4064,15 @@
       <c r="F8" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="G8" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="H8" s="277" t="s">
-        <v>168</v>
-      </c>
+      <c r="G8" s="12"/>
+      <c r="H8" s="238"/>
     </row>
     <row ht="60" r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>3</v>
       </c>
-      <c r="B9" s="243"/>
-      <c r="C9" s="243"/>
+      <c r="B9" s="244"/>
+      <c r="C9" s="244"/>
       <c r="D9" s="12" t="s">
         <v>50</v>
       </c>
@@ -3729,19 +4082,15 @@
       <c r="F9" s="239">
         <v>75</v>
       </c>
-      <c r="G9" s="239" t="n">
-        <v>75.0</v>
-      </c>
-      <c r="H9" s="274" t="s">
-        <v>168</v>
-      </c>
+      <c r="G9" s="239"/>
+      <c r="H9" s="240"/>
     </row>
     <row ht="60" r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>4</v>
       </c>
-      <c r="B10" s="243"/>
-      <c r="C10" s="243"/>
+      <c r="B10" s="244"/>
+      <c r="C10" s="244"/>
       <c r="D10" s="12" t="s">
         <v>51</v>
       </c>
@@ -3749,21 +4098,17 @@
         <v>134</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="H10" s="275" t="s">
-        <v>168</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="G10" s="12"/>
+      <c r="H10" s="241"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>5</v>
       </c>
-      <c r="B11" s="243"/>
-      <c r="C11" s="243"/>
+      <c r="B11" s="244"/>
+      <c r="C11" s="244"/>
       <c r="D11" s="12" t="s">
         <v>133</v>
       </c>
@@ -3771,12 +4116,8 @@
         <v>135</v>
       </c>
       <c r="F11" s="12"/>
-      <c r="G11" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="H11" s="276" t="s">
-        <v>170</v>
-      </c>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
@@ -3803,8 +4144,12 @@
       <c r="D13" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
+      <c r="E13" s="243" t="s">
+        <v>132</v>
+      </c>
+      <c r="F13" s="12">
+        <v>75</v>
+      </c>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
     </row>
@@ -3814,13 +4159,17 @@
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="12" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
+      <c r="E14" s="243" t="s">
+        <v>132</v>
+      </c>
+      <c r="F14" s="12">
+        <v>75</v>
+      </c>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
     </row>
@@ -3830,11 +4179,15 @@
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
+      <c r="E15" s="243" t="s">
+        <v>132</v>
+      </c>
+      <c r="F15" s="12">
+        <v>75</v>
+      </c>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
     </row>
@@ -3851,7 +4204,7 @@
       </c>
       <c r="E16" s="12"/>
       <c r="F16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
@@ -3863,11 +4216,11 @@
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
@@ -3895,10 +4248,10 @@
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
@@ -3914,7 +4267,7 @@
         <v>133</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F20" s="12">
         <v>123</v>
@@ -3929,10 +4282,10 @@
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
       <c r="D21" s="242" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F21" s="12">
         <v>1.23</v>
@@ -3946,13 +4299,17 @@
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
+      <c r="E22" s="243" t="s">
+        <v>132</v>
+      </c>
+      <c r="F22" s="12">
+        <v>75</v>
+      </c>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
     </row>
@@ -3962,10 +4319,10 @@
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D23" s="12" t="s">
         <v>148</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>149</v>
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
@@ -3979,7 +4336,7 @@
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
       <c r="D24" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
@@ -3992,7 +4349,7 @@
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
@@ -4006,7 +4363,7 @@
       </c>
       <c r="B26" s="12"/>
       <c r="C26" s="242" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>48</v>
@@ -4023,7 +4380,7 @@
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
       <c r="D27" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
@@ -4051,7 +4408,7 @@
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
       <c r="D29" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
@@ -4079,7 +4436,7 @@
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
       <c r="D31" s="242" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
@@ -4092,7 +4449,7 @@
       </c>
       <c r="B32" s="12"/>
       <c r="C32" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
@@ -4106,14 +4463,14 @@
       </c>
       <c r="B33" s="12"/>
       <c r="C33" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D33" s="12" t="s">
         <v>48</v>
       </c>
       <c r="E33" s="12"/>
       <c r="F33" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G33" s="12"/>
       <c r="H33" s="12"/>
@@ -4125,11 +4482,11 @@
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
       <c r="D34" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E34" s="12"/>
       <c r="F34" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G34" s="12"/>
       <c r="H34" s="12"/>
@@ -4157,10 +4514,10 @@
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
       <c r="D36" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
@@ -4176,7 +4533,7 @@
         <v>133</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F37" s="12">
         <v>123</v>
@@ -4191,10 +4548,10 @@
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
       <c r="D38" s="242" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F38" s="12">
         <v>1.23</v>
@@ -4208,13 +4565,17 @@
       </c>
       <c r="B39" s="12"/>
       <c r="C39" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D39" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
+      <c r="E39" s="243" t="s">
+        <v>132</v>
+      </c>
+      <c r="F39" s="12">
+        <v>75</v>
+      </c>
       <c r="G39" s="12"/>
       <c r="H39" s="12"/>
     </row>
@@ -4224,7 +4585,7 @@
       </c>
       <c r="B40" s="12"/>
       <c r="C40" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D40" s="12"/>
       <c r="E40" s="12"/>
@@ -4238,13 +4599,15 @@
       </c>
       <c r="B41" s="12"/>
       <c r="C41" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>149</v>
+        <v>48</v>
       </c>
       <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
+      <c r="F41" t="s">
+        <v>168</v>
+      </c>
       <c r="G41" s="12"/>
       <c r="H41" s="12"/>
     </row>
@@ -4254,10 +4617,10 @@
       </c>
       <c r="B42" s="12"/>
       <c r="C42" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E42" s="12"/>
       <c r="F42" s="12"/>
@@ -4270,13 +4633,17 @@
       </c>
       <c r="B43" s="12"/>
       <c r="C43" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D43" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
+      <c r="E43" s="243" t="s">
+        <v>132</v>
+      </c>
+      <c r="F43" s="12">
+        <v>75</v>
+      </c>
       <c r="G43" s="12"/>
       <c r="H43" s="12"/>
     </row>
@@ -4286,7 +4653,7 @@
       </c>
       <c r="B44" s="12"/>
       <c r="C44" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D44" s="12" t="s">
         <v>141</v>
@@ -4374,21 +4741,21 @@
     <col min="36" max="36" customWidth="true" style="15" width="19.42578125" collapsed="true"/>
     <col min="37" max="37" customWidth="true" style="15" width="13.42578125" collapsed="true"/>
     <col min="38" max="38" customWidth="true" style="15" width="26.0" collapsed="true"/>
-    <col min="39" max="39" customWidth="true" style="15" width="26.0" collapsed="true"/>
+    <col min="39" max="39" customWidth="true" style="15" width="26.0" collapsed="false"/>
     <col min="40" max="41" customWidth="true" style="15" width="29.0" collapsed="true"/>
     <col min="42" max="16384" style="15" width="8.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="39" r="1" spans="1:48" x14ac:dyDescent="0.5">
-      <c r="F1" s="246" t="s">
+      <c r="F1" s="268" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="246"/>
-      <c r="H1" s="246"/>
-      <c r="I1" s="246"/>
-      <c r="J1" s="246"/>
-      <c r="K1" s="246"/>
-      <c r="L1" s="246"/>
+      <c r="G1" s="268"/>
+      <c r="H1" s="268"/>
+      <c r="I1" s="268"/>
+      <c r="J1" s="268"/>
+      <c r="K1" s="268"/>
+      <c r="L1" s="268"/>
       <c r="U1" s="15" t="s">
         <v>53</v>
       </c>
@@ -4437,22 +4804,22 @@
       <c r="L5" s="16"/>
     </row>
     <row customHeight="1" ht="36.75" r="6" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="D6" s="247" t="s">
+      <c r="D6" s="269" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="248"/>
-      <c r="F6" s="248"/>
-      <c r="G6" s="248"/>
-      <c r="H6" s="249"/>
+      <c r="E6" s="270"/>
+      <c r="F6" s="270"/>
+      <c r="G6" s="270"/>
+      <c r="H6" s="271"/>
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
-      <c r="M6" s="247" t="s">
+      <c r="M6" s="269" t="s">
         <v>56</v>
       </c>
-      <c r="N6" s="248"/>
-      <c r="O6" s="248"/>
-      <c r="P6" s="248"/>
-      <c r="Q6" s="249"/>
+      <c r="N6" s="270"/>
+      <c r="O6" s="270"/>
+      <c r="P6" s="270"/>
+      <c r="Q6" s="271"/>
     </row>
     <row customHeight="1" ht="76.5" r="7" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A7" s="17" t="s">
@@ -4470,10 +4837,10 @@
       <c r="E7" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="250" t="s">
+      <c r="F7" s="272" t="s">
         <v>62</v>
       </c>
-      <c r="G7" s="251"/>
+      <c r="G7" s="273"/>
       <c r="H7" s="17" t="s">
         <v>63</v>
       </c>
@@ -4496,10 +4863,10 @@
         <v>69</v>
       </c>
       <c r="O7" s="22"/>
-      <c r="P7" s="250" t="s">
+      <c r="P7" s="272" t="s">
         <v>70</v>
       </c>
-      <c r="Q7" s="251"/>
+      <c r="Q7" s="273"/>
       <c r="R7" s="23" t="s">
         <v>64</v>
       </c>
@@ -4567,7 +4934,7 @@
     </row>
     <row customHeight="1" ht="24.95" r="9" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A9" s="32"/>
-      <c r="B9" s="252"/>
+      <c r="B9" s="254"/>
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
       <c r="E9" s="33"/>
@@ -4578,15 +4945,15 @@
       <c r="J9" s="29"/>
       <c r="K9" s="29"/>
       <c r="L9" s="35"/>
-      <c r="M9" s="244"/>
-      <c r="N9" s="256"/>
-      <c r="O9" s="244"/>
-      <c r="P9" s="244"/>
-      <c r="Q9" s="244"/>
-      <c r="R9" s="244"/>
-      <c r="S9" s="244"/>
-      <c r="T9" s="259"/>
-      <c r="U9" s="244"/>
+      <c r="M9" s="257"/>
+      <c r="N9" s="260"/>
+      <c r="O9" s="257"/>
+      <c r="P9" s="257"/>
+      <c r="Q9" s="257"/>
+      <c r="R9" s="257"/>
+      <c r="S9" s="257"/>
+      <c r="T9" s="263"/>
+      <c r="U9" s="257"/>
       <c r="V9" s="34"/>
       <c r="W9" s="29"/>
       <c r="X9" s="29"/>
@@ -4596,7 +4963,7 @@
     </row>
     <row customHeight="1" ht="24.95" r="10" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A10" s="33"/>
-      <c r="B10" s="253"/>
+      <c r="B10" s="255"/>
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
       <c r="E10" s="33"/>
@@ -4607,15 +4974,15 @@
       <c r="J10" s="29"/>
       <c r="K10" s="29"/>
       <c r="L10" s="35"/>
-      <c r="M10" s="255"/>
-      <c r="N10" s="257"/>
-      <c r="O10" s="255"/>
-      <c r="P10" s="255"/>
-      <c r="Q10" s="255"/>
-      <c r="R10" s="255"/>
-      <c r="S10" s="255"/>
-      <c r="T10" s="260"/>
-      <c r="U10" s="255"/>
+      <c r="M10" s="258"/>
+      <c r="N10" s="261"/>
+      <c r="O10" s="258"/>
+      <c r="P10" s="258"/>
+      <c r="Q10" s="258"/>
+      <c r="R10" s="258"/>
+      <c r="S10" s="258"/>
+      <c r="T10" s="264"/>
+      <c r="U10" s="258"/>
       <c r="V10" s="34"/>
       <c r="W10" s="29"/>
       <c r="X10" s="29"/>
@@ -4623,8 +4990,8 @@
       <c r="AK10" s="39"/>
     </row>
     <row customHeight="1" ht="24.95" r="11" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A11" s="244"/>
-      <c r="B11" s="253"/>
+      <c r="A11" s="257"/>
+      <c r="B11" s="255"/>
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
       <c r="E11" s="33"/>
@@ -4635,15 +5002,15 @@
       <c r="J11" s="29"/>
       <c r="K11" s="29"/>
       <c r="L11" s="35"/>
-      <c r="M11" s="255"/>
-      <c r="N11" s="257"/>
-      <c r="O11" s="255"/>
-      <c r="P11" s="255"/>
-      <c r="Q11" s="255"/>
-      <c r="R11" s="255"/>
-      <c r="S11" s="255"/>
-      <c r="T11" s="260"/>
-      <c r="U11" s="255"/>
+      <c r="M11" s="258"/>
+      <c r="N11" s="261"/>
+      <c r="O11" s="258"/>
+      <c r="P11" s="258"/>
+      <c r="Q11" s="258"/>
+      <c r="R11" s="258"/>
+      <c r="S11" s="258"/>
+      <c r="T11" s="264"/>
+      <c r="U11" s="258"/>
       <c r="V11" s="34"/>
       <c r="W11" s="29"/>
       <c r="X11" s="29"/>
@@ -4653,8 +5020,8 @@
       <c r="AV11" s="49"/>
     </row>
     <row customHeight="1" ht="24.95" r="12" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A12" s="245"/>
-      <c r="B12" s="254"/>
+      <c r="A12" s="259"/>
+      <c r="B12" s="256"/>
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
       <c r="E12" s="33"/>
@@ -4665,15 +5032,15 @@
       <c r="J12" s="29"/>
       <c r="K12" s="29"/>
       <c r="L12" s="35"/>
-      <c r="M12" s="245"/>
-      <c r="N12" s="258"/>
-      <c r="O12" s="245"/>
-      <c r="P12" s="245"/>
-      <c r="Q12" s="245"/>
-      <c r="R12" s="245"/>
-      <c r="S12" s="245"/>
-      <c r="T12" s="261"/>
-      <c r="U12" s="245"/>
+      <c r="M12" s="259"/>
+      <c r="N12" s="262"/>
+      <c r="O12" s="259"/>
+      <c r="P12" s="259"/>
+      <c r="Q12" s="259"/>
+      <c r="R12" s="259"/>
+      <c r="S12" s="259"/>
+      <c r="T12" s="265"/>
+      <c r="U12" s="259"/>
       <c r="V12" s="34"/>
       <c r="W12" s="29"/>
       <c r="X12" s="29"/>
@@ -4682,7 +5049,7 @@
     </row>
     <row customHeight="1" ht="24.95" r="13" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A13" s="36"/>
-      <c r="B13" s="252"/>
+      <c r="B13" s="254"/>
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
       <c r="E13" s="33"/>
@@ -4693,15 +5060,15 @@
       <c r="J13" s="29"/>
       <c r="K13" s="29"/>
       <c r="L13" s="35"/>
-      <c r="M13" s="244"/>
-      <c r="N13" s="256"/>
-      <c r="O13" s="244"/>
-      <c r="P13" s="244"/>
-      <c r="Q13" s="244"/>
-      <c r="R13" s="244"/>
-      <c r="S13" s="244"/>
-      <c r="T13" s="259"/>
-      <c r="U13" s="244"/>
+      <c r="M13" s="257"/>
+      <c r="N13" s="260"/>
+      <c r="O13" s="257"/>
+      <c r="P13" s="257"/>
+      <c r="Q13" s="257"/>
+      <c r="R13" s="257"/>
+      <c r="S13" s="257"/>
+      <c r="T13" s="263"/>
+      <c r="U13" s="257"/>
       <c r="V13" s="34"/>
       <c r="W13" s="29"/>
       <c r="X13" s="29"/>
@@ -4710,7 +5077,7 @@
     </row>
     <row customHeight="1" ht="24.95" r="14" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A14" s="37"/>
-      <c r="B14" s="253"/>
+      <c r="B14" s="255"/>
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
       <c r="E14" s="33"/>
@@ -4721,15 +5088,15 @@
       <c r="J14" s="29"/>
       <c r="K14" s="29"/>
       <c r="L14" s="35"/>
-      <c r="M14" s="255"/>
-      <c r="N14" s="257"/>
-      <c r="O14" s="255"/>
-      <c r="P14" s="255"/>
-      <c r="Q14" s="255"/>
-      <c r="R14" s="255"/>
-      <c r="S14" s="255"/>
-      <c r="T14" s="260"/>
-      <c r="U14" s="255"/>
+      <c r="M14" s="258"/>
+      <c r="N14" s="261"/>
+      <c r="O14" s="258"/>
+      <c r="P14" s="258"/>
+      <c r="Q14" s="258"/>
+      <c r="R14" s="258"/>
+      <c r="S14" s="258"/>
+      <c r="T14" s="264"/>
+      <c r="U14" s="258"/>
       <c r="V14" s="34"/>
       <c r="W14" s="29"/>
       <c r="X14" s="29"/>
@@ -4737,8 +5104,8 @@
       <c r="AU14" s="54"/>
     </row>
     <row customHeight="1" ht="24.95" r="15" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A15" s="262"/>
-      <c r="B15" s="253"/>
+      <c r="A15" s="266"/>
+      <c r="B15" s="255"/>
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
@@ -4749,15 +5116,15 @@
       <c r="J15" s="29"/>
       <c r="K15" s="29"/>
       <c r="L15" s="35"/>
-      <c r="M15" s="255"/>
-      <c r="N15" s="257"/>
-      <c r="O15" s="255"/>
-      <c r="P15" s="255"/>
-      <c r="Q15" s="255"/>
-      <c r="R15" s="255"/>
-      <c r="S15" s="255"/>
-      <c r="T15" s="260"/>
-      <c r="U15" s="255"/>
+      <c r="M15" s="258"/>
+      <c r="N15" s="261"/>
+      <c r="O15" s="258"/>
+      <c r="P15" s="258"/>
+      <c r="Q15" s="258"/>
+      <c r="R15" s="258"/>
+      <c r="S15" s="258"/>
+      <c r="T15" s="264"/>
+      <c r="U15" s="258"/>
       <c r="V15" s="34"/>
       <c r="W15" s="29"/>
       <c r="X15" s="29"/>
@@ -4765,8 +5132,8 @@
       <c r="AU15" s="39"/>
     </row>
     <row customHeight="1" ht="24.95" r="16" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A16" s="263"/>
-      <c r="B16" s="254"/>
+      <c r="A16" s="267"/>
+      <c r="B16" s="256"/>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
@@ -4777,15 +5144,15 @@
       <c r="J16" s="29"/>
       <c r="K16" s="29"/>
       <c r="L16" s="35"/>
-      <c r="M16" s="245"/>
-      <c r="N16" s="258"/>
-      <c r="O16" s="245"/>
-      <c r="P16" s="245"/>
-      <c r="Q16" s="245"/>
-      <c r="R16" s="245"/>
-      <c r="S16" s="245"/>
-      <c r="T16" s="261"/>
-      <c r="U16" s="245"/>
+      <c r="M16" s="259"/>
+      <c r="N16" s="262"/>
+      <c r="O16" s="259"/>
+      <c r="P16" s="259"/>
+      <c r="Q16" s="259"/>
+      <c r="R16" s="259"/>
+      <c r="S16" s="259"/>
+      <c r="T16" s="265"/>
+      <c r="U16" s="259"/>
       <c r="V16" s="34"/>
       <c r="W16" s="29"/>
       <c r="X16" s="29"/>
@@ -4794,7 +5161,7 @@
     </row>
     <row customHeight="1" ht="24.95" r="17" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A17" s="32"/>
-      <c r="B17" s="252"/>
+      <c r="B17" s="254"/>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
@@ -4805,15 +5172,15 @@
       <c r="J17" s="29"/>
       <c r="K17" s="29"/>
       <c r="L17" s="35"/>
-      <c r="M17" s="244"/>
-      <c r="N17" s="256"/>
-      <c r="O17" s="244"/>
-      <c r="P17" s="244"/>
-      <c r="Q17" s="244"/>
-      <c r="R17" s="244"/>
-      <c r="S17" s="244"/>
-      <c r="T17" s="259"/>
-      <c r="U17" s="244"/>
+      <c r="M17" s="257"/>
+      <c r="N17" s="260"/>
+      <c r="O17" s="257"/>
+      <c r="P17" s="257"/>
+      <c r="Q17" s="257"/>
+      <c r="R17" s="257"/>
+      <c r="S17" s="257"/>
+      <c r="T17" s="263"/>
+      <c r="U17" s="257"/>
       <c r="V17" s="34"/>
       <c r="W17" s="29"/>
       <c r="X17" s="29"/>
@@ -4822,7 +5189,7 @@
     </row>
     <row customHeight="1" ht="24.95" r="18" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A18" s="33"/>
-      <c r="B18" s="253"/>
+      <c r="B18" s="255"/>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
       <c r="E18" s="33"/>
@@ -4833,22 +5200,22 @@
       <c r="J18" s="29"/>
       <c r="K18" s="29"/>
       <c r="L18" s="35"/>
-      <c r="M18" s="255"/>
-      <c r="N18" s="257"/>
-      <c r="O18" s="255"/>
-      <c r="P18" s="255"/>
-      <c r="Q18" s="255"/>
-      <c r="R18" s="255"/>
-      <c r="S18" s="255"/>
-      <c r="T18" s="260"/>
-      <c r="U18" s="255"/>
+      <c r="M18" s="258"/>
+      <c r="N18" s="261"/>
+      <c r="O18" s="258"/>
+      <c r="P18" s="258"/>
+      <c r="Q18" s="258"/>
+      <c r="R18" s="258"/>
+      <c r="S18" s="258"/>
+      <c r="T18" s="264"/>
+      <c r="U18" s="258"/>
       <c r="V18" s="34"/>
       <c r="W18" s="29"/>
       <c r="X18" s="29"/>
     </row>
     <row customHeight="1" ht="24.95" r="19" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A19" s="244"/>
-      <c r="B19" s="253"/>
+      <c r="A19" s="257"/>
+      <c r="B19" s="255"/>
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
@@ -4859,22 +5226,22 @@
       <c r="J19" s="29"/>
       <c r="K19" s="29"/>
       <c r="L19" s="35"/>
-      <c r="M19" s="255"/>
-      <c r="N19" s="257"/>
-      <c r="O19" s="255"/>
-      <c r="P19" s="255"/>
-      <c r="Q19" s="255"/>
-      <c r="R19" s="255"/>
-      <c r="S19" s="255"/>
-      <c r="T19" s="260"/>
-      <c r="U19" s="255"/>
+      <c r="M19" s="258"/>
+      <c r="N19" s="261"/>
+      <c r="O19" s="258"/>
+      <c r="P19" s="258"/>
+      <c r="Q19" s="258"/>
+      <c r="R19" s="258"/>
+      <c r="S19" s="258"/>
+      <c r="T19" s="264"/>
+      <c r="U19" s="258"/>
       <c r="V19" s="34"/>
       <c r="W19" s="29"/>
       <c r="X19" s="29"/>
     </row>
     <row customHeight="1" ht="24.95" r="20" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A20" s="245"/>
-      <c r="B20" s="254"/>
+      <c r="A20" s="259"/>
+      <c r="B20" s="256"/>
       <c r="C20" s="33"/>
       <c r="D20" s="33"/>
       <c r="E20" s="33"/>
@@ -4885,22 +5252,22 @@
       <c r="J20" s="29"/>
       <c r="K20" s="29"/>
       <c r="L20" s="35"/>
-      <c r="M20" s="245"/>
-      <c r="N20" s="258"/>
-      <c r="O20" s="245"/>
-      <c r="P20" s="245"/>
-      <c r="Q20" s="245"/>
-      <c r="R20" s="245"/>
-      <c r="S20" s="245"/>
-      <c r="T20" s="261"/>
-      <c r="U20" s="245"/>
+      <c r="M20" s="259"/>
+      <c r="N20" s="262"/>
+      <c r="O20" s="259"/>
+      <c r="P20" s="259"/>
+      <c r="Q20" s="259"/>
+      <c r="R20" s="259"/>
+      <c r="S20" s="259"/>
+      <c r="T20" s="265"/>
+      <c r="U20" s="259"/>
       <c r="V20" s="34"/>
       <c r="W20" s="29"/>
       <c r="X20" s="29"/>
     </row>
     <row customHeight="1" ht="24.95" r="21" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A21" s="32"/>
-      <c r="B21" s="252"/>
+      <c r="B21" s="254"/>
       <c r="C21" s="33"/>
       <c r="D21" s="33"/>
       <c r="E21" s="33"/>
@@ -4911,22 +5278,22 @@
       <c r="J21" s="29"/>
       <c r="K21" s="29"/>
       <c r="L21" s="35"/>
-      <c r="M21" s="244"/>
-      <c r="N21" s="256"/>
-      <c r="O21" s="244"/>
-      <c r="P21" s="244"/>
-      <c r="Q21" s="244"/>
-      <c r="R21" s="244"/>
-      <c r="S21" s="244"/>
-      <c r="T21" s="259"/>
-      <c r="U21" s="244"/>
+      <c r="M21" s="257"/>
+      <c r="N21" s="260"/>
+      <c r="O21" s="257"/>
+      <c r="P21" s="257"/>
+      <c r="Q21" s="257"/>
+      <c r="R21" s="257"/>
+      <c r="S21" s="257"/>
+      <c r="T21" s="263"/>
+      <c r="U21" s="257"/>
       <c r="V21" s="34"/>
       <c r="W21" s="29"/>
       <c r="X21" s="29"/>
     </row>
     <row customHeight="1" ht="24.95" r="22" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A22" s="33"/>
-      <c r="B22" s="253"/>
+      <c r="B22" s="255"/>
       <c r="C22" s="33"/>
       <c r="D22" s="33"/>
       <c r="E22" s="33"/>
@@ -4937,22 +5304,22 @@
       <c r="J22" s="29"/>
       <c r="K22" s="29"/>
       <c r="L22" s="35"/>
-      <c r="M22" s="255"/>
-      <c r="N22" s="257"/>
-      <c r="O22" s="255"/>
-      <c r="P22" s="255"/>
-      <c r="Q22" s="255"/>
-      <c r="R22" s="255"/>
-      <c r="S22" s="255"/>
-      <c r="T22" s="260"/>
-      <c r="U22" s="255"/>
+      <c r="M22" s="258"/>
+      <c r="N22" s="261"/>
+      <c r="O22" s="258"/>
+      <c r="P22" s="258"/>
+      <c r="Q22" s="258"/>
+      <c r="R22" s="258"/>
+      <c r="S22" s="258"/>
+      <c r="T22" s="264"/>
+      <c r="U22" s="258"/>
       <c r="V22" s="34"/>
       <c r="W22" s="29"/>
       <c r="X22" s="29"/>
     </row>
     <row customHeight="1" ht="24.95" r="23" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A23" s="271"/>
-      <c r="B23" s="253"/>
+      <c r="A23" s="252"/>
+      <c r="B23" s="255"/>
       <c r="C23" s="33"/>
       <c r="D23" s="33"/>
       <c r="E23" s="33"/>
@@ -4963,22 +5330,22 @@
       <c r="J23" s="29"/>
       <c r="K23" s="29"/>
       <c r="L23" s="35"/>
-      <c r="M23" s="255"/>
-      <c r="N23" s="257"/>
-      <c r="O23" s="255"/>
-      <c r="P23" s="255"/>
-      <c r="Q23" s="255"/>
-      <c r="R23" s="255"/>
-      <c r="S23" s="255"/>
-      <c r="T23" s="260"/>
-      <c r="U23" s="255"/>
+      <c r="M23" s="258"/>
+      <c r="N23" s="261"/>
+      <c r="O23" s="258"/>
+      <c r="P23" s="258"/>
+      <c r="Q23" s="258"/>
+      <c r="R23" s="258"/>
+      <c r="S23" s="258"/>
+      <c r="T23" s="264"/>
+      <c r="U23" s="258"/>
       <c r="V23" s="34"/>
       <c r="W23" s="29"/>
       <c r="X23" s="29"/>
     </row>
     <row customHeight="1" ht="24.95" r="24" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A24" s="272"/>
-      <c r="B24" s="254"/>
+      <c r="A24" s="253"/>
+      <c r="B24" s="256"/>
       <c r="C24" s="33"/>
       <c r="D24" s="33"/>
       <c r="E24" s="33"/>
@@ -4989,15 +5356,15 @@
       <c r="J24" s="29"/>
       <c r="K24" s="29"/>
       <c r="L24" s="35"/>
-      <c r="M24" s="245"/>
-      <c r="N24" s="258"/>
-      <c r="O24" s="245"/>
-      <c r="P24" s="245"/>
-      <c r="Q24" s="245"/>
-      <c r="R24" s="245"/>
-      <c r="S24" s="245"/>
-      <c r="T24" s="261"/>
-      <c r="U24" s="245"/>
+      <c r="M24" s="259"/>
+      <c r="N24" s="262"/>
+      <c r="O24" s="259"/>
+      <c r="P24" s="259"/>
+      <c r="Q24" s="259"/>
+      <c r="R24" s="259"/>
+      <c r="S24" s="259"/>
+      <c r="T24" s="265"/>
+      <c r="U24" s="259"/>
       <c r="V24" s="34"/>
       <c r="W24" s="29"/>
       <c r="X24" s="29"/>
@@ -5317,33 +5684,33 @@
       </c>
       <c r="D40" s="72"/>
       <c r="E40" s="73"/>
-      <c r="F40" s="265" t="s">
+      <c r="F40" s="246" t="s">
         <v>4</v>
       </c>
-      <c r="G40" s="266"/>
-      <c r="H40" s="266"/>
-      <c r="I40" s="267"/>
-      <c r="J40" s="268" t="s">
+      <c r="G40" s="247"/>
+      <c r="H40" s="247"/>
+      <c r="I40" s="248"/>
+      <c r="J40" s="249" t="s">
         <v>5</v>
       </c>
-      <c r="K40" s="269"/>
-      <c r="L40" s="269"/>
-      <c r="M40" s="270"/>
+      <c r="K40" s="250"/>
+      <c r="L40" s="250"/>
+      <c r="M40" s="251"/>
       <c r="N40" s="74" t="s">
         <v>46</v>
       </c>
       <c r="P40" s="120"/>
-      <c r="Q40" s="264" t="s">
+      <c r="Q40" s="245" t="s">
         <v>116</v>
       </c>
-      <c r="R40" s="264"/>
-      <c r="S40" s="264"/>
-      <c r="T40" s="264"/>
-      <c r="U40" s="264"/>
-      <c r="V40" s="264"/>
-      <c r="W40" s="264"/>
-      <c r="X40" s="264"/>
-      <c r="Y40" s="264"/>
+      <c r="R40" s="245"/>
+      <c r="S40" s="245"/>
+      <c r="T40" s="245"/>
+      <c r="U40" s="245"/>
+      <c r="V40" s="245"/>
+      <c r="W40" s="245"/>
+      <c r="X40" s="245"/>
+      <c r="Y40" s="245"/>
       <c r="Z40" s="39"/>
       <c r="AA40" s="39"/>
       <c r="AB40" s="39"/>
@@ -5483,32 +5850,78 @@
       <c r="B42" s="169" t="s">
         <v>124</v>
       </c>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="145"/>
-      <c r="G42" s="145"/>
-      <c r="H42" s="146"/>
-      <c r="I42" s="146"/>
-      <c r="J42" s="146"/>
-      <c r="K42" s="145"/>
-      <c r="L42" s="145"/>
-      <c r="M42" s="146"/>
+      <c r="D42" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="E42" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="F42" s="145" t="n">
+        <v>0.0010000000474974513</v>
+      </c>
+      <c r="G42" s="145" t="n">
+        <v>1.9444283009245046E-5</v>
+      </c>
+      <c r="H42" s="146" t="n">
+        <v>34.99970941664108</v>
+      </c>
+      <c r="I42" s="146" t="n">
+        <v>4.022955105361044E-5</v>
+      </c>
+      <c r="J42" s="146" t="s">
+        <v>171</v>
+      </c>
+      <c r="K42" s="145" t="s">
+        <v>171</v>
+      </c>
+      <c r="L42" s="145" t="s">
+        <v>171</v>
+      </c>
+      <c r="M42" s="146" t="s">
+        <v>171</v>
+      </c>
       <c r="N42" s="186"/>
       <c r="O42" s="48"/>
       <c r="P42" s="125"/>
-      <c r="Q42" s="136"/>
-      <c r="R42" s="200"/>
-      <c r="S42" s="200"/>
-      <c r="T42" s="200"/>
-      <c r="U42" s="200"/>
-      <c r="V42" s="200"/>
-      <c r="W42" s="200"/>
-      <c r="X42" s="200"/>
-      <c r="Y42" s="201"/>
-      <c r="Z42" s="200"/>
-      <c r="AA42" s="200"/>
-      <c r="AB42" s="202"/>
-      <c r="AC42" s="203"/>
+      <c r="Q42" s="136" t="s">
+        <v>169</v>
+      </c>
+      <c r="R42" s="200" t="s">
+        <v>173</v>
+      </c>
+      <c r="S42" s="200" t="n">
+        <v>35000.0</v>
+      </c>
+      <c r="T42" s="200" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="U42" s="200" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="V42" s="200" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="W42" s="200" t="n">
+        <v>0.002413773210719228</v>
+      </c>
+      <c r="X42" s="200" t="n">
+        <v>8.045910702397426E-5</v>
+      </c>
+      <c r="Y42" s="201" t="n">
+        <v>2.0114775907131843E-5</v>
+      </c>
+      <c r="Z42" s="200" t="n">
+        <v>0.0012444445164874196</v>
+      </c>
+      <c r="AA42" s="200" t="n">
+        <v>4.1481482185190544E-5</v>
+      </c>
+      <c r="AB42" s="202" t="n">
+        <v>1.0370370546297636E-5</v>
+      </c>
+      <c r="AC42" s="274" t="s">
+        <v>174</v>
+      </c>
       <c r="AD42" s="48"/>
       <c r="AE42" s="42"/>
       <c r="AF42" s="42"/>
@@ -5517,10 +5930,18 @@
       <c r="AI42" s="202"/>
       <c r="AJ42" s="222"/>
       <c r="AK42" s="119"/>
-      <c r="AL42" s="42"/>
-      <c r="AM42" s="42"/>
-      <c r="AN42" s="29"/>
-      <c r="AO42" s="29"/>
+      <c r="AL42" s="42" t="s">
+        <v>183</v>
+      </c>
+      <c r="AM42" s="42" t="s">
+        <v>179</v>
+      </c>
+      <c r="AN42" s="29" t="n">
+        <v>4.0229551814263687E-5</v>
+      </c>
+      <c r="AO42" s="29" t="n">
+        <v>206.8965301513672</v>
+      </c>
       <c r="AP42" s="16"/>
     </row>
     <row customHeight="1" ht="24.95" r="43" spans="1:42" x14ac:dyDescent="0.4">
@@ -5531,31 +5952,75 @@
         <v>125</v>
       </c>
       <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="146"/>
-      <c r="G43" s="145"/>
-      <c r="H43" s="146"/>
-      <c r="I43" s="147"/>
-      <c r="J43" s="146"/>
-      <c r="K43" s="145"/>
-      <c r="L43" s="145"/>
-      <c r="M43" s="147"/>
+      <c r="E43" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="F43" s="146" t="n">
+        <v>0.0010000000474974513</v>
+      </c>
+      <c r="G43" s="145" t="n">
+        <v>2.8000224781429502E-5</v>
+      </c>
+      <c r="H43" s="146" t="n">
+        <v>50.400404606573105</v>
+      </c>
+      <c r="I43" s="147" t="n">
+        <v>5.7931499547785175E-5</v>
+      </c>
+      <c r="J43" s="146" t="s">
+        <v>171</v>
+      </c>
+      <c r="K43" s="145" t="s">
+        <v>171</v>
+      </c>
+      <c r="L43" s="145" t="s">
+        <v>171</v>
+      </c>
+      <c r="M43" s="147" t="s">
+        <v>171</v>
+      </c>
       <c r="N43" s="165"/>
       <c r="O43" s="48"/>
       <c r="P43" s="125"/>
-      <c r="Q43" s="136"/>
-      <c r="R43" s="200"/>
-      <c r="S43" s="200"/>
-      <c r="T43" s="200"/>
-      <c r="U43" s="200"/>
-      <c r="V43" s="200"/>
-      <c r="W43" s="200"/>
-      <c r="X43" s="200"/>
-      <c r="Y43" s="201"/>
-      <c r="Z43" s="200"/>
-      <c r="AA43" s="200"/>
-      <c r="AB43" s="202"/>
-      <c r="AC43" s="203"/>
+      <c r="Q43" s="136" t="s">
+        <v>169</v>
+      </c>
+      <c r="R43" s="200" t="s">
+        <v>175</v>
+      </c>
+      <c r="S43" s="200" t="n">
+        <v>25000.0</v>
+      </c>
+      <c r="T43" s="200" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="U43" s="200" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="V43" s="200" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="W43" s="200" t="n">
+        <v>0.002413773210719228</v>
+      </c>
+      <c r="X43" s="200" t="n">
+        <v>6.034433026798069E-5</v>
+      </c>
+      <c r="Y43" s="201" t="n">
+        <v>5.028694431530312E-5</v>
+      </c>
+      <c r="Z43" s="200" t="n">
+        <v>0.0012444445164874196</v>
+      </c>
+      <c r="AA43" s="200" t="n">
+        <v>3.1111110729398206E-5</v>
+      </c>
+      <c r="AB43" s="202" t="n">
+        <v>2.592592682049144E-5</v>
+      </c>
+      <c r="AC43" s="275" t="s">
+        <v>174</v>
+      </c>
       <c r="AD43" s="48"/>
       <c r="AE43" s="42"/>
       <c r="AF43" s="42"/>
@@ -5564,10 +6029,18 @@
       <c r="AI43" s="202"/>
       <c r="AJ43" s="223"/>
       <c r="AK43" s="119"/>
-      <c r="AL43" s="42"/>
-      <c r="AM43" s="42"/>
-      <c r="AN43" s="29"/>
-      <c r="AO43" s="29"/>
+      <c r="AL43" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="AM43" s="42" t="s">
+        <v>179</v>
+      </c>
+      <c r="AN43" s="29" t="n">
+        <v>2.5747332983883098E-5</v>
+      </c>
+      <c r="AO43" s="29" t="n">
+        <v>91.95402526855469</v>
+      </c>
       <c r="AP43" s="16"/>
     </row>
     <row customHeight="1" ht="24.95" r="44" spans="1:42" x14ac:dyDescent="0.4">
@@ -5575,32 +6048,78 @@
         <v>3</v>
       </c>
       <c r="B44" s="169"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="145"/>
-      <c r="G44" s="145"/>
-      <c r="H44" s="146"/>
-      <c r="I44" s="146"/>
-      <c r="J44" s="146"/>
-      <c r="K44" s="145"/>
-      <c r="L44" s="145"/>
-      <c r="M44" s="146"/>
+      <c r="D44" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="E44" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="F44" s="145" t="n">
+        <v>0.0035714288242161274</v>
+      </c>
+      <c r="G44" s="145" t="n">
+        <v>6.944386950702684E-5</v>
+      </c>
+      <c r="H44" s="146" t="n">
+        <v>124.9989651126483</v>
+      </c>
+      <c r="I44" s="146" t="n">
+        <v>1.4367697139384863E-4</v>
+      </c>
+      <c r="J44" s="146" t="s">
+        <v>171</v>
+      </c>
+      <c r="K44" s="145" t="s">
+        <v>171</v>
+      </c>
+      <c r="L44" s="145" t="s">
+        <v>171</v>
+      </c>
+      <c r="M44" s="146" t="s">
+        <v>171</v>
+      </c>
       <c r="N44" s="166"/>
       <c r="O44" s="48"/>
       <c r="P44" s="125"/>
-      <c r="Q44" s="136"/>
-      <c r="R44" s="200"/>
-      <c r="S44" s="200"/>
-      <c r="T44" s="200"/>
-      <c r="U44" s="200"/>
-      <c r="V44" s="200"/>
-      <c r="W44" s="200"/>
-      <c r="X44" s="200"/>
-      <c r="Y44" s="201"/>
-      <c r="Z44" s="200"/>
-      <c r="AA44" s="200"/>
-      <c r="AB44" s="202"/>
-      <c r="AC44" s="203"/>
+      <c r="Q44" s="136" t="s">
+        <v>169</v>
+      </c>
+      <c r="R44" s="200" t="s">
+        <v>176</v>
+      </c>
+      <c r="S44" s="200" t="n">
+        <v>75000.0</v>
+      </c>
+      <c r="T44" s="200" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="U44" s="200" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="V44" s="200" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="W44" s="200" t="n">
+        <v>0.002413773210719228</v>
+      </c>
+      <c r="X44" s="200" t="n">
+        <v>2.413773210719228E-5</v>
+      </c>
+      <c r="Y44" s="201" t="n">
+        <v>1.0057388135464862E-4</v>
+      </c>
+      <c r="Z44" s="200" t="n">
+        <v>0.0012444445164874196</v>
+      </c>
+      <c r="AA44" s="200" t="n">
+        <v>1.2444445019355044E-5</v>
+      </c>
+      <c r="AB44" s="202" t="n">
+        <v>5.185185364098288E-5</v>
+      </c>
+      <c r="AC44" s="276" t="s">
+        <v>174</v>
+      </c>
       <c r="AD44" s="48"/>
       <c r="AE44" s="42"/>
       <c r="AF44" s="42"/>
@@ -5609,10 +6128,18 @@
       <c r="AI44" s="202"/>
       <c r="AJ44" s="224"/>
       <c r="AK44" s="119"/>
-      <c r="AL44" s="42"/>
-      <c r="AM44" s="42"/>
-      <c r="AN44" s="29"/>
-      <c r="AO44" s="29"/>
+      <c r="AL44" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="AM44" s="42" t="s">
+        <v>187</v>
+      </c>
+      <c r="AN44" s="29" t="n">
+        <v>2.5747332983883098E-5</v>
+      </c>
+      <c r="AO44" s="29" t="n">
+        <v>36.78160858154297</v>
+      </c>
       <c r="AP44" s="16"/>
     </row>
     <row customHeight="1" ht="24.95" r="45" spans="1:42" x14ac:dyDescent="0.4">
@@ -5621,31 +6148,75 @@
       </c>
       <c r="B45" s="169"/>
       <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="145"/>
-      <c r="G45" s="145"/>
-      <c r="H45" s="146"/>
-      <c r="I45" s="146"/>
-      <c r="J45" s="146"/>
-      <c r="K45" s="145"/>
-      <c r="L45" s="145"/>
-      <c r="M45" s="146"/>
+      <c r="E45" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="F45" s="145" t="n">
+        <v>0.0035714288242161274</v>
+      </c>
+      <c r="G45" s="145" t="n">
+        <v>1.0000080511914467E-4</v>
+      </c>
+      <c r="H45" s="146" t="n">
+        <v>180.0014492144604</v>
+      </c>
+      <c r="I45" s="146" t="n">
+        <v>2.068982174878855E-4</v>
+      </c>
+      <c r="J45" s="146" t="s">
+        <v>171</v>
+      </c>
+      <c r="K45" s="145" t="s">
+        <v>171</v>
+      </c>
+      <c r="L45" s="145" t="s">
+        <v>171</v>
+      </c>
+      <c r="M45" s="146" t="s">
+        <v>171</v>
+      </c>
       <c r="N45" s="166"/>
       <c r="O45" s="48"/>
       <c r="P45" s="125"/>
-      <c r="Q45" s="136"/>
-      <c r="R45" s="200"/>
-      <c r="S45" s="200"/>
-      <c r="T45" s="200"/>
-      <c r="U45" s="200"/>
-      <c r="V45" s="200"/>
-      <c r="W45" s="200"/>
-      <c r="X45" s="200"/>
-      <c r="Y45" s="201"/>
-      <c r="Z45" s="200"/>
-      <c r="AA45" s="200"/>
-      <c r="AB45" s="202"/>
-      <c r="AC45" s="204"/>
+      <c r="Q45" s="136" t="s">
+        <v>169</v>
+      </c>
+      <c r="R45" s="200" t="s">
+        <v>130</v>
+      </c>
+      <c r="S45" s="200" t="n">
+        <v>55000.0</v>
+      </c>
+      <c r="T45" s="200" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="U45" s="200" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="V45" s="200" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="W45" s="200" t="n">
+        <v>0.002816068707033992</v>
+      </c>
+      <c r="X45" s="200" t="n">
+        <v>2.3467239225283264E-5</v>
+      </c>
+      <c r="Y45" s="201" t="n">
+        <v>2.2126252588350326E-5</v>
+      </c>
+      <c r="Z45" s="200" t="n">
+        <v>0.001451851916499436</v>
+      </c>
+      <c r="AA45" s="200" t="n">
+        <v>1.2098766092094593E-5</v>
+      </c>
+      <c r="AB45" s="202" t="n">
+        <v>1.1407407328078989E-5</v>
+      </c>
+      <c r="AC45" s="277" t="s">
+        <v>174</v>
+      </c>
       <c r="AD45" s="48"/>
       <c r="AE45" s="42"/>
       <c r="AF45" s="42"/>
@@ -5654,41 +6225,95 @@
       <c r="AI45" s="202"/>
       <c r="AJ45" s="225"/>
       <c r="AK45" s="119"/>
-      <c r="AL45" s="42"/>
-      <c r="AM45" s="42"/>
-      <c r="AN45" s="29"/>
-      <c r="AO45" s="29"/>
+      <c r="AL45" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="AM45" s="42" t="s">
+        <v>179</v>
+      </c>
+      <c r="AN45" s="29" t="n">
+        <v>2.5747332983883098E-5</v>
+      </c>
+      <c r="AO45" s="29" t="n">
+        <v>91.95402526855469</v>
+      </c>
       <c r="AP45" s="16"/>
     </row>
     <row customHeight="1" ht="24.95" r="46" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A46" s="169"/>
       <c r="B46" s="169"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="145"/>
-      <c r="G46" s="145"/>
-      <c r="H46" s="146"/>
-      <c r="I46" s="146"/>
-      <c r="J46" s="146"/>
-      <c r="K46" s="145"/>
-      <c r="L46" s="145"/>
-      <c r="M46" s="146"/>
+      <c r="D46" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="E46" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="F46" s="145" t="n">
+        <v>0.009714286774396896</v>
+      </c>
+      <c r="G46" s="145" t="n">
+        <v>1.8888733230267254E-4</v>
+      </c>
+      <c r="H46" s="146" t="n">
+        <v>339.99719814481057</v>
+      </c>
+      <c r="I46" s="146" t="n">
+        <v>3.908013771779432E-4</v>
+      </c>
+      <c r="J46" s="146" t="s">
+        <v>171</v>
+      </c>
+      <c r="K46" s="145" t="s">
+        <v>171</v>
+      </c>
+      <c r="L46" s="145" t="s">
+        <v>171</v>
+      </c>
+      <c r="M46" s="146" t="s">
+        <v>171</v>
+      </c>
       <c r="N46" s="187"/>
       <c r="O46" s="48"/>
       <c r="P46" s="125"/>
-      <c r="Q46" s="136"/>
-      <c r="R46" s="200"/>
-      <c r="S46" s="200"/>
-      <c r="T46" s="200"/>
-      <c r="U46" s="200"/>
-      <c r="V46" s="200"/>
-      <c r="W46" s="200"/>
-      <c r="X46" s="200"/>
-      <c r="Y46" s="201"/>
-      <c r="Z46" s="200"/>
-      <c r="AA46" s="200"/>
-      <c r="AB46" s="202"/>
-      <c r="AC46" s="203"/>
+      <c r="Q46" s="136" t="s">
+        <v>169</v>
+      </c>
+      <c r="R46" s="200" t="s">
+        <v>177</v>
+      </c>
+      <c r="S46" s="200" t="n">
+        <v>100000.0</v>
+      </c>
+      <c r="T46" s="200" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="U46" s="200" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="V46" s="200" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="W46" s="200" t="n">
+        <v>8.04591050837189E-4</v>
+      </c>
+      <c r="X46" s="200" t="n">
+        <v>1.609182101674378E-5</v>
+      </c>
+      <c r="Y46" s="201" t="n">
+        <v>1.3409851817414165E-4</v>
+      </c>
+      <c r="Z46" s="200" t="n">
+        <v>4.1481482912786305E-4</v>
+      </c>
+      <c r="AA46" s="200" t="n">
+        <v>8.296296073240228E-6</v>
+      </c>
+      <c r="AB46" s="202" t="n">
+        <v>6.913580727996305E-5</v>
+      </c>
+      <c r="AC46" s="278" t="s">
+        <v>174</v>
+      </c>
       <c r="AD46" s="48"/>
       <c r="AE46" s="42"/>
       <c r="AF46" s="42"/>
@@ -5707,30 +6332,74 @@
       <c r="A47" s="169"/>
       <c r="B47" s="169"/>
       <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="145"/>
-      <c r="G47" s="145"/>
-      <c r="H47" s="145"/>
-      <c r="I47" s="145"/>
-      <c r="J47" s="146"/>
-      <c r="K47" s="145"/>
-      <c r="L47" s="145"/>
-      <c r="M47" s="147"/>
+      <c r="E47" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="F47" s="145" t="n">
+        <v>0.009714286774396896</v>
+      </c>
+      <c r="G47" s="145" t="n">
+        <v>2.7200220035496957E-4</v>
+      </c>
+      <c r="H47" s="145" t="n">
+        <v>489.60396063894524</v>
+      </c>
+      <c r="I47" s="145" t="n">
+        <v>5.627631731482129E-4</v>
+      </c>
+      <c r="J47" s="146" t="s">
+        <v>171</v>
+      </c>
+      <c r="K47" s="145" t="s">
+        <v>171</v>
+      </c>
+      <c r="L47" s="145" t="s">
+        <v>171</v>
+      </c>
+      <c r="M47" s="147" t="s">
+        <v>171</v>
+      </c>
       <c r="N47" s="167"/>
       <c r="P47" s="112"/>
-      <c r="Q47" s="134"/>
-      <c r="R47" s="201"/>
-      <c r="S47" s="205"/>
-      <c r="T47" s="205"/>
-      <c r="U47" s="200"/>
-      <c r="V47" s="200"/>
-      <c r="W47" s="201"/>
-      <c r="X47" s="201"/>
-      <c r="Y47" s="201"/>
-      <c r="Z47" s="201"/>
-      <c r="AA47" s="201"/>
-      <c r="AB47" s="206"/>
-      <c r="AC47" s="203"/>
+      <c r="Q47" s="134" t="s">
+        <v>169</v>
+      </c>
+      <c r="R47" s="201" t="s">
+        <v>178</v>
+      </c>
+      <c r="S47" s="205" t="n">
+        <v>15000.0</v>
+      </c>
+      <c r="T47" s="205" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="U47" s="200" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="V47" s="200" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="W47" s="201" t="n">
+        <v>0.001206886605359614</v>
+      </c>
+      <c r="X47" s="201" t="n">
+        <v>3.0172165133990346E-5</v>
+      </c>
+      <c r="Y47" s="201" t="n">
+        <v>1.5086081475601532E-5</v>
+      </c>
+      <c r="Z47" s="201" t="n">
+        <v>6.222222582437098E-4</v>
+      </c>
+      <c r="AA47" s="201" t="n">
+        <v>1.5555555364699103E-5</v>
+      </c>
+      <c r="AB47" s="206" t="n">
+        <v>7.777777682349551E-6</v>
+      </c>
+      <c r="AC47" s="279" t="s">
+        <v>174</v>
+      </c>
       <c r="AD47" s="16"/>
       <c r="AE47" s="55"/>
       <c r="AF47" s="29"/>
@@ -5748,31 +6417,77 @@
     <row customHeight="1" ht="24.95" r="48" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A48" s="169"/>
       <c r="B48" s="169"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="145"/>
-      <c r="G48" s="145"/>
-      <c r="H48" s="145"/>
-      <c r="I48" s="145"/>
-      <c r="J48" s="146"/>
-      <c r="K48" s="145"/>
-      <c r="L48" s="145"/>
-      <c r="M48" s="146"/>
+      <c r="D48" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="E48" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="F48" s="145" t="n">
+        <v>0.02142857387661934</v>
+      </c>
+      <c r="G48" s="145" t="n">
+        <v>4.166632351510599E-4</v>
+      </c>
+      <c r="H48" s="145" t="n">
+        <v>749.9938232719079</v>
+      </c>
+      <c r="I48" s="145" t="n">
+        <v>8.620618658297792E-4</v>
+      </c>
+      <c r="J48" s="146" t="s">
+        <v>171</v>
+      </c>
+      <c r="K48" s="145" t="s">
+        <v>171</v>
+      </c>
+      <c r="L48" s="145" t="s">
+        <v>171</v>
+      </c>
+      <c r="M48" s="146" t="s">
+        <v>171</v>
+      </c>
       <c r="N48" s="167"/>
       <c r="P48" s="112"/>
-      <c r="Q48" s="134"/>
-      <c r="R48" s="201"/>
-      <c r="S48" s="205"/>
-      <c r="T48" s="205"/>
-      <c r="U48" s="200"/>
-      <c r="V48" s="200"/>
-      <c r="W48" s="201"/>
-      <c r="X48" s="201"/>
-      <c r="Y48" s="201"/>
-      <c r="Z48" s="201"/>
-      <c r="AA48" s="201"/>
-      <c r="AB48" s="206"/>
-      <c r="AC48" s="203"/>
+      <c r="Q48" s="134" t="s">
+        <v>169</v>
+      </c>
+      <c r="R48" s="201" t="s">
+        <v>179</v>
+      </c>
+      <c r="S48" s="205" t="n">
+        <v>300000.0</v>
+      </c>
+      <c r="T48" s="205" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="U48" s="200" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="V48" s="200" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="W48" s="201" t="n">
+        <v>0.002413773210719228</v>
+      </c>
+      <c r="X48" s="201" t="n">
+        <v>6.034433026798069E-5</v>
+      </c>
+      <c r="Y48" s="201" t="n">
+        <v>6.03443302679807E-4</v>
+      </c>
+      <c r="Z48" s="201" t="n">
+        <v>0.0012444445164874196</v>
+      </c>
+      <c r="AA48" s="201" t="n">
+        <v>3.1111110729398206E-5</v>
+      </c>
+      <c r="AB48" s="206" t="n">
+        <v>3.111111291218549E-4</v>
+      </c>
+      <c r="AC48" s="280" t="s">
+        <v>174</v>
+      </c>
       <c r="AD48" s="16"/>
       <c r="AE48" s="55"/>
       <c r="AF48" s="29"/>
@@ -5791,15 +6506,33 @@
       <c r="A49" s="169"/>
       <c r="B49" s="169"/>
       <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="145"/>
-      <c r="G49" s="145"/>
-      <c r="H49" s="145"/>
-      <c r="I49" s="145"/>
-      <c r="J49" s="146"/>
-      <c r="K49" s="145"/>
-      <c r="L49" s="145"/>
-      <c r="M49" s="146"/>
+      <c r="E49" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="F49" s="145" t="n">
+        <v>0.02142857387661934</v>
+      </c>
+      <c r="G49" s="145" t="n">
+        <v>6.000048567921082E-4</v>
+      </c>
+      <c r="H49" s="145" t="n">
+        <v>1080.0087422257948</v>
+      </c>
+      <c r="I49" s="145" t="n">
+        <v>0.0012413893588802238</v>
+      </c>
+      <c r="J49" s="146" t="s">
+        <v>171</v>
+      </c>
+      <c r="K49" s="145" t="s">
+        <v>171</v>
+      </c>
+      <c r="L49" s="145" t="s">
+        <v>171</v>
+      </c>
+      <c r="M49" s="146" t="s">
+        <v>171</v>
+      </c>
       <c r="N49" s="188"/>
       <c r="P49" s="112"/>
       <c r="Q49" s="134"/>
@@ -5832,31 +6565,77 @@
     <row customHeight="1" ht="24.95" r="50" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A50" s="169"/>
       <c r="B50" s="169"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="145"/>
-      <c r="G50" s="145"/>
-      <c r="H50" s="145"/>
-      <c r="I50" s="145"/>
-      <c r="J50" s="145"/>
-      <c r="K50" s="145"/>
-      <c r="L50" s="145"/>
-      <c r="M50" s="146"/>
+      <c r="D50" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="E50" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="F50" s="145" t="n">
+        <v>0.0010000000474974513</v>
+      </c>
+      <c r="G50" s="145" t="n">
+        <v>2.8000224781429502E-5</v>
+      </c>
+      <c r="H50" s="145" t="n">
+        <v>22.400179825143603</v>
+      </c>
+      <c r="I50" s="145" t="n">
+        <v>2.574733313234897E-5</v>
+      </c>
+      <c r="J50" s="145" t="s">
+        <v>171</v>
+      </c>
+      <c r="K50" s="145" t="s">
+        <v>171</v>
+      </c>
+      <c r="L50" s="145" t="s">
+        <v>171</v>
+      </c>
+      <c r="M50" s="146" t="s">
+        <v>171</v>
+      </c>
       <c r="N50" s="167"/>
       <c r="P50" s="112"/>
-      <c r="Q50" s="134"/>
-      <c r="R50" s="201"/>
-      <c r="S50" s="205"/>
-      <c r="T50" s="205"/>
-      <c r="U50" s="200"/>
-      <c r="V50" s="200"/>
-      <c r="W50" s="201"/>
-      <c r="X50" s="200"/>
-      <c r="Y50" s="200"/>
-      <c r="Z50" s="200"/>
-      <c r="AA50" s="200"/>
-      <c r="AB50" s="202"/>
-      <c r="AC50" s="203"/>
+      <c r="Q50" s="134" t="s">
+        <v>180</v>
+      </c>
+      <c r="R50" s="201" t="s">
+        <v>173</v>
+      </c>
+      <c r="S50" s="205" t="n">
+        <v>35000.0</v>
+      </c>
+      <c r="T50" s="205" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="U50" s="200" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="V50" s="200" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="W50" s="201" t="n">
+        <v>0.008620617911219597</v>
+      </c>
+      <c r="X50" s="200" t="n">
+        <v>2.873539303739866E-4</v>
+      </c>
+      <c r="Y50" s="200" t="n">
+        <v>7.183848356362432E-5</v>
+      </c>
+      <c r="Z50" s="200" t="n">
+        <v>0.004444444552063942</v>
+      </c>
+      <c r="AA50" s="200" t="n">
+        <v>1.481481594964862E-4</v>
+      </c>
+      <c r="AB50" s="202" t="n">
+        <v>3.703703987412155E-5</v>
+      </c>
+      <c r="AC50" s="281" t="s">
+        <v>174</v>
+      </c>
       <c r="AD50" s="39"/>
       <c r="AE50" s="42"/>
       <c r="AF50" s="42"/>
@@ -5875,30 +6654,74 @@
       <c r="A51" s="169"/>
       <c r="B51" s="169"/>
       <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="145"/>
-      <c r="G51" s="145"/>
-      <c r="H51" s="145"/>
-      <c r="I51" s="145"/>
-      <c r="J51" s="145"/>
-      <c r="K51" s="145"/>
-      <c r="L51" s="145"/>
-      <c r="M51" s="146"/>
+      <c r="E51" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="F51" s="145" t="n">
+        <v>0.0010000000474974513</v>
+      </c>
+      <c r="G51" s="145" t="n">
+        <v>2.8000224781429502E-5</v>
+      </c>
+      <c r="H51" s="145" t="n">
+        <v>50.400404606573105</v>
+      </c>
+      <c r="I51" s="145" t="n">
+        <v>5.7931499547785175E-5</v>
+      </c>
+      <c r="J51" s="145" t="s">
+        <v>171</v>
+      </c>
+      <c r="K51" s="145" t="s">
+        <v>171</v>
+      </c>
+      <c r="L51" s="145" t="s">
+        <v>171</v>
+      </c>
+      <c r="M51" s="146" t="s">
+        <v>171</v>
+      </c>
       <c r="N51" s="167"/>
       <c r="P51" s="112"/>
-      <c r="Q51" s="134"/>
-      <c r="R51" s="201"/>
-      <c r="S51" s="205"/>
-      <c r="T51" s="205"/>
-      <c r="U51" s="200"/>
-      <c r="V51" s="200"/>
-      <c r="W51" s="201"/>
-      <c r="X51" s="200"/>
-      <c r="Y51" s="200"/>
-      <c r="Z51" s="200"/>
-      <c r="AA51" s="200"/>
-      <c r="AB51" s="202"/>
-      <c r="AC51" s="204"/>
+      <c r="Q51" s="134" t="s">
+        <v>180</v>
+      </c>
+      <c r="R51" s="201" t="s">
+        <v>175</v>
+      </c>
+      <c r="S51" s="205" t="n">
+        <v>25000.0</v>
+      </c>
+      <c r="T51" s="205" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="U51" s="200" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="V51" s="200" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="W51" s="201" t="n">
+        <v>0.008620617911219597</v>
+      </c>
+      <c r="X51" s="200" t="n">
+        <v>2.1551544778048993E-4</v>
+      </c>
+      <c r="Y51" s="200" t="n">
+        <v>1.7959621618501842E-4</v>
+      </c>
+      <c r="Z51" s="200" t="n">
+        <v>0.004444444552063942</v>
+      </c>
+      <c r="AA51" s="200" t="n">
+        <v>1.1111111234640703E-4</v>
+      </c>
+      <c r="AB51" s="202" t="n">
+        <v>9.259259968530387E-5</v>
+      </c>
+      <c r="AC51" s="282" t="s">
+        <v>174</v>
+      </c>
       <c r="AD51" s="58"/>
       <c r="AE51" s="42"/>
       <c r="AF51" s="42"/>
@@ -5916,31 +6739,77 @@
     <row customHeight="1" ht="24.95" r="52" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A52" s="169"/>
       <c r="B52" s="169"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="145"/>
-      <c r="G52" s="145"/>
-      <c r="H52" s="145"/>
-      <c r="I52" s="145"/>
-      <c r="J52" s="145"/>
-      <c r="K52" s="145"/>
-      <c r="L52" s="145"/>
-      <c r="M52" s="146"/>
+      <c r="D52" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="E52" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="F52" s="145" t="n">
+        <v>0.011428573168814182</v>
+      </c>
+      <c r="G52" s="145" t="n">
+        <v>3.200026024585031E-4</v>
+      </c>
+      <c r="H52" s="145" t="n">
+        <v>256.0020819668025</v>
+      </c>
+      <c r="I52" s="145" t="n">
+        <v>2.9425526662850865E-4</v>
+      </c>
+      <c r="J52" s="145" t="s">
+        <v>171</v>
+      </c>
+      <c r="K52" s="145" t="s">
+        <v>171</v>
+      </c>
+      <c r="L52" s="145" t="s">
+        <v>171</v>
+      </c>
+      <c r="M52" s="146" t="s">
+        <v>171</v>
+      </c>
       <c r="N52" s="167"/>
       <c r="P52" s="112"/>
-      <c r="Q52" s="134"/>
-      <c r="R52" s="201"/>
-      <c r="S52" s="205"/>
-      <c r="T52" s="205"/>
-      <c r="U52" s="200"/>
-      <c r="V52" s="200"/>
-      <c r="W52" s="201"/>
-      <c r="X52" s="201"/>
-      <c r="Y52" s="201"/>
-      <c r="Z52" s="201"/>
-      <c r="AA52" s="201"/>
-      <c r="AB52" s="206"/>
-      <c r="AC52" s="203"/>
+      <c r="Q52" s="134" t="s">
+        <v>180</v>
+      </c>
+      <c r="R52" s="201" t="s">
+        <v>176</v>
+      </c>
+      <c r="S52" s="205" t="n">
+        <v>75000.0</v>
+      </c>
+      <c r="T52" s="205" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="U52" s="200" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="V52" s="200" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="W52" s="201" t="n">
+        <v>0.008620617911219597</v>
+      </c>
+      <c r="X52" s="201" t="n">
+        <v>8.620617911219596E-5</v>
+      </c>
+      <c r="Y52" s="201" t="n">
+        <v>3.591924032662064E-4</v>
+      </c>
+      <c r="Z52" s="201" t="n">
+        <v>0.004444444552063942</v>
+      </c>
+      <c r="AA52" s="201" t="n">
+        <v>4.444444493856281E-5</v>
+      </c>
+      <c r="AB52" s="206" t="n">
+        <v>1.8518519937060773E-4</v>
+      </c>
+      <c r="AC52" s="283" t="s">
+        <v>174</v>
+      </c>
       <c r="AD52" s="16"/>
       <c r="AE52" s="29"/>
       <c r="AF52" s="29"/>
@@ -5959,30 +6828,74 @@
       <c r="A53" s="169"/>
       <c r="B53" s="169"/>
       <c r="D53" s="27"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="145"/>
-      <c r="G53" s="145"/>
-      <c r="H53" s="145"/>
-      <c r="I53" s="145"/>
-      <c r="J53" s="145"/>
-      <c r="K53" s="145"/>
-      <c r="L53" s="145"/>
-      <c r="M53" s="147"/>
+      <c r="E53" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="F53" s="145" t="n">
+        <v>0.011428573168814182</v>
+      </c>
+      <c r="G53" s="145" t="n">
+        <v>3.200026024585031E-4</v>
+      </c>
+      <c r="H53" s="145" t="n">
+        <v>576.0046844253056</v>
+      </c>
+      <c r="I53" s="145" t="n">
+        <v>6.620743499141444E-4</v>
+      </c>
+      <c r="J53" s="145" t="s">
+        <v>171</v>
+      </c>
+      <c r="K53" s="145" t="s">
+        <v>171</v>
+      </c>
+      <c r="L53" s="145" t="s">
+        <v>171</v>
+      </c>
+      <c r="M53" s="147" t="s">
+        <v>171</v>
+      </c>
       <c r="N53" s="189"/>
       <c r="P53" s="112"/>
-      <c r="Q53" s="134"/>
-      <c r="R53" s="201"/>
-      <c r="S53" s="205"/>
-      <c r="T53" s="205"/>
-      <c r="U53" s="200"/>
-      <c r="V53" s="200"/>
-      <c r="W53" s="201"/>
-      <c r="X53" s="201"/>
-      <c r="Y53" s="201"/>
-      <c r="Z53" s="201"/>
-      <c r="AA53" s="201"/>
-      <c r="AB53" s="206"/>
-      <c r="AC53" s="203"/>
+      <c r="Q53" s="134" t="s">
+        <v>180</v>
+      </c>
+      <c r="R53" s="201" t="s">
+        <v>130</v>
+      </c>
+      <c r="S53" s="205" t="n">
+        <v>55000.0</v>
+      </c>
+      <c r="T53" s="205" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="U53" s="200" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="V53" s="200" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="W53" s="201" t="n">
+        <v>0.010057387873530388</v>
+      </c>
+      <c r="X53" s="201" t="n">
+        <v>8.381156561275324E-5</v>
+      </c>
+      <c r="Y53" s="201" t="n">
+        <v>7.90223348303698E-5</v>
+      </c>
+      <c r="Z53" s="201" t="n">
+        <v>0.005185185465961695</v>
+      </c>
+      <c r="AA53" s="201" t="n">
+        <v>4.32098786404822E-5</v>
+      </c>
+      <c r="AB53" s="206" t="n">
+        <v>4.074074240634218E-5</v>
+      </c>
+      <c r="AC53" s="284" t="s">
+        <v>174</v>
+      </c>
       <c r="AD53" s="16"/>
       <c r="AE53" s="29"/>
       <c r="AF53" s="29"/>
@@ -6000,31 +6913,77 @@
     <row customHeight="1" ht="24.95" r="54" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A54" s="169"/>
       <c r="B54" s="169"/>
-      <c r="D54" s="27"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="145"/>
-      <c r="G54" s="145"/>
-      <c r="H54" s="145"/>
-      <c r="I54" s="145"/>
-      <c r="J54" s="145"/>
-      <c r="K54" s="145"/>
-      <c r="L54" s="145"/>
-      <c r="M54" s="146"/>
+      <c r="D54" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="E54" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="F54" s="145" t="n">
+        <v>0.0010000000474974513</v>
+      </c>
+      <c r="G54" s="145" t="n">
+        <v>2.8000224781429502E-5</v>
+      </c>
+      <c r="H54" s="145" t="n">
+        <v>22.400179825143603</v>
+      </c>
+      <c r="I54" s="145" t="n">
+        <v>2.574733313234897E-5</v>
+      </c>
+      <c r="J54" s="145" t="s">
+        <v>171</v>
+      </c>
+      <c r="K54" s="145" t="s">
+        <v>171</v>
+      </c>
+      <c r="L54" s="145" t="s">
+        <v>171</v>
+      </c>
+      <c r="M54" s="146" t="s">
+        <v>171</v>
+      </c>
       <c r="N54" s="167"/>
       <c r="P54" s="112"/>
-      <c r="Q54" s="134"/>
-      <c r="R54" s="201"/>
-      <c r="S54" s="205"/>
-      <c r="T54" s="205"/>
-      <c r="U54" s="201"/>
-      <c r="V54" s="201"/>
-      <c r="W54" s="201"/>
-      <c r="X54" s="201"/>
-      <c r="Y54" s="201"/>
-      <c r="Z54" s="201"/>
-      <c r="AA54" s="201"/>
-      <c r="AB54" s="206"/>
-      <c r="AC54" s="203"/>
+      <c r="Q54" s="134" t="s">
+        <v>180</v>
+      </c>
+      <c r="R54" s="201" t="s">
+        <v>177</v>
+      </c>
+      <c r="S54" s="205" t="n">
+        <v>100000.0</v>
+      </c>
+      <c r="T54" s="205" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="U54" s="201" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="V54" s="201" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="W54" s="201" t="n">
+        <v>0.0028735394589602947</v>
+      </c>
+      <c r="X54" s="201" t="n">
+        <v>5.7470789179205895E-5</v>
+      </c>
+      <c r="Y54" s="201" t="n">
+        <v>4.789232334587723E-4</v>
+      </c>
+      <c r="Z54" s="201" t="n">
+        <v>0.0014814815949648619</v>
+      </c>
+      <c r="AA54" s="201" t="n">
+        <v>2.9629631171701476E-5</v>
+      </c>
+      <c r="AB54" s="206" t="n">
+        <v>2.469135797582567E-4</v>
+      </c>
+      <c r="AC54" s="285" t="s">
+        <v>174</v>
+      </c>
       <c r="AD54" s="16"/>
       <c r="AE54" s="29"/>
       <c r="AF54" s="29"/>
@@ -6043,30 +7002,74 @@
       <c r="A55" s="169"/>
       <c r="B55" s="169"/>
       <c r="D55" s="27"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="145"/>
-      <c r="G55" s="145"/>
-      <c r="H55" s="145"/>
-      <c r="I55" s="145"/>
-      <c r="J55" s="145"/>
-      <c r="K55" s="145"/>
-      <c r="L55" s="145"/>
-      <c r="M55" s="146"/>
+      <c r="E55" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="F55" s="145" t="n">
+        <v>0.0010000000474974513</v>
+      </c>
+      <c r="G55" s="145" t="n">
+        <v>1.9444283009245046E-5</v>
+      </c>
+      <c r="H55" s="145" t="n">
+        <v>34.99970941664108</v>
+      </c>
+      <c r="I55" s="145" t="n">
+        <v>4.022955105361044E-5</v>
+      </c>
+      <c r="J55" s="145" t="s">
+        <v>171</v>
+      </c>
+      <c r="K55" s="145" t="s">
+        <v>171</v>
+      </c>
+      <c r="L55" s="145" t="s">
+        <v>171</v>
+      </c>
+      <c r="M55" s="146" t="s">
+        <v>171</v>
+      </c>
       <c r="N55" s="167"/>
       <c r="P55" s="112"/>
-      <c r="Q55" s="134"/>
-      <c r="R55" s="201"/>
-      <c r="S55" s="205"/>
-      <c r="T55" s="205"/>
-      <c r="U55" s="201"/>
-      <c r="V55" s="201"/>
-      <c r="W55" s="201"/>
-      <c r="X55" s="201"/>
-      <c r="Y55" s="201"/>
-      <c r="Z55" s="201"/>
-      <c r="AA55" s="201"/>
-      <c r="AB55" s="206"/>
-      <c r="AC55" s="203"/>
+      <c r="Q55" s="134" t="s">
+        <v>180</v>
+      </c>
+      <c r="R55" s="201" t="s">
+        <v>178</v>
+      </c>
+      <c r="S55" s="205" t="n">
+        <v>15000.0</v>
+      </c>
+      <c r="T55" s="205" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="U55" s="201" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="V55" s="201" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="W55" s="201" t="n">
+        <v>0.004310308955609798</v>
+      </c>
+      <c r="X55" s="201" t="n">
+        <v>1.0775772389024497E-4</v>
+      </c>
+      <c r="Y55" s="201" t="n">
+        <v>5.387886267271824E-5</v>
+      </c>
+      <c r="Z55" s="201" t="n">
+        <v>0.002222222276031971</v>
+      </c>
+      <c r="AA55" s="201" t="n">
+        <v>5.555555617320351E-5</v>
+      </c>
+      <c r="AB55" s="206" t="n">
+        <v>2.7777778086601757E-5</v>
+      </c>
+      <c r="AC55" s="286" t="s">
+        <v>174</v>
+      </c>
       <c r="AD55" s="16"/>
       <c r="AE55" s="29"/>
       <c r="AF55" s="29"/>
@@ -6084,31 +7087,77 @@
     <row customHeight="1" ht="24.95" r="56" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A56" s="169"/>
       <c r="B56" s="169"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="145"/>
-      <c r="G56" s="145"/>
-      <c r="H56" s="145"/>
-      <c r="I56" s="145"/>
-      <c r="J56" s="145"/>
-      <c r="K56" s="145"/>
-      <c r="L56" s="145"/>
-      <c r="M56" s="146"/>
+      <c r="D56" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="E56" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="F56" s="145" t="n">
+        <v>0.0021428572945296764</v>
+      </c>
+      <c r="G56" s="145" t="n">
+        <v>6.00004830714868E-5</v>
+      </c>
+      <c r="H56" s="145" t="n">
+        <v>48.000386457189435</v>
+      </c>
+      <c r="I56" s="145" t="n">
+        <v>5.5172857996769464E-5</v>
+      </c>
+      <c r="J56" s="145" t="s">
+        <v>171</v>
+      </c>
+      <c r="K56" s="145" t="s">
+        <v>171</v>
+      </c>
+      <c r="L56" s="145" t="s">
+        <v>171</v>
+      </c>
+      <c r="M56" s="146" t="s">
+        <v>171</v>
+      </c>
       <c r="N56" s="190"/>
       <c r="P56" s="112"/>
-      <c r="Q56" s="134"/>
-      <c r="R56" s="201"/>
-      <c r="S56" s="205"/>
-      <c r="T56" s="205"/>
-      <c r="U56" s="201"/>
-      <c r="V56" s="201"/>
-      <c r="W56" s="201"/>
-      <c r="X56" s="201"/>
-      <c r="Y56" s="201"/>
-      <c r="Z56" s="201"/>
-      <c r="AA56" s="201"/>
-      <c r="AB56" s="206"/>
-      <c r="AC56" s="204"/>
+      <c r="Q56" s="134" t="s">
+        <v>180</v>
+      </c>
+      <c r="R56" s="201" t="s">
+        <v>179</v>
+      </c>
+      <c r="S56" s="205" t="n">
+        <v>300000.0</v>
+      </c>
+      <c r="T56" s="205" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="U56" s="201" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="V56" s="201" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="W56" s="201" t="n">
+        <v>0.008620617911219597</v>
+      </c>
+      <c r="X56" s="201" t="n">
+        <v>2.1551544778048993E-4</v>
+      </c>
+      <c r="Y56" s="201" t="n">
+        <v>0.002155154477804899</v>
+      </c>
+      <c r="Z56" s="201" t="n">
+        <v>0.004444444552063942</v>
+      </c>
+      <c r="AA56" s="201" t="n">
+        <v>1.1111111234640703E-4</v>
+      </c>
+      <c r="AB56" s="206" t="n">
+        <v>0.0011111111380159855</v>
+      </c>
+      <c r="AC56" s="287" t="s">
+        <v>174</v>
+      </c>
       <c r="AD56" s="16"/>
       <c r="AE56" s="29"/>
       <c r="AF56" s="29"/>
@@ -6127,15 +7176,33 @@
       <c r="A57" s="169"/>
       <c r="B57" s="169"/>
       <c r="D57" s="27"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="132"/>
-      <c r="G57" s="132"/>
-      <c r="H57" s="132"/>
-      <c r="I57" s="132"/>
-      <c r="J57" s="133"/>
-      <c r="K57" s="132"/>
-      <c r="L57" s="132"/>
-      <c r="M57" s="145"/>
+      <c r="E57" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="F57" s="132" t="n">
+        <v>0.0021428572945296764</v>
+      </c>
+      <c r="G57" s="132" t="n">
+        <v>4.1666321704216106E-5</v>
+      </c>
+      <c r="H57" s="132" t="n">
+        <v>74.99937906758899</v>
+      </c>
+      <c r="I57" s="132" t="n">
+        <v>8.620618283630918E-5</v>
+      </c>
+      <c r="J57" s="133" t="s">
+        <v>171</v>
+      </c>
+      <c r="K57" s="132" t="s">
+        <v>171</v>
+      </c>
+      <c r="L57" s="132" t="s">
+        <v>171</v>
+      </c>
+      <c r="M57" s="145" t="s">
+        <v>171</v>
+      </c>
       <c r="N57" s="168"/>
       <c r="P57" s="112"/>
       <c r="Q57" s="134"/>
@@ -6180,19 +7247,45 @@
       <c r="M58" s="145"/>
       <c r="N58" s="168"/>
       <c r="P58" s="112"/>
-      <c r="Q58" s="134"/>
-      <c r="R58" s="201"/>
-      <c r="S58" s="205"/>
-      <c r="T58" s="205"/>
-      <c r="U58" s="201"/>
-      <c r="V58" s="201"/>
-      <c r="W58" s="201"/>
-      <c r="X58" s="201"/>
-      <c r="Y58" s="201"/>
-      <c r="Z58" s="201"/>
-      <c r="AA58" s="201"/>
-      <c r="AB58" s="206"/>
-      <c r="AC58" s="203"/>
+      <c r="Q58" s="134" t="s">
+        <v>181</v>
+      </c>
+      <c r="R58" s="201" t="s">
+        <v>173</v>
+      </c>
+      <c r="S58" s="205" t="n">
+        <v>35000.0</v>
+      </c>
+      <c r="T58" s="205" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="U58" s="201" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="V58" s="201" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="W58" s="201" t="n">
+        <v>0.02344808168709278</v>
+      </c>
+      <c r="X58" s="201" t="n">
+        <v>7.816027229030927E-4</v>
+      </c>
+      <c r="Y58" s="201" t="n">
+        <v>1.9540068751666695E-4</v>
+      </c>
+      <c r="Z58" s="201" t="n">
+        <v>0.012088890187442303</v>
+      </c>
+      <c r="AA58" s="201" t="n">
+        <v>4.029629926662892E-4</v>
+      </c>
+      <c r="AB58" s="206" t="n">
+        <v>1.007407481665723E-4</v>
+      </c>
+      <c r="AC58" s="288" t="s">
+        <v>174</v>
+      </c>
       <c r="AD58" s="16"/>
       <c r="AE58" s="29"/>
       <c r="AF58" s="29"/>
@@ -6222,19 +7315,45 @@
       <c r="M59" s="145"/>
       <c r="N59" s="132"/>
       <c r="P59" s="112"/>
-      <c r="Q59" s="134"/>
-      <c r="R59" s="201"/>
-      <c r="S59" s="205"/>
-      <c r="T59" s="205"/>
-      <c r="U59" s="201"/>
-      <c r="V59" s="201"/>
-      <c r="W59" s="201"/>
-      <c r="X59" s="201"/>
-      <c r="Y59" s="201"/>
-      <c r="Z59" s="201"/>
-      <c r="AA59" s="201"/>
-      <c r="AB59" s="206"/>
-      <c r="AC59" s="203"/>
+      <c r="Q59" s="134" t="s">
+        <v>181</v>
+      </c>
+      <c r="R59" s="201" t="s">
+        <v>175</v>
+      </c>
+      <c r="S59" s="205" t="n">
+        <v>25000.0</v>
+      </c>
+      <c r="T59" s="205" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="U59" s="201" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="V59" s="201" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="W59" s="201" t="n">
+        <v>0.02344808168709278</v>
+      </c>
+      <c r="X59" s="201" t="n">
+        <v>5.862020421773195E-4</v>
+      </c>
+      <c r="Y59" s="201" t="n">
+        <v>4.885017406195402E-4</v>
+      </c>
+      <c r="Z59" s="201" t="n">
+        <v>0.012088890187442303</v>
+      </c>
+      <c r="AA59" s="201" t="n">
+        <v>3.022222372237593E-4</v>
+      </c>
+      <c r="AB59" s="206" t="n">
+        <v>2.5185185950249434E-4</v>
+      </c>
+      <c r="AC59" s="289" t="s">
+        <v>174</v>
+      </c>
       <c r="AD59" s="16"/>
       <c r="AE59" s="29"/>
       <c r="AF59" s="29"/>
@@ -6264,19 +7383,45 @@
       <c r="M60" s="145"/>
       <c r="N60" s="132"/>
       <c r="P60" s="112"/>
-      <c r="Q60" s="134"/>
-      <c r="R60" s="201"/>
-      <c r="S60" s="205"/>
-      <c r="T60" s="205"/>
-      <c r="U60" s="201"/>
-      <c r="V60" s="201"/>
-      <c r="W60" s="201"/>
-      <c r="X60" s="201"/>
-      <c r="Y60" s="201"/>
-      <c r="Z60" s="201"/>
-      <c r="AA60" s="201"/>
-      <c r="AB60" s="206"/>
-      <c r="AC60" s="204"/>
+      <c r="Q60" s="134" t="s">
+        <v>181</v>
+      </c>
+      <c r="R60" s="201" t="s">
+        <v>176</v>
+      </c>
+      <c r="S60" s="205" t="n">
+        <v>75000.0</v>
+      </c>
+      <c r="T60" s="205" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="U60" s="201" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="V60" s="201" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="W60" s="201" t="n">
+        <v>0.02344808168709278</v>
+      </c>
+      <c r="X60" s="201" t="n">
+        <v>2.344808168709278E-4</v>
+      </c>
+      <c r="Y60" s="201" t="n">
+        <v>9.770033648237586E-4</v>
+      </c>
+      <c r="Z60" s="201" t="n">
+        <v>0.012088890187442303</v>
+      </c>
+      <c r="AA60" s="201" t="n">
+        <v>1.2088890071026981E-4</v>
+      </c>
+      <c r="AB60" s="206" t="n">
+        <v>5.037037190049887E-4</v>
+      </c>
+      <c r="AC60" s="290" t="s">
+        <v>174</v>
+      </c>
       <c r="AD60" s="16"/>
       <c r="AE60" s="29"/>
       <c r="AF60" s="29"/>
@@ -6304,19 +7449,45 @@
       <c r="M61" s="145"/>
       <c r="N61" s="132"/>
       <c r="P61" s="112"/>
-      <c r="Q61" s="134"/>
-      <c r="R61" s="201"/>
-      <c r="S61" s="205"/>
-      <c r="T61" s="205"/>
-      <c r="U61" s="201"/>
-      <c r="V61" s="201"/>
-      <c r="W61" s="201"/>
-      <c r="X61" s="201"/>
-      <c r="Y61" s="201"/>
-      <c r="Z61" s="201"/>
-      <c r="AA61" s="201"/>
-      <c r="AB61" s="207"/>
-      <c r="AC61" s="203"/>
+      <c r="Q61" s="134" t="s">
+        <v>181</v>
+      </c>
+      <c r="R61" s="201" t="s">
+        <v>130</v>
+      </c>
+      <c r="S61" s="205" t="n">
+        <v>55000.0</v>
+      </c>
+      <c r="T61" s="205" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="U61" s="201" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="V61" s="201" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="W61" s="201" t="n">
+        <v>0.027356095612049103</v>
+      </c>
+      <c r="X61" s="201" t="n">
+        <v>2.2796746343374253E-4</v>
+      </c>
+      <c r="Y61" s="201" t="n">
+        <v>2.1494075190275908E-4</v>
+      </c>
+      <c r="Z61" s="201" t="n">
+        <v>0.014103705063462257</v>
+      </c>
+      <c r="AA61" s="201" t="n">
+        <v>1.1753087164834142E-4</v>
+      </c>
+      <c r="AB61" s="207" t="n">
+        <v>1.1081482080044225E-4</v>
+      </c>
+      <c r="AC61" s="291" t="s">
+        <v>174</v>
+      </c>
       <c r="AD61" s="16"/>
       <c r="AE61" s="29"/>
       <c r="AF61" s="29"/>
@@ -6344,19 +7515,45 @@
       <c r="M62" s="132"/>
       <c r="N62" s="132"/>
       <c r="P62" s="112"/>
-      <c r="Q62" s="134"/>
-      <c r="R62" s="201"/>
-      <c r="S62" s="205"/>
-      <c r="T62" s="205"/>
-      <c r="U62" s="201"/>
-      <c r="V62" s="201"/>
-      <c r="W62" s="201"/>
-      <c r="X62" s="201"/>
-      <c r="Y62" s="201"/>
-      <c r="Z62" s="201"/>
-      <c r="AA62" s="201"/>
-      <c r="AB62" s="207"/>
-      <c r="AC62" s="203"/>
+      <c r="Q62" s="134" t="s">
+        <v>181</v>
+      </c>
+      <c r="R62" s="201" t="s">
+        <v>177</v>
+      </c>
+      <c r="S62" s="205" t="n">
+        <v>100000.0</v>
+      </c>
+      <c r="T62" s="205" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="U62" s="201" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="V62" s="201" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="W62" s="201" t="n">
+        <v>0.007816027849912643</v>
+      </c>
+      <c r="X62" s="201" t="n">
+        <v>1.5632055699825288E-4</v>
+      </c>
+      <c r="Y62" s="201" t="n">
+        <v>0.0013026712695136666</v>
+      </c>
+      <c r="Z62" s="201" t="n">
+        <v>0.004029629752039909</v>
+      </c>
+      <c r="AA62" s="201" t="n">
+        <v>8.05925956228748E-5</v>
+      </c>
+      <c r="AB62" s="207" t="n">
+        <v>6.716049974784255E-4</v>
+      </c>
+      <c r="AC62" s="292" t="s">
+        <v>174</v>
+      </c>
       <c r="AD62" s="16"/>
       <c r="AE62" s="29"/>
       <c r="AF62" s="29"/>
@@ -6384,19 +7581,45 @@
       <c r="M63" s="132"/>
       <c r="N63" s="132"/>
       <c r="P63" s="112"/>
-      <c r="Q63" s="134"/>
-      <c r="R63" s="201"/>
-      <c r="S63" s="205"/>
-      <c r="T63" s="205"/>
-      <c r="U63" s="201"/>
-      <c r="V63" s="201"/>
-      <c r="W63" s="201"/>
-      <c r="X63" s="201"/>
-      <c r="Y63" s="201"/>
-      <c r="Z63" s="201"/>
-      <c r="AA63" s="201"/>
-      <c r="AB63" s="207"/>
-      <c r="AC63" s="203"/>
+      <c r="Q63" s="134" t="s">
+        <v>181</v>
+      </c>
+      <c r="R63" s="201" t="s">
+        <v>178</v>
+      </c>
+      <c r="S63" s="205" t="n">
+        <v>15000.0</v>
+      </c>
+      <c r="T63" s="205" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="U63" s="201" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="V63" s="201" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="W63" s="201" t="n">
+        <v>0.01172404084354639</v>
+      </c>
+      <c r="X63" s="201" t="n">
+        <v>2.931010210886598E-4</v>
+      </c>
+      <c r="Y63" s="201" t="n">
+        <v>1.4655051927547902E-4</v>
+      </c>
+      <c r="Z63" s="201" t="n">
+        <v>0.006044445093721151</v>
+      </c>
+      <c r="AA63" s="201" t="n">
+        <v>1.5111111861187965E-4</v>
+      </c>
+      <c r="AB63" s="207" t="n">
+        <v>7.555555930593982E-5</v>
+      </c>
+      <c r="AC63" s="293" t="s">
+        <v>174</v>
+      </c>
       <c r="AD63" s="16"/>
       <c r="AE63" s="29"/>
       <c r="AF63" s="29"/>
@@ -6424,19 +7647,45 @@
       <c r="M64" s="132"/>
       <c r="N64" s="132"/>
       <c r="P64" s="112"/>
-      <c r="Q64" s="63"/>
-      <c r="R64" s="201"/>
-      <c r="S64" s="208"/>
-      <c r="T64" s="208"/>
-      <c r="U64" s="201"/>
-      <c r="V64" s="201"/>
-      <c r="W64" s="201"/>
-      <c r="X64" s="201"/>
-      <c r="Y64" s="201"/>
-      <c r="Z64" s="201"/>
-      <c r="AA64" s="201"/>
-      <c r="AB64" s="207"/>
-      <c r="AC64" s="209"/>
+      <c r="Q64" s="63" t="s">
+        <v>181</v>
+      </c>
+      <c r="R64" s="201" t="s">
+        <v>179</v>
+      </c>
+      <c r="S64" s="208" t="n">
+        <v>300000.0</v>
+      </c>
+      <c r="T64" s="208" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="U64" s="201" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="V64" s="201" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="W64" s="201" t="n">
+        <v>0.02344808168709278</v>
+      </c>
+      <c r="X64" s="201" t="n">
+        <v>5.862020421773195E-4</v>
+      </c>
+      <c r="Y64" s="201" t="n">
+        <v>0.005862020421773195</v>
+      </c>
+      <c r="Z64" s="201" t="n">
+        <v>0.012088890187442303</v>
+      </c>
+      <c r="AA64" s="201" t="n">
+        <v>3.022222372237593E-4</v>
+      </c>
+      <c r="AB64" s="207" t="n">
+        <v>0.0030222225468605757</v>
+      </c>
+      <c r="AC64" s="294" t="s">
+        <v>174</v>
+      </c>
       <c r="AD64" s="16"/>
       <c r="AE64" s="29"/>
       <c r="AF64" s="29"/>
@@ -6501,19 +7750,45 @@
       <c r="M66" s="132"/>
       <c r="N66" s="132"/>
       <c r="P66" s="112"/>
-      <c r="Q66" s="63"/>
-      <c r="R66" s="201"/>
-      <c r="S66" s="208"/>
-      <c r="T66" s="208"/>
-      <c r="U66" s="201"/>
-      <c r="V66" s="201"/>
-      <c r="W66" s="201"/>
-      <c r="X66" s="201"/>
-      <c r="Y66" s="201"/>
-      <c r="Z66" s="201"/>
-      <c r="AA66" s="201"/>
-      <c r="AB66" s="207"/>
-      <c r="AC66" s="209"/>
+      <c r="Q66" s="63" t="s">
+        <v>182</v>
+      </c>
+      <c r="R66" s="201" t="s">
+        <v>173</v>
+      </c>
+      <c r="S66" s="208" t="n">
+        <v>35000.0</v>
+      </c>
+      <c r="T66" s="208" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="U66" s="201" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="V66" s="201" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="W66" s="201" t="n">
+        <v>0.05172371119260788</v>
+      </c>
+      <c r="X66" s="201" t="n">
+        <v>0.0017241237064202627</v>
+      </c>
+      <c r="Y66" s="201" t="n">
+        <v>4.310309304855764E-4</v>
+      </c>
+      <c r="Z66" s="201" t="n">
+        <v>0.0266666691750288</v>
+      </c>
+      <c r="AA66" s="201" t="n">
+        <v>8.888889569789171E-4</v>
+      </c>
+      <c r="AB66" s="207" t="n">
+        <v>2.2222223924472928E-4</v>
+      </c>
+      <c r="AC66" s="295" t="s">
+        <v>174</v>
+      </c>
       <c r="AE66" s="29"/>
       <c r="AF66" s="29"/>
       <c r="AG66" s="42"/>
@@ -6538,19 +7813,45 @@
       <c r="M67" s="132"/>
       <c r="N67" s="132"/>
       <c r="P67" s="112"/>
-      <c r="Q67" s="63"/>
-      <c r="R67" s="201"/>
-      <c r="S67" s="208"/>
-      <c r="T67" s="208"/>
-      <c r="U67" s="201"/>
-      <c r="V67" s="201"/>
-      <c r="W67" s="201"/>
-      <c r="X67" s="201"/>
-      <c r="Y67" s="201"/>
-      <c r="Z67" s="201"/>
-      <c r="AA67" s="201"/>
-      <c r="AB67" s="207"/>
-      <c r="AC67" s="209"/>
+      <c r="Q67" s="63" t="s">
+        <v>182</v>
+      </c>
+      <c r="R67" s="201" t="s">
+        <v>175</v>
+      </c>
+      <c r="S67" s="208" t="n">
+        <v>25000.0</v>
+      </c>
+      <c r="T67" s="208" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="U67" s="201" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="V67" s="201" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="W67" s="201" t="n">
+        <v>0.05172371119260788</v>
+      </c>
+      <c r="X67" s="201" t="n">
+        <v>0.001293092779815197</v>
+      </c>
+      <c r="Y67" s="201" t="n">
+        <v>0.0010775773553177714</v>
+      </c>
+      <c r="Z67" s="201" t="n">
+        <v>0.0266666691750288</v>
+      </c>
+      <c r="AA67" s="201" t="n">
+        <v>6.666667177341878E-4</v>
+      </c>
+      <c r="AB67" s="207" t="n">
+        <v>5.555556272156537E-4</v>
+      </c>
+      <c r="AC67" s="296" t="s">
+        <v>174</v>
+      </c>
       <c r="AE67" s="29"/>
       <c r="AF67" s="29"/>
       <c r="AG67" s="42"/>
@@ -6575,19 +7876,45 @@
       <c r="M68" s="132"/>
       <c r="N68" s="132"/>
       <c r="P68" s="112"/>
-      <c r="Q68" s="63"/>
-      <c r="R68" s="201"/>
-      <c r="S68" s="208"/>
-      <c r="T68" s="208"/>
-      <c r="U68" s="201"/>
-      <c r="V68" s="201"/>
-      <c r="W68" s="201"/>
-      <c r="X68" s="201"/>
-      <c r="Y68" s="201"/>
-      <c r="Z68" s="201"/>
-      <c r="AA68" s="201"/>
-      <c r="AB68" s="207"/>
-      <c r="AC68" s="209"/>
+      <c r="Q68" s="63" t="s">
+        <v>182</v>
+      </c>
+      <c r="R68" s="201" t="s">
+        <v>176</v>
+      </c>
+      <c r="S68" s="208" t="n">
+        <v>75000.0</v>
+      </c>
+      <c r="T68" s="208" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="U68" s="201" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="V68" s="201" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="W68" s="201" t="n">
+        <v>0.05172371119260788</v>
+      </c>
+      <c r="X68" s="201" t="n">
+        <v>5.172371119260788E-4</v>
+      </c>
+      <c r="Y68" s="201" t="n">
+        <v>0.002155154710635543</v>
+      </c>
+      <c r="Z68" s="201" t="n">
+        <v>0.0266666691750288</v>
+      </c>
+      <c r="AA68" s="201" t="n">
+        <v>2.666666987352073E-4</v>
+      </c>
+      <c r="AB68" s="207" t="n">
+        <v>0.0011111112544313073</v>
+      </c>
+      <c r="AC68" s="297" t="s">
+        <v>174</v>
+      </c>
       <c r="AE68" s="29"/>
       <c r="AF68" s="29"/>
       <c r="AG68" s="42"/>
@@ -6612,19 +7939,45 @@
       <c r="M69" s="132"/>
       <c r="N69" s="132"/>
       <c r="P69" s="112"/>
-      <c r="Q69" s="63"/>
-      <c r="R69" s="201"/>
-      <c r="S69" s="208"/>
-      <c r="T69" s="208"/>
-      <c r="U69" s="201"/>
-      <c r="V69" s="201"/>
-      <c r="W69" s="201"/>
-      <c r="X69" s="201"/>
-      <c r="Y69" s="201"/>
-      <c r="Z69" s="201"/>
-      <c r="AA69" s="201"/>
-      <c r="AB69" s="207"/>
-      <c r="AC69" s="209"/>
+      <c r="Q69" s="63" t="s">
+        <v>182</v>
+      </c>
+      <c r="R69" s="201" t="s">
+        <v>130</v>
+      </c>
+      <c r="S69" s="208" t="n">
+        <v>55000.0</v>
+      </c>
+      <c r="T69" s="208" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="U69" s="201" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="V69" s="201" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="W69" s="201" t="n">
+        <v>0.060344330966472626</v>
+      </c>
+      <c r="X69" s="201" t="n">
+        <v>5.028694247206052E-4</v>
+      </c>
+      <c r="Y69" s="201" t="n">
+        <v>4.7413402353413403E-4</v>
+      </c>
+      <c r="Z69" s="201" t="n">
+        <v>0.031111113727092743</v>
+      </c>
+      <c r="AA69" s="201" t="n">
+        <v>2.5925927911885083E-4</v>
+      </c>
+      <c r="AB69" s="207" t="n">
+        <v>2.444444689899683E-4</v>
+      </c>
+      <c r="AC69" s="298" t="s">
+        <v>174</v>
+      </c>
       <c r="AE69" s="29"/>
       <c r="AF69" s="29"/>
       <c r="AG69" s="42"/>
@@ -6649,19 +8002,45 @@
       <c r="M70" s="132"/>
       <c r="N70" s="132"/>
       <c r="P70" s="112"/>
-      <c r="Q70" s="63"/>
-      <c r="R70" s="201"/>
-      <c r="S70" s="208"/>
-      <c r="T70" s="208"/>
-      <c r="U70" s="201"/>
-      <c r="V70" s="201"/>
-      <c r="W70" s="201"/>
-      <c r="X70" s="201"/>
-      <c r="Y70" s="201"/>
-      <c r="Z70" s="201"/>
-      <c r="AA70" s="201"/>
-      <c r="AB70" s="207"/>
-      <c r="AC70" s="209"/>
+      <c r="Q70" s="63" t="s">
+        <v>182</v>
+      </c>
+      <c r="R70" s="201" t="s">
+        <v>177</v>
+      </c>
+      <c r="S70" s="208" t="n">
+        <v>100000.0</v>
+      </c>
+      <c r="T70" s="208" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="U70" s="201" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="V70" s="201" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="W70" s="201" t="n">
+        <v>0.017241237685084343</v>
+      </c>
+      <c r="X70" s="201" t="n">
+        <v>3.4482475370168687E-4</v>
+      </c>
+      <c r="Y70" s="201" t="n">
+        <v>0.0028735394589602947</v>
+      </c>
+      <c r="Z70" s="201" t="n">
+        <v>0.008888890035450459</v>
+      </c>
+      <c r="AA70" s="201" t="n">
+        <v>1.7777779430616647E-4</v>
+      </c>
+      <c r="AB70" s="207" t="n">
+        <v>0.0014814815949648619</v>
+      </c>
+      <c r="AC70" s="299" t="s">
+        <v>174</v>
+      </c>
       <c r="AE70" s="29"/>
       <c r="AF70" s="29"/>
       <c r="AG70" s="42"/>
@@ -6686,19 +8065,45 @@
       <c r="M71" s="132"/>
       <c r="N71" s="132"/>
       <c r="P71" s="112"/>
-      <c r="Q71" s="63"/>
-      <c r="R71" s="201"/>
-      <c r="S71" s="208"/>
-      <c r="T71" s="208"/>
-      <c r="U71" s="201"/>
-      <c r="V71" s="201"/>
-      <c r="W71" s="201"/>
-      <c r="X71" s="201"/>
-      <c r="Y71" s="201"/>
-      <c r="Z71" s="201"/>
-      <c r="AA71" s="201"/>
-      <c r="AB71" s="207"/>
-      <c r="AC71" s="209"/>
+      <c r="Q71" s="63" t="s">
+        <v>182</v>
+      </c>
+      <c r="R71" s="201" t="s">
+        <v>178</v>
+      </c>
+      <c r="S71" s="208" t="n">
+        <v>15000.0</v>
+      </c>
+      <c r="T71" s="208" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="U71" s="201" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="V71" s="201" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="W71" s="201" t="n">
+        <v>0.02586185559630394</v>
+      </c>
+      <c r="X71" s="201" t="n">
+        <v>6.465463899075985E-4</v>
+      </c>
+      <c r="Y71" s="201" t="n">
+        <v>3.232732124160975E-4</v>
+      </c>
+      <c r="Z71" s="201" t="n">
+        <v>0.0133333345875144</v>
+      </c>
+      <c r="AA71" s="201" t="n">
+        <v>3.333333588670939E-4</v>
+      </c>
+      <c r="AB71" s="207" t="n">
+        <v>1.6666667943354696E-4</v>
+      </c>
+      <c r="AC71" s="300" t="s">
+        <v>174</v>
+      </c>
       <c r="AE71" s="29"/>
       <c r="AF71" s="29"/>
       <c r="AG71" s="42"/>
@@ -6723,19 +8128,45 @@
       <c r="M72" s="132"/>
       <c r="N72" s="132"/>
       <c r="P72" s="112"/>
-      <c r="Q72" s="63"/>
-      <c r="R72" s="201"/>
-      <c r="S72" s="208"/>
-      <c r="T72" s="208"/>
-      <c r="U72" s="201"/>
-      <c r="V72" s="201"/>
-      <c r="W72" s="201"/>
-      <c r="X72" s="201"/>
-      <c r="Y72" s="201"/>
-      <c r="Z72" s="201"/>
-      <c r="AA72" s="201"/>
-      <c r="AB72" s="207"/>
-      <c r="AC72" s="209"/>
+      <c r="Q72" s="63" t="s">
+        <v>182</v>
+      </c>
+      <c r="R72" s="201" t="s">
+        <v>179</v>
+      </c>
+      <c r="S72" s="208" t="n">
+        <v>300000.0</v>
+      </c>
+      <c r="T72" s="208" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="U72" s="201" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="V72" s="201" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="W72" s="201" t="n">
+        <v>0.05172371119260788</v>
+      </c>
+      <c r="X72" s="201" t="n">
+        <v>0.001293092779815197</v>
+      </c>
+      <c r="Y72" s="201" t="n">
+        <v>0.01293092779815197</v>
+      </c>
+      <c r="Z72" s="201" t="n">
+        <v>0.0266666691750288</v>
+      </c>
+      <c r="AA72" s="201" t="n">
+        <v>6.666667177341878E-4</v>
+      </c>
+      <c r="AB72" s="207" t="n">
+        <v>0.0066666672937572</v>
+      </c>
+      <c r="AC72" s="301" t="s">
+        <v>174</v>
+      </c>
       <c r="AE72" s="29"/>
       <c r="AF72" s="29"/>
       <c r="AG72" s="42"/>
@@ -6799,19 +8230,45 @@
       <c r="M74" s="42"/>
       <c r="N74" s="42"/>
       <c r="P74" s="112"/>
-      <c r="Q74" s="63"/>
-      <c r="R74" s="201"/>
-      <c r="S74" s="208"/>
-      <c r="T74" s="208"/>
-      <c r="U74" s="201"/>
-      <c r="V74" s="201"/>
-      <c r="W74" s="201"/>
-      <c r="X74" s="201"/>
-      <c r="Y74" s="201"/>
-      <c r="Z74" s="201"/>
-      <c r="AA74" s="201"/>
-      <c r="AB74" s="207"/>
-      <c r="AC74" s="209"/>
+      <c r="Q74" s="63" t="s">
+        <v>184</v>
+      </c>
+      <c r="R74" s="201" t="s">
+        <v>173</v>
+      </c>
+      <c r="S74" s="208" t="n">
+        <v>35000.0</v>
+      </c>
+      <c r="T74" s="208" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="U74" s="201" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="V74" s="201" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="W74" s="201" t="n">
+        <v>0.0015448399353772402</v>
+      </c>
+      <c r="X74" s="201" t="n">
+        <v>5.149466451257467E-5</v>
+      </c>
+      <c r="Y74" s="201" t="n">
+        <v>1.2873666491941549E-5</v>
+      </c>
+      <c r="Z74" s="201" t="n">
+        <v>0.0011830986477434635</v>
+      </c>
+      <c r="AA74" s="201" t="n">
+        <v>3.9436621591448784E-5</v>
+      </c>
+      <c r="AB74" s="207" t="n">
+        <v>9.859155397862196E-6</v>
+      </c>
+      <c r="AC74" s="302" t="s">
+        <v>174</v>
+      </c>
       <c r="AE74" s="29"/>
       <c r="AF74" s="29"/>
       <c r="AG74" s="42"/>
@@ -6839,19 +8296,39 @@
       <c r="N75" s="42"/>
       <c r="O75" s="16"/>
       <c r="P75" s="112"/>
-      <c r="Q75" s="63"/>
-      <c r="R75" s="201"/>
-      <c r="S75" s="208"/>
-      <c r="T75" s="201"/>
-      <c r="U75" s="201"/>
-      <c r="V75" s="201"/>
-      <c r="W75" s="201"/>
-      <c r="X75" s="201"/>
-      <c r="Y75" s="201"/>
+      <c r="Q75" s="63" t="s">
+        <v>184</v>
+      </c>
+      <c r="R75" s="201" t="s">
+        <v>175</v>
+      </c>
+      <c r="S75" s="208" t="n">
+        <v>25000.0</v>
+      </c>
+      <c r="T75" s="201" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="U75" s="201" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="V75" s="201" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="W75" s="201" t="n">
+        <v>0.0015448399353772402</v>
+      </c>
+      <c r="X75" s="201" t="n">
+        <v>3.8620998384431E-5</v>
+      </c>
+      <c r="Y75" s="201" t="n">
+        <v>3.218416532035917E-5</v>
+      </c>
       <c r="Z75" s="201"/>
       <c r="AA75" s="201"/>
       <c r="AB75" s="207"/>
-      <c r="AC75" s="209"/>
+      <c r="AC75" s="303" t="s">
+        <v>174</v>
+      </c>
       <c r="AE75" s="29"/>
       <c r="AF75" s="29"/>
       <c r="AG75" s="42"/>
@@ -6879,19 +8356,45 @@
       <c r="N76" s="42"/>
       <c r="O76" s="16"/>
       <c r="P76" s="112"/>
-      <c r="Q76" s="63"/>
-      <c r="R76" s="201"/>
-      <c r="S76" s="208"/>
-      <c r="T76" s="201"/>
-      <c r="U76" s="201"/>
-      <c r="V76" s="201"/>
-      <c r="W76" s="201"/>
-      <c r="X76" s="201"/>
-      <c r="Y76" s="201"/>
-      <c r="Z76" s="201"/>
-      <c r="AA76" s="201"/>
-      <c r="AB76" s="207"/>
-      <c r="AC76" s="209"/>
+      <c r="Q76" s="63" t="s">
+        <v>184</v>
+      </c>
+      <c r="R76" s="201" t="s">
+        <v>176</v>
+      </c>
+      <c r="S76" s="208" t="n">
+        <v>75000.0</v>
+      </c>
+      <c r="T76" s="201" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="U76" s="201" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="V76" s="201" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="W76" s="201" t="n">
+        <v>0.0015448399353772402</v>
+      </c>
+      <c r="X76" s="201" t="n">
+        <v>1.54483993537724E-5</v>
+      </c>
+      <c r="Y76" s="201" t="n">
+        <v>6.436833064071834E-5</v>
+      </c>
+      <c r="Z76" s="201" t="n">
+        <v>0.0011830986477434635</v>
+      </c>
+      <c r="AA76" s="201" t="n">
+        <v>1.1830986295535695E-5</v>
+      </c>
+      <c r="AB76" s="207" t="n">
+        <v>4.929577698931098E-5</v>
+      </c>
+      <c r="AC76" s="304" t="s">
+        <v>174</v>
+      </c>
       <c r="AE76" s="29"/>
       <c r="AF76" s="29"/>
       <c r="AG76" s="42"/>
@@ -6919,19 +8422,39 @@
       <c r="N77" s="42"/>
       <c r="O77" s="16"/>
       <c r="P77" s="112"/>
-      <c r="Q77" s="63"/>
-      <c r="R77" s="201"/>
-      <c r="S77" s="208"/>
-      <c r="T77" s="201"/>
-      <c r="U77" s="201"/>
-      <c r="V77" s="201"/>
-      <c r="W77" s="201"/>
-      <c r="X77" s="201"/>
-      <c r="Y77" s="201"/>
+      <c r="Q77" s="63" t="s">
+        <v>184</v>
+      </c>
+      <c r="R77" s="201" t="s">
+        <v>130</v>
+      </c>
+      <c r="S77" s="208" t="n">
+        <v>55000.0</v>
+      </c>
+      <c r="T77" s="201" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="U77" s="201" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="V77" s="201" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="W77" s="201" t="n">
+        <v>0.0018023132579401135</v>
+      </c>
+      <c r="X77" s="201" t="n">
+        <v>1.5019277149500947E-5</v>
+      </c>
+      <c r="Y77" s="201" t="n">
+        <v>1.4161033504933584E-5</v>
+      </c>
       <c r="Z77" s="201"/>
       <c r="AA77" s="201"/>
       <c r="AB77" s="207"/>
-      <c r="AC77" s="209"/>
+      <c r="AC77" s="305" t="s">
+        <v>174</v>
+      </c>
       <c r="AE77" s="29"/>
       <c r="AF77" s="29"/>
       <c r="AG77" s="42"/>
@@ -6959,19 +8482,45 @@
       <c r="N78" s="42"/>
       <c r="O78" s="39"/>
       <c r="P78" s="122"/>
-      <c r="Q78" s="137"/>
-      <c r="R78" s="200"/>
-      <c r="S78" s="208"/>
-      <c r="T78" s="200"/>
-      <c r="U78" s="200"/>
-      <c r="V78" s="200"/>
-      <c r="W78" s="200"/>
-      <c r="X78" s="200"/>
-      <c r="Y78" s="200"/>
-      <c r="Z78" s="200"/>
-      <c r="AA78" s="201"/>
-      <c r="AB78" s="207"/>
-      <c r="AC78" s="209"/>
+      <c r="Q78" s="137" t="s">
+        <v>184</v>
+      </c>
+      <c r="R78" s="200" t="s">
+        <v>177</v>
+      </c>
+      <c r="S78" s="208" t="n">
+        <v>100000.0</v>
+      </c>
+      <c r="T78" s="200" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="U78" s="200" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="V78" s="200" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="W78" s="200" t="n">
+        <v>5.149466451257467E-4</v>
+      </c>
+      <c r="X78" s="200" t="n">
+        <v>1.0298932902514935E-5</v>
+      </c>
+      <c r="Y78" s="200" t="n">
+        <v>8.582443842897192E-5</v>
+      </c>
+      <c r="Z78" s="200" t="n">
+        <v>3.9436621591448784E-4</v>
+      </c>
+      <c r="AA78" s="201" t="n">
+        <v>7.887324500188697E-6</v>
+      </c>
+      <c r="AB78" s="207" t="n">
+        <v>6.572769780177623E-5</v>
+      </c>
+      <c r="AC78" s="306" t="s">
+        <v>174</v>
+      </c>
       <c r="AE78" s="29"/>
       <c r="AF78" s="29"/>
       <c r="AG78" s="42"/>
@@ -6999,19 +8548,39 @@
       <c r="N79" s="42"/>
       <c r="O79" s="39"/>
       <c r="P79" s="122"/>
-      <c r="Q79" s="137"/>
-      <c r="R79" s="200"/>
-      <c r="S79" s="208"/>
-      <c r="T79" s="200"/>
-      <c r="U79" s="200"/>
-      <c r="V79" s="200"/>
-      <c r="W79" s="200"/>
-      <c r="X79" s="200"/>
-      <c r="Y79" s="200"/>
+      <c r="Q79" s="137" t="s">
+        <v>184</v>
+      </c>
+      <c r="R79" s="200" t="s">
+        <v>178</v>
+      </c>
+      <c r="S79" s="208" t="n">
+        <v>15000.0</v>
+      </c>
+      <c r="T79" s="200" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="U79" s="200" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="V79" s="200" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="W79" s="200" t="n">
+        <v>7.724199676886201E-4</v>
+      </c>
+      <c r="X79" s="200" t="n">
+        <v>1.93104991922155E-5</v>
+      </c>
+      <c r="Y79" s="200" t="n">
+        <v>9.65524941420881E-6</v>
+      </c>
       <c r="Z79" s="200"/>
       <c r="AA79" s="201"/>
       <c r="AB79" s="207"/>
-      <c r="AC79" s="209"/>
+      <c r="AC79" s="307" t="s">
+        <v>174</v>
+      </c>
       <c r="AE79" s="29"/>
       <c r="AF79" s="29"/>
       <c r="AG79" s="42"/>
@@ -7039,19 +8608,45 @@
       <c r="N80" s="42"/>
       <c r="O80" s="43"/>
       <c r="P80" s="126"/>
-      <c r="Q80" s="137"/>
-      <c r="R80" s="200"/>
-      <c r="S80" s="200"/>
-      <c r="T80" s="200"/>
-      <c r="U80" s="200"/>
-      <c r="V80" s="200"/>
-      <c r="W80" s="200"/>
-      <c r="X80" s="200"/>
-      <c r="Y80" s="200"/>
-      <c r="Z80" s="200"/>
-      <c r="AA80" s="201"/>
-      <c r="AB80" s="207"/>
-      <c r="AC80" s="209"/>
+      <c r="Q80" s="137" t="s">
+        <v>184</v>
+      </c>
+      <c r="R80" s="200" t="s">
+        <v>179</v>
+      </c>
+      <c r="S80" s="200" t="n">
+        <v>300000.0</v>
+      </c>
+      <c r="T80" s="200" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="U80" s="200" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="V80" s="200" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="W80" s="200" t="n">
+        <v>0.0015448399353772402</v>
+      </c>
+      <c r="X80" s="200" t="n">
+        <v>3.8620998384431E-5</v>
+      </c>
+      <c r="Y80" s="200" t="n">
+        <v>3.8620998384431005E-4</v>
+      </c>
+      <c r="Z80" s="200" t="n">
+        <v>0.0011830986477434635</v>
+      </c>
+      <c r="AA80" s="201" t="n">
+        <v>2.9577466193586588E-5</v>
+      </c>
+      <c r="AB80" s="207" t="n">
+        <v>2.957746619358659E-4</v>
+      </c>
+      <c r="AC80" s="308" t="s">
+        <v>174</v>
+      </c>
       <c r="AE80" s="29"/>
       <c r="AF80" s="29"/>
       <c r="AG80" s="42"/>
@@ -7119,19 +8714,45 @@
       <c r="N82" s="42"/>
       <c r="O82" s="43"/>
       <c r="P82" s="129"/>
-      <c r="Q82" s="137"/>
-      <c r="R82" s="200"/>
-      <c r="S82" s="200"/>
-      <c r="T82" s="200"/>
-      <c r="U82" s="200"/>
-      <c r="V82" s="200"/>
-      <c r="W82" s="200"/>
-      <c r="X82" s="210"/>
-      <c r="Y82" s="200"/>
-      <c r="Z82" s="211"/>
-      <c r="AA82" s="201"/>
-      <c r="AB82" s="201"/>
-      <c r="AC82" s="209"/>
+      <c r="Q82" s="137" t="s">
+        <v>185</v>
+      </c>
+      <c r="R82" s="200" t="s">
+        <v>173</v>
+      </c>
+      <c r="S82" s="200" t="n">
+        <v>35000.0</v>
+      </c>
+      <c r="T82" s="200" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="U82" s="200" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="V82" s="200" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="W82" s="200" t="n">
+        <v>0.01765531674027443</v>
+      </c>
+      <c r="X82" s="210" t="n">
+        <v>5.885105580091477E-4</v>
+      </c>
+      <c r="Y82" s="200" t="n">
+        <v>1.4712763368152082E-4</v>
+      </c>
+      <c r="Z82" s="211" t="n">
+        <v>0.013521128334105015</v>
+      </c>
+      <c r="AA82" s="201" t="n">
+        <v>4.5070427586324513E-4</v>
+      </c>
+      <c r="AB82" s="201" t="n">
+        <v>1.1267606896581128E-4</v>
+      </c>
+      <c r="AC82" s="309" t="s">
+        <v>174</v>
+      </c>
       <c r="AE82" s="29"/>
       <c r="AF82" s="29"/>
       <c r="AG82" s="42"/>
@@ -7159,19 +8780,39 @@
       <c r="N83" s="42"/>
       <c r="O83" s="43"/>
       <c r="P83" s="122"/>
-      <c r="Q83" s="137"/>
-      <c r="R83" s="200"/>
-      <c r="S83" s="200"/>
-      <c r="T83" s="200"/>
-      <c r="U83" s="200"/>
-      <c r="V83" s="200"/>
-      <c r="W83" s="200"/>
-      <c r="X83" s="210"/>
-      <c r="Y83" s="200"/>
+      <c r="Q83" s="137" t="s">
+        <v>185</v>
+      </c>
+      <c r="R83" s="200" t="s">
+        <v>175</v>
+      </c>
+      <c r="S83" s="200" t="n">
+        <v>25000.0</v>
+      </c>
+      <c r="T83" s="200" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="U83" s="200" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="V83" s="200" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="W83" s="200" t="n">
+        <v>0.01765531674027443</v>
+      </c>
+      <c r="X83" s="210" t="n">
+        <v>4.413829185068607E-4</v>
+      </c>
+      <c r="Y83" s="200" t="n">
+        <v>3.678190987557173E-4</v>
+      </c>
       <c r="Z83" s="211"/>
       <c r="AA83" s="201"/>
       <c r="AB83" s="201"/>
-      <c r="AC83" s="209"/>
+      <c r="AC83" s="310" t="s">
+        <v>174</v>
+      </c>
       <c r="AE83" s="29"/>
       <c r="AF83" s="29"/>
       <c r="AG83" s="42"/>
@@ -7199,19 +8840,45 @@
       <c r="N84" s="42"/>
       <c r="O84" s="43"/>
       <c r="P84" s="122"/>
-      <c r="Q84" s="137"/>
-      <c r="R84" s="200"/>
-      <c r="S84" s="200"/>
-      <c r="T84" s="200"/>
-      <c r="U84" s="200"/>
-      <c r="V84" s="200"/>
-      <c r="W84" s="200"/>
-      <c r="X84" s="210"/>
-      <c r="Y84" s="200"/>
-      <c r="Z84" s="211"/>
-      <c r="AA84" s="201"/>
-      <c r="AB84" s="201"/>
-      <c r="AC84" s="209"/>
+      <c r="Q84" s="137" t="s">
+        <v>185</v>
+      </c>
+      <c r="R84" s="200" t="s">
+        <v>176</v>
+      </c>
+      <c r="S84" s="200" t="n">
+        <v>75000.0</v>
+      </c>
+      <c r="T84" s="200" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="U84" s="200" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="V84" s="200" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="W84" s="200" t="n">
+        <v>0.01765531674027443</v>
+      </c>
+      <c r="X84" s="210" t="n">
+        <v>1.7655316740274428E-4</v>
+      </c>
+      <c r="Y84" s="200" t="n">
+        <v>7.356381975114346E-4</v>
+      </c>
+      <c r="Z84" s="211" t="n">
+        <v>0.013521128334105015</v>
+      </c>
+      <c r="AA84" s="201" t="n">
+        <v>1.3521128857973963E-4</v>
+      </c>
+      <c r="AB84" s="201" t="n">
+        <v>5.633803666569293E-4</v>
+      </c>
+      <c r="AC84" s="311" t="s">
+        <v>174</v>
+      </c>
       <c r="AE84" s="29"/>
       <c r="AF84" s="29"/>
       <c r="AG84" s="42"/>
@@ -7239,19 +8906,39 @@
       <c r="N85" s="42"/>
       <c r="O85" s="43"/>
       <c r="P85" s="122"/>
-      <c r="Q85" s="137"/>
-      <c r="R85" s="200"/>
-      <c r="S85" s="200"/>
-      <c r="T85" s="200"/>
-      <c r="U85" s="200"/>
-      <c r="V85" s="200"/>
-      <c r="W85" s="200"/>
-      <c r="X85" s="210"/>
-      <c r="Y85" s="200"/>
+      <c r="Q85" s="137" t="s">
+        <v>185</v>
+      </c>
+      <c r="R85" s="200" t="s">
+        <v>130</v>
+      </c>
+      <c r="S85" s="200" t="n">
+        <v>55000.0</v>
+      </c>
+      <c r="T85" s="200" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="U85" s="200" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="V85" s="200" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="W85" s="200" t="n">
+        <v>0.020597869530320168</v>
+      </c>
+      <c r="X85" s="210" t="n">
+        <v>1.7164891275266806E-4</v>
+      </c>
+      <c r="Y85" s="200" t="n">
+        <v>1.6184040578082204E-4</v>
+      </c>
       <c r="Z85" s="211"/>
       <c r="AA85" s="201"/>
       <c r="AB85" s="201"/>
-      <c r="AC85" s="209"/>
+      <c r="AC85" s="312" t="s">
+        <v>174</v>
+      </c>
       <c r="AE85" s="29"/>
       <c r="AF85" s="29"/>
       <c r="AG85" s="42"/>
@@ -7279,19 +8966,45 @@
       <c r="N86" s="42"/>
       <c r="O86" s="43"/>
       <c r="P86" s="122"/>
-      <c r="Q86" s="137"/>
-      <c r="R86" s="200"/>
-      <c r="S86" s="200"/>
-      <c r="T86" s="200"/>
-      <c r="U86" s="200"/>
-      <c r="V86" s="200"/>
-      <c r="W86" s="200"/>
-      <c r="X86" s="210"/>
-      <c r="Y86" s="200"/>
-      <c r="Z86" s="211"/>
-      <c r="AA86" s="201"/>
-      <c r="AB86" s="201"/>
-      <c r="AC86" s="209"/>
+      <c r="Q86" s="137" t="s">
+        <v>185</v>
+      </c>
+      <c r="R86" s="200" t="s">
+        <v>177</v>
+      </c>
+      <c r="S86" s="200" t="n">
+        <v>100000.0</v>
+      </c>
+      <c r="T86" s="200" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="U86" s="200" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="V86" s="200" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="W86" s="200" t="n">
+        <v>0.0058851055800914764</v>
+      </c>
+      <c r="X86" s="210" t="n">
+        <v>1.1770211160182952E-4</v>
+      </c>
+      <c r="Y86" s="200" t="n">
+        <v>9.808508912101388E-4</v>
+      </c>
+      <c r="Z86" s="211" t="n">
+        <v>0.004507042933255434</v>
+      </c>
+      <c r="AA86" s="201" t="n">
+        <v>9.014085662784055E-5</v>
+      </c>
+      <c r="AB86" s="201" t="n">
+        <v>7.51173822209239E-4</v>
+      </c>
+      <c r="AC86" s="313" t="s">
+        <v>174</v>
+      </c>
       <c r="AE86" s="29"/>
       <c r="AF86" s="29"/>
       <c r="AG86" s="42"/>
@@ -7319,19 +9032,39 @@
       <c r="N87" s="42"/>
       <c r="O87" s="43"/>
       <c r="P87" s="122"/>
-      <c r="Q87" s="137"/>
-      <c r="R87" s="200"/>
-      <c r="S87" s="200"/>
-      <c r="T87" s="200"/>
-      <c r="U87" s="200"/>
-      <c r="V87" s="200"/>
-      <c r="W87" s="200"/>
-      <c r="X87" s="210"/>
-      <c r="Y87" s="200"/>
+      <c r="Q87" s="137" t="s">
+        <v>185</v>
+      </c>
+      <c r="R87" s="200" t="s">
+        <v>178</v>
+      </c>
+      <c r="S87" s="200" t="n">
+        <v>15000.0</v>
+      </c>
+      <c r="T87" s="200" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="U87" s="200" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="V87" s="200" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="W87" s="200" t="n">
+        <v>0.008827658370137215</v>
+      </c>
+      <c r="X87" s="210" t="n">
+        <v>2.2069145925343036E-4</v>
+      </c>
+      <c r="Y87" s="200" t="n">
+        <v>1.10345717985183E-4</v>
+      </c>
       <c r="Z87" s="197"/>
       <c r="AA87" s="201"/>
       <c r="AB87" s="201"/>
-      <c r="AC87" s="209"/>
+      <c r="AC87" s="314" t="s">
+        <v>174</v>
+      </c>
       <c r="AE87" s="29"/>
       <c r="AF87" s="29"/>
       <c r="AG87" s="42"/>
@@ -7359,19 +9092,45 @@
       <c r="N88" s="42"/>
       <c r="O88" s="43"/>
       <c r="P88" s="122"/>
-      <c r="Q88" s="137"/>
-      <c r="R88" s="200"/>
-      <c r="S88" s="200"/>
-      <c r="T88" s="200"/>
-      <c r="U88" s="200"/>
-      <c r="V88" s="200"/>
-      <c r="W88" s="200"/>
-      <c r="X88" s="210"/>
-      <c r="Y88" s="200"/>
-      <c r="Z88" s="197"/>
-      <c r="AA88" s="201"/>
-      <c r="AB88" s="201"/>
-      <c r="AC88" s="209"/>
+      <c r="Q88" s="137" t="s">
+        <v>185</v>
+      </c>
+      <c r="R88" s="200" t="s">
+        <v>179</v>
+      </c>
+      <c r="S88" s="200" t="n">
+        <v>300000.0</v>
+      </c>
+      <c r="T88" s="200" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="U88" s="200" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="V88" s="200" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="W88" s="200" t="n">
+        <v>0.01765531674027443</v>
+      </c>
+      <c r="X88" s="210" t="n">
+        <v>4.413829185068607E-4</v>
+      </c>
+      <c r="Y88" s="200" t="n">
+        <v>0.004413829185068607</v>
+      </c>
+      <c r="Z88" s="197" t="n">
+        <v>0.013521128334105015</v>
+      </c>
+      <c r="AA88" s="201" t="n">
+        <v>3.3802821417339146E-4</v>
+      </c>
+      <c r="AB88" s="201" t="n">
+        <v>0.0033802820835262537</v>
+      </c>
+      <c r="AC88" s="315" t="s">
+        <v>174</v>
+      </c>
       <c r="AE88" s="29"/>
       <c r="AF88" s="29"/>
       <c r="AG88" s="42"/>
@@ -7439,19 +9198,45 @@
       <c r="N90" s="42"/>
       <c r="O90" s="39"/>
       <c r="P90" s="122"/>
-      <c r="Q90" s="137"/>
-      <c r="R90" s="200"/>
-      <c r="S90" s="200"/>
-      <c r="T90" s="200"/>
-      <c r="U90" s="200"/>
-      <c r="V90" s="200"/>
-      <c r="W90" s="208"/>
-      <c r="X90" s="200"/>
-      <c r="Y90" s="200"/>
-      <c r="Z90" s="200"/>
-      <c r="AA90" s="201"/>
-      <c r="AB90" s="201"/>
-      <c r="AC90" s="209"/>
+      <c r="Q90" s="137" t="s">
+        <v>186</v>
+      </c>
+      <c r="R90" s="200" t="s">
+        <v>187</v>
+      </c>
+      <c r="S90" s="200" t="n">
+        <v>10000.0</v>
+      </c>
+      <c r="T90" s="200" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="U90" s="200" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="V90" s="200" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="W90" s="208" t="n">
+        <v>0.0015448399353772402</v>
+      </c>
+      <c r="X90" s="200" t="n">
+        <v>3.8620998384431E-5</v>
+      </c>
+      <c r="Y90" s="200" t="n">
+        <v>1.2873665582446847E-5</v>
+      </c>
+      <c r="Z90" s="200" t="n">
+        <v>0.0012444445164874196</v>
+      </c>
+      <c r="AA90" s="201" t="n">
+        <v>3.1111110729398206E-5</v>
+      </c>
+      <c r="AB90" s="201" t="n">
+        <v>1.0370370546297636E-5</v>
+      </c>
+      <c r="AC90" s="316" t="s">
+        <v>174</v>
+      </c>
       <c r="AE90" s="29"/>
       <c r="AF90" s="29"/>
       <c r="AG90" s="42"/>
@@ -7479,19 +9264,45 @@
       <c r="N91" s="42"/>
       <c r="O91" s="39"/>
       <c r="P91" s="122"/>
-      <c r="Q91" s="137"/>
-      <c r="R91" s="200"/>
-      <c r="S91" s="200"/>
-      <c r="T91" s="200"/>
-      <c r="U91" s="200"/>
-      <c r="V91" s="200"/>
-      <c r="W91" s="208"/>
-      <c r="X91" s="200"/>
-      <c r="Y91" s="200"/>
-      <c r="Z91" s="200"/>
-      <c r="AA91" s="201"/>
-      <c r="AB91" s="201"/>
-      <c r="AC91" s="209"/>
+      <c r="Q91" s="137" t="s">
+        <v>186</v>
+      </c>
+      <c r="R91" s="200" t="s">
+        <v>175</v>
+      </c>
+      <c r="S91" s="200" t="n">
+        <v>25000.0</v>
+      </c>
+      <c r="T91" s="200" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="U91" s="200" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="V91" s="200" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="W91" s="208" t="n">
+        <v>0.0015448399353772402</v>
+      </c>
+      <c r="X91" s="200" t="n">
+        <v>3.8620998384431E-5</v>
+      </c>
+      <c r="Y91" s="200" t="n">
+        <v>3.218416532035917E-5</v>
+      </c>
+      <c r="Z91" s="200" t="n">
+        <v>0.0012444445164874196</v>
+      </c>
+      <c r="AA91" s="201" t="n">
+        <v>3.1111110729398206E-5</v>
+      </c>
+      <c r="AB91" s="201" t="n">
+        <v>2.592592682049144E-5</v>
+      </c>
+      <c r="AC91" s="317" t="s">
+        <v>174</v>
+      </c>
       <c r="AE91" s="29"/>
       <c r="AF91" s="29"/>
       <c r="AG91" s="42"/>
@@ -7519,19 +9330,45 @@
       <c r="N92" s="42"/>
       <c r="O92" s="43"/>
       <c r="P92" s="126"/>
-      <c r="Q92" s="137"/>
-      <c r="R92" s="200"/>
-      <c r="S92" s="200"/>
-      <c r="T92" s="200"/>
-      <c r="U92" s="200"/>
-      <c r="V92" s="200"/>
-      <c r="W92" s="200"/>
-      <c r="X92" s="200"/>
-      <c r="Y92" s="200"/>
-      <c r="Z92" s="200"/>
-      <c r="AA92" s="201"/>
-      <c r="AB92" s="201"/>
-      <c r="AC92" s="209"/>
+      <c r="Q92" s="137" t="s">
+        <v>186</v>
+      </c>
+      <c r="R92" s="200" t="s">
+        <v>176</v>
+      </c>
+      <c r="S92" s="200" t="n">
+        <v>75000.0</v>
+      </c>
+      <c r="T92" s="200" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="U92" s="200" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="V92" s="200" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="W92" s="200" t="n">
+        <v>0.0015448399353772402</v>
+      </c>
+      <c r="X92" s="200" t="n">
+        <v>1.54483993537724E-5</v>
+      </c>
+      <c r="Y92" s="200" t="n">
+        <v>6.436833064071834E-5</v>
+      </c>
+      <c r="Z92" s="200" t="n">
+        <v>0.0012444445164874196</v>
+      </c>
+      <c r="AA92" s="201" t="n">
+        <v>1.2444445019355044E-5</v>
+      </c>
+      <c r="AB92" s="201" t="n">
+        <v>5.185185364098288E-5</v>
+      </c>
+      <c r="AC92" s="318" t="s">
+        <v>174</v>
+      </c>
       <c r="AE92" s="29"/>
       <c r="AF92" s="29"/>
       <c r="AG92" s="42"/>
@@ -7559,19 +9396,45 @@
       <c r="N93" s="42"/>
       <c r="O93" s="109"/>
       <c r="P93" s="127"/>
-      <c r="Q93" s="138"/>
-      <c r="R93" s="196"/>
-      <c r="S93" s="196"/>
-      <c r="T93" s="197"/>
-      <c r="U93" s="197"/>
-      <c r="V93" s="197"/>
-      <c r="W93" s="197"/>
-      <c r="X93" s="197"/>
-      <c r="Y93" s="197"/>
-      <c r="Z93" s="196"/>
-      <c r="AA93" s="201"/>
-      <c r="AB93" s="201"/>
-      <c r="AC93" s="209"/>
+      <c r="Q93" s="138" t="s">
+        <v>186</v>
+      </c>
+      <c r="R93" s="196" t="s">
+        <v>130</v>
+      </c>
+      <c r="S93" s="196" t="n">
+        <v>55000.0</v>
+      </c>
+      <c r="T93" s="197" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="U93" s="197" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="V93" s="197" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="W93" s="197" t="n">
+        <v>0.0018023132579401135</v>
+      </c>
+      <c r="X93" s="197" t="n">
+        <v>1.5019277149500947E-5</v>
+      </c>
+      <c r="Y93" s="197" t="n">
+        <v>1.4161033504933584E-5</v>
+      </c>
+      <c r="Z93" s="196" t="n">
+        <v>0.001451851916499436</v>
+      </c>
+      <c r="AA93" s="201" t="n">
+        <v>1.2098766092094593E-5</v>
+      </c>
+      <c r="AB93" s="201" t="n">
+        <v>1.1407407328078989E-5</v>
+      </c>
+      <c r="AC93" s="319" t="s">
+        <v>174</v>
+      </c>
       <c r="AE93" s="29"/>
       <c r="AF93" s="29"/>
       <c r="AG93" s="42"/>
@@ -7599,19 +9462,45 @@
       <c r="N94" s="42"/>
       <c r="O94" s="43"/>
       <c r="P94" s="122"/>
-      <c r="Q94" s="137"/>
-      <c r="R94" s="200"/>
-      <c r="S94" s="200"/>
-      <c r="T94" s="200"/>
-      <c r="U94" s="200"/>
-      <c r="V94" s="200"/>
-      <c r="W94" s="200"/>
-      <c r="X94" s="210"/>
-      <c r="Y94" s="200"/>
-      <c r="Z94" s="211"/>
-      <c r="AA94" s="201"/>
-      <c r="AB94" s="201"/>
-      <c r="AC94" s="209"/>
+      <c r="Q94" s="137" t="s">
+        <v>186</v>
+      </c>
+      <c r="R94" s="200" t="s">
+        <v>177</v>
+      </c>
+      <c r="S94" s="200" t="n">
+        <v>100000.0</v>
+      </c>
+      <c r="T94" s="200" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="U94" s="200" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="V94" s="200" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="W94" s="200" t="n">
+        <v>5.149466451257467E-4</v>
+      </c>
+      <c r="X94" s="210" t="n">
+        <v>1.0298932902514935E-5</v>
+      </c>
+      <c r="Y94" s="200" t="n">
+        <v>8.582443842897192E-5</v>
+      </c>
+      <c r="Z94" s="211" t="n">
+        <v>4.1481482912786305E-4</v>
+      </c>
+      <c r="AA94" s="201" t="n">
+        <v>8.296296073240228E-6</v>
+      </c>
+      <c r="AB94" s="201" t="n">
+        <v>6.913580727996305E-5</v>
+      </c>
+      <c r="AC94" s="320" t="s">
+        <v>174</v>
+      </c>
       <c r="AE94" s="29"/>
       <c r="AF94" s="29"/>
       <c r="AG94" s="42"/>
@@ -7639,19 +9528,45 @@
       <c r="N95" s="42"/>
       <c r="O95" s="43"/>
       <c r="P95" s="122"/>
-      <c r="Q95" s="137"/>
-      <c r="R95" s="200"/>
-      <c r="S95" s="200"/>
-      <c r="T95" s="200"/>
-      <c r="U95" s="200"/>
-      <c r="V95" s="200"/>
-      <c r="W95" s="200"/>
-      <c r="X95" s="210"/>
-      <c r="Y95" s="200"/>
-      <c r="Z95" s="211"/>
-      <c r="AA95" s="201"/>
-      <c r="AB95" s="201"/>
-      <c r="AC95" s="209"/>
+      <c r="Q95" s="137" t="s">
+        <v>186</v>
+      </c>
+      <c r="R95" s="200" t="s">
+        <v>178</v>
+      </c>
+      <c r="S95" s="200" t="n">
+        <v>15000.0</v>
+      </c>
+      <c r="T95" s="200" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="U95" s="200" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="V95" s="200" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="W95" s="200" t="n">
+        <v>7.724199676886201E-4</v>
+      </c>
+      <c r="X95" s="210" t="n">
+        <v>1.93104991922155E-5</v>
+      </c>
+      <c r="Y95" s="200" t="n">
+        <v>9.65524941420881E-6</v>
+      </c>
+      <c r="Z95" s="211" t="n">
+        <v>6.222222582437098E-4</v>
+      </c>
+      <c r="AA95" s="201" t="n">
+        <v>1.5555555364699103E-5</v>
+      </c>
+      <c r="AB95" s="201" t="n">
+        <v>7.777777682349551E-6</v>
+      </c>
+      <c r="AC95" s="321" t="s">
+        <v>174</v>
+      </c>
       <c r="AE95" s="29"/>
       <c r="AF95" s="29"/>
       <c r="AG95" s="42"/>
@@ -7679,19 +9594,45 @@
       <c r="N96" s="42"/>
       <c r="O96" s="43"/>
       <c r="P96" s="122"/>
-      <c r="Q96" s="137"/>
-      <c r="R96" s="200"/>
-      <c r="S96" s="200"/>
-      <c r="T96" s="200"/>
-      <c r="U96" s="200"/>
-      <c r="V96" s="200"/>
-      <c r="W96" s="200"/>
-      <c r="X96" s="210"/>
-      <c r="Y96" s="200"/>
-      <c r="Z96" s="211"/>
-      <c r="AA96" s="201"/>
-      <c r="AB96" s="201"/>
-      <c r="AC96" s="209"/>
+      <c r="Q96" s="137" t="s">
+        <v>186</v>
+      </c>
+      <c r="R96" s="200" t="s">
+        <v>179</v>
+      </c>
+      <c r="S96" s="200" t="n">
+        <v>300000.0</v>
+      </c>
+      <c r="T96" s="200" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="U96" s="200" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="V96" s="200" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="W96" s="200" t="n">
+        <v>0.0015448399353772402</v>
+      </c>
+      <c r="X96" s="210" t="n">
+        <v>3.8620998384431E-5</v>
+      </c>
+      <c r="Y96" s="200" t="n">
+        <v>3.8620998384431005E-4</v>
+      </c>
+      <c r="Z96" s="211" t="n">
+        <v>0.0012444445164874196</v>
+      </c>
+      <c r="AA96" s="201" t="n">
+        <v>3.1111110729398206E-5</v>
+      </c>
+      <c r="AB96" s="201" t="n">
+        <v>3.111111291218549E-4</v>
+      </c>
+      <c r="AC96" s="322" t="s">
+        <v>174</v>
+      </c>
       <c r="AE96" s="29"/>
       <c r="AF96" s="29"/>
       <c r="AG96" s="42"/>
@@ -7759,19 +9700,45 @@
       <c r="N98" s="42"/>
       <c r="O98" s="43"/>
       <c r="P98" s="122"/>
-      <c r="Q98" s="137"/>
-      <c r="R98" s="200"/>
-      <c r="S98" s="200"/>
-      <c r="T98" s="200"/>
-      <c r="U98" s="200"/>
-      <c r="V98" s="200"/>
-      <c r="W98" s="200"/>
-      <c r="X98" s="210"/>
-      <c r="Y98" s="200"/>
-      <c r="Z98" s="211"/>
-      <c r="AA98" s="201"/>
-      <c r="AB98" s="201"/>
-      <c r="AC98" s="209"/>
+      <c r="Q98" s="137" t="s">
+        <v>188</v>
+      </c>
+      <c r="R98" s="200" t="s">
+        <v>187</v>
+      </c>
+      <c r="S98" s="200" t="n">
+        <v>10000.0</v>
+      </c>
+      <c r="T98" s="200" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="U98" s="200" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="V98" s="200" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="W98" s="200" t="n">
+        <v>0.003310371655970812</v>
+      </c>
+      <c r="X98" s="210" t="n">
+        <v>8.27592913992703E-5</v>
+      </c>
+      <c r="Y98" s="200" t="n">
+        <v>2.758642949629575E-5</v>
+      </c>
+      <c r="Z98" s="211" t="n">
+        <v>0.0026666668709367514</v>
+      </c>
+      <c r="AA98" s="201" t="n">
+        <v>6.666666740784422E-5</v>
+      </c>
+      <c r="AB98" s="201" t="n">
+        <v>2.2222222469281405E-5</v>
+      </c>
+      <c r="AC98" s="323" t="s">
+        <v>174</v>
+      </c>
       <c r="AE98" s="29"/>
       <c r="AF98" s="29"/>
       <c r="AG98" s="42"/>
@@ -7799,19 +9766,45 @@
       <c r="N99" s="42"/>
       <c r="O99" s="43"/>
       <c r="P99" s="122"/>
-      <c r="Q99" s="137"/>
-      <c r="R99" s="200"/>
-      <c r="S99" s="200"/>
-      <c r="T99" s="200"/>
-      <c r="U99" s="200"/>
-      <c r="V99" s="200"/>
-      <c r="W99" s="200"/>
-      <c r="X99" s="210"/>
-      <c r="Y99" s="200"/>
-      <c r="Z99" s="211"/>
-      <c r="AA99" s="201"/>
-      <c r="AB99" s="201"/>
-      <c r="AC99" s="209"/>
+      <c r="Q99" s="137" t="s">
+        <v>188</v>
+      </c>
+      <c r="R99" s="200" t="s">
+        <v>175</v>
+      </c>
+      <c r="S99" s="200" t="n">
+        <v>25000.0</v>
+      </c>
+      <c r="T99" s="200" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="U99" s="200" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="V99" s="200" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="W99" s="200" t="n">
+        <v>0.003310371655970812</v>
+      </c>
+      <c r="X99" s="210" t="n">
+        <v>8.27592913992703E-5</v>
+      </c>
+      <c r="Y99" s="200" t="n">
+        <v>6.896607374073938E-5</v>
+      </c>
+      <c r="Z99" s="211" t="n">
+        <v>0.0026666668709367514</v>
+      </c>
+      <c r="AA99" s="201" t="n">
+        <v>6.666666740784422E-5</v>
+      </c>
+      <c r="AB99" s="201" t="n">
+        <v>5.555555617320351E-5</v>
+      </c>
+      <c r="AC99" s="324" t="s">
+        <v>174</v>
+      </c>
       <c r="AE99" s="29"/>
       <c r="AF99" s="29"/>
       <c r="AG99" s="42"/>
@@ -7839,19 +9832,45 @@
       <c r="N100" s="42"/>
       <c r="O100" s="43"/>
       <c r="P100" s="122"/>
-      <c r="Q100" s="137"/>
-      <c r="R100" s="200"/>
-      <c r="S100" s="200"/>
-      <c r="T100" s="200"/>
-      <c r="U100" s="200"/>
-      <c r="V100" s="200"/>
-      <c r="W100" s="200"/>
-      <c r="X100" s="210"/>
-      <c r="Y100" s="200"/>
-      <c r="Z100" s="197"/>
-      <c r="AA100" s="201"/>
-      <c r="AB100" s="201"/>
-      <c r="AC100" s="209"/>
+      <c r="Q100" s="137" t="s">
+        <v>188</v>
+      </c>
+      <c r="R100" s="200" t="s">
+        <v>176</v>
+      </c>
+      <c r="S100" s="200" t="n">
+        <v>75000.0</v>
+      </c>
+      <c r="T100" s="200" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="U100" s="200" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="V100" s="200" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="W100" s="200" t="n">
+        <v>0.003310371655970812</v>
+      </c>
+      <c r="X100" s="210" t="n">
+        <v>3.310371655970812E-5</v>
+      </c>
+      <c r="Y100" s="200" t="n">
+        <v>1.3793214748147875E-4</v>
+      </c>
+      <c r="Z100" s="197" t="n">
+        <v>0.0026666668709367514</v>
+      </c>
+      <c r="AA100" s="201" t="n">
+        <v>2.666666841832921E-5</v>
+      </c>
+      <c r="AB100" s="201" t="n">
+        <v>1.1111111234640703E-4</v>
+      </c>
+      <c r="AC100" s="325" t="s">
+        <v>174</v>
+      </c>
       <c r="AE100" s="29"/>
       <c r="AF100" s="29"/>
       <c r="AG100" s="42"/>
@@ -7879,19 +9898,45 @@
       <c r="N101" s="42"/>
       <c r="O101" s="43"/>
       <c r="P101" s="122"/>
-      <c r="Q101" s="137"/>
-      <c r="R101" s="200"/>
-      <c r="S101" s="200"/>
-      <c r="T101" s="200"/>
-      <c r="U101" s="200"/>
-      <c r="V101" s="200"/>
-      <c r="W101" s="200"/>
-      <c r="X101" s="210"/>
-      <c r="Y101" s="200"/>
-      <c r="Z101" s="197"/>
-      <c r="AA101" s="201"/>
-      <c r="AB101" s="201"/>
-      <c r="AC101" s="209"/>
+      <c r="Q101" s="137" t="s">
+        <v>188</v>
+      </c>
+      <c r="R101" s="200" t="s">
+        <v>130</v>
+      </c>
+      <c r="S101" s="200" t="n">
+        <v>55000.0</v>
+      </c>
+      <c r="T101" s="200" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="U101" s="200" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="V101" s="200" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="W101" s="200" t="n">
+        <v>0.003862100187689066</v>
+      </c>
+      <c r="X101" s="210" t="n">
+        <v>3.218416823074222E-5</v>
+      </c>
+      <c r="Y101" s="200" t="n">
+        <v>3.0345072445925325E-5</v>
+      </c>
+      <c r="Z101" s="197" t="n">
+        <v>0.003111111233010888</v>
+      </c>
+      <c r="AA101" s="201" t="n">
+        <v>2.592592682049144E-5</v>
+      </c>
+      <c r="AB101" s="201" t="n">
+        <v>2.4444445443805307E-5</v>
+      </c>
+      <c r="AC101" s="326" t="s">
+        <v>174</v>
+      </c>
       <c r="AE101" s="29"/>
       <c r="AF101" s="29"/>
       <c r="AG101" s="42"/>
@@ -7919,19 +9964,45 @@
       <c r="N102" s="42"/>
       <c r="O102" s="39"/>
       <c r="P102" s="122"/>
-      <c r="Q102" s="137"/>
-      <c r="R102" s="200"/>
-      <c r="S102" s="200"/>
-      <c r="T102" s="200"/>
-      <c r="U102" s="200"/>
-      <c r="V102" s="200"/>
-      <c r="W102" s="200"/>
-      <c r="X102" s="208"/>
-      <c r="Y102" s="200"/>
-      <c r="Z102" s="200"/>
-      <c r="AA102" s="201"/>
-      <c r="AB102" s="201"/>
-      <c r="AC102" s="209"/>
+      <c r="Q102" s="137" t="s">
+        <v>188</v>
+      </c>
+      <c r="R102" s="200" t="s">
+        <v>177</v>
+      </c>
+      <c r="S102" s="200" t="n">
+        <v>100000.0</v>
+      </c>
+      <c r="T102" s="200" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="U102" s="200" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="V102" s="200" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="W102" s="200" t="n">
+        <v>0.00110345717985183</v>
+      </c>
+      <c r="X102" s="208" t="n">
+        <v>2.20691435970366E-5</v>
+      </c>
+      <c r="Y102" s="200" t="n">
+        <v>1.8390952027402818E-4</v>
+      </c>
+      <c r="Z102" s="200" t="n">
+        <v>8.888888987712562E-4</v>
+      </c>
+      <c r="AA102" s="201" t="n">
+        <v>1.7777778339223005E-5</v>
+      </c>
+      <c r="AB102" s="201" t="n">
+        <v>1.481481594964862E-4</v>
+      </c>
+      <c r="AC102" s="327" t="s">
+        <v>174</v>
+      </c>
       <c r="AE102" s="29"/>
       <c r="AF102" s="29"/>
       <c r="AG102" s="42"/>
@@ -7959,19 +10030,45 @@
       <c r="N103" s="42"/>
       <c r="O103" s="39"/>
       <c r="P103" s="122"/>
-      <c r="Q103" s="137"/>
-      <c r="R103" s="200"/>
-      <c r="S103" s="200"/>
-      <c r="T103" s="200"/>
-      <c r="U103" s="200"/>
-      <c r="V103" s="200"/>
-      <c r="W103" s="200"/>
-      <c r="X103" s="208"/>
-      <c r="Y103" s="200"/>
-      <c r="Z103" s="200"/>
-      <c r="AA103" s="201"/>
-      <c r="AB103" s="201"/>
-      <c r="AC103" s="209"/>
+      <c r="Q103" s="137" t="s">
+        <v>188</v>
+      </c>
+      <c r="R103" s="200" t="s">
+        <v>178</v>
+      </c>
+      <c r="S103" s="200" t="n">
+        <v>15000.0</v>
+      </c>
+      <c r="T103" s="200" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="U103" s="200" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="V103" s="200" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="W103" s="200" t="n">
+        <v>0.001655185827985406</v>
+      </c>
+      <c r="X103" s="208" t="n">
+        <v>4.137964569963515E-5</v>
+      </c>
+      <c r="Y103" s="200" t="n">
+        <v>2.0689822122221813E-5</v>
+      </c>
+      <c r="Z103" s="200" t="n">
+        <v>0.0013333334354683757</v>
+      </c>
+      <c r="AA103" s="201" t="n">
+        <v>3.333333370392211E-5</v>
+      </c>
+      <c r="AB103" s="201" t="n">
+        <v>1.6666666851961054E-5</v>
+      </c>
+      <c r="AC103" s="328" t="s">
+        <v>174</v>
+      </c>
       <c r="AE103" s="29"/>
       <c r="AF103" s="29"/>
       <c r="AG103" s="42"/>
@@ -7999,19 +10096,45 @@
       <c r="N104" s="42"/>
       <c r="O104" s="43"/>
       <c r="P104" s="126"/>
-      <c r="Q104" s="137"/>
-      <c r="R104" s="200"/>
-      <c r="S104" s="200"/>
-      <c r="T104" s="200"/>
-      <c r="U104" s="200"/>
-      <c r="V104" s="200"/>
-      <c r="W104" s="200"/>
-      <c r="X104" s="200"/>
-      <c r="Y104" s="200"/>
-      <c r="Z104" s="200"/>
-      <c r="AA104" s="201"/>
-      <c r="AB104" s="201"/>
-      <c r="AC104" s="209"/>
+      <c r="Q104" s="137" t="s">
+        <v>188</v>
+      </c>
+      <c r="R104" s="200" t="s">
+        <v>179</v>
+      </c>
+      <c r="S104" s="200" t="n">
+        <v>300000.0</v>
+      </c>
+      <c r="T104" s="200" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="U104" s="200" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="V104" s="200" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="W104" s="200" t="n">
+        <v>0.003310371655970812</v>
+      </c>
+      <c r="X104" s="200" t="n">
+        <v>8.27592913992703E-5</v>
+      </c>
+      <c r="Y104" s="200" t="n">
+        <v>8.27592855785042E-4</v>
+      </c>
+      <c r="Z104" s="200" t="n">
+        <v>0.0026666668709367514</v>
+      </c>
+      <c r="AA104" s="201" t="n">
+        <v>6.666666740784422E-5</v>
+      </c>
+      <c r="AB104" s="201" t="n">
+        <v>6.666667177341878E-4</v>
+      </c>
+      <c r="AC104" s="329" t="s">
+        <v>174</v>
+      </c>
       <c r="AE104" s="29"/>
       <c r="AF104" s="29"/>
       <c r="AG104" s="42"/>
@@ -13603,6 +15726,44 @@
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="M9:M12"/>
+    <mergeCell ref="N9:N12"/>
+    <mergeCell ref="O9:O12"/>
+    <mergeCell ref="P9:P12"/>
+    <mergeCell ref="Q9:Q12"/>
+    <mergeCell ref="R9:R12"/>
+    <mergeCell ref="S9:S12"/>
+    <mergeCell ref="T9:T12"/>
+    <mergeCell ref="U9:U12"/>
+    <mergeCell ref="R13:R16"/>
+    <mergeCell ref="S13:S16"/>
+    <mergeCell ref="T13:T16"/>
+    <mergeCell ref="U13:U16"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="M13:M16"/>
+    <mergeCell ref="N13:N16"/>
+    <mergeCell ref="O13:O16"/>
+    <mergeCell ref="P13:P16"/>
+    <mergeCell ref="Q13:Q16"/>
+    <mergeCell ref="R17:R20"/>
+    <mergeCell ref="S17:S20"/>
+    <mergeCell ref="T17:T20"/>
+    <mergeCell ref="Q17:Q20"/>
+    <mergeCell ref="U17:U20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="M17:M20"/>
+    <mergeCell ref="N17:N20"/>
+    <mergeCell ref="O17:O20"/>
+    <mergeCell ref="P17:P20"/>
     <mergeCell ref="Q40:Y40"/>
     <mergeCell ref="F40:I40"/>
     <mergeCell ref="J40:M40"/>
@@ -13617,44 +15778,6 @@
     <mergeCell ref="R21:R24"/>
     <mergeCell ref="S21:S24"/>
     <mergeCell ref="T21:T24"/>
-    <mergeCell ref="U17:U20"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="M17:M20"/>
-    <mergeCell ref="N17:N20"/>
-    <mergeCell ref="O17:O20"/>
-    <mergeCell ref="P17:P20"/>
-    <mergeCell ref="P13:P16"/>
-    <mergeCell ref="Q13:Q16"/>
-    <mergeCell ref="R17:R20"/>
-    <mergeCell ref="S17:S20"/>
-    <mergeCell ref="T17:T20"/>
-    <mergeCell ref="Q17:Q20"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="M13:M16"/>
-    <mergeCell ref="N13:N16"/>
-    <mergeCell ref="O13:O16"/>
-    <mergeCell ref="R9:R12"/>
-    <mergeCell ref="S9:S12"/>
-    <mergeCell ref="T9:T12"/>
-    <mergeCell ref="U9:U12"/>
-    <mergeCell ref="R13:R16"/>
-    <mergeCell ref="S13:S16"/>
-    <mergeCell ref="T13:T16"/>
-    <mergeCell ref="U13:U16"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="M9:M12"/>
-    <mergeCell ref="N9:N12"/>
-    <mergeCell ref="O9:O12"/>
-    <mergeCell ref="P9:P12"/>
-    <mergeCell ref="Q9:Q12"/>
   </mergeCells>
   <conditionalFormatting sqref="AM1:AM1048576">
     <cfRule dxfId="0" priority="1" type="duplicateValues"/>

--- a/eResidue_CV_eDocs/bin/Test Data/eResidue_eDocs_TestCase_result.xlsx
+++ b/eResidue_CV_eDocs/bin/Test Data/eResidue_eDocs_TestCase_result.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="173">
   <si>
     <t>Testcase_id</t>
   </si>
@@ -508,27 +508,15 @@
     <t>Alphabets</t>
   </si>
   <si>
-    <t>Two Decimal</t>
-  </si>
-  <si>
     <t>Surface Area Data Source</t>
   </si>
   <si>
     <t>Can Preferential Transfer of Residue Occur with this Equipment?</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
-    <t xml:space="preserve">Can Preferential Transfer of Residue Occur with this Equipment?: </t>
-  </si>
-  <si>
-    <t>Equipment Surface Area Involved in Preferential Transfer</t>
-  </si>
-  <si>
     <t>Is this Equipment Involved in Primary Packaging?</t>
   </si>
   <si>
@@ -580,64 +568,54 @@
     <t>Choose Cleaning Process Type</t>
   </si>
   <si>
-    <t>S3 active1</t>
-  </si>
-  <si>
-    <t>S4</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>S1</t>
-  </si>
-  <si>
-    <t>E5</t>
+    <t>Choose an option for preferential transfer</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Equipment Surface Area Involved in Preferential Transfer: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>YES</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Equipment Surface Area Involved in Preferential Transfer: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>No</t>
+    </r>
+  </si>
+  <si>
+    <t>Enter Preferential Surface area</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Space Accepted</t>
   </si>
   <si>
     <t>Fail</t>
   </si>
   <si>
-    <t>E6</t>
-  </si>
-  <si>
-    <t>E7</t>
-  </si>
-  <si>
-    <t>E1</t>
-  </si>
-  <si>
-    <t>E2</t>
-  </si>
-  <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>S3 active2</t>
-  </si>
-  <si>
-    <t>S3 active3</t>
-  </si>
-  <si>
-    <t>S3 active4</t>
-  </si>
-  <si>
-    <t>S3</t>
-  </si>
-  <si>
-    <t>S4 active1</t>
-  </si>
-  <si>
-    <t>S4 active2</t>
-  </si>
-  <si>
-    <t>S1 active1</t>
-  </si>
-  <si>
-    <t>E4</t>
-  </si>
-  <si>
-    <t>S1 active2</t>
+    <t/>
   </si>
 </sst>
 </file>
@@ -645,7 +623,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="164" x14ac:knownFonts="1">
+  <fonts count="139" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1251,7 +1229,127 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1266,257 +1364,12 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="10"/>
+      <color indexed="17"/>
     </font>
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
+      <color indexed="17"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1689,7 +1542,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="330">
+  <cellXfs count="305">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
@@ -2133,32 +1986,29 @@
     <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="75" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="5" fillId="2" fontId="21" numFmtId="3" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="8" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="6" fillId="2" fontId="21" numFmtId="3" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="2" fontId="21" numFmtId="3" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="9" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="10" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="5" fillId="5" fontId="21" numFmtId="3" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="6" fillId="0" fontId="10" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="6" fillId="5" fontId="21" numFmtId="3" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="10" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="5" fontId="21" numFmtId="3" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="3" fontId="11" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="8" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="11" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="14" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -2169,13 +2019,7 @@
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="14" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="8" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="7" fillId="0" fontId="8" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="3" fillId="0" fontId="8" numFmtId="49" xfId="0">
@@ -2205,80 +2049,64 @@
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="9" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="75" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="5" fillId="2" fontId="21" numFmtId="3" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="6" fillId="2" fontId="21" numFmtId="3" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="2" fontId="21" numFmtId="3" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="5" fillId="5" fontId="21" numFmtId="3" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="6" fillId="5" fontId="21" numFmtId="3" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="5" fontId="21" numFmtId="3" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="8" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="10" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="6" fillId="0" fontId="10" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="10" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="3" fontId="11" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="11" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="123" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="108" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="109" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="110" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="111" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="112" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="113" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="114" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="115" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="116" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="117" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="118" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="119" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="120" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="121" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="122" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="123" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="124" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="125" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="126" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="127" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="128" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="129" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="130" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="131" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="132" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="133" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="134" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="135" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="136" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="137" numFmtId="0" xfId="0"/>
     <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="143" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="148" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="149" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="156" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="157" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="158" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="163" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -3958,23 +3786,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:I46"/>
+  <dimension ref="A5:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="80" width="5.7109375" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" style="80" width="5.7109375" collapsed="true"/>
     <col min="2" max="2" customWidth="true" style="80" width="15.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="80" width="38.7109375" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="80" width="38.7109375" collapsed="true"/>
     <col min="4" max="4" customWidth="true" style="80" width="37.5703125" collapsed="true"/>
     <col min="5" max="5" customWidth="true" style="80" width="23.28515625" collapsed="true"/>
     <col min="6" max="6" customWidth="true" style="80" width="26.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="80" width="27.5703125" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" style="80" width="27.5703125" collapsed="true"/>
     <col min="8" max="8" customWidth="true" style="80" width="8.85546875" collapsed="true"/>
-    <col min="9" max="16384" style="80" width="9.140625" collapsed="false"/>
+    <col min="9" max="16384" style="80" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -4046,8 +3874,12 @@
       <c r="F7" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="237"/>
+      <c r="G7" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="H7" s="274" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row ht="30" r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
@@ -4082,8 +3914,12 @@
       <c r="F9" s="239">
         <v>75</v>
       </c>
-      <c r="G9" s="239"/>
-      <c r="H9" s="240"/>
+      <c r="G9" s="239" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="H9" s="275" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row ht="60" r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
@@ -4098,10 +3934,14 @@
         <v>134</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="241"/>
+        <v>161</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="H10" s="276" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
@@ -4116,8 +3956,12 @@
         <v>135</v>
       </c>
       <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
+      <c r="G11" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="H11" s="277" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
@@ -4150,8 +3994,12 @@
       <c r="F13" s="12">
         <v>75</v>
       </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
+      <c r="G13" s="12" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="H13" s="299" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
@@ -4159,7 +4007,7 @@
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="12" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>141</v>
@@ -4170,8 +4018,12 @@
       <c r="F14" s="12">
         <v>75</v>
       </c>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
+      <c r="G14" s="12" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="H14" s="300" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
@@ -4188,8 +4040,12 @@
       <c r="F15" s="12">
         <v>75</v>
       </c>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
+      <c r="G15" s="12" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="H15" s="301" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
@@ -4204,10 +4060,14 @@
       </c>
       <c r="E16" s="12"/>
       <c r="F16" t="s">
-        <v>159</v>
-      </c>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
+        <v>155</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="H16" s="278" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
@@ -4220,10 +4080,14 @@
       </c>
       <c r="E17" s="12"/>
       <c r="F17" t="s">
-        <v>164</v>
-      </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
+        <v>160</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="H17" s="279" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
@@ -4238,8 +4102,12 @@
       <c r="F18" s="12">
         <v>6</v>
       </c>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
+      <c r="G18" s="12" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="H18" s="280" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
@@ -4251,11 +4119,15 @@
         <v>144</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
+      <c r="G19" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="H19" s="281" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
@@ -4267,13 +4139,17 @@
         <v>133</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F20" s="12">
         <v>123</v>
       </c>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
+      <c r="G20" s="12" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="H20" s="282" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
@@ -4282,16 +4158,20 @@
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
       <c r="D21" s="242" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F21" s="12">
         <v>1.23</v>
       </c>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
+      <c r="G21" s="12" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="H21" s="283" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
@@ -4299,7 +4179,7 @@
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>141</v>
@@ -4310,8 +4190,12 @@
       <c r="F22" s="12">
         <v>75</v>
       </c>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
+      <c r="G22" s="12" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="H22" s="302" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row ht="30" r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
@@ -4319,345 +4203,413 @@
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>148</v>
+        <v>48</v>
       </c>
       <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F23" s="80" t="s">
+        <v>165</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="H23" s="284" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row ht="30" r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>18</v>
       </c>
       <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
+      <c r="C24" s="80" t="s">
+        <v>166</v>
+      </c>
       <c r="D24" s="12" t="s">
-        <v>149</v>
+        <v>48</v>
       </c>
       <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-    </row>
-    <row ht="30" r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="12">
-        <v>19</v>
-      </c>
+      <c r="F24" t="s">
+        <v>168</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="H24" s="285" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="12"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="D25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12" t="s">
+        <v>143</v>
+      </c>
       <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-    </row>
-    <row ht="30" r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="12">
-        <v>20</v>
-      </c>
+      <c r="F25" t="s">
+        <v>160</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="H25" s="286" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="12"/>
       <c r="B26" s="12"/>
-      <c r="C26" s="242" t="s">
-        <v>151</v>
-      </c>
+      <c r="C26" s="12"/>
       <c r="D26" s="12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
+      <c r="F26" s="12">
+        <v>6</v>
+      </c>
+      <c r="G26" s="12" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="H26" s="287" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="12">
-        <v>21</v>
-      </c>
+      <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
       <c r="D27" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="E27" s="12"/>
+        <v>144</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>156</v>
+      </c>
       <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
+      <c r="G27" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="H27" s="288" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="12">
-        <v>22</v>
-      </c>
+      <c r="A28" s="12"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
       <c r="D28" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
+        <v>133</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="F28" s="12">
+        <v>123</v>
+      </c>
+      <c r="G28" s="12" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="H28" s="289" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="12">
-        <v>23</v>
-      </c>
+      <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
-      <c r="D29" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="12">
-        <v>24</v>
-      </c>
+      <c r="D29" s="242" t="s">
+        <v>159</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="F29" s="12">
+        <v>1.23</v>
+      </c>
+      <c r="G29" s="12" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="H29" s="290" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row ht="30" r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="12"/>
       <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12" t="s">
-        <v>133</v>
-      </c>
+      <c r="C30" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="D30" s="242"/>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="242" t="s">
-        <v>145</v>
-      </c>
+      <c r="C31" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D31" s="12"/>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row ht="30" r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B32" s="12"/>
       <c r="C32" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D32" s="12"/>
+        <v>149</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>48</v>
+      </c>
       <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-    </row>
-    <row ht="30" r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F32" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="H32" s="291" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B33" s="12"/>
-      <c r="C33" s="1" t="s">
-        <v>153</v>
-      </c>
+      <c r="C33" s="12"/>
       <c r="D33" s="12" t="s">
-        <v>48</v>
+        <v>143</v>
       </c>
       <c r="E33" s="12"/>
-      <c r="F33" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
+      <c r="F33" t="s">
+        <v>160</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="H33" s="292" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
       <c r="D34" s="12" t="s">
-        <v>143</v>
+        <v>50</v>
       </c>
       <c r="E34" s="12"/>
-      <c r="F34" t="s">
-        <v>164</v>
-      </c>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
+      <c r="F34" s="12">
+        <v>6</v>
+      </c>
+      <c r="G34" s="12" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="H34" s="293" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
       <c r="D35" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12">
-        <v>6</v>
-      </c>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
+        <v>144</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="H35" s="294" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="12">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
       <c r="D36" s="12" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
+        <v>157</v>
+      </c>
+      <c r="F36" s="12">
+        <v>123</v>
+      </c>
+      <c r="G36" s="12" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="H36" s="295" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="12">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
-      <c r="D37" s="12" t="s">
-        <v>133</v>
+      <c r="D37" s="242" t="s">
+        <v>159</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F37" s="12">
-        <v>123</v>
-      </c>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
+        <v>1.23</v>
+      </c>
+      <c r="G37" s="12" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="H37" s="296" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="242" t="s">
-        <v>163</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>162</v>
+      <c r="C38" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="E38" s="243" t="s">
+        <v>132</v>
       </c>
       <c r="F38" s="12">
-        <v>1.23</v>
-      </c>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
+        <v>75</v>
+      </c>
+      <c r="G38" s="12" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="H38" s="303" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="12">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B39" s="12"/>
       <c r="C39" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="E39" s="243" t="s">
-        <v>132</v>
-      </c>
-      <c r="F39" s="12">
-        <v>75</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
       <c r="G39" s="12"/>
       <c r="H39" s="12"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="12">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B40" s="12"/>
       <c r="C40" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D40" s="12"/>
+        <v>152</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>48</v>
+      </c>
       <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
+      <c r="F40" t="s">
+        <v>164</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="H40" s="297" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="12">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B41" s="12"/>
       <c r="C41" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>48</v>
+        <v>147</v>
       </c>
       <c r="E41" s="12"/>
-      <c r="F41" t="s">
-        <v>168</v>
-      </c>
+      <c r="F41" s="12"/>
       <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
+      <c r="H41" s="298" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="12">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B42" s="12"/>
       <c r="C42" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
+        <v>141</v>
+      </c>
+      <c r="E42" s="243" t="s">
+        <v>132</v>
+      </c>
+      <c r="F42" s="12">
+        <v>75</v>
+      </c>
+      <c r="G42" s="12" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="H42" s="304" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="12">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B43" s="12"/>
       <c r="C43" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D43" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="E43" s="243" t="s">
-        <v>132</v>
-      </c>
-      <c r="F43" s="12">
-        <v>75</v>
-      </c>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
       <c r="G43" s="12"/>
       <c r="H43" s="12"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="12">
-        <v>38</v>
-      </c>
+      <c r="A44" s="12"/>
       <c r="B44" s="12"/>
-      <c r="C44" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>141</v>
-      </c>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
       <c r="E44" s="12"/>
       <c r="F44" s="12"/>
       <c r="G44" s="12"/>
@@ -4672,16 +4624,6 @@
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
       <c r="H45" s="12"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="12"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4741,21 +4683,21 @@
     <col min="36" max="36" customWidth="true" style="15" width="19.42578125" collapsed="true"/>
     <col min="37" max="37" customWidth="true" style="15" width="13.42578125" collapsed="true"/>
     <col min="38" max="38" customWidth="true" style="15" width="26.0" collapsed="true"/>
-    <col min="39" max="39" customWidth="true" style="15" width="26.0" collapsed="false"/>
+    <col min="39" max="39" customWidth="true" style="15" width="26.0" collapsed="true"/>
     <col min="40" max="41" customWidth="true" style="15" width="29.0" collapsed="true"/>
     <col min="42" max="16384" style="15" width="8.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="39" r="1" spans="1:48" x14ac:dyDescent="0.5">
-      <c r="F1" s="268" t="s">
+      <c r="F1" s="247" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="268"/>
-      <c r="H1" s="268"/>
-      <c r="I1" s="268"/>
-      <c r="J1" s="268"/>
-      <c r="K1" s="268"/>
-      <c r="L1" s="268"/>
+      <c r="G1" s="247"/>
+      <c r="H1" s="247"/>
+      <c r="I1" s="247"/>
+      <c r="J1" s="247"/>
+      <c r="K1" s="247"/>
+      <c r="L1" s="247"/>
       <c r="U1" s="15" t="s">
         <v>53</v>
       </c>
@@ -4804,22 +4746,22 @@
       <c r="L5" s="16"/>
     </row>
     <row customHeight="1" ht="36.75" r="6" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="D6" s="269" t="s">
+      <c r="D6" s="248" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="270"/>
-      <c r="F6" s="270"/>
-      <c r="G6" s="270"/>
-      <c r="H6" s="271"/>
+      <c r="E6" s="249"/>
+      <c r="F6" s="249"/>
+      <c r="G6" s="249"/>
+      <c r="H6" s="250"/>
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
-      <c r="M6" s="269" t="s">
+      <c r="M6" s="248" t="s">
         <v>56</v>
       </c>
-      <c r="N6" s="270"/>
-      <c r="O6" s="270"/>
-      <c r="P6" s="270"/>
-      <c r="Q6" s="271"/>
+      <c r="N6" s="249"/>
+      <c r="O6" s="249"/>
+      <c r="P6" s="249"/>
+      <c r="Q6" s="250"/>
     </row>
     <row customHeight="1" ht="76.5" r="7" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A7" s="17" t="s">
@@ -4837,10 +4779,10 @@
       <c r="E7" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="272" t="s">
+      <c r="F7" s="251" t="s">
         <v>62</v>
       </c>
-      <c r="G7" s="273"/>
+      <c r="G7" s="252"/>
       <c r="H7" s="17" t="s">
         <v>63</v>
       </c>
@@ -4863,10 +4805,10 @@
         <v>69</v>
       </c>
       <c r="O7" s="22"/>
-      <c r="P7" s="272" t="s">
+      <c r="P7" s="251" t="s">
         <v>70</v>
       </c>
-      <c r="Q7" s="273"/>
+      <c r="Q7" s="252"/>
       <c r="R7" s="23" t="s">
         <v>64</v>
       </c>
@@ -4934,7 +4876,7 @@
     </row>
     <row customHeight="1" ht="24.95" r="9" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A9" s="32"/>
-      <c r="B9" s="254"/>
+      <c r="B9" s="253"/>
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
       <c r="E9" s="33"/>
@@ -4945,15 +4887,15 @@
       <c r="J9" s="29"/>
       <c r="K9" s="29"/>
       <c r="L9" s="35"/>
-      <c r="M9" s="257"/>
-      <c r="N9" s="260"/>
-      <c r="O9" s="257"/>
-      <c r="P9" s="257"/>
-      <c r="Q9" s="257"/>
-      <c r="R9" s="257"/>
-      <c r="S9" s="257"/>
-      <c r="T9" s="263"/>
-      <c r="U9" s="257"/>
+      <c r="M9" s="245"/>
+      <c r="N9" s="257"/>
+      <c r="O9" s="245"/>
+      <c r="P9" s="245"/>
+      <c r="Q9" s="245"/>
+      <c r="R9" s="245"/>
+      <c r="S9" s="245"/>
+      <c r="T9" s="260"/>
+      <c r="U9" s="245"/>
       <c r="V9" s="34"/>
       <c r="W9" s="29"/>
       <c r="X9" s="29"/>
@@ -4963,7 +4905,7 @@
     </row>
     <row customHeight="1" ht="24.95" r="10" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A10" s="33"/>
-      <c r="B10" s="255"/>
+      <c r="B10" s="254"/>
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
       <c r="E10" s="33"/>
@@ -4974,15 +4916,15 @@
       <c r="J10" s="29"/>
       <c r="K10" s="29"/>
       <c r="L10" s="35"/>
-      <c r="M10" s="258"/>
-      <c r="N10" s="261"/>
-      <c r="O10" s="258"/>
-      <c r="P10" s="258"/>
-      <c r="Q10" s="258"/>
-      <c r="R10" s="258"/>
-      <c r="S10" s="258"/>
-      <c r="T10" s="264"/>
-      <c r="U10" s="258"/>
+      <c r="M10" s="256"/>
+      <c r="N10" s="258"/>
+      <c r="O10" s="256"/>
+      <c r="P10" s="256"/>
+      <c r="Q10" s="256"/>
+      <c r="R10" s="256"/>
+      <c r="S10" s="256"/>
+      <c r="T10" s="261"/>
+      <c r="U10" s="256"/>
       <c r="V10" s="34"/>
       <c r="W10" s="29"/>
       <c r="X10" s="29"/>
@@ -4990,8 +4932,8 @@
       <c r="AK10" s="39"/>
     </row>
     <row customHeight="1" ht="24.95" r="11" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A11" s="257"/>
-      <c r="B11" s="255"/>
+      <c r="A11" s="245"/>
+      <c r="B11" s="254"/>
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
       <c r="E11" s="33"/>
@@ -5002,15 +4944,15 @@
       <c r="J11" s="29"/>
       <c r="K11" s="29"/>
       <c r="L11" s="35"/>
-      <c r="M11" s="258"/>
-      <c r="N11" s="261"/>
-      <c r="O11" s="258"/>
-      <c r="P11" s="258"/>
-      <c r="Q11" s="258"/>
-      <c r="R11" s="258"/>
-      <c r="S11" s="258"/>
-      <c r="T11" s="264"/>
-      <c r="U11" s="258"/>
+      <c r="M11" s="256"/>
+      <c r="N11" s="258"/>
+      <c r="O11" s="256"/>
+      <c r="P11" s="256"/>
+      <c r="Q11" s="256"/>
+      <c r="R11" s="256"/>
+      <c r="S11" s="256"/>
+      <c r="T11" s="261"/>
+      <c r="U11" s="256"/>
       <c r="V11" s="34"/>
       <c r="W11" s="29"/>
       <c r="X11" s="29"/>
@@ -5020,8 +4962,8 @@
       <c r="AV11" s="49"/>
     </row>
     <row customHeight="1" ht="24.95" r="12" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A12" s="259"/>
-      <c r="B12" s="256"/>
+      <c r="A12" s="246"/>
+      <c r="B12" s="255"/>
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
       <c r="E12" s="33"/>
@@ -5032,15 +4974,15 @@
       <c r="J12" s="29"/>
       <c r="K12" s="29"/>
       <c r="L12" s="35"/>
-      <c r="M12" s="259"/>
-      <c r="N12" s="262"/>
-      <c r="O12" s="259"/>
-      <c r="P12" s="259"/>
-      <c r="Q12" s="259"/>
-      <c r="R12" s="259"/>
-      <c r="S12" s="259"/>
-      <c r="T12" s="265"/>
-      <c r="U12" s="259"/>
+      <c r="M12" s="246"/>
+      <c r="N12" s="259"/>
+      <c r="O12" s="246"/>
+      <c r="P12" s="246"/>
+      <c r="Q12" s="246"/>
+      <c r="R12" s="246"/>
+      <c r="S12" s="246"/>
+      <c r="T12" s="262"/>
+      <c r="U12" s="246"/>
       <c r="V12" s="34"/>
       <c r="W12" s="29"/>
       <c r="X12" s="29"/>
@@ -5049,7 +4991,7 @@
     </row>
     <row customHeight="1" ht="24.95" r="13" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A13" s="36"/>
-      <c r="B13" s="254"/>
+      <c r="B13" s="253"/>
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
       <c r="E13" s="33"/>
@@ -5060,15 +5002,15 @@
       <c r="J13" s="29"/>
       <c r="K13" s="29"/>
       <c r="L13" s="35"/>
-      <c r="M13" s="257"/>
-      <c r="N13" s="260"/>
-      <c r="O13" s="257"/>
-      <c r="P13" s="257"/>
-      <c r="Q13" s="257"/>
-      <c r="R13" s="257"/>
-      <c r="S13" s="257"/>
-      <c r="T13" s="263"/>
-      <c r="U13" s="257"/>
+      <c r="M13" s="245"/>
+      <c r="N13" s="257"/>
+      <c r="O13" s="245"/>
+      <c r="P13" s="245"/>
+      <c r="Q13" s="245"/>
+      <c r="R13" s="245"/>
+      <c r="S13" s="245"/>
+      <c r="T13" s="260"/>
+      <c r="U13" s="245"/>
       <c r="V13" s="34"/>
       <c r="W13" s="29"/>
       <c r="X13" s="29"/>
@@ -5077,7 +5019,7 @@
     </row>
     <row customHeight="1" ht="24.95" r="14" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A14" s="37"/>
-      <c r="B14" s="255"/>
+      <c r="B14" s="254"/>
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
       <c r="E14" s="33"/>
@@ -5088,15 +5030,15 @@
       <c r="J14" s="29"/>
       <c r="K14" s="29"/>
       <c r="L14" s="35"/>
-      <c r="M14" s="258"/>
-      <c r="N14" s="261"/>
-      <c r="O14" s="258"/>
-      <c r="P14" s="258"/>
-      <c r="Q14" s="258"/>
-      <c r="R14" s="258"/>
-      <c r="S14" s="258"/>
-      <c r="T14" s="264"/>
-      <c r="U14" s="258"/>
+      <c r="M14" s="256"/>
+      <c r="N14" s="258"/>
+      <c r="O14" s="256"/>
+      <c r="P14" s="256"/>
+      <c r="Q14" s="256"/>
+      <c r="R14" s="256"/>
+      <c r="S14" s="256"/>
+      <c r="T14" s="261"/>
+      <c r="U14" s="256"/>
       <c r="V14" s="34"/>
       <c r="W14" s="29"/>
       <c r="X14" s="29"/>
@@ -5104,8 +5046,8 @@
       <c r="AU14" s="54"/>
     </row>
     <row customHeight="1" ht="24.95" r="15" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A15" s="266"/>
-      <c r="B15" s="255"/>
+      <c r="A15" s="263"/>
+      <c r="B15" s="254"/>
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
@@ -5116,15 +5058,15 @@
       <c r="J15" s="29"/>
       <c r="K15" s="29"/>
       <c r="L15" s="35"/>
-      <c r="M15" s="258"/>
-      <c r="N15" s="261"/>
-      <c r="O15" s="258"/>
-      <c r="P15" s="258"/>
-      <c r="Q15" s="258"/>
-      <c r="R15" s="258"/>
-      <c r="S15" s="258"/>
-      <c r="T15" s="264"/>
-      <c r="U15" s="258"/>
+      <c r="M15" s="256"/>
+      <c r="N15" s="258"/>
+      <c r="O15" s="256"/>
+      <c r="P15" s="256"/>
+      <c r="Q15" s="256"/>
+      <c r="R15" s="256"/>
+      <c r="S15" s="256"/>
+      <c r="T15" s="261"/>
+      <c r="U15" s="256"/>
       <c r="V15" s="34"/>
       <c r="W15" s="29"/>
       <c r="X15" s="29"/>
@@ -5132,8 +5074,8 @@
       <c r="AU15" s="39"/>
     </row>
     <row customHeight="1" ht="24.95" r="16" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A16" s="267"/>
-      <c r="B16" s="256"/>
+      <c r="A16" s="264"/>
+      <c r="B16" s="255"/>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
@@ -5144,15 +5086,15 @@
       <c r="J16" s="29"/>
       <c r="K16" s="29"/>
       <c r="L16" s="35"/>
-      <c r="M16" s="259"/>
-      <c r="N16" s="262"/>
-      <c r="O16" s="259"/>
-      <c r="P16" s="259"/>
-      <c r="Q16" s="259"/>
-      <c r="R16" s="259"/>
-      <c r="S16" s="259"/>
-      <c r="T16" s="265"/>
-      <c r="U16" s="259"/>
+      <c r="M16" s="246"/>
+      <c r="N16" s="259"/>
+      <c r="O16" s="246"/>
+      <c r="P16" s="246"/>
+      <c r="Q16" s="246"/>
+      <c r="R16" s="246"/>
+      <c r="S16" s="246"/>
+      <c r="T16" s="262"/>
+      <c r="U16" s="246"/>
       <c r="V16" s="34"/>
       <c r="W16" s="29"/>
       <c r="X16" s="29"/>
@@ -5161,7 +5103,7 @@
     </row>
     <row customHeight="1" ht="24.95" r="17" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A17" s="32"/>
-      <c r="B17" s="254"/>
+      <c r="B17" s="253"/>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
@@ -5172,15 +5114,15 @@
       <c r="J17" s="29"/>
       <c r="K17" s="29"/>
       <c r="L17" s="35"/>
-      <c r="M17" s="257"/>
-      <c r="N17" s="260"/>
-      <c r="O17" s="257"/>
-      <c r="P17" s="257"/>
-      <c r="Q17" s="257"/>
-      <c r="R17" s="257"/>
-      <c r="S17" s="257"/>
-      <c r="T17" s="263"/>
-      <c r="U17" s="257"/>
+      <c r="M17" s="245"/>
+      <c r="N17" s="257"/>
+      <c r="O17" s="245"/>
+      <c r="P17" s="245"/>
+      <c r="Q17" s="245"/>
+      <c r="R17" s="245"/>
+      <c r="S17" s="245"/>
+      <c r="T17" s="260"/>
+      <c r="U17" s="245"/>
       <c r="V17" s="34"/>
       <c r="W17" s="29"/>
       <c r="X17" s="29"/>
@@ -5189,7 +5131,7 @@
     </row>
     <row customHeight="1" ht="24.95" r="18" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A18" s="33"/>
-      <c r="B18" s="255"/>
+      <c r="B18" s="254"/>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
       <c r="E18" s="33"/>
@@ -5200,22 +5142,22 @@
       <c r="J18" s="29"/>
       <c r="K18" s="29"/>
       <c r="L18" s="35"/>
-      <c r="M18" s="258"/>
-      <c r="N18" s="261"/>
-      <c r="O18" s="258"/>
-      <c r="P18" s="258"/>
-      <c r="Q18" s="258"/>
-      <c r="R18" s="258"/>
-      <c r="S18" s="258"/>
-      <c r="T18" s="264"/>
-      <c r="U18" s="258"/>
+      <c r="M18" s="256"/>
+      <c r="N18" s="258"/>
+      <c r="O18" s="256"/>
+      <c r="P18" s="256"/>
+      <c r="Q18" s="256"/>
+      <c r="R18" s="256"/>
+      <c r="S18" s="256"/>
+      <c r="T18" s="261"/>
+      <c r="U18" s="256"/>
       <c r="V18" s="34"/>
       <c r="W18" s="29"/>
       <c r="X18" s="29"/>
     </row>
     <row customHeight="1" ht="24.95" r="19" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A19" s="257"/>
-      <c r="B19" s="255"/>
+      <c r="A19" s="245"/>
+      <c r="B19" s="254"/>
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
@@ -5226,22 +5168,22 @@
       <c r="J19" s="29"/>
       <c r="K19" s="29"/>
       <c r="L19" s="35"/>
-      <c r="M19" s="258"/>
-      <c r="N19" s="261"/>
-      <c r="O19" s="258"/>
-      <c r="P19" s="258"/>
-      <c r="Q19" s="258"/>
-      <c r="R19" s="258"/>
-      <c r="S19" s="258"/>
-      <c r="T19" s="264"/>
-      <c r="U19" s="258"/>
+      <c r="M19" s="256"/>
+      <c r="N19" s="258"/>
+      <c r="O19" s="256"/>
+      <c r="P19" s="256"/>
+      <c r="Q19" s="256"/>
+      <c r="R19" s="256"/>
+      <c r="S19" s="256"/>
+      <c r="T19" s="261"/>
+      <c r="U19" s="256"/>
       <c r="V19" s="34"/>
       <c r="W19" s="29"/>
       <c r="X19" s="29"/>
     </row>
     <row customHeight="1" ht="24.95" r="20" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A20" s="259"/>
-      <c r="B20" s="256"/>
+      <c r="A20" s="246"/>
+      <c r="B20" s="255"/>
       <c r="C20" s="33"/>
       <c r="D20" s="33"/>
       <c r="E20" s="33"/>
@@ -5252,22 +5194,22 @@
       <c r="J20" s="29"/>
       <c r="K20" s="29"/>
       <c r="L20" s="35"/>
-      <c r="M20" s="259"/>
-      <c r="N20" s="262"/>
-      <c r="O20" s="259"/>
-      <c r="P20" s="259"/>
-      <c r="Q20" s="259"/>
-      <c r="R20" s="259"/>
-      <c r="S20" s="259"/>
-      <c r="T20" s="265"/>
-      <c r="U20" s="259"/>
+      <c r="M20" s="246"/>
+      <c r="N20" s="259"/>
+      <c r="O20" s="246"/>
+      <c r="P20" s="246"/>
+      <c r="Q20" s="246"/>
+      <c r="R20" s="246"/>
+      <c r="S20" s="246"/>
+      <c r="T20" s="262"/>
+      <c r="U20" s="246"/>
       <c r="V20" s="34"/>
       <c r="W20" s="29"/>
       <c r="X20" s="29"/>
     </row>
     <row customHeight="1" ht="24.95" r="21" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A21" s="32"/>
-      <c r="B21" s="254"/>
+      <c r="B21" s="253"/>
       <c r="C21" s="33"/>
       <c r="D21" s="33"/>
       <c r="E21" s="33"/>
@@ -5278,22 +5220,22 @@
       <c r="J21" s="29"/>
       <c r="K21" s="29"/>
       <c r="L21" s="35"/>
-      <c r="M21" s="257"/>
-      <c r="N21" s="260"/>
-      <c r="O21" s="257"/>
-      <c r="P21" s="257"/>
-      <c r="Q21" s="257"/>
-      <c r="R21" s="257"/>
-      <c r="S21" s="257"/>
-      <c r="T21" s="263"/>
-      <c r="U21" s="257"/>
+      <c r="M21" s="245"/>
+      <c r="N21" s="257"/>
+      <c r="O21" s="245"/>
+      <c r="P21" s="245"/>
+      <c r="Q21" s="245"/>
+      <c r="R21" s="245"/>
+      <c r="S21" s="245"/>
+      <c r="T21" s="260"/>
+      <c r="U21" s="245"/>
       <c r="V21" s="34"/>
       <c r="W21" s="29"/>
       <c r="X21" s="29"/>
     </row>
     <row customHeight="1" ht="24.95" r="22" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A22" s="33"/>
-      <c r="B22" s="255"/>
+      <c r="B22" s="254"/>
       <c r="C22" s="33"/>
       <c r="D22" s="33"/>
       <c r="E22" s="33"/>
@@ -5304,22 +5246,22 @@
       <c r="J22" s="29"/>
       <c r="K22" s="29"/>
       <c r="L22" s="35"/>
-      <c r="M22" s="258"/>
-      <c r="N22" s="261"/>
-      <c r="O22" s="258"/>
-      <c r="P22" s="258"/>
-      <c r="Q22" s="258"/>
-      <c r="R22" s="258"/>
-      <c r="S22" s="258"/>
-      <c r="T22" s="264"/>
-      <c r="U22" s="258"/>
+      <c r="M22" s="256"/>
+      <c r="N22" s="258"/>
+      <c r="O22" s="256"/>
+      <c r="P22" s="256"/>
+      <c r="Q22" s="256"/>
+      <c r="R22" s="256"/>
+      <c r="S22" s="256"/>
+      <c r="T22" s="261"/>
+      <c r="U22" s="256"/>
       <c r="V22" s="34"/>
       <c r="W22" s="29"/>
       <c r="X22" s="29"/>
     </row>
     <row customHeight="1" ht="24.95" r="23" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A23" s="252"/>
-      <c r="B23" s="255"/>
+      <c r="A23" s="272"/>
+      <c r="B23" s="254"/>
       <c r="C23" s="33"/>
       <c r="D23" s="33"/>
       <c r="E23" s="33"/>
@@ -5330,22 +5272,22 @@
       <c r="J23" s="29"/>
       <c r="K23" s="29"/>
       <c r="L23" s="35"/>
-      <c r="M23" s="258"/>
-      <c r="N23" s="261"/>
-      <c r="O23" s="258"/>
-      <c r="P23" s="258"/>
-      <c r="Q23" s="258"/>
-      <c r="R23" s="258"/>
-      <c r="S23" s="258"/>
-      <c r="T23" s="264"/>
-      <c r="U23" s="258"/>
+      <c r="M23" s="256"/>
+      <c r="N23" s="258"/>
+      <c r="O23" s="256"/>
+      <c r="P23" s="256"/>
+      <c r="Q23" s="256"/>
+      <c r="R23" s="256"/>
+      <c r="S23" s="256"/>
+      <c r="T23" s="261"/>
+      <c r="U23" s="256"/>
       <c r="V23" s="34"/>
       <c r="W23" s="29"/>
       <c r="X23" s="29"/>
     </row>
     <row customHeight="1" ht="24.95" r="24" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A24" s="253"/>
-      <c r="B24" s="256"/>
+      <c r="A24" s="273"/>
+      <c r="B24" s="255"/>
       <c r="C24" s="33"/>
       <c r="D24" s="33"/>
       <c r="E24" s="33"/>
@@ -5356,15 +5298,15 @@
       <c r="J24" s="29"/>
       <c r="K24" s="29"/>
       <c r="L24" s="35"/>
-      <c r="M24" s="259"/>
-      <c r="N24" s="262"/>
-      <c r="O24" s="259"/>
-      <c r="P24" s="259"/>
-      <c r="Q24" s="259"/>
-      <c r="R24" s="259"/>
-      <c r="S24" s="259"/>
-      <c r="T24" s="265"/>
-      <c r="U24" s="259"/>
+      <c r="M24" s="246"/>
+      <c r="N24" s="259"/>
+      <c r="O24" s="246"/>
+      <c r="P24" s="246"/>
+      <c r="Q24" s="246"/>
+      <c r="R24" s="246"/>
+      <c r="S24" s="246"/>
+      <c r="T24" s="262"/>
+      <c r="U24" s="246"/>
       <c r="V24" s="34"/>
       <c r="W24" s="29"/>
       <c r="X24" s="29"/>
@@ -5684,33 +5626,33 @@
       </c>
       <c r="D40" s="72"/>
       <c r="E40" s="73"/>
-      <c r="F40" s="246" t="s">
+      <c r="F40" s="266" t="s">
         <v>4</v>
       </c>
-      <c r="G40" s="247"/>
-      <c r="H40" s="247"/>
-      <c r="I40" s="248"/>
-      <c r="J40" s="249" t="s">
+      <c r="G40" s="267"/>
+      <c r="H40" s="267"/>
+      <c r="I40" s="268"/>
+      <c r="J40" s="269" t="s">
         <v>5</v>
       </c>
-      <c r="K40" s="250"/>
-      <c r="L40" s="250"/>
-      <c r="M40" s="251"/>
+      <c r="K40" s="270"/>
+      <c r="L40" s="270"/>
+      <c r="M40" s="271"/>
       <c r="N40" s="74" t="s">
         <v>46</v>
       </c>
       <c r="P40" s="120"/>
-      <c r="Q40" s="245" t="s">
+      <c r="Q40" s="265" t="s">
         <v>116</v>
       </c>
-      <c r="R40" s="245"/>
-      <c r="S40" s="245"/>
-      <c r="T40" s="245"/>
-      <c r="U40" s="245"/>
-      <c r="V40" s="245"/>
-      <c r="W40" s="245"/>
-      <c r="X40" s="245"/>
-      <c r="Y40" s="245"/>
+      <c r="R40" s="265"/>
+      <c r="S40" s="265"/>
+      <c r="T40" s="265"/>
+      <c r="U40" s="265"/>
+      <c r="V40" s="265"/>
+      <c r="W40" s="265"/>
+      <c r="X40" s="265"/>
+      <c r="Y40" s="265"/>
       <c r="Z40" s="39"/>
       <c r="AA40" s="39"/>
       <c r="AB40" s="39"/>
@@ -5850,78 +5792,32 @@
       <c r="B42" s="169" t="s">
         <v>124</v>
       </c>
-      <c r="D42" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="E42" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="F42" s="145" t="n">
-        <v>0.0010000000474974513</v>
-      </c>
-      <c r="G42" s="145" t="n">
-        <v>1.9444283009245046E-5</v>
-      </c>
-      <c r="H42" s="146" t="n">
-        <v>34.99970941664108</v>
-      </c>
-      <c r="I42" s="146" t="n">
-        <v>4.022955105361044E-5</v>
-      </c>
-      <c r="J42" s="146" t="s">
-        <v>171</v>
-      </c>
-      <c r="K42" s="145" t="s">
-        <v>171</v>
-      </c>
-      <c r="L42" s="145" t="s">
-        <v>171</v>
-      </c>
-      <c r="M42" s="146" t="s">
-        <v>171</v>
-      </c>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="145"/>
+      <c r="G42" s="145"/>
+      <c r="H42" s="146"/>
+      <c r="I42" s="146"/>
+      <c r="J42" s="146"/>
+      <c r="K42" s="145"/>
+      <c r="L42" s="145"/>
+      <c r="M42" s="146"/>
       <c r="N42" s="186"/>
       <c r="O42" s="48"/>
       <c r="P42" s="125"/>
-      <c r="Q42" s="136" t="s">
-        <v>169</v>
-      </c>
-      <c r="R42" s="200" t="s">
-        <v>173</v>
-      </c>
-      <c r="S42" s="200" t="n">
-        <v>35000.0</v>
-      </c>
-      <c r="T42" s="200" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="U42" s="200" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="V42" s="200" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="W42" s="200" t="n">
-        <v>0.002413773210719228</v>
-      </c>
-      <c r="X42" s="200" t="n">
-        <v>8.045910702397426E-5</v>
-      </c>
-      <c r="Y42" s="201" t="n">
-        <v>2.0114775907131843E-5</v>
-      </c>
-      <c r="Z42" s="200" t="n">
-        <v>0.0012444445164874196</v>
-      </c>
-      <c r="AA42" s="200" t="n">
-        <v>4.1481482185190544E-5</v>
-      </c>
-      <c r="AB42" s="202" t="n">
-        <v>1.0370370546297636E-5</v>
-      </c>
-      <c r="AC42" s="274" t="s">
-        <v>174</v>
-      </c>
+      <c r="Q42" s="136"/>
+      <c r="R42" s="200"/>
+      <c r="S42" s="200"/>
+      <c r="T42" s="200"/>
+      <c r="U42" s="200"/>
+      <c r="V42" s="200"/>
+      <c r="W42" s="200"/>
+      <c r="X42" s="200"/>
+      <c r="Y42" s="201"/>
+      <c r="Z42" s="200"/>
+      <c r="AA42" s="200"/>
+      <c r="AB42" s="202"/>
+      <c r="AC42" s="203"/>
       <c r="AD42" s="48"/>
       <c r="AE42" s="42"/>
       <c r="AF42" s="42"/>
@@ -5930,18 +5826,10 @@
       <c r="AI42" s="202"/>
       <c r="AJ42" s="222"/>
       <c r="AK42" s="119"/>
-      <c r="AL42" s="42" t="s">
-        <v>183</v>
-      </c>
-      <c r="AM42" s="42" t="s">
-        <v>179</v>
-      </c>
-      <c r="AN42" s="29" t="n">
-        <v>4.0229551814263687E-5</v>
-      </c>
-      <c r="AO42" s="29" t="n">
-        <v>206.8965301513672</v>
-      </c>
+      <c r="AL42" s="42"/>
+      <c r="AM42" s="42"/>
+      <c r="AN42" s="29"/>
+      <c r="AO42" s="29"/>
       <c r="AP42" s="16"/>
     </row>
     <row customHeight="1" ht="24.95" r="43" spans="1:42" x14ac:dyDescent="0.4">
@@ -5952,75 +5840,31 @@
         <v>125</v>
       </c>
       <c r="D43" s="27"/>
-      <c r="E43" s="27" t="s">
-        <v>172</v>
-      </c>
-      <c r="F43" s="146" t="n">
-        <v>0.0010000000474974513</v>
-      </c>
-      <c r="G43" s="145" t="n">
-        <v>2.8000224781429502E-5</v>
-      </c>
-      <c r="H43" s="146" t="n">
-        <v>50.400404606573105</v>
-      </c>
-      <c r="I43" s="147" t="n">
-        <v>5.7931499547785175E-5</v>
-      </c>
-      <c r="J43" s="146" t="s">
-        <v>171</v>
-      </c>
-      <c r="K43" s="145" t="s">
-        <v>171</v>
-      </c>
-      <c r="L43" s="145" t="s">
-        <v>171</v>
-      </c>
-      <c r="M43" s="147" t="s">
-        <v>171</v>
-      </c>
+      <c r="E43" s="27"/>
+      <c r="F43" s="146"/>
+      <c r="G43" s="145"/>
+      <c r="H43" s="146"/>
+      <c r="I43" s="147"/>
+      <c r="J43" s="146"/>
+      <c r="K43" s="145"/>
+      <c r="L43" s="145"/>
+      <c r="M43" s="147"/>
       <c r="N43" s="165"/>
       <c r="O43" s="48"/>
       <c r="P43" s="125"/>
-      <c r="Q43" s="136" t="s">
-        <v>169</v>
-      </c>
-      <c r="R43" s="200" t="s">
-        <v>175</v>
-      </c>
-      <c r="S43" s="200" t="n">
-        <v>25000.0</v>
-      </c>
-      <c r="T43" s="200" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="U43" s="200" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="V43" s="200" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="W43" s="200" t="n">
-        <v>0.002413773210719228</v>
-      </c>
-      <c r="X43" s="200" t="n">
-        <v>6.034433026798069E-5</v>
-      </c>
-      <c r="Y43" s="201" t="n">
-        <v>5.028694431530312E-5</v>
-      </c>
-      <c r="Z43" s="200" t="n">
-        <v>0.0012444445164874196</v>
-      </c>
-      <c r="AA43" s="200" t="n">
-        <v>3.1111110729398206E-5</v>
-      </c>
-      <c r="AB43" s="202" t="n">
-        <v>2.592592682049144E-5</v>
-      </c>
-      <c r="AC43" s="275" t="s">
-        <v>174</v>
-      </c>
+      <c r="Q43" s="136"/>
+      <c r="R43" s="200"/>
+      <c r="S43" s="200"/>
+      <c r="T43" s="200"/>
+      <c r="U43" s="200"/>
+      <c r="V43" s="200"/>
+      <c r="W43" s="200"/>
+      <c r="X43" s="200"/>
+      <c r="Y43" s="201"/>
+      <c r="Z43" s="200"/>
+      <c r="AA43" s="200"/>
+      <c r="AB43" s="202"/>
+      <c r="AC43" s="203"/>
       <c r="AD43" s="48"/>
       <c r="AE43" s="42"/>
       <c r="AF43" s="42"/>
@@ -6029,18 +5873,10 @@
       <c r="AI43" s="202"/>
       <c r="AJ43" s="223"/>
       <c r="AK43" s="119"/>
-      <c r="AL43" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="AM43" s="42" t="s">
-        <v>179</v>
-      </c>
-      <c r="AN43" s="29" t="n">
-        <v>2.5747332983883098E-5</v>
-      </c>
-      <c r="AO43" s="29" t="n">
-        <v>91.95402526855469</v>
-      </c>
+      <c r="AL43" s="42"/>
+      <c r="AM43" s="42"/>
+      <c r="AN43" s="29"/>
+      <c r="AO43" s="29"/>
       <c r="AP43" s="16"/>
     </row>
     <row customHeight="1" ht="24.95" r="44" spans="1:42" x14ac:dyDescent="0.4">
@@ -6048,78 +5884,32 @@
         <v>3</v>
       </c>
       <c r="B44" s="169"/>
-      <c r="D44" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="E44" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="F44" s="145" t="n">
-        <v>0.0035714288242161274</v>
-      </c>
-      <c r="G44" s="145" t="n">
-        <v>6.944386950702684E-5</v>
-      </c>
-      <c r="H44" s="146" t="n">
-        <v>124.9989651126483</v>
-      </c>
-      <c r="I44" s="146" t="n">
-        <v>1.4367697139384863E-4</v>
-      </c>
-      <c r="J44" s="146" t="s">
-        <v>171</v>
-      </c>
-      <c r="K44" s="145" t="s">
-        <v>171</v>
-      </c>
-      <c r="L44" s="145" t="s">
-        <v>171</v>
-      </c>
-      <c r="M44" s="146" t="s">
-        <v>171</v>
-      </c>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="145"/>
+      <c r="G44" s="145"/>
+      <c r="H44" s="146"/>
+      <c r="I44" s="146"/>
+      <c r="J44" s="146"/>
+      <c r="K44" s="145"/>
+      <c r="L44" s="145"/>
+      <c r="M44" s="146"/>
       <c r="N44" s="166"/>
       <c r="O44" s="48"/>
       <c r="P44" s="125"/>
-      <c r="Q44" s="136" t="s">
-        <v>169</v>
-      </c>
-      <c r="R44" s="200" t="s">
-        <v>176</v>
-      </c>
-      <c r="S44" s="200" t="n">
-        <v>75000.0</v>
-      </c>
-      <c r="T44" s="200" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="U44" s="200" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="V44" s="200" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="W44" s="200" t="n">
-        <v>0.002413773210719228</v>
-      </c>
-      <c r="X44" s="200" t="n">
-        <v>2.413773210719228E-5</v>
-      </c>
-      <c r="Y44" s="201" t="n">
-        <v>1.0057388135464862E-4</v>
-      </c>
-      <c r="Z44" s="200" t="n">
-        <v>0.0012444445164874196</v>
-      </c>
-      <c r="AA44" s="200" t="n">
-        <v>1.2444445019355044E-5</v>
-      </c>
-      <c r="AB44" s="202" t="n">
-        <v>5.185185364098288E-5</v>
-      </c>
-      <c r="AC44" s="276" t="s">
-        <v>174</v>
-      </c>
+      <c r="Q44" s="136"/>
+      <c r="R44" s="200"/>
+      <c r="S44" s="200"/>
+      <c r="T44" s="200"/>
+      <c r="U44" s="200"/>
+      <c r="V44" s="200"/>
+      <c r="W44" s="200"/>
+      <c r="X44" s="200"/>
+      <c r="Y44" s="201"/>
+      <c r="Z44" s="200"/>
+      <c r="AA44" s="200"/>
+      <c r="AB44" s="202"/>
+      <c r="AC44" s="203"/>
       <c r="AD44" s="48"/>
       <c r="AE44" s="42"/>
       <c r="AF44" s="42"/>
@@ -6128,18 +5918,10 @@
       <c r="AI44" s="202"/>
       <c r="AJ44" s="224"/>
       <c r="AK44" s="119"/>
-      <c r="AL44" s="42" t="s">
-        <v>172</v>
-      </c>
-      <c r="AM44" s="42" t="s">
-        <v>187</v>
-      </c>
-      <c r="AN44" s="29" t="n">
-        <v>2.5747332983883098E-5</v>
-      </c>
-      <c r="AO44" s="29" t="n">
-        <v>36.78160858154297</v>
-      </c>
+      <c r="AL44" s="42"/>
+      <c r="AM44" s="42"/>
+      <c r="AN44" s="29"/>
+      <c r="AO44" s="29"/>
       <c r="AP44" s="16"/>
     </row>
     <row customHeight="1" ht="24.95" r="45" spans="1:42" x14ac:dyDescent="0.4">
@@ -6148,75 +5930,31 @@
       </c>
       <c r="B45" s="169"/>
       <c r="D45" s="27"/>
-      <c r="E45" s="27" t="s">
-        <v>172</v>
-      </c>
-      <c r="F45" s="145" t="n">
-        <v>0.0035714288242161274</v>
-      </c>
-      <c r="G45" s="145" t="n">
-        <v>1.0000080511914467E-4</v>
-      </c>
-      <c r="H45" s="146" t="n">
-        <v>180.0014492144604</v>
-      </c>
-      <c r="I45" s="146" t="n">
-        <v>2.068982174878855E-4</v>
-      </c>
-      <c r="J45" s="146" t="s">
-        <v>171</v>
-      </c>
-      <c r="K45" s="145" t="s">
-        <v>171</v>
-      </c>
-      <c r="L45" s="145" t="s">
-        <v>171</v>
-      </c>
-      <c r="M45" s="146" t="s">
-        <v>171</v>
-      </c>
+      <c r="E45" s="27"/>
+      <c r="F45" s="145"/>
+      <c r="G45" s="145"/>
+      <c r="H45" s="146"/>
+      <c r="I45" s="146"/>
+      <c r="J45" s="146"/>
+      <c r="K45" s="145"/>
+      <c r="L45" s="145"/>
+      <c r="M45" s="146"/>
       <c r="N45" s="166"/>
       <c r="O45" s="48"/>
       <c r="P45" s="125"/>
-      <c r="Q45" s="136" t="s">
-        <v>169</v>
-      </c>
-      <c r="R45" s="200" t="s">
-        <v>130</v>
-      </c>
-      <c r="S45" s="200" t="n">
-        <v>55000.0</v>
-      </c>
-      <c r="T45" s="200" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="U45" s="200" t="n">
-        <v>120.0</v>
-      </c>
-      <c r="V45" s="200" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="W45" s="200" t="n">
-        <v>0.002816068707033992</v>
-      </c>
-      <c r="X45" s="200" t="n">
-        <v>2.3467239225283264E-5</v>
-      </c>
-      <c r="Y45" s="201" t="n">
-        <v>2.2126252588350326E-5</v>
-      </c>
-      <c r="Z45" s="200" t="n">
-        <v>0.001451851916499436</v>
-      </c>
-      <c r="AA45" s="200" t="n">
-        <v>1.2098766092094593E-5</v>
-      </c>
-      <c r="AB45" s="202" t="n">
-        <v>1.1407407328078989E-5</v>
-      </c>
-      <c r="AC45" s="277" t="s">
-        <v>174</v>
-      </c>
+      <c r="Q45" s="136"/>
+      <c r="R45" s="200"/>
+      <c r="S45" s="200"/>
+      <c r="T45" s="200"/>
+      <c r="U45" s="200"/>
+      <c r="V45" s="200"/>
+      <c r="W45" s="200"/>
+      <c r="X45" s="200"/>
+      <c r="Y45" s="201"/>
+      <c r="Z45" s="200"/>
+      <c r="AA45" s="200"/>
+      <c r="AB45" s="202"/>
+      <c r="AC45" s="204"/>
       <c r="AD45" s="48"/>
       <c r="AE45" s="42"/>
       <c r="AF45" s="42"/>
@@ -6225,95 +5963,41 @@
       <c r="AI45" s="202"/>
       <c r="AJ45" s="225"/>
       <c r="AK45" s="119"/>
-      <c r="AL45" s="42" t="s">
-        <v>172</v>
-      </c>
-      <c r="AM45" s="42" t="s">
-        <v>179</v>
-      </c>
-      <c r="AN45" s="29" t="n">
-        <v>2.5747332983883098E-5</v>
-      </c>
-      <c r="AO45" s="29" t="n">
-        <v>91.95402526855469</v>
-      </c>
+      <c r="AL45" s="42"/>
+      <c r="AM45" s="42"/>
+      <c r="AN45" s="29"/>
+      <c r="AO45" s="29"/>
       <c r="AP45" s="16"/>
     </row>
     <row customHeight="1" ht="24.95" r="46" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A46" s="169"/>
       <c r="B46" s="169"/>
-      <c r="D46" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="E46" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="F46" s="145" t="n">
-        <v>0.009714286774396896</v>
-      </c>
-      <c r="G46" s="145" t="n">
-        <v>1.8888733230267254E-4</v>
-      </c>
-      <c r="H46" s="146" t="n">
-        <v>339.99719814481057</v>
-      </c>
-      <c r="I46" s="146" t="n">
-        <v>3.908013771779432E-4</v>
-      </c>
-      <c r="J46" s="146" t="s">
-        <v>171</v>
-      </c>
-      <c r="K46" s="145" t="s">
-        <v>171</v>
-      </c>
-      <c r="L46" s="145" t="s">
-        <v>171</v>
-      </c>
-      <c r="M46" s="146" t="s">
-        <v>171</v>
-      </c>
+      <c r="D46" s="27"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="145"/>
+      <c r="G46" s="145"/>
+      <c r="H46" s="146"/>
+      <c r="I46" s="146"/>
+      <c r="J46" s="146"/>
+      <c r="K46" s="145"/>
+      <c r="L46" s="145"/>
+      <c r="M46" s="146"/>
       <c r="N46" s="187"/>
       <c r="O46" s="48"/>
       <c r="P46" s="125"/>
-      <c r="Q46" s="136" t="s">
-        <v>169</v>
-      </c>
-      <c r="R46" s="200" t="s">
-        <v>177</v>
-      </c>
-      <c r="S46" s="200" t="n">
-        <v>100000.0</v>
-      </c>
-      <c r="T46" s="200" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="U46" s="200" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="V46" s="200" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="W46" s="200" t="n">
-        <v>8.04591050837189E-4</v>
-      </c>
-      <c r="X46" s="200" t="n">
-        <v>1.609182101674378E-5</v>
-      </c>
-      <c r="Y46" s="201" t="n">
-        <v>1.3409851817414165E-4</v>
-      </c>
-      <c r="Z46" s="200" t="n">
-        <v>4.1481482912786305E-4</v>
-      </c>
-      <c r="AA46" s="200" t="n">
-        <v>8.296296073240228E-6</v>
-      </c>
-      <c r="AB46" s="202" t="n">
-        <v>6.913580727996305E-5</v>
-      </c>
-      <c r="AC46" s="278" t="s">
-        <v>174</v>
-      </c>
+      <c r="Q46" s="136"/>
+      <c r="R46" s="200"/>
+      <c r="S46" s="200"/>
+      <c r="T46" s="200"/>
+      <c r="U46" s="200"/>
+      <c r="V46" s="200"/>
+      <c r="W46" s="200"/>
+      <c r="X46" s="200"/>
+      <c r="Y46" s="201"/>
+      <c r="Z46" s="200"/>
+      <c r="AA46" s="200"/>
+      <c r="AB46" s="202"/>
+      <c r="AC46" s="203"/>
       <c r="AD46" s="48"/>
       <c r="AE46" s="42"/>
       <c r="AF46" s="42"/>
@@ -6332,74 +6016,30 @@
       <c r="A47" s="169"/>
       <c r="B47" s="169"/>
       <c r="D47" s="27"/>
-      <c r="E47" s="27" t="s">
-        <v>172</v>
-      </c>
-      <c r="F47" s="145" t="n">
-        <v>0.009714286774396896</v>
-      </c>
-      <c r="G47" s="145" t="n">
-        <v>2.7200220035496957E-4</v>
-      </c>
-      <c r="H47" s="145" t="n">
-        <v>489.60396063894524</v>
-      </c>
-      <c r="I47" s="145" t="n">
-        <v>5.627631731482129E-4</v>
-      </c>
-      <c r="J47" s="146" t="s">
-        <v>171</v>
-      </c>
-      <c r="K47" s="145" t="s">
-        <v>171</v>
-      </c>
-      <c r="L47" s="145" t="s">
-        <v>171</v>
-      </c>
-      <c r="M47" s="147" t="s">
-        <v>171</v>
-      </c>
+      <c r="E47" s="27"/>
+      <c r="F47" s="145"/>
+      <c r="G47" s="145"/>
+      <c r="H47" s="145"/>
+      <c r="I47" s="145"/>
+      <c r="J47" s="146"/>
+      <c r="K47" s="145"/>
+      <c r="L47" s="145"/>
+      <c r="M47" s="147"/>
       <c r="N47" s="167"/>
       <c r="P47" s="112"/>
-      <c r="Q47" s="134" t="s">
-        <v>169</v>
-      </c>
-      <c r="R47" s="201" t="s">
-        <v>178</v>
-      </c>
-      <c r="S47" s="205" t="n">
-        <v>15000.0</v>
-      </c>
-      <c r="T47" s="205" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="U47" s="200" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="V47" s="200" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="W47" s="201" t="n">
-        <v>0.001206886605359614</v>
-      </c>
-      <c r="X47" s="201" t="n">
-        <v>3.0172165133990346E-5</v>
-      </c>
-      <c r="Y47" s="201" t="n">
-        <v>1.5086081475601532E-5</v>
-      </c>
-      <c r="Z47" s="201" t="n">
-        <v>6.222222582437098E-4</v>
-      </c>
-      <c r="AA47" s="201" t="n">
-        <v>1.5555555364699103E-5</v>
-      </c>
-      <c r="AB47" s="206" t="n">
-        <v>7.777777682349551E-6</v>
-      </c>
-      <c r="AC47" s="279" t="s">
-        <v>174</v>
-      </c>
+      <c r="Q47" s="134"/>
+      <c r="R47" s="201"/>
+      <c r="S47" s="205"/>
+      <c r="T47" s="205"/>
+      <c r="U47" s="200"/>
+      <c r="V47" s="200"/>
+      <c r="W47" s="201"/>
+      <c r="X47" s="201"/>
+      <c r="Y47" s="201"/>
+      <c r="Z47" s="201"/>
+      <c r="AA47" s="201"/>
+      <c r="AB47" s="206"/>
+      <c r="AC47" s="203"/>
       <c r="AD47" s="16"/>
       <c r="AE47" s="55"/>
       <c r="AF47" s="29"/>
@@ -6417,77 +6057,31 @@
     <row customHeight="1" ht="24.95" r="48" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A48" s="169"/>
       <c r="B48" s="169"/>
-      <c r="D48" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="E48" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="F48" s="145" t="n">
-        <v>0.02142857387661934</v>
-      </c>
-      <c r="G48" s="145" t="n">
-        <v>4.166632351510599E-4</v>
-      </c>
-      <c r="H48" s="145" t="n">
-        <v>749.9938232719079</v>
-      </c>
-      <c r="I48" s="145" t="n">
-        <v>8.620618658297792E-4</v>
-      </c>
-      <c r="J48" s="146" t="s">
-        <v>171</v>
-      </c>
-      <c r="K48" s="145" t="s">
-        <v>171</v>
-      </c>
-      <c r="L48" s="145" t="s">
-        <v>171</v>
-      </c>
-      <c r="M48" s="146" t="s">
-        <v>171</v>
-      </c>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="145"/>
+      <c r="G48" s="145"/>
+      <c r="H48" s="145"/>
+      <c r="I48" s="145"/>
+      <c r="J48" s="146"/>
+      <c r="K48" s="145"/>
+      <c r="L48" s="145"/>
+      <c r="M48" s="146"/>
       <c r="N48" s="167"/>
       <c r="P48" s="112"/>
-      <c r="Q48" s="134" t="s">
-        <v>169</v>
-      </c>
-      <c r="R48" s="201" t="s">
-        <v>179</v>
-      </c>
-      <c r="S48" s="205" t="n">
-        <v>300000.0</v>
-      </c>
-      <c r="T48" s="205" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="U48" s="200" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="V48" s="200" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="W48" s="201" t="n">
-        <v>0.002413773210719228</v>
-      </c>
-      <c r="X48" s="201" t="n">
-        <v>6.034433026798069E-5</v>
-      </c>
-      <c r="Y48" s="201" t="n">
-        <v>6.03443302679807E-4</v>
-      </c>
-      <c r="Z48" s="201" t="n">
-        <v>0.0012444445164874196</v>
-      </c>
-      <c r="AA48" s="201" t="n">
-        <v>3.1111110729398206E-5</v>
-      </c>
-      <c r="AB48" s="206" t="n">
-        <v>3.111111291218549E-4</v>
-      </c>
-      <c r="AC48" s="280" t="s">
-        <v>174</v>
-      </c>
+      <c r="Q48" s="134"/>
+      <c r="R48" s="201"/>
+      <c r="S48" s="205"/>
+      <c r="T48" s="205"/>
+      <c r="U48" s="200"/>
+      <c r="V48" s="200"/>
+      <c r="W48" s="201"/>
+      <c r="X48" s="201"/>
+      <c r="Y48" s="201"/>
+      <c r="Z48" s="201"/>
+      <c r="AA48" s="201"/>
+      <c r="AB48" s="206"/>
+      <c r="AC48" s="203"/>
       <c r="AD48" s="16"/>
       <c r="AE48" s="55"/>
       <c r="AF48" s="29"/>
@@ -6506,33 +6100,15 @@
       <c r="A49" s="169"/>
       <c r="B49" s="169"/>
       <c r="D49" s="27"/>
-      <c r="E49" s="27" t="s">
-        <v>172</v>
-      </c>
-      <c r="F49" s="145" t="n">
-        <v>0.02142857387661934</v>
-      </c>
-      <c r="G49" s="145" t="n">
-        <v>6.000048567921082E-4</v>
-      </c>
-      <c r="H49" s="145" t="n">
-        <v>1080.0087422257948</v>
-      </c>
-      <c r="I49" s="145" t="n">
-        <v>0.0012413893588802238</v>
-      </c>
-      <c r="J49" s="146" t="s">
-        <v>171</v>
-      </c>
-      <c r="K49" s="145" t="s">
-        <v>171</v>
-      </c>
-      <c r="L49" s="145" t="s">
-        <v>171</v>
-      </c>
-      <c r="M49" s="146" t="s">
-        <v>171</v>
-      </c>
+      <c r="E49" s="27"/>
+      <c r="F49" s="145"/>
+      <c r="G49" s="145"/>
+      <c r="H49" s="145"/>
+      <c r="I49" s="145"/>
+      <c r="J49" s="146"/>
+      <c r="K49" s="145"/>
+      <c r="L49" s="145"/>
+      <c r="M49" s="146"/>
       <c r="N49" s="188"/>
       <c r="P49" s="112"/>
       <c r="Q49" s="134"/>
@@ -6565,77 +6141,31 @@
     <row customHeight="1" ht="24.95" r="50" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A50" s="169"/>
       <c r="B50" s="169"/>
-      <c r="D50" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="E50" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="F50" s="145" t="n">
-        <v>0.0010000000474974513</v>
-      </c>
-      <c r="G50" s="145" t="n">
-        <v>2.8000224781429502E-5</v>
-      </c>
-      <c r="H50" s="145" t="n">
-        <v>22.400179825143603</v>
-      </c>
-      <c r="I50" s="145" t="n">
-        <v>2.574733313234897E-5</v>
-      </c>
-      <c r="J50" s="145" t="s">
-        <v>171</v>
-      </c>
-      <c r="K50" s="145" t="s">
-        <v>171</v>
-      </c>
-      <c r="L50" s="145" t="s">
-        <v>171</v>
-      </c>
-      <c r="M50" s="146" t="s">
-        <v>171</v>
-      </c>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="145"/>
+      <c r="G50" s="145"/>
+      <c r="H50" s="145"/>
+      <c r="I50" s="145"/>
+      <c r="J50" s="145"/>
+      <c r="K50" s="145"/>
+      <c r="L50" s="145"/>
+      <c r="M50" s="146"/>
       <c r="N50" s="167"/>
       <c r="P50" s="112"/>
-      <c r="Q50" s="134" t="s">
-        <v>180</v>
-      </c>
-      <c r="R50" s="201" t="s">
-        <v>173</v>
-      </c>
-      <c r="S50" s="205" t="n">
-        <v>35000.0</v>
-      </c>
-      <c r="T50" s="205" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="U50" s="200" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="V50" s="200" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="W50" s="201" t="n">
-        <v>0.008620617911219597</v>
-      </c>
-      <c r="X50" s="200" t="n">
-        <v>2.873539303739866E-4</v>
-      </c>
-      <c r="Y50" s="200" t="n">
-        <v>7.183848356362432E-5</v>
-      </c>
-      <c r="Z50" s="200" t="n">
-        <v>0.004444444552063942</v>
-      </c>
-      <c r="AA50" s="200" t="n">
-        <v>1.481481594964862E-4</v>
-      </c>
-      <c r="AB50" s="202" t="n">
-        <v>3.703703987412155E-5</v>
-      </c>
-      <c r="AC50" s="281" t="s">
-        <v>174</v>
-      </c>
+      <c r="Q50" s="134"/>
+      <c r="R50" s="201"/>
+      <c r="S50" s="205"/>
+      <c r="T50" s="205"/>
+      <c r="U50" s="200"/>
+      <c r="V50" s="200"/>
+      <c r="W50" s="201"/>
+      <c r="X50" s="200"/>
+      <c r="Y50" s="200"/>
+      <c r="Z50" s="200"/>
+      <c r="AA50" s="200"/>
+      <c r="AB50" s="202"/>
+      <c r="AC50" s="203"/>
       <c r="AD50" s="39"/>
       <c r="AE50" s="42"/>
       <c r="AF50" s="42"/>
@@ -6654,74 +6184,30 @@
       <c r="A51" s="169"/>
       <c r="B51" s="169"/>
       <c r="D51" s="27"/>
-      <c r="E51" s="27" t="s">
-        <v>172</v>
-      </c>
-      <c r="F51" s="145" t="n">
-        <v>0.0010000000474974513</v>
-      </c>
-      <c r="G51" s="145" t="n">
-        <v>2.8000224781429502E-5</v>
-      </c>
-      <c r="H51" s="145" t="n">
-        <v>50.400404606573105</v>
-      </c>
-      <c r="I51" s="145" t="n">
-        <v>5.7931499547785175E-5</v>
-      </c>
-      <c r="J51" s="145" t="s">
-        <v>171</v>
-      </c>
-      <c r="K51" s="145" t="s">
-        <v>171</v>
-      </c>
-      <c r="L51" s="145" t="s">
-        <v>171</v>
-      </c>
-      <c r="M51" s="146" t="s">
-        <v>171</v>
-      </c>
+      <c r="E51" s="27"/>
+      <c r="F51" s="145"/>
+      <c r="G51" s="145"/>
+      <c r="H51" s="145"/>
+      <c r="I51" s="145"/>
+      <c r="J51" s="145"/>
+      <c r="K51" s="145"/>
+      <c r="L51" s="145"/>
+      <c r="M51" s="146"/>
       <c r="N51" s="167"/>
       <c r="P51" s="112"/>
-      <c r="Q51" s="134" t="s">
-        <v>180</v>
-      </c>
-      <c r="R51" s="201" t="s">
-        <v>175</v>
-      </c>
-      <c r="S51" s="205" t="n">
-        <v>25000.0</v>
-      </c>
-      <c r="T51" s="205" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="U51" s="200" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="V51" s="200" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="W51" s="201" t="n">
-        <v>0.008620617911219597</v>
-      </c>
-      <c r="X51" s="200" t="n">
-        <v>2.1551544778048993E-4</v>
-      </c>
-      <c r="Y51" s="200" t="n">
-        <v>1.7959621618501842E-4</v>
-      </c>
-      <c r="Z51" s="200" t="n">
-        <v>0.004444444552063942</v>
-      </c>
-      <c r="AA51" s="200" t="n">
-        <v>1.1111111234640703E-4</v>
-      </c>
-      <c r="AB51" s="202" t="n">
-        <v>9.259259968530387E-5</v>
-      </c>
-      <c r="AC51" s="282" t="s">
-        <v>174</v>
-      </c>
+      <c r="Q51" s="134"/>
+      <c r="R51" s="201"/>
+      <c r="S51" s="205"/>
+      <c r="T51" s="205"/>
+      <c r="U51" s="200"/>
+      <c r="V51" s="200"/>
+      <c r="W51" s="201"/>
+      <c r="X51" s="200"/>
+      <c r="Y51" s="200"/>
+      <c r="Z51" s="200"/>
+      <c r="AA51" s="200"/>
+      <c r="AB51" s="202"/>
+      <c r="AC51" s="204"/>
       <c r="AD51" s="58"/>
       <c r="AE51" s="42"/>
       <c r="AF51" s="42"/>
@@ -6739,77 +6225,31 @@
     <row customHeight="1" ht="24.95" r="52" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A52" s="169"/>
       <c r="B52" s="169"/>
-      <c r="D52" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="E52" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="F52" s="145" t="n">
-        <v>0.011428573168814182</v>
-      </c>
-      <c r="G52" s="145" t="n">
-        <v>3.200026024585031E-4</v>
-      </c>
-      <c r="H52" s="145" t="n">
-        <v>256.0020819668025</v>
-      </c>
-      <c r="I52" s="145" t="n">
-        <v>2.9425526662850865E-4</v>
-      </c>
-      <c r="J52" s="145" t="s">
-        <v>171</v>
-      </c>
-      <c r="K52" s="145" t="s">
-        <v>171</v>
-      </c>
-      <c r="L52" s="145" t="s">
-        <v>171</v>
-      </c>
-      <c r="M52" s="146" t="s">
-        <v>171</v>
-      </c>
+      <c r="D52" s="27"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="145"/>
+      <c r="G52" s="145"/>
+      <c r="H52" s="145"/>
+      <c r="I52" s="145"/>
+      <c r="J52" s="145"/>
+      <c r="K52" s="145"/>
+      <c r="L52" s="145"/>
+      <c r="M52" s="146"/>
       <c r="N52" s="167"/>
       <c r="P52" s="112"/>
-      <c r="Q52" s="134" t="s">
-        <v>180</v>
-      </c>
-      <c r="R52" s="201" t="s">
-        <v>176</v>
-      </c>
-      <c r="S52" s="205" t="n">
-        <v>75000.0</v>
-      </c>
-      <c r="T52" s="205" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="U52" s="200" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="V52" s="200" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="W52" s="201" t="n">
-        <v>0.008620617911219597</v>
-      </c>
-      <c r="X52" s="201" t="n">
-        <v>8.620617911219596E-5</v>
-      </c>
-      <c r="Y52" s="201" t="n">
-        <v>3.591924032662064E-4</v>
-      </c>
-      <c r="Z52" s="201" t="n">
-        <v>0.004444444552063942</v>
-      </c>
-      <c r="AA52" s="201" t="n">
-        <v>4.444444493856281E-5</v>
-      </c>
-      <c r="AB52" s="206" t="n">
-        <v>1.8518519937060773E-4</v>
-      </c>
-      <c r="AC52" s="283" t="s">
-        <v>174</v>
-      </c>
+      <c r="Q52" s="134"/>
+      <c r="R52" s="201"/>
+      <c r="S52" s="205"/>
+      <c r="T52" s="205"/>
+      <c r="U52" s="200"/>
+      <c r="V52" s="200"/>
+      <c r="W52" s="201"/>
+      <c r="X52" s="201"/>
+      <c r="Y52" s="201"/>
+      <c r="Z52" s="201"/>
+      <c r="AA52" s="201"/>
+      <c r="AB52" s="206"/>
+      <c r="AC52" s="203"/>
       <c r="AD52" s="16"/>
       <c r="AE52" s="29"/>
       <c r="AF52" s="29"/>
@@ -6828,74 +6268,30 @@
       <c r="A53" s="169"/>
       <c r="B53" s="169"/>
       <c r="D53" s="27"/>
-      <c r="E53" s="27" t="s">
-        <v>172</v>
-      </c>
-      <c r="F53" s="145" t="n">
-        <v>0.011428573168814182</v>
-      </c>
-      <c r="G53" s="145" t="n">
-        <v>3.200026024585031E-4</v>
-      </c>
-      <c r="H53" s="145" t="n">
-        <v>576.0046844253056</v>
-      </c>
-      <c r="I53" s="145" t="n">
-        <v>6.620743499141444E-4</v>
-      </c>
-      <c r="J53" s="145" t="s">
-        <v>171</v>
-      </c>
-      <c r="K53" s="145" t="s">
-        <v>171</v>
-      </c>
-      <c r="L53" s="145" t="s">
-        <v>171</v>
-      </c>
-      <c r="M53" s="147" t="s">
-        <v>171</v>
-      </c>
+      <c r="E53" s="27"/>
+      <c r="F53" s="145"/>
+      <c r="G53" s="145"/>
+      <c r="H53" s="145"/>
+      <c r="I53" s="145"/>
+      <c r="J53" s="145"/>
+      <c r="K53" s="145"/>
+      <c r="L53" s="145"/>
+      <c r="M53" s="147"/>
       <c r="N53" s="189"/>
       <c r="P53" s="112"/>
-      <c r="Q53" s="134" t="s">
-        <v>180</v>
-      </c>
-      <c r="R53" s="201" t="s">
-        <v>130</v>
-      </c>
-      <c r="S53" s="205" t="n">
-        <v>55000.0</v>
-      </c>
-      <c r="T53" s="205" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="U53" s="200" t="n">
-        <v>120.0</v>
-      </c>
-      <c r="V53" s="200" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="W53" s="201" t="n">
-        <v>0.010057387873530388</v>
-      </c>
-      <c r="X53" s="201" t="n">
-        <v>8.381156561275324E-5</v>
-      </c>
-      <c r="Y53" s="201" t="n">
-        <v>7.90223348303698E-5</v>
-      </c>
-      <c r="Z53" s="201" t="n">
-        <v>0.005185185465961695</v>
-      </c>
-      <c r="AA53" s="201" t="n">
-        <v>4.32098786404822E-5</v>
-      </c>
-      <c r="AB53" s="206" t="n">
-        <v>4.074074240634218E-5</v>
-      </c>
-      <c r="AC53" s="284" t="s">
-        <v>174</v>
-      </c>
+      <c r="Q53" s="134"/>
+      <c r="R53" s="201"/>
+      <c r="S53" s="205"/>
+      <c r="T53" s="205"/>
+      <c r="U53" s="200"/>
+      <c r="V53" s="200"/>
+      <c r="W53" s="201"/>
+      <c r="X53" s="201"/>
+      <c r="Y53" s="201"/>
+      <c r="Z53" s="201"/>
+      <c r="AA53" s="201"/>
+      <c r="AB53" s="206"/>
+      <c r="AC53" s="203"/>
       <c r="AD53" s="16"/>
       <c r="AE53" s="29"/>
       <c r="AF53" s="29"/>
@@ -6913,77 +6309,31 @@
     <row customHeight="1" ht="24.95" r="54" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A54" s="169"/>
       <c r="B54" s="169"/>
-      <c r="D54" s="27" t="s">
-        <v>186</v>
-      </c>
-      <c r="E54" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="F54" s="145" t="n">
-        <v>0.0010000000474974513</v>
-      </c>
-      <c r="G54" s="145" t="n">
-        <v>2.8000224781429502E-5</v>
-      </c>
-      <c r="H54" s="145" t="n">
-        <v>22.400179825143603</v>
-      </c>
-      <c r="I54" s="145" t="n">
-        <v>2.574733313234897E-5</v>
-      </c>
-      <c r="J54" s="145" t="s">
-        <v>171</v>
-      </c>
-      <c r="K54" s="145" t="s">
-        <v>171</v>
-      </c>
-      <c r="L54" s="145" t="s">
-        <v>171</v>
-      </c>
-      <c r="M54" s="146" t="s">
-        <v>171</v>
-      </c>
+      <c r="D54" s="27"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="145"/>
+      <c r="G54" s="145"/>
+      <c r="H54" s="145"/>
+      <c r="I54" s="145"/>
+      <c r="J54" s="145"/>
+      <c r="K54" s="145"/>
+      <c r="L54" s="145"/>
+      <c r="M54" s="146"/>
       <c r="N54" s="167"/>
       <c r="P54" s="112"/>
-      <c r="Q54" s="134" t="s">
-        <v>180</v>
-      </c>
-      <c r="R54" s="201" t="s">
-        <v>177</v>
-      </c>
-      <c r="S54" s="205" t="n">
-        <v>100000.0</v>
-      </c>
-      <c r="T54" s="205" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="U54" s="201" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="V54" s="201" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="W54" s="201" t="n">
-        <v>0.0028735394589602947</v>
-      </c>
-      <c r="X54" s="201" t="n">
-        <v>5.7470789179205895E-5</v>
-      </c>
-      <c r="Y54" s="201" t="n">
-        <v>4.789232334587723E-4</v>
-      </c>
-      <c r="Z54" s="201" t="n">
-        <v>0.0014814815949648619</v>
-      </c>
-      <c r="AA54" s="201" t="n">
-        <v>2.9629631171701476E-5</v>
-      </c>
-      <c r="AB54" s="206" t="n">
-        <v>2.469135797582567E-4</v>
-      </c>
-      <c r="AC54" s="285" t="s">
-        <v>174</v>
-      </c>
+      <c r="Q54" s="134"/>
+      <c r="R54" s="201"/>
+      <c r="S54" s="205"/>
+      <c r="T54" s="205"/>
+      <c r="U54" s="201"/>
+      <c r="V54" s="201"/>
+      <c r="W54" s="201"/>
+      <c r="X54" s="201"/>
+      <c r="Y54" s="201"/>
+      <c r="Z54" s="201"/>
+      <c r="AA54" s="201"/>
+      <c r="AB54" s="206"/>
+      <c r="AC54" s="203"/>
       <c r="AD54" s="16"/>
       <c r="AE54" s="29"/>
       <c r="AF54" s="29"/>
@@ -7002,74 +6352,30 @@
       <c r="A55" s="169"/>
       <c r="B55" s="169"/>
       <c r="D55" s="27"/>
-      <c r="E55" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="F55" s="145" t="n">
-        <v>0.0010000000474974513</v>
-      </c>
-      <c r="G55" s="145" t="n">
-        <v>1.9444283009245046E-5</v>
-      </c>
-      <c r="H55" s="145" t="n">
-        <v>34.99970941664108</v>
-      </c>
-      <c r="I55" s="145" t="n">
-        <v>4.022955105361044E-5</v>
-      </c>
-      <c r="J55" s="145" t="s">
-        <v>171</v>
-      </c>
-      <c r="K55" s="145" t="s">
-        <v>171</v>
-      </c>
-      <c r="L55" s="145" t="s">
-        <v>171</v>
-      </c>
-      <c r="M55" s="146" t="s">
-        <v>171</v>
-      </c>
+      <c r="E55" s="27"/>
+      <c r="F55" s="145"/>
+      <c r="G55" s="145"/>
+      <c r="H55" s="145"/>
+      <c r="I55" s="145"/>
+      <c r="J55" s="145"/>
+      <c r="K55" s="145"/>
+      <c r="L55" s="145"/>
+      <c r="M55" s="146"/>
       <c r="N55" s="167"/>
       <c r="P55" s="112"/>
-      <c r="Q55" s="134" t="s">
-        <v>180</v>
-      </c>
-      <c r="R55" s="201" t="s">
-        <v>178</v>
-      </c>
-      <c r="S55" s="205" t="n">
-        <v>15000.0</v>
-      </c>
-      <c r="T55" s="205" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="U55" s="201" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="V55" s="201" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="W55" s="201" t="n">
-        <v>0.004310308955609798</v>
-      </c>
-      <c r="X55" s="201" t="n">
-        <v>1.0775772389024497E-4</v>
-      </c>
-      <c r="Y55" s="201" t="n">
-        <v>5.387886267271824E-5</v>
-      </c>
-      <c r="Z55" s="201" t="n">
-        <v>0.002222222276031971</v>
-      </c>
-      <c r="AA55" s="201" t="n">
-        <v>5.555555617320351E-5</v>
-      </c>
-      <c r="AB55" s="206" t="n">
-        <v>2.7777778086601757E-5</v>
-      </c>
-      <c r="AC55" s="286" t="s">
-        <v>174</v>
-      </c>
+      <c r="Q55" s="134"/>
+      <c r="R55" s="201"/>
+      <c r="S55" s="205"/>
+      <c r="T55" s="205"/>
+      <c r="U55" s="201"/>
+      <c r="V55" s="201"/>
+      <c r="W55" s="201"/>
+      <c r="X55" s="201"/>
+      <c r="Y55" s="201"/>
+      <c r="Z55" s="201"/>
+      <c r="AA55" s="201"/>
+      <c r="AB55" s="206"/>
+      <c r="AC55" s="203"/>
       <c r="AD55" s="16"/>
       <c r="AE55" s="29"/>
       <c r="AF55" s="29"/>
@@ -7087,77 +6393,31 @@
     <row customHeight="1" ht="24.95" r="56" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A56" s="169"/>
       <c r="B56" s="169"/>
-      <c r="D56" s="27" t="s">
-        <v>188</v>
-      </c>
-      <c r="E56" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="F56" s="145" t="n">
-        <v>0.0021428572945296764</v>
-      </c>
-      <c r="G56" s="145" t="n">
-        <v>6.00004830714868E-5</v>
-      </c>
-      <c r="H56" s="145" t="n">
-        <v>48.000386457189435</v>
-      </c>
-      <c r="I56" s="145" t="n">
-        <v>5.5172857996769464E-5</v>
-      </c>
-      <c r="J56" s="145" t="s">
-        <v>171</v>
-      </c>
-      <c r="K56" s="145" t="s">
-        <v>171</v>
-      </c>
-      <c r="L56" s="145" t="s">
-        <v>171</v>
-      </c>
-      <c r="M56" s="146" t="s">
-        <v>171</v>
-      </c>
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="145"/>
+      <c r="G56" s="145"/>
+      <c r="H56" s="145"/>
+      <c r="I56" s="145"/>
+      <c r="J56" s="145"/>
+      <c r="K56" s="145"/>
+      <c r="L56" s="145"/>
+      <c r="M56" s="146"/>
       <c r="N56" s="190"/>
       <c r="P56" s="112"/>
-      <c r="Q56" s="134" t="s">
-        <v>180</v>
-      </c>
-      <c r="R56" s="201" t="s">
-        <v>179</v>
-      </c>
-      <c r="S56" s="205" t="n">
-        <v>300000.0</v>
-      </c>
-      <c r="T56" s="205" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="U56" s="201" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="V56" s="201" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="W56" s="201" t="n">
-        <v>0.008620617911219597</v>
-      </c>
-      <c r="X56" s="201" t="n">
-        <v>2.1551544778048993E-4</v>
-      </c>
-      <c r="Y56" s="201" t="n">
-        <v>0.002155154477804899</v>
-      </c>
-      <c r="Z56" s="201" t="n">
-        <v>0.004444444552063942</v>
-      </c>
-      <c r="AA56" s="201" t="n">
-        <v>1.1111111234640703E-4</v>
-      </c>
-      <c r="AB56" s="206" t="n">
-        <v>0.0011111111380159855</v>
-      </c>
-      <c r="AC56" s="287" t="s">
-        <v>174</v>
-      </c>
+      <c r="Q56" s="134"/>
+      <c r="R56" s="201"/>
+      <c r="S56" s="205"/>
+      <c r="T56" s="205"/>
+      <c r="U56" s="201"/>
+      <c r="V56" s="201"/>
+      <c r="W56" s="201"/>
+      <c r="X56" s="201"/>
+      <c r="Y56" s="201"/>
+      <c r="Z56" s="201"/>
+      <c r="AA56" s="201"/>
+      <c r="AB56" s="206"/>
+      <c r="AC56" s="204"/>
       <c r="AD56" s="16"/>
       <c r="AE56" s="29"/>
       <c r="AF56" s="29"/>
@@ -7176,33 +6436,15 @@
       <c r="A57" s="169"/>
       <c r="B57" s="169"/>
       <c r="D57" s="27"/>
-      <c r="E57" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="F57" s="132" t="n">
-        <v>0.0021428572945296764</v>
-      </c>
-      <c r="G57" s="132" t="n">
-        <v>4.1666321704216106E-5</v>
-      </c>
-      <c r="H57" s="132" t="n">
-        <v>74.99937906758899</v>
-      </c>
-      <c r="I57" s="132" t="n">
-        <v>8.620618283630918E-5</v>
-      </c>
-      <c r="J57" s="133" t="s">
-        <v>171</v>
-      </c>
-      <c r="K57" s="132" t="s">
-        <v>171</v>
-      </c>
-      <c r="L57" s="132" t="s">
-        <v>171</v>
-      </c>
-      <c r="M57" s="145" t="s">
-        <v>171</v>
-      </c>
+      <c r="E57" s="27"/>
+      <c r="F57" s="132"/>
+      <c r="G57" s="132"/>
+      <c r="H57" s="132"/>
+      <c r="I57" s="132"/>
+      <c r="J57" s="133"/>
+      <c r="K57" s="132"/>
+      <c r="L57" s="132"/>
+      <c r="M57" s="145"/>
       <c r="N57" s="168"/>
       <c r="P57" s="112"/>
       <c r="Q57" s="134"/>
@@ -7247,45 +6489,19 @@
       <c r="M58" s="145"/>
       <c r="N58" s="168"/>
       <c r="P58" s="112"/>
-      <c r="Q58" s="134" t="s">
-        <v>181</v>
-      </c>
-      <c r="R58" s="201" t="s">
-        <v>173</v>
-      </c>
-      <c r="S58" s="205" t="n">
-        <v>35000.0</v>
-      </c>
-      <c r="T58" s="205" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="U58" s="201" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="V58" s="201" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="W58" s="201" t="n">
-        <v>0.02344808168709278</v>
-      </c>
-      <c r="X58" s="201" t="n">
-        <v>7.816027229030927E-4</v>
-      </c>
-      <c r="Y58" s="201" t="n">
-        <v>1.9540068751666695E-4</v>
-      </c>
-      <c r="Z58" s="201" t="n">
-        <v>0.012088890187442303</v>
-      </c>
-      <c r="AA58" s="201" t="n">
-        <v>4.029629926662892E-4</v>
-      </c>
-      <c r="AB58" s="206" t="n">
-        <v>1.007407481665723E-4</v>
-      </c>
-      <c r="AC58" s="288" t="s">
-        <v>174</v>
-      </c>
+      <c r="Q58" s="134"/>
+      <c r="R58" s="201"/>
+      <c r="S58" s="205"/>
+      <c r="T58" s="205"/>
+      <c r="U58" s="201"/>
+      <c r="V58" s="201"/>
+      <c r="W58" s="201"/>
+      <c r="X58" s="201"/>
+      <c r="Y58" s="201"/>
+      <c r="Z58" s="201"/>
+      <c r="AA58" s="201"/>
+      <c r="AB58" s="206"/>
+      <c r="AC58" s="203"/>
       <c r="AD58" s="16"/>
       <c r="AE58" s="29"/>
       <c r="AF58" s="29"/>
@@ -7315,45 +6531,19 @@
       <c r="M59" s="145"/>
       <c r="N59" s="132"/>
       <c r="P59" s="112"/>
-      <c r="Q59" s="134" t="s">
-        <v>181</v>
-      </c>
-      <c r="R59" s="201" t="s">
-        <v>175</v>
-      </c>
-      <c r="S59" s="205" t="n">
-        <v>25000.0</v>
-      </c>
-      <c r="T59" s="205" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="U59" s="201" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="V59" s="201" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="W59" s="201" t="n">
-        <v>0.02344808168709278</v>
-      </c>
-      <c r="X59" s="201" t="n">
-        <v>5.862020421773195E-4</v>
-      </c>
-      <c r="Y59" s="201" t="n">
-        <v>4.885017406195402E-4</v>
-      </c>
-      <c r="Z59" s="201" t="n">
-        <v>0.012088890187442303</v>
-      </c>
-      <c r="AA59" s="201" t="n">
-        <v>3.022222372237593E-4</v>
-      </c>
-      <c r="AB59" s="206" t="n">
-        <v>2.5185185950249434E-4</v>
-      </c>
-      <c r="AC59" s="289" t="s">
-        <v>174</v>
-      </c>
+      <c r="Q59" s="134"/>
+      <c r="R59" s="201"/>
+      <c r="S59" s="205"/>
+      <c r="T59" s="205"/>
+      <c r="U59" s="201"/>
+      <c r="V59" s="201"/>
+      <c r="W59" s="201"/>
+      <c r="X59" s="201"/>
+      <c r="Y59" s="201"/>
+      <c r="Z59" s="201"/>
+      <c r="AA59" s="201"/>
+      <c r="AB59" s="206"/>
+      <c r="AC59" s="203"/>
       <c r="AD59" s="16"/>
       <c r="AE59" s="29"/>
       <c r="AF59" s="29"/>
@@ -7383,45 +6573,19 @@
       <c r="M60" s="145"/>
       <c r="N60" s="132"/>
       <c r="P60" s="112"/>
-      <c r="Q60" s="134" t="s">
-        <v>181</v>
-      </c>
-      <c r="R60" s="201" t="s">
-        <v>176</v>
-      </c>
-      <c r="S60" s="205" t="n">
-        <v>75000.0</v>
-      </c>
-      <c r="T60" s="205" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="U60" s="201" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="V60" s="201" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="W60" s="201" t="n">
-        <v>0.02344808168709278</v>
-      </c>
-      <c r="X60" s="201" t="n">
-        <v>2.344808168709278E-4</v>
-      </c>
-      <c r="Y60" s="201" t="n">
-        <v>9.770033648237586E-4</v>
-      </c>
-      <c r="Z60" s="201" t="n">
-        <v>0.012088890187442303</v>
-      </c>
-      <c r="AA60" s="201" t="n">
-        <v>1.2088890071026981E-4</v>
-      </c>
-      <c r="AB60" s="206" t="n">
-        <v>5.037037190049887E-4</v>
-      </c>
-      <c r="AC60" s="290" t="s">
-        <v>174</v>
-      </c>
+      <c r="Q60" s="134"/>
+      <c r="R60" s="201"/>
+      <c r="S60" s="205"/>
+      <c r="T60" s="205"/>
+      <c r="U60" s="201"/>
+      <c r="V60" s="201"/>
+      <c r="W60" s="201"/>
+      <c r="X60" s="201"/>
+      <c r="Y60" s="201"/>
+      <c r="Z60" s="201"/>
+      <c r="AA60" s="201"/>
+      <c r="AB60" s="206"/>
+      <c r="AC60" s="204"/>
       <c r="AD60" s="16"/>
       <c r="AE60" s="29"/>
       <c r="AF60" s="29"/>
@@ -7449,45 +6613,19 @@
       <c r="M61" s="145"/>
       <c r="N61" s="132"/>
       <c r="P61" s="112"/>
-      <c r="Q61" s="134" t="s">
-        <v>181</v>
-      </c>
-      <c r="R61" s="201" t="s">
-        <v>130</v>
-      </c>
-      <c r="S61" s="205" t="n">
-        <v>55000.0</v>
-      </c>
-      <c r="T61" s="205" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="U61" s="201" t="n">
-        <v>120.0</v>
-      </c>
-      <c r="V61" s="201" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="W61" s="201" t="n">
-        <v>0.027356095612049103</v>
-      </c>
-      <c r="X61" s="201" t="n">
-        <v>2.2796746343374253E-4</v>
-      </c>
-      <c r="Y61" s="201" t="n">
-        <v>2.1494075190275908E-4</v>
-      </c>
-      <c r="Z61" s="201" t="n">
-        <v>0.014103705063462257</v>
-      </c>
-      <c r="AA61" s="201" t="n">
-        <v>1.1753087164834142E-4</v>
-      </c>
-      <c r="AB61" s="207" t="n">
-        <v>1.1081482080044225E-4</v>
-      </c>
-      <c r="AC61" s="291" t="s">
-        <v>174</v>
-      </c>
+      <c r="Q61" s="134"/>
+      <c r="R61" s="201"/>
+      <c r="S61" s="205"/>
+      <c r="T61" s="205"/>
+      <c r="U61" s="201"/>
+      <c r="V61" s="201"/>
+      <c r="W61" s="201"/>
+      <c r="X61" s="201"/>
+      <c r="Y61" s="201"/>
+      <c r="Z61" s="201"/>
+      <c r="AA61" s="201"/>
+      <c r="AB61" s="207"/>
+      <c r="AC61" s="203"/>
       <c r="AD61" s="16"/>
       <c r="AE61" s="29"/>
       <c r="AF61" s="29"/>
@@ -7515,45 +6653,19 @@
       <c r="M62" s="132"/>
       <c r="N62" s="132"/>
       <c r="P62" s="112"/>
-      <c r="Q62" s="134" t="s">
-        <v>181</v>
-      </c>
-      <c r="R62" s="201" t="s">
-        <v>177</v>
-      </c>
-      <c r="S62" s="205" t="n">
-        <v>100000.0</v>
-      </c>
-      <c r="T62" s="205" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="U62" s="201" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="V62" s="201" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="W62" s="201" t="n">
-        <v>0.007816027849912643</v>
-      </c>
-      <c r="X62" s="201" t="n">
-        <v>1.5632055699825288E-4</v>
-      </c>
-      <c r="Y62" s="201" t="n">
-        <v>0.0013026712695136666</v>
-      </c>
-      <c r="Z62" s="201" t="n">
-        <v>0.004029629752039909</v>
-      </c>
-      <c r="AA62" s="201" t="n">
-        <v>8.05925956228748E-5</v>
-      </c>
-      <c r="AB62" s="207" t="n">
-        <v>6.716049974784255E-4</v>
-      </c>
-      <c r="AC62" s="292" t="s">
-        <v>174</v>
-      </c>
+      <c r="Q62" s="134"/>
+      <c r="R62" s="201"/>
+      <c r="S62" s="205"/>
+      <c r="T62" s="205"/>
+      <c r="U62" s="201"/>
+      <c r="V62" s="201"/>
+      <c r="W62" s="201"/>
+      <c r="X62" s="201"/>
+      <c r="Y62" s="201"/>
+      <c r="Z62" s="201"/>
+      <c r="AA62" s="201"/>
+      <c r="AB62" s="207"/>
+      <c r="AC62" s="203"/>
       <c r="AD62" s="16"/>
       <c r="AE62" s="29"/>
       <c r="AF62" s="29"/>
@@ -7581,45 +6693,19 @@
       <c r="M63" s="132"/>
       <c r="N63" s="132"/>
       <c r="P63" s="112"/>
-      <c r="Q63" s="134" t="s">
-        <v>181</v>
-      </c>
-      <c r="R63" s="201" t="s">
-        <v>178</v>
-      </c>
-      <c r="S63" s="205" t="n">
-        <v>15000.0</v>
-      </c>
-      <c r="T63" s="205" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="U63" s="201" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="V63" s="201" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="W63" s="201" t="n">
-        <v>0.01172404084354639</v>
-      </c>
-      <c r="X63" s="201" t="n">
-        <v>2.931010210886598E-4</v>
-      </c>
-      <c r="Y63" s="201" t="n">
-        <v>1.4655051927547902E-4</v>
-      </c>
-      <c r="Z63" s="201" t="n">
-        <v>0.006044445093721151</v>
-      </c>
-      <c r="AA63" s="201" t="n">
-        <v>1.5111111861187965E-4</v>
-      </c>
-      <c r="AB63" s="207" t="n">
-        <v>7.555555930593982E-5</v>
-      </c>
-      <c r="AC63" s="293" t="s">
-        <v>174</v>
-      </c>
+      <c r="Q63" s="134"/>
+      <c r="R63" s="201"/>
+      <c r="S63" s="205"/>
+      <c r="T63" s="205"/>
+      <c r="U63" s="201"/>
+      <c r="V63" s="201"/>
+      <c r="W63" s="201"/>
+      <c r="X63" s="201"/>
+      <c r="Y63" s="201"/>
+      <c r="Z63" s="201"/>
+      <c r="AA63" s="201"/>
+      <c r="AB63" s="207"/>
+      <c r="AC63" s="203"/>
       <c r="AD63" s="16"/>
       <c r="AE63" s="29"/>
       <c r="AF63" s="29"/>
@@ -7647,45 +6733,19 @@
       <c r="M64" s="132"/>
       <c r="N64" s="132"/>
       <c r="P64" s="112"/>
-      <c r="Q64" s="63" t="s">
-        <v>181</v>
-      </c>
-      <c r="R64" s="201" t="s">
-        <v>179</v>
-      </c>
-      <c r="S64" s="208" t="n">
-        <v>300000.0</v>
-      </c>
-      <c r="T64" s="208" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="U64" s="201" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="V64" s="201" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="W64" s="201" t="n">
-        <v>0.02344808168709278</v>
-      </c>
-      <c r="X64" s="201" t="n">
-        <v>5.862020421773195E-4</v>
-      </c>
-      <c r="Y64" s="201" t="n">
-        <v>0.005862020421773195</v>
-      </c>
-      <c r="Z64" s="201" t="n">
-        <v>0.012088890187442303</v>
-      </c>
-      <c r="AA64" s="201" t="n">
-        <v>3.022222372237593E-4</v>
-      </c>
-      <c r="AB64" s="207" t="n">
-        <v>0.0030222225468605757</v>
-      </c>
-      <c r="AC64" s="294" t="s">
-        <v>174</v>
-      </c>
+      <c r="Q64" s="63"/>
+      <c r="R64" s="201"/>
+      <c r="S64" s="208"/>
+      <c r="T64" s="208"/>
+      <c r="U64" s="201"/>
+      <c r="V64" s="201"/>
+      <c r="W64" s="201"/>
+      <c r="X64" s="201"/>
+      <c r="Y64" s="201"/>
+      <c r="Z64" s="201"/>
+      <c r="AA64" s="201"/>
+      <c r="AB64" s="207"/>
+      <c r="AC64" s="209"/>
       <c r="AD64" s="16"/>
       <c r="AE64" s="29"/>
       <c r="AF64" s="29"/>
@@ -7750,45 +6810,19 @@
       <c r="M66" s="132"/>
       <c r="N66" s="132"/>
       <c r="P66" s="112"/>
-      <c r="Q66" s="63" t="s">
-        <v>182</v>
-      </c>
-      <c r="R66" s="201" t="s">
-        <v>173</v>
-      </c>
-      <c r="S66" s="208" t="n">
-        <v>35000.0</v>
-      </c>
-      <c r="T66" s="208" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="U66" s="201" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="V66" s="201" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="W66" s="201" t="n">
-        <v>0.05172371119260788</v>
-      </c>
-      <c r="X66" s="201" t="n">
-        <v>0.0017241237064202627</v>
-      </c>
-      <c r="Y66" s="201" t="n">
-        <v>4.310309304855764E-4</v>
-      </c>
-      <c r="Z66" s="201" t="n">
-        <v>0.0266666691750288</v>
-      </c>
-      <c r="AA66" s="201" t="n">
-        <v>8.888889569789171E-4</v>
-      </c>
-      <c r="AB66" s="207" t="n">
-        <v>2.2222223924472928E-4</v>
-      </c>
-      <c r="AC66" s="295" t="s">
-        <v>174</v>
-      </c>
+      <c r="Q66" s="63"/>
+      <c r="R66" s="201"/>
+      <c r="S66" s="208"/>
+      <c r="T66" s="208"/>
+      <c r="U66" s="201"/>
+      <c r="V66" s="201"/>
+      <c r="W66" s="201"/>
+      <c r="X66" s="201"/>
+      <c r="Y66" s="201"/>
+      <c r="Z66" s="201"/>
+      <c r="AA66" s="201"/>
+      <c r="AB66" s="207"/>
+      <c r="AC66" s="209"/>
       <c r="AE66" s="29"/>
       <c r="AF66" s="29"/>
       <c r="AG66" s="42"/>
@@ -7813,45 +6847,19 @@
       <c r="M67" s="132"/>
       <c r="N67" s="132"/>
       <c r="P67" s="112"/>
-      <c r="Q67" s="63" t="s">
-        <v>182</v>
-      </c>
-      <c r="R67" s="201" t="s">
-        <v>175</v>
-      </c>
-      <c r="S67" s="208" t="n">
-        <v>25000.0</v>
-      </c>
-      <c r="T67" s="208" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="U67" s="201" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="V67" s="201" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="W67" s="201" t="n">
-        <v>0.05172371119260788</v>
-      </c>
-      <c r="X67" s="201" t="n">
-        <v>0.001293092779815197</v>
-      </c>
-      <c r="Y67" s="201" t="n">
-        <v>0.0010775773553177714</v>
-      </c>
-      <c r="Z67" s="201" t="n">
-        <v>0.0266666691750288</v>
-      </c>
-      <c r="AA67" s="201" t="n">
-        <v>6.666667177341878E-4</v>
-      </c>
-      <c r="AB67" s="207" t="n">
-        <v>5.555556272156537E-4</v>
-      </c>
-      <c r="AC67" s="296" t="s">
-        <v>174</v>
-      </c>
+      <c r="Q67" s="63"/>
+      <c r="R67" s="201"/>
+      <c r="S67" s="208"/>
+      <c r="T67" s="208"/>
+      <c r="U67" s="201"/>
+      <c r="V67" s="201"/>
+      <c r="W67" s="201"/>
+      <c r="X67" s="201"/>
+      <c r="Y67" s="201"/>
+      <c r="Z67" s="201"/>
+      <c r="AA67" s="201"/>
+      <c r="AB67" s="207"/>
+      <c r="AC67" s="209"/>
       <c r="AE67" s="29"/>
       <c r="AF67" s="29"/>
       <c r="AG67" s="42"/>
@@ -7876,45 +6884,19 @@
       <c r="M68" s="132"/>
       <c r="N68" s="132"/>
       <c r="P68" s="112"/>
-      <c r="Q68" s="63" t="s">
-        <v>182</v>
-      </c>
-      <c r="R68" s="201" t="s">
-        <v>176</v>
-      </c>
-      <c r="S68" s="208" t="n">
-        <v>75000.0</v>
-      </c>
-      <c r="T68" s="208" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="U68" s="201" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="V68" s="201" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="W68" s="201" t="n">
-        <v>0.05172371119260788</v>
-      </c>
-      <c r="X68" s="201" t="n">
-        <v>5.172371119260788E-4</v>
-      </c>
-      <c r="Y68" s="201" t="n">
-        <v>0.002155154710635543</v>
-      </c>
-      <c r="Z68" s="201" t="n">
-        <v>0.0266666691750288</v>
-      </c>
-      <c r="AA68" s="201" t="n">
-        <v>2.666666987352073E-4</v>
-      </c>
-      <c r="AB68" s="207" t="n">
-        <v>0.0011111112544313073</v>
-      </c>
-      <c r="AC68" s="297" t="s">
-        <v>174</v>
-      </c>
+      <c r="Q68" s="63"/>
+      <c r="R68" s="201"/>
+      <c r="S68" s="208"/>
+      <c r="T68" s="208"/>
+      <c r="U68" s="201"/>
+      <c r="V68" s="201"/>
+      <c r="W68" s="201"/>
+      <c r="X68" s="201"/>
+      <c r="Y68" s="201"/>
+      <c r="Z68" s="201"/>
+      <c r="AA68" s="201"/>
+      <c r="AB68" s="207"/>
+      <c r="AC68" s="209"/>
       <c r="AE68" s="29"/>
       <c r="AF68" s="29"/>
       <c r="AG68" s="42"/>
@@ -7939,45 +6921,19 @@
       <c r="M69" s="132"/>
       <c r="N69" s="132"/>
       <c r="P69" s="112"/>
-      <c r="Q69" s="63" t="s">
-        <v>182</v>
-      </c>
-      <c r="R69" s="201" t="s">
-        <v>130</v>
-      </c>
-      <c r="S69" s="208" t="n">
-        <v>55000.0</v>
-      </c>
-      <c r="T69" s="208" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="U69" s="201" t="n">
-        <v>120.0</v>
-      </c>
-      <c r="V69" s="201" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="W69" s="201" t="n">
-        <v>0.060344330966472626</v>
-      </c>
-      <c r="X69" s="201" t="n">
-        <v>5.028694247206052E-4</v>
-      </c>
-      <c r="Y69" s="201" t="n">
-        <v>4.7413402353413403E-4</v>
-      </c>
-      <c r="Z69" s="201" t="n">
-        <v>0.031111113727092743</v>
-      </c>
-      <c r="AA69" s="201" t="n">
-        <v>2.5925927911885083E-4</v>
-      </c>
-      <c r="AB69" s="207" t="n">
-        <v>2.444444689899683E-4</v>
-      </c>
-      <c r="AC69" s="298" t="s">
-        <v>174</v>
-      </c>
+      <c r="Q69" s="63"/>
+      <c r="R69" s="201"/>
+      <c r="S69" s="208"/>
+      <c r="T69" s="208"/>
+      <c r="U69" s="201"/>
+      <c r="V69" s="201"/>
+      <c r="W69" s="201"/>
+      <c r="X69" s="201"/>
+      <c r="Y69" s="201"/>
+      <c r="Z69" s="201"/>
+      <c r="AA69" s="201"/>
+      <c r="AB69" s="207"/>
+      <c r="AC69" s="209"/>
       <c r="AE69" s="29"/>
       <c r="AF69" s="29"/>
       <c r="AG69" s="42"/>
@@ -8002,45 +6958,19 @@
       <c r="M70" s="132"/>
       <c r="N70" s="132"/>
       <c r="P70" s="112"/>
-      <c r="Q70" s="63" t="s">
-        <v>182</v>
-      </c>
-      <c r="R70" s="201" t="s">
-        <v>177</v>
-      </c>
-      <c r="S70" s="208" t="n">
-        <v>100000.0</v>
-      </c>
-      <c r="T70" s="208" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="U70" s="201" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="V70" s="201" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="W70" s="201" t="n">
-        <v>0.017241237685084343</v>
-      </c>
-      <c r="X70" s="201" t="n">
-        <v>3.4482475370168687E-4</v>
-      </c>
-      <c r="Y70" s="201" t="n">
-        <v>0.0028735394589602947</v>
-      </c>
-      <c r="Z70" s="201" t="n">
-        <v>0.008888890035450459</v>
-      </c>
-      <c r="AA70" s="201" t="n">
-        <v>1.7777779430616647E-4</v>
-      </c>
-      <c r="AB70" s="207" t="n">
-        <v>0.0014814815949648619</v>
-      </c>
-      <c r="AC70" s="299" t="s">
-        <v>174</v>
-      </c>
+      <c r="Q70" s="63"/>
+      <c r="R70" s="201"/>
+      <c r="S70" s="208"/>
+      <c r="T70" s="208"/>
+      <c r="U70" s="201"/>
+      <c r="V70" s="201"/>
+      <c r="W70" s="201"/>
+      <c r="X70" s="201"/>
+      <c r="Y70" s="201"/>
+      <c r="Z70" s="201"/>
+      <c r="AA70" s="201"/>
+      <c r="AB70" s="207"/>
+      <c r="AC70" s="209"/>
       <c r="AE70" s="29"/>
       <c r="AF70" s="29"/>
       <c r="AG70" s="42"/>
@@ -8065,45 +6995,19 @@
       <c r="M71" s="132"/>
       <c r="N71" s="132"/>
       <c r="P71" s="112"/>
-      <c r="Q71" s="63" t="s">
-        <v>182</v>
-      </c>
-      <c r="R71" s="201" t="s">
-        <v>178</v>
-      </c>
-      <c r="S71" s="208" t="n">
-        <v>15000.0</v>
-      </c>
-      <c r="T71" s="208" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="U71" s="201" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="V71" s="201" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="W71" s="201" t="n">
-        <v>0.02586185559630394</v>
-      </c>
-      <c r="X71" s="201" t="n">
-        <v>6.465463899075985E-4</v>
-      </c>
-      <c r="Y71" s="201" t="n">
-        <v>3.232732124160975E-4</v>
-      </c>
-      <c r="Z71" s="201" t="n">
-        <v>0.0133333345875144</v>
-      </c>
-      <c r="AA71" s="201" t="n">
-        <v>3.333333588670939E-4</v>
-      </c>
-      <c r="AB71" s="207" t="n">
-        <v>1.6666667943354696E-4</v>
-      </c>
-      <c r="AC71" s="300" t="s">
-        <v>174</v>
-      </c>
+      <c r="Q71" s="63"/>
+      <c r="R71" s="201"/>
+      <c r="S71" s="208"/>
+      <c r="T71" s="208"/>
+      <c r="U71" s="201"/>
+      <c r="V71" s="201"/>
+      <c r="W71" s="201"/>
+      <c r="X71" s="201"/>
+      <c r="Y71" s="201"/>
+      <c r="Z71" s="201"/>
+      <c r="AA71" s="201"/>
+      <c r="AB71" s="207"/>
+      <c r="AC71" s="209"/>
       <c r="AE71" s="29"/>
       <c r="AF71" s="29"/>
       <c r="AG71" s="42"/>
@@ -8128,45 +7032,19 @@
       <c r="M72" s="132"/>
       <c r="N72" s="132"/>
       <c r="P72" s="112"/>
-      <c r="Q72" s="63" t="s">
-        <v>182</v>
-      </c>
-      <c r="R72" s="201" t="s">
-        <v>179</v>
-      </c>
-      <c r="S72" s="208" t="n">
-        <v>300000.0</v>
-      </c>
-      <c r="T72" s="208" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="U72" s="201" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="V72" s="201" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="W72" s="201" t="n">
-        <v>0.05172371119260788</v>
-      </c>
-      <c r="X72" s="201" t="n">
-        <v>0.001293092779815197</v>
-      </c>
-      <c r="Y72" s="201" t="n">
-        <v>0.01293092779815197</v>
-      </c>
-      <c r="Z72" s="201" t="n">
-        <v>0.0266666691750288</v>
-      </c>
-      <c r="AA72" s="201" t="n">
-        <v>6.666667177341878E-4</v>
-      </c>
-      <c r="AB72" s="207" t="n">
-        <v>0.0066666672937572</v>
-      </c>
-      <c r="AC72" s="301" t="s">
-        <v>174</v>
-      </c>
+      <c r="Q72" s="63"/>
+      <c r="R72" s="201"/>
+      <c r="S72" s="208"/>
+      <c r="T72" s="208"/>
+      <c r="U72" s="201"/>
+      <c r="V72" s="201"/>
+      <c r="W72" s="201"/>
+      <c r="X72" s="201"/>
+      <c r="Y72" s="201"/>
+      <c r="Z72" s="201"/>
+      <c r="AA72" s="201"/>
+      <c r="AB72" s="207"/>
+      <c r="AC72" s="209"/>
       <c r="AE72" s="29"/>
       <c r="AF72" s="29"/>
       <c r="AG72" s="42"/>
@@ -8230,45 +7108,19 @@
       <c r="M74" s="42"/>
       <c r="N74" s="42"/>
       <c r="P74" s="112"/>
-      <c r="Q74" s="63" t="s">
-        <v>184</v>
-      </c>
-      <c r="R74" s="201" t="s">
-        <v>173</v>
-      </c>
-      <c r="S74" s="208" t="n">
-        <v>35000.0</v>
-      </c>
-      <c r="T74" s="208" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="U74" s="201" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="V74" s="201" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="W74" s="201" t="n">
-        <v>0.0015448399353772402</v>
-      </c>
-      <c r="X74" s="201" t="n">
-        <v>5.149466451257467E-5</v>
-      </c>
-      <c r="Y74" s="201" t="n">
-        <v>1.2873666491941549E-5</v>
-      </c>
-      <c r="Z74" s="201" t="n">
-        <v>0.0011830986477434635</v>
-      </c>
-      <c r="AA74" s="201" t="n">
-        <v>3.9436621591448784E-5</v>
-      </c>
-      <c r="AB74" s="207" t="n">
-        <v>9.859155397862196E-6</v>
-      </c>
-      <c r="AC74" s="302" t="s">
-        <v>174</v>
-      </c>
+      <c r="Q74" s="63"/>
+      <c r="R74" s="201"/>
+      <c r="S74" s="208"/>
+      <c r="T74" s="208"/>
+      <c r="U74" s="201"/>
+      <c r="V74" s="201"/>
+      <c r="W74" s="201"/>
+      <c r="X74" s="201"/>
+      <c r="Y74" s="201"/>
+      <c r="Z74" s="201"/>
+      <c r="AA74" s="201"/>
+      <c r="AB74" s="207"/>
+      <c r="AC74" s="209"/>
       <c r="AE74" s="29"/>
       <c r="AF74" s="29"/>
       <c r="AG74" s="42"/>
@@ -8296,39 +7148,19 @@
       <c r="N75" s="42"/>
       <c r="O75" s="16"/>
       <c r="P75" s="112"/>
-      <c r="Q75" s="63" t="s">
-        <v>184</v>
-      </c>
-      <c r="R75" s="201" t="s">
-        <v>175</v>
-      </c>
-      <c r="S75" s="208" t="n">
-        <v>25000.0</v>
-      </c>
-      <c r="T75" s="201" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="U75" s="201" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="V75" s="201" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="W75" s="201" t="n">
-        <v>0.0015448399353772402</v>
-      </c>
-      <c r="X75" s="201" t="n">
-        <v>3.8620998384431E-5</v>
-      </c>
-      <c r="Y75" s="201" t="n">
-        <v>3.218416532035917E-5</v>
-      </c>
+      <c r="Q75" s="63"/>
+      <c r="R75" s="201"/>
+      <c r="S75" s="208"/>
+      <c r="T75" s="201"/>
+      <c r="U75" s="201"/>
+      <c r="V75" s="201"/>
+      <c r="W75" s="201"/>
+      <c r="X75" s="201"/>
+      <c r="Y75" s="201"/>
       <c r="Z75" s="201"/>
       <c r="AA75" s="201"/>
       <c r="AB75" s="207"/>
-      <c r="AC75" s="303" t="s">
-        <v>174</v>
-      </c>
+      <c r="AC75" s="209"/>
       <c r="AE75" s="29"/>
       <c r="AF75" s="29"/>
       <c r="AG75" s="42"/>
@@ -8356,45 +7188,19 @@
       <c r="N76" s="42"/>
       <c r="O76" s="16"/>
       <c r="P76" s="112"/>
-      <c r="Q76" s="63" t="s">
-        <v>184</v>
-      </c>
-      <c r="R76" s="201" t="s">
-        <v>176</v>
-      </c>
-      <c r="S76" s="208" t="n">
-        <v>75000.0</v>
-      </c>
-      <c r="T76" s="201" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="U76" s="201" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="V76" s="201" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="W76" s="201" t="n">
-        <v>0.0015448399353772402</v>
-      </c>
-      <c r="X76" s="201" t="n">
-        <v>1.54483993537724E-5</v>
-      </c>
-      <c r="Y76" s="201" t="n">
-        <v>6.436833064071834E-5</v>
-      </c>
-      <c r="Z76" s="201" t="n">
-        <v>0.0011830986477434635</v>
-      </c>
-      <c r="AA76" s="201" t="n">
-        <v>1.1830986295535695E-5</v>
-      </c>
-      <c r="AB76" s="207" t="n">
-        <v>4.929577698931098E-5</v>
-      </c>
-      <c r="AC76" s="304" t="s">
-        <v>174</v>
-      </c>
+      <c r="Q76" s="63"/>
+      <c r="R76" s="201"/>
+      <c r="S76" s="208"/>
+      <c r="T76" s="201"/>
+      <c r="U76" s="201"/>
+      <c r="V76" s="201"/>
+      <c r="W76" s="201"/>
+      <c r="X76" s="201"/>
+      <c r="Y76" s="201"/>
+      <c r="Z76" s="201"/>
+      <c r="AA76" s="201"/>
+      <c r="AB76" s="207"/>
+      <c r="AC76" s="209"/>
       <c r="AE76" s="29"/>
       <c r="AF76" s="29"/>
       <c r="AG76" s="42"/>
@@ -8422,39 +7228,19 @@
       <c r="N77" s="42"/>
       <c r="O77" s="16"/>
       <c r="P77" s="112"/>
-      <c r="Q77" s="63" t="s">
-        <v>184</v>
-      </c>
-      <c r="R77" s="201" t="s">
-        <v>130</v>
-      </c>
-      <c r="S77" s="208" t="n">
-        <v>55000.0</v>
-      </c>
-      <c r="T77" s="201" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="U77" s="201" t="n">
-        <v>120.0</v>
-      </c>
-      <c r="V77" s="201" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="W77" s="201" t="n">
-        <v>0.0018023132579401135</v>
-      </c>
-      <c r="X77" s="201" t="n">
-        <v>1.5019277149500947E-5</v>
-      </c>
-      <c r="Y77" s="201" t="n">
-        <v>1.4161033504933584E-5</v>
-      </c>
+      <c r="Q77" s="63"/>
+      <c r="R77" s="201"/>
+      <c r="S77" s="208"/>
+      <c r="T77" s="201"/>
+      <c r="U77" s="201"/>
+      <c r="V77" s="201"/>
+      <c r="W77" s="201"/>
+      <c r="X77" s="201"/>
+      <c r="Y77" s="201"/>
       <c r="Z77" s="201"/>
       <c r="AA77" s="201"/>
       <c r="AB77" s="207"/>
-      <c r="AC77" s="305" t="s">
-        <v>174</v>
-      </c>
+      <c r="AC77" s="209"/>
       <c r="AE77" s="29"/>
       <c r="AF77" s="29"/>
       <c r="AG77" s="42"/>
@@ -8482,45 +7268,19 @@
       <c r="N78" s="42"/>
       <c r="O78" s="39"/>
       <c r="P78" s="122"/>
-      <c r="Q78" s="137" t="s">
-        <v>184</v>
-      </c>
-      <c r="R78" s="200" t="s">
-        <v>177</v>
-      </c>
-      <c r="S78" s="208" t="n">
-        <v>100000.0</v>
-      </c>
-      <c r="T78" s="200" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="U78" s="200" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="V78" s="200" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="W78" s="200" t="n">
-        <v>5.149466451257467E-4</v>
-      </c>
-      <c r="X78" s="200" t="n">
-        <v>1.0298932902514935E-5</v>
-      </c>
-      <c r="Y78" s="200" t="n">
-        <v>8.582443842897192E-5</v>
-      </c>
-      <c r="Z78" s="200" t="n">
-        <v>3.9436621591448784E-4</v>
-      </c>
-      <c r="AA78" s="201" t="n">
-        <v>7.887324500188697E-6</v>
-      </c>
-      <c r="AB78" s="207" t="n">
-        <v>6.572769780177623E-5</v>
-      </c>
-      <c r="AC78" s="306" t="s">
-        <v>174</v>
-      </c>
+      <c r="Q78" s="137"/>
+      <c r="R78" s="200"/>
+      <c r="S78" s="208"/>
+      <c r="T78" s="200"/>
+      <c r="U78" s="200"/>
+      <c r="V78" s="200"/>
+      <c r="W78" s="200"/>
+      <c r="X78" s="200"/>
+      <c r="Y78" s="200"/>
+      <c r="Z78" s="200"/>
+      <c r="AA78" s="201"/>
+      <c r="AB78" s="207"/>
+      <c r="AC78" s="209"/>
       <c r="AE78" s="29"/>
       <c r="AF78" s="29"/>
       <c r="AG78" s="42"/>
@@ -8548,39 +7308,19 @@
       <c r="N79" s="42"/>
       <c r="O79" s="39"/>
       <c r="P79" s="122"/>
-      <c r="Q79" s="137" t="s">
-        <v>184</v>
-      </c>
-      <c r="R79" s="200" t="s">
-        <v>178</v>
-      </c>
-      <c r="S79" s="208" t="n">
-        <v>15000.0</v>
-      </c>
-      <c r="T79" s="200" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="U79" s="200" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="V79" s="200" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="W79" s="200" t="n">
-        <v>7.724199676886201E-4</v>
-      </c>
-      <c r="X79" s="200" t="n">
-        <v>1.93104991922155E-5</v>
-      </c>
-      <c r="Y79" s="200" t="n">
-        <v>9.65524941420881E-6</v>
-      </c>
+      <c r="Q79" s="137"/>
+      <c r="R79" s="200"/>
+      <c r="S79" s="208"/>
+      <c r="T79" s="200"/>
+      <c r="U79" s="200"/>
+      <c r="V79" s="200"/>
+      <c r="W79" s="200"/>
+      <c r="X79" s="200"/>
+      <c r="Y79" s="200"/>
       <c r="Z79" s="200"/>
       <c r="AA79" s="201"/>
       <c r="AB79" s="207"/>
-      <c r="AC79" s="307" t="s">
-        <v>174</v>
-      </c>
+      <c r="AC79" s="209"/>
       <c r="AE79" s="29"/>
       <c r="AF79" s="29"/>
       <c r="AG79" s="42"/>
@@ -8608,45 +7348,19 @@
       <c r="N80" s="42"/>
       <c r="O80" s="43"/>
       <c r="P80" s="126"/>
-      <c r="Q80" s="137" t="s">
-        <v>184</v>
-      </c>
-      <c r="R80" s="200" t="s">
-        <v>179</v>
-      </c>
-      <c r="S80" s="200" t="n">
-        <v>300000.0</v>
-      </c>
-      <c r="T80" s="200" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="U80" s="200" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="V80" s="200" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="W80" s="200" t="n">
-        <v>0.0015448399353772402</v>
-      </c>
-      <c r="X80" s="200" t="n">
-        <v>3.8620998384431E-5</v>
-      </c>
-      <c r="Y80" s="200" t="n">
-        <v>3.8620998384431005E-4</v>
-      </c>
-      <c r="Z80" s="200" t="n">
-        <v>0.0011830986477434635</v>
-      </c>
-      <c r="AA80" s="201" t="n">
-        <v>2.9577466193586588E-5</v>
-      </c>
-      <c r="AB80" s="207" t="n">
-        <v>2.957746619358659E-4</v>
-      </c>
-      <c r="AC80" s="308" t="s">
-        <v>174</v>
-      </c>
+      <c r="Q80" s="137"/>
+      <c r="R80" s="200"/>
+      <c r="S80" s="200"/>
+      <c r="T80" s="200"/>
+      <c r="U80" s="200"/>
+      <c r="V80" s="200"/>
+      <c r="W80" s="200"/>
+      <c r="X80" s="200"/>
+      <c r="Y80" s="200"/>
+      <c r="Z80" s="200"/>
+      <c r="AA80" s="201"/>
+      <c r="AB80" s="207"/>
+      <c r="AC80" s="209"/>
       <c r="AE80" s="29"/>
       <c r="AF80" s="29"/>
       <c r="AG80" s="42"/>
@@ -8714,45 +7428,19 @@
       <c r="N82" s="42"/>
       <c r="O82" s="43"/>
       <c r="P82" s="129"/>
-      <c r="Q82" s="137" t="s">
-        <v>185</v>
-      </c>
-      <c r="R82" s="200" t="s">
-        <v>173</v>
-      </c>
-      <c r="S82" s="200" t="n">
-        <v>35000.0</v>
-      </c>
-      <c r="T82" s="200" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="U82" s="200" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="V82" s="200" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="W82" s="200" t="n">
-        <v>0.01765531674027443</v>
-      </c>
-      <c r="X82" s="210" t="n">
-        <v>5.885105580091477E-4</v>
-      </c>
-      <c r="Y82" s="200" t="n">
-        <v>1.4712763368152082E-4</v>
-      </c>
-      <c r="Z82" s="211" t="n">
-        <v>0.013521128334105015</v>
-      </c>
-      <c r="AA82" s="201" t="n">
-        <v>4.5070427586324513E-4</v>
-      </c>
-      <c r="AB82" s="201" t="n">
-        <v>1.1267606896581128E-4</v>
-      </c>
-      <c r="AC82" s="309" t="s">
-        <v>174</v>
-      </c>
+      <c r="Q82" s="137"/>
+      <c r="R82" s="200"/>
+      <c r="S82" s="200"/>
+      <c r="T82" s="200"/>
+      <c r="U82" s="200"/>
+      <c r="V82" s="200"/>
+      <c r="W82" s="200"/>
+      <c r="X82" s="210"/>
+      <c r="Y82" s="200"/>
+      <c r="Z82" s="211"/>
+      <c r="AA82" s="201"/>
+      <c r="AB82" s="201"/>
+      <c r="AC82" s="209"/>
       <c r="AE82" s="29"/>
       <c r="AF82" s="29"/>
       <c r="AG82" s="42"/>
@@ -8780,39 +7468,19 @@
       <c r="N83" s="42"/>
       <c r="O83" s="43"/>
       <c r="P83" s="122"/>
-      <c r="Q83" s="137" t="s">
-        <v>185</v>
-      </c>
-      <c r="R83" s="200" t="s">
-        <v>175</v>
-      </c>
-      <c r="S83" s="200" t="n">
-        <v>25000.0</v>
-      </c>
-      <c r="T83" s="200" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="U83" s="200" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="V83" s="200" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="W83" s="200" t="n">
-        <v>0.01765531674027443</v>
-      </c>
-      <c r="X83" s="210" t="n">
-        <v>4.413829185068607E-4</v>
-      </c>
-      <c r="Y83" s="200" t="n">
-        <v>3.678190987557173E-4</v>
-      </c>
+      <c r="Q83" s="137"/>
+      <c r="R83" s="200"/>
+      <c r="S83" s="200"/>
+      <c r="T83" s="200"/>
+      <c r="U83" s="200"/>
+      <c r="V83" s="200"/>
+      <c r="W83" s="200"/>
+      <c r="X83" s="210"/>
+      <c r="Y83" s="200"/>
       <c r="Z83" s="211"/>
       <c r="AA83" s="201"/>
       <c r="AB83" s="201"/>
-      <c r="AC83" s="310" t="s">
-        <v>174</v>
-      </c>
+      <c r="AC83" s="209"/>
       <c r="AE83" s="29"/>
       <c r="AF83" s="29"/>
       <c r="AG83" s="42"/>
@@ -8840,45 +7508,19 @@
       <c r="N84" s="42"/>
       <c r="O84" s="43"/>
       <c r="P84" s="122"/>
-      <c r="Q84" s="137" t="s">
-        <v>185</v>
-      </c>
-      <c r="R84" s="200" t="s">
-        <v>176</v>
-      </c>
-      <c r="S84" s="200" t="n">
-        <v>75000.0</v>
-      </c>
-      <c r="T84" s="200" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="U84" s="200" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="V84" s="200" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="W84" s="200" t="n">
-        <v>0.01765531674027443</v>
-      </c>
-      <c r="X84" s="210" t="n">
-        <v>1.7655316740274428E-4</v>
-      </c>
-      <c r="Y84" s="200" t="n">
-        <v>7.356381975114346E-4</v>
-      </c>
-      <c r="Z84" s="211" t="n">
-        <v>0.013521128334105015</v>
-      </c>
-      <c r="AA84" s="201" t="n">
-        <v>1.3521128857973963E-4</v>
-      </c>
-      <c r="AB84" s="201" t="n">
-        <v>5.633803666569293E-4</v>
-      </c>
-      <c r="AC84" s="311" t="s">
-        <v>174</v>
-      </c>
+      <c r="Q84" s="137"/>
+      <c r="R84" s="200"/>
+      <c r="S84" s="200"/>
+      <c r="T84" s="200"/>
+      <c r="U84" s="200"/>
+      <c r="V84" s="200"/>
+      <c r="W84" s="200"/>
+      <c r="X84" s="210"/>
+      <c r="Y84" s="200"/>
+      <c r="Z84" s="211"/>
+      <c r="AA84" s="201"/>
+      <c r="AB84" s="201"/>
+      <c r="AC84" s="209"/>
       <c r="AE84" s="29"/>
       <c r="AF84" s="29"/>
       <c r="AG84" s="42"/>
@@ -8906,39 +7548,19 @@
       <c r="N85" s="42"/>
       <c r="O85" s="43"/>
       <c r="P85" s="122"/>
-      <c r="Q85" s="137" t="s">
-        <v>185</v>
-      </c>
-      <c r="R85" s="200" t="s">
-        <v>130</v>
-      </c>
-      <c r="S85" s="200" t="n">
-        <v>55000.0</v>
-      </c>
-      <c r="T85" s="200" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="U85" s="200" t="n">
-        <v>120.0</v>
-      </c>
-      <c r="V85" s="200" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="W85" s="200" t="n">
-        <v>0.020597869530320168</v>
-      </c>
-      <c r="X85" s="210" t="n">
-        <v>1.7164891275266806E-4</v>
-      </c>
-      <c r="Y85" s="200" t="n">
-        <v>1.6184040578082204E-4</v>
-      </c>
+      <c r="Q85" s="137"/>
+      <c r="R85" s="200"/>
+      <c r="S85" s="200"/>
+      <c r="T85" s="200"/>
+      <c r="U85" s="200"/>
+      <c r="V85" s="200"/>
+      <c r="W85" s="200"/>
+      <c r="X85" s="210"/>
+      <c r="Y85" s="200"/>
       <c r="Z85" s="211"/>
       <c r="AA85" s="201"/>
       <c r="AB85" s="201"/>
-      <c r="AC85" s="312" t="s">
-        <v>174</v>
-      </c>
+      <c r="AC85" s="209"/>
       <c r="AE85" s="29"/>
       <c r="AF85" s="29"/>
       <c r="AG85" s="42"/>
@@ -8966,45 +7588,19 @@
       <c r="N86" s="42"/>
       <c r="O86" s="43"/>
       <c r="P86" s="122"/>
-      <c r="Q86" s="137" t="s">
-        <v>185</v>
-      </c>
-      <c r="R86" s="200" t="s">
-        <v>177</v>
-      </c>
-      <c r="S86" s="200" t="n">
-        <v>100000.0</v>
-      </c>
-      <c r="T86" s="200" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="U86" s="200" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="V86" s="200" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="W86" s="200" t="n">
-        <v>0.0058851055800914764</v>
-      </c>
-      <c r="X86" s="210" t="n">
-        <v>1.1770211160182952E-4</v>
-      </c>
-      <c r="Y86" s="200" t="n">
-        <v>9.808508912101388E-4</v>
-      </c>
-      <c r="Z86" s="211" t="n">
-        <v>0.004507042933255434</v>
-      </c>
-      <c r="AA86" s="201" t="n">
-        <v>9.014085662784055E-5</v>
-      </c>
-      <c r="AB86" s="201" t="n">
-        <v>7.51173822209239E-4</v>
-      </c>
-      <c r="AC86" s="313" t="s">
-        <v>174</v>
-      </c>
+      <c r="Q86" s="137"/>
+      <c r="R86" s="200"/>
+      <c r="S86" s="200"/>
+      <c r="T86" s="200"/>
+      <c r="U86" s="200"/>
+      <c r="V86" s="200"/>
+      <c r="W86" s="200"/>
+      <c r="X86" s="210"/>
+      <c r="Y86" s="200"/>
+      <c r="Z86" s="211"/>
+      <c r="AA86" s="201"/>
+      <c r="AB86" s="201"/>
+      <c r="AC86" s="209"/>
       <c r="AE86" s="29"/>
       <c r="AF86" s="29"/>
       <c r="AG86" s="42"/>
@@ -9032,39 +7628,19 @@
       <c r="N87" s="42"/>
       <c r="O87" s="43"/>
       <c r="P87" s="122"/>
-      <c r="Q87" s="137" t="s">
-        <v>185</v>
-      </c>
-      <c r="R87" s="200" t="s">
-        <v>178</v>
-      </c>
-      <c r="S87" s="200" t="n">
-        <v>15000.0</v>
-      </c>
-      <c r="T87" s="200" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="U87" s="200" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="V87" s="200" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="W87" s="200" t="n">
-        <v>0.008827658370137215</v>
-      </c>
-      <c r="X87" s="210" t="n">
-        <v>2.2069145925343036E-4</v>
-      </c>
-      <c r="Y87" s="200" t="n">
-        <v>1.10345717985183E-4</v>
-      </c>
+      <c r="Q87" s="137"/>
+      <c r="R87" s="200"/>
+      <c r="S87" s="200"/>
+      <c r="T87" s="200"/>
+      <c r="U87" s="200"/>
+      <c r="V87" s="200"/>
+      <c r="W87" s="200"/>
+      <c r="X87" s="210"/>
+      <c r="Y87" s="200"/>
       <c r="Z87" s="197"/>
       <c r="AA87" s="201"/>
       <c r="AB87" s="201"/>
-      <c r="AC87" s="314" t="s">
-        <v>174</v>
-      </c>
+      <c r="AC87" s="209"/>
       <c r="AE87" s="29"/>
       <c r="AF87" s="29"/>
       <c r="AG87" s="42"/>
@@ -9092,45 +7668,19 @@
       <c r="N88" s="42"/>
       <c r="O88" s="43"/>
       <c r="P88" s="122"/>
-      <c r="Q88" s="137" t="s">
-        <v>185</v>
-      </c>
-      <c r="R88" s="200" t="s">
-        <v>179</v>
-      </c>
-      <c r="S88" s="200" t="n">
-        <v>300000.0</v>
-      </c>
-      <c r="T88" s="200" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="U88" s="200" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="V88" s="200" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="W88" s="200" t="n">
-        <v>0.01765531674027443</v>
-      </c>
-      <c r="X88" s="210" t="n">
-        <v>4.413829185068607E-4</v>
-      </c>
-      <c r="Y88" s="200" t="n">
-        <v>0.004413829185068607</v>
-      </c>
-      <c r="Z88" s="197" t="n">
-        <v>0.013521128334105015</v>
-      </c>
-      <c r="AA88" s="201" t="n">
-        <v>3.3802821417339146E-4</v>
-      </c>
-      <c r="AB88" s="201" t="n">
-        <v>0.0033802820835262537</v>
-      </c>
-      <c r="AC88" s="315" t="s">
-        <v>174</v>
-      </c>
+      <c r="Q88" s="137"/>
+      <c r="R88" s="200"/>
+      <c r="S88" s="200"/>
+      <c r="T88" s="200"/>
+      <c r="U88" s="200"/>
+      <c r="V88" s="200"/>
+      <c r="W88" s="200"/>
+      <c r="X88" s="210"/>
+      <c r="Y88" s="200"/>
+      <c r="Z88" s="197"/>
+      <c r="AA88" s="201"/>
+      <c r="AB88" s="201"/>
+      <c r="AC88" s="209"/>
       <c r="AE88" s="29"/>
       <c r="AF88" s="29"/>
       <c r="AG88" s="42"/>
@@ -9198,45 +7748,19 @@
       <c r="N90" s="42"/>
       <c r="O90" s="39"/>
       <c r="P90" s="122"/>
-      <c r="Q90" s="137" t="s">
-        <v>186</v>
-      </c>
-      <c r="R90" s="200" t="s">
-        <v>187</v>
-      </c>
-      <c r="S90" s="200" t="n">
-        <v>10000.0</v>
-      </c>
-      <c r="T90" s="200" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="U90" s="200" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="V90" s="200" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="W90" s="208" t="n">
-        <v>0.0015448399353772402</v>
-      </c>
-      <c r="X90" s="200" t="n">
-        <v>3.8620998384431E-5</v>
-      </c>
-      <c r="Y90" s="200" t="n">
-        <v>1.2873665582446847E-5</v>
-      </c>
-      <c r="Z90" s="200" t="n">
-        <v>0.0012444445164874196</v>
-      </c>
-      <c r="AA90" s="201" t="n">
-        <v>3.1111110729398206E-5</v>
-      </c>
-      <c r="AB90" s="201" t="n">
-        <v>1.0370370546297636E-5</v>
-      </c>
-      <c r="AC90" s="316" t="s">
-        <v>174</v>
-      </c>
+      <c r="Q90" s="137"/>
+      <c r="R90" s="200"/>
+      <c r="S90" s="200"/>
+      <c r="T90" s="200"/>
+      <c r="U90" s="200"/>
+      <c r="V90" s="200"/>
+      <c r="W90" s="208"/>
+      <c r="X90" s="200"/>
+      <c r="Y90" s="200"/>
+      <c r="Z90" s="200"/>
+      <c r="AA90" s="201"/>
+      <c r="AB90" s="201"/>
+      <c r="AC90" s="209"/>
       <c r="AE90" s="29"/>
       <c r="AF90" s="29"/>
       <c r="AG90" s="42"/>
@@ -9264,45 +7788,19 @@
       <c r="N91" s="42"/>
       <c r="O91" s="39"/>
       <c r="P91" s="122"/>
-      <c r="Q91" s="137" t="s">
-        <v>186</v>
-      </c>
-      <c r="R91" s="200" t="s">
-        <v>175</v>
-      </c>
-      <c r="S91" s="200" t="n">
-        <v>25000.0</v>
-      </c>
-      <c r="T91" s="200" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="U91" s="200" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="V91" s="200" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="W91" s="208" t="n">
-        <v>0.0015448399353772402</v>
-      </c>
-      <c r="X91" s="200" t="n">
-        <v>3.8620998384431E-5</v>
-      </c>
-      <c r="Y91" s="200" t="n">
-        <v>3.218416532035917E-5</v>
-      </c>
-      <c r="Z91" s="200" t="n">
-        <v>0.0012444445164874196</v>
-      </c>
-      <c r="AA91" s="201" t="n">
-        <v>3.1111110729398206E-5</v>
-      </c>
-      <c r="AB91" s="201" t="n">
-        <v>2.592592682049144E-5</v>
-      </c>
-      <c r="AC91" s="317" t="s">
-        <v>174</v>
-      </c>
+      <c r="Q91" s="137"/>
+      <c r="R91" s="200"/>
+      <c r="S91" s="200"/>
+      <c r="T91" s="200"/>
+      <c r="U91" s="200"/>
+      <c r="V91" s="200"/>
+      <c r="W91" s="208"/>
+      <c r="X91" s="200"/>
+      <c r="Y91" s="200"/>
+      <c r="Z91" s="200"/>
+      <c r="AA91" s="201"/>
+      <c r="AB91" s="201"/>
+      <c r="AC91" s="209"/>
       <c r="AE91" s="29"/>
       <c r="AF91" s="29"/>
       <c r="AG91" s="42"/>
@@ -9330,45 +7828,19 @@
       <c r="N92" s="42"/>
       <c r="O92" s="43"/>
       <c r="P92" s="126"/>
-      <c r="Q92" s="137" t="s">
-        <v>186</v>
-      </c>
-      <c r="R92" s="200" t="s">
-        <v>176</v>
-      </c>
-      <c r="S92" s="200" t="n">
-        <v>75000.0</v>
-      </c>
-      <c r="T92" s="200" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="U92" s="200" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="V92" s="200" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="W92" s="200" t="n">
-        <v>0.0015448399353772402</v>
-      </c>
-      <c r="X92" s="200" t="n">
-        <v>1.54483993537724E-5</v>
-      </c>
-      <c r="Y92" s="200" t="n">
-        <v>6.436833064071834E-5</v>
-      </c>
-      <c r="Z92" s="200" t="n">
-        <v>0.0012444445164874196</v>
-      </c>
-      <c r="AA92" s="201" t="n">
-        <v>1.2444445019355044E-5</v>
-      </c>
-      <c r="AB92" s="201" t="n">
-        <v>5.185185364098288E-5</v>
-      </c>
-      <c r="AC92" s="318" t="s">
-        <v>174</v>
-      </c>
+      <c r="Q92" s="137"/>
+      <c r="R92" s="200"/>
+      <c r="S92" s="200"/>
+      <c r="T92" s="200"/>
+      <c r="U92" s="200"/>
+      <c r="V92" s="200"/>
+      <c r="W92" s="200"/>
+      <c r="X92" s="200"/>
+      <c r="Y92" s="200"/>
+      <c r="Z92" s="200"/>
+      <c r="AA92" s="201"/>
+      <c r="AB92" s="201"/>
+      <c r="AC92" s="209"/>
       <c r="AE92" s="29"/>
       <c r="AF92" s="29"/>
       <c r="AG92" s="42"/>
@@ -9396,45 +7868,19 @@
       <c r="N93" s="42"/>
       <c r="O93" s="109"/>
       <c r="P93" s="127"/>
-      <c r="Q93" s="138" t="s">
-        <v>186</v>
-      </c>
-      <c r="R93" s="196" t="s">
-        <v>130</v>
-      </c>
-      <c r="S93" s="196" t="n">
-        <v>55000.0</v>
-      </c>
-      <c r="T93" s="197" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="U93" s="197" t="n">
-        <v>120.0</v>
-      </c>
-      <c r="V93" s="197" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="W93" s="197" t="n">
-        <v>0.0018023132579401135</v>
-      </c>
-      <c r="X93" s="197" t="n">
-        <v>1.5019277149500947E-5</v>
-      </c>
-      <c r="Y93" s="197" t="n">
-        <v>1.4161033504933584E-5</v>
-      </c>
-      <c r="Z93" s="196" t="n">
-        <v>0.001451851916499436</v>
-      </c>
-      <c r="AA93" s="201" t="n">
-        <v>1.2098766092094593E-5</v>
-      </c>
-      <c r="AB93" s="201" t="n">
-        <v>1.1407407328078989E-5</v>
-      </c>
-      <c r="AC93" s="319" t="s">
-        <v>174</v>
-      </c>
+      <c r="Q93" s="138"/>
+      <c r="R93" s="196"/>
+      <c r="S93" s="196"/>
+      <c r="T93" s="197"/>
+      <c r="U93" s="197"/>
+      <c r="V93" s="197"/>
+      <c r="W93" s="197"/>
+      <c r="X93" s="197"/>
+      <c r="Y93" s="197"/>
+      <c r="Z93" s="196"/>
+      <c r="AA93" s="201"/>
+      <c r="AB93" s="201"/>
+      <c r="AC93" s="209"/>
       <c r="AE93" s="29"/>
       <c r="AF93" s="29"/>
       <c r="AG93" s="42"/>
@@ -9462,45 +7908,19 @@
       <c r="N94" s="42"/>
       <c r="O94" s="43"/>
       <c r="P94" s="122"/>
-      <c r="Q94" s="137" t="s">
-        <v>186</v>
-      </c>
-      <c r="R94" s="200" t="s">
-        <v>177</v>
-      </c>
-      <c r="S94" s="200" t="n">
-        <v>100000.0</v>
-      </c>
-      <c r="T94" s="200" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="U94" s="200" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="V94" s="200" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="W94" s="200" t="n">
-        <v>5.149466451257467E-4</v>
-      </c>
-      <c r="X94" s="210" t="n">
-        <v>1.0298932902514935E-5</v>
-      </c>
-      <c r="Y94" s="200" t="n">
-        <v>8.582443842897192E-5</v>
-      </c>
-      <c r="Z94" s="211" t="n">
-        <v>4.1481482912786305E-4</v>
-      </c>
-      <c r="AA94" s="201" t="n">
-        <v>8.296296073240228E-6</v>
-      </c>
-      <c r="AB94" s="201" t="n">
-        <v>6.913580727996305E-5</v>
-      </c>
-      <c r="AC94" s="320" t="s">
-        <v>174</v>
-      </c>
+      <c r="Q94" s="137"/>
+      <c r="R94" s="200"/>
+      <c r="S94" s="200"/>
+      <c r="T94" s="200"/>
+      <c r="U94" s="200"/>
+      <c r="V94" s="200"/>
+      <c r="W94" s="200"/>
+      <c r="X94" s="210"/>
+      <c r="Y94" s="200"/>
+      <c r="Z94" s="211"/>
+      <c r="AA94" s="201"/>
+      <c r="AB94" s="201"/>
+      <c r="AC94" s="209"/>
       <c r="AE94" s="29"/>
       <c r="AF94" s="29"/>
       <c r="AG94" s="42"/>
@@ -9528,45 +7948,19 @@
       <c r="N95" s="42"/>
       <c r="O95" s="43"/>
       <c r="P95" s="122"/>
-      <c r="Q95" s="137" t="s">
-        <v>186</v>
-      </c>
-      <c r="R95" s="200" t="s">
-        <v>178</v>
-      </c>
-      <c r="S95" s="200" t="n">
-        <v>15000.0</v>
-      </c>
-      <c r="T95" s="200" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="U95" s="200" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="V95" s="200" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="W95" s="200" t="n">
-        <v>7.724199676886201E-4</v>
-      </c>
-      <c r="X95" s="210" t="n">
-        <v>1.93104991922155E-5</v>
-      </c>
-      <c r="Y95" s="200" t="n">
-        <v>9.65524941420881E-6</v>
-      </c>
-      <c r="Z95" s="211" t="n">
-        <v>6.222222582437098E-4</v>
-      </c>
-      <c r="AA95" s="201" t="n">
-        <v>1.5555555364699103E-5</v>
-      </c>
-      <c r="AB95" s="201" t="n">
-        <v>7.777777682349551E-6</v>
-      </c>
-      <c r="AC95" s="321" t="s">
-        <v>174</v>
-      </c>
+      <c r="Q95" s="137"/>
+      <c r="R95" s="200"/>
+      <c r="S95" s="200"/>
+      <c r="T95" s="200"/>
+      <c r="U95" s="200"/>
+      <c r="V95" s="200"/>
+      <c r="W95" s="200"/>
+      <c r="X95" s="210"/>
+      <c r="Y95" s="200"/>
+      <c r="Z95" s="211"/>
+      <c r="AA95" s="201"/>
+      <c r="AB95" s="201"/>
+      <c r="AC95" s="209"/>
       <c r="AE95" s="29"/>
       <c r="AF95" s="29"/>
       <c r="AG95" s="42"/>
@@ -9594,45 +7988,19 @@
       <c r="N96" s="42"/>
       <c r="O96" s="43"/>
       <c r="P96" s="122"/>
-      <c r="Q96" s="137" t="s">
-        <v>186</v>
-      </c>
-      <c r="R96" s="200" t="s">
-        <v>179</v>
-      </c>
-      <c r="S96" s="200" t="n">
-        <v>300000.0</v>
-      </c>
-      <c r="T96" s="200" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="U96" s="200" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="V96" s="200" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="W96" s="200" t="n">
-        <v>0.0015448399353772402</v>
-      </c>
-      <c r="X96" s="210" t="n">
-        <v>3.8620998384431E-5</v>
-      </c>
-      <c r="Y96" s="200" t="n">
-        <v>3.8620998384431005E-4</v>
-      </c>
-      <c r="Z96" s="211" t="n">
-        <v>0.0012444445164874196</v>
-      </c>
-      <c r="AA96" s="201" t="n">
-        <v>3.1111110729398206E-5</v>
-      </c>
-      <c r="AB96" s="201" t="n">
-        <v>3.111111291218549E-4</v>
-      </c>
-      <c r="AC96" s="322" t="s">
-        <v>174</v>
-      </c>
+      <c r="Q96" s="137"/>
+      <c r="R96" s="200"/>
+      <c r="S96" s="200"/>
+      <c r="T96" s="200"/>
+      <c r="U96" s="200"/>
+      <c r="V96" s="200"/>
+      <c r="W96" s="200"/>
+      <c r="X96" s="210"/>
+      <c r="Y96" s="200"/>
+      <c r="Z96" s="211"/>
+      <c r="AA96" s="201"/>
+      <c r="AB96" s="201"/>
+      <c r="AC96" s="209"/>
       <c r="AE96" s="29"/>
       <c r="AF96" s="29"/>
       <c r="AG96" s="42"/>
@@ -9700,45 +8068,19 @@
       <c r="N98" s="42"/>
       <c r="O98" s="43"/>
       <c r="P98" s="122"/>
-      <c r="Q98" s="137" t="s">
-        <v>188</v>
-      </c>
-      <c r="R98" s="200" t="s">
-        <v>187</v>
-      </c>
-      <c r="S98" s="200" t="n">
-        <v>10000.0</v>
-      </c>
-      <c r="T98" s="200" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="U98" s="200" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="V98" s="200" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="W98" s="200" t="n">
-        <v>0.003310371655970812</v>
-      </c>
-      <c r="X98" s="210" t="n">
-        <v>8.27592913992703E-5</v>
-      </c>
-      <c r="Y98" s="200" t="n">
-        <v>2.758642949629575E-5</v>
-      </c>
-      <c r="Z98" s="211" t="n">
-        <v>0.0026666668709367514</v>
-      </c>
-      <c r="AA98" s="201" t="n">
-        <v>6.666666740784422E-5</v>
-      </c>
-      <c r="AB98" s="201" t="n">
-        <v>2.2222222469281405E-5</v>
-      </c>
-      <c r="AC98" s="323" t="s">
-        <v>174</v>
-      </c>
+      <c r="Q98" s="137"/>
+      <c r="R98" s="200"/>
+      <c r="S98" s="200"/>
+      <c r="T98" s="200"/>
+      <c r="U98" s="200"/>
+      <c r="V98" s="200"/>
+      <c r="W98" s="200"/>
+      <c r="X98" s="210"/>
+      <c r="Y98" s="200"/>
+      <c r="Z98" s="211"/>
+      <c r="AA98" s="201"/>
+      <c r="AB98" s="201"/>
+      <c r="AC98" s="209"/>
       <c r="AE98" s="29"/>
       <c r="AF98" s="29"/>
       <c r="AG98" s="42"/>
@@ -9766,45 +8108,19 @@
       <c r="N99" s="42"/>
       <c r="O99" s="43"/>
       <c r="P99" s="122"/>
-      <c r="Q99" s="137" t="s">
-        <v>188</v>
-      </c>
-      <c r="R99" s="200" t="s">
-        <v>175</v>
-      </c>
-      <c r="S99" s="200" t="n">
-        <v>25000.0</v>
-      </c>
-      <c r="T99" s="200" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="U99" s="200" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="V99" s="200" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="W99" s="200" t="n">
-        <v>0.003310371655970812</v>
-      </c>
-      <c r="X99" s="210" t="n">
-        <v>8.27592913992703E-5</v>
-      </c>
-      <c r="Y99" s="200" t="n">
-        <v>6.896607374073938E-5</v>
-      </c>
-      <c r="Z99" s="211" t="n">
-        <v>0.0026666668709367514</v>
-      </c>
-      <c r="AA99" s="201" t="n">
-        <v>6.666666740784422E-5</v>
-      </c>
-      <c r="AB99" s="201" t="n">
-        <v>5.555555617320351E-5</v>
-      </c>
-      <c r="AC99" s="324" t="s">
-        <v>174</v>
-      </c>
+      <c r="Q99" s="137"/>
+      <c r="R99" s="200"/>
+      <c r="S99" s="200"/>
+      <c r="T99" s="200"/>
+      <c r="U99" s="200"/>
+      <c r="V99" s="200"/>
+      <c r="W99" s="200"/>
+      <c r="X99" s="210"/>
+      <c r="Y99" s="200"/>
+      <c r="Z99" s="211"/>
+      <c r="AA99" s="201"/>
+      <c r="AB99" s="201"/>
+      <c r="AC99" s="209"/>
       <c r="AE99" s="29"/>
       <c r="AF99" s="29"/>
       <c r="AG99" s="42"/>
@@ -9832,45 +8148,19 @@
       <c r="N100" s="42"/>
       <c r="O100" s="43"/>
       <c r="P100" s="122"/>
-      <c r="Q100" s="137" t="s">
-        <v>188</v>
-      </c>
-      <c r="R100" s="200" t="s">
-        <v>176</v>
-      </c>
-      <c r="S100" s="200" t="n">
-        <v>75000.0</v>
-      </c>
-      <c r="T100" s="200" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="U100" s="200" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="V100" s="200" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="W100" s="200" t="n">
-        <v>0.003310371655970812</v>
-      </c>
-      <c r="X100" s="210" t="n">
-        <v>3.310371655970812E-5</v>
-      </c>
-      <c r="Y100" s="200" t="n">
-        <v>1.3793214748147875E-4</v>
-      </c>
-      <c r="Z100" s="197" t="n">
-        <v>0.0026666668709367514</v>
-      </c>
-      <c r="AA100" s="201" t="n">
-        <v>2.666666841832921E-5</v>
-      </c>
-      <c r="AB100" s="201" t="n">
-        <v>1.1111111234640703E-4</v>
-      </c>
-      <c r="AC100" s="325" t="s">
-        <v>174</v>
-      </c>
+      <c r="Q100" s="137"/>
+      <c r="R100" s="200"/>
+      <c r="S100" s="200"/>
+      <c r="T100" s="200"/>
+      <c r="U100" s="200"/>
+      <c r="V100" s="200"/>
+      <c r="W100" s="200"/>
+      <c r="X100" s="210"/>
+      <c r="Y100" s="200"/>
+      <c r="Z100" s="197"/>
+      <c r="AA100" s="201"/>
+      <c r="AB100" s="201"/>
+      <c r="AC100" s="209"/>
       <c r="AE100" s="29"/>
       <c r="AF100" s="29"/>
       <c r="AG100" s="42"/>
@@ -9898,45 +8188,19 @@
       <c r="N101" s="42"/>
       <c r="O101" s="43"/>
       <c r="P101" s="122"/>
-      <c r="Q101" s="137" t="s">
-        <v>188</v>
-      </c>
-      <c r="R101" s="200" t="s">
-        <v>130</v>
-      </c>
-      <c r="S101" s="200" t="n">
-        <v>55000.0</v>
-      </c>
-      <c r="T101" s="200" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="U101" s="200" t="n">
-        <v>120.0</v>
-      </c>
-      <c r="V101" s="200" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="W101" s="200" t="n">
-        <v>0.003862100187689066</v>
-      </c>
-      <c r="X101" s="210" t="n">
-        <v>3.218416823074222E-5</v>
-      </c>
-      <c r="Y101" s="200" t="n">
-        <v>3.0345072445925325E-5</v>
-      </c>
-      <c r="Z101" s="197" t="n">
-        <v>0.003111111233010888</v>
-      </c>
-      <c r="AA101" s="201" t="n">
-        <v>2.592592682049144E-5</v>
-      </c>
-      <c r="AB101" s="201" t="n">
-        <v>2.4444445443805307E-5</v>
-      </c>
-      <c r="AC101" s="326" t="s">
-        <v>174</v>
-      </c>
+      <c r="Q101" s="137"/>
+      <c r="R101" s="200"/>
+      <c r="S101" s="200"/>
+      <c r="T101" s="200"/>
+      <c r="U101" s="200"/>
+      <c r="V101" s="200"/>
+      <c r="W101" s="200"/>
+      <c r="X101" s="210"/>
+      <c r="Y101" s="200"/>
+      <c r="Z101" s="197"/>
+      <c r="AA101" s="201"/>
+      <c r="AB101" s="201"/>
+      <c r="AC101" s="209"/>
       <c r="AE101" s="29"/>
       <c r="AF101" s="29"/>
       <c r="AG101" s="42"/>
@@ -9964,45 +8228,19 @@
       <c r="N102" s="42"/>
       <c r="O102" s="39"/>
       <c r="P102" s="122"/>
-      <c r="Q102" s="137" t="s">
-        <v>188</v>
-      </c>
-      <c r="R102" s="200" t="s">
-        <v>177</v>
-      </c>
-      <c r="S102" s="200" t="n">
-        <v>100000.0</v>
-      </c>
-      <c r="T102" s="200" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="U102" s="200" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="V102" s="200" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="W102" s="200" t="n">
-        <v>0.00110345717985183</v>
-      </c>
-      <c r="X102" s="208" t="n">
-        <v>2.20691435970366E-5</v>
-      </c>
-      <c r="Y102" s="200" t="n">
-        <v>1.8390952027402818E-4</v>
-      </c>
-      <c r="Z102" s="200" t="n">
-        <v>8.888888987712562E-4</v>
-      </c>
-      <c r="AA102" s="201" t="n">
-        <v>1.7777778339223005E-5</v>
-      </c>
-      <c r="AB102" s="201" t="n">
-        <v>1.481481594964862E-4</v>
-      </c>
-      <c r="AC102" s="327" t="s">
-        <v>174</v>
-      </c>
+      <c r="Q102" s="137"/>
+      <c r="R102" s="200"/>
+      <c r="S102" s="200"/>
+      <c r="T102" s="200"/>
+      <c r="U102" s="200"/>
+      <c r="V102" s="200"/>
+      <c r="W102" s="200"/>
+      <c r="X102" s="208"/>
+      <c r="Y102" s="200"/>
+      <c r="Z102" s="200"/>
+      <c r="AA102" s="201"/>
+      <c r="AB102" s="201"/>
+      <c r="AC102" s="209"/>
       <c r="AE102" s="29"/>
       <c r="AF102" s="29"/>
       <c r="AG102" s="42"/>
@@ -10030,45 +8268,19 @@
       <c r="N103" s="42"/>
       <c r="O103" s="39"/>
       <c r="P103" s="122"/>
-      <c r="Q103" s="137" t="s">
-        <v>188</v>
-      </c>
-      <c r="R103" s="200" t="s">
-        <v>178</v>
-      </c>
-      <c r="S103" s="200" t="n">
-        <v>15000.0</v>
-      </c>
-      <c r="T103" s="200" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="U103" s="200" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="V103" s="200" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="W103" s="200" t="n">
-        <v>0.001655185827985406</v>
-      </c>
-      <c r="X103" s="208" t="n">
-        <v>4.137964569963515E-5</v>
-      </c>
-      <c r="Y103" s="200" t="n">
-        <v>2.0689822122221813E-5</v>
-      </c>
-      <c r="Z103" s="200" t="n">
-        <v>0.0013333334354683757</v>
-      </c>
-      <c r="AA103" s="201" t="n">
-        <v>3.333333370392211E-5</v>
-      </c>
-      <c r="AB103" s="201" t="n">
-        <v>1.6666666851961054E-5</v>
-      </c>
-      <c r="AC103" s="328" t="s">
-        <v>174</v>
-      </c>
+      <c r="Q103" s="137"/>
+      <c r="R103" s="200"/>
+      <c r="S103" s="200"/>
+      <c r="T103" s="200"/>
+      <c r="U103" s="200"/>
+      <c r="V103" s="200"/>
+      <c r="W103" s="200"/>
+      <c r="X103" s="208"/>
+      <c r="Y103" s="200"/>
+      <c r="Z103" s="200"/>
+      <c r="AA103" s="201"/>
+      <c r="AB103" s="201"/>
+      <c r="AC103" s="209"/>
       <c r="AE103" s="29"/>
       <c r="AF103" s="29"/>
       <c r="AG103" s="42"/>
@@ -10096,45 +8308,19 @@
       <c r="N104" s="42"/>
       <c r="O104" s="43"/>
       <c r="P104" s="126"/>
-      <c r="Q104" s="137" t="s">
-        <v>188</v>
-      </c>
-      <c r="R104" s="200" t="s">
-        <v>179</v>
-      </c>
-      <c r="S104" s="200" t="n">
-        <v>300000.0</v>
-      </c>
-      <c r="T104" s="200" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="U104" s="200" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="V104" s="200" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="W104" s="200" t="n">
-        <v>0.003310371655970812</v>
-      </c>
-      <c r="X104" s="200" t="n">
-        <v>8.27592913992703E-5</v>
-      </c>
-      <c r="Y104" s="200" t="n">
-        <v>8.27592855785042E-4</v>
-      </c>
-      <c r="Z104" s="200" t="n">
-        <v>0.0026666668709367514</v>
-      </c>
-      <c r="AA104" s="201" t="n">
-        <v>6.666666740784422E-5</v>
-      </c>
-      <c r="AB104" s="201" t="n">
-        <v>6.666667177341878E-4</v>
-      </c>
-      <c r="AC104" s="329" t="s">
-        <v>174</v>
-      </c>
+      <c r="Q104" s="137"/>
+      <c r="R104" s="200"/>
+      <c r="S104" s="200"/>
+      <c r="T104" s="200"/>
+      <c r="U104" s="200"/>
+      <c r="V104" s="200"/>
+      <c r="W104" s="200"/>
+      <c r="X104" s="200"/>
+      <c r="Y104" s="200"/>
+      <c r="Z104" s="200"/>
+      <c r="AA104" s="201"/>
+      <c r="AB104" s="201"/>
+      <c r="AC104" s="209"/>
       <c r="AE104" s="29"/>
       <c r="AF104" s="29"/>
       <c r="AG104" s="42"/>
@@ -15726,44 +13912,6 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="M9:M12"/>
-    <mergeCell ref="N9:N12"/>
-    <mergeCell ref="O9:O12"/>
-    <mergeCell ref="P9:P12"/>
-    <mergeCell ref="Q9:Q12"/>
-    <mergeCell ref="R9:R12"/>
-    <mergeCell ref="S9:S12"/>
-    <mergeCell ref="T9:T12"/>
-    <mergeCell ref="U9:U12"/>
-    <mergeCell ref="R13:R16"/>
-    <mergeCell ref="S13:S16"/>
-    <mergeCell ref="T13:T16"/>
-    <mergeCell ref="U13:U16"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="M13:M16"/>
-    <mergeCell ref="N13:N16"/>
-    <mergeCell ref="O13:O16"/>
-    <mergeCell ref="P13:P16"/>
-    <mergeCell ref="Q13:Q16"/>
-    <mergeCell ref="R17:R20"/>
-    <mergeCell ref="S17:S20"/>
-    <mergeCell ref="T17:T20"/>
-    <mergeCell ref="Q17:Q20"/>
-    <mergeCell ref="U17:U20"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="M17:M20"/>
-    <mergeCell ref="N17:N20"/>
-    <mergeCell ref="O17:O20"/>
-    <mergeCell ref="P17:P20"/>
     <mergeCell ref="Q40:Y40"/>
     <mergeCell ref="F40:I40"/>
     <mergeCell ref="J40:M40"/>
@@ -15778,6 +13926,44 @@
     <mergeCell ref="R21:R24"/>
     <mergeCell ref="S21:S24"/>
     <mergeCell ref="T21:T24"/>
+    <mergeCell ref="U17:U20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="M17:M20"/>
+    <mergeCell ref="N17:N20"/>
+    <mergeCell ref="O17:O20"/>
+    <mergeCell ref="P17:P20"/>
+    <mergeCell ref="P13:P16"/>
+    <mergeCell ref="Q13:Q16"/>
+    <mergeCell ref="R17:R20"/>
+    <mergeCell ref="S17:S20"/>
+    <mergeCell ref="T17:T20"/>
+    <mergeCell ref="Q17:Q20"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="M13:M16"/>
+    <mergeCell ref="N13:N16"/>
+    <mergeCell ref="O13:O16"/>
+    <mergeCell ref="R9:R12"/>
+    <mergeCell ref="S9:S12"/>
+    <mergeCell ref="T9:T12"/>
+    <mergeCell ref="U9:U12"/>
+    <mergeCell ref="R13:R16"/>
+    <mergeCell ref="S13:S16"/>
+    <mergeCell ref="T13:T16"/>
+    <mergeCell ref="U13:U16"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="M9:M12"/>
+    <mergeCell ref="N9:N12"/>
+    <mergeCell ref="O9:O12"/>
+    <mergeCell ref="P9:P12"/>
+    <mergeCell ref="Q9:Q12"/>
   </mergeCells>
   <conditionalFormatting sqref="AM1:AM1048576">
     <cfRule dxfId="0" priority="1" type="duplicateValues"/>

--- a/eResidue_CV_eDocs/bin/Test Data/eResidue_eDocs_TestCase_result.xlsx
+++ b/eResidue_CV_eDocs/bin/Test Data/eResidue_eDocs_TestCase_result.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="200">
   <si>
     <t>Testcase_id</t>
   </si>
@@ -487,9 +487,6 @@
     <t>Manual</t>
   </si>
   <si>
-    <t>Solid</t>
-  </si>
-  <si>
     <t>Location</t>
   </si>
   <si>
@@ -606,6 +603,87 @@
     <t>Enter Preferential Surface area</t>
   </si>
   <si>
+    <t>Risk AssessmentTab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location </t>
+  </si>
+  <si>
+    <t>Please Add location to proceed.</t>
+  </si>
+  <si>
+    <t>Sampling Information Tab</t>
+  </si>
+  <si>
+    <t>Please add location details</t>
+  </si>
+  <si>
+    <t>Please fill the Sampling and Test method field</t>
+  </si>
+  <si>
+    <t>No: Add Location Pin - Empty Check(no Pin)</t>
+  </si>
+  <si>
+    <t>Sampling Method - Empty Check</t>
+  </si>
+  <si>
+    <t>Segment Information Tab</t>
+  </si>
+  <si>
+    <t>Add Segment</t>
+  </si>
+  <si>
+    <t>Please add segment information</t>
+  </si>
+  <si>
+    <t>Add Location Empty Check</t>
+  </si>
+  <si>
+    <t>Please Enter Location</t>
+  </si>
+  <si>
+    <t>Add Location Max length Check</t>
+  </si>
+  <si>
+    <t>Upload Image: No</t>
+  </si>
+  <si>
+    <t>Segment Name Empty Check</t>
+  </si>
+  <si>
+    <t>Segment Name max length Check</t>
+  </si>
+  <si>
+    <t>Segment Surface Area</t>
+  </si>
+  <si>
+    <t>Segment location Names</t>
+  </si>
+  <si>
+    <t>Location Empty Check</t>
+  </si>
+  <si>
+    <t>Add Equipment: Success</t>
+  </si>
+  <si>
+    <t>Enter Segment name</t>
+  </si>
+  <si>
+    <t>Liquid</t>
+  </si>
+  <si>
+    <t>Equipment Saved Successfully</t>
+  </si>
+  <si>
+    <t>Choose Location</t>
+  </si>
+  <si>
+    <t>Enter Surface Area</t>
+  </si>
+  <si>
+    <t>Create Equipment</t>
+  </si>
+  <si>
     <t>Pass</t>
   </si>
   <si>
@@ -616,6 +694,9 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>No Risk Assessment</t>
   </si>
 </sst>
 </file>
@@ -1227,6 +1308,14 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
       <color indexed="17"/>
@@ -1354,12 +1443,7 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
+      <color indexed="17"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1374,15 +1458,15 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="10"/>
+      <color indexed="17"/>
     </font>
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="10"/>
+      <color indexed="17"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1431,8 +1515,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1538,11 +1628,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="305">
+  <cellXfs count="326">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
@@ -1986,6 +2085,72 @@
     <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="108" numFmtId="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="7" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="7" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="7" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="6" fillId="9" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="9" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="6" fillId="9" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="8" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2076,7 +2241,6 @@
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="108" numFmtId="0" xfId="0"/>
     <xf applyFont="true" borderId="0" fillId="0" fontId="109" numFmtId="0" xfId="0"/>
     <xf applyFont="true" borderId="0" fillId="0" fontId="110" numFmtId="0" xfId="0"/>
     <xf applyFont="true" borderId="0" fillId="0" fontId="111" numFmtId="0" xfId="0"/>
@@ -2106,7 +2270,7 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="135" numFmtId="0" xfId="0"/>
     <xf applyFont="true" borderId="0" fillId="0" fontId="136" numFmtId="0" xfId="0"/>
     <xf applyFont="true" borderId="0" fillId="0" fontId="137" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="138" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -3786,10 +3950,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:I45"/>
+  <dimension ref="A5:I68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3799,7 +3963,7 @@
     <col min="3" max="3" customWidth="true" style="80" width="38.7109375" collapsed="true"/>
     <col min="4" max="4" customWidth="true" style="80" width="37.5703125" collapsed="true"/>
     <col min="5" max="5" customWidth="true" style="80" width="23.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="80" width="26.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="80" width="29.7109375" collapsed="true"/>
     <col min="7" max="7" customWidth="true" style="80" width="27.5703125" collapsed="true"/>
     <col min="8" max="8" customWidth="true" style="80" width="8.85546875" collapsed="true"/>
     <col min="9" max="16384" style="80" width="9.140625" collapsed="true"/>
@@ -3861,10 +4025,10 @@
       <c r="A7" s="12">
         <v>1</v>
       </c>
-      <c r="B7" s="244" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="244" t="s">
+      <c r="B7" s="264" t="s">
+        <v>194</v>
+      </c>
+      <c r="C7" s="251" t="s">
         <v>47</v>
       </c>
       <c r="D7" s="12" t="s">
@@ -3877,16 +4041,16 @@
       <c r="G7" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="H7" s="274" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row ht="30" r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H7" s="296" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>2</v>
       </c>
-      <c r="B8" s="244"/>
-      <c r="C8" s="244"/>
+      <c r="B8" s="265"/>
+      <c r="C8" s="251"/>
       <c r="D8" s="12" t="s">
         <v>49</v>
       </c>
@@ -3903,8 +4067,8 @@
       <c r="A9" s="12">
         <v>3</v>
       </c>
-      <c r="B9" s="244"/>
-      <c r="C9" s="244"/>
+      <c r="B9" s="265"/>
+      <c r="C9" s="251"/>
       <c r="D9" s="12" t="s">
         <v>50</v>
       </c>
@@ -3917,16 +4081,16 @@
       <c r="G9" s="239" t="n">
         <v>75.0</v>
       </c>
-      <c r="H9" s="275" t="s">
-        <v>169</v>
+      <c r="H9" s="297" t="s">
+        <v>195</v>
       </c>
     </row>
     <row ht="60" r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>4</v>
       </c>
-      <c r="B10" s="244"/>
-      <c r="C10" s="244"/>
+      <c r="B10" s="265"/>
+      <c r="C10" s="251"/>
       <c r="D10" s="12" t="s">
         <v>51</v>
       </c>
@@ -3934,21 +4098,21 @@
         <v>134</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="H10" s="276" t="s">
-        <v>169</v>
+        <v>160</v>
+      </c>
+      <c r="H10" s="298" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>5</v>
       </c>
-      <c r="B11" s="244"/>
-      <c r="C11" s="244"/>
+      <c r="B11" s="265"/>
+      <c r="C11" s="251"/>
       <c r="D11" s="12" t="s">
         <v>133</v>
       </c>
@@ -3957,19 +4121,19 @@
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="H11" s="277" t="s">
-        <v>171</v>
+        <v>196</v>
+      </c>
+      <c r="H11" s="299" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>6</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12" t="s">
-        <v>139</v>
+      <c r="B12" s="265"/>
+      <c r="C12" s="244" t="s">
+        <v>138</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
@@ -3981,57 +4145,57 @@
       <c r="A13" s="12">
         <v>7</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12" t="s">
+      <c r="B13" s="265"/>
+      <c r="C13" s="244" t="s">
+        <v>139</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>140</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>141</v>
       </c>
       <c r="E13" s="243" t="s">
         <v>132</v>
       </c>
       <c r="F13" s="12">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="G13" s="12" t="n">
         <v>25.0</v>
       </c>
-      <c r="H13" s="299" t="s">
-        <v>171</v>
+      <c r="H13" s="321" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>8</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12" t="s">
-        <v>163</v>
+      <c r="B14" s="265"/>
+      <c r="C14" s="244" t="s">
+        <v>162</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E14" s="243" t="s">
         <v>132</v>
       </c>
       <c r="F14" s="12">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="G14" s="12" t="n">
         <v>25.0</v>
       </c>
-      <c r="H14" s="300" t="s">
-        <v>171</v>
+      <c r="H14" s="322" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>9</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12" t="s">
-        <v>142</v>
+      <c r="B15" s="265"/>
+      <c r="C15" s="244" t="s">
+        <v>141</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="243" t="s">
@@ -4043,16 +4207,16 @@
       <c r="G15" s="12" t="n">
         <v>75.0</v>
       </c>
-      <c r="H15" s="301" t="s">
-        <v>169</v>
+      <c r="H15" s="323" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>10</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="242" t="s">
+      <c r="B16" s="265"/>
+      <c r="C16" s="258" t="s">
         <v>110</v>
       </c>
       <c r="D16" s="12" t="s">
@@ -4060,41 +4224,41 @@
       </c>
       <c r="E16" s="12"/>
       <c r="F16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="H16" s="278" t="s">
-        <v>169</v>
+        <v>154</v>
+      </c>
+      <c r="H16" s="300" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>11</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
+      <c r="B17" s="265"/>
+      <c r="C17" s="259"/>
       <c r="D17" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="H17" s="279" t="s">
-        <v>169</v>
+        <v>159</v>
+      </c>
+      <c r="H17" s="301" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>12</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
+      <c r="B18" s="265"/>
+      <c r="C18" s="259"/>
       <c r="D18" s="12" t="s">
         <v>50</v>
       </c>
@@ -4105,41 +4269,41 @@
       <c r="G18" s="12" t="n">
         <v>6.0</v>
       </c>
-      <c r="H18" s="280" t="s">
-        <v>169</v>
+      <c r="H18" s="302" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>13</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
+      <c r="B19" s="265"/>
+      <c r="C19" s="259"/>
       <c r="D19" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F19" s="12"/>
       <c r="G19" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="H19" s="281" t="s">
-        <v>169</v>
+        <v>198</v>
+      </c>
+      <c r="H19" s="303" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>14</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
+      <c r="B20" s="265"/>
+      <c r="C20" s="259"/>
       <c r="D20" s="12" t="s">
         <v>133</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F20" s="12">
         <v>123</v>
@@ -4147,21 +4311,21 @@
       <c r="G20" s="12" t="n">
         <v>123.0</v>
       </c>
-      <c r="H20" s="282" t="s">
-        <v>169</v>
+      <c r="H20" s="304" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>15</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
+      <c r="B21" s="265"/>
+      <c r="C21" s="260"/>
       <c r="D21" s="242" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F21" s="12">
         <v>1.23</v>
@@ -4169,20 +4333,20 @@
       <c r="G21" s="12" t="n">
         <v>1.23</v>
       </c>
-      <c r="H21" s="283" t="s">
-        <v>169</v>
+      <c r="H21" s="305" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>16</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12" t="s">
-        <v>145</v>
+      <c r="B22" s="265"/>
+      <c r="C22" s="244" t="s">
+        <v>144</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E22" s="243" t="s">
         <v>132</v>
@@ -4193,76 +4357,80 @@
       <c r="G22" s="12" t="n">
         <v>75.0</v>
       </c>
-      <c r="H22" s="302" t="s">
-        <v>169</v>
+      <c r="H22" s="324" t="s">
+        <v>195</v>
       </c>
     </row>
     <row ht="30" r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>17</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12" t="s">
-        <v>146</v>
+      <c r="B23" s="265"/>
+      <c r="C23" s="244" t="s">
+        <v>145</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>48</v>
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="80" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="H23" s="284" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row ht="30" r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+      <c r="H23" s="306" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="30" r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>18</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="80" t="s">
-        <v>166</v>
+      <c r="B24" s="265"/>
+      <c r="C24" s="255" t="s">
+        <v>165</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>48</v>
       </c>
       <c r="E24" s="12"/>
       <c r="F24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="H24" s="285" t="s">
-        <v>169</v>
+        <v>167</v>
+      </c>
+      <c r="H24" s="307" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
+      <c r="A25" s="12">
+        <v>19</v>
+      </c>
+      <c r="B25" s="265"/>
+      <c r="C25" s="256"/>
       <c r="D25" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E25" s="12"/>
       <c r="F25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="H25" s="286" t="s">
-        <v>169</v>
+        <v>159</v>
+      </c>
+      <c r="H25" s="308" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
+      <c r="A26" s="12">
+        <v>20</v>
+      </c>
+      <c r="B26" s="265"/>
+      <c r="C26" s="256"/>
       <c r="D26" s="12" t="s">
         <v>50</v>
       </c>
@@ -4273,37 +4441,41 @@
       <c r="G26" s="12" t="n">
         <v>6.0</v>
       </c>
-      <c r="H26" s="287" t="s">
-        <v>169</v>
+      <c r="H26" s="309" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
+      <c r="A27" s="12">
+        <v>21</v>
+      </c>
+      <c r="B27" s="265"/>
+      <c r="C27" s="256"/>
       <c r="D27" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F27" s="12"/>
       <c r="G27" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="H27" s="288" t="s">
-        <v>169</v>
+        <v>198</v>
+      </c>
+      <c r="H27" s="310" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
+      <c r="A28" s="12">
+        <v>22</v>
+      </c>
+      <c r="B28" s="265"/>
+      <c r="C28" s="256"/>
       <c r="D28" s="12" t="s">
         <v>133</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F28" s="12">
         <v>123</v>
@@ -4311,19 +4483,21 @@
       <c r="G28" s="12" t="n">
         <v>123.0</v>
       </c>
-      <c r="H28" s="289" t="s">
-        <v>169</v>
+      <c r="H28" s="311" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
+      <c r="A29" s="12">
+        <v>23</v>
+      </c>
+      <c r="B29" s="265"/>
+      <c r="C29" s="257"/>
       <c r="D29" s="242" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F29" s="12">
         <v>1.23</v>
@@ -4331,15 +4505,17 @@
       <c r="G29" s="12" t="n">
         <v>1.23</v>
       </c>
-      <c r="H29" s="290" t="s">
-        <v>169</v>
+      <c r="H29" s="312" t="s">
+        <v>195</v>
       </c>
     </row>
     <row ht="30" r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12" t="s">
-        <v>167</v>
+      <c r="A30" s="12">
+        <v>24</v>
+      </c>
+      <c r="B30" s="265"/>
+      <c r="C30" s="244" t="s">
+        <v>166</v>
       </c>
       <c r="D30" s="242"/>
       <c r="E30" s="12"/>
@@ -4349,11 +4525,11 @@
     </row>
     <row customHeight="1" ht="30" r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
-        <v>26</v>
-      </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12" t="s">
-        <v>148</v>
+        <v>25</v>
+      </c>
+      <c r="B31" s="265"/>
+      <c r="C31" s="244" t="s">
+        <v>147</v>
       </c>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
@@ -4363,52 +4539,52 @@
     </row>
     <row ht="30" r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
-        <v>27</v>
-      </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="1" t="s">
-        <v>149</v>
+        <v>26</v>
+      </c>
+      <c r="B32" s="265"/>
+      <c r="C32" s="252" t="s">
+        <v>148</v>
       </c>
       <c r="D32" s="12" t="s">
         <v>48</v>
       </c>
       <c r="E32" s="12"/>
       <c r="F32" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="H32" s="291" t="s">
-        <v>169</v>
+        <v>161</v>
+      </c>
+      <c r="H32" s="313" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
-        <v>28</v>
-      </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
+        <v>27</v>
+      </c>
+      <c r="B33" s="265"/>
+      <c r="C33" s="254"/>
       <c r="D33" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E33" s="12"/>
       <c r="F33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="H33" s="292" t="s">
-        <v>169</v>
+        <v>159</v>
+      </c>
+      <c r="H33" s="314" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
-        <v>29</v>
-      </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
+        <v>28</v>
+      </c>
+      <c r="B34" s="265"/>
+      <c r="C34" s="254"/>
       <c r="D34" s="12" t="s">
         <v>50</v>
       </c>
@@ -4419,41 +4595,41 @@
       <c r="G34" s="12" t="n">
         <v>6.0</v>
       </c>
-      <c r="H34" s="293" t="s">
-        <v>169</v>
+      <c r="H34" s="315" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
-        <v>30</v>
-      </c>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
+        <v>29</v>
+      </c>
+      <c r="B35" s="265"/>
+      <c r="C35" s="254"/>
       <c r="D35" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="H35" s="294" t="s">
-        <v>169</v>
+        <v>198</v>
+      </c>
+      <c r="H35" s="316" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="12">
-        <v>31</v>
-      </c>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
+        <v>30</v>
+      </c>
+      <c r="B36" s="265"/>
+      <c r="C36" s="254"/>
       <c r="D36" s="12" t="s">
         <v>133</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F36" s="12">
         <v>123</v>
@@ -4461,21 +4637,21 @@
       <c r="G36" s="12" t="n">
         <v>123.0</v>
       </c>
-      <c r="H36" s="295" t="s">
-        <v>169</v>
+      <c r="H36" s="317" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="12">
-        <v>32</v>
-      </c>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
+        <v>31</v>
+      </c>
+      <c r="B37" s="265"/>
+      <c r="C37" s="253"/>
       <c r="D37" s="242" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F37" s="12">
         <v>1.23</v>
@@ -4483,41 +4659,41 @@
       <c r="G37" s="12" t="n">
         <v>1.23</v>
       </c>
-      <c r="H37" s="296" t="s">
-        <v>169</v>
+      <c r="H37" s="318" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
-        <v>33</v>
-      </c>
-      <c r="B38" s="12"/>
-      <c r="C38" s="1" t="s">
-        <v>150</v>
+        <v>32</v>
+      </c>
+      <c r="B38" s="265"/>
+      <c r="C38" s="245" t="s">
+        <v>149</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E38" s="243" t="s">
         <v>132</v>
       </c>
       <c r="F38" s="12">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="G38" s="12" t="n">
         <v>25.0</v>
       </c>
-      <c r="H38" s="303" t="s">
-        <v>171</v>
+      <c r="H38" s="325" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="12">
-        <v>34</v>
-      </c>
-      <c r="B39" s="12"/>
-      <c r="C39" s="1" t="s">
-        <v>151</v>
+        <v>33</v>
+      </c>
+      <c r="B39" s="265"/>
+      <c r="C39" s="245" t="s">
+        <v>150</v>
       </c>
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
@@ -4527,54 +4703,52 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="12">
-        <v>35</v>
-      </c>
-      <c r="B40" s="12"/>
-      <c r="C40" s="1" t="s">
-        <v>152</v>
+        <v>34</v>
+      </c>
+      <c r="B40" s="265"/>
+      <c r="C40" s="252" t="s">
+        <v>151</v>
       </c>
       <c r="D40" s="12" t="s">
         <v>48</v>
       </c>
       <c r="E40" s="12"/>
       <c r="F40" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="H40" s="297" t="s">
-        <v>169</v>
+        <v>163</v>
+      </c>
+      <c r="H40" s="319" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="12">
-        <v>36</v>
-      </c>
-      <c r="B41" s="12"/>
-      <c r="C41" s="1" t="s">
-        <v>152</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B41" s="265"/>
+      <c r="C41" s="253"/>
       <c r="D41" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E41" s="12"/>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
-      <c r="H41" s="298" t="s">
-        <v>169</v>
+      <c r="H41" s="320" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="12">
-        <v>37</v>
-      </c>
-      <c r="B42" s="12"/>
-      <c r="C42" s="1" t="s">
-        <v>153</v>
+        <v>36</v>
+      </c>
+      <c r="B42" s="265"/>
+      <c r="C42" s="245" t="s">
+        <v>152</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E42" s="243" t="s">
         <v>132</v>
@@ -4582,23 +4756,19 @@
       <c r="F42" s="12">
         <v>75</v>
       </c>
-      <c r="G42" s="12" t="n">
-        <v>80.0</v>
-      </c>
-      <c r="H42" s="304" t="s">
-        <v>171</v>
-      </c>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="12">
-        <v>38</v>
-      </c>
-      <c r="B43" s="12"/>
-      <c r="C43" s="1" t="s">
-        <v>154</v>
+        <v>37</v>
+      </c>
+      <c r="B43" s="265"/>
+      <c r="C43" s="245" t="s">
+        <v>153</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E43" s="12"/>
       <c r="F43" s="12"/>
@@ -4606,9 +4776,11 @@
       <c r="H43" s="12"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="12"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
+      <c r="A44" s="12">
+        <v>38</v>
+      </c>
+      <c r="B44" s="265"/>
+      <c r="C44" s="244"/>
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
       <c r="F44" s="12"/>
@@ -4616,8 +4788,10 @@
       <c r="H44" s="12"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="12"/>
-      <c r="B45" s="12"/>
+      <c r="A45" s="12">
+        <v>39</v>
+      </c>
+      <c r="B45" s="265"/>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
       <c r="E45" s="12"/>
@@ -4625,10 +4799,395 @@
       <c r="G45" s="12"/>
       <c r="H45" s="12"/>
     </row>
+    <row customHeight="1" ht="20.25" r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="12">
+        <v>40</v>
+      </c>
+      <c r="B46" s="265"/>
+      <c r="C46" s="263" t="s">
+        <v>168</v>
+      </c>
+      <c r="D46" s="263"/>
+      <c r="E46" s="263"/>
+      <c r="F46" s="263"/>
+      <c r="G46" s="263"/>
+      <c r="H46" s="263"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="12">
+        <v>41</v>
+      </c>
+      <c r="B47" s="265"/>
+      <c r="C47" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E47" s="12"/>
+      <c r="F47" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="12">
+        <v>42</v>
+      </c>
+      <c r="B48" s="265"/>
+      <c r="C48" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E48" s="243" t="s">
+        <v>132</v>
+      </c>
+      <c r="F48" s="12">
+        <v>15</v>
+      </c>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="12">
+        <v>43</v>
+      </c>
+      <c r="B49" s="265"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="246"/>
+      <c r="H49" s="12"/>
+    </row>
+    <row customHeight="1" ht="15" r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="12">
+        <v>44</v>
+      </c>
+      <c r="B50" s="265"/>
+      <c r="C50" s="261" t="s">
+        <v>171</v>
+      </c>
+      <c r="D50" s="261"/>
+      <c r="E50" s="261"/>
+      <c r="F50" s="261"/>
+      <c r="G50" s="261"/>
+      <c r="H50" s="262"/>
+    </row>
+    <row ht="30" r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="12">
+        <v>45</v>
+      </c>
+      <c r="B51" s="265"/>
+      <c r="C51" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="E51" s="12"/>
+      <c r="F51" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G51" s="246"/>
+      <c r="H51" s="12"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="12">
+        <v>46</v>
+      </c>
+      <c r="B52" s="265"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="E52" s="12"/>
+      <c r="F52" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G52" s="246"/>
+      <c r="H52" s="12"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="12">
+        <v>47</v>
+      </c>
+      <c r="B53" s="265"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="E53" s="243" t="s">
+        <v>132</v>
+      </c>
+      <c r="F53" s="1">
+        <v>25</v>
+      </c>
+      <c r="G53" s="246"/>
+      <c r="H53" s="12"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="12">
+        <v>48</v>
+      </c>
+      <c r="B54" s="265"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="E54" s="12"/>
+      <c r="F54" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G54" s="246"/>
+      <c r="H54" s="12"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="12">
+        <v>49</v>
+      </c>
+      <c r="B55" s="265"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="246"/>
+      <c r="H55" s="12"/>
+    </row>
+    <row customHeight="1" ht="17.25" r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="12">
+        <v>50</v>
+      </c>
+      <c r="B56" s="265"/>
+      <c r="C56" s="261" t="s">
+        <v>176</v>
+      </c>
+      <c r="D56" s="261"/>
+      <c r="E56" s="261"/>
+      <c r="F56" s="261"/>
+      <c r="G56" s="261"/>
+      <c r="H56" s="262"/>
+    </row>
+    <row ht="30" r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="12">
+        <v>51</v>
+      </c>
+      <c r="B57" s="265"/>
+      <c r="C57" s="248" t="s">
+        <v>177</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="E57" s="12"/>
+      <c r="F57" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="12">
+        <v>52</v>
+      </c>
+      <c r="B58" s="265"/>
+      <c r="C58" s="249"/>
+      <c r="D58" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="E58" s="12"/>
+      <c r="F58" t="s">
+        <v>189</v>
+      </c>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="12">
+        <v>53</v>
+      </c>
+      <c r="B59" s="265"/>
+      <c r="C59" s="250"/>
+      <c r="D59" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="E59" s="243" t="s">
+        <v>132</v>
+      </c>
+      <c r="F59" s="12">
+        <v>25</v>
+      </c>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="12">
+        <v>54</v>
+      </c>
+      <c r="B60" s="265"/>
+      <c r="C60" s="248" t="s">
+        <v>185</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="12">
+        <v>55</v>
+      </c>
+      <c r="B61" s="265"/>
+      <c r="C61" s="249"/>
+      <c r="D61" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="12">
+        <v>56</v>
+      </c>
+      <c r="B62" s="265"/>
+      <c r="C62" s="249"/>
+      <c r="D62" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12">
+        <v>6</v>
+      </c>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="12">
+        <v>57</v>
+      </c>
+      <c r="B63" s="265"/>
+      <c r="C63" s="249"/>
+      <c r="D63" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="12">
+        <v>58</v>
+      </c>
+      <c r="B64" s="265"/>
+      <c r="C64" s="249"/>
+      <c r="D64" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="F64" s="12">
+        <v>123</v>
+      </c>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="12">
+        <v>59</v>
+      </c>
+      <c r="B65" s="265"/>
+      <c r="C65" s="250"/>
+      <c r="D65" s="242" t="s">
+        <v>158</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="F65" s="12">
+        <v>1.23</v>
+      </c>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="12">
+        <v>60</v>
+      </c>
+      <c r="B66" s="265"/>
+      <c r="C66" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="E66" s="12"/>
+      <c r="F66" t="s">
+        <v>192</v>
+      </c>
+      <c r="G66" s="12"/>
+      <c r="H66" s="12"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="12">
+        <v>61</v>
+      </c>
+      <c r="B67" s="265"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
+    </row>
+    <row ht="15.75" r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="12">
+        <v>62</v>
+      </c>
+      <c r="B68" s="266"/>
+      <c r="C68" s="247" t="s">
+        <v>188</v>
+      </c>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B7:B11"/>
+  <mergeCells count="11">
+    <mergeCell ref="B7:B68"/>
+    <mergeCell ref="C60:C65"/>
     <mergeCell ref="C7:C11"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C32:C37"/>
+    <mergeCell ref="C24:C29"/>
+    <mergeCell ref="C16:C21"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="C50:H50"/>
+    <mergeCell ref="C46:H46"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4689,15 +5248,15 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="39" r="1" spans="1:48" x14ac:dyDescent="0.5">
-      <c r="F1" s="247" t="s">
+      <c r="F1" s="269" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="247"/>
-      <c r="H1" s="247"/>
-      <c r="I1" s="247"/>
-      <c r="J1" s="247"/>
-      <c r="K1" s="247"/>
-      <c r="L1" s="247"/>
+      <c r="G1" s="269"/>
+      <c r="H1" s="269"/>
+      <c r="I1" s="269"/>
+      <c r="J1" s="269"/>
+      <c r="K1" s="269"/>
+      <c r="L1" s="269"/>
       <c r="U1" s="15" t="s">
         <v>53</v>
       </c>
@@ -4746,22 +5305,22 @@
       <c r="L5" s="16"/>
     </row>
     <row customHeight="1" ht="36.75" r="6" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="D6" s="248" t="s">
+      <c r="D6" s="270" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="249"/>
-      <c r="F6" s="249"/>
-      <c r="G6" s="249"/>
-      <c r="H6" s="250"/>
+      <c r="E6" s="271"/>
+      <c r="F6" s="271"/>
+      <c r="G6" s="271"/>
+      <c r="H6" s="272"/>
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
-      <c r="M6" s="248" t="s">
+      <c r="M6" s="270" t="s">
         <v>56</v>
       </c>
-      <c r="N6" s="249"/>
-      <c r="O6" s="249"/>
-      <c r="P6" s="249"/>
-      <c r="Q6" s="250"/>
+      <c r="N6" s="271"/>
+      <c r="O6" s="271"/>
+      <c r="P6" s="271"/>
+      <c r="Q6" s="272"/>
     </row>
     <row customHeight="1" ht="76.5" r="7" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A7" s="17" t="s">
@@ -4779,10 +5338,10 @@
       <c r="E7" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="251" t="s">
+      <c r="F7" s="273" t="s">
         <v>62</v>
       </c>
-      <c r="G7" s="252"/>
+      <c r="G7" s="274"/>
       <c r="H7" s="17" t="s">
         <v>63</v>
       </c>
@@ -4805,10 +5364,10 @@
         <v>69</v>
       </c>
       <c r="O7" s="22"/>
-      <c r="P7" s="251" t="s">
+      <c r="P7" s="273" t="s">
         <v>70</v>
       </c>
-      <c r="Q7" s="252"/>
+      <c r="Q7" s="274"/>
       <c r="R7" s="23" t="s">
         <v>64</v>
       </c>
@@ -4876,7 +5435,7 @@
     </row>
     <row customHeight="1" ht="24.95" r="9" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A9" s="32"/>
-      <c r="B9" s="253"/>
+      <c r="B9" s="275"/>
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
       <c r="E9" s="33"/>
@@ -4887,15 +5446,15 @@
       <c r="J9" s="29"/>
       <c r="K9" s="29"/>
       <c r="L9" s="35"/>
-      <c r="M9" s="245"/>
-      <c r="N9" s="257"/>
-      <c r="O9" s="245"/>
-      <c r="P9" s="245"/>
-      <c r="Q9" s="245"/>
-      <c r="R9" s="245"/>
-      <c r="S9" s="245"/>
-      <c r="T9" s="260"/>
-      <c r="U9" s="245"/>
+      <c r="M9" s="267"/>
+      <c r="N9" s="279"/>
+      <c r="O9" s="267"/>
+      <c r="P9" s="267"/>
+      <c r="Q9" s="267"/>
+      <c r="R9" s="267"/>
+      <c r="S9" s="267"/>
+      <c r="T9" s="282"/>
+      <c r="U9" s="267"/>
       <c r="V9" s="34"/>
       <c r="W9" s="29"/>
       <c r="X9" s="29"/>
@@ -4905,7 +5464,7 @@
     </row>
     <row customHeight="1" ht="24.95" r="10" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A10" s="33"/>
-      <c r="B10" s="254"/>
+      <c r="B10" s="276"/>
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
       <c r="E10" s="33"/>
@@ -4916,15 +5475,15 @@
       <c r="J10" s="29"/>
       <c r="K10" s="29"/>
       <c r="L10" s="35"/>
-      <c r="M10" s="256"/>
-      <c r="N10" s="258"/>
-      <c r="O10" s="256"/>
-      <c r="P10" s="256"/>
-      <c r="Q10" s="256"/>
-      <c r="R10" s="256"/>
-      <c r="S10" s="256"/>
-      <c r="T10" s="261"/>
-      <c r="U10" s="256"/>
+      <c r="M10" s="278"/>
+      <c r="N10" s="280"/>
+      <c r="O10" s="278"/>
+      <c r="P10" s="278"/>
+      <c r="Q10" s="278"/>
+      <c r="R10" s="278"/>
+      <c r="S10" s="278"/>
+      <c r="T10" s="283"/>
+      <c r="U10" s="278"/>
       <c r="V10" s="34"/>
       <c r="W10" s="29"/>
       <c r="X10" s="29"/>
@@ -4932,8 +5491,8 @@
       <c r="AK10" s="39"/>
     </row>
     <row customHeight="1" ht="24.95" r="11" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A11" s="245"/>
-      <c r="B11" s="254"/>
+      <c r="A11" s="267"/>
+      <c r="B11" s="276"/>
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
       <c r="E11" s="33"/>
@@ -4944,15 +5503,15 @@
       <c r="J11" s="29"/>
       <c r="K11" s="29"/>
       <c r="L11" s="35"/>
-      <c r="M11" s="256"/>
-      <c r="N11" s="258"/>
-      <c r="O11" s="256"/>
-      <c r="P11" s="256"/>
-      <c r="Q11" s="256"/>
-      <c r="R11" s="256"/>
-      <c r="S11" s="256"/>
-      <c r="T11" s="261"/>
-      <c r="U11" s="256"/>
+      <c r="M11" s="278"/>
+      <c r="N11" s="280"/>
+      <c r="O11" s="278"/>
+      <c r="P11" s="278"/>
+      <c r="Q11" s="278"/>
+      <c r="R11" s="278"/>
+      <c r="S11" s="278"/>
+      <c r="T11" s="283"/>
+      <c r="U11" s="278"/>
       <c r="V11" s="34"/>
       <c r="W11" s="29"/>
       <c r="X11" s="29"/>
@@ -4962,8 +5521,8 @@
       <c r="AV11" s="49"/>
     </row>
     <row customHeight="1" ht="24.95" r="12" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A12" s="246"/>
-      <c r="B12" s="255"/>
+      <c r="A12" s="268"/>
+      <c r="B12" s="277"/>
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
       <c r="E12" s="33"/>
@@ -4974,15 +5533,15 @@
       <c r="J12" s="29"/>
       <c r="K12" s="29"/>
       <c r="L12" s="35"/>
-      <c r="M12" s="246"/>
-      <c r="N12" s="259"/>
-      <c r="O12" s="246"/>
-      <c r="P12" s="246"/>
-      <c r="Q12" s="246"/>
-      <c r="R12" s="246"/>
-      <c r="S12" s="246"/>
-      <c r="T12" s="262"/>
-      <c r="U12" s="246"/>
+      <c r="M12" s="268"/>
+      <c r="N12" s="281"/>
+      <c r="O12" s="268"/>
+      <c r="P12" s="268"/>
+      <c r="Q12" s="268"/>
+      <c r="R12" s="268"/>
+      <c r="S12" s="268"/>
+      <c r="T12" s="284"/>
+      <c r="U12" s="268"/>
       <c r="V12" s="34"/>
       <c r="W12" s="29"/>
       <c r="X12" s="29"/>
@@ -4991,7 +5550,7 @@
     </row>
     <row customHeight="1" ht="24.95" r="13" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A13" s="36"/>
-      <c r="B13" s="253"/>
+      <c r="B13" s="275"/>
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
       <c r="E13" s="33"/>
@@ -5002,15 +5561,15 @@
       <c r="J13" s="29"/>
       <c r="K13" s="29"/>
       <c r="L13" s="35"/>
-      <c r="M13" s="245"/>
-      <c r="N13" s="257"/>
-      <c r="O13" s="245"/>
-      <c r="P13" s="245"/>
-      <c r="Q13" s="245"/>
-      <c r="R13" s="245"/>
-      <c r="S13" s="245"/>
-      <c r="T13" s="260"/>
-      <c r="U13" s="245"/>
+      <c r="M13" s="267"/>
+      <c r="N13" s="279"/>
+      <c r="O13" s="267"/>
+      <c r="P13" s="267"/>
+      <c r="Q13" s="267"/>
+      <c r="R13" s="267"/>
+      <c r="S13" s="267"/>
+      <c r="T13" s="282"/>
+      <c r="U13" s="267"/>
       <c r="V13" s="34"/>
       <c r="W13" s="29"/>
       <c r="X13" s="29"/>
@@ -5019,7 +5578,7 @@
     </row>
     <row customHeight="1" ht="24.95" r="14" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A14" s="37"/>
-      <c r="B14" s="254"/>
+      <c r="B14" s="276"/>
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
       <c r="E14" s="33"/>
@@ -5030,15 +5589,15 @@
       <c r="J14" s="29"/>
       <c r="K14" s="29"/>
       <c r="L14" s="35"/>
-      <c r="M14" s="256"/>
-      <c r="N14" s="258"/>
-      <c r="O14" s="256"/>
-      <c r="P14" s="256"/>
-      <c r="Q14" s="256"/>
-      <c r="R14" s="256"/>
-      <c r="S14" s="256"/>
-      <c r="T14" s="261"/>
-      <c r="U14" s="256"/>
+      <c r="M14" s="278"/>
+      <c r="N14" s="280"/>
+      <c r="O14" s="278"/>
+      <c r="P14" s="278"/>
+      <c r="Q14" s="278"/>
+      <c r="R14" s="278"/>
+      <c r="S14" s="278"/>
+      <c r="T14" s="283"/>
+      <c r="U14" s="278"/>
       <c r="V14" s="34"/>
       <c r="W14" s="29"/>
       <c r="X14" s="29"/>
@@ -5046,8 +5605,8 @@
       <c r="AU14" s="54"/>
     </row>
     <row customHeight="1" ht="24.95" r="15" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A15" s="263"/>
-      <c r="B15" s="254"/>
+      <c r="A15" s="285"/>
+      <c r="B15" s="276"/>
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
@@ -5058,15 +5617,15 @@
       <c r="J15" s="29"/>
       <c r="K15" s="29"/>
       <c r="L15" s="35"/>
-      <c r="M15" s="256"/>
-      <c r="N15" s="258"/>
-      <c r="O15" s="256"/>
-      <c r="P15" s="256"/>
-      <c r="Q15" s="256"/>
-      <c r="R15" s="256"/>
-      <c r="S15" s="256"/>
-      <c r="T15" s="261"/>
-      <c r="U15" s="256"/>
+      <c r="M15" s="278"/>
+      <c r="N15" s="280"/>
+      <c r="O15" s="278"/>
+      <c r="P15" s="278"/>
+      <c r="Q15" s="278"/>
+      <c r="R15" s="278"/>
+      <c r="S15" s="278"/>
+      <c r="T15" s="283"/>
+      <c r="U15" s="278"/>
       <c r="V15" s="34"/>
       <c r="W15" s="29"/>
       <c r="X15" s="29"/>
@@ -5074,8 +5633,8 @@
       <c r="AU15" s="39"/>
     </row>
     <row customHeight="1" ht="24.95" r="16" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A16" s="264"/>
-      <c r="B16" s="255"/>
+      <c r="A16" s="286"/>
+      <c r="B16" s="277"/>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
@@ -5086,15 +5645,15 @@
       <c r="J16" s="29"/>
       <c r="K16" s="29"/>
       <c r="L16" s="35"/>
-      <c r="M16" s="246"/>
-      <c r="N16" s="259"/>
-      <c r="O16" s="246"/>
-      <c r="P16" s="246"/>
-      <c r="Q16" s="246"/>
-      <c r="R16" s="246"/>
-      <c r="S16" s="246"/>
-      <c r="T16" s="262"/>
-      <c r="U16" s="246"/>
+      <c r="M16" s="268"/>
+      <c r="N16" s="281"/>
+      <c r="O16" s="268"/>
+      <c r="P16" s="268"/>
+      <c r="Q16" s="268"/>
+      <c r="R16" s="268"/>
+      <c r="S16" s="268"/>
+      <c r="T16" s="284"/>
+      <c r="U16" s="268"/>
       <c r="V16" s="34"/>
       <c r="W16" s="29"/>
       <c r="X16" s="29"/>
@@ -5103,7 +5662,7 @@
     </row>
     <row customHeight="1" ht="24.95" r="17" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A17" s="32"/>
-      <c r="B17" s="253"/>
+      <c r="B17" s="275"/>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
@@ -5114,15 +5673,15 @@
       <c r="J17" s="29"/>
       <c r="K17" s="29"/>
       <c r="L17" s="35"/>
-      <c r="M17" s="245"/>
-      <c r="N17" s="257"/>
-      <c r="O17" s="245"/>
-      <c r="P17" s="245"/>
-      <c r="Q17" s="245"/>
-      <c r="R17" s="245"/>
-      <c r="S17" s="245"/>
-      <c r="T17" s="260"/>
-      <c r="U17" s="245"/>
+      <c r="M17" s="267"/>
+      <c r="N17" s="279"/>
+      <c r="O17" s="267"/>
+      <c r="P17" s="267"/>
+      <c r="Q17" s="267"/>
+      <c r="R17" s="267"/>
+      <c r="S17" s="267"/>
+      <c r="T17" s="282"/>
+      <c r="U17" s="267"/>
       <c r="V17" s="34"/>
       <c r="W17" s="29"/>
       <c r="X17" s="29"/>
@@ -5131,7 +5690,7 @@
     </row>
     <row customHeight="1" ht="24.95" r="18" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A18" s="33"/>
-      <c r="B18" s="254"/>
+      <c r="B18" s="276"/>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
       <c r="E18" s="33"/>
@@ -5142,22 +5701,22 @@
       <c r="J18" s="29"/>
       <c r="K18" s="29"/>
       <c r="L18" s="35"/>
-      <c r="M18" s="256"/>
-      <c r="N18" s="258"/>
-      <c r="O18" s="256"/>
-      <c r="P18" s="256"/>
-      <c r="Q18" s="256"/>
-      <c r="R18" s="256"/>
-      <c r="S18" s="256"/>
-      <c r="T18" s="261"/>
-      <c r="U18" s="256"/>
+      <c r="M18" s="278"/>
+      <c r="N18" s="280"/>
+      <c r="O18" s="278"/>
+      <c r="P18" s="278"/>
+      <c r="Q18" s="278"/>
+      <c r="R18" s="278"/>
+      <c r="S18" s="278"/>
+      <c r="T18" s="283"/>
+      <c r="U18" s="278"/>
       <c r="V18" s="34"/>
       <c r="W18" s="29"/>
       <c r="X18" s="29"/>
     </row>
     <row customHeight="1" ht="24.95" r="19" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A19" s="245"/>
-      <c r="B19" s="254"/>
+      <c r="A19" s="267"/>
+      <c r="B19" s="276"/>
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
@@ -5168,22 +5727,22 @@
       <c r="J19" s="29"/>
       <c r="K19" s="29"/>
       <c r="L19" s="35"/>
-      <c r="M19" s="256"/>
-      <c r="N19" s="258"/>
-      <c r="O19" s="256"/>
-      <c r="P19" s="256"/>
-      <c r="Q19" s="256"/>
-      <c r="R19" s="256"/>
-      <c r="S19" s="256"/>
-      <c r="T19" s="261"/>
-      <c r="U19" s="256"/>
+      <c r="M19" s="278"/>
+      <c r="N19" s="280"/>
+      <c r="O19" s="278"/>
+      <c r="P19" s="278"/>
+      <c r="Q19" s="278"/>
+      <c r="R19" s="278"/>
+      <c r="S19" s="278"/>
+      <c r="T19" s="283"/>
+      <c r="U19" s="278"/>
       <c r="V19" s="34"/>
       <c r="W19" s="29"/>
       <c r="X19" s="29"/>
     </row>
     <row customHeight="1" ht="24.95" r="20" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A20" s="246"/>
-      <c r="B20" s="255"/>
+      <c r="A20" s="268"/>
+      <c r="B20" s="277"/>
       <c r="C20" s="33"/>
       <c r="D20" s="33"/>
       <c r="E20" s="33"/>
@@ -5194,22 +5753,22 @@
       <c r="J20" s="29"/>
       <c r="K20" s="29"/>
       <c r="L20" s="35"/>
-      <c r="M20" s="246"/>
-      <c r="N20" s="259"/>
-      <c r="O20" s="246"/>
-      <c r="P20" s="246"/>
-      <c r="Q20" s="246"/>
-      <c r="R20" s="246"/>
-      <c r="S20" s="246"/>
-      <c r="T20" s="262"/>
-      <c r="U20" s="246"/>
+      <c r="M20" s="268"/>
+      <c r="N20" s="281"/>
+      <c r="O20" s="268"/>
+      <c r="P20" s="268"/>
+      <c r="Q20" s="268"/>
+      <c r="R20" s="268"/>
+      <c r="S20" s="268"/>
+      <c r="T20" s="284"/>
+      <c r="U20" s="268"/>
       <c r="V20" s="34"/>
       <c r="W20" s="29"/>
       <c r="X20" s="29"/>
     </row>
     <row customHeight="1" ht="24.95" r="21" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A21" s="32"/>
-      <c r="B21" s="253"/>
+      <c r="B21" s="275"/>
       <c r="C21" s="33"/>
       <c r="D21" s="33"/>
       <c r="E21" s="33"/>
@@ -5220,22 +5779,22 @@
       <c r="J21" s="29"/>
       <c r="K21" s="29"/>
       <c r="L21" s="35"/>
-      <c r="M21" s="245"/>
-      <c r="N21" s="257"/>
-      <c r="O21" s="245"/>
-      <c r="P21" s="245"/>
-      <c r="Q21" s="245"/>
-      <c r="R21" s="245"/>
-      <c r="S21" s="245"/>
-      <c r="T21" s="260"/>
-      <c r="U21" s="245"/>
+      <c r="M21" s="267"/>
+      <c r="N21" s="279"/>
+      <c r="O21" s="267"/>
+      <c r="P21" s="267"/>
+      <c r="Q21" s="267"/>
+      <c r="R21" s="267"/>
+      <c r="S21" s="267"/>
+      <c r="T21" s="282"/>
+      <c r="U21" s="267"/>
       <c r="V21" s="34"/>
       <c r="W21" s="29"/>
       <c r="X21" s="29"/>
     </row>
     <row customHeight="1" ht="24.95" r="22" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A22" s="33"/>
-      <c r="B22" s="254"/>
+      <c r="B22" s="276"/>
       <c r="C22" s="33"/>
       <c r="D22" s="33"/>
       <c r="E22" s="33"/>
@@ -5246,22 +5805,22 @@
       <c r="J22" s="29"/>
       <c r="K22" s="29"/>
       <c r="L22" s="35"/>
-      <c r="M22" s="256"/>
-      <c r="N22" s="258"/>
-      <c r="O22" s="256"/>
-      <c r="P22" s="256"/>
-      <c r="Q22" s="256"/>
-      <c r="R22" s="256"/>
-      <c r="S22" s="256"/>
-      <c r="T22" s="261"/>
-      <c r="U22" s="256"/>
+      <c r="M22" s="278"/>
+      <c r="N22" s="280"/>
+      <c r="O22" s="278"/>
+      <c r="P22" s="278"/>
+      <c r="Q22" s="278"/>
+      <c r="R22" s="278"/>
+      <c r="S22" s="278"/>
+      <c r="T22" s="283"/>
+      <c r="U22" s="278"/>
       <c r="V22" s="34"/>
       <c r="W22" s="29"/>
       <c r="X22" s="29"/>
     </row>
     <row customHeight="1" ht="24.95" r="23" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A23" s="272"/>
-      <c r="B23" s="254"/>
+      <c r="A23" s="294"/>
+      <c r="B23" s="276"/>
       <c r="C23" s="33"/>
       <c r="D23" s="33"/>
       <c r="E23" s="33"/>
@@ -5272,22 +5831,22 @@
       <c r="J23" s="29"/>
       <c r="K23" s="29"/>
       <c r="L23" s="35"/>
-      <c r="M23" s="256"/>
-      <c r="N23" s="258"/>
-      <c r="O23" s="256"/>
-      <c r="P23" s="256"/>
-      <c r="Q23" s="256"/>
-      <c r="R23" s="256"/>
-      <c r="S23" s="256"/>
-      <c r="T23" s="261"/>
-      <c r="U23" s="256"/>
+      <c r="M23" s="278"/>
+      <c r="N23" s="280"/>
+      <c r="O23" s="278"/>
+      <c r="P23" s="278"/>
+      <c r="Q23" s="278"/>
+      <c r="R23" s="278"/>
+      <c r="S23" s="278"/>
+      <c r="T23" s="283"/>
+      <c r="U23" s="278"/>
       <c r="V23" s="34"/>
       <c r="W23" s="29"/>
       <c r="X23" s="29"/>
     </row>
     <row customHeight="1" ht="24.95" r="24" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A24" s="273"/>
-      <c r="B24" s="255"/>
+      <c r="A24" s="295"/>
+      <c r="B24" s="277"/>
       <c r="C24" s="33"/>
       <c r="D24" s="33"/>
       <c r="E24" s="33"/>
@@ -5298,15 +5857,15 @@
       <c r="J24" s="29"/>
       <c r="K24" s="29"/>
       <c r="L24" s="35"/>
-      <c r="M24" s="246"/>
-      <c r="N24" s="259"/>
-      <c r="O24" s="246"/>
-      <c r="P24" s="246"/>
-      <c r="Q24" s="246"/>
-      <c r="R24" s="246"/>
-      <c r="S24" s="246"/>
-      <c r="T24" s="262"/>
-      <c r="U24" s="246"/>
+      <c r="M24" s="268"/>
+      <c r="N24" s="281"/>
+      <c r="O24" s="268"/>
+      <c r="P24" s="268"/>
+      <c r="Q24" s="268"/>
+      <c r="R24" s="268"/>
+      <c r="S24" s="268"/>
+      <c r="T24" s="284"/>
+      <c r="U24" s="268"/>
       <c r="V24" s="34"/>
       <c r="W24" s="29"/>
       <c r="X24" s="29"/>
@@ -5622,37 +6181,37 @@
         <v>137</v>
       </c>
       <c r="B40" s="193" t="s">
-        <v>138</v>
+        <v>190</v>
       </c>
       <c r="D40" s="72"/>
       <c r="E40" s="73"/>
-      <c r="F40" s="266" t="s">
+      <c r="F40" s="288" t="s">
         <v>4</v>
       </c>
-      <c r="G40" s="267"/>
-      <c r="H40" s="267"/>
-      <c r="I40" s="268"/>
-      <c r="J40" s="269" t="s">
+      <c r="G40" s="289"/>
+      <c r="H40" s="289"/>
+      <c r="I40" s="290"/>
+      <c r="J40" s="291" t="s">
         <v>5</v>
       </c>
-      <c r="K40" s="270"/>
-      <c r="L40" s="270"/>
-      <c r="M40" s="271"/>
+      <c r="K40" s="292"/>
+      <c r="L40" s="292"/>
+      <c r="M40" s="293"/>
       <c r="N40" s="74" t="s">
         <v>46</v>
       </c>
       <c r="P40" s="120"/>
-      <c r="Q40" s="265" t="s">
+      <c r="Q40" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="R40" s="265"/>
-      <c r="S40" s="265"/>
-      <c r="T40" s="265"/>
-      <c r="U40" s="265"/>
-      <c r="V40" s="265"/>
-      <c r="W40" s="265"/>
-      <c r="X40" s="265"/>
-      <c r="Y40" s="265"/>
+      <c r="R40" s="287"/>
+      <c r="S40" s="287"/>
+      <c r="T40" s="287"/>
+      <c r="U40" s="287"/>
+      <c r="V40" s="287"/>
+      <c r="W40" s="287"/>
+      <c r="X40" s="287"/>
+      <c r="Y40" s="287"/>
       <c r="Z40" s="39"/>
       <c r="AA40" s="39"/>
       <c r="AB40" s="39"/>

--- a/eResidue_CV_eDocs/bin/Test Data/eResidue_eDocs_TestCase_result.xlsx
+++ b/eResidue_CV_eDocs/bin/Test Data/eResidue_eDocs_TestCase_result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="8520" windowWidth="19155" xWindow="240" yWindow="90"/>
+    <workbookView activeTab="2" windowHeight="8520" windowWidth="19155" xWindow="240" yWindow="90"/>
   </bookViews>
   <sheets>
     <sheet name="Equipment" r:id="rId1" sheetId="2"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="201">
   <si>
     <t>Testcase_id</t>
   </si>
@@ -478,9 +478,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">  selenium</t>
-  </si>
-  <si>
     <t>Preferential Transfer</t>
   </si>
   <si>
@@ -669,34 +666,40 @@
     <t>Enter Segment name</t>
   </si>
   <si>
+    <t>Equipment Saved Successfully</t>
+  </si>
+  <si>
+    <t>Choose Location</t>
+  </si>
+  <si>
+    <t>Enter Surface Area</t>
+  </si>
+  <si>
+    <t>Create Equipment</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> selenium</t>
+  </si>
+  <si>
     <t>Liquid</t>
   </si>
   <si>
-    <t>Equipment Saved Successfully</t>
-  </si>
-  <si>
-    <t>Choose Location</t>
-  </si>
-  <si>
-    <t>Enter Surface Area</t>
-  </si>
-  <si>
-    <t>Create Equipment</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>Space Accepted</t>
+    <t>L4 min batch L A2</t>
+  </si>
+  <si>
+    <t>L3 min batch L</t>
   </si>
   <si>
     <t>Fail</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>No Risk Assessment</t>
+    <t>L</t>
+  </si>
+  <si>
+    <t>L4 min batch L</t>
+  </si>
+  <si>
+    <t>L3 min batch L A2</t>
   </si>
 </sst>
 </file>
@@ -704,7 +707,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="139" x14ac:knownFonts="1">
+  <fonts count="113" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1318,17 +1321,7 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
+      <color indexed="10"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1338,132 +1331,12 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="17"/>
+      <color indexed="10"/>
     </font>
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
+      <color indexed="10"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1641,7 +1514,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="326">
+  <cellXfs count="300">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
@@ -2094,6 +1967,15 @@
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="108" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2142,38 +2024,32 @@
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="6" fillId="9" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="75" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="5" fillId="2" fontId="21" numFmtId="3" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="6" fillId="2" fontId="21" numFmtId="3" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="2" fontId="21" numFmtId="3" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="5" fillId="5" fontId="21" numFmtId="3" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="6" fillId="5" fontId="21" numFmtId="3" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="5" fontId="21" numFmtId="3" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="8" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="9" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="10" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="6" fillId="0" fontId="10" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="10" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="3" fontId="11" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="11" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="14" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -2184,7 +2060,13 @@
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="14" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="8" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="7" fillId="0" fontId="8" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="3" fillId="0" fontId="8" numFmtId="49" xfId="0">
@@ -2214,63 +2096,28 @@
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="75" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="9" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="5" fillId="2" fontId="21" numFmtId="3" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="10" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="6" fillId="2" fontId="21" numFmtId="3" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="6" fillId="0" fontId="10" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="2" fontId="21" numFmtId="3" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="10" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="5" fillId="5" fontId="21" numFmtId="3" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="3" fontId="11" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="6" fillId="5" fontId="21" numFmtId="3" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="11" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="5" fontId="21" numFmtId="3" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="8" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="109" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="110" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="111" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="112" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="113" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="114" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="115" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="116" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="117" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="118" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="119" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="120" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="121" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="122" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="123" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="124" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="125" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="126" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="127" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="128" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="129" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="130" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="131" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="132" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="133" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="134" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="135" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="136" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="137" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="138" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -3952,21 +3799,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:I68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="A4" workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="80" width="5.7109375" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" style="80" width="5.7109375" collapsed="false"/>
     <col min="2" max="2" customWidth="true" style="80" width="15.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="80" width="38.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="80" width="38.7109375" collapsed="false"/>
     <col min="4" max="4" customWidth="true" style="80" width="37.5703125" collapsed="true"/>
     <col min="5" max="5" customWidth="true" style="80" width="23.28515625" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" style="80" width="29.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="80" width="27.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="80" width="27.5703125" collapsed="false"/>
     <col min="8" max="8" customWidth="true" style="80" width="8.85546875" collapsed="true"/>
-    <col min="9" max="16384" style="80" width="9.140625" collapsed="true"/>
+    <col min="9" max="16384" style="80" width="9.140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -4025,10 +3872,10 @@
       <c r="A7" s="12">
         <v>1</v>
       </c>
-      <c r="B7" s="264" t="s">
-        <v>194</v>
-      </c>
-      <c r="C7" s="251" t="s">
+      <c r="B7" s="248" t="s">
+        <v>192</v>
+      </c>
+      <c r="C7" s="254" t="s">
         <v>47</v>
       </c>
       <c r="D7" s="12" t="s">
@@ -4038,19 +3885,15 @@
       <c r="F7" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="G7" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="H7" s="296" t="s">
-        <v>195</v>
-      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="237"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>2</v>
       </c>
-      <c r="B8" s="265"/>
-      <c r="C8" s="251"/>
+      <c r="B8" s="249"/>
+      <c r="C8" s="254"/>
       <c r="D8" s="12" t="s">
         <v>49</v>
       </c>
@@ -4067,8 +3910,8 @@
       <c r="A9" s="12">
         <v>3</v>
       </c>
-      <c r="B9" s="265"/>
-      <c r="C9" s="251"/>
+      <c r="B9" s="249"/>
+      <c r="C9" s="254"/>
       <c r="D9" s="12" t="s">
         <v>50</v>
       </c>
@@ -4078,19 +3921,15 @@
       <c r="F9" s="239">
         <v>75</v>
       </c>
-      <c r="G9" s="239" t="n">
-        <v>75.0</v>
-      </c>
-      <c r="H9" s="297" t="s">
-        <v>195</v>
-      </c>
+      <c r="G9" s="239"/>
+      <c r="H9" s="240"/>
     </row>
     <row ht="60" r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>4</v>
       </c>
-      <c r="B10" s="265"/>
-      <c r="C10" s="251"/>
+      <c r="B10" s="249"/>
+      <c r="C10" s="254"/>
       <c r="D10" s="12" t="s">
         <v>51</v>
       </c>
@@ -4098,42 +3937,34 @@
         <v>134</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="H10" s="298" t="s">
-        <v>195</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="G10" s="12"/>
+      <c r="H10" s="241"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>5</v>
       </c>
-      <c r="B11" s="265"/>
-      <c r="C11" s="251"/>
+      <c r="B11" s="249"/>
+      <c r="C11" s="254"/>
       <c r="D11" s="12" t="s">
         <v>133</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>135</v>
+        <v>193</v>
       </c>
       <c r="F11" s="12"/>
-      <c r="G11" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="H11" s="299" t="s">
-        <v>197</v>
-      </c>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>6</v>
       </c>
-      <c r="B12" s="265"/>
+      <c r="B12" s="249"/>
       <c r="C12" s="244" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
@@ -4145,12 +3976,12 @@
       <c r="A13" s="12">
         <v>7</v>
       </c>
-      <c r="B13" s="265"/>
+      <c r="B13" s="249"/>
       <c r="C13" s="244" t="s">
+        <v>138</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>139</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>140</v>
       </c>
       <c r="E13" s="243" t="s">
         <v>132</v>
@@ -4158,23 +3989,19 @@
       <c r="F13" s="12">
         <v>25</v>
       </c>
-      <c r="G13" s="12" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="H13" s="321" t="s">
-        <v>195</v>
-      </c>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>8</v>
       </c>
-      <c r="B14" s="265"/>
+      <c r="B14" s="249"/>
       <c r="C14" s="244" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E14" s="243" t="s">
         <v>132</v>
@@ -4182,20 +4009,16 @@
       <c r="F14" s="12">
         <v>25</v>
       </c>
-      <c r="G14" s="12" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="H14" s="322" t="s">
-        <v>195</v>
-      </c>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>9</v>
       </c>
-      <c r="B15" s="265"/>
+      <c r="B15" s="249"/>
       <c r="C15" s="244" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="243" t="s">
@@ -4204,19 +4027,15 @@
       <c r="F15" s="12">
         <v>75</v>
       </c>
-      <c r="G15" s="12" t="n">
-        <v>75.0</v>
-      </c>
-      <c r="H15" s="323" t="s">
-        <v>195</v>
-      </c>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>10</v>
       </c>
-      <c r="B16" s="265"/>
-      <c r="C16" s="258" t="s">
+      <c r="B16" s="249"/>
+      <c r="C16" s="261" t="s">
         <v>110</v>
       </c>
       <c r="D16" s="12" t="s">
@@ -4224,41 +4043,33 @@
       </c>
       <c r="E16" s="12"/>
       <c r="F16" t="s">
-        <v>154</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="H16" s="300" t="s">
-        <v>195</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>11</v>
       </c>
-      <c r="B17" s="265"/>
-      <c r="C17" s="259"/>
+      <c r="B17" s="249"/>
+      <c r="C17" s="262"/>
       <c r="D17" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" t="s">
-        <v>159</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="H17" s="301" t="s">
-        <v>195</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>12</v>
       </c>
-      <c r="B18" s="265"/>
-      <c r="C18" s="259"/>
+      <c r="B18" s="249"/>
+      <c r="C18" s="262"/>
       <c r="D18" s="12" t="s">
         <v>50</v>
       </c>
@@ -4266,87 +4077,71 @@
       <c r="F18" s="12">
         <v>6</v>
       </c>
-      <c r="G18" s="12" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="H18" s="302" t="s">
-        <v>195</v>
-      </c>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>13</v>
       </c>
-      <c r="B19" s="265"/>
-      <c r="C19" s="259"/>
+      <c r="B19" s="249"/>
+      <c r="C19" s="262"/>
       <c r="D19" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F19" s="12"/>
-      <c r="G19" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="H19" s="303" t="s">
-        <v>195</v>
-      </c>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>14</v>
       </c>
-      <c r="B20" s="265"/>
-      <c r="C20" s="259"/>
+      <c r="B20" s="249"/>
+      <c r="C20" s="262"/>
       <c r="D20" s="12" t="s">
         <v>133</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F20" s="12">
         <v>123</v>
       </c>
-      <c r="G20" s="12" t="n">
-        <v>123.0</v>
-      </c>
-      <c r="H20" s="304" t="s">
-        <v>195</v>
-      </c>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>15</v>
       </c>
-      <c r="B21" s="265"/>
-      <c r="C21" s="260"/>
+      <c r="B21" s="249"/>
+      <c r="C21" s="263"/>
       <c r="D21" s="242" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F21" s="12">
         <v>1.23</v>
       </c>
-      <c r="G21" s="12" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="H21" s="305" t="s">
-        <v>195</v>
-      </c>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>16</v>
       </c>
-      <c r="B22" s="265"/>
+      <c r="B22" s="249"/>
       <c r="C22" s="244" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E22" s="243" t="s">
         <v>132</v>
@@ -4354,83 +4149,67 @@
       <c r="F22" s="12">
         <v>75</v>
       </c>
-      <c r="G22" s="12" t="n">
-        <v>75.0</v>
-      </c>
-      <c r="H22" s="324" t="s">
-        <v>195</v>
-      </c>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
     </row>
     <row ht="30" r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>17</v>
       </c>
-      <c r="B23" s="265"/>
+      <c r="B23" s="249"/>
       <c r="C23" s="244" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>48</v>
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="80" t="s">
-        <v>164</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="H23" s="306" t="s">
-        <v>195</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
     </row>
     <row customHeight="1" ht="30" r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>18</v>
       </c>
-      <c r="B24" s="265"/>
-      <c r="C24" s="255" t="s">
-        <v>165</v>
+      <c r="B24" s="249"/>
+      <c r="C24" s="258" t="s">
+        <v>164</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>48</v>
       </c>
       <c r="E24" s="12"/>
       <c r="F24" t="s">
-        <v>167</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="H24" s="307" t="s">
-        <v>195</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>19</v>
       </c>
-      <c r="B25" s="265"/>
-      <c r="C25" s="256"/>
+      <c r="B25" s="249"/>
+      <c r="C25" s="259"/>
       <c r="D25" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E25" s="12"/>
       <c r="F25" t="s">
-        <v>159</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="H25" s="308" t="s">
-        <v>195</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>20</v>
       </c>
-      <c r="B26" s="265"/>
-      <c r="C26" s="256"/>
+      <c r="B26" s="249"/>
+      <c r="C26" s="259"/>
       <c r="D26" s="12" t="s">
         <v>50</v>
       </c>
@@ -4438,84 +4217,68 @@
       <c r="F26" s="12">
         <v>6</v>
       </c>
-      <c r="G26" s="12" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="H26" s="309" t="s">
-        <v>195</v>
-      </c>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>21</v>
       </c>
-      <c r="B27" s="265"/>
-      <c r="C27" s="256"/>
+      <c r="B27" s="249"/>
+      <c r="C27" s="259"/>
       <c r="D27" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F27" s="12"/>
-      <c r="G27" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="H27" s="310" t="s">
-        <v>195</v>
-      </c>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>22</v>
       </c>
-      <c r="B28" s="265"/>
-      <c r="C28" s="256"/>
+      <c r="B28" s="249"/>
+      <c r="C28" s="259"/>
       <c r="D28" s="12" t="s">
         <v>133</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F28" s="12">
         <v>123</v>
       </c>
-      <c r="G28" s="12" t="n">
-        <v>123.0</v>
-      </c>
-      <c r="H28" s="311" t="s">
-        <v>195</v>
-      </c>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>23</v>
       </c>
-      <c r="B29" s="265"/>
-      <c r="C29" s="257"/>
+      <c r="B29" s="249"/>
+      <c r="C29" s="260"/>
       <c r="D29" s="242" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F29" s="12">
         <v>1.23</v>
       </c>
-      <c r="G29" s="12" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="H29" s="312" t="s">
-        <v>195</v>
-      </c>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
     </row>
     <row ht="30" r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>24</v>
       </c>
-      <c r="B30" s="265"/>
+      <c r="B30" s="249"/>
       <c r="C30" s="244" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D30" s="242"/>
       <c r="E30" s="12"/>
@@ -4527,9 +4290,9 @@
       <c r="A31" s="12">
         <v>25</v>
       </c>
-      <c r="B31" s="265"/>
+      <c r="B31" s="249"/>
       <c r="C31" s="244" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
@@ -4541,50 +4304,42 @@
       <c r="A32" s="12">
         <v>26</v>
       </c>
-      <c r="B32" s="265"/>
-      <c r="C32" s="252" t="s">
-        <v>148</v>
+      <c r="B32" s="249"/>
+      <c r="C32" s="255" t="s">
+        <v>147</v>
       </c>
       <c r="D32" s="12" t="s">
         <v>48</v>
       </c>
       <c r="E32" s="12"/>
       <c r="F32" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="G32" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="H32" s="313" t="s">
-        <v>195</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
         <v>27</v>
       </c>
-      <c r="B33" s="265"/>
-      <c r="C33" s="254"/>
+      <c r="B33" s="249"/>
+      <c r="C33" s="257"/>
       <c r="D33" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E33" s="12"/>
       <c r="F33" t="s">
-        <v>159</v>
-      </c>
-      <c r="G33" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="H33" s="314" t="s">
-        <v>195</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
         <v>28</v>
       </c>
-      <c r="B34" s="265"/>
-      <c r="C34" s="254"/>
+      <c r="B34" s="249"/>
+      <c r="C34" s="257"/>
       <c r="D34" s="12" t="s">
         <v>50</v>
       </c>
@@ -4592,87 +4347,71 @@
       <c r="F34" s="12">
         <v>6</v>
       </c>
-      <c r="G34" s="12" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="H34" s="315" t="s">
-        <v>195</v>
-      </c>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
         <v>29</v>
       </c>
-      <c r="B35" s="265"/>
-      <c r="C35" s="254"/>
+      <c r="B35" s="249"/>
+      <c r="C35" s="257"/>
       <c r="D35" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F35" s="12"/>
-      <c r="G35" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="H35" s="316" t="s">
-        <v>195</v>
-      </c>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="12">
         <v>30</v>
       </c>
-      <c r="B36" s="265"/>
-      <c r="C36" s="254"/>
+      <c r="B36" s="249"/>
+      <c r="C36" s="257"/>
       <c r="D36" s="12" t="s">
         <v>133</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F36" s="12">
         <v>123</v>
       </c>
-      <c r="G36" s="12" t="n">
-        <v>123.0</v>
-      </c>
-      <c r="H36" s="317" t="s">
-        <v>195</v>
-      </c>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="12">
         <v>31</v>
       </c>
-      <c r="B37" s="265"/>
-      <c r="C37" s="253"/>
+      <c r="B37" s="249"/>
+      <c r="C37" s="256"/>
       <c r="D37" s="242" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F37" s="12">
         <v>1.23</v>
       </c>
-      <c r="G37" s="12" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="H37" s="318" t="s">
-        <v>195</v>
-      </c>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
         <v>32</v>
       </c>
-      <c r="B38" s="265"/>
+      <c r="B38" s="249"/>
       <c r="C38" s="245" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E38" s="243" t="s">
         <v>132</v>
@@ -4680,20 +4419,16 @@
       <c r="F38" s="12">
         <v>25</v>
       </c>
-      <c r="G38" s="12" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="H38" s="325" t="s">
-        <v>195</v>
-      </c>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="12">
         <v>33</v>
       </c>
-      <c r="B39" s="265"/>
+      <c r="B39" s="249"/>
       <c r="C39" s="245" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
@@ -4705,50 +4440,44 @@
       <c r="A40" s="12">
         <v>34</v>
       </c>
-      <c r="B40" s="265"/>
-      <c r="C40" s="252" t="s">
-        <v>151</v>
+      <c r="B40" s="249"/>
+      <c r="C40" s="255" t="s">
+        <v>150</v>
       </c>
       <c r="D40" s="12" t="s">
         <v>48</v>
       </c>
       <c r="E40" s="12"/>
       <c r="F40" t="s">
-        <v>163</v>
-      </c>
-      <c r="G40" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="H40" s="319" t="s">
-        <v>195</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="12">
         <v>35</v>
       </c>
-      <c r="B41" s="265"/>
-      <c r="C41" s="253"/>
+      <c r="B41" s="249"/>
+      <c r="C41" s="256"/>
       <c r="D41" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E41" s="12"/>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
-      <c r="H41" s="320" t="s">
-        <v>195</v>
-      </c>
+      <c r="H41" s="12"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="12">
         <v>36</v>
       </c>
-      <c r="B42" s="265"/>
+      <c r="B42" s="249"/>
       <c r="C42" s="245" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E42" s="243" t="s">
         <v>132</v>
@@ -4763,12 +4492,12 @@
       <c r="A43" s="12">
         <v>37</v>
       </c>
-      <c r="B43" s="265"/>
+      <c r="B43" s="249"/>
       <c r="C43" s="245" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E43" s="12"/>
       <c r="F43" s="12"/>
@@ -4779,7 +4508,7 @@
       <c r="A44" s="12">
         <v>38</v>
       </c>
-      <c r="B44" s="265"/>
+      <c r="B44" s="249"/>
       <c r="C44" s="244"/>
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
@@ -4791,7 +4520,7 @@
       <c r="A45" s="12">
         <v>39</v>
       </c>
-      <c r="B45" s="265"/>
+      <c r="B45" s="249"/>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
       <c r="E45" s="12"/>
@@ -4803,46 +4532,44 @@
       <c r="A46" s="12">
         <v>40</v>
       </c>
-      <c r="B46" s="265"/>
-      <c r="C46" s="263" t="s">
-        <v>168</v>
-      </c>
-      <c r="D46" s="263"/>
-      <c r="E46" s="263"/>
-      <c r="F46" s="263"/>
-      <c r="G46" s="263"/>
-      <c r="H46" s="263"/>
+      <c r="B46" s="249"/>
+      <c r="C46" s="266" t="s">
+        <v>167</v>
+      </c>
+      <c r="D46" s="266"/>
+      <c r="E46" s="266"/>
+      <c r="F46" s="266"/>
+      <c r="G46" s="266"/>
+      <c r="H46" s="266"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="12">
         <v>41</v>
       </c>
-      <c r="B47" s="265"/>
+      <c r="B47" s="249"/>
       <c r="C47" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D47" s="12" t="s">
         <v>48</v>
       </c>
       <c r="E47" s="12"/>
       <c r="F47" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G47" s="12"/>
-      <c r="H47" s="12" t="s">
-        <v>199</v>
-      </c>
+      <c r="H47" s="12"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="12">
         <v>42</v>
       </c>
-      <c r="B48" s="265"/>
+      <c r="B48" s="249"/>
       <c r="C48" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E48" s="243" t="s">
         <v>132</v>
@@ -4851,15 +4578,13 @@
         <v>15</v>
       </c>
       <c r="G48" s="12"/>
-      <c r="H48" s="12" t="s">
-        <v>199</v>
-      </c>
+      <c r="H48" s="12"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="12">
         <v>43</v>
       </c>
-      <c r="B49" s="265"/>
+      <c r="B49" s="249"/>
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
       <c r="E49" s="12"/>
@@ -4871,30 +4596,30 @@
       <c r="A50" s="12">
         <v>44</v>
       </c>
-      <c r="B50" s="265"/>
-      <c r="C50" s="261" t="s">
-        <v>171</v>
-      </c>
-      <c r="D50" s="261"/>
-      <c r="E50" s="261"/>
-      <c r="F50" s="261"/>
-      <c r="G50" s="261"/>
-      <c r="H50" s="262"/>
+      <c r="B50" s="249"/>
+      <c r="C50" s="264" t="s">
+        <v>170</v>
+      </c>
+      <c r="D50" s="264"/>
+      <c r="E50" s="264"/>
+      <c r="F50" s="264"/>
+      <c r="G50" s="264"/>
+      <c r="H50" s="265"/>
     </row>
     <row ht="30" r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="12">
         <v>45</v>
       </c>
-      <c r="B51" s="265"/>
+      <c r="B51" s="249"/>
       <c r="C51" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E51" s="12"/>
       <c r="F51" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G51" s="246"/>
       <c r="H51" s="12"/>
@@ -4903,14 +4628,14 @@
       <c r="A52" s="12">
         <v>46</v>
       </c>
-      <c r="B52" s="265"/>
+      <c r="B52" s="249"/>
       <c r="C52" s="12"/>
       <c r="D52" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E52" s="12"/>
       <c r="F52" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G52" s="246"/>
       <c r="H52" s="12"/>
@@ -4919,10 +4644,10 @@
       <c r="A53" s="12">
         <v>47</v>
       </c>
-      <c r="B53" s="265"/>
+      <c r="B53" s="249"/>
       <c r="C53" s="12"/>
       <c r="D53" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E53" s="243" t="s">
         <v>132</v>
@@ -4937,14 +4662,14 @@
       <c r="A54" s="12">
         <v>48</v>
       </c>
-      <c r="B54" s="265"/>
+      <c r="B54" s="249"/>
       <c r="C54" s="12"/>
       <c r="D54" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E54" s="12"/>
       <c r="F54" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G54" s="246"/>
       <c r="H54" s="12"/>
@@ -4953,7 +4678,7 @@
       <c r="A55" s="12">
         <v>49</v>
       </c>
-      <c r="B55" s="265"/>
+      <c r="B55" s="249"/>
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
@@ -4965,30 +4690,30 @@
       <c r="A56" s="12">
         <v>50</v>
       </c>
-      <c r="B56" s="265"/>
-      <c r="C56" s="261" t="s">
-        <v>176</v>
-      </c>
-      <c r="D56" s="261"/>
-      <c r="E56" s="261"/>
-      <c r="F56" s="261"/>
-      <c r="G56" s="261"/>
-      <c r="H56" s="262"/>
+      <c r="B56" s="249"/>
+      <c r="C56" s="264" t="s">
+        <v>175</v>
+      </c>
+      <c r="D56" s="264"/>
+      <c r="E56" s="264"/>
+      <c r="F56" s="264"/>
+      <c r="G56" s="264"/>
+      <c r="H56" s="265"/>
     </row>
     <row ht="30" r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="12">
         <v>51</v>
       </c>
-      <c r="B57" s="265"/>
-      <c r="C57" s="248" t="s">
-        <v>177</v>
+      <c r="B57" s="249"/>
+      <c r="C57" s="251" t="s">
+        <v>176</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E57" s="12"/>
       <c r="F57" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G57" s="12"/>
       <c r="H57" s="12"/>
@@ -4997,14 +4722,14 @@
       <c r="A58" s="12">
         <v>52</v>
       </c>
-      <c r="B58" s="265"/>
-      <c r="C58" s="249"/>
+      <c r="B58" s="249"/>
+      <c r="C58" s="252"/>
       <c r="D58" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E58" s="12"/>
       <c r="F58" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G58" s="12"/>
       <c r="H58" s="12"/>
@@ -5013,10 +4738,10 @@
       <c r="A59" s="12">
         <v>53</v>
       </c>
-      <c r="B59" s="265"/>
-      <c r="C59" s="250"/>
+      <c r="B59" s="249"/>
+      <c r="C59" s="253"/>
       <c r="D59" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E59" s="243" t="s">
         <v>132</v>
@@ -5031,16 +4756,16 @@
       <c r="A60" s="12">
         <v>54</v>
       </c>
-      <c r="B60" s="265"/>
-      <c r="C60" s="248" t="s">
-        <v>185</v>
+      <c r="B60" s="249"/>
+      <c r="C60" s="251" t="s">
+        <v>184</v>
       </c>
       <c r="D60" s="12" t="s">
         <v>48</v>
       </c>
       <c r="E60" s="12"/>
       <c r="F60" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G60" s="12"/>
       <c r="H60" s="12"/>
@@ -5049,14 +4774,14 @@
       <c r="A61" s="12">
         <v>55</v>
       </c>
-      <c r="B61" s="265"/>
-      <c r="C61" s="249"/>
+      <c r="B61" s="249"/>
+      <c r="C61" s="252"/>
       <c r="D61" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E61" s="12"/>
       <c r="F61" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G61" s="12"/>
       <c r="H61" s="12"/>
@@ -5065,8 +4790,8 @@
       <c r="A62" s="12">
         <v>56</v>
       </c>
-      <c r="B62" s="265"/>
-      <c r="C62" s="249"/>
+      <c r="B62" s="249"/>
+      <c r="C62" s="252"/>
       <c r="D62" s="12" t="s">
         <v>50</v>
       </c>
@@ -5081,13 +4806,13 @@
       <c r="A63" s="12">
         <v>57</v>
       </c>
-      <c r="B63" s="265"/>
-      <c r="C63" s="249"/>
+      <c r="B63" s="249"/>
+      <c r="C63" s="252"/>
       <c r="D63" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F63" s="12"/>
       <c r="G63" s="12"/>
@@ -5097,13 +4822,13 @@
       <c r="A64" s="12">
         <v>58</v>
       </c>
-      <c r="B64" s="265"/>
-      <c r="C64" s="249"/>
+      <c r="B64" s="249"/>
+      <c r="C64" s="252"/>
       <c r="D64" s="12" t="s">
         <v>133</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F64" s="12">
         <v>123</v>
@@ -5115,13 +4840,13 @@
       <c r="A65" s="12">
         <v>59</v>
       </c>
-      <c r="B65" s="265"/>
-      <c r="C65" s="250"/>
+      <c r="B65" s="249"/>
+      <c r="C65" s="253"/>
       <c r="D65" s="242" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F65" s="12">
         <v>1.23</v>
@@ -5133,16 +4858,16 @@
       <c r="A66" s="12">
         <v>60</v>
       </c>
-      <c r="B66" s="265"/>
+      <c r="B66" s="249"/>
       <c r="C66" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D66" s="12" t="s">
         <v>186</v>
-      </c>
-      <c r="D66" s="12" t="s">
-        <v>187</v>
       </c>
       <c r="E66" s="12"/>
       <c r="F66" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G66" s="12"/>
       <c r="H66" s="12"/>
@@ -5151,7 +4876,7 @@
       <c r="A67" s="12">
         <v>61</v>
       </c>
-      <c r="B67" s="265"/>
+      <c r="B67" s="249"/>
       <c r="C67" s="12"/>
       <c r="D67" s="12"/>
       <c r="E67" s="12"/>
@@ -5163,14 +4888,14 @@
       <c r="A68" s="12">
         <v>62</v>
       </c>
-      <c r="B68" s="266"/>
+      <c r="B68" s="250"/>
       <c r="C68" s="247" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D68" s="12"/>
       <c r="E68" s="12"/>
       <c r="F68" s="12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G68" s="12"/>
       <c r="H68" s="12"/>
@@ -5198,7 +4923,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW434"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0" zoomScale="50" zoomScaleNormal="50">
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0" zoomScale="50" zoomScaleNormal="50">
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
@@ -5242,21 +4967,21 @@
     <col min="36" max="36" customWidth="true" style="15" width="19.42578125" collapsed="true"/>
     <col min="37" max="37" customWidth="true" style="15" width="13.42578125" collapsed="true"/>
     <col min="38" max="38" customWidth="true" style="15" width="26.0" collapsed="true"/>
-    <col min="39" max="39" customWidth="true" style="15" width="26.0" collapsed="true"/>
+    <col min="39" max="39" customWidth="true" style="15" width="26.0" collapsed="false"/>
     <col min="40" max="41" customWidth="true" style="15" width="29.0" collapsed="true"/>
     <col min="42" max="16384" style="15" width="8.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="39" r="1" spans="1:48" x14ac:dyDescent="0.5">
-      <c r="F1" s="269" t="s">
+      <c r="F1" s="290" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="269"/>
-      <c r="H1" s="269"/>
-      <c r="I1" s="269"/>
-      <c r="J1" s="269"/>
-      <c r="K1" s="269"/>
-      <c r="L1" s="269"/>
+      <c r="G1" s="290"/>
+      <c r="H1" s="290"/>
+      <c r="I1" s="290"/>
+      <c r="J1" s="290"/>
+      <c r="K1" s="290"/>
+      <c r="L1" s="290"/>
       <c r="U1" s="15" t="s">
         <v>53</v>
       </c>
@@ -5305,22 +5030,22 @@
       <c r="L5" s="16"/>
     </row>
     <row customHeight="1" ht="36.75" r="6" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="D6" s="270" t="s">
+      <c r="D6" s="291" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="271"/>
-      <c r="F6" s="271"/>
-      <c r="G6" s="271"/>
-      <c r="H6" s="272"/>
+      <c r="E6" s="292"/>
+      <c r="F6" s="292"/>
+      <c r="G6" s="292"/>
+      <c r="H6" s="293"/>
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
-      <c r="M6" s="270" t="s">
+      <c r="M6" s="291" t="s">
         <v>56</v>
       </c>
-      <c r="N6" s="271"/>
-      <c r="O6" s="271"/>
-      <c r="P6" s="271"/>
-      <c r="Q6" s="272"/>
+      <c r="N6" s="292"/>
+      <c r="O6" s="292"/>
+      <c r="P6" s="292"/>
+      <c r="Q6" s="293"/>
     </row>
     <row customHeight="1" ht="76.5" r="7" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A7" s="17" t="s">
@@ -5338,10 +5063,10 @@
       <c r="E7" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="273" t="s">
+      <c r="F7" s="294" t="s">
         <v>62</v>
       </c>
-      <c r="G7" s="274"/>
+      <c r="G7" s="295"/>
       <c r="H7" s="17" t="s">
         <v>63</v>
       </c>
@@ -5364,10 +5089,10 @@
         <v>69</v>
       </c>
       <c r="O7" s="22"/>
-      <c r="P7" s="273" t="s">
+      <c r="P7" s="294" t="s">
         <v>70</v>
       </c>
-      <c r="Q7" s="274"/>
+      <c r="Q7" s="295"/>
       <c r="R7" s="23" t="s">
         <v>64</v>
       </c>
@@ -5435,7 +5160,7 @@
     </row>
     <row customHeight="1" ht="24.95" r="9" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A9" s="32"/>
-      <c r="B9" s="275"/>
+      <c r="B9" s="276"/>
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
       <c r="E9" s="33"/>
@@ -5446,15 +5171,15 @@
       <c r="J9" s="29"/>
       <c r="K9" s="29"/>
       <c r="L9" s="35"/>
-      <c r="M9" s="267"/>
-      <c r="N9" s="279"/>
-      <c r="O9" s="267"/>
-      <c r="P9" s="267"/>
-      <c r="Q9" s="267"/>
-      <c r="R9" s="267"/>
-      <c r="S9" s="267"/>
-      <c r="T9" s="282"/>
-      <c r="U9" s="267"/>
+      <c r="M9" s="279"/>
+      <c r="N9" s="282"/>
+      <c r="O9" s="279"/>
+      <c r="P9" s="279"/>
+      <c r="Q9" s="279"/>
+      <c r="R9" s="279"/>
+      <c r="S9" s="279"/>
+      <c r="T9" s="285"/>
+      <c r="U9" s="279"/>
       <c r="V9" s="34"/>
       <c r="W9" s="29"/>
       <c r="X9" s="29"/>
@@ -5464,7 +5189,7 @@
     </row>
     <row customHeight="1" ht="24.95" r="10" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A10" s="33"/>
-      <c r="B10" s="276"/>
+      <c r="B10" s="277"/>
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
       <c r="E10" s="33"/>
@@ -5475,15 +5200,15 @@
       <c r="J10" s="29"/>
       <c r="K10" s="29"/>
       <c r="L10" s="35"/>
-      <c r="M10" s="278"/>
-      <c r="N10" s="280"/>
-      <c r="O10" s="278"/>
-      <c r="P10" s="278"/>
-      <c r="Q10" s="278"/>
-      <c r="R10" s="278"/>
-      <c r="S10" s="278"/>
-      <c r="T10" s="283"/>
-      <c r="U10" s="278"/>
+      <c r="M10" s="280"/>
+      <c r="N10" s="283"/>
+      <c r="O10" s="280"/>
+      <c r="P10" s="280"/>
+      <c r="Q10" s="280"/>
+      <c r="R10" s="280"/>
+      <c r="S10" s="280"/>
+      <c r="T10" s="286"/>
+      <c r="U10" s="280"/>
       <c r="V10" s="34"/>
       <c r="W10" s="29"/>
       <c r="X10" s="29"/>
@@ -5491,8 +5216,8 @@
       <c r="AK10" s="39"/>
     </row>
     <row customHeight="1" ht="24.95" r="11" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A11" s="267"/>
-      <c r="B11" s="276"/>
+      <c r="A11" s="279"/>
+      <c r="B11" s="277"/>
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
       <c r="E11" s="33"/>
@@ -5503,15 +5228,15 @@
       <c r="J11" s="29"/>
       <c r="K11" s="29"/>
       <c r="L11" s="35"/>
-      <c r="M11" s="278"/>
-      <c r="N11" s="280"/>
-      <c r="O11" s="278"/>
-      <c r="P11" s="278"/>
-      <c r="Q11" s="278"/>
-      <c r="R11" s="278"/>
-      <c r="S11" s="278"/>
-      <c r="T11" s="283"/>
-      <c r="U11" s="278"/>
+      <c r="M11" s="280"/>
+      <c r="N11" s="283"/>
+      <c r="O11" s="280"/>
+      <c r="P11" s="280"/>
+      <c r="Q11" s="280"/>
+      <c r="R11" s="280"/>
+      <c r="S11" s="280"/>
+      <c r="T11" s="286"/>
+      <c r="U11" s="280"/>
       <c r="V11" s="34"/>
       <c r="W11" s="29"/>
       <c r="X11" s="29"/>
@@ -5521,8 +5246,8 @@
       <c r="AV11" s="49"/>
     </row>
     <row customHeight="1" ht="24.95" r="12" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A12" s="268"/>
-      <c r="B12" s="277"/>
+      <c r="A12" s="281"/>
+      <c r="B12" s="278"/>
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
       <c r="E12" s="33"/>
@@ -5533,15 +5258,15 @@
       <c r="J12" s="29"/>
       <c r="K12" s="29"/>
       <c r="L12" s="35"/>
-      <c r="M12" s="268"/>
-      <c r="N12" s="281"/>
-      <c r="O12" s="268"/>
-      <c r="P12" s="268"/>
-      <c r="Q12" s="268"/>
-      <c r="R12" s="268"/>
-      <c r="S12" s="268"/>
-      <c r="T12" s="284"/>
-      <c r="U12" s="268"/>
+      <c r="M12" s="281"/>
+      <c r="N12" s="284"/>
+      <c r="O12" s="281"/>
+      <c r="P12" s="281"/>
+      <c r="Q12" s="281"/>
+      <c r="R12" s="281"/>
+      <c r="S12" s="281"/>
+      <c r="T12" s="287"/>
+      <c r="U12" s="281"/>
       <c r="V12" s="34"/>
       <c r="W12" s="29"/>
       <c r="X12" s="29"/>
@@ -5550,7 +5275,7 @@
     </row>
     <row customHeight="1" ht="24.95" r="13" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A13" s="36"/>
-      <c r="B13" s="275"/>
+      <c r="B13" s="276"/>
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
       <c r="E13" s="33"/>
@@ -5561,15 +5286,15 @@
       <c r="J13" s="29"/>
       <c r="K13" s="29"/>
       <c r="L13" s="35"/>
-      <c r="M13" s="267"/>
-      <c r="N13" s="279"/>
-      <c r="O13" s="267"/>
-      <c r="P13" s="267"/>
-      <c r="Q13" s="267"/>
-      <c r="R13" s="267"/>
-      <c r="S13" s="267"/>
-      <c r="T13" s="282"/>
-      <c r="U13" s="267"/>
+      <c r="M13" s="279"/>
+      <c r="N13" s="282"/>
+      <c r="O13" s="279"/>
+      <c r="P13" s="279"/>
+      <c r="Q13" s="279"/>
+      <c r="R13" s="279"/>
+      <c r="S13" s="279"/>
+      <c r="T13" s="285"/>
+      <c r="U13" s="279"/>
       <c r="V13" s="34"/>
       <c r="W13" s="29"/>
       <c r="X13" s="29"/>
@@ -5578,7 +5303,7 @@
     </row>
     <row customHeight="1" ht="24.95" r="14" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A14" s="37"/>
-      <c r="B14" s="276"/>
+      <c r="B14" s="277"/>
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
       <c r="E14" s="33"/>
@@ -5589,15 +5314,15 @@
       <c r="J14" s="29"/>
       <c r="K14" s="29"/>
       <c r="L14" s="35"/>
-      <c r="M14" s="278"/>
-      <c r="N14" s="280"/>
-      <c r="O14" s="278"/>
-      <c r="P14" s="278"/>
-      <c r="Q14" s="278"/>
-      <c r="R14" s="278"/>
-      <c r="S14" s="278"/>
-      <c r="T14" s="283"/>
-      <c r="U14" s="278"/>
+      <c r="M14" s="280"/>
+      <c r="N14" s="283"/>
+      <c r="O14" s="280"/>
+      <c r="P14" s="280"/>
+      <c r="Q14" s="280"/>
+      <c r="R14" s="280"/>
+      <c r="S14" s="280"/>
+      <c r="T14" s="286"/>
+      <c r="U14" s="280"/>
       <c r="V14" s="34"/>
       <c r="W14" s="29"/>
       <c r="X14" s="29"/>
@@ -5605,8 +5330,8 @@
       <c r="AU14" s="54"/>
     </row>
     <row customHeight="1" ht="24.95" r="15" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A15" s="285"/>
-      <c r="B15" s="276"/>
+      <c r="A15" s="288"/>
+      <c r="B15" s="277"/>
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
@@ -5617,15 +5342,15 @@
       <c r="J15" s="29"/>
       <c r="K15" s="29"/>
       <c r="L15" s="35"/>
-      <c r="M15" s="278"/>
-      <c r="N15" s="280"/>
-      <c r="O15" s="278"/>
-      <c r="P15" s="278"/>
-      <c r="Q15" s="278"/>
-      <c r="R15" s="278"/>
-      <c r="S15" s="278"/>
-      <c r="T15" s="283"/>
-      <c r="U15" s="278"/>
+      <c r="M15" s="280"/>
+      <c r="N15" s="283"/>
+      <c r="O15" s="280"/>
+      <c r="P15" s="280"/>
+      <c r="Q15" s="280"/>
+      <c r="R15" s="280"/>
+      <c r="S15" s="280"/>
+      <c r="T15" s="286"/>
+      <c r="U15" s="280"/>
       <c r="V15" s="34"/>
       <c r="W15" s="29"/>
       <c r="X15" s="29"/>
@@ -5633,8 +5358,8 @@
       <c r="AU15" s="39"/>
     </row>
     <row customHeight="1" ht="24.95" r="16" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A16" s="286"/>
-      <c r="B16" s="277"/>
+      <c r="A16" s="289"/>
+      <c r="B16" s="278"/>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
@@ -5645,15 +5370,15 @@
       <c r="J16" s="29"/>
       <c r="K16" s="29"/>
       <c r="L16" s="35"/>
-      <c r="M16" s="268"/>
-      <c r="N16" s="281"/>
-      <c r="O16" s="268"/>
-      <c r="P16" s="268"/>
-      <c r="Q16" s="268"/>
-      <c r="R16" s="268"/>
-      <c r="S16" s="268"/>
-      <c r="T16" s="284"/>
-      <c r="U16" s="268"/>
+      <c r="M16" s="281"/>
+      <c r="N16" s="284"/>
+      <c r="O16" s="281"/>
+      <c r="P16" s="281"/>
+      <c r="Q16" s="281"/>
+      <c r="R16" s="281"/>
+      <c r="S16" s="281"/>
+      <c r="T16" s="287"/>
+      <c r="U16" s="281"/>
       <c r="V16" s="34"/>
       <c r="W16" s="29"/>
       <c r="X16" s="29"/>
@@ -5662,7 +5387,7 @@
     </row>
     <row customHeight="1" ht="24.95" r="17" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A17" s="32"/>
-      <c r="B17" s="275"/>
+      <c r="B17" s="276"/>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
@@ -5673,15 +5398,15 @@
       <c r="J17" s="29"/>
       <c r="K17" s="29"/>
       <c r="L17" s="35"/>
-      <c r="M17" s="267"/>
-      <c r="N17" s="279"/>
-      <c r="O17" s="267"/>
-      <c r="P17" s="267"/>
-      <c r="Q17" s="267"/>
-      <c r="R17" s="267"/>
-      <c r="S17" s="267"/>
-      <c r="T17" s="282"/>
-      <c r="U17" s="267"/>
+      <c r="M17" s="279"/>
+      <c r="N17" s="282"/>
+      <c r="O17" s="279"/>
+      <c r="P17" s="279"/>
+      <c r="Q17" s="279"/>
+      <c r="R17" s="279"/>
+      <c r="S17" s="279"/>
+      <c r="T17" s="285"/>
+      <c r="U17" s="279"/>
       <c r="V17" s="34"/>
       <c r="W17" s="29"/>
       <c r="X17" s="29"/>
@@ -5690,7 +5415,7 @@
     </row>
     <row customHeight="1" ht="24.95" r="18" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A18" s="33"/>
-      <c r="B18" s="276"/>
+      <c r="B18" s="277"/>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
       <c r="E18" s="33"/>
@@ -5701,22 +5426,22 @@
       <c r="J18" s="29"/>
       <c r="K18" s="29"/>
       <c r="L18" s="35"/>
-      <c r="M18" s="278"/>
-      <c r="N18" s="280"/>
-      <c r="O18" s="278"/>
-      <c r="P18" s="278"/>
-      <c r="Q18" s="278"/>
-      <c r="R18" s="278"/>
-      <c r="S18" s="278"/>
-      <c r="T18" s="283"/>
-      <c r="U18" s="278"/>
+      <c r="M18" s="280"/>
+      <c r="N18" s="283"/>
+      <c r="O18" s="280"/>
+      <c r="P18" s="280"/>
+      <c r="Q18" s="280"/>
+      <c r="R18" s="280"/>
+      <c r="S18" s="280"/>
+      <c r="T18" s="286"/>
+      <c r="U18" s="280"/>
       <c r="V18" s="34"/>
       <c r="W18" s="29"/>
       <c r="X18" s="29"/>
     </row>
     <row customHeight="1" ht="24.95" r="19" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A19" s="267"/>
-      <c r="B19" s="276"/>
+      <c r="A19" s="279"/>
+      <c r="B19" s="277"/>
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
@@ -5727,22 +5452,22 @@
       <c r="J19" s="29"/>
       <c r="K19" s="29"/>
       <c r="L19" s="35"/>
-      <c r="M19" s="278"/>
-      <c r="N19" s="280"/>
-      <c r="O19" s="278"/>
-      <c r="P19" s="278"/>
-      <c r="Q19" s="278"/>
-      <c r="R19" s="278"/>
-      <c r="S19" s="278"/>
-      <c r="T19" s="283"/>
-      <c r="U19" s="278"/>
+      <c r="M19" s="280"/>
+      <c r="N19" s="283"/>
+      <c r="O19" s="280"/>
+      <c r="P19" s="280"/>
+      <c r="Q19" s="280"/>
+      <c r="R19" s="280"/>
+      <c r="S19" s="280"/>
+      <c r="T19" s="286"/>
+      <c r="U19" s="280"/>
       <c r="V19" s="34"/>
       <c r="W19" s="29"/>
       <c r="X19" s="29"/>
     </row>
     <row customHeight="1" ht="24.95" r="20" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A20" s="268"/>
-      <c r="B20" s="277"/>
+      <c r="A20" s="281"/>
+      <c r="B20" s="278"/>
       <c r="C20" s="33"/>
       <c r="D20" s="33"/>
       <c r="E20" s="33"/>
@@ -5753,22 +5478,22 @@
       <c r="J20" s="29"/>
       <c r="K20" s="29"/>
       <c r="L20" s="35"/>
-      <c r="M20" s="268"/>
-      <c r="N20" s="281"/>
-      <c r="O20" s="268"/>
-      <c r="P20" s="268"/>
-      <c r="Q20" s="268"/>
-      <c r="R20" s="268"/>
-      <c r="S20" s="268"/>
-      <c r="T20" s="284"/>
-      <c r="U20" s="268"/>
+      <c r="M20" s="281"/>
+      <c r="N20" s="284"/>
+      <c r="O20" s="281"/>
+      <c r="P20" s="281"/>
+      <c r="Q20" s="281"/>
+      <c r="R20" s="281"/>
+      <c r="S20" s="281"/>
+      <c r="T20" s="287"/>
+      <c r="U20" s="281"/>
       <c r="V20" s="34"/>
       <c r="W20" s="29"/>
       <c r="X20" s="29"/>
     </row>
     <row customHeight="1" ht="24.95" r="21" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A21" s="32"/>
-      <c r="B21" s="275"/>
+      <c r="B21" s="276"/>
       <c r="C21" s="33"/>
       <c r="D21" s="33"/>
       <c r="E21" s="33"/>
@@ -5779,22 +5504,22 @@
       <c r="J21" s="29"/>
       <c r="K21" s="29"/>
       <c r="L21" s="35"/>
-      <c r="M21" s="267"/>
-      <c r="N21" s="279"/>
-      <c r="O21" s="267"/>
-      <c r="P21" s="267"/>
-      <c r="Q21" s="267"/>
-      <c r="R21" s="267"/>
-      <c r="S21" s="267"/>
-      <c r="T21" s="282"/>
-      <c r="U21" s="267"/>
+      <c r="M21" s="279"/>
+      <c r="N21" s="282"/>
+      <c r="O21" s="279"/>
+      <c r="P21" s="279"/>
+      <c r="Q21" s="279"/>
+      <c r="R21" s="279"/>
+      <c r="S21" s="279"/>
+      <c r="T21" s="285"/>
+      <c r="U21" s="279"/>
       <c r="V21" s="34"/>
       <c r="W21" s="29"/>
       <c r="X21" s="29"/>
     </row>
     <row customHeight="1" ht="24.95" r="22" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A22" s="33"/>
-      <c r="B22" s="276"/>
+      <c r="B22" s="277"/>
       <c r="C22" s="33"/>
       <c r="D22" s="33"/>
       <c r="E22" s="33"/>
@@ -5805,22 +5530,22 @@
       <c r="J22" s="29"/>
       <c r="K22" s="29"/>
       <c r="L22" s="35"/>
-      <c r="M22" s="278"/>
-      <c r="N22" s="280"/>
-      <c r="O22" s="278"/>
-      <c r="P22" s="278"/>
-      <c r="Q22" s="278"/>
-      <c r="R22" s="278"/>
-      <c r="S22" s="278"/>
-      <c r="T22" s="283"/>
-      <c r="U22" s="278"/>
+      <c r="M22" s="280"/>
+      <c r="N22" s="283"/>
+      <c r="O22" s="280"/>
+      <c r="P22" s="280"/>
+      <c r="Q22" s="280"/>
+      <c r="R22" s="280"/>
+      <c r="S22" s="280"/>
+      <c r="T22" s="286"/>
+      <c r="U22" s="280"/>
       <c r="V22" s="34"/>
       <c r="W22" s="29"/>
       <c r="X22" s="29"/>
     </row>
     <row customHeight="1" ht="24.95" r="23" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A23" s="294"/>
-      <c r="B23" s="276"/>
+      <c r="A23" s="274"/>
+      <c r="B23" s="277"/>
       <c r="C23" s="33"/>
       <c r="D23" s="33"/>
       <c r="E23" s="33"/>
@@ -5831,22 +5556,22 @@
       <c r="J23" s="29"/>
       <c r="K23" s="29"/>
       <c r="L23" s="35"/>
-      <c r="M23" s="278"/>
-      <c r="N23" s="280"/>
-      <c r="O23" s="278"/>
-      <c r="P23" s="278"/>
-      <c r="Q23" s="278"/>
-      <c r="R23" s="278"/>
-      <c r="S23" s="278"/>
-      <c r="T23" s="283"/>
-      <c r="U23" s="278"/>
+      <c r="M23" s="280"/>
+      <c r="N23" s="283"/>
+      <c r="O23" s="280"/>
+      <c r="P23" s="280"/>
+      <c r="Q23" s="280"/>
+      <c r="R23" s="280"/>
+      <c r="S23" s="280"/>
+      <c r="T23" s="286"/>
+      <c r="U23" s="280"/>
       <c r="V23" s="34"/>
       <c r="W23" s="29"/>
       <c r="X23" s="29"/>
     </row>
     <row customHeight="1" ht="24.95" r="24" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A24" s="295"/>
-      <c r="B24" s="277"/>
+      <c r="A24" s="275"/>
+      <c r="B24" s="278"/>
       <c r="C24" s="33"/>
       <c r="D24" s="33"/>
       <c r="E24" s="33"/>
@@ -5857,15 +5582,15 @@
       <c r="J24" s="29"/>
       <c r="K24" s="29"/>
       <c r="L24" s="35"/>
-      <c r="M24" s="268"/>
-      <c r="N24" s="281"/>
-      <c r="O24" s="268"/>
-      <c r="P24" s="268"/>
-      <c r="Q24" s="268"/>
-      <c r="R24" s="268"/>
-      <c r="S24" s="268"/>
-      <c r="T24" s="284"/>
-      <c r="U24" s="268"/>
+      <c r="M24" s="281"/>
+      <c r="N24" s="284"/>
+      <c r="O24" s="281"/>
+      <c r="P24" s="281"/>
+      <c r="Q24" s="281"/>
+      <c r="R24" s="281"/>
+      <c r="S24" s="281"/>
+      <c r="T24" s="287"/>
+      <c r="U24" s="281"/>
       <c r="V24" s="34"/>
       <c r="W24" s="29"/>
       <c r="X24" s="29"/>
@@ -6178,40 +5903,40 @@
     </row>
     <row customHeight="1" ht="50.25" r="40" spans="1:42" x14ac:dyDescent="0.5">
       <c r="A40" s="192" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B40" s="193" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D40" s="72"/>
       <c r="E40" s="73"/>
-      <c r="F40" s="288" t="s">
+      <c r="F40" s="268" t="s">
         <v>4</v>
       </c>
-      <c r="G40" s="289"/>
-      <c r="H40" s="289"/>
-      <c r="I40" s="290"/>
-      <c r="J40" s="291" t="s">
+      <c r="G40" s="269"/>
+      <c r="H40" s="269"/>
+      <c r="I40" s="270"/>
+      <c r="J40" s="271" t="s">
         <v>5</v>
       </c>
-      <c r="K40" s="292"/>
-      <c r="L40" s="292"/>
-      <c r="M40" s="293"/>
+      <c r="K40" s="272"/>
+      <c r="L40" s="272"/>
+      <c r="M40" s="273"/>
       <c r="N40" s="74" t="s">
         <v>46</v>
       </c>
       <c r="P40" s="120"/>
-      <c r="Q40" s="287" t="s">
+      <c r="Q40" s="267" t="s">
         <v>116</v>
       </c>
-      <c r="R40" s="287"/>
-      <c r="S40" s="287"/>
-      <c r="T40" s="287"/>
-      <c r="U40" s="287"/>
-      <c r="V40" s="287"/>
-      <c r="W40" s="287"/>
-      <c r="X40" s="287"/>
-      <c r="Y40" s="287"/>
+      <c r="R40" s="267"/>
+      <c r="S40" s="267"/>
+      <c r="T40" s="267"/>
+      <c r="U40" s="267"/>
+      <c r="V40" s="267"/>
+      <c r="W40" s="267"/>
+      <c r="X40" s="267"/>
+      <c r="Y40" s="267"/>
       <c r="Z40" s="39"/>
       <c r="AA40" s="39"/>
       <c r="AB40" s="39"/>
@@ -6340,7 +6065,7 @@
         <v>91</v>
       </c>
       <c r="AO41" s="221" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AP41" s="16"/>
     </row>
@@ -6351,32 +6076,80 @@
       <c r="B42" s="169" t="s">
         <v>124</v>
       </c>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="145"/>
-      <c r="G42" s="145"/>
-      <c r="H42" s="146"/>
-      <c r="I42" s="146"/>
-      <c r="J42" s="146"/>
-      <c r="K42" s="145"/>
-      <c r="L42" s="145"/>
-      <c r="M42" s="146"/>
-      <c r="N42" s="186"/>
+      <c r="D42" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="E42" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="F42" s="145" t="n">
+        <v>0.0010000000474974513</v>
+      </c>
+      <c r="G42" s="145" t="n">
+        <v>2.0000000949949027E-5</v>
+      </c>
+      <c r="H42" s="146" t="n">
+        <v>10.000000474974513</v>
+      </c>
+      <c r="I42" s="146" t="n">
+        <v>0.0050000002374872565</v>
+      </c>
+      <c r="J42" s="146" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="K42" s="145" t="n">
+        <v>0.20000000298023224</v>
+      </c>
+      <c r="L42" s="145" t="n">
+        <v>100000.0</v>
+      </c>
+      <c r="M42" s="146" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="N42" s="296" t="s">
+        <v>197</v>
+      </c>
       <c r="O42" s="48"/>
       <c r="P42" s="125"/>
-      <c r="Q42" s="136"/>
-      <c r="R42" s="200"/>
-      <c r="S42" s="200"/>
-      <c r="T42" s="200"/>
-      <c r="U42" s="200"/>
-      <c r="V42" s="200"/>
-      <c r="W42" s="200"/>
-      <c r="X42" s="200"/>
-      <c r="Y42" s="201"/>
-      <c r="Z42" s="200"/>
-      <c r="AA42" s="200"/>
-      <c r="AB42" s="202"/>
-      <c r="AC42" s="203"/>
+      <c r="Q42" s="136" t="s">
+        <v>195</v>
+      </c>
+      <c r="R42" s="200" t="s">
+        <v>198</v>
+      </c>
+      <c r="S42" s="200" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="T42" s="200" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="U42" s="200" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="V42" s="200" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="W42" s="200" t="n">
+        <v>0.5000000353902578</v>
+      </c>
+      <c r="X42" s="200" t="n">
+        <v>0.010000000707805157</v>
+      </c>
+      <c r="Y42" s="201" t="n">
+        <v>2.8571431296212335E-4</v>
+      </c>
+      <c r="Z42" s="200" t="n">
+        <v>5000.0</v>
+      </c>
+      <c r="AA42" s="200" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AB42" s="202" t="n">
+        <v>2.857142925262451</v>
+      </c>
+      <c r="AC42" s="297" t="s">
+        <v>197</v>
+      </c>
       <c r="AD42" s="48"/>
       <c r="AE42" s="42"/>
       <c r="AF42" s="42"/>
@@ -6385,10 +6158,18 @@
       <c r="AI42" s="202"/>
       <c r="AJ42" s="222"/>
       <c r="AK42" s="119"/>
-      <c r="AL42" s="42"/>
-      <c r="AM42" s="42"/>
-      <c r="AN42" s="29"/>
-      <c r="AO42" s="29"/>
+      <c r="AL42" s="42" t="s">
+        <v>199</v>
+      </c>
+      <c r="AM42" s="42" t="s">
+        <v>198</v>
+      </c>
+      <c r="AN42" s="29" t="n">
+        <v>0.005000000353902578</v>
+      </c>
+      <c r="AO42" s="29" t="n">
+        <v>100.00000762939453</v>
+      </c>
       <c r="AP42" s="16"/>
     </row>
     <row customHeight="1" ht="24.95" r="43" spans="1:42" x14ac:dyDescent="0.4">
@@ -6398,17 +6179,39 @@
       <c r="B43" s="169" t="s">
         <v>125</v>
       </c>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="146"/>
-      <c r="G43" s="145"/>
-      <c r="H43" s="146"/>
-      <c r="I43" s="147"/>
-      <c r="J43" s="146"/>
-      <c r="K43" s="145"/>
-      <c r="L43" s="145"/>
-      <c r="M43" s="147"/>
-      <c r="N43" s="165"/>
+      <c r="D43" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="E43" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="F43" s="146" t="n">
+        <v>0.010000000707805157</v>
+      </c>
+      <c r="G43" s="145" t="n">
+        <v>2.7777779743903213E-5</v>
+      </c>
+      <c r="H43" s="146" t="n">
+        <v>16.666667846341927</v>
+      </c>
+      <c r="I43" s="147" t="n">
+        <v>0.008333333923170963</v>
+      </c>
+      <c r="J43" s="146" t="n">
+        <v>0.0020000000949949026</v>
+      </c>
+      <c r="K43" s="145" t="n">
+        <v>3.333333370392211E-5</v>
+      </c>
+      <c r="L43" s="145" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="M43" s="147" t="n">
+        <v>0.010000000707805157</v>
+      </c>
+      <c r="N43" s="298" t="s">
+        <v>197</v>
+      </c>
       <c r="O43" s="48"/>
       <c r="P43" s="125"/>
       <c r="Q43" s="136"/>
@@ -6432,10 +6235,18 @@
       <c r="AI43" s="202"/>
       <c r="AJ43" s="223"/>
       <c r="AK43" s="119"/>
-      <c r="AL43" s="42"/>
-      <c r="AM43" s="42"/>
-      <c r="AN43" s="29"/>
-      <c r="AO43" s="29"/>
+      <c r="AL43" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="AM43" s="42" t="s">
+        <v>198</v>
+      </c>
+      <c r="AN43" s="29" t="n">
+        <v>0.008333333767950535</v>
+      </c>
+      <c r="AO43" s="29" t="n">
+        <v>119.99999237060547</v>
+      </c>
       <c r="AP43" s="16"/>
     </row>
     <row customHeight="1" ht="24.95" r="44" spans="1:42" x14ac:dyDescent="0.4">
@@ -6456,19 +6267,45 @@
       <c r="N44" s="166"/>
       <c r="O44" s="48"/>
       <c r="P44" s="125"/>
-      <c r="Q44" s="136"/>
-      <c r="R44" s="200"/>
-      <c r="S44" s="200"/>
-      <c r="T44" s="200"/>
-      <c r="U44" s="200"/>
-      <c r="V44" s="200"/>
-      <c r="W44" s="200"/>
-      <c r="X44" s="200"/>
-      <c r="Y44" s="201"/>
-      <c r="Z44" s="200"/>
-      <c r="AA44" s="200"/>
-      <c r="AB44" s="202"/>
-      <c r="AC44" s="203"/>
+      <c r="Q44" s="136" t="s">
+        <v>200</v>
+      </c>
+      <c r="R44" s="200" t="s">
+        <v>198</v>
+      </c>
+      <c r="S44" s="200" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="T44" s="200" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="U44" s="200" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="V44" s="200" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="W44" s="200" t="n">
+        <v>0.8333333767950535</v>
+      </c>
+      <c r="X44" s="200" t="n">
+        <v>0.01666666753590107</v>
+      </c>
+      <c r="Y44" s="201" t="n">
+        <v>4.7619051252092634E-4</v>
+      </c>
+      <c r="Z44" s="200" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AA44" s="200" t="n">
+        <v>0.020000001415610313</v>
+      </c>
+      <c r="AB44" s="202" t="n">
+        <v>5.714286235161126E-4</v>
+      </c>
+      <c r="AC44" s="299" t="s">
+        <v>197</v>
+      </c>
       <c r="AD44" s="48"/>
       <c r="AE44" s="42"/>
       <c r="AF44" s="42"/>
@@ -14471,6 +14308,44 @@
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="M9:M12"/>
+    <mergeCell ref="N9:N12"/>
+    <mergeCell ref="O9:O12"/>
+    <mergeCell ref="P9:P12"/>
+    <mergeCell ref="Q9:Q12"/>
+    <mergeCell ref="R9:R12"/>
+    <mergeCell ref="S9:S12"/>
+    <mergeCell ref="T9:T12"/>
+    <mergeCell ref="U9:U12"/>
+    <mergeCell ref="R13:R16"/>
+    <mergeCell ref="S13:S16"/>
+    <mergeCell ref="T13:T16"/>
+    <mergeCell ref="U13:U16"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="M13:M16"/>
+    <mergeCell ref="N13:N16"/>
+    <mergeCell ref="O13:O16"/>
+    <mergeCell ref="P13:P16"/>
+    <mergeCell ref="Q13:Q16"/>
+    <mergeCell ref="R17:R20"/>
+    <mergeCell ref="S17:S20"/>
+    <mergeCell ref="T17:T20"/>
+    <mergeCell ref="Q17:Q20"/>
+    <mergeCell ref="U17:U20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="M17:M20"/>
+    <mergeCell ref="N17:N20"/>
+    <mergeCell ref="O17:O20"/>
+    <mergeCell ref="P17:P20"/>
     <mergeCell ref="Q40:Y40"/>
     <mergeCell ref="F40:I40"/>
     <mergeCell ref="J40:M40"/>
@@ -14485,44 +14360,6 @@
     <mergeCell ref="R21:R24"/>
     <mergeCell ref="S21:S24"/>
     <mergeCell ref="T21:T24"/>
-    <mergeCell ref="U17:U20"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="M17:M20"/>
-    <mergeCell ref="N17:N20"/>
-    <mergeCell ref="O17:O20"/>
-    <mergeCell ref="P17:P20"/>
-    <mergeCell ref="P13:P16"/>
-    <mergeCell ref="Q13:Q16"/>
-    <mergeCell ref="R17:R20"/>
-    <mergeCell ref="S17:S20"/>
-    <mergeCell ref="T17:T20"/>
-    <mergeCell ref="Q17:Q20"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="M13:M16"/>
-    <mergeCell ref="N13:N16"/>
-    <mergeCell ref="O13:O16"/>
-    <mergeCell ref="R9:R12"/>
-    <mergeCell ref="S9:S12"/>
-    <mergeCell ref="T9:T12"/>
-    <mergeCell ref="U9:U12"/>
-    <mergeCell ref="R13:R16"/>
-    <mergeCell ref="S13:S16"/>
-    <mergeCell ref="T13:T16"/>
-    <mergeCell ref="U13:U16"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="M9:M12"/>
-    <mergeCell ref="N9:N12"/>
-    <mergeCell ref="O9:O12"/>
-    <mergeCell ref="P9:P12"/>
-    <mergeCell ref="Q9:Q12"/>
   </mergeCells>
   <conditionalFormatting sqref="AM1:AM1048576">
     <cfRule dxfId="0" priority="1" type="duplicateValues"/>

--- a/eResidue_CV_eDocs/bin/Test Data/eResidue_eDocs_TestCase_result.xlsx
+++ b/eResidue_CV_eDocs/bin/Test Data/eResidue_eDocs_TestCase_result.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="240">
   <si>
     <t>Testcase_id</t>
   </si>
@@ -767,34 +767,34 @@
     <t>Equipment Group saved successfully</t>
   </si>
   <si>
-    <t>Diluent</t>
+    <t>Liquid Anull</t>
   </si>
   <si>
-    <t>S1</t>
+    <t>Liquid A</t>
   </si>
   <si>
-    <t/>
+    <t>Liquid B</t>
   </si>
   <si>
-    <t>S2</t>
+    <t>Fail</t>
   </si>
   <si>
-    <t>Pass</t>
+    <t>Liquid A null</t>
   </si>
   <si>
-    <t>E1</t>
+    <t>L6</t>
   </si>
   <si>
-    <t>E1,</t>
+    <t>L5</t>
   </si>
   <si>
-    <t>NA</t>
+    <t>L</t>
   </si>
   <si>
-    <t>E2</t>
+    <t>Liquid Bnull</t>
   </si>
   <si>
-    <t>E2,E1,</t>
+    <t>Liquid B null</t>
   </si>
 </sst>
 </file>
@@ -802,7 +802,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="88" x14ac:knownFonts="1">
+  <fonts count="94" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1286,22 +1286,52 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="17"/>
+      <color indexed="10"/>
     </font>
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="17"/>
+      <color indexed="10"/>
     </font>
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="17"/>
+      <color indexed="10"/>
     </font>
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="17"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1479,7 +1509,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="273">
+  <cellXfs count="279">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
@@ -2090,6 +2120,12 @@
     <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -4387,67 +4423,33 @@
       <c r="B42" s="125" t="s">
         <v>124</v>
       </c>
-      <c r="D42" s="27" t="s">
-        <v>231</v>
-      </c>
-      <c r="E42" s="27" t="s">
-        <v>230</v>
-      </c>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
       <c r="F42" s="118"/>
       <c r="G42" s="118"/>
-      <c r="H42" s="119" t="n">
-        <v>10000.0</v>
-      </c>
-      <c r="I42" s="119" t="n">
-        <v>600000.0</v>
-      </c>
+      <c r="H42" s="119"/>
+      <c r="I42" s="119"/>
       <c r="J42" s="119"/>
       <c r="K42" s="118"/>
-      <c r="L42" s="118" t="s">
-        <v>232</v>
-      </c>
-      <c r="M42" s="119" t="s">
-        <v>232</v>
-      </c>
+      <c r="L42" s="118"/>
+      <c r="M42" s="119"/>
       <c r="N42" s="142"/>
       <c r="O42" s="42"/>
       <c r="P42" s="104"/>
-      <c r="Q42" s="111" t="s">
-        <v>231</v>
-      </c>
-      <c r="R42" s="152" t="s">
-        <v>235</v>
-      </c>
-      <c r="S42" s="152" t="n">
-        <v>1000.0</v>
-      </c>
+      <c r="Q42" s="111"/>
+      <c r="R42" s="152"/>
+      <c r="S42" s="152"/>
       <c r="T42" s="152"/>
-      <c r="U42" s="152" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="V42" s="153" t="n">
-        <v>0.10000000149011612</v>
-      </c>
-      <c r="W42" s="154" t="n">
-        <v>0.10000000149011612</v>
-      </c>
+      <c r="U42" s="152"/>
+      <c r="V42" s="153"/>
+      <c r="W42" s="154"/>
       <c r="X42" s="155"/>
       <c r="Y42" s="48"/>
-      <c r="Z42" s="42" t="s">
-        <v>231</v>
-      </c>
-      <c r="AA42" s="42" t="s">
-        <v>236</v>
-      </c>
-      <c r="AB42" s="42" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="AC42" s="152" t="n">
-        <v>285.71429443359375</v>
-      </c>
-      <c r="AD42" s="154" t="s">
-        <v>237</v>
-      </c>
+      <c r="Z42" s="42"/>
+      <c r="AA42" s="42"/>
+      <c r="AB42" s="42"/>
+      <c r="AC42" s="152"/>
+      <c r="AD42" s="154"/>
       <c r="AE42" s="161"/>
       <c r="AF42" s="101"/>
       <c r="AG42" s="42"/>
@@ -4464,31 +4466,17 @@
         <v>125</v>
       </c>
       <c r="D43" s="27"/>
-      <c r="E43" s="27" t="s">
-        <v>233</v>
-      </c>
+      <c r="E43" s="27"/>
       <c r="F43" s="119"/>
       <c r="G43" s="118"/>
-      <c r="H43" s="119" t="n">
-        <v>10000.0</v>
-      </c>
-      <c r="I43" s="120" t="n">
-        <v>600000.0</v>
-      </c>
+      <c r="H43" s="119"/>
+      <c r="I43" s="120"/>
       <c r="J43" s="119"/>
       <c r="K43" s="118"/>
-      <c r="L43" s="118" t="n">
-        <v>10000.0</v>
-      </c>
-      <c r="M43" s="120" t="n">
-        <v>600000.0</v>
-      </c>
-      <c r="N43" s="269" t="s">
-        <v>234</v>
-      </c>
-      <c r="O43" s="270" t="s">
-        <v>234</v>
-      </c>
+      <c r="L43" s="118"/>
+      <c r="M43" s="120"/>
+      <c r="N43" s="207"/>
+      <c r="O43" s="42"/>
       <c r="P43" s="104"/>
       <c r="Q43" s="111"/>
       <c r="R43" s="152"/>
@@ -4499,21 +4487,11 @@
       <c r="W43" s="154"/>
       <c r="X43" s="155"/>
       <c r="Y43" s="48"/>
-      <c r="Z43" s="42" t="s">
-        <v>233</v>
-      </c>
-      <c r="AA43" s="42" t="s">
-        <v>239</v>
-      </c>
-      <c r="AB43" s="42" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="AC43" s="152" t="n">
-        <v>145.7142791748047</v>
-      </c>
-      <c r="AD43" s="154" t="s">
-        <v>237</v>
-      </c>
+      <c r="Z43" s="42"/>
+      <c r="AA43" s="42"/>
+      <c r="AB43" s="42"/>
+      <c r="AC43" s="152"/>
+      <c r="AD43" s="154"/>
       <c r="AE43" s="162"/>
       <c r="AF43" s="101"/>
       <c r="AG43" s="42"/>
@@ -4538,25 +4516,13 @@
       <c r="N44" s="208"/>
       <c r="O44" s="42"/>
       <c r="P44" s="104"/>
-      <c r="Q44" s="111" t="s">
-        <v>233</v>
-      </c>
-      <c r="R44" s="152" t="s">
-        <v>235</v>
-      </c>
-      <c r="S44" s="152" t="n">
-        <v>1000.0</v>
-      </c>
+      <c r="Q44" s="111"/>
+      <c r="R44" s="152"/>
+      <c r="S44" s="152"/>
       <c r="T44" s="152"/>
-      <c r="U44" s="152" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="V44" s="153" t="n">
-        <v>0.10000000149011612</v>
-      </c>
-      <c r="W44" s="154" t="n">
-        <v>0.10000000149011612</v>
-      </c>
+      <c r="U44" s="152"/>
+      <c r="V44" s="153"/>
+      <c r="W44" s="154"/>
       <c r="X44" s="155"/>
       <c r="Y44" s="48"/>
       <c r="Z44" s="42"/>
@@ -4575,50 +4541,26 @@
     <row customHeight="1" ht="24.95" r="45" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A45" s="125"/>
       <c r="B45" s="125"/>
-      <c r="D45" s="27" t="s">
-        <v>233</v>
-      </c>
-      <c r="E45" s="27" t="s">
-        <v>230</v>
-      </c>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
       <c r="F45" s="118"/>
       <c r="G45" s="118"/>
-      <c r="H45" s="119" t="n">
-        <v>5100.0</v>
-      </c>
-      <c r="I45" s="119" t="n">
-        <v>306000.0</v>
-      </c>
+      <c r="H45" s="119"/>
+      <c r="I45" s="119"/>
       <c r="J45" s="119"/>
       <c r="K45" s="118"/>
-      <c r="L45" s="118" t="s">
-        <v>232</v>
-      </c>
-      <c r="M45" s="119" t="s">
-        <v>232</v>
-      </c>
+      <c r="L45" s="118"/>
+      <c r="M45" s="119"/>
       <c r="N45" s="208"/>
       <c r="O45" s="42"/>
       <c r="P45" s="104"/>
-      <c r="Q45" s="111" t="s">
-        <v>233</v>
-      </c>
-      <c r="R45" s="152" t="s">
-        <v>238</v>
-      </c>
-      <c r="S45" s="152" t="n">
-        <v>2000.0</v>
-      </c>
+      <c r="Q45" s="111"/>
+      <c r="R45" s="152"/>
+      <c r="S45" s="152"/>
       <c r="T45" s="152"/>
-      <c r="U45" s="152" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="V45" s="153" t="n">
-        <v>0.10000000149011612</v>
-      </c>
-      <c r="W45" s="154" t="n">
-        <v>0.10000000149011612</v>
-      </c>
+      <c r="U45" s="152"/>
+      <c r="V45" s="153"/>
+      <c r="W45" s="154"/>
       <c r="X45" s="156"/>
       <c r="Y45" s="48"/>
       <c r="Z45" s="42"/>
@@ -4638,31 +4580,17 @@
       <c r="A46" s="125"/>
       <c r="B46" s="125"/>
       <c r="D46" s="27"/>
-      <c r="E46" s="27" t="s">
-        <v>231</v>
-      </c>
+      <c r="E46" s="27"/>
       <c r="F46" s="118"/>
       <c r="G46" s="118"/>
-      <c r="H46" s="119" t="n">
-        <v>1700.0</v>
-      </c>
-      <c r="I46" s="119" t="n">
-        <v>102000.0</v>
-      </c>
+      <c r="H46" s="119"/>
+      <c r="I46" s="119"/>
       <c r="J46" s="119"/>
       <c r="K46" s="118"/>
-      <c r="L46" s="118" t="n">
-        <v>1700.0</v>
-      </c>
-      <c r="M46" s="119" t="n">
-        <v>102000.0</v>
-      </c>
-      <c r="N46" s="271" t="s">
-        <v>234</v>
-      </c>
-      <c r="O46" s="272" t="s">
-        <v>234</v>
-      </c>
+      <c r="L46" s="118"/>
+      <c r="M46" s="119"/>
+      <c r="N46" s="143"/>
+      <c r="O46" s="42"/>
       <c r="P46" s="104"/>
       <c r="Q46" s="111"/>
       <c r="R46" s="152"/>
@@ -27901,32 +27829,80 @@
       <c r="B42" s="125" t="s">
         <v>124</v>
       </c>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="118"/>
-      <c r="G42" s="118"/>
-      <c r="H42" s="119"/>
-      <c r="I42" s="119"/>
-      <c r="J42" s="119"/>
-      <c r="K42" s="118"/>
-      <c r="L42" s="118"/>
-      <c r="M42" s="119"/>
-      <c r="N42" s="142"/>
+      <c r="D42" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="E42" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="F42" s="118" t="n">
+        <v>0.02499999850988388</v>
+      </c>
+      <c r="G42" s="118" t="n">
+        <v>2.499999850988388E-4</v>
+      </c>
+      <c r="H42" s="119" t="n">
+        <v>124.9999925494194</v>
+      </c>
+      <c r="I42" s="119" t="n">
+        <v>3.7878785621036184E-4</v>
+      </c>
+      <c r="J42" s="119" t="n">
+        <v>0.019999999552965164</v>
+      </c>
+      <c r="K42" s="118" t="n">
+        <v>1.9999999494757503E-4</v>
+      </c>
+      <c r="L42" s="118" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="M42" s="119" t="n">
+        <v>3.030303050763905E-4</v>
+      </c>
+      <c r="N42" s="269" t="s">
+        <v>233</v>
+      </c>
       <c r="O42" s="48"/>
       <c r="P42" s="104"/>
-      <c r="Q42" s="111"/>
-      <c r="R42" s="152"/>
-      <c r="S42" s="152"/>
-      <c r="T42" s="152"/>
-      <c r="U42" s="152"/>
-      <c r="V42" s="152"/>
-      <c r="W42" s="152"/>
-      <c r="X42" s="152"/>
-      <c r="Y42" s="153"/>
-      <c r="Z42" s="152"/>
-      <c r="AA42" s="152"/>
-      <c r="AB42" s="154"/>
-      <c r="AC42" s="155"/>
+      <c r="Q42" s="111" t="s">
+        <v>234</v>
+      </c>
+      <c r="R42" s="152" t="s">
+        <v>235</v>
+      </c>
+      <c r="S42" s="152" t="n">
+        <v>28000.0</v>
+      </c>
+      <c r="T42" s="152" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="U42" s="152" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="V42" s="152" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="W42" s="152" t="n">
+        <v>0.03787878667935729</v>
+      </c>
+      <c r="X42" s="152" t="n">
+        <v>7.575757335871458E-4</v>
+      </c>
+      <c r="Y42" s="153" t="n">
+        <v>3.0303028651646206E-4</v>
+      </c>
+      <c r="Z42" s="152" t="n">
+        <v>0.030303029343485832</v>
+      </c>
+      <c r="AA42" s="152" t="n">
+        <v>6.06060610152781E-4</v>
+      </c>
+      <c r="AB42" s="154" t="n">
+        <v>2.4242424115072936E-4</v>
+      </c>
+      <c r="AC42" s="270" t="s">
+        <v>233</v>
+      </c>
       <c r="AD42" s="48"/>
       <c r="AE42" s="42"/>
       <c r="AF42" s="42"/>
@@ -27935,10 +27911,18 @@
       <c r="AI42" s="154"/>
       <c r="AJ42" s="161"/>
       <c r="AK42" s="101"/>
-      <c r="AL42" s="42"/>
-      <c r="AM42" s="42"/>
-      <c r="AN42" s="29"/>
-      <c r="AO42" s="29"/>
+      <c r="AL42" s="42" t="s">
+        <v>231</v>
+      </c>
+      <c r="AM42" s="42" t="s">
+        <v>235</v>
+      </c>
+      <c r="AN42" s="29" t="n">
+        <v>3.787878667935729E-4</v>
+      </c>
+      <c r="AO42" s="29" t="n">
+        <v>0.3030303120613098</v>
+      </c>
       <c r="AP42" s="16"/>
     </row>
     <row customHeight="1" ht="24.95" r="43" spans="1:42" x14ac:dyDescent="0.4">
@@ -27948,32 +27932,80 @@
       <c r="B43" s="125" t="s">
         <v>125</v>
       </c>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="119"/>
-      <c r="G43" s="118"/>
-      <c r="H43" s="119"/>
-      <c r="I43" s="120"/>
-      <c r="J43" s="119"/>
-      <c r="K43" s="118"/>
-      <c r="L43" s="118"/>
-      <c r="M43" s="120"/>
-      <c r="N43" s="121"/>
+      <c r="D43" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="E43" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="F43" s="119" t="n">
+        <v>0.019999999552965164</v>
+      </c>
+      <c r="G43" s="118" t="n">
+        <v>1.9999999552965163E-4</v>
+      </c>
+      <c r="H43" s="119" t="n">
+        <v>99.99999776482582</v>
+      </c>
+      <c r="I43" s="120" t="n">
+        <v>3.0303029625704795E-4</v>
+      </c>
+      <c r="J43" s="119" t="n">
+        <v>0.02499999850988388</v>
+      </c>
+      <c r="K43" s="118" t="n">
+        <v>2.4999998277053237E-4</v>
+      </c>
+      <c r="L43" s="118" t="n">
+        <v>124.99999237060547</v>
+      </c>
+      <c r="M43" s="120" t="n">
+        <v>3.787878667935729E-4</v>
+      </c>
+      <c r="N43" s="274" t="s">
+        <v>233</v>
+      </c>
       <c r="O43" s="48"/>
       <c r="P43" s="104"/>
-      <c r="Q43" s="111"/>
-      <c r="R43" s="152"/>
-      <c r="S43" s="152"/>
-      <c r="T43" s="152"/>
-      <c r="U43" s="152"/>
-      <c r="V43" s="152"/>
-      <c r="W43" s="152"/>
-      <c r="X43" s="152"/>
-      <c r="Y43" s="153"/>
-      <c r="Z43" s="152"/>
-      <c r="AA43" s="152"/>
-      <c r="AB43" s="154"/>
-      <c r="AC43" s="155"/>
+      <c r="Q43" s="111" t="s">
+        <v>234</v>
+      </c>
+      <c r="R43" s="152" t="s">
+        <v>236</v>
+      </c>
+      <c r="S43" s="152" t="n">
+        <v>100000.0</v>
+      </c>
+      <c r="T43" s="152" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="U43" s="152" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="V43" s="152" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="W43" s="152" t="n">
+        <v>0.03787878667935729</v>
+      </c>
+      <c r="X43" s="152" t="n">
+        <v>7.575757335871458E-4</v>
+      </c>
+      <c r="Y43" s="153" t="n">
+        <v>0.0010822510855538505</v>
+      </c>
+      <c r="Z43" s="152" t="n">
+        <v>0.030303029343485832</v>
+      </c>
+      <c r="AA43" s="152" t="n">
+        <v>6.06060610152781E-4</v>
+      </c>
+      <c r="AB43" s="154" t="n">
+        <v>8.658008300699294E-4</v>
+      </c>
+      <c r="AC43" s="271" t="s">
+        <v>233</v>
+      </c>
       <c r="AD43" s="48"/>
       <c r="AE43" s="42"/>
       <c r="AF43" s="42"/>
@@ -27982,10 +28014,18 @@
       <c r="AI43" s="154"/>
       <c r="AJ43" s="162"/>
       <c r="AK43" s="101"/>
-      <c r="AL43" s="42"/>
-      <c r="AM43" s="42"/>
-      <c r="AN43" s="29"/>
-      <c r="AO43" s="29"/>
+      <c r="AL43" s="42" t="s">
+        <v>231</v>
+      </c>
+      <c r="AM43" s="42" t="s">
+        <v>236</v>
+      </c>
+      <c r="AN43" s="29" t="n">
+        <v>3.787878667935729E-4</v>
+      </c>
+      <c r="AO43" s="29" t="n">
+        <v>0.3030303120613098</v>
+      </c>
       <c r="AP43" s="16"/>
     </row>
     <row customHeight="1" ht="24.75" r="44" spans="1:42" x14ac:dyDescent="0.4">
@@ -28004,19 +28044,45 @@
       <c r="N44" s="122"/>
       <c r="O44" s="48"/>
       <c r="P44" s="104"/>
-      <c r="Q44" s="111"/>
-      <c r="R44" s="152"/>
-      <c r="S44" s="152"/>
-      <c r="T44" s="152"/>
-      <c r="U44" s="152"/>
-      <c r="V44" s="152"/>
-      <c r="W44" s="152"/>
-      <c r="X44" s="152"/>
-      <c r="Y44" s="153"/>
-      <c r="Z44" s="152"/>
-      <c r="AA44" s="152"/>
-      <c r="AB44" s="154"/>
-      <c r="AC44" s="155"/>
+      <c r="Q44" s="111" t="s">
+        <v>234</v>
+      </c>
+      <c r="R44" s="152" t="s">
+        <v>237</v>
+      </c>
+      <c r="S44" s="152" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="T44" s="152" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="U44" s="152" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="V44" s="152" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="W44" s="152" t="n">
+        <v>0.03787878667935729</v>
+      </c>
+      <c r="X44" s="152" t="n">
+        <v>7.575757335871458E-4</v>
+      </c>
+      <c r="Y44" s="153" t="n">
+        <v>2.164502143859863E-5</v>
+      </c>
+      <c r="Z44" s="152" t="n">
+        <v>0.030303029343485832</v>
+      </c>
+      <c r="AA44" s="152" t="n">
+        <v>6.06060610152781E-4</v>
+      </c>
+      <c r="AB44" s="154" t="n">
+        <v>1.7316016965196468E-5</v>
+      </c>
+      <c r="AC44" s="272" t="s">
+        <v>233</v>
+      </c>
       <c r="AD44" s="48"/>
       <c r="AE44" s="42"/>
       <c r="AF44" s="42"/>
@@ -28025,10 +28091,18 @@
       <c r="AI44" s="154"/>
       <c r="AJ44" s="163"/>
       <c r="AK44" s="101"/>
-      <c r="AL44" s="42"/>
-      <c r="AM44" s="42"/>
-      <c r="AN44" s="29"/>
-      <c r="AO44" s="29"/>
+      <c r="AL44" s="42" t="s">
+        <v>231</v>
+      </c>
+      <c r="AM44" s="42" t="s">
+        <v>237</v>
+      </c>
+      <c r="AN44" s="29" t="n">
+        <v>3.787878667935729E-4</v>
+      </c>
+      <c r="AO44" s="29" t="n">
+        <v>0.3030303120613098</v>
+      </c>
       <c r="AP44" s="16"/>
     </row>
     <row customHeight="1" ht="24.95" r="45" spans="1:42" x14ac:dyDescent="0.4">
@@ -28047,19 +28121,45 @@
       <c r="N45" s="122"/>
       <c r="O45" s="48"/>
       <c r="P45" s="104"/>
-      <c r="Q45" s="111"/>
-      <c r="R45" s="152"/>
-      <c r="S45" s="152"/>
-      <c r="T45" s="152"/>
-      <c r="U45" s="152"/>
-      <c r="V45" s="152"/>
-      <c r="W45" s="152"/>
-      <c r="X45" s="152"/>
-      <c r="Y45" s="153"/>
-      <c r="Z45" s="152"/>
-      <c r="AA45" s="152"/>
-      <c r="AB45" s="154"/>
-      <c r="AC45" s="156"/>
+      <c r="Q45" s="111" t="s">
+        <v>234</v>
+      </c>
+      <c r="R45" s="152" t="s">
+        <v>88</v>
+      </c>
+      <c r="S45" s="152" t="n">
+        <v>50000.0</v>
+      </c>
+      <c r="T45" s="152" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="U45" s="152" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="V45" s="152" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="W45" s="152" t="n">
+        <v>0.03787878667935729</v>
+      </c>
+      <c r="X45" s="152" t="n">
+        <v>7.575757335871458E-4</v>
+      </c>
+      <c r="Y45" s="153" t="n">
+        <v>5.411255427769252E-4</v>
+      </c>
+      <c r="Z45" s="152" t="n">
+        <v>0.030303029343485832</v>
+      </c>
+      <c r="AA45" s="152" t="n">
+        <v>6.06060610152781E-4</v>
+      </c>
+      <c r="AB45" s="154" t="n">
+        <v>4.329004150349647E-4</v>
+      </c>
+      <c r="AC45" s="273" t="s">
+        <v>233</v>
+      </c>
       <c r="AD45" s="48"/>
       <c r="AE45" s="42"/>
       <c r="AF45" s="42"/>
@@ -28068,10 +28168,18 @@
       <c r="AI45" s="154"/>
       <c r="AJ45" s="164"/>
       <c r="AK45" s="101"/>
-      <c r="AL45" s="42"/>
-      <c r="AM45" s="42"/>
-      <c r="AN45" s="29"/>
-      <c r="AO45" s="29"/>
+      <c r="AL45" s="42" t="s">
+        <v>231</v>
+      </c>
+      <c r="AM45" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN45" s="29" t="n">
+        <v>3.787878667935729E-4</v>
+      </c>
+      <c r="AO45" s="29" t="n">
+        <v>0.3030303120613098</v>
+      </c>
       <c r="AP45" s="16"/>
     </row>
     <row customHeight="1" ht="24.95" r="46" spans="1:42" x14ac:dyDescent="0.4">
@@ -28111,10 +28219,18 @@
       <c r="AI46" s="154"/>
       <c r="AJ46" s="165"/>
       <c r="AK46" s="101"/>
-      <c r="AL46" s="42"/>
-      <c r="AM46" s="42"/>
-      <c r="AN46" s="29"/>
-      <c r="AO46" s="29"/>
+      <c r="AL46" s="42" t="s">
+        <v>232</v>
+      </c>
+      <c r="AM46" s="42" t="s">
+        <v>235</v>
+      </c>
+      <c r="AN46" s="29" t="n">
+        <v>3.030303050763905E-4</v>
+      </c>
+      <c r="AO46" s="29" t="n">
+        <v>0.3030303120613098</v>
+      </c>
       <c r="AP46" s="16"/>
     </row>
     <row customHeight="1" ht="24.95" r="47" spans="1:42" x14ac:dyDescent="0.4">
@@ -28132,19 +28248,45 @@
       <c r="M47" s="120"/>
       <c r="N47" s="123"/>
       <c r="P47" s="100"/>
-      <c r="Q47" s="109"/>
-      <c r="R47" s="153"/>
-      <c r="S47" s="157"/>
-      <c r="T47" s="157"/>
-      <c r="U47" s="152"/>
-      <c r="V47" s="152"/>
-      <c r="W47" s="153"/>
-      <c r="X47" s="153"/>
-      <c r="Y47" s="153"/>
-      <c r="Z47" s="153"/>
-      <c r="AA47" s="153"/>
-      <c r="AB47" s="158"/>
-      <c r="AC47" s="155"/>
+      <c r="Q47" s="109" t="s">
+        <v>239</v>
+      </c>
+      <c r="R47" s="153" t="s">
+        <v>235</v>
+      </c>
+      <c r="S47" s="157" t="n">
+        <v>28000.0</v>
+      </c>
+      <c r="T47" s="157" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="U47" s="152" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="V47" s="152" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="W47" s="153" t="n">
+        <v>0.03030303050763905</v>
+      </c>
+      <c r="X47" s="153" t="n">
+        <v>6.06060610152781E-4</v>
+      </c>
+      <c r="Y47" s="153" t="n">
+        <v>2.4242425646100725E-4</v>
+      </c>
+      <c r="Z47" s="153" t="n">
+        <v>0.03787878528237343</v>
+      </c>
+      <c r="AA47" s="153" t="n">
+        <v>7.575757335871458E-4</v>
+      </c>
+      <c r="AB47" s="158" t="n">
+        <v>3.0303027597256005E-4</v>
+      </c>
+      <c r="AC47" s="275" t="s">
+        <v>233</v>
+      </c>
       <c r="AD47" s="16"/>
       <c r="AE47" s="55"/>
       <c r="AF47" s="29"/>
@@ -28153,10 +28295,18 @@
       <c r="AI47" s="158"/>
       <c r="AJ47" s="166"/>
       <c r="AK47" s="101"/>
-      <c r="AL47" s="55"/>
-      <c r="AM47" s="55"/>
-      <c r="AN47" s="29"/>
-      <c r="AO47" s="29"/>
+      <c r="AL47" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="AM47" s="55" t="s">
+        <v>236</v>
+      </c>
+      <c r="AN47" s="29" t="n">
+        <v>3.030303050763905E-4</v>
+      </c>
+      <c r="AO47" s="29" t="n">
+        <v>0.3030303120613098</v>
+      </c>
       <c r="AP47" s="16"/>
     </row>
     <row customHeight="1" ht="24.95" r="48" spans="1:42" x14ac:dyDescent="0.4">
@@ -28174,19 +28324,45 @@
       <c r="M48" s="119"/>
       <c r="N48" s="123"/>
       <c r="P48" s="100"/>
-      <c r="Q48" s="109"/>
-      <c r="R48" s="153"/>
-      <c r="S48" s="157"/>
-      <c r="T48" s="157"/>
-      <c r="U48" s="152"/>
-      <c r="V48" s="152"/>
-      <c r="W48" s="153"/>
-      <c r="X48" s="153"/>
-      <c r="Y48" s="153"/>
-      <c r="Z48" s="153"/>
-      <c r="AA48" s="153"/>
-      <c r="AB48" s="158"/>
-      <c r="AC48" s="155"/>
+      <c r="Q48" s="109" t="s">
+        <v>239</v>
+      </c>
+      <c r="R48" s="153" t="s">
+        <v>236</v>
+      </c>
+      <c r="S48" s="157" t="n">
+        <v>100000.0</v>
+      </c>
+      <c r="T48" s="157" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="U48" s="152" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="V48" s="152" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="W48" s="153" t="n">
+        <v>0.03030303050763905</v>
+      </c>
+      <c r="X48" s="153" t="n">
+        <v>6.06060610152781E-4</v>
+      </c>
+      <c r="Y48" s="153" t="n">
+        <v>8.658008575439453E-4</v>
+      </c>
+      <c r="Z48" s="153" t="n">
+        <v>0.03787878528237343</v>
+      </c>
+      <c r="AA48" s="153" t="n">
+        <v>7.575757335871458E-4</v>
+      </c>
+      <c r="AB48" s="158" t="n">
+        <v>0.0010822509648278356</v>
+      </c>
+      <c r="AC48" s="276" t="s">
+        <v>233</v>
+      </c>
       <c r="AD48" s="16"/>
       <c r="AE48" s="55"/>
       <c r="AF48" s="29"/>
@@ -28195,10 +28371,18 @@
       <c r="AI48" s="158"/>
       <c r="AJ48" s="167"/>
       <c r="AK48" s="101"/>
-      <c r="AL48" s="55"/>
-      <c r="AM48" s="55"/>
-      <c r="AN48" s="29"/>
-      <c r="AO48" s="29"/>
+      <c r="AL48" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="AM48" s="55" t="s">
+        <v>237</v>
+      </c>
+      <c r="AN48" s="29" t="n">
+        <v>3.030303050763905E-4</v>
+      </c>
+      <c r="AO48" s="29" t="n">
+        <v>0.3030303120613098</v>
+      </c>
       <c r="AP48" s="16"/>
     </row>
     <row customHeight="1" ht="24.95" r="49" spans="1:42" x14ac:dyDescent="0.4">
@@ -28216,19 +28400,45 @@
       <c r="M49" s="119"/>
       <c r="N49" s="144"/>
       <c r="P49" s="100"/>
-      <c r="Q49" s="109"/>
-      <c r="R49" s="153"/>
-      <c r="S49" s="157"/>
-      <c r="T49" s="157"/>
-      <c r="U49" s="152"/>
-      <c r="V49" s="152"/>
-      <c r="W49" s="153"/>
-      <c r="X49" s="153"/>
-      <c r="Y49" s="153"/>
-      <c r="Z49" s="153"/>
-      <c r="AA49" s="153"/>
-      <c r="AB49" s="158"/>
-      <c r="AC49" s="155"/>
+      <c r="Q49" s="109" t="s">
+        <v>239</v>
+      </c>
+      <c r="R49" s="153" t="s">
+        <v>237</v>
+      </c>
+      <c r="S49" s="157" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="T49" s="157" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="U49" s="152" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="V49" s="152" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="W49" s="153" t="n">
+        <v>0.03030303050763905</v>
+      </c>
+      <c r="X49" s="153" t="n">
+        <v>6.06060610152781E-4</v>
+      </c>
+      <c r="Y49" s="153" t="n">
+        <v>1.7316017832074845E-5</v>
+      </c>
+      <c r="Z49" s="153" t="n">
+        <v>0.03787878528237343</v>
+      </c>
+      <c r="AA49" s="153" t="n">
+        <v>7.575757335871458E-4</v>
+      </c>
+      <c r="AB49" s="158" t="n">
+        <v>2.1645020751748234E-5</v>
+      </c>
+      <c r="AC49" s="277" t="s">
+        <v>233</v>
+      </c>
       <c r="AD49" s="16"/>
       <c r="AE49" s="55"/>
       <c r="AF49" s="29"/>
@@ -28237,10 +28447,18 @@
       <c r="AI49" s="158"/>
       <c r="AJ49" s="168"/>
       <c r="AK49" s="101"/>
-      <c r="AL49" s="55"/>
-      <c r="AM49" s="55"/>
-      <c r="AN49" s="29"/>
-      <c r="AO49" s="29"/>
+      <c r="AL49" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="AM49" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN49" s="29" t="n">
+        <v>3.030303050763905E-4</v>
+      </c>
+      <c r="AO49" s="29" t="n">
+        <v>0.3030303120613098</v>
+      </c>
       <c r="AP49" s="16"/>
     </row>
     <row customHeight="1" ht="24.95" r="50" spans="1:42" x14ac:dyDescent="0.4">
@@ -28258,19 +28476,45 @@
       <c r="M50" s="119"/>
       <c r="N50" s="123"/>
       <c r="P50" s="100"/>
-      <c r="Q50" s="109"/>
-      <c r="R50" s="153"/>
-      <c r="S50" s="157"/>
-      <c r="T50" s="157"/>
-      <c r="U50" s="152"/>
-      <c r="V50" s="152"/>
-      <c r="W50" s="153"/>
-      <c r="X50" s="152"/>
-      <c r="Y50" s="152"/>
-      <c r="Z50" s="152"/>
-      <c r="AA50" s="152"/>
-      <c r="AB50" s="154"/>
-      <c r="AC50" s="155"/>
+      <c r="Q50" s="109" t="s">
+        <v>239</v>
+      </c>
+      <c r="R50" s="153" t="s">
+        <v>88</v>
+      </c>
+      <c r="S50" s="157" t="n">
+        <v>50000.0</v>
+      </c>
+      <c r="T50" s="157" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="U50" s="152" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="V50" s="152" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="W50" s="153" t="n">
+        <v>0.03030303050763905</v>
+      </c>
+      <c r="X50" s="152" t="n">
+        <v>6.06060610152781E-4</v>
+      </c>
+      <c r="Y50" s="152" t="n">
+        <v>4.3290042877197263E-4</v>
+      </c>
+      <c r="Z50" s="152" t="n">
+        <v>0.03787878528237343</v>
+      </c>
+      <c r="AA50" s="152" t="n">
+        <v>7.575757335871458E-4</v>
+      </c>
+      <c r="AB50" s="154" t="n">
+        <v>5.411254824139178E-4</v>
+      </c>
+      <c r="AC50" s="278" t="s">
+        <v>233</v>
+      </c>
       <c r="AD50" s="39"/>
       <c r="AE50" s="42"/>
       <c r="AF50" s="42"/>
